--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sensata2com-my.sharepoint.com/personal/sofithcheallaigh_sensata_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4813ABE4-339A-413F-8220-E41DC710BFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667DE4F5-5099-43B1-99B6-BD71596FAED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Keras Seq" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Keras Seq" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="25">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -108,6 +109,9 @@
   <si>
     <t>Acc</t>
   </si>
+  <si>
+    <t>2,10</t>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,61 +525,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,6 +612,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>258147</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C4817F-C5D0-351D-D601-B75D5BC6BB50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="190500"/>
+          <a:ext cx="6963747" cy="5649113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -644,7 +709,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1033,20 +1098,696 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9512EAE-7E03-4C9A-9560-62E0DE7C04A5}">
+  <dimension ref="A2:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>2</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="26">
+        <v>10</v>
+      </c>
+      <c r="H7" s="26">
+        <v>16</v>
+      </c>
+      <c r="I7" s="26">
+        <v>2.4950000000000001</v>
+      </c>
+      <c r="J7" s="42">
+        <v>8.2260000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>2</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="41">
+        <v>10</v>
+      </c>
+      <c r="H8" s="41">
+        <v>32</v>
+      </c>
+      <c r="I8" s="41">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="J8" s="43">
+        <v>8.1890000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>2</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="41">
+        <v>10</v>
+      </c>
+      <c r="H9" s="41">
+        <v>64</v>
+      </c>
+      <c r="I9" s="41">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="J9" s="43">
+        <v>8.1940000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>2</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="41">
+        <v>10</v>
+      </c>
+      <c r="H10" s="41">
+        <v>128</v>
+      </c>
+      <c r="I10" s="41">
+        <v>2.129</v>
+      </c>
+      <c r="J10" s="43">
+        <v>6.2149999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>2</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="41">
+        <v>10</v>
+      </c>
+      <c r="H11" s="41">
+        <v>256</v>
+      </c>
+      <c r="I11" s="41">
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="J11" s="43">
+        <v>8.2080000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>2</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="41">
+        <v>10</v>
+      </c>
+      <c r="H12" s="41">
+        <v>512</v>
+      </c>
+      <c r="I12" s="41">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="J12" s="24">
+        <v>8.1989999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>2</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="41">
+        <v>10</v>
+      </c>
+      <c r="H13" s="41">
+        <v>1028</v>
+      </c>
+      <c r="I13" s="41">
+        <v>2.4729999999999999</v>
+      </c>
+      <c r="J13" s="24">
+        <v>8.2110000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="6">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2056</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="J14" s="7">
+        <v>8.2059999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="26">
+        <v>20</v>
+      </c>
+      <c r="H15" s="26">
+        <v>16</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="J15" s="42">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>2</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="23">
+        <v>20</v>
+      </c>
+      <c r="H16" s="41">
+        <v>32</v>
+      </c>
+      <c r="I16" s="41">
+        <v>2.456</v>
+      </c>
+      <c r="J16" s="41">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>2</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="23">
+        <v>20</v>
+      </c>
+      <c r="H17" s="41">
+        <v>64</v>
+      </c>
+      <c r="I17" s="41">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="J17" s="41">
+        <v>5.2779999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="41">
+        <v>2</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="23">
+        <v>20</v>
+      </c>
+      <c r="H18" s="41">
+        <v>128</v>
+      </c>
+      <c r="I18" s="41">
+        <v>2.4580000000000002</v>
+      </c>
+      <c r="J18" s="41">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="41">
+        <v>2</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="23">
+        <v>20</v>
+      </c>
+      <c r="H19" s="41">
+        <v>256</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.4460000000000002</v>
+      </c>
+      <c r="J19" s="1">
+        <v>8.2010000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCBFCE0-D62A-4787-8AAA-20AB7ACA5ECA}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="10" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1054,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1062,123 +1803,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
-        <v>2</v>
-      </c>
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="28">
+      <c r="C6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="26">
         <v>10</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="26">
         <v>16</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="26">
         <v>2.4470000000000001</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="27">
         <v>8.1850000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
-        <v>2</v>
-      </c>
-      <c r="B7" s="23" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="C7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="1">
         <v>32</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="1">
         <v>0.45</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="24">
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1205,12 +1946,12 @@
       <c r="I8" s="13">
         <v>0.65600000000000003</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="29">
         <v>0.877</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
         <v>2</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -1237,44 +1978,44 @@
       <c r="I9" s="19">
         <v>0.61399999999999999</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="31">
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
-        <v>2</v>
-      </c>
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="23">
+      <c r="C10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="1">
         <v>128</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="1">
         <v>0.72299999999999998</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="24">
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1301,12 +2042,12 @@
       <c r="I11" s="13">
         <v>0.45400000000000001</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="29">
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
         <v>2</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -1333,12 +2074,12 @@
       <c r="I12" s="16">
         <v>0.67900000000000005</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="33">
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
         <v>2</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1365,12 +2106,12 @@
       <c r="I13" s="16">
         <v>0.72</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="33">
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
         <v>2</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -1397,12 +2138,12 @@
       <c r="I14" s="19">
         <v>0.443</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="31">
         <v>0.311</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
         <v>2</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -1429,12 +2170,12 @@
       <c r="I15" s="13">
         <v>2.464</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="29">
         <v>8.202</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
         <v>2</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -1461,43 +2202,43 @@
       <c r="I16" s="19">
         <v>2.4649999999999999</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="31">
         <v>8.1869999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
-        <v>2</v>
-      </c>
-      <c r="B17" s="23" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="23">
+      <c r="C17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1">
         <v>10</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="1">
         <v>1024</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="1">
         <v>2.4620000000000002</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="24">
         <v>8.1929999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -1519,7 +2260,7 @@
       <c r="G18" s="6">
         <v>10</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="6">
         <v>4096</v>
       </c>
       <c r="I18" s="6">
@@ -1529,23 +2270,23 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <v>2</v>
-      </c>
-      <c r="B19" s="23" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="24" t="s">
+      <c r="C19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="1">
@@ -1561,23 +2302,23 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <v>2</v>
-      </c>
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="24" t="s">
+      <c r="C20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="1">
@@ -1593,23 +2334,23 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
-        <v>2</v>
-      </c>
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="24" t="s">
+      <c r="C21" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="1">
@@ -1625,23 +2366,23 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
-        <v>2</v>
-      </c>
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="24" t="s">
+      <c r="C22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="1">
@@ -1657,23 +2398,23 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
-        <v>2</v>
-      </c>
-      <c r="B23" s="23" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="24" t="s">
+      <c r="C23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="1">
@@ -1689,23 +2430,23 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
-        <v>2</v>
-      </c>
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="24" t="s">
+      <c r="C24" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="1">
@@ -1721,23 +2462,23 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
-        <v>2</v>
-      </c>
-      <c r="B25" s="23" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="24" t="s">
+      <c r="C25" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="1">
@@ -1753,23 +2494,23 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
-        <v>2</v>
-      </c>
-      <c r="B26" s="23" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="24" t="s">
+      <c r="C26" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="1">
@@ -1796,7 +2537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0787812-28CF-4AB7-828B-54F80CCDA331}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -1804,20 +2545,20 @@
       <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1833,7 +2574,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +2590,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1861,53 +2602,53 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="24" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667DE4F5-5099-43B1-99B6-BD71596FAED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C57185-70AC-4B66-817D-88E587955EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Keras Seq" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="36">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -83,12 +82,6 @@
     <t>batch_size</t>
   </si>
   <si>
-    <t>Loss Val</t>
-  </si>
-  <si>
-    <t>Acc Val</t>
-  </si>
-  <si>
     <t>Layer</t>
   </si>
   <si>
@@ -104,21 +97,68 @@
     <t>10,10</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Acc</t>
   </si>
   <si>
     <t>2,10</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Closed Door</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Sparse Categorical Crossentropy</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Relu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S </t>
+  </si>
+  <si>
+    <t>Softmax</t>
+  </si>
+  <si>
+    <t>2,20,10</t>
+  </si>
+  <si>
+    <t>R-S</t>
+  </si>
+  <si>
+    <t>R-R-S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -459,139 +499,273 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -612,55 +786,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>258147</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>86513</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C4817F-C5D0-351D-D601-B75D5BC6BB50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="190500"/>
-          <a:ext cx="6963747" cy="5649113"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -698,99 +823,6 @@
         <a:xfrm>
           <a:off x="7010400" y="655320"/>
           <a:ext cx="4678487" cy="2148840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>102836</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>6787</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>43387</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{588904FF-24B1-4283-B257-28EA115597B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6583680" y="659096"/>
-          <a:ext cx="4891207" cy="2508491"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>164858</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F95FB5-9AE9-45DC-A495-D1D522989EE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6591300" y="3307080"/>
-          <a:ext cx="5041658" cy="2918460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1099,27 +1131,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9512EAE-7E03-4C9A-9560-62E0DE7C04A5}">
-  <dimension ref="A2:J30"/>
+  <dimension ref="A2:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1155,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,9 +1171,13 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1162,472 +1186,475 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="H6" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>2</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="21">
         <v>20</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="H7" s="50">
+        <v>32</v>
+      </c>
+      <c r="I7" s="50">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>3</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="38">
+        <v>20</v>
+      </c>
+      <c r="H8" s="45">
+        <v>32</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="J8" s="39">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>2</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="36">
+        <v>30</v>
+      </c>
+      <c r="H9" s="48">
+        <v>32</v>
+      </c>
+      <c r="I9" s="48">
+        <v>0.748</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>3</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="38">
+        <v>30</v>
+      </c>
+      <c r="H10" s="45">
+        <v>32</v>
+      </c>
+      <c r="I10" s="45">
+        <v>0.999</v>
+      </c>
+      <c r="J10" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>2</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="41">
+        <v>40</v>
+      </c>
+      <c r="H11" s="47">
+        <v>32</v>
+      </c>
+      <c r="I11" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="42">
+        <v>2.3029999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="38">
+        <v>40</v>
+      </c>
+      <c r="H12" s="45">
+        <v>32</v>
+      </c>
+      <c r="I12" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="J12" s="39">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>2</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="36">
+        <v>50</v>
+      </c>
+      <c r="H13" s="48">
+        <v>32</v>
+      </c>
+      <c r="I13" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>2.3029999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3">
+        <v>50</v>
+      </c>
+      <c r="H14" s="49">
+        <v>32</v>
+      </c>
+      <c r="I14" s="49">
+        <v>0.99</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>2</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="29">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="s">
+      <c r="H15" s="50">
+        <v>64</v>
+      </c>
+      <c r="I15" s="50">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J15" s="22">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
+        <v>3</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="26">
+      <c r="E16" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="17">
         <v>10</v>
       </c>
-      <c r="H7" s="26">
-        <v>16</v>
-      </c>
-      <c r="I7" s="26">
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="J7" s="42">
-        <v>8.2260000000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>2</v>
-      </c>
-      <c r="B8" s="41" t="s">
+      <c r="H16" s="48">
+        <v>64</v>
+      </c>
+      <c r="I16" s="48">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="J16" s="36">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
+        <v>2</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="41">
-        <v>10</v>
-      </c>
-      <c r="H8" s="41">
-        <v>32</v>
-      </c>
-      <c r="I8" s="41">
-        <v>2.4569999999999999</v>
-      </c>
-      <c r="J8" s="43">
-        <v>8.1890000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <v>2</v>
-      </c>
-      <c r="B9" s="41" t="s">
+      <c r="E17" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="17">
+        <v>20</v>
+      </c>
+      <c r="H17" s="48">
+        <v>64</v>
+      </c>
+      <c r="I17" s="48">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="J17" s="36">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>3</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="41">
-        <v>10</v>
-      </c>
-      <c r="H9" s="41">
+      <c r="E18" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="17">
+        <v>20</v>
+      </c>
+      <c r="H18" s="48">
         <v>64</v>
       </c>
-      <c r="I9" s="41">
-        <v>2.4630000000000001</v>
-      </c>
-      <c r="J9" s="43">
-        <v>8.1940000000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>2</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="41">
-        <v>10</v>
-      </c>
-      <c r="H10" s="41">
-        <v>128</v>
-      </c>
-      <c r="I10" s="41">
-        <v>2.129</v>
-      </c>
-      <c r="J10" s="43">
-        <v>6.2149999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <v>2</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="41">
-        <v>10</v>
-      </c>
-      <c r="H11" s="41">
-        <v>256</v>
-      </c>
-      <c r="I11" s="41">
-        <v>2.4710000000000001</v>
-      </c>
-      <c r="J11" s="43">
-        <v>8.2080000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <v>2</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="41">
-        <v>10</v>
-      </c>
-      <c r="H12" s="41">
-        <v>512</v>
-      </c>
-      <c r="I12" s="41">
-        <v>2.4649999999999999</v>
-      </c>
-      <c r="J12" s="24">
-        <v>8.1989999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
-        <v>2</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="41">
-        <v>10</v>
-      </c>
-      <c r="H13" s="41">
-        <v>1028</v>
-      </c>
-      <c r="I13" s="41">
-        <v>2.4729999999999999</v>
-      </c>
-      <c r="J13" s="24">
-        <v>8.2110000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="6">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6">
-        <v>2056</v>
-      </c>
-      <c r="I14" s="6">
-        <v>2.4620000000000002</v>
-      </c>
-      <c r="J14" s="7">
-        <v>8.2059999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
-        <v>2</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="26">
-        <v>20</v>
-      </c>
-      <c r="H15" s="26">
-        <v>16</v>
-      </c>
-      <c r="I15" s="26">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="J15" s="42">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
-        <v>2</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="23">
-        <v>20</v>
-      </c>
-      <c r="H16" s="41">
-        <v>32</v>
-      </c>
-      <c r="I16" s="41">
-        <v>2.456</v>
-      </c>
-      <c r="J16" s="41">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
-        <v>2</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="23">
-        <v>20</v>
-      </c>
-      <c r="H17" s="41">
-        <v>64</v>
-      </c>
-      <c r="I17" s="41">
-        <v>1.5589999999999999</v>
-      </c>
-      <c r="J17" s="41">
-        <v>5.2779999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
-        <v>2</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="23">
-        <v>20</v>
-      </c>
-      <c r="H18" s="41">
-        <v>128</v>
-      </c>
-      <c r="I18" s="41">
-        <v>2.4580000000000002</v>
-      </c>
-      <c r="J18" s="41">
-        <v>8.19</v>
+      <c r="I18" s="48">
+        <v>0.998</v>
+      </c>
+      <c r="J18" s="36">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
-        <v>2</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="23">
-        <v>20</v>
-      </c>
-      <c r="H19" s="41">
-        <v>256</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2.4460000000000002</v>
-      </c>
-      <c r="J19" s="1">
-        <v>8.2010000000000005</v>
-      </c>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1689,78 +1716,6 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A5:C5"/>
@@ -1768,7 +1723,7 @@
     <mergeCell ref="G5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1805,104 +1760,104 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="40"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <v>2</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="A6" s="20">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="21">
         <v>10</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="21">
         <v>16</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="21">
         <v>2.4470000000000001</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="22">
         <v>8.1850000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="16">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="1">
@@ -1914,91 +1869,91 @@
       <c r="I7" s="1">
         <v>0.45</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="19">
         <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>2</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="23">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="8">
         <v>10</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="8">
         <v>64</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="8">
         <v>0.65600000000000003</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="24">
         <v>0.877</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>2</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="25">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="14">
         <v>10</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="14">
         <v>64</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="14">
         <v>0.61399999999999999</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="26">
         <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="1">
@@ -2010,219 +1965,219 @@
       <c r="I10" s="1">
         <v>0.72299999999999998</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="19">
         <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>2</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="8">
         <v>10</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="8">
         <v>256</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="8">
         <v>0.45400000000000001</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="24">
         <v>0.34599999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
-        <v>2</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="27">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="11">
         <v>10</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="11">
         <v>256</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="11">
         <v>0.67900000000000005</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="28">
         <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
-        <v>2</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="27">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="11">
         <v>10</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="11">
         <v>256</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="11">
         <v>0.72</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="28">
         <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>2</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="20" t="s">
+      <c r="A14" s="25">
+        <v>2</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="14">
         <v>10</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="14">
         <v>256</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="14">
         <v>0.443</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="26">
         <v>0.311</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
-        <v>2</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="23">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="8">
         <v>10</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="8">
         <v>512</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="8">
         <v>2.464</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="24">
         <v>8.202</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
-        <v>2</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="20" t="s">
+      <c r="A16" s="25">
+        <v>2</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="14">
         <v>10</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="14">
         <v>512</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="14">
         <v>2.4649999999999999</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="26">
         <v>8.1869999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="16">
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="1">
@@ -2234,39 +2189,39 @@
       <c r="I17" s="1">
         <v>2.4620000000000002</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="19">
         <v>8.1929999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <v>10</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <v>4096</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <v>2.46</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="4">
         <v>8190</v>
       </c>
     </row>
@@ -2275,18 +2230,18 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="1">
@@ -2307,18 +2262,18 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="1">
@@ -2339,18 +2294,18 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="1">
@@ -2371,18 +2326,18 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="1">
@@ -2403,18 +2358,18 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="1">
@@ -2435,18 +2390,18 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="1">
@@ -2467,18 +2422,18 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="1">
@@ -2499,18 +2454,18 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="1">
@@ -2524,132 +2479,6 @@
       </c>
       <c r="J26" s="1">
         <v>0.92800000000000005</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:J4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0787812-28CF-4AB7-828B-54F80CCDA331}">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C57185-70AC-4B66-817D-88E587955EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4059ED-09FB-483C-A1CC-09561C249FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="36">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -180,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -590,11 +590,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -686,6 +799,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,71 +877,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1131,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9512EAE-7E03-4C9A-9560-62E0DE7C04A5}">
-  <dimension ref="A2:O24"/>
+  <dimension ref="A2:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,22 +1336,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="51" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="52" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -1215,34 +1360,34 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="46" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
@@ -1256,7 +1401,7 @@
       <c r="A7" s="20">
         <v>2</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="37" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -1265,7 +1410,7 @@
       <c r="D7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="43" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -1274,10 +1419,10 @@
       <c r="G7" s="21">
         <v>20</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="43">
         <v>32</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="43">
         <v>0.89900000000000002</v>
       </c>
       <c r="J7" s="22">
@@ -1291,34 +1436,34 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="A8" s="31">
         <v>3</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="32">
         <v>20</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="38">
         <v>32</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="38">
         <v>0.79900000000000004</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="33">
         <v>0.38800000000000001</v>
       </c>
     </row>
@@ -1326,7 +1471,7 @@
       <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -1335,19 +1480,19 @@
       <c r="D9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="41" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="1">
         <v>30</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="41">
         <v>32</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="41">
         <v>0.748</v>
       </c>
       <c r="J9" s="19">
@@ -1355,98 +1500,98 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="32">
         <v>30</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="38">
         <v>32</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="38">
         <v>0.999</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
-        <v>2</v>
-      </c>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="34">
+        <v>2</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="35">
         <v>40</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="40">
         <v>32</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="40">
         <v>0.1</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="36">
         <v>2.3029999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+      <c r="A12" s="31">
         <v>3</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="32">
         <v>40</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="38">
         <v>32</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="38">
         <v>0.8</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="33">
         <v>0.33200000000000002</v>
       </c>
     </row>
@@ -1454,7 +1599,7 @@
       <c r="A13" s="16">
         <v>2</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -1463,19 +1608,19 @@
       <c r="D13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="41" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="1">
         <v>50</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="41">
         <v>32</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="41">
         <v>0.1</v>
       </c>
       <c r="J13" s="19">
@@ -1486,7 +1631,7 @@
       <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1495,7 +1640,7 @@
       <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="42" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1504,10 +1649,10 @@
       <c r="G14" s="3">
         <v>50</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="42">
         <v>32</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="42">
         <v>0.99</v>
       </c>
       <c r="J14" s="4">
@@ -1518,16 +1663,16 @@
       <c r="A15" s="20">
         <v>2</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="37" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="43" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -1536,76 +1681,74 @@
       <c r="G15" s="29">
         <v>10</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="43">
         <v>64</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="43">
         <v>0.67900000000000005</v>
       </c>
       <c r="J15" s="22">
         <v>0.55600000000000005</v>
       </c>
-      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="A16" s="31">
         <v>3</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="60">
         <v>10</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="38">
         <v>64</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="38">
         <v>0.79900000000000004</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="33">
         <v>0.33900000000000002</v>
       </c>
-      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
-        <v>2</v>
-      </c>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="34">
+        <v>2</v>
+      </c>
+      <c r="B17" s="61" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="40" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="63">
         <v>20</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="40">
         <v>64</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="40">
         <v>0.67800000000000005</v>
       </c>
       <c r="J17" s="36">
@@ -1613,108 +1756,532 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="59">
         <v>3</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="60">
         <v>20</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="38">
         <v>64</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="38">
         <v>0.998</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="33">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="A19" s="34">
+        <v>2</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="63">
+        <v>30</v>
+      </c>
+      <c r="H19" s="40">
+        <v>64</v>
+      </c>
+      <c r="I19" s="40">
+        <v>0.91</v>
+      </c>
+      <c r="J19" s="36">
+        <v>0.14099999999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="A20" s="59">
+        <v>3</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="60">
+        <v>30</v>
+      </c>
+      <c r="H20" s="38">
+        <v>64</v>
+      </c>
+      <c r="I20" s="38">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J20" s="33">
+        <v>1.9E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="A21" s="34">
+        <v>2</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="63">
+        <v>40</v>
+      </c>
+      <c r="H21" s="40">
+        <v>64</v>
+      </c>
+      <c r="I21" s="40">
+        <v>0.999</v>
+      </c>
+      <c r="J21" s="36">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="A22" s="59">
+        <v>3</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="60">
+        <v>40</v>
+      </c>
+      <c r="H22" s="38">
+        <v>64</v>
+      </c>
+      <c r="I22" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="J22" s="33">
+        <v>0.33200000000000002</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="A23" s="16">
+        <v>2</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="17">
+        <v>50</v>
+      </c>
+      <c r="H23" s="41">
+        <v>64</v>
+      </c>
+      <c r="I23" s="41">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="J23" s="19">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="58">
+        <v>3</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="5">
+        <v>50</v>
+      </c>
+      <c r="H24" s="42">
+        <v>64</v>
+      </c>
+      <c r="I24" s="42">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>2</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="48">
+        <v>10</v>
+      </c>
+      <c r="H25" s="64">
+        <v>128</v>
+      </c>
+      <c r="I25" s="48">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="J25" s="22">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="59">
+        <v>3</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="59">
+        <v>10</v>
+      </c>
+      <c r="H26" s="65">
+        <v>128</v>
+      </c>
+      <c r="I26" s="59">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="J26" s="33">
+        <v>2.3029999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>2</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="62">
+        <v>20</v>
+      </c>
+      <c r="H27" s="66">
+        <v>128</v>
+      </c>
+      <c r="I27" s="62">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J27" s="36">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="59">
+        <v>3</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="59">
+        <v>20</v>
+      </c>
+      <c r="H28" s="65">
+        <v>128</v>
+      </c>
+      <c r="I28" s="59">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J28" s="33">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>2</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="62">
+        <v>30</v>
+      </c>
+      <c r="H29" s="66">
+        <v>128</v>
+      </c>
+      <c r="I29" s="62">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="J29" s="36">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="59">
+        <v>3</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="59">
+        <v>30</v>
+      </c>
+      <c r="H30" s="65">
+        <v>128</v>
+      </c>
+      <c r="I30" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>2</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="62">
+        <v>40</v>
+      </c>
+      <c r="H31" s="66">
+        <v>128</v>
+      </c>
+      <c r="I31" s="62"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="59">
+        <v>3</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="59">
+        <v>40</v>
+      </c>
+      <c r="H32" s="65">
+        <v>128</v>
+      </c>
+      <c r="I32" s="59"/>
+      <c r="J32" s="33"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>2</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="57">
+        <v>50</v>
+      </c>
+      <c r="H33" s="67">
+        <v>128</v>
+      </c>
+      <c r="I33" s="57"/>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="58">
+        <v>3</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="58">
+        <v>50</v>
+      </c>
+      <c r="H34" s="68">
+        <v>128</v>
+      </c>
+      <c r="I34" s="58"/>
+      <c r="J34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1732,7 +2299,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,22 +2327,22 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="32" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="35"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sensata2com-my.sharepoint.com/personal/sofithcheallaigh_sensata_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4059ED-09FB-483C-A1CC-09561C249FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{DA4059ED-09FB-483C-A1CC-09561C249FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF198DC9-A440-4E5D-8B7F-2CFBC3A3936D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Keras Seq" sheetId="1" r:id="rId2"/>
+    <sheet name="ClosedDoor" sheetId="3" r:id="rId1"/>
+    <sheet name="DisplayStand" sheetId="4" r:id="rId2"/>
+    <sheet name="Keras Seq" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="36">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -166,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +177,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -838,28 +857,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -877,40 +911,238 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1276,19 +1508,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9512EAE-7E03-4C9A-9560-62E0DE7C04A5}">
-  <dimension ref="A2:O34"/>
+  <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
@@ -1301,10 +1533,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="88" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
@@ -1317,10 +1549,10 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="88" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="1"/>
@@ -1336,22 +1568,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="49" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -1360,34 +1592,34 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="94" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
@@ -1398,35 +1630,35 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>2</v>
-      </c>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="96">
+        <v>2</v>
+      </c>
+      <c r="B7" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="21">
-        <v>20</v>
-      </c>
-      <c r="H7" s="43">
+      <c r="D7" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="101">
+        <v>10</v>
+      </c>
+      <c r="H7" s="100">
         <v>32</v>
       </c>
-      <c r="I7" s="43">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0.18099999999999999</v>
+      <c r="I7" s="100">
+        <v>0.9</v>
+      </c>
+      <c r="J7" s="98">
+        <v>0.16800000000000001</v>
       </c>
       <c r="N7" t="s">
         <v>31</v>
@@ -1435,7 +1667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -1445,7 +1677,7 @@
       <c r="C8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="47" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="38" t="s">
@@ -1454,49 +1686,49 @@
       <c r="F8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="32">
-        <v>20</v>
+      <c r="G8" s="48">
+        <v>10</v>
       </c>
       <c r="H8" s="38">
         <v>32</v>
       </c>
       <c r="I8" s="38">
-        <v>0.79900000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="J8" s="33">
-        <v>0.38800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>2</v>
-      </c>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="20">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1">
-        <v>30</v>
-      </c>
-      <c r="H9" s="41">
+      <c r="D9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="21">
+        <v>20</v>
+      </c>
+      <c r="H9" s="43">
         <v>32</v>
       </c>
-      <c r="I9" s="41">
-        <v>0.748</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0.47199999999999998</v>
+      <c r="I9" s="43">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1519,244 +1751,244 @@
         <v>28</v>
       </c>
       <c r="G10" s="32">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H10" s="38">
         <v>32</v>
       </c>
       <c r="I10" s="38">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>2</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30</v>
+      </c>
+      <c r="H11" s="41">
+        <v>32</v>
+      </c>
+      <c r="I11" s="41">
+        <v>0.748</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="86">
+        <v>3</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="87">
+        <v>30</v>
+      </c>
+      <c r="H12" s="63">
+        <v>32</v>
+      </c>
+      <c r="I12" s="63">
         <v>0.999</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J12" s="64">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
-        <v>2</v>
-      </c>
-      <c r="B11" s="40" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <v>2</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="35">
+      <c r="D13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="35">
         <v>40</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H13" s="40">
         <v>32</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I13" s="40">
         <v>0.1</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J13" s="36">
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
         <v>3</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="32">
+      <c r="D14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="32">
         <v>40</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H14" s="38">
         <v>32</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I14" s="38">
         <v>0.8</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J14" s="33">
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>2</v>
-      </c>
-      <c r="B13" s="41" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>2</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="D15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1">
         <v>50</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H15" s="41">
         <v>32</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I15" s="41">
         <v>0.1</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J15" s="19">
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="84">
         <v>3</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B16" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D16" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="85">
         <v>50</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H16" s="73">
         <v>32</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I16" s="73">
         <v>0.99</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J16" s="74">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
-        <v>2</v>
-      </c>
-      <c r="B15" s="37" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="29">
+      <c r="D17" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="29">
         <v>10</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H17" s="43">
         <v>64</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I17" s="43">
         <v>0.67900000000000005</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J17" s="22">
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>3</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="60">
-        <v>10</v>
-      </c>
-      <c r="H16" s="38">
-        <v>64</v>
-      </c>
-      <c r="I16" s="38">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="J16" s="33">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
-        <v>2</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="63">
-        <v>20</v>
-      </c>
-      <c r="H17" s="40">
-        <v>64</v>
-      </c>
-      <c r="I17" s="40">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="J17" s="36">
-        <v>0.51400000000000001</v>
-      </c>
-    </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59">
+      <c r="A18" s="31">
         <v>3</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -1765,7 +1997,7 @@
       <c r="C18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="47" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="38" t="s">
@@ -1774,30 +2006,30 @@
       <c r="F18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="60">
-        <v>20</v>
+      <c r="G18" s="48">
+        <v>10</v>
       </c>
       <c r="H18" s="38">
         <v>64</v>
       </c>
       <c r="I18" s="38">
-        <v>0.998</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="J18" s="33">
-        <v>7.0000000000000001E-3</v>
+        <v>0.33900000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>2</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="40" t="s">
@@ -1806,21 +2038,21 @@
       <c r="F19" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="63">
-        <v>30</v>
+      <c r="G19" s="51">
+        <v>20</v>
       </c>
       <c r="H19" s="40">
         <v>64</v>
       </c>
       <c r="I19" s="40">
-        <v>0.91</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="J19" s="36">
-        <v>0.14099999999999999</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="59">
+      <c r="A20" s="47">
         <v>3</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -1829,7 +2061,7 @@
       <c r="C20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="47" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="38" t="s">
@@ -1838,245 +2070,245 @@
       <c r="F20" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="60">
-        <v>30</v>
+      <c r="G20" s="48">
+        <v>20</v>
       </c>
       <c r="H20" s="38">
         <v>64</v>
       </c>
       <c r="I20" s="38">
+        <v>0.998</v>
+      </c>
+      <c r="J20" s="33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="76">
+        <v>2</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="82">
+        <v>30</v>
+      </c>
+      <c r="H21" s="80">
+        <v>64</v>
+      </c>
+      <c r="I21" s="80">
+        <v>0.91</v>
+      </c>
+      <c r="J21" s="78">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="62">
+        <v>3</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="83">
+        <v>30</v>
+      </c>
+      <c r="H22" s="63">
+        <v>64</v>
+      </c>
+      <c r="I22" s="63">
         <v>0.99399999999999999</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J22" s="64">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
-        <v>2</v>
-      </c>
-      <c r="B21" s="61" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="76">
+        <v>2</v>
+      </c>
+      <c r="B23" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C23" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="63">
+      <c r="D23" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="82">
         <v>40</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H23" s="80">
         <v>64</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I23" s="80">
         <v>0.999</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J23" s="78">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="59">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="47">
         <v>3</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B24" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C24" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="60">
+      <c r="D24" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="48">
         <v>40</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H24" s="38">
         <v>64</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I24" s="38">
         <v>0.8</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J24" s="33">
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
-        <v>2</v>
-      </c>
-      <c r="B23" s="39" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>2</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="17">
+      <c r="D25" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="17">
         <v>50</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H25" s="41">
         <v>64</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I25" s="41">
         <v>0.75700000000000001</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J25" s="19">
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="46">
         <v>3</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B26" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="D26" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="5">
         <v>50</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H26" s="42">
         <v>64</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I26" s="42">
         <v>0.79900000000000004</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J26" s="4">
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>2</v>
-      </c>
-      <c r="B25" s="37" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>2</v>
+      </c>
+      <c r="B27" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="48">
+      <c r="D27" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="44">
         <v>10</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H27" s="52">
         <v>128</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I27" s="44">
         <v>0.90500000000000003</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J27" s="22">
         <v>0.106</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="59">
-        <v>3</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="59">
-        <v>10</v>
-      </c>
-      <c r="H26" s="65">
-        <v>128</v>
-      </c>
-      <c r="I26" s="59">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="J26" s="33">
-        <v>2.3029999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
-        <v>2</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="62">
-        <v>20</v>
-      </c>
-      <c r="H27" s="66">
-        <v>128</v>
-      </c>
-      <c r="I27" s="62">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="J27" s="36">
-        <v>0.52600000000000002</v>
-      </c>
-    </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="59">
+      <c r="A28" s="47">
         <v>3</v>
       </c>
       <c r="B28" s="38" t="s">
@@ -2085,7 +2317,7 @@
       <c r="C28" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="47" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="38" t="s">
@@ -2094,30 +2326,30 @@
       <c r="F28" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="59">
-        <v>20</v>
-      </c>
-      <c r="H28" s="65">
+      <c r="G28" s="47">
+        <v>10</v>
+      </c>
+      <c r="H28" s="53">
         <v>128</v>
       </c>
-      <c r="I28" s="59">
-        <v>0.99399999999999999</v>
+      <c r="I28" s="47">
+        <v>0.10100000000000001</v>
       </c>
       <c r="J28" s="33">
-        <v>2.1999999999999999E-2</v>
+        <v>2.3029999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>2</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="40" t="s">
@@ -2126,81 +2358,85 @@
       <c r="F29" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="62">
-        <v>30</v>
-      </c>
-      <c r="H29" s="66">
+      <c r="G29" s="50">
+        <v>20</v>
+      </c>
+      <c r="H29" s="54">
         <v>128</v>
       </c>
-      <c r="I29" s="62">
-        <v>0.95799999999999996</v>
+      <c r="I29" s="50">
+        <v>0.69899999999999995</v>
       </c>
       <c r="J29" s="36">
-        <v>0.128</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="59">
+      <c r="A30" s="62">
         <v>3</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="59">
-        <v>30</v>
+      <c r="D30" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="62">
+        <v>20</v>
       </c>
       <c r="H30" s="65">
         <v>128</v>
       </c>
-      <c r="I30" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="J30" s="33">
-        <v>0</v>
+      <c r="I30" s="62">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J30" s="64">
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
-        <v>2</v>
-      </c>
-      <c r="B31" s="61" t="s">
+      <c r="A31" s="76">
+        <v>2</v>
+      </c>
+      <c r="B31" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="62">
-        <v>40</v>
-      </c>
-      <c r="H31" s="66">
+      <c r="D31" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="79">
+        <v>30</v>
+      </c>
+      <c r="H31" s="81">
         <v>128</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="36"/>
+      <c r="I31" s="79">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="J31" s="78">
+        <v>0.128</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="59">
+      <c r="A32" s="47">
         <v>3</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -2209,7 +2445,7 @@
       <c r="C32" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="47" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2218,70 +2454,466 @@
       <c r="F32" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="59">
+      <c r="G32" s="47">
+        <v>30</v>
+      </c>
+      <c r="H32" s="53">
+        <v>128</v>
+      </c>
+      <c r="I32" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <v>2</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="50">
         <v>40</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H33" s="54">
         <v>128</v>
       </c>
-      <c r="I32" s="59"/>
-      <c r="J32" s="33"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
-        <v>2</v>
-      </c>
-      <c r="B33" s="39" t="s">
+      <c r="I33" s="50">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="J33" s="36">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="47">
+        <v>3</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="47">
+        <v>40</v>
+      </c>
+      <c r="H34" s="53">
+        <v>128</v>
+      </c>
+      <c r="I34" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="J34" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="66">
+        <v>2</v>
+      </c>
+      <c r="B35" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C35" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="57">
+      <c r="D35" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="69">
         <v>50</v>
       </c>
-      <c r="H33" s="67">
+      <c r="H35" s="71">
         <v>128</v>
       </c>
-      <c r="I33" s="57"/>
-      <c r="J33" s="19"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58">
+      <c r="I35" s="69">
+        <v>0.91</v>
+      </c>
+      <c r="J35" s="68">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="72">
         <v>3</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B36" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C36" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="58">
+      <c r="D36" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="72">
         <v>50</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H36" s="75">
         <v>128</v>
       </c>
-      <c r="I34" s="58"/>
-      <c r="J34" s="4"/>
+      <c r="I36" s="72">
+        <v>0.998</v>
+      </c>
+      <c r="J36" s="74">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>2</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="44">
+        <v>10</v>
+      </c>
+      <c r="H37" s="52">
+        <v>256</v>
+      </c>
+      <c r="I37" s="44">
+        <v>0.65</v>
+      </c>
+      <c r="J37" s="22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="47">
+        <v>3</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="47">
+        <v>10</v>
+      </c>
+      <c r="H38" s="53">
+        <v>256</v>
+      </c>
+      <c r="I38" s="47">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="J38" s="33">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <v>2</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="50">
+        <v>20</v>
+      </c>
+      <c r="H39" s="54">
+        <v>256</v>
+      </c>
+      <c r="I39" s="50">
+        <v>0.871</v>
+      </c>
+      <c r="J39" s="36">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="62">
+        <v>3</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="62">
+        <v>20</v>
+      </c>
+      <c r="H40" s="65">
+        <v>256</v>
+      </c>
+      <c r="I40" s="62">
+        <v>0.998</v>
+      </c>
+      <c r="J40" s="64">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="34">
+        <v>2</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="50">
+        <v>30</v>
+      </c>
+      <c r="H41" s="54">
+        <v>256</v>
+      </c>
+      <c r="I41" s="50">
+        <v>0.871</v>
+      </c>
+      <c r="J41" s="36">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="62">
+        <v>3</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="62">
+        <v>30</v>
+      </c>
+      <c r="H42" s="65">
+        <v>256</v>
+      </c>
+      <c r="I42" s="62">
+        <v>0.998</v>
+      </c>
+      <c r="J42" s="64">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
+        <v>2</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="50">
+        <v>40</v>
+      </c>
+      <c r="H43" s="54">
+        <v>256</v>
+      </c>
+      <c r="I43" s="50">
+        <v>0.98</v>
+      </c>
+      <c r="J43" s="36">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="47">
+        <v>3</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="47">
+        <v>40</v>
+      </c>
+      <c r="H44" s="53">
+        <v>256</v>
+      </c>
+      <c r="I44" s="47">
+        <v>0.999</v>
+      </c>
+      <c r="J44" s="33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>2</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="45">
+        <v>50</v>
+      </c>
+      <c r="H45" s="55">
+        <v>256</v>
+      </c>
+      <c r="I45" s="45">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J45" s="19">
+        <v>2.3029999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="46">
+        <v>50</v>
+      </c>
+      <c r="H46" s="56">
+        <v>256</v>
+      </c>
+      <c r="I46" s="46">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.56200000000000006</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2295,6 +2927,1290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EA1287-235E-4BCC-86D0-1A585A75401B}">
+  <dimension ref="A2:O46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="102">
+        <v>2</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="107">
+        <v>10</v>
+      </c>
+      <c r="H7" s="106">
+        <v>32</v>
+      </c>
+      <c r="I7" s="106">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="J7" s="104">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="108">
+        <v>3</v>
+      </c>
+      <c r="B8" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="112">
+        <v>10</v>
+      </c>
+      <c r="H8" s="109">
+        <v>32</v>
+      </c>
+      <c r="I8" s="109">
+        <v>2E-3</v>
+      </c>
+      <c r="J8" s="110">
+        <v>2.516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="102">
+        <v>2</v>
+      </c>
+      <c r="B9" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="113">
+        <v>20</v>
+      </c>
+      <c r="H9" s="106">
+        <v>32</v>
+      </c>
+      <c r="I9" s="106">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="J9" s="104">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="108">
+        <v>3</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="114">
+        <v>20</v>
+      </c>
+      <c r="H10" s="109">
+        <v>32</v>
+      </c>
+      <c r="I10" s="109">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="J10" s="110">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="115">
+        <v>2</v>
+      </c>
+      <c r="B11" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="119">
+        <v>30</v>
+      </c>
+      <c r="H11" s="118">
+        <v>32</v>
+      </c>
+      <c r="I11" s="118">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J11" s="117">
+        <v>2.3029999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="108">
+        <v>3</v>
+      </c>
+      <c r="B12" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="114">
+        <v>30</v>
+      </c>
+      <c r="H12" s="109">
+        <v>32</v>
+      </c>
+      <c r="I12" s="109">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="J12" s="110">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="120">
+        <v>2</v>
+      </c>
+      <c r="B13" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="123">
+        <v>40</v>
+      </c>
+      <c r="H13" s="121">
+        <v>32</v>
+      </c>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="108">
+        <v>3</v>
+      </c>
+      <c r="B14" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="114">
+        <v>40</v>
+      </c>
+      <c r="H14" s="109">
+        <v>32</v>
+      </c>
+      <c r="I14" s="109"/>
+      <c r="J14" s="110"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="115">
+        <v>2</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="119">
+        <v>50</v>
+      </c>
+      <c r="H15" s="118">
+        <v>32</v>
+      </c>
+      <c r="I15" s="118"/>
+      <c r="J15" s="117"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="124">
+        <v>3</v>
+      </c>
+      <c r="B16" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="126" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="127">
+        <v>50</v>
+      </c>
+      <c r="H16" s="125">
+        <v>32</v>
+      </c>
+      <c r="I16" s="125"/>
+      <c r="J16" s="126"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="102">
+        <v>2</v>
+      </c>
+      <c r="B17" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="107">
+        <v>10</v>
+      </c>
+      <c r="H17" s="106">
+        <v>64</v>
+      </c>
+      <c r="I17" s="106"/>
+      <c r="J17" s="104"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="108">
+        <v>3</v>
+      </c>
+      <c r="B18" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="112">
+        <v>10</v>
+      </c>
+      <c r="H18" s="109">
+        <v>64</v>
+      </c>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="120">
+        <v>2</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="130">
+        <v>20</v>
+      </c>
+      <c r="H19" s="121">
+        <v>64</v>
+      </c>
+      <c r="I19" s="121"/>
+      <c r="J19" s="122"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="111">
+        <v>3</v>
+      </c>
+      <c r="B20" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="112">
+        <v>20</v>
+      </c>
+      <c r="H20" s="109">
+        <v>64</v>
+      </c>
+      <c r="I20" s="109"/>
+      <c r="J20" s="110"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="120">
+        <v>2</v>
+      </c>
+      <c r="B21" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="130">
+        <v>30</v>
+      </c>
+      <c r="H21" s="121">
+        <v>64</v>
+      </c>
+      <c r="I21" s="121"/>
+      <c r="J21" s="122"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="111">
+        <v>3</v>
+      </c>
+      <c r="B22" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="112">
+        <v>30</v>
+      </c>
+      <c r="H22" s="109">
+        <v>64</v>
+      </c>
+      <c r="I22" s="109"/>
+      <c r="J22" s="110"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="120">
+        <v>2</v>
+      </c>
+      <c r="B23" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="130">
+        <v>40</v>
+      </c>
+      <c r="H23" s="121">
+        <v>64</v>
+      </c>
+      <c r="I23" s="121"/>
+      <c r="J23" s="122"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="111">
+        <v>3</v>
+      </c>
+      <c r="B24" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="112">
+        <v>40</v>
+      </c>
+      <c r="H24" s="109">
+        <v>64</v>
+      </c>
+      <c r="I24" s="109"/>
+      <c r="J24" s="110"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="115">
+        <v>2</v>
+      </c>
+      <c r="B25" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="132">
+        <v>50</v>
+      </c>
+      <c r="H25" s="118">
+        <v>64</v>
+      </c>
+      <c r="I25" s="118"/>
+      <c r="J25" s="117"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="133">
+        <v>3</v>
+      </c>
+      <c r="B26" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="126" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="134">
+        <v>50</v>
+      </c>
+      <c r="H26" s="125">
+        <v>64</v>
+      </c>
+      <c r="I26" s="125"/>
+      <c r="J26" s="126"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="102">
+        <v>2</v>
+      </c>
+      <c r="B27" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="105">
+        <v>10</v>
+      </c>
+      <c r="H27" s="135">
+        <v>128</v>
+      </c>
+      <c r="I27" s="105"/>
+      <c r="J27" s="104"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="111">
+        <v>3</v>
+      </c>
+      <c r="B28" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="111">
+        <v>10</v>
+      </c>
+      <c r="H28" s="136">
+        <v>128</v>
+      </c>
+      <c r="I28" s="111"/>
+      <c r="J28" s="110"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="120">
+        <v>2</v>
+      </c>
+      <c r="B29" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="129">
+        <v>20</v>
+      </c>
+      <c r="H29" s="137">
+        <v>128</v>
+      </c>
+      <c r="I29" s="129"/>
+      <c r="J29" s="122"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="111">
+        <v>3</v>
+      </c>
+      <c r="B30" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="111">
+        <v>20</v>
+      </c>
+      <c r="H30" s="136">
+        <v>128</v>
+      </c>
+      <c r="I30" s="111"/>
+      <c r="J30" s="110"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="120">
+        <v>2</v>
+      </c>
+      <c r="B31" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="129">
+        <v>30</v>
+      </c>
+      <c r="H31" s="137">
+        <v>128</v>
+      </c>
+      <c r="I31" s="129"/>
+      <c r="J31" s="122"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="111">
+        <v>3</v>
+      </c>
+      <c r="B32" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="111">
+        <v>30</v>
+      </c>
+      <c r="H32" s="136">
+        <v>128</v>
+      </c>
+      <c r="I32" s="111"/>
+      <c r="J32" s="110"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="120">
+        <v>2</v>
+      </c>
+      <c r="B33" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="129">
+        <v>40</v>
+      </c>
+      <c r="H33" s="137">
+        <v>128</v>
+      </c>
+      <c r="I33" s="129"/>
+      <c r="J33" s="122"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="111">
+        <v>3</v>
+      </c>
+      <c r="B34" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="111">
+        <v>40</v>
+      </c>
+      <c r="H34" s="136">
+        <v>128</v>
+      </c>
+      <c r="I34" s="111"/>
+      <c r="J34" s="110"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="115">
+        <v>2</v>
+      </c>
+      <c r="B35" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="131">
+        <v>50</v>
+      </c>
+      <c r="H35" s="138">
+        <v>128</v>
+      </c>
+      <c r="I35" s="131"/>
+      <c r="J35" s="117"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="133">
+        <v>3</v>
+      </c>
+      <c r="B36" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="126" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="133">
+        <v>50</v>
+      </c>
+      <c r="H36" s="139">
+        <v>128</v>
+      </c>
+      <c r="I36" s="133"/>
+      <c r="J36" s="126"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="102">
+        <v>2</v>
+      </c>
+      <c r="B37" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="105">
+        <v>10</v>
+      </c>
+      <c r="H37" s="135">
+        <v>256</v>
+      </c>
+      <c r="I37" s="105"/>
+      <c r="J37" s="104"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="111">
+        <v>3</v>
+      </c>
+      <c r="B38" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="111">
+        <v>10</v>
+      </c>
+      <c r="H38" s="136">
+        <v>256</v>
+      </c>
+      <c r="I38" s="111"/>
+      <c r="J38" s="110"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="120">
+        <v>2</v>
+      </c>
+      <c r="B39" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="129">
+        <v>20</v>
+      </c>
+      <c r="H39" s="137">
+        <v>256</v>
+      </c>
+      <c r="I39" s="129"/>
+      <c r="J39" s="122"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="111">
+        <v>3</v>
+      </c>
+      <c r="B40" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="111">
+        <v>20</v>
+      </c>
+      <c r="H40" s="136">
+        <v>256</v>
+      </c>
+      <c r="I40" s="111"/>
+      <c r="J40" s="110"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="120">
+        <v>2</v>
+      </c>
+      <c r="B41" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="129">
+        <v>30</v>
+      </c>
+      <c r="H41" s="137">
+        <v>256</v>
+      </c>
+      <c r="I41" s="129"/>
+      <c r="J41" s="122"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="111">
+        <v>3</v>
+      </c>
+      <c r="B42" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="111">
+        <v>30</v>
+      </c>
+      <c r="H42" s="136">
+        <v>256</v>
+      </c>
+      <c r="I42" s="111"/>
+      <c r="J42" s="110"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="120">
+        <v>2</v>
+      </c>
+      <c r="B43" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="129">
+        <v>40</v>
+      </c>
+      <c r="H43" s="137">
+        <v>256</v>
+      </c>
+      <c r="I43" s="129"/>
+      <c r="J43" s="122"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="111">
+        <v>3</v>
+      </c>
+      <c r="B44" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="111">
+        <v>40</v>
+      </c>
+      <c r="H44" s="136">
+        <v>256</v>
+      </c>
+      <c r="I44" s="111"/>
+      <c r="J44" s="110"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="115">
+        <v>2</v>
+      </c>
+      <c r="B45" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="131">
+        <v>50</v>
+      </c>
+      <c r="H45" s="138">
+        <v>256</v>
+      </c>
+      <c r="I45" s="131"/>
+      <c r="J45" s="117"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="133">
+        <v>3</v>
+      </c>
+      <c r="B46" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="126" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="133">
+        <v>50</v>
+      </c>
+      <c r="H46" s="139">
+        <v>256</v>
+      </c>
+      <c r="I46" s="133"/>
+      <c r="J46" s="126"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCBFCE0-D62A-4787-8AAA-20AB7ACA5ECA}">
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -2327,22 +4243,22 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="53" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="56"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sensata2com-my.sharepoint.com/personal/sofithcheallaigh_sensata_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{DA4059ED-09FB-483C-A1CC-09561C249FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF198DC9-A440-4E5D-8B7F-2CFBC3A3936D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB1B4B5-BD6C-47D3-98B6-7B38989DE07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedDoor" sheetId="3" r:id="rId1"/>
@@ -726,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -896,6 +896,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -909,240 +1029,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1517,10 +1403,10 @@
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="88" t="s">
+      <c r="A2" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="83" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
@@ -1533,10 +1419,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="83" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
@@ -1549,10 +1435,10 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="83" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="1"/>
@@ -1568,22 +1454,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="89" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="90" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -1592,34 +1478,34 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="93" t="s">
+      <c r="I6" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="86" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
@@ -1630,34 +1516,34 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="96">
-        <v>2</v>
-      </c>
-      <c r="B7" s="97" t="s">
+      <c r="A7" s="88">
+        <v>2</v>
+      </c>
+      <c r="B7" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="101">
+      <c r="D7" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="93">
         <v>10</v>
       </c>
-      <c r="H7" s="100">
+      <c r="H7" s="92">
         <v>32</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="92">
         <v>0.9</v>
       </c>
-      <c r="J7" s="98">
+      <c r="J7" s="90">
         <v>0.16800000000000001</v>
       </c>
       <c r="N7" t="s">
@@ -1796,34 +1682,34 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="86">
+      <c r="A12" s="81">
         <v>3</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="87">
+      <c r="D12" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="82">
         <v>30</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="58">
         <v>32</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="58">
         <v>0.999</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="59">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -1924,34 +1810,34 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="84">
+      <c r="A16" s="79">
         <v>3</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="85">
+      <c r="D16" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="80">
         <v>50</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="68">
         <v>32</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="68">
         <v>0.99</v>
       </c>
-      <c r="J16" s="74">
+      <c r="J16" s="69">
         <v>2E-3</v>
       </c>
     </row>
@@ -2084,98 +1970,98 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="76">
-        <v>2</v>
-      </c>
-      <c r="B21" s="77" t="s">
+      <c r="A21" s="71">
+        <v>2</v>
+      </c>
+      <c r="B21" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="82">
+      <c r="D21" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="77">
         <v>30</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="75">
         <v>64</v>
       </c>
-      <c r="I21" s="80">
+      <c r="I21" s="75">
         <v>0.91</v>
       </c>
-      <c r="J21" s="78">
+      <c r="J21" s="73">
         <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="62">
+      <c r="A22" s="57">
         <v>3</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="83">
+      <c r="D22" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="78">
         <v>30</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="58">
         <v>64</v>
       </c>
-      <c r="I22" s="63">
+      <c r="I22" s="58">
         <v>0.99399999999999999</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="59">
         <v>1.9E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="76">
-        <v>2</v>
-      </c>
-      <c r="B23" s="77" t="s">
+      <c r="A23" s="71">
+        <v>2</v>
+      </c>
+      <c r="B23" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="82">
+      <c r="D23" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="77">
         <v>40</v>
       </c>
-      <c r="H23" s="80">
+      <c r="H23" s="75">
         <v>64</v>
       </c>
-      <c r="I23" s="80">
+      <c r="I23" s="75">
         <v>0.999</v>
       </c>
-      <c r="J23" s="78">
+      <c r="J23" s="73">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -2372,66 +2258,66 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="62">
+      <c r="A30" s="57">
         <v>3</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="62">
+      <c r="D30" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="57">
         <v>20</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="60">
         <v>128</v>
       </c>
-      <c r="I30" s="62">
+      <c r="I30" s="57">
         <v>0.99399999999999999</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="59">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="76">
-        <v>2</v>
-      </c>
-      <c r="B31" s="77" t="s">
+      <c r="A31" s="71">
+        <v>2</v>
+      </c>
+      <c r="B31" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="79">
+      <c r="D31" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="74">
         <v>30</v>
       </c>
-      <c r="H31" s="81">
+      <c r="H31" s="76">
         <v>128</v>
       </c>
-      <c r="I31" s="79">
+      <c r="I31" s="74">
         <v>0.95799999999999996</v>
       </c>
-      <c r="J31" s="78">
+      <c r="J31" s="73">
         <v>0.128</v>
       </c>
     </row>
@@ -2532,66 +2418,66 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="66">
-        <v>2</v>
-      </c>
-      <c r="B35" s="67" t="s">
+      <c r="A35" s="61">
+        <v>2</v>
+      </c>
+      <c r="B35" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="69">
+      <c r="D35" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="64">
         <v>50</v>
       </c>
-      <c r="H35" s="71">
+      <c r="H35" s="66">
         <v>128</v>
       </c>
-      <c r="I35" s="69">
+      <c r="I35" s="64">
         <v>0.91</v>
       </c>
-      <c r="J35" s="68">
+      <c r="J35" s="63">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72">
+      <c r="A36" s="67">
         <v>3</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="72">
+      <c r="D36" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="67">
         <v>50</v>
       </c>
-      <c r="H36" s="75">
+      <c r="H36" s="70">
         <v>128</v>
       </c>
-      <c r="I36" s="72">
+      <c r="I36" s="67">
         <v>0.998</v>
       </c>
-      <c r="J36" s="74">
+      <c r="J36" s="69">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -2692,34 +2578,34 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="62">
+      <c r="A40" s="57">
         <v>3</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="62">
+      <c r="D40" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="57">
         <v>20</v>
       </c>
-      <c r="H40" s="65">
+      <c r="H40" s="60">
         <v>256</v>
       </c>
-      <c r="I40" s="62">
+      <c r="I40" s="57">
         <v>0.998</v>
       </c>
-      <c r="J40" s="64">
+      <c r="J40" s="59">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -2756,34 +2642,34 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="62">
+      <c r="A42" s="57">
         <v>3</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="62">
+      <c r="D42" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="57">
         <v>30</v>
       </c>
-      <c r="H42" s="65">
+      <c r="H42" s="60">
         <v>256</v>
       </c>
-      <c r="I42" s="62">
+      <c r="I42" s="57">
         <v>0.998</v>
       </c>
-      <c r="J42" s="64">
+      <c r="J42" s="59">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -2931,16 +2817,16 @@
   <dimension ref="A2:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="88" t="s">
+      <c r="A2" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="83" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
@@ -2953,10 +2839,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="83" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
@@ -2969,10 +2855,10 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="83" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="1"/>
@@ -2988,22 +2874,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="89" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="90" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -3012,34 +2898,34 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="93" t="s">
+      <c r="I6" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="86" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
@@ -3050,34 +2936,34 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="102">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103" t="s">
+      <c r="A7" s="20">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="107">
+      <c r="D7" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="29">
         <v>10</v>
       </c>
-      <c r="H7" s="106">
+      <c r="H7" s="43">
         <v>32</v>
       </c>
-      <c r="I7" s="106">
+      <c r="I7" s="43">
         <v>0.93799999999999994</v>
       </c>
-      <c r="J7" s="104">
+      <c r="J7" s="22">
         <v>0.28799999999999998</v>
       </c>
       <c r="N7" t="s">
@@ -3088,1116 +2974,1148 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108">
+      <c r="A8" s="31">
         <v>3</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="112">
+      <c r="D8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="48">
         <v>10</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="38">
         <v>32</v>
       </c>
-      <c r="I8" s="109">
+      <c r="I8" s="38">
         <v>2E-3</v>
       </c>
-      <c r="J8" s="110">
+      <c r="J8" s="33">
         <v>2.516</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="102">
-        <v>2</v>
-      </c>
-      <c r="B9" s="103" t="s">
+      <c r="A9" s="20">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="113">
+      <c r="D9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="21">
         <v>20</v>
       </c>
-      <c r="H9" s="106">
+      <c r="H9" s="43">
         <v>32</v>
       </c>
-      <c r="I9" s="106">
+      <c r="I9" s="43">
         <v>0.58299999999999996</v>
       </c>
-      <c r="J9" s="104">
+      <c r="J9" s="22">
         <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="114">
+      <c r="D10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="32">
         <v>20</v>
       </c>
-      <c r="H10" s="109">
+      <c r="H10" s="38">
         <v>32</v>
       </c>
-      <c r="I10" s="109">
+      <c r="I10" s="38">
         <v>0.93600000000000005</v>
       </c>
-      <c r="J10" s="110">
+      <c r="J10" s="33">
         <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="115">
-        <v>2</v>
-      </c>
-      <c r="B11" s="116" t="s">
+      <c r="A11" s="16">
+        <v>2</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="119">
+      <c r="D11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
         <v>30</v>
       </c>
-      <c r="H11" s="118">
+      <c r="H11" s="41">
         <v>32</v>
       </c>
-      <c r="I11" s="118">
+      <c r="I11" s="41">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="J11" s="117">
+      <c r="J11" s="19">
         <v>2.3029999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="A12" s="31">
         <v>3</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="114">
+      <c r="D12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="32">
         <v>30</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="38">
         <v>32</v>
       </c>
-      <c r="I12" s="109">
+      <c r="I12" s="38">
         <v>0.78100000000000003</v>
       </c>
-      <c r="J12" s="110">
+      <c r="J12" s="33">
         <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="120">
-        <v>2</v>
-      </c>
-      <c r="B13" s="121" t="s">
+      <c r="A13" s="34">
+        <v>2</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="123">
+      <c r="D13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="35">
         <v>40</v>
       </c>
-      <c r="H13" s="121">
+      <c r="H13" s="40">
         <v>32</v>
       </c>
-      <c r="I13" s="121"/>
-      <c r="J13" s="122"/>
+      <c r="I13" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="36">
+        <v>2.3029999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+      <c r="A14" s="31">
         <v>3</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="114">
+      <c r="D14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="32">
         <v>40</v>
       </c>
-      <c r="H14" s="109">
+      <c r="H14" s="38">
         <v>32</v>
       </c>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110"/>
+      <c r="I14" s="38">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="J14" s="33">
+        <v>0.22600000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="115">
-        <v>2</v>
-      </c>
-      <c r="B15" s="118" t="s">
+      <c r="A15" s="16">
+        <v>2</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="119">
+      <c r="D15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1">
         <v>50</v>
       </c>
-      <c r="H15" s="118">
+      <c r="H15" s="41">
         <v>32</v>
       </c>
-      <c r="I15" s="118"/>
-      <c r="J15" s="117"/>
+      <c r="I15" s="41">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0.26400000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="124">
+      <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="125" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="127">
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
         <v>50</v>
       </c>
-      <c r="H16" s="125">
+      <c r="H16" s="42">
         <v>32</v>
       </c>
-      <c r="I16" s="125"/>
-      <c r="J16" s="126"/>
+      <c r="I16" s="42">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.80800000000000005</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="102">
-        <v>2</v>
-      </c>
-      <c r="B17" s="103" t="s">
+      <c r="A17" s="20">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="107">
+      <c r="D17" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="29">
         <v>10</v>
       </c>
-      <c r="H17" s="106">
+      <c r="H17" s="43">
         <v>64</v>
       </c>
-      <c r="I17" s="106"/>
-      <c r="J17" s="104"/>
+      <c r="I17" s="43">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+      <c r="A18" s="31">
         <v>3</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="112">
+      <c r="D18" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="48">
         <v>10</v>
       </c>
-      <c r="H18" s="109">
+      <c r="H18" s="38">
         <v>64</v>
       </c>
-      <c r="I18" s="109"/>
-      <c r="J18" s="110"/>
+      <c r="I18" s="38">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J18" s="33">
+        <v>8.1000000000000003E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="120">
-        <v>2</v>
-      </c>
-      <c r="B19" s="128" t="s">
+      <c r="A19" s="34">
+        <v>2</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="130">
+      <c r="D19" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="51">
         <v>20</v>
       </c>
-      <c r="H19" s="121">
+      <c r="H19" s="40">
         <v>64</v>
       </c>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122"/>
+      <c r="I19" s="40">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="J19" s="36">
+        <v>0.27800000000000002</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="111">
+      <c r="A20" s="47">
         <v>3</v>
       </c>
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="110" t="s">
+      <c r="C20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="112">
+      <c r="D20" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="48">
         <v>20</v>
       </c>
-      <c r="H20" s="109">
+      <c r="H20" s="38">
         <v>64</v>
       </c>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="I20" s="38">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J20" s="33">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="120">
-        <v>2</v>
-      </c>
-      <c r="B21" s="128" t="s">
+      <c r="A21" s="34">
+        <v>2</v>
+      </c>
+      <c r="B21" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="130">
+      <c r="D21" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="51">
         <v>30</v>
       </c>
-      <c r="H21" s="121">
+      <c r="H21" s="40">
         <v>64</v>
       </c>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="36"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="111">
+      <c r="A22" s="47">
         <v>3</v>
       </c>
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="110" t="s">
+      <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="112">
+      <c r="D22" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="48">
         <v>30</v>
       </c>
-      <c r="H22" s="109">
+      <c r="H22" s="38">
         <v>64</v>
       </c>
-      <c r="I22" s="109"/>
-      <c r="J22" s="110"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="120">
-        <v>2</v>
-      </c>
-      <c r="B23" s="128" t="s">
+      <c r="A23" s="34">
+        <v>2</v>
+      </c>
+      <c r="B23" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C23" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="130">
+      <c r="D23" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="51">
         <v>40</v>
       </c>
-      <c r="H23" s="121">
+      <c r="H23" s="40">
         <v>64</v>
       </c>
-      <c r="I23" s="121"/>
-      <c r="J23" s="122"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="36"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="111">
+      <c r="A24" s="47">
         <v>3</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="112">
+      <c r="D24" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="48">
         <v>40</v>
       </c>
-      <c r="H24" s="109">
+      <c r="H24" s="38">
         <v>64</v>
       </c>
-      <c r="I24" s="109"/>
-      <c r="J24" s="110"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="115">
-        <v>2</v>
-      </c>
-      <c r="B25" s="116" t="s">
+      <c r="A25" s="16">
+        <v>2</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="132">
+      <c r="D25" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="17">
         <v>50</v>
       </c>
-      <c r="H25" s="118">
+      <c r="H25" s="41">
         <v>64</v>
       </c>
-      <c r="I25" s="118"/>
-      <c r="J25" s="117"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="133">
+      <c r="A26" s="46">
         <v>3</v>
       </c>
-      <c r="B26" s="125" t="s">
+      <c r="B26" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="133" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="125" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="134">
+      <c r="D26" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="5">
         <v>50</v>
       </c>
-      <c r="H26" s="125">
+      <c r="H26" s="42">
         <v>64</v>
       </c>
-      <c r="I26" s="125"/>
-      <c r="J26" s="126"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="102">
-        <v>2</v>
-      </c>
-      <c r="B27" s="103" t="s">
+      <c r="A27" s="20">
+        <v>2</v>
+      </c>
+      <c r="B27" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="105">
+      <c r="D27" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="44">
         <v>10</v>
       </c>
-      <c r="H27" s="135">
+      <c r="H27" s="52">
         <v>128</v>
       </c>
-      <c r="I27" s="105"/>
-      <c r="J27" s="104"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="111">
+      <c r="A28" s="47">
         <v>3</v>
       </c>
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="111">
+      <c r="D28" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="47">
         <v>10</v>
       </c>
-      <c r="H28" s="136">
+      <c r="H28" s="53">
         <v>128</v>
       </c>
-      <c r="I28" s="111"/>
-      <c r="J28" s="110"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="120">
-        <v>2</v>
-      </c>
-      <c r="B29" s="128" t="s">
+      <c r="A29" s="34">
+        <v>2</v>
+      </c>
+      <c r="B29" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="129">
+      <c r="D29" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="50">
         <v>20</v>
       </c>
-      <c r="H29" s="137">
+      <c r="H29" s="54">
         <v>128</v>
       </c>
-      <c r="I29" s="129"/>
-      <c r="J29" s="122"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="36"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="111">
+      <c r="A30" s="47">
         <v>3</v>
       </c>
-      <c r="B30" s="109" t="s">
+      <c r="B30" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="110" t="s">
+      <c r="C30" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="111">
+      <c r="D30" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="47">
         <v>20</v>
       </c>
-      <c r="H30" s="136">
+      <c r="H30" s="53">
         <v>128</v>
       </c>
-      <c r="I30" s="111"/>
-      <c r="J30" s="110"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="120">
-        <v>2</v>
-      </c>
-      <c r="B31" s="128" t="s">
+      <c r="A31" s="34">
+        <v>2</v>
+      </c>
+      <c r="B31" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="129">
+      <c r="D31" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="50">
         <v>30</v>
       </c>
-      <c r="H31" s="137">
+      <c r="H31" s="54">
         <v>128</v>
       </c>
-      <c r="I31" s="129"/>
-      <c r="J31" s="122"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="36"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="111">
+      <c r="A32" s="47">
         <v>3</v>
       </c>
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="110" t="s">
+      <c r="C32" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="111">
+      <c r="D32" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="47">
         <v>30</v>
       </c>
-      <c r="H32" s="136">
+      <c r="H32" s="53">
         <v>128</v>
       </c>
-      <c r="I32" s="111"/>
-      <c r="J32" s="110"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="120">
-        <v>2</v>
-      </c>
-      <c r="B33" s="128" t="s">
+      <c r="A33" s="34">
+        <v>2</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="122" t="s">
+      <c r="C33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="129">
+      <c r="D33" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="50">
         <v>40</v>
       </c>
-      <c r="H33" s="137">
+      <c r="H33" s="54">
         <v>128</v>
       </c>
-      <c r="I33" s="129"/>
-      <c r="J33" s="122"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="36"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="111">
+      <c r="A34" s="47">
         <v>3</v>
       </c>
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="110" t="s">
+      <c r="C34" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="111">
+      <c r="D34" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="47">
         <v>40</v>
       </c>
-      <c r="H34" s="136">
+      <c r="H34" s="53">
         <v>128</v>
       </c>
-      <c r="I34" s="111"/>
-      <c r="J34" s="110"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="115">
-        <v>2</v>
-      </c>
-      <c r="B35" s="116" t="s">
+      <c r="A35" s="16">
+        <v>2</v>
+      </c>
+      <c r="B35" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="117" t="s">
+      <c r="C35" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="131">
+      <c r="D35" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="45">
         <v>50</v>
       </c>
-      <c r="H35" s="138">
+      <c r="H35" s="55">
         <v>128</v>
       </c>
-      <c r="I35" s="131"/>
-      <c r="J35" s="117"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="133">
+      <c r="A36" s="46">
         <v>3</v>
       </c>
-      <c r="B36" s="125" t="s">
+      <c r="B36" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="126" t="s">
+      <c r="C36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="133" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="125" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="133">
+      <c r="D36" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="46">
         <v>50</v>
       </c>
-      <c r="H36" s="139">
+      <c r="H36" s="56">
         <v>128</v>
       </c>
-      <c r="I36" s="133"/>
-      <c r="J36" s="126"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="102">
-        <v>2</v>
-      </c>
-      <c r="B37" s="103" t="s">
+      <c r="A37" s="20">
+        <v>2</v>
+      </c>
+      <c r="B37" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="105">
+      <c r="D37" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="44">
         <v>10</v>
       </c>
-      <c r="H37" s="135">
+      <c r="H37" s="52">
         <v>256</v>
       </c>
-      <c r="I37" s="105"/>
-      <c r="J37" s="104"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="22"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="111">
+      <c r="A38" s="47">
         <v>3</v>
       </c>
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="110" t="s">
+      <c r="C38" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="111">
+      <c r="D38" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="47">
         <v>10</v>
       </c>
-      <c r="H38" s="136">
+      <c r="H38" s="53">
         <v>256</v>
       </c>
-      <c r="I38" s="111"/>
-      <c r="J38" s="110"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="120">
-        <v>2</v>
-      </c>
-      <c r="B39" s="128" t="s">
+      <c r="A39" s="34">
+        <v>2</v>
+      </c>
+      <c r="B39" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="122" t="s">
+      <c r="C39" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="129">
+      <c r="D39" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="50">
         <v>20</v>
       </c>
-      <c r="H39" s="137">
+      <c r="H39" s="54">
         <v>256</v>
       </c>
-      <c r="I39" s="129"/>
-      <c r="J39" s="122"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="36"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="111">
+      <c r="A40" s="47">
         <v>3</v>
       </c>
-      <c r="B40" s="109" t="s">
+      <c r="B40" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="110" t="s">
+      <c r="C40" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="111">
+      <c r="D40" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="47">
         <v>20</v>
       </c>
-      <c r="H40" s="136">
+      <c r="H40" s="53">
         <v>256</v>
       </c>
-      <c r="I40" s="111"/>
-      <c r="J40" s="110"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="120">
-        <v>2</v>
-      </c>
-      <c r="B41" s="128" t="s">
+      <c r="A41" s="34">
+        <v>2</v>
+      </c>
+      <c r="B41" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="122" t="s">
+      <c r="C41" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="129">
+      <c r="D41" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="50">
         <v>30</v>
       </c>
-      <c r="H41" s="137">
+      <c r="H41" s="54">
         <v>256</v>
       </c>
-      <c r="I41" s="129"/>
-      <c r="J41" s="122"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="36"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="111">
+      <c r="A42" s="47">
         <v>3</v>
       </c>
-      <c r="B42" s="109" t="s">
+      <c r="B42" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="111">
+      <c r="D42" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="47">
         <v>30</v>
       </c>
-      <c r="H42" s="136">
+      <c r="H42" s="53">
         <v>256</v>
       </c>
-      <c r="I42" s="111"/>
-      <c r="J42" s="110"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="120">
-        <v>2</v>
-      </c>
-      <c r="B43" s="128" t="s">
+      <c r="A43" s="34">
+        <v>2</v>
+      </c>
+      <c r="B43" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="122" t="s">
+      <c r="C43" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="129">
+      <c r="D43" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="50">
         <v>40</v>
       </c>
-      <c r="H43" s="137">
+      <c r="H43" s="54">
         <v>256</v>
       </c>
-      <c r="I43" s="129"/>
-      <c r="J43" s="122"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="36"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="111">
+      <c r="A44" s="47">
         <v>3</v>
       </c>
-      <c r="B44" s="109" t="s">
+      <c r="B44" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="111">
+      <c r="D44" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="47">
         <v>40</v>
       </c>
-      <c r="H44" s="136">
+      <c r="H44" s="53">
         <v>256</v>
       </c>
-      <c r="I44" s="111"/>
-      <c r="J44" s="110"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="115">
-        <v>2</v>
-      </c>
-      <c r="B45" s="116" t="s">
+      <c r="A45" s="16">
+        <v>2</v>
+      </c>
+      <c r="B45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="117" t="s">
+      <c r="C45" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="131">
+      <c r="D45" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="45">
         <v>50</v>
       </c>
-      <c r="H45" s="138">
+      <c r="H45" s="55">
         <v>256</v>
       </c>
-      <c r="I45" s="131"/>
-      <c r="J45" s="117"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="133">
+      <c r="A46" s="46">
         <v>3</v>
       </c>
-      <c r="B46" s="125" t="s">
+      <c r="B46" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="126" t="s">
+      <c r="C46" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="133" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="125" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="133">
+      <c r="D46" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="46">
         <v>50</v>
       </c>
-      <c r="H46" s="139">
+      <c r="H46" s="56">
         <v>256</v>
       </c>
-      <c r="I46" s="133"/>
-      <c r="J46" s="126"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4243,22 +4161,22 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="58" t="s">
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="61"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="101"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sensata2com-my.sharepoint.com/personal/sofithcheallaigh_sensata_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB1B4B5-BD6C-47D3-98B6-7B38989DE07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{4CB1B4B5-BD6C-47D3-98B6-7B38989DE07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3670C5A-BAA7-48B9-B5D4-8FAAC2D545CE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedDoor" sheetId="3" r:id="rId1"/>
     <sheet name="DisplayStand" sheetId="4" r:id="rId2"/>
-    <sheet name="Keras Seq" sheetId="1" r:id="rId3"/>
+    <sheet name="LargeBin" sheetId="5" r:id="rId3"/>
+    <sheet name="Keras Seq" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="38">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -145,6 +146,12 @@
   <si>
     <t>R-R-S</t>
   </si>
+  <si>
+    <t>0,640</t>
+  </si>
+  <si>
+    <t>Display Stand</t>
+  </si>
 </sst>
 </file>
 
@@ -726,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1005,6 +1012,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,13 +1412,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9512EAE-7E03-4C9A-9560-62E0DE7C04A5}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
@@ -1418,7 +1434,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1450,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="83" t="s">
         <v>22</v>
       </c>
@@ -1453,23 +1469,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="94" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="95" t="s">
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="99"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -1477,7 +1493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="88">
         <v>2</v>
       </c>
@@ -1553,7 +1569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -1585,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -1617,7 +1633,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>3</v>
       </c>
@@ -1649,7 +1665,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>2</v>
       </c>
@@ -1681,7 +1697,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="81">
         <v>3</v>
       </c>
@@ -1713,7 +1729,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>2</v>
       </c>
@@ -1745,7 +1761,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>3</v>
       </c>
@@ -1777,7 +1793,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>2</v>
       </c>
@@ -1809,7 +1825,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="79">
         <v>3</v>
       </c>
@@ -1841,7 +1857,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>2</v>
       </c>
@@ -1873,7 +1889,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>3</v>
       </c>
@@ -1905,7 +1921,7 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>2</v>
       </c>
@@ -1937,7 +1953,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="47">
         <v>3</v>
       </c>
@@ -1969,7 +1985,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="71">
         <v>2</v>
       </c>
@@ -2001,7 +2017,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="57">
         <v>3</v>
       </c>
@@ -2033,7 +2049,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="71">
         <v>2</v>
       </c>
@@ -2065,7 +2081,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="47">
         <v>3</v>
       </c>
@@ -2097,7 +2113,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>2</v>
       </c>
@@ -2129,7 +2145,7 @@
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="46">
         <v>3</v>
       </c>
@@ -2161,7 +2177,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>2</v>
       </c>
@@ -2193,7 +2209,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="47">
         <v>3</v>
       </c>
@@ -2225,7 +2241,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
         <v>2</v>
       </c>
@@ -2257,7 +2273,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="57">
         <v>3</v>
       </c>
@@ -2289,7 +2305,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="71">
         <v>2</v>
       </c>
@@ -2321,7 +2337,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="47">
         <v>3</v>
       </c>
@@ -2353,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="34">
         <v>2</v>
       </c>
@@ -2385,7 +2401,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="47">
         <v>3</v>
       </c>
@@ -2417,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="61">
         <v>2</v>
       </c>
@@ -2449,7 +2465,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="67">
         <v>3</v>
       </c>
@@ -2481,7 +2497,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>2</v>
       </c>
@@ -2513,7 +2529,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="47">
         <v>3</v>
       </c>
@@ -2545,7 +2561,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
         <v>2</v>
       </c>
@@ -2577,7 +2593,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="57">
         <v>3</v>
       </c>
@@ -2609,7 +2625,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
         <v>2</v>
       </c>
@@ -2641,7 +2657,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="57">
         <v>3</v>
       </c>
@@ -2673,7 +2689,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="34">
         <v>2</v>
       </c>
@@ -2705,7 +2721,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="47">
         <v>3</v>
       </c>
@@ -2737,7 +2753,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>2</v>
       </c>
@@ -2769,7 +2785,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="46">
         <v>3</v>
       </c>
@@ -2816,13 +2832,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EA1287-235E-4BCC-86D0-1A585A75401B}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
@@ -2838,7 +2854,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
@@ -2854,12 +2870,12 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="83" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2873,23 +2889,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="94" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="95" t="s">
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="99"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -2897,7 +2913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84" t="s">
         <v>7</v>
       </c>
@@ -2935,7 +2951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -2973,7 +2989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -3005,7 +3021,7 @@
         <v>2.516</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -3037,7 +3053,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>3</v>
       </c>
@@ -3069,7 +3085,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>2</v>
       </c>
@@ -3101,7 +3117,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>3</v>
       </c>
@@ -3133,7 +3149,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>2</v>
       </c>
@@ -3165,7 +3181,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>3</v>
       </c>
@@ -3197,7 +3213,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>2</v>
       </c>
@@ -3229,7 +3245,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -3261,7 +3277,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>2</v>
       </c>
@@ -3293,7 +3309,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>3</v>
       </c>
@@ -3325,7 +3341,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>2</v>
       </c>
@@ -3357,7 +3373,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="47">
         <v>3</v>
       </c>
@@ -3389,7 +3405,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <v>2</v>
       </c>
@@ -3414,10 +3430,14 @@
       <c r="H21" s="40">
         <v>64</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="36"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="40">
+        <v>0.746</v>
+      </c>
+      <c r="J21" s="36">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="47">
         <v>3</v>
       </c>
@@ -3442,10 +3462,14 @@
       <c r="H22" s="38">
         <v>64</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="33"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="38">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J22" s="33">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <v>2</v>
       </c>
@@ -3470,10 +3494,14 @@
       <c r="H23" s="40">
         <v>64</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="40">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="J23" s="36">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="47">
         <v>3</v>
       </c>
@@ -3498,10 +3526,14 @@
       <c r="H24" s="38">
         <v>64</v>
       </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="33"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="38">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J24" s="33">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>2</v>
       </c>
@@ -3526,10 +3558,14 @@
       <c r="H25" s="41">
         <v>64</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="41">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="46">
         <v>3</v>
       </c>
@@ -3554,10 +3590,14 @@
       <c r="H26" s="42">
         <v>64</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="42">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J26" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>2</v>
       </c>
@@ -3582,10 +3622,14 @@
       <c r="H27" s="52">
         <v>128</v>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="44">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="J27" s="22">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="47">
         <v>3</v>
       </c>
@@ -3610,10 +3654,14 @@
       <c r="H28" s="53">
         <v>128</v>
       </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="33"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="47">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="J28" s="33">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
         <v>2</v>
       </c>
@@ -3638,10 +3686,14 @@
       <c r="H29" s="54">
         <v>128</v>
       </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="50">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="J29" s="36">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="47">
         <v>3</v>
       </c>
@@ -3666,10 +3718,14 @@
       <c r="H30" s="53">
         <v>128</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="33"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="47">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="J30" s="33">
+        <v>1.363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="34">
         <v>2</v>
       </c>
@@ -3694,10 +3750,14 @@
       <c r="H31" s="54">
         <v>128</v>
       </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="50">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J31" s="36">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="47">
         <v>3</v>
       </c>
@@ -3722,10 +3782,14 @@
       <c r="H32" s="53">
         <v>128</v>
       </c>
-      <c r="I32" s="47"/>
-      <c r="J32" s="33"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" s="47">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="J32" s="33">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="34">
         <v>2</v>
       </c>
@@ -3750,10 +3814,14 @@
       <c r="H33" s="54">
         <v>128</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="36"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="50">
+        <v>0.879</v>
+      </c>
+      <c r="J33" s="36">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="47">
         <v>3</v>
       </c>
@@ -3778,10 +3846,14 @@
       <c r="H34" s="53">
         <v>128</v>
       </c>
-      <c r="I34" s="47"/>
-      <c r="J34" s="33"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="47">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="J34" s="33">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>2</v>
       </c>
@@ -3806,10 +3878,14 @@
       <c r="H35" s="55">
         <v>128</v>
       </c>
-      <c r="I35" s="45"/>
-      <c r="J35" s="19"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="45">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="J35" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="46">
         <v>3</v>
       </c>
@@ -3834,10 +3910,14 @@
       <c r="H36" s="56">
         <v>128</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I36" s="46">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>2</v>
       </c>
@@ -3862,10 +3942,14 @@
       <c r="H37" s="52">
         <v>256</v>
       </c>
-      <c r="I37" s="44"/>
-      <c r="J37" s="22"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="44">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="J37" s="22">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="47">
         <v>3</v>
       </c>
@@ -3890,10 +3974,14 @@
       <c r="H38" s="53">
         <v>256</v>
       </c>
-      <c r="I38" s="47"/>
-      <c r="J38" s="33"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="47">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
         <v>2</v>
       </c>
@@ -3918,10 +4006,14 @@
       <c r="H39" s="54">
         <v>256</v>
       </c>
-      <c r="I39" s="50"/>
-      <c r="J39" s="36"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="50">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="J39" s="36">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="47">
         <v>3</v>
       </c>
@@ -3946,10 +4038,14 @@
       <c r="H40" s="53">
         <v>256</v>
       </c>
-      <c r="I40" s="47"/>
-      <c r="J40" s="33"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="47">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="J40" s="33">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
         <v>2</v>
       </c>
@@ -3974,10 +4070,14 @@
       <c r="H41" s="54">
         <v>256</v>
       </c>
-      <c r="I41" s="50"/>
-      <c r="J41" s="36"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I41" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="J41" s="36">
+        <v>2.3029999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="47">
         <v>3</v>
       </c>
@@ -4002,10 +4102,14 @@
       <c r="H42" s="53">
         <v>256</v>
       </c>
-      <c r="I42" s="47"/>
-      <c r="J42" s="33"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I42" s="47">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J42" s="33">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="34">
         <v>2</v>
       </c>
@@ -4030,10 +4134,14 @@
       <c r="H43" s="54">
         <v>256</v>
       </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="36"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I43" s="50">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="J43" s="36">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="47">
         <v>3</v>
       </c>
@@ -4058,10 +4166,14 @@
       <c r="H44" s="53">
         <v>256</v>
       </c>
-      <c r="I44" s="47"/>
-      <c r="J44" s="33"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I44" s="47">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J44" s="33">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>2</v>
       </c>
@@ -4086,10 +4198,14 @@
       <c r="H45" s="55">
         <v>256</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="19"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="45">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="J45" s="19">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="46">
         <v>3</v>
       </c>
@@ -4114,8 +4230,12 @@
       <c r="H46" s="56">
         <v>256</v>
       </c>
-      <c r="I46" s="46"/>
-      <c r="J46" s="4"/>
+      <c r="I46" s="46">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J46" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4129,6 +4249,1290 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287FE74C-991A-4067-9EE8-0A2DE1F6D0D7}">
+  <dimension ref="A2:O46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="99"/>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="29">
+        <v>10</v>
+      </c>
+      <c r="H7" s="43">
+        <v>32</v>
+      </c>
+      <c r="I7" s="43">
+        <v>1</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>3</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="48">
+        <v>10</v>
+      </c>
+      <c r="H8" s="38">
+        <v>32</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0.99</v>
+      </c>
+      <c r="J8" s="33">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="21">
+        <v>20</v>
+      </c>
+      <c r="H9" s="43">
+        <v>32</v>
+      </c>
+      <c r="I9" s="43">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>3</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="32">
+        <v>20</v>
+      </c>
+      <c r="H10" s="38">
+        <v>32</v>
+      </c>
+      <c r="I10" s="38">
+        <v>1</v>
+      </c>
+      <c r="J10" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>2</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30</v>
+      </c>
+      <c r="H11" s="41">
+        <v>32</v>
+      </c>
+      <c r="I11" s="41">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>3</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="32">
+        <v>30</v>
+      </c>
+      <c r="H12" s="38">
+        <v>32</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="J12" s="33">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
+        <v>2</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="35">
+        <v>40</v>
+      </c>
+      <c r="H13" s="40">
+        <v>32</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>3</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="32">
+        <v>40</v>
+      </c>
+      <c r="H14" s="38">
+        <v>32</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>2</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="41">
+        <v>32</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>50</v>
+      </c>
+      <c r="H16" s="42">
+        <v>32</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="29">
+        <v>10</v>
+      </c>
+      <c r="H17" s="43">
+        <v>64</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="48">
+        <v>10</v>
+      </c>
+      <c r="H18" s="38">
+        <v>64</v>
+      </c>
+      <c r="I18" s="38"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
+        <v>2</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="51">
+        <v>20</v>
+      </c>
+      <c r="H19" s="40">
+        <v>64</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="47">
+        <v>3</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="48">
+        <v>20</v>
+      </c>
+      <c r="H20" s="38">
+        <v>64</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
+        <v>2</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="51">
+        <v>30</v>
+      </c>
+      <c r="H21" s="40">
+        <v>64</v>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="47">
+        <v>3</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="48">
+        <v>30</v>
+      </c>
+      <c r="H22" s="38">
+        <v>64</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
+        <v>2</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="51">
+        <v>40</v>
+      </c>
+      <c r="H23" s="40">
+        <v>64</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="47">
+        <v>3</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="48">
+        <v>40</v>
+      </c>
+      <c r="H24" s="38">
+        <v>64</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>2</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="17">
+        <v>50</v>
+      </c>
+      <c r="H25" s="41">
+        <v>64</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="46">
+        <v>3</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="5">
+        <v>50</v>
+      </c>
+      <c r="H26" s="42">
+        <v>64</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="20">
+        <v>2</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="44">
+        <v>10</v>
+      </c>
+      <c r="H27" s="52">
+        <v>128</v>
+      </c>
+      <c r="I27" s="44"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="47">
+        <v>3</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="47">
+        <v>10</v>
+      </c>
+      <c r="H28" s="53">
+        <v>128</v>
+      </c>
+      <c r="I28" s="47"/>
+      <c r="J28" s="33"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="34">
+        <v>2</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="50">
+        <v>20</v>
+      </c>
+      <c r="H29" s="54">
+        <v>128</v>
+      </c>
+      <c r="I29" s="50"/>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="47">
+        <v>3</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="47">
+        <v>20</v>
+      </c>
+      <c r="H30" s="53">
+        <v>128</v>
+      </c>
+      <c r="I30" s="47"/>
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="34">
+        <v>2</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="50">
+        <v>30</v>
+      </c>
+      <c r="H31" s="54">
+        <v>128</v>
+      </c>
+      <c r="I31" s="50"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="47">
+        <v>3</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="47">
+        <v>30</v>
+      </c>
+      <c r="H32" s="53">
+        <v>128</v>
+      </c>
+      <c r="I32" s="47"/>
+      <c r="J32" s="33"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="34">
+        <v>2</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="50">
+        <v>40</v>
+      </c>
+      <c r="H33" s="54">
+        <v>128</v>
+      </c>
+      <c r="I33" s="50"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="47">
+        <v>3</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="47">
+        <v>40</v>
+      </c>
+      <c r="H34" s="53">
+        <v>128</v>
+      </c>
+      <c r="I34" s="47"/>
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>2</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="45">
+        <v>50</v>
+      </c>
+      <c r="H35" s="55">
+        <v>128</v>
+      </c>
+      <c r="I35" s="45"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="46">
+        <v>3</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="46">
+        <v>50</v>
+      </c>
+      <c r="H36" s="56">
+        <v>128</v>
+      </c>
+      <c r="I36" s="46"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="20">
+        <v>2</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="44">
+        <v>10</v>
+      </c>
+      <c r="H37" s="52">
+        <v>256</v>
+      </c>
+      <c r="I37" s="44"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="47">
+        <v>3</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="47">
+        <v>10</v>
+      </c>
+      <c r="H38" s="53">
+        <v>256</v>
+      </c>
+      <c r="I38" s="47"/>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="34">
+        <v>2</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="50">
+        <v>20</v>
+      </c>
+      <c r="H39" s="54">
+        <v>256</v>
+      </c>
+      <c r="I39" s="50"/>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="47">
+        <v>3</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="47">
+        <v>20</v>
+      </c>
+      <c r="H40" s="53">
+        <v>256</v>
+      </c>
+      <c r="I40" s="47"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="34">
+        <v>2</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="50">
+        <v>30</v>
+      </c>
+      <c r="H41" s="54">
+        <v>256</v>
+      </c>
+      <c r="I41" s="50"/>
+      <c r="J41" s="36"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="47">
+        <v>3</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="47">
+        <v>30</v>
+      </c>
+      <c r="H42" s="53">
+        <v>256</v>
+      </c>
+      <c r="I42" s="47"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="34">
+        <v>2</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="50">
+        <v>40</v>
+      </c>
+      <c r="H43" s="54">
+        <v>256</v>
+      </c>
+      <c r="I43" s="50"/>
+      <c r="J43" s="36"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="47">
+        <v>3</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="47">
+        <v>40</v>
+      </c>
+      <c r="H44" s="53">
+        <v>256</v>
+      </c>
+      <c r="I44" s="47"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
+        <v>2</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="45">
+        <v>50</v>
+      </c>
+      <c r="H45" s="55">
+        <v>256</v>
+      </c>
+      <c r="I45" s="45"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="46">
+        <v>50</v>
+      </c>
+      <c r="H46" s="56">
+        <v>256</v>
+      </c>
+      <c r="I46" s="46"/>
+      <c r="J46" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCBFCE0-D62A-4787-8AAA-20AB7ACA5ECA}">
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -4136,14 +5540,14 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="10" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
+    <col min="3" max="10" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4151,7 +5555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4159,26 +5563,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="98" t="s">
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="101"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="104"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
@@ -4210,7 +5614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -4242,7 +5646,7 @@
         <v>8.1850000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>2</v>
       </c>
@@ -4274,7 +5678,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>2</v>
       </c>
@@ -4306,7 +5710,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>2</v>
       </c>
@@ -4338,7 +5742,7 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -4370,7 +5774,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -4402,7 +5806,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <v>2</v>
       </c>
@@ -4434,7 +5838,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <v>2</v>
       </c>
@@ -4466,7 +5870,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>2</v>
       </c>
@@ -4498,7 +5902,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>2</v>
       </c>
@@ -4530,7 +5934,7 @@
         <v>8.202</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>2</v>
       </c>
@@ -4562,7 +5966,7 @@
         <v>8.1869999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>2</v>
       </c>
@@ -4594,7 +5998,7 @@
         <v>8.1929999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -4626,7 +6030,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -4658,7 +6062,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -4690,7 +6094,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -4722,7 +6126,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -4754,7 +6158,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -4786,7 +6190,7 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -4818,7 +6222,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -4850,7 +6254,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2</v>
       </c>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sensata2com-my.sharepoint.com/personal/sofithcheallaigh_sensata_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{4CB1B4B5-BD6C-47D3-98B6-7B38989DE07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3670C5A-BAA7-48B9-B5D4-8FAAC2D545CE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18429AB-3306-4598-A303-8A78309506BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedDoor" sheetId="3" r:id="rId1"/>
@@ -733,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1023,15 +1023,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1045,6 +1036,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1416,9 +1410,9 @@
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
@@ -1434,7 +1428,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1444,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="83" t="s">
         <v>22</v>
       </c>
@@ -1469,23 +1463,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="97" t="s">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="97" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="98" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -1493,7 +1487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="84" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="88">
         <v>2</v>
       </c>
@@ -1569,7 +1563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -1601,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -1633,7 +1627,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>3</v>
       </c>
@@ -1665,7 +1659,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>2</v>
       </c>
@@ -1697,7 +1691,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="81">
         <v>3</v>
       </c>
@@ -1729,7 +1723,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>2</v>
       </c>
@@ -1761,7 +1755,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>3</v>
       </c>
@@ -1793,7 +1787,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>2</v>
       </c>
@@ -1825,7 +1819,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="79">
         <v>3</v>
       </c>
@@ -1857,7 +1851,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>2</v>
       </c>
@@ -1889,7 +1883,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>3</v>
       </c>
@@ -1921,7 +1915,7 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>2</v>
       </c>
@@ -1953,7 +1947,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
         <v>3</v>
       </c>
@@ -1985,7 +1979,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="71">
         <v>2</v>
       </c>
@@ -2017,7 +2011,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="57">
         <v>3</v>
       </c>
@@ -2049,7 +2043,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="71">
         <v>2</v>
       </c>
@@ -2081,7 +2075,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
         <v>3</v>
       </c>
@@ -2113,7 +2107,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>2</v>
       </c>
@@ -2145,7 +2139,7 @@
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="46">
         <v>3</v>
       </c>
@@ -2177,7 +2171,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>2</v>
       </c>
@@ -2209,7 +2203,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
         <v>3</v>
       </c>
@@ -2241,7 +2235,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>2</v>
       </c>
@@ -2273,7 +2267,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="57">
         <v>3</v>
       </c>
@@ -2305,7 +2299,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="71">
         <v>2</v>
       </c>
@@ -2337,7 +2331,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
         <v>3</v>
       </c>
@@ -2369,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>2</v>
       </c>
@@ -2401,7 +2395,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
         <v>3</v>
       </c>
@@ -2433,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="61">
         <v>2</v>
       </c>
@@ -2465,7 +2459,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="67">
         <v>3</v>
       </c>
@@ -2497,7 +2491,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>2</v>
       </c>
@@ -2529,7 +2523,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
         <v>3</v>
       </c>
@@ -2561,7 +2555,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>2</v>
       </c>
@@ -2593,7 +2587,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="57">
         <v>3</v>
       </c>
@@ -2625,7 +2619,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>2</v>
       </c>
@@ -2657,7 +2651,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="57">
         <v>3</v>
       </c>
@@ -2689,7 +2683,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>2</v>
       </c>
@@ -2721,7 +2715,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
         <v>3</v>
       </c>
@@ -2753,7 +2747,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>2</v>
       </c>
@@ -2785,7 +2779,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46">
         <v>3</v>
       </c>
@@ -2836,9 +2830,9 @@
       <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
@@ -2854,7 +2848,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
@@ -2870,7 +2864,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="83" t="s">
         <v>22</v>
       </c>
@@ -2889,23 +2883,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="97" t="s">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="97" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="98" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -2913,7 +2907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="84" t="s">
         <v>7</v>
       </c>
@@ -2951,7 +2945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -2989,7 +2983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -3021,7 +3015,7 @@
         <v>2.516</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -3053,7 +3047,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>3</v>
       </c>
@@ -3085,7 +3079,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>2</v>
       </c>
@@ -3117,7 +3111,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>3</v>
       </c>
@@ -3149,7 +3143,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>2</v>
       </c>
@@ -3181,7 +3175,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>3</v>
       </c>
@@ -3213,7 +3207,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>2</v>
       </c>
@@ -3245,7 +3239,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -3277,7 +3271,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>2</v>
       </c>
@@ -3309,7 +3303,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>3</v>
       </c>
@@ -3341,7 +3335,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>2</v>
       </c>
@@ -3373,7 +3367,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
         <v>3</v>
       </c>
@@ -3405,7 +3399,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>2</v>
       </c>
@@ -3437,7 +3431,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
         <v>3</v>
       </c>
@@ -3469,7 +3463,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>2</v>
       </c>
@@ -3501,7 +3495,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
         <v>3</v>
       </c>
@@ -3533,7 +3527,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>2</v>
       </c>
@@ -3565,7 +3559,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="46">
         <v>3</v>
       </c>
@@ -3597,7 +3591,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>2</v>
       </c>
@@ -3629,7 +3623,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
         <v>3</v>
       </c>
@@ -3661,7 +3655,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>2</v>
       </c>
@@ -3693,7 +3687,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
         <v>3</v>
       </c>
@@ -3725,7 +3719,7 @@
         <v>1.363</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>2</v>
       </c>
@@ -3757,7 +3751,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
         <v>3</v>
       </c>
@@ -3789,7 +3783,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>2</v>
       </c>
@@ -3821,7 +3815,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
         <v>3</v>
       </c>
@@ -3853,7 +3847,7 @@
         <v>0.63800000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>2</v>
       </c>
@@ -3885,7 +3879,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="46">
         <v>3</v>
       </c>
@@ -3917,7 +3911,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>2</v>
       </c>
@@ -3949,7 +3943,7 @@
         <v>0.36899999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
         <v>3</v>
       </c>
@@ -3981,7 +3975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>2</v>
       </c>
@@ -4013,7 +4007,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
         <v>3</v>
       </c>
@@ -4045,7 +4039,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>2</v>
       </c>
@@ -4077,7 +4071,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="47">
         <v>3</v>
       </c>
@@ -4109,7 +4103,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>2</v>
       </c>
@@ -4141,7 +4135,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
         <v>3</v>
       </c>
@@ -4173,7 +4167,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>2</v>
       </c>
@@ -4205,7 +4199,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46">
         <v>3</v>
       </c>
@@ -4253,12 +4247,12 @@
   <dimension ref="A2:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
@@ -4274,7 +4268,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
@@ -4290,7 +4284,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="83" t="s">
         <v>22</v>
       </c>
@@ -4309,23 +4303,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="97" t="s">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="97" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="98" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -4333,26 +4327,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="84" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="87" t="s">
@@ -4361,7 +4355,7 @@
       <c r="I6" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="96" t="s">
+      <c r="J6" s="86" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
@@ -4371,7 +4365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -4409,7 +4403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -4441,7 +4435,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -4473,7 +4467,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>3</v>
       </c>
@@ -4505,7 +4499,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>2</v>
       </c>
@@ -4537,7 +4531,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>3</v>
       </c>
@@ -4569,7 +4563,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>2</v>
       </c>
@@ -4594,10 +4588,14 @@
       <c r="H13" s="40">
         <v>32</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I13" s="40">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="J13" s="36">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>3</v>
       </c>
@@ -4622,10 +4620,14 @@
       <c r="H14" s="38">
         <v>32</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I14" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>2</v>
       </c>
@@ -4650,10 +4652,14 @@
       <c r="H15" s="41">
         <v>32</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="102">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -4678,10 +4684,14 @@
       <c r="H16" s="42">
         <v>32</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I16" s="42">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>2</v>
       </c>
@@ -4709,7 +4719,7 @@
       <c r="I17" s="43"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>3</v>
       </c>
@@ -4737,7 +4747,7 @@
       <c r="I18" s="38"/>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>2</v>
       </c>
@@ -4765,7 +4775,7 @@
       <c r="I19" s="40"/>
       <c r="J19" s="36"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
         <v>3</v>
       </c>
@@ -4793,7 +4803,7 @@
       <c r="I20" s="38"/>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>2</v>
       </c>
@@ -4821,7 +4831,7 @@
       <c r="I21" s="40"/>
       <c r="J21" s="36"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
         <v>3</v>
       </c>
@@ -4849,7 +4859,7 @@
       <c r="I22" s="38"/>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>2</v>
       </c>
@@ -4877,7 +4887,7 @@
       <c r="I23" s="40"/>
       <c r="J23" s="36"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
         <v>3</v>
       </c>
@@ -4905,7 +4915,7 @@
       <c r="I24" s="38"/>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>2</v>
       </c>
@@ -4933,7 +4943,7 @@
       <c r="I25" s="41"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="46">
         <v>3</v>
       </c>
@@ -4961,7 +4971,7 @@
       <c r="I26" s="42"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>2</v>
       </c>
@@ -4989,7 +4999,7 @@
       <c r="I27" s="44"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
         <v>3</v>
       </c>
@@ -5017,7 +5027,7 @@
       <c r="I28" s="47"/>
       <c r="J28" s="33"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>2</v>
       </c>
@@ -5045,7 +5055,7 @@
       <c r="I29" s="50"/>
       <c r="J29" s="36"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
         <v>3</v>
       </c>
@@ -5073,7 +5083,7 @@
       <c r="I30" s="47"/>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>2</v>
       </c>
@@ -5101,7 +5111,7 @@
       <c r="I31" s="50"/>
       <c r="J31" s="36"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
         <v>3</v>
       </c>
@@ -5129,7 +5139,7 @@
       <c r="I32" s="47"/>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>2</v>
       </c>
@@ -5157,7 +5167,7 @@
       <c r="I33" s="50"/>
       <c r="J33" s="36"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
         <v>3</v>
       </c>
@@ -5185,7 +5195,7 @@
       <c r="I34" s="47"/>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>2</v>
       </c>
@@ -5213,7 +5223,7 @@
       <c r="I35" s="45"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="46">
         <v>3</v>
       </c>
@@ -5241,7 +5251,7 @@
       <c r="I36" s="46"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>2</v>
       </c>
@@ -5269,7 +5279,7 @@
       <c r="I37" s="44"/>
       <c r="J37" s="22"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
         <v>3</v>
       </c>
@@ -5297,7 +5307,7 @@
       <c r="I38" s="47"/>
       <c r="J38" s="33"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>2</v>
       </c>
@@ -5325,7 +5335,7 @@
       <c r="I39" s="50"/>
       <c r="J39" s="36"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
         <v>3</v>
       </c>
@@ -5353,7 +5363,7 @@
       <c r="I40" s="47"/>
       <c r="J40" s="33"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>2</v>
       </c>
@@ -5381,7 +5391,7 @@
       <c r="I41" s="50"/>
       <c r="J41" s="36"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="47">
         <v>3</v>
       </c>
@@ -5409,7 +5419,7 @@
       <c r="I42" s="47"/>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>2</v>
       </c>
@@ -5437,7 +5447,7 @@
       <c r="I43" s="50"/>
       <c r="J43" s="36"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
         <v>3</v>
       </c>
@@ -5465,7 +5475,7 @@
       <c r="I44" s="47"/>
       <c r="J44" s="33"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>2</v>
       </c>
@@ -5493,7 +5503,7 @@
       <c r="I45" s="45"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46">
         <v>3</v>
       </c>
@@ -5540,14 +5550,14 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
-    <col min="3" max="10" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="10" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5555,7 +5565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5563,26 +5573,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="100" t="s">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="101" t="s">
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="104"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="101"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
@@ -5614,7 +5624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -5646,7 +5656,7 @@
         <v>8.1850000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>2</v>
       </c>
@@ -5678,7 +5688,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>2</v>
       </c>
@@ -5710,7 +5720,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>2</v>
       </c>
@@ -5742,7 +5752,7 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -5774,7 +5784,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -5806,7 +5816,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>2</v>
       </c>
@@ -5838,7 +5848,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>2</v>
       </c>
@@ -5870,7 +5880,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>2</v>
       </c>
@@ -5902,7 +5912,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>2</v>
       </c>
@@ -5934,7 +5944,7 @@
         <v>8.202</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>2</v>
       </c>
@@ -5966,7 +5976,7 @@
         <v>8.1869999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>2</v>
       </c>
@@ -5998,7 +6008,7 @@
         <v>8.1929999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -6030,7 +6040,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -6062,7 +6072,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -6094,7 +6104,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -6126,7 +6136,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -6158,7 +6168,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -6190,7 +6200,7 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -6222,7 +6232,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -6254,7 +6264,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2</v>
       </c>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de0e594a2defb935/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18429AB-3306-4598-A303-8A78309506BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{C18429AB-3306-4598-A303-8A78309506BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{092800EE-A95D-42EE-BC97-EEF5DDFE9618}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -733,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1036,9 +1036,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4246,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287FE74C-991A-4067-9EE8-0A2DE1F6D0D7}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4652,7 +4649,7 @@
       <c r="H15" s="41">
         <v>32</v>
       </c>
-      <c r="I15" s="102">
+      <c r="I15" s="41">
         <v>0.89400000000000002</v>
       </c>
       <c r="J15" s="19">
@@ -4716,8 +4713,12 @@
       <c r="H17" s="43">
         <v>64</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="22"/>
+      <c r="I17" s="43">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0.67500000000000004</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
@@ -4744,8 +4745,12 @@
       <c r="H18" s="38">
         <v>64</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="33"/>
+      <c r="I18" s="38">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J18" s="33">
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
@@ -4772,8 +4777,12 @@
       <c r="H19" s="40">
         <v>64</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="36"/>
+      <c r="I19" s="40">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="J19" s="36">
+        <v>0.35399999999999998</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
@@ -4800,8 +4809,12 @@
       <c r="H20" s="38">
         <v>64</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="33"/>
+      <c r="I20" s="38">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="J20" s="33">
+        <v>0.33900000000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
@@ -4828,8 +4841,12 @@
       <c r="H21" s="40">
         <v>64</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="36"/>
+      <c r="I21" s="40">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="J21" s="36">
+        <v>0.30399999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
@@ -4856,8 +4873,12 @@
       <c r="H22" s="38">
         <v>64</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="33"/>
+      <c r="I22" s="38">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="J22" s="33">
+        <v>0.159</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
@@ -4884,8 +4905,12 @@
       <c r="H23" s="40">
         <v>64</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="36"/>
+      <c r="I23" s="40">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="J23" s="36">
+        <v>0.44800000000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
@@ -4912,8 +4937,12 @@
       <c r="H24" s="38">
         <v>64</v>
       </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="33"/>
+      <c r="I24" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
@@ -4940,8 +4969,12 @@
       <c r="H25" s="41">
         <v>64</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="19"/>
+      <c r="I25" s="41">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0.47199999999999998</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="46">
@@ -4968,8 +5001,12 @@
       <c r="H26" s="42">
         <v>64</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="4"/>
+      <c r="I26" s="42">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
@@ -4996,8 +5033,12 @@
       <c r="H27" s="52">
         <v>128</v>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="22"/>
+      <c r="I27" s="44">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="J27" s="22">
+        <v>0.50900000000000001</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
@@ -5024,8 +5065,12 @@
       <c r="H28" s="53">
         <v>128</v>
       </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="33"/>
+      <c r="I28" s="47">
+        <v>1</v>
+      </c>
+      <c r="J28" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
@@ -5052,8 +5097,12 @@
       <c r="H29" s="54">
         <v>128</v>
       </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="36"/>
+      <c r="I29" s="50">
+        <v>0.877</v>
+      </c>
+      <c r="J29" s="36">
+        <v>0.41299999999999998</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
@@ -5080,8 +5129,12 @@
       <c r="H30" s="53">
         <v>128</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="33"/>
+      <c r="I30" s="47">
+        <v>1</v>
+      </c>
+      <c r="J30" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
@@ -5108,8 +5161,12 @@
       <c r="H31" s="54">
         <v>128</v>
       </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="36"/>
+      <c r="I31" s="50">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J31" s="36">
+        <v>0.501</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
@@ -5136,8 +5193,12 @@
       <c r="H32" s="53">
         <v>128</v>
       </c>
-      <c r="I32" s="47"/>
-      <c r="J32" s="33"/>
+      <c r="I32" s="47">
+        <v>1</v>
+      </c>
+      <c r="J32" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
@@ -5164,8 +5225,12 @@
       <c r="H33" s="54">
         <v>128</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="36"/>
+      <c r="I33" s="50">
+        <v>1</v>
+      </c>
+      <c r="J33" s="36">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
@@ -5192,8 +5257,12 @@
       <c r="H34" s="53">
         <v>128</v>
       </c>
-      <c r="I34" s="47"/>
-      <c r="J34" s="33"/>
+      <c r="I34" s="47">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="J34" s="33">
+        <v>0.153</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -5220,8 +5289,12 @@
       <c r="H35" s="55">
         <v>128</v>
       </c>
-      <c r="I35" s="45"/>
-      <c r="J35" s="19"/>
+      <c r="I35" s="45">
+        <v>1</v>
+      </c>
+      <c r="J35" s="19">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="46">
@@ -5248,8 +5321,12 @@
       <c r="H36" s="56">
         <v>128</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="4"/>
+      <c r="I36" s="46">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.185</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
@@ -5276,8 +5353,12 @@
       <c r="H37" s="52">
         <v>256</v>
       </c>
-      <c r="I37" s="44"/>
-      <c r="J37" s="22"/>
+      <c r="I37" s="44">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="J37" s="22">
+        <v>0.70399999999999996</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
@@ -5304,8 +5385,12 @@
       <c r="H38" s="53">
         <v>256</v>
       </c>
-      <c r="I38" s="47"/>
-      <c r="J38" s="33"/>
+      <c r="I38" s="47">
+        <v>1</v>
+      </c>
+      <c r="J38" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
@@ -5332,8 +5417,12 @@
       <c r="H39" s="54">
         <v>256</v>
       </c>
-      <c r="I39" s="50"/>
-      <c r="J39" s="36"/>
+      <c r="I39" s="50">
+        <v>1</v>
+      </c>
+      <c r="J39" s="36">
+        <v>2.9000000000000001E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
@@ -5360,8 +5449,12 @@
       <c r="H40" s="53">
         <v>256</v>
       </c>
-      <c r="I40" s="47"/>
-      <c r="J40" s="33"/>
+      <c r="I40" s="47">
+        <v>1</v>
+      </c>
+      <c r="J40" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
@@ -5388,8 +5481,12 @@
       <c r="H41" s="54">
         <v>256</v>
       </c>
-      <c r="I41" s="50"/>
-      <c r="J41" s="36"/>
+      <c r="I41" s="50">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="J41" s="36">
+        <v>0.45600000000000002</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="47">
@@ -5416,8 +5513,12 @@
       <c r="H42" s="53">
         <v>256</v>
       </c>
-      <c r="I42" s="47"/>
-      <c r="J42" s="33"/>
+      <c r="I42" s="47">
+        <v>1</v>
+      </c>
+      <c r="J42" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
@@ -5444,8 +5545,12 @@
       <c r="H43" s="54">
         <v>256</v>
       </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="36"/>
+      <c r="I43" s="50">
+        <v>1</v>
+      </c>
+      <c r="J43" s="36">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
@@ -5472,8 +5577,12 @@
       <c r="H44" s="53">
         <v>256</v>
       </c>
-      <c r="I44" s="47"/>
-      <c r="J44" s="33"/>
+      <c r="I44" s="47">
+        <v>0.68</v>
+      </c>
+      <c r="J44" s="33">
+        <v>0.622</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="16">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de0e594a2defb935/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{C18429AB-3306-4598-A303-8A78309506BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{092800EE-A95D-42EE-BC97-EEF5DDFE9618}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB0CBE6-9F18-447A-A76D-D187B3E58969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedDoor" sheetId="3" r:id="rId1"/>
     <sheet name="DisplayStand" sheetId="4" r:id="rId2"/>
     <sheet name="LargeBin" sheetId="5" r:id="rId3"/>
-    <sheet name="Keras Seq" sheetId="1" r:id="rId4"/>
+    <sheet name="StorageBox" sheetId="6" r:id="rId4"/>
+    <sheet name="Keras Seq" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="40">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -151,6 +152,12 @@
   </si>
   <si>
     <t>Display Stand</t>
+  </si>
+  <si>
+    <t>Storage Box</t>
+  </si>
+  <si>
+    <t>Large Bin</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9512EAE-7E03-4C9A-9560-62E0DE7C04A5}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
@@ -4243,8 +4250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287FE74C-991A-4067-9EE8-0A2DE1F6D0D7}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4286,7 +4293,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5609,8 +5616,12 @@
       <c r="H45" s="55">
         <v>256</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="19"/>
+      <c r="I45" s="45">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="J45" s="19">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46">
@@ -5637,8 +5648,12 @@
       <c r="H46" s="56">
         <v>256</v>
       </c>
-      <c r="I46" s="46"/>
-      <c r="J46" s="4"/>
+      <c r="I46" s="46">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.622</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5652,6 +5667,1266 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EA4EDF-FB69-457D-A5E5-9C9DD8D38A58}">
+  <dimension ref="A2:O46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="29">
+        <v>10</v>
+      </c>
+      <c r="H7" s="43">
+        <v>32</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="22"/>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>3</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="48">
+        <v>10</v>
+      </c>
+      <c r="H8" s="38">
+        <v>32</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="21">
+        <v>20</v>
+      </c>
+      <c r="H9" s="43">
+        <v>32</v>
+      </c>
+      <c r="I9" s="43"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>3</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="32">
+        <v>20</v>
+      </c>
+      <c r="H10" s="38">
+        <v>32</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>2</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30</v>
+      </c>
+      <c r="H11" s="41">
+        <v>32</v>
+      </c>
+      <c r="I11" s="41"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>3</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="32">
+        <v>30</v>
+      </c>
+      <c r="H12" s="38">
+        <v>32</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <v>2</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="35">
+        <v>40</v>
+      </c>
+      <c r="H13" s="40">
+        <v>32</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>3</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="32">
+        <v>40</v>
+      </c>
+      <c r="H14" s="38">
+        <v>32</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>2</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="41">
+        <v>32</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>50</v>
+      </c>
+      <c r="H16" s="42">
+        <v>32</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="29">
+        <v>10</v>
+      </c>
+      <c r="H17" s="43">
+        <v>64</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="48">
+        <v>10</v>
+      </c>
+      <c r="H18" s="38">
+        <v>64</v>
+      </c>
+      <c r="I18" s="38"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>2</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="51">
+        <v>20</v>
+      </c>
+      <c r="H19" s="40">
+        <v>64</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="47">
+        <v>3</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="48">
+        <v>20</v>
+      </c>
+      <c r="H20" s="38">
+        <v>64</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>2</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="51">
+        <v>30</v>
+      </c>
+      <c r="H21" s="40">
+        <v>64</v>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="47">
+        <v>3</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="48">
+        <v>30</v>
+      </c>
+      <c r="H22" s="38">
+        <v>64</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <v>2</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="51">
+        <v>40</v>
+      </c>
+      <c r="H23" s="40">
+        <v>64</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="47">
+        <v>3</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="48">
+        <v>40</v>
+      </c>
+      <c r="H24" s="38">
+        <v>64</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>2</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="17">
+        <v>50</v>
+      </c>
+      <c r="H25" s="41">
+        <v>64</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="46">
+        <v>3</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="5">
+        <v>50</v>
+      </c>
+      <c r="H26" s="42">
+        <v>64</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>2</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="44">
+        <v>10</v>
+      </c>
+      <c r="H27" s="52">
+        <v>128</v>
+      </c>
+      <c r="I27" s="44"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="47">
+        <v>3</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="47">
+        <v>10</v>
+      </c>
+      <c r="H28" s="53">
+        <v>128</v>
+      </c>
+      <c r="I28" s="47"/>
+      <c r="J28" s="33"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>2</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="50">
+        <v>20</v>
+      </c>
+      <c r="H29" s="54">
+        <v>128</v>
+      </c>
+      <c r="I29" s="50"/>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="47">
+        <v>3</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="47">
+        <v>20</v>
+      </c>
+      <c r="H30" s="53">
+        <v>128</v>
+      </c>
+      <c r="I30" s="47"/>
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>2</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="50">
+        <v>30</v>
+      </c>
+      <c r="H31" s="54">
+        <v>128</v>
+      </c>
+      <c r="I31" s="50"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="47">
+        <v>3</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="47">
+        <v>30</v>
+      </c>
+      <c r="H32" s="53">
+        <v>128</v>
+      </c>
+      <c r="I32" s="47"/>
+      <c r="J32" s="33"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <v>2</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="50">
+        <v>40</v>
+      </c>
+      <c r="H33" s="54">
+        <v>128</v>
+      </c>
+      <c r="I33" s="50"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="47">
+        <v>3</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="47">
+        <v>40</v>
+      </c>
+      <c r="H34" s="53">
+        <v>128</v>
+      </c>
+      <c r="I34" s="47"/>
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>2</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="45">
+        <v>50</v>
+      </c>
+      <c r="H35" s="55">
+        <v>128</v>
+      </c>
+      <c r="I35" s="45"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="46">
+        <v>3</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="46">
+        <v>50</v>
+      </c>
+      <c r="H36" s="56">
+        <v>128</v>
+      </c>
+      <c r="I36" s="46"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>2</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="44">
+        <v>10</v>
+      </c>
+      <c r="H37" s="52">
+        <v>256</v>
+      </c>
+      <c r="I37" s="44"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="47">
+        <v>3</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="47">
+        <v>10</v>
+      </c>
+      <c r="H38" s="53">
+        <v>256</v>
+      </c>
+      <c r="I38" s="47"/>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <v>2</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="50">
+        <v>20</v>
+      </c>
+      <c r="H39" s="54">
+        <v>256</v>
+      </c>
+      <c r="I39" s="50"/>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="47">
+        <v>3</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="47">
+        <v>20</v>
+      </c>
+      <c r="H40" s="53">
+        <v>256</v>
+      </c>
+      <c r="I40" s="47"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="34">
+        <v>2</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="50">
+        <v>30</v>
+      </c>
+      <c r="H41" s="54">
+        <v>256</v>
+      </c>
+      <c r="I41" s="50"/>
+      <c r="J41" s="36"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="47">
+        <v>3</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="47">
+        <v>30</v>
+      </c>
+      <c r="H42" s="53">
+        <v>256</v>
+      </c>
+      <c r="I42" s="47"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
+        <v>2</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="50">
+        <v>40</v>
+      </c>
+      <c r="H43" s="54">
+        <v>256</v>
+      </c>
+      <c r="I43" s="50"/>
+      <c r="J43" s="36"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="47">
+        <v>3</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="47">
+        <v>40</v>
+      </c>
+      <c r="H44" s="53">
+        <v>256</v>
+      </c>
+      <c r="I44" s="47"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>2</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="45">
+        <v>50</v>
+      </c>
+      <c r="H45" s="55">
+        <v>256</v>
+      </c>
+      <c r="I45" s="45"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="46">
+        <v>50</v>
+      </c>
+      <c r="H46" s="56">
+        <v>256</v>
+      </c>
+      <c r="I46" s="46"/>
+      <c r="J46" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCBFCE0-D62A-4787-8AAA-20AB7ACA5ECA}">
   <dimension ref="A1:J26"/>
   <sheetViews>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB0CBE6-9F18-447A-A76D-D187B3E58969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A0ECC8-17F0-4D44-B36F-0D4371420812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedDoor" sheetId="3" r:id="rId1"/>
@@ -1410,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9512EAE-7E03-4C9A-9560-62E0DE7C04A5}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
@@ -5670,8 +5670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EA4EDF-FB69-457D-A5E5-9C9DD8D38A58}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5814,8 +5814,12 @@
       <c r="H7" s="43">
         <v>32</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="22"/>
+      <c r="I7" s="43">
+        <v>1</v>
+      </c>
+      <c r="J7" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="N7" t="s">
         <v>31</v>
       </c>
@@ -5848,8 +5852,12 @@
       <c r="H8" s="38">
         <v>32</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="33"/>
+      <c r="I8" s="38">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J8" s="33">
+        <v>4.4999999999999998E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -5876,8 +5884,12 @@
       <c r="H9" s="43">
         <v>32</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="22"/>
+      <c r="I9" s="43">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0.24399999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
@@ -5904,8 +5916,12 @@
       <c r="H10" s="38">
         <v>32</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="33"/>
+      <c r="I10" s="38">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J10" s="33">
+        <v>2.3029999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A0ECC8-17F0-4D44-B36F-0D4371420812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B103D3-E9E0-49CC-A23D-335905C21954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -5670,8 +5670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EA4EDF-FB69-457D-A5E5-9C9DD8D38A58}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5948,8 +5948,12 @@
       <c r="H11" s="41">
         <v>32</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="19"/>
+      <c r="I11" s="41">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.48699999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
@@ -5976,8 +5980,12 @@
       <c r="H12" s="38">
         <v>32</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="33"/>
+      <c r="I12" s="38">
+        <v>1</v>
+      </c>
+      <c r="J12" s="33">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
@@ -6004,8 +6012,12 @@
       <c r="H13" s="40">
         <v>32</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="36"/>
+      <c r="I13" s="40">
+        <v>1</v>
+      </c>
+      <c r="J13" s="36">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
@@ -6032,8 +6044,12 @@
       <c r="H14" s="38">
         <v>32</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="33"/>
+      <c r="I14" s="38">
+        <v>0.999</v>
+      </c>
+      <c r="J14" s="33">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -6060,8 +6076,12 @@
       <c r="H15" s="41">
         <v>32</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="41">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0.35099999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -6088,8 +6108,12 @@
       <c r="H16" s="42">
         <v>32</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="42">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
@@ -6116,8 +6140,12 @@
       <c r="H17" s="43">
         <v>64</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="22"/>
+      <c r="I17" s="43">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0.40600000000000003</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
@@ -6144,8 +6172,12 @@
       <c r="H18" s="38">
         <v>64</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="33"/>
+      <c r="I18" s="38">
+        <v>1</v>
+      </c>
+      <c r="J18" s="33">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
@@ -6172,8 +6204,12 @@
       <c r="H19" s="40">
         <v>64</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="36"/>
+      <c r="I19" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="36">
+        <v>2.3029999999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
@@ -6200,8 +6236,12 @@
       <c r="H20" s="38">
         <v>64</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="33"/>
+      <c r="I20" s="38">
+        <v>1</v>
+      </c>
+      <c r="J20" s="33">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
@@ -6228,8 +6268,12 @@
       <c r="H21" s="40">
         <v>64</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="36"/>
+      <c r="I21" s="40">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="J21" s="36">
+        <v>0.28699999999999998</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
@@ -6256,8 +6300,12 @@
       <c r="H22" s="38">
         <v>64</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="33"/>
+      <c r="I22" s="38">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J22" s="33">
+        <v>2.3029999999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
@@ -6284,8 +6332,12 @@
       <c r="H23" s="40">
         <v>64</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="36"/>
+      <c r="I23" s="40">
+        <v>1</v>
+      </c>
+      <c r="J23" s="36">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
@@ -6312,8 +6364,12 @@
       <c r="H24" s="38">
         <v>64</v>
       </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="33"/>
+      <c r="I24" s="38">
+        <v>1</v>
+      </c>
+      <c r="J24" s="33">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
@@ -6340,8 +6396,12 @@
       <c r="H25" s="41">
         <v>64</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="19"/>
+      <c r="I25" s="41">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0.40899999999999997</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="46">
@@ -6368,8 +6428,12 @@
       <c r="H26" s="42">
         <v>64</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="4"/>
+      <c r="I26" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2.3029999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
@@ -6396,8 +6460,12 @@
       <c r="H27" s="52">
         <v>128</v>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="22"/>
+      <c r="I27" s="44">
+        <v>1</v>
+      </c>
+      <c r="J27" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
@@ -6424,8 +6492,12 @@
       <c r="H28" s="53">
         <v>128</v>
       </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="33"/>
+      <c r="I28" s="47">
+        <v>1</v>
+      </c>
+      <c r="J28" s="33">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
@@ -6452,8 +6524,12 @@
       <c r="H29" s="54">
         <v>128</v>
       </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="36"/>
+      <c r="I29" s="50">
+        <v>1</v>
+      </c>
+      <c r="J29" s="36">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
@@ -6480,8 +6556,12 @@
       <c r="H30" s="53">
         <v>128</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="33"/>
+      <c r="I30" s="47">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="J30" s="33">
+        <v>0.152</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
@@ -6508,8 +6588,12 @@
       <c r="H31" s="54">
         <v>128</v>
       </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="36"/>
+      <c r="I31" s="50">
+        <v>1</v>
+      </c>
+      <c r="J31" s="36">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
@@ -6536,8 +6620,12 @@
       <c r="H32" s="53">
         <v>128</v>
       </c>
-      <c r="I32" s="47"/>
-      <c r="J32" s="33"/>
+      <c r="I32" s="47">
+        <v>1</v>
+      </c>
+      <c r="J32" s="33">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
@@ -6564,8 +6652,12 @@
       <c r="H33" s="54">
         <v>128</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="36"/>
+      <c r="I33" s="50">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J33" s="36">
+        <v>0.20300000000000001</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
@@ -6592,8 +6684,12 @@
       <c r="H34" s="53">
         <v>128</v>
       </c>
-      <c r="I34" s="47"/>
-      <c r="J34" s="33"/>
+      <c r="I34" s="47">
+        <v>1</v>
+      </c>
+      <c r="J34" s="33">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -6620,8 +6716,12 @@
       <c r="H35" s="55">
         <v>128</v>
       </c>
-      <c r="I35" s="45"/>
-      <c r="J35" s="19"/>
+      <c r="I35" s="45">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="J35" s="19">
+        <v>0.41499999999999998</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="46">
@@ -6648,8 +6748,12 @@
       <c r="H36" s="56">
         <v>128</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="4"/>
+      <c r="I36" s="46">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
@@ -6676,8 +6780,12 @@
       <c r="H37" s="52">
         <v>256</v>
       </c>
-      <c r="I37" s="44"/>
-      <c r="J37" s="22"/>
+      <c r="I37" s="44">
+        <v>1</v>
+      </c>
+      <c r="J37" s="22">
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
@@ -6704,8 +6812,12 @@
       <c r="H38" s="53">
         <v>256</v>
       </c>
-      <c r="I38" s="47"/>
-      <c r="J38" s="33"/>
+      <c r="I38" s="47">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J38" s="33">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
@@ -6732,8 +6844,12 @@
       <c r="H39" s="54">
         <v>256</v>
       </c>
-      <c r="I39" s="50"/>
-      <c r="J39" s="36"/>
+      <c r="I39" s="50">
+        <v>1</v>
+      </c>
+      <c r="J39" s="36">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
@@ -6760,8 +6876,12 @@
       <c r="H40" s="53">
         <v>256</v>
       </c>
-      <c r="I40" s="47"/>
-      <c r="J40" s="33"/>
+      <c r="I40" s="47">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="J40" s="33">
+        <v>0.307</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
@@ -6788,8 +6908,12 @@
       <c r="H41" s="54">
         <v>256</v>
       </c>
-      <c r="I41" s="50"/>
-      <c r="J41" s="36"/>
+      <c r="I41" s="50">
+        <v>1</v>
+      </c>
+      <c r="J41" s="36">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="47">
@@ -6816,8 +6940,12 @@
       <c r="H42" s="53">
         <v>256</v>
       </c>
-      <c r="I42" s="47"/>
-      <c r="J42" s="33"/>
+      <c r="I42" s="47">
+        <v>1</v>
+      </c>
+      <c r="J42" s="33">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
@@ -6844,8 +6972,12 @@
       <c r="H43" s="54">
         <v>256</v>
       </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="36"/>
+      <c r="I43" s="50">
+        <v>1</v>
+      </c>
+      <c r="J43" s="36">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
@@ -6872,8 +7004,12 @@
       <c r="H44" s="53">
         <v>256</v>
       </c>
-      <c r="I44" s="47"/>
-      <c r="J44" s="33"/>
+      <c r="I44" s="47">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="J44" s="33">
+        <v>0.151</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
@@ -6900,8 +7036,12 @@
       <c r="H45" s="55">
         <v>256</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="19"/>
+      <c r="I45" s="45">
+        <v>1</v>
+      </c>
+      <c r="J45" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46">
@@ -6928,8 +7068,12 @@
       <c r="H46" s="56">
         <v>256</v>
       </c>
-      <c r="I46" s="46"/>
-      <c r="J46" s="4"/>
+      <c r="I46" s="46">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.14799999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B103D3-E9E0-49CC-A23D-335905C21954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9AED72-9A60-45D6-9C32-1E3E1341CE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedDoor" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="LargeBin" sheetId="5" r:id="rId3"/>
     <sheet name="StorageBox" sheetId="6" r:id="rId4"/>
     <sheet name="Keras Seq" sheetId="1" r:id="rId5"/>
+    <sheet name="AllData" sheetId="7" r:id="rId6"/>
+    <sheet name="SGD" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="49">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -159,6 +161,33 @@
   <si>
     <t>Large Bin</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>model_sgd_1 parameters</t>
+  </si>
+  <si>
+    <t>Image #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 </t>
+  </si>
+  <si>
+    <t>mode_sgd_2 parameters</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
 </sst>
 </file>
 
@@ -213,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -736,11 +765,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1043,6 +1137,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1104,6 +1217,343 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>58433</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>86575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C6FD5F-3E46-3043-1A27-B8EAE75B6424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="514350"/>
+          <a:ext cx="9192908" cy="6087325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A91BD2-C3EE-BFF3-9C84-FF32588FFD15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6629400" y="6657975"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>258657</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>167695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E32A945-CB6A-44F7-E76B-126CAA2DC9B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17221200" y="571500"/>
+          <a:ext cx="10155132" cy="6111295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9079988A-9870-ACC4-C1EB-58654ED3118A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12363450" y="6629400"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474C290D-F560-4ED8-F48F-3B11F90E22A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6648450" y="9677400"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC1D2FE-1970-E7E3-E530-521F1F8B6D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12487275" y="9744075"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1410,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9512EAE-7E03-4C9A-9560-62E0DE7C04A5}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
@@ -2830,7 +3280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EA1287-235E-4BCC-86D0-1A585A75401B}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
@@ -4250,7 +4700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287FE74C-991A-4067-9EE8-0A2DE1F6D0D7}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
@@ -5670,8 +6120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EA4EDF-FB69-457D-A5E5-9C9DD8D38A58}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7849,4 +8299,1774 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5A619-FAB5-4BB1-8793-63B61E683A60}">
+  <dimension ref="A2:O46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="29">
+        <v>10</v>
+      </c>
+      <c r="H7" s="43">
+        <v>32</v>
+      </c>
+      <c r="I7" s="43">
+        <v>0.34</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1.597</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>3</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="48">
+        <v>10</v>
+      </c>
+      <c r="H8" s="38">
+        <v>32</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J8" s="33">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>2</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="21">
+        <v>20</v>
+      </c>
+      <c r="H9" s="43">
+        <v>32</v>
+      </c>
+      <c r="I9" s="43">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="J9" s="22">
+        <v>1.454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>3</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="32">
+        <v>20</v>
+      </c>
+      <c r="H10" s="38">
+        <v>32</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.625</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>2</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30</v>
+      </c>
+      <c r="H11" s="41">
+        <v>32</v>
+      </c>
+      <c r="I11" s="41">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1.466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>3</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="32">
+        <v>30</v>
+      </c>
+      <c r="H12" s="38">
+        <v>32</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J12" s="33">
+        <v>1.0189999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <v>2</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="35">
+        <v>40</v>
+      </c>
+      <c r="H13" s="40">
+        <v>32</v>
+      </c>
+      <c r="I13" s="40">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="J13" s="36">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>3</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="32">
+        <v>40</v>
+      </c>
+      <c r="H14" s="38">
+        <v>32</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0.5151</v>
+      </c>
+      <c r="J14" s="33">
+        <v>1.115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>2</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="41">
+        <v>32</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>50</v>
+      </c>
+      <c r="H16" s="42">
+        <v>32</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="29">
+        <v>10</v>
+      </c>
+      <c r="H17" s="43">
+        <v>64</v>
+      </c>
+      <c r="I17" s="43">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="J17" s="22">
+        <v>1.599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="48">
+        <v>10</v>
+      </c>
+      <c r="H18" s="38">
+        <v>64</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>2</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="51">
+        <v>20</v>
+      </c>
+      <c r="H19" s="40">
+        <v>64</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="47">
+        <v>3</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="48">
+        <v>20</v>
+      </c>
+      <c r="H20" s="38">
+        <v>64</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>2</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="51">
+        <v>30</v>
+      </c>
+      <c r="H21" s="40">
+        <v>64</v>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="47">
+        <v>3</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="48">
+        <v>30</v>
+      </c>
+      <c r="H22" s="38">
+        <v>64</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <v>2</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="51">
+        <v>40</v>
+      </c>
+      <c r="H23" s="40">
+        <v>64</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="47">
+        <v>3</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="48">
+        <v>40</v>
+      </c>
+      <c r="H24" s="38">
+        <v>64</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>2</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="17">
+        <v>50</v>
+      </c>
+      <c r="H25" s="41">
+        <v>64</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="46">
+        <v>3</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="5">
+        <v>50</v>
+      </c>
+      <c r="H26" s="42">
+        <v>64</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>2</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="44">
+        <v>10</v>
+      </c>
+      <c r="H27" s="52">
+        <v>128</v>
+      </c>
+      <c r="I27" s="44"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="47">
+        <v>3</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="47">
+        <v>10</v>
+      </c>
+      <c r="H28" s="53">
+        <v>128</v>
+      </c>
+      <c r="I28" s="47"/>
+      <c r="J28" s="33"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>2</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="50">
+        <v>20</v>
+      </c>
+      <c r="H29" s="54">
+        <v>128</v>
+      </c>
+      <c r="I29" s="50"/>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="47">
+        <v>3</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="47">
+        <v>20</v>
+      </c>
+      <c r="H30" s="53">
+        <v>128</v>
+      </c>
+      <c r="I30" s="47"/>
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>2</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="50">
+        <v>30</v>
+      </c>
+      <c r="H31" s="54">
+        <v>128</v>
+      </c>
+      <c r="I31" s="50"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="47">
+        <v>3</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="47">
+        <v>30</v>
+      </c>
+      <c r="H32" s="53">
+        <v>128</v>
+      </c>
+      <c r="I32" s="47"/>
+      <c r="J32" s="33"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <v>2</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="50">
+        <v>40</v>
+      </c>
+      <c r="H33" s="54">
+        <v>128</v>
+      </c>
+      <c r="I33" s="50"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="47">
+        <v>3</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="47">
+        <v>40</v>
+      </c>
+      <c r="H34" s="53">
+        <v>128</v>
+      </c>
+      <c r="I34" s="47"/>
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>2</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="45">
+        <v>50</v>
+      </c>
+      <c r="H35" s="55">
+        <v>128</v>
+      </c>
+      <c r="I35" s="45"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="46">
+        <v>3</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="46">
+        <v>50</v>
+      </c>
+      <c r="H36" s="56">
+        <v>128</v>
+      </c>
+      <c r="I36" s="46"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>2</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="44">
+        <v>10</v>
+      </c>
+      <c r="H37" s="52">
+        <v>256</v>
+      </c>
+      <c r="I37" s="44"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="47">
+        <v>3</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="47">
+        <v>10</v>
+      </c>
+      <c r="H38" s="53">
+        <v>256</v>
+      </c>
+      <c r="I38" s="47"/>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <v>2</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="50">
+        <v>20</v>
+      </c>
+      <c r="H39" s="54">
+        <v>256</v>
+      </c>
+      <c r="I39" s="50"/>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="47">
+        <v>3</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="47">
+        <v>20</v>
+      </c>
+      <c r="H40" s="53">
+        <v>256</v>
+      </c>
+      <c r="I40" s="47"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="34">
+        <v>2</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="50">
+        <v>30</v>
+      </c>
+      <c r="H41" s="54">
+        <v>256</v>
+      </c>
+      <c r="I41" s="50"/>
+      <c r="J41" s="36"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="47">
+        <v>3</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="47">
+        <v>30</v>
+      </c>
+      <c r="H42" s="53">
+        <v>256</v>
+      </c>
+      <c r="I42" s="47"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
+        <v>2</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="50">
+        <v>40</v>
+      </c>
+      <c r="H43" s="54">
+        <v>256</v>
+      </c>
+      <c r="I43" s="50"/>
+      <c r="J43" s="36"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="47">
+        <v>3</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="47">
+        <v>40</v>
+      </c>
+      <c r="H44" s="53">
+        <v>256</v>
+      </c>
+      <c r="I44" s="47"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>2</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="45">
+        <v>50</v>
+      </c>
+      <c r="H45" s="55">
+        <v>256</v>
+      </c>
+      <c r="I45" s="45"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="46">
+        <v>50</v>
+      </c>
+      <c r="H46" s="56">
+        <v>256</v>
+      </c>
+      <c r="I46" s="46"/>
+      <c r="J46" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
+  <dimension ref="A2:AC51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="103"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="106" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="29">
+        <v>10</v>
+      </c>
+      <c r="H7" s="43">
+        <v>32</v>
+      </c>
+      <c r="I7" s="43">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="K7" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>3</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="48">
+        <v>10</v>
+      </c>
+      <c r="H8" s="38">
+        <v>32</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="J8" s="33">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="K8" s="107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>2</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="108">
+        <v>20</v>
+      </c>
+      <c r="H9" s="41">
+        <v>32</v>
+      </c>
+      <c r="I9" s="41">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="K9" s="104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>3</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="32">
+        <v>20</v>
+      </c>
+      <c r="H10" s="38">
+        <v>32</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.97</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0.109</v>
+      </c>
+      <c r="K10" s="107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>2</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30</v>
+      </c>
+      <c r="H11" s="41">
+        <v>32</v>
+      </c>
+      <c r="I11" s="41"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="104"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>3</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="32">
+        <v>30</v>
+      </c>
+      <c r="H12" s="38">
+        <v>32</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="107"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <v>2</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="35">
+        <v>40</v>
+      </c>
+      <c r="H13" s="40">
+        <v>32</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="104"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>3</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="32">
+        <v>40</v>
+      </c>
+      <c r="H14" s="38">
+        <v>32</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="107"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>2</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="41">
+        <v>32</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="104"/>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>50</v>
+      </c>
+      <c r="H16" s="42">
+        <v>32</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="105"/>
+    </row>
+    <row r="36" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L36" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="U36" s="102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L51" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="V51" s="102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9AED72-9A60-45D6-9C32-1E3E1341CE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0219C65-E177-473C-A2C7-B0D1D0362974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="51">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -188,6 +188,12 @@
   <si>
     <t>#4</t>
   </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
 </sst>
 </file>
 
@@ -834,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1115,30 +1121,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1155,7 +1137,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1558,6 +1561,128 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4AE6EA-C383-9D3E-47A5-B9F0B9FE7CBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7000875" y="12992100"/>
+          <a:ext cx="3743325" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196C6590-96C5-26C7-E0D4-AFAA71C0FB93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12515850" y="12934950"/>
+          <a:ext cx="3743325" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1918,22 +2043,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="94" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="95" t="s">
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -3338,22 +3463,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="94" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="95" t="s">
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -4758,22 +4883,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="94" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="95" t="s">
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -6178,22 +6303,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="94" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="95" t="s">
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -7569,22 +7694,22 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="98" t="s">
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="101"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -8363,22 +8488,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="94" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="95" t="s">
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -9601,10 +9726,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
-  <dimension ref="A2:AC51"/>
+  <dimension ref="A2:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="U84" sqref="U84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9676,23 +9801,23 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="94" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="95" t="s">
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="103"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="95"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="84" t="s">
@@ -9725,7 +9850,7 @@
       <c r="J6" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="106" t="s">
+      <c r="K6" s="98" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9760,7 +9885,7 @@
       <c r="J7" s="22">
         <v>0.77400000000000002</v>
       </c>
-      <c r="K7" s="104">
+      <c r="K7" s="96">
         <v>1</v>
       </c>
     </row>
@@ -9795,7 +9920,7 @@
       <c r="J8" s="33">
         <v>0.13900000000000001</v>
       </c>
-      <c r="K8" s="107">
+      <c r="K8" s="99">
         <v>2</v>
       </c>
     </row>
@@ -9818,7 +9943,7 @@
       <c r="F9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="1">
         <v>20</v>
       </c>
       <c r="H9" s="41">
@@ -9830,7 +9955,7 @@
       <c r="J9" s="19">
         <v>0.82799999999999996</v>
       </c>
-      <c r="K9" s="104">
+      <c r="K9" s="96">
         <v>3</v>
       </c>
     </row>
@@ -9865,7 +9990,7 @@
       <c r="J10" s="33">
         <v>0.109</v>
       </c>
-      <c r="K10" s="107">
+      <c r="K10" s="99">
         <v>4</v>
       </c>
     </row>
@@ -9894,9 +10019,15 @@
       <c r="H11" s="41">
         <v>32</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="104"/>
+      <c r="I11" s="41">
+        <v>0.372</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1.821</v>
+      </c>
+      <c r="K11" s="96">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
@@ -9923,9 +10054,15 @@
       <c r="H12" s="38">
         <v>32</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="107"/>
+      <c r="I12" s="38">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="J12" s="33">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K12" s="99">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
@@ -9954,7 +10091,7 @@
       </c>
       <c r="I13" s="40"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="104"/>
+      <c r="K13" s="96"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
@@ -9983,7 +10120,7 @@
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="33"/>
-      <c r="K14" s="107"/>
+      <c r="K14" s="99"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -10012,7 +10149,7 @@
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="19"/>
-      <c r="K15" s="104"/>
+      <c r="K15" s="96"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -10041,22 +10178,30 @@
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="105"/>
+      <c r="K16" s="97"/>
     </row>
     <row r="36" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L36" s="102" t="s">
+      <c r="L36" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="U36" s="102" t="s">
+      <c r="U36" s="94" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L51" s="102" t="s">
+      <c r="L51" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="V51" s="102" t="s">
+      <c r="V51" s="94" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L68" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="V68" s="94" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0219C65-E177-473C-A2C7-B0D1D0362974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32492BE-F6E3-4F4E-928B-55F18DC78BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="53">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
   </si>
 </sst>
 </file>
@@ -1683,6 +1689,128 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1889074-A240-B8F9-8A00-51DEBFA5B685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7000875" y="16040100"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0057F8-589F-E02E-CC50-CA2A99242065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12563475" y="16040100"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9726,10 +9854,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
-  <dimension ref="A2:AC68"/>
+  <dimension ref="A2:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="U84" sqref="U84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10089,9 +10217,15 @@
       <c r="H13" s="40">
         <v>32</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="96"/>
+      <c r="I13" s="40">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="J13" s="36">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="K13" s="96">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
@@ -10118,9 +10252,15 @@
       <c r="H14" s="38">
         <v>32</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="99"/>
+      <c r="I14" s="38">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J14" s="33">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="K14" s="99">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -10202,6 +10342,14 @@
       </c>
       <c r="V68" s="94" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M84" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="V84" s="94" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32492BE-F6E3-4F4E-928B-55F18DC78BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48DB23-AA9C-4801-8B88-E46F28072366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="54">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
   </si>
 </sst>
 </file>
@@ -1811,6 +1814,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128BECE2-4854-C395-0C0A-399391CAA5E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7000875" y="19088100"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9854,10 +9918,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
-  <dimension ref="A2:AC84"/>
+  <dimension ref="A2:AC100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10287,8 +10351,12 @@
       <c r="H15" s="41">
         <v>32</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="41">
+        <v>0.64</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0.751</v>
+      </c>
       <c r="K15" s="96"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10350,6 +10418,11 @@
       </c>
       <c r="V84" s="94" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M100" s="94" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48DB23-AA9C-4801-8B88-E46F28072366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F20B590-25ED-48E9-9603-A8885F46B4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="55">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
   </si>
 </sst>
 </file>
@@ -1875,6 +1878,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B228E5BC-63BD-B91E-668F-21C9DEC95289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12830175" y="19078575"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6437,8 +6501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EA4EDF-FB69-457D-A5E5-9C9DD8D38A58}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J16"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9920,8 +9984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
   <dimension ref="A2:AC100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10357,7 +10421,9 @@
       <c r="J15" s="19">
         <v>0.751</v>
       </c>
-      <c r="K15" s="96"/>
+      <c r="K15" s="96">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -10384,9 +10450,15 @@
       <c r="H16" s="42">
         <v>32</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="97"/>
+      <c r="I16" s="42">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="K16" s="97">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L36" s="94" t="s">
@@ -10420,9 +10492,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M100" s="94" t="s">
         <v>53</v>
+      </c>
+      <c r="W100" s="94" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F20B590-25ED-48E9-9603-A8885F46B4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D302D15-9814-4CE8-9ED8-3DB2BFF16F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="57">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1258,7 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>58433</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>86575</xdr:rowOff>
+      <xdr:rowOff>77050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1348,8 +1354,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1357,7 +1363,7 @@
       <xdr:col>45</xdr:col>
       <xdr:colOff>258657</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>167695</xdr:rowOff>
+      <xdr:rowOff>43528</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1380,8 +1386,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17221200" y="571500"/>
-          <a:ext cx="10155132" cy="6111295"/>
+          <a:off x="17411700" y="571500"/>
+          <a:ext cx="9964632" cy="5996653"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1939,6 +1945,128 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3634C4B5-EB79-682B-F4E5-D38006E34559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17497425" y="6915150"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A1C8F7-3704-A605-772C-8E6662DDAEB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21650325" y="6829425"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9982,10 +10110,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
-  <dimension ref="A2:AC100"/>
+  <dimension ref="A2:AK100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10460,12 +10588,320 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="29">
+        <v>10</v>
+      </c>
+      <c r="H17" s="43">
+        <v>64</v>
+      </c>
+      <c r="I17" s="43">
+        <v>0.65</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0.873</v>
+      </c>
+      <c r="K17" s="96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="48">
+        <v>10</v>
+      </c>
+      <c r="H18" s="38">
+        <v>64</v>
+      </c>
+      <c r="I18" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="J18" s="33">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="K18" s="99">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>2</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20</v>
+      </c>
+      <c r="H19" s="41">
+        <v>64</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="96"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>3</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="32">
+        <v>20</v>
+      </c>
+      <c r="H20" s="38">
+        <v>64</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="99"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>2</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1">
+        <v>30</v>
+      </c>
+      <c r="H21" s="41">
+        <v>64</v>
+      </c>
+      <c r="I21" s="41"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="96"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>3</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="32">
+        <v>30</v>
+      </c>
+      <c r="H22" s="38">
+        <v>64</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="99"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <v>2</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="35">
+        <v>40</v>
+      </c>
+      <c r="H23" s="40">
+        <v>64</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="96"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>3</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="32">
+        <v>40</v>
+      </c>
+      <c r="H24" s="38">
+        <v>64</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="99"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>2</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1">
+        <v>50</v>
+      </c>
+      <c r="H25" s="41">
+        <v>64</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="96"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="3">
+        <v>50</v>
+      </c>
+      <c r="H26" s="42">
+        <v>64</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="97"/>
+    </row>
+    <row r="36" spans="12:37" x14ac:dyDescent="0.25">
       <c r="L36" s="94" t="s">
         <v>44</v>
       </c>
       <c r="U36" s="94" t="s">
         <v>46</v>
+      </c>
+      <c r="AD36" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK36" s="94" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="12:22" x14ac:dyDescent="0.25">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D302D15-9814-4CE8-9ED8-3DB2BFF16F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA6BB4-FD8F-4BFD-824A-9745042C4C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="59">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
   </si>
 </sst>
 </file>
@@ -2067,6 +2073,128 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F860656-E33B-E945-9C37-24441025DCDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17506950" y="9915525"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97790861-BB4E-A685-C9B6-D3BE1587E272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21612225" y="9906000"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10112,8 +10240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
   <dimension ref="A2:AK100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10683,9 +10811,15 @@
       <c r="H19" s="41">
         <v>64</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="96"/>
+      <c r="I19" s="41">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0.998</v>
+      </c>
+      <c r="K19" s="96">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
@@ -10712,9 +10846,15 @@
       <c r="H20" s="38">
         <v>64</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="99"/>
+      <c r="I20" s="38">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="J20" s="33">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K20" s="99">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -10904,12 +11044,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:37" x14ac:dyDescent="0.25">
       <c r="L51" s="94" t="s">
         <v>47</v>
       </c>
       <c r="V51" s="94" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="12:37" x14ac:dyDescent="0.25">
+      <c r="AD52" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK52" s="94" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="12:22" x14ac:dyDescent="0.25">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA6BB4-FD8F-4BFD-824A-9745042C4C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F57BA7-48B3-4B1C-AA0A-80D6101DD2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="65">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -217,6 +217,24 @@
   </si>
   <si>
     <t>#14</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>#20</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1324,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>314326</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1367,7 +1385,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>258657</xdr:colOff>
+      <xdr:colOff>258658</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>43528</xdr:rowOff>
     </xdr:to>
@@ -1472,7 +1490,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>333376</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -2195,6 +2213,372 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>137679</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>32905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C82821-5B81-407D-A750-1C16B3C39431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17370136" y="13092546"/>
+          <a:ext cx="3722543" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>138547</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>224271</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>50223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A04669-6602-425F-B06C-223316E9290C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21699683" y="13109864"/>
+          <a:ext cx="3722543" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751C441E-A5FB-4072-AD62-218B12AF81DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17364075" y="16240125"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>566058</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71714FBA-5C57-461C-B437-B55AF1D8A990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22179643" y="16219714"/>
+          <a:ext cx="3750129" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8209BF38-3E28-40AE-A5FC-2154494521D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17487900" y="19097625"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>538843</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C091AC2E-A84F-400E-1FB1-6693E8DADEF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22424571" y="19186072"/>
+          <a:ext cx="3750129" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10238,10 +10622,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
-  <dimension ref="A2:AK100"/>
+  <dimension ref="A2:AL101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="F84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO123" sqref="AO123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10254,7 +10638,7 @@
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.85546875" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -10881,9 +11265,15 @@
       <c r="H21" s="41">
         <v>64</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="96"/>
+      <c r="I21" s="41">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="J21" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="K21" s="96">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
@@ -10910,9 +11300,15 @@
       <c r="H22" s="38">
         <v>64</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="99"/>
+      <c r="I22" s="38">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="J22" s="33">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K22" s="99">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
@@ -10939,9 +11335,15 @@
       <c r="H23" s="40">
         <v>64</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="96"/>
+      <c r="I23" s="40">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="J23" s="36">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="K23" s="96">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
@@ -10968,9 +11370,15 @@
       <c r="H24" s="38">
         <v>64</v>
       </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="99"/>
+      <c r="I24" s="38">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="J24" s="33">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K24" s="99">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
@@ -10997,9 +11405,15 @@
       <c r="H25" s="41">
         <v>64</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="96"/>
+      <c r="I25" s="41">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="K25" s="96">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -11026,9 +11440,15 @@
       <c r="H26" s="42">
         <v>64</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="97"/>
+      <c r="I26" s="42">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="K26" s="97">
+        <v>20</v>
+      </c>
     </row>
     <row r="36" spans="12:37" x14ac:dyDescent="0.25">
       <c r="L36" s="94" t="s">
@@ -11060,7 +11480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:37" x14ac:dyDescent="0.25">
       <c r="L68" s="94" t="s">
         <v>49</v>
       </c>
@@ -11068,7 +11488,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:37" x14ac:dyDescent="0.25">
+      <c r="AD69" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK69" s="94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="13:38" x14ac:dyDescent="0.25">
       <c r="M84" s="94" t="s">
         <v>51</v>
       </c>
@@ -11076,12 +11504,28 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="13:38" x14ac:dyDescent="0.25">
+      <c r="AD85" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL85" s="94" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="13:38" x14ac:dyDescent="0.25">
       <c r="M100" s="94" t="s">
         <v>53</v>
       </c>
       <c r="W100" s="94" t="s">
         <v>54</v>
+      </c>
+      <c r="AD100" s="94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="13:38" x14ac:dyDescent="0.25">
+      <c r="AL101" s="94" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F57BA7-48B3-4B1C-AA0A-80D6101DD2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF0214F-A187-449C-9911-060731290C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="68">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>#20</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#23</t>
   </si>
 </sst>
 </file>
@@ -882,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1203,6 +1212,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1273,16 +1298,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>58433</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>77050</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132304</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1305,8 +1330,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010400" y="514350"/>
-          <a:ext cx="9192908" cy="6087325"/>
+          <a:off x="8481173" y="514350"/>
+          <a:ext cx="8641416" cy="5769983"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,16 +1342,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>100693</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1378,16 +1403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>258658</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>43528</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162669</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1410,8 +1435,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17411700" y="571500"/>
-          <a:ext cx="9964632" cy="5996653"/>
+          <a:off x="18947946" y="571500"/>
+          <a:ext cx="9572625" cy="5755205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1422,16 +1447,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1483,13 +1508,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1544,13 +1569,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -1605,13 +1630,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1666,13 +1691,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1727,13 +1752,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1788,13 +1813,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1849,13 +1874,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1910,13 +1935,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -1971,14 +1996,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2032,16 +2057,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2093,14 +2118,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -2154,13 +2179,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -2215,14 +2240,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>51954</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>137679</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>137678</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>32905</xdr:rowOff>
     </xdr:to>
@@ -2276,14 +2301,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>138547</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>224271</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>224270</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>50223</xdr:rowOff>
     </xdr:to>
@@ -2337,14 +2362,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -2398,14 +2423,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>489857</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>566058</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
@@ -2459,14 +2484,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -2520,14 +2545,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>462642</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>538843</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>538842</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>48986</xdr:rowOff>
     </xdr:to>
@@ -2561,6 +2586,189 @@
         <a:xfrm>
           <a:off x="22424571" y="19186072"/>
           <a:ext cx="3750129" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>585106</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>48985</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6595852D-4973-3E19-03E0-A9FEDDD3988B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28670249" y="6640286"/>
+          <a:ext cx="3750129" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>557892</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61002D03-F7C3-79BC-3764-3799C09B3D68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="32929285" y="6776357"/>
+          <a:ext cx="3750129" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8B88D8-4CE5-D9D4-BCB7-7C7C3031DCAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28584525" y="9972675"/>
+          <a:ext cx="3733800" cy="2647950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9326,7 +9534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5A619-FAB5-4BB1-8793-63B61E683A60}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -10622,10 +10830,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
-  <dimension ref="A2:AL101"/>
+  <dimension ref="A2:BC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO123" sqref="AO123"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10639,10 +10847,10 @@
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="11" max="13" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
@@ -10657,14 +10865,14 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
@@ -10680,7 +10888,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="83" t="s">
         <v>22</v>
       </c>
@@ -10696,7 +10904,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="100" t="s">
         <v>15</v>
       </c>
@@ -10714,8 +10922,10 @@
       <c r="I5" s="101"/>
       <c r="J5" s="102"/>
       <c r="K5" s="95"/>
-    </row>
-    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+    </row>
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="84" t="s">
         <v>7</v>
       </c>
@@ -10749,8 +10959,10 @@
       <c r="K6" s="98" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -10784,8 +10996,10 @@
       <c r="K7" s="96">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -10819,8 +11033,10 @@
       <c r="K8" s="99">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -10854,8 +11070,10 @@
       <c r="K9" s="96">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>3</v>
       </c>
@@ -10889,8 +11107,10 @@
       <c r="K10" s="99">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>2</v>
       </c>
@@ -10924,8 +11144,10 @@
       <c r="K11" s="96">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>3</v>
       </c>
@@ -10959,8 +11181,10 @@
       <c r="K12" s="99">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>2</v>
       </c>
@@ -10994,8 +11218,10 @@
       <c r="K13" s="96">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>3</v>
       </c>
@@ -11029,8 +11255,10 @@
       <c r="K14" s="99">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>2</v>
       </c>
@@ -11064,8 +11292,10 @@
       <c r="K15" s="96">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -11099,8 +11329,10 @@
       <c r="K16" s="97">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>2</v>
       </c>
@@ -11134,8 +11366,10 @@
       <c r="K17" s="96">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>3</v>
       </c>
@@ -11169,8 +11403,10 @@
       <c r="K18" s="99">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>2</v>
       </c>
@@ -11204,8 +11440,10 @@
       <c r="K19" s="96">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>3</v>
       </c>
@@ -11239,8 +11477,10 @@
       <c r="K20" s="99">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>2</v>
       </c>
@@ -11274,8 +11514,10 @@
       <c r="K21" s="96">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>3</v>
       </c>
@@ -11309,8 +11551,10 @@
       <c r="K22" s="99">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>2</v>
       </c>
@@ -11344,8 +11588,10 @@
       <c r="K23" s="96">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>3</v>
       </c>
@@ -11379,8 +11625,10 @@
       <c r="K24" s="99">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>2</v>
       </c>
@@ -11414,8 +11662,10 @@
       <c r="K25" s="96">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>3</v>
       </c>
@@ -11449,84 +11699,3490 @@
       <c r="K26" s="97">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L36" s="94" t="s">
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>2</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="29">
+        <v>10</v>
+      </c>
+      <c r="H27" s="43">
+        <v>128</v>
+      </c>
+      <c r="I27" s="43">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="J27" s="22">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="K27" s="96">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>3</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="48">
+        <v>10</v>
+      </c>
+      <c r="H28" s="38">
+        <v>128</v>
+      </c>
+      <c r="I28" s="38">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="J28" s="33">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="K28" s="99">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>2</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1">
+        <v>20</v>
+      </c>
+      <c r="H29" s="41">
+        <v>128</v>
+      </c>
+      <c r="I29" s="41">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="J29" s="19">
+        <v>0.72</v>
+      </c>
+      <c r="K29" s="96">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>3</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="32">
+        <v>20</v>
+      </c>
+      <c r="H30" s="38">
+        <v>128</v>
+      </c>
+      <c r="I30" s="38"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="99"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>2</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="1">
+        <v>30</v>
+      </c>
+      <c r="H31" s="41">
+        <v>128</v>
+      </c>
+      <c r="I31" s="41"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="96"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <v>3</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="32">
+        <v>30</v>
+      </c>
+      <c r="H32" s="38">
+        <v>128</v>
+      </c>
+      <c r="I32" s="38"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="119"/>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <v>2</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="35">
+        <v>40</v>
+      </c>
+      <c r="H33" s="40">
+        <v>128</v>
+      </c>
+      <c r="I33" s="40"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="119"/>
+    </row>
+    <row r="34" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31">
+        <v>3</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="32">
+        <v>40</v>
+      </c>
+      <c r="H34" s="38">
+        <v>128</v>
+      </c>
+      <c r="I34" s="38"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="119"/>
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>2</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="1">
+        <v>50</v>
+      </c>
+      <c r="H35" s="41">
+        <v>128</v>
+      </c>
+      <c r="I35" s="41"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="108"/>
+      <c r="U35" s="108"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="108"/>
+      <c r="X35" s="108"/>
+      <c r="Y35" s="108"/>
+      <c r="Z35" s="108"/>
+      <c r="AA35" s="108"/>
+      <c r="AB35" s="108"/>
+      <c r="AC35" s="108"/>
+      <c r="AD35" s="109"/>
+      <c r="AE35" s="115"/>
+      <c r="AF35" s="108"/>
+      <c r="AG35" s="108"/>
+      <c r="AH35" s="108"/>
+      <c r="AI35" s="108"/>
+      <c r="AJ35" s="108"/>
+      <c r="AK35" s="108"/>
+      <c r="AL35" s="108"/>
+      <c r="AM35" s="108"/>
+      <c r="AN35" s="108"/>
+      <c r="AO35" s="108"/>
+      <c r="AP35" s="108"/>
+      <c r="AQ35" s="108"/>
+      <c r="AR35" s="108"/>
+      <c r="AS35" s="108"/>
+      <c r="AT35" s="109"/>
+    </row>
+    <row r="36" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="3">
+        <v>50</v>
+      </c>
+      <c r="H36" s="42">
+        <v>128</v>
+      </c>
+      <c r="I36" s="42"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="119"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="U36" s="94" t="s">
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="AD36" s="94" t="s">
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="111"/>
+      <c r="AA36" s="111"/>
+      <c r="AB36" s="111"/>
+      <c r="AC36" s="111"/>
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="116"/>
+      <c r="AF36" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="AK36" s="94" t="s">
+      <c r="AG36" s="111"/>
+      <c r="AH36" s="111"/>
+      <c r="AI36" s="111"/>
+      <c r="AJ36" s="111"/>
+      <c r="AK36" s="111"/>
+      <c r="AL36" s="111"/>
+      <c r="AM36" s="110" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="51" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L51" s="94" t="s">
+      <c r="AN36" s="111"/>
+      <c r="AO36" s="111"/>
+      <c r="AP36" s="111"/>
+      <c r="AQ36" s="111"/>
+      <c r="AR36" s="111"/>
+      <c r="AS36" s="111"/>
+      <c r="AT36" s="112"/>
+      <c r="AV36" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC36" s="94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
+      <c r="Z37" s="111"/>
+      <c r="AA37" s="111"/>
+      <c r="AB37" s="111"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="112"/>
+      <c r="AE37" s="116"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="111"/>
+      <c r="AH37" s="111"/>
+      <c r="AI37" s="111"/>
+      <c r="AJ37" s="111"/>
+      <c r="AK37" s="111"/>
+      <c r="AL37" s="111"/>
+      <c r="AM37" s="111"/>
+      <c r="AN37" s="111"/>
+      <c r="AO37" s="111"/>
+      <c r="AP37" s="111"/>
+      <c r="AQ37" s="111"/>
+      <c r="AR37" s="111"/>
+      <c r="AS37" s="111"/>
+      <c r="AT37" s="112"/>
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="K38" s="119"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
+      <c r="Z38" s="111"/>
+      <c r="AA38" s="111"/>
+      <c r="AB38" s="111"/>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="112"/>
+      <c r="AE38" s="116"/>
+      <c r="AF38" s="111"/>
+      <c r="AG38" s="111"/>
+      <c r="AH38" s="111"/>
+      <c r="AI38" s="111"/>
+      <c r="AJ38" s="111"/>
+      <c r="AK38" s="111"/>
+      <c r="AL38" s="111"/>
+      <c r="AM38" s="111"/>
+      <c r="AN38" s="111"/>
+      <c r="AO38" s="111"/>
+      <c r="AP38" s="111"/>
+      <c r="AQ38" s="111"/>
+      <c r="AR38" s="111"/>
+      <c r="AS38" s="111"/>
+      <c r="AT38" s="112"/>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="111"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="111"/>
+      <c r="AA39" s="111"/>
+      <c r="AB39" s="111"/>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="112"/>
+      <c r="AE39" s="116"/>
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="111"/>
+      <c r="AH39" s="111"/>
+      <c r="AI39" s="111"/>
+      <c r="AJ39" s="111"/>
+      <c r="AK39" s="111"/>
+      <c r="AL39" s="111"/>
+      <c r="AM39" s="111"/>
+      <c r="AN39" s="111"/>
+      <c r="AO39" s="111"/>
+      <c r="AP39" s="111"/>
+      <c r="AQ39" s="111"/>
+      <c r="AR39" s="111"/>
+      <c r="AS39" s="111"/>
+      <c r="AT39" s="112"/>
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="K40" s="119"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="112"/>
+      <c r="AE40" s="116"/>
+      <c r="AF40" s="111"/>
+      <c r="AG40" s="111"/>
+      <c r="AH40" s="111"/>
+      <c r="AI40" s="111"/>
+      <c r="AJ40" s="111"/>
+      <c r="AK40" s="111"/>
+      <c r="AL40" s="111"/>
+      <c r="AM40" s="111"/>
+      <c r="AN40" s="111"/>
+      <c r="AO40" s="111"/>
+      <c r="AP40" s="111"/>
+      <c r="AQ40" s="111"/>
+      <c r="AR40" s="111"/>
+      <c r="AS40" s="111"/>
+      <c r="AT40" s="112"/>
+    </row>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="K41" s="119"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="111"/>
+      <c r="O41" s="111"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="111"/>
+      <c r="V41" s="111"/>
+      <c r="W41" s="111"/>
+      <c r="X41" s="111"/>
+      <c r="Y41" s="111"/>
+      <c r="Z41" s="111"/>
+      <c r="AA41" s="111"/>
+      <c r="AB41" s="111"/>
+      <c r="AC41" s="111"/>
+      <c r="AD41" s="112"/>
+      <c r="AE41" s="116"/>
+      <c r="AF41" s="111"/>
+      <c r="AG41" s="111"/>
+      <c r="AH41" s="111"/>
+      <c r="AI41" s="111"/>
+      <c r="AJ41" s="111"/>
+      <c r="AK41" s="111"/>
+      <c r="AL41" s="111"/>
+      <c r="AM41" s="111"/>
+      <c r="AN41" s="111"/>
+      <c r="AO41" s="111"/>
+      <c r="AP41" s="111"/>
+      <c r="AQ41" s="111"/>
+      <c r="AR41" s="111"/>
+      <c r="AS41" s="111"/>
+      <c r="AT41" s="112"/>
+    </row>
+    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="K42" s="119"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="111"/>
+      <c r="V42" s="111"/>
+      <c r="W42" s="111"/>
+      <c r="X42" s="111"/>
+      <c r="Y42" s="111"/>
+      <c r="Z42" s="111"/>
+      <c r="AA42" s="111"/>
+      <c r="AB42" s="111"/>
+      <c r="AC42" s="111"/>
+      <c r="AD42" s="112"/>
+      <c r="AE42" s="116"/>
+      <c r="AF42" s="111"/>
+      <c r="AG42" s="111"/>
+      <c r="AH42" s="111"/>
+      <c r="AI42" s="111"/>
+      <c r="AJ42" s="111"/>
+      <c r="AK42" s="111"/>
+      <c r="AL42" s="111"/>
+      <c r="AM42" s="111"/>
+      <c r="AN42" s="111"/>
+      <c r="AO42" s="111"/>
+      <c r="AP42" s="111"/>
+      <c r="AQ42" s="111"/>
+      <c r="AR42" s="111"/>
+      <c r="AS42" s="111"/>
+      <c r="AT42" s="112"/>
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="K43" s="119"/>
+      <c r="L43" s="119"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="111"/>
+      <c r="T43" s="111"/>
+      <c r="U43" s="111"/>
+      <c r="V43" s="111"/>
+      <c r="W43" s="111"/>
+      <c r="X43" s="111"/>
+      <c r="Y43" s="111"/>
+      <c r="Z43" s="111"/>
+      <c r="AA43" s="111"/>
+      <c r="AB43" s="111"/>
+      <c r="AC43" s="111"/>
+      <c r="AD43" s="112"/>
+      <c r="AE43" s="116"/>
+      <c r="AF43" s="111"/>
+      <c r="AG43" s="111"/>
+      <c r="AH43" s="111"/>
+      <c r="AI43" s="111"/>
+      <c r="AJ43" s="111"/>
+      <c r="AK43" s="111"/>
+      <c r="AL43" s="111"/>
+      <c r="AM43" s="111"/>
+      <c r="AN43" s="111"/>
+      <c r="AO43" s="111"/>
+      <c r="AP43" s="111"/>
+      <c r="AQ43" s="111"/>
+      <c r="AR43" s="111"/>
+      <c r="AS43" s="111"/>
+      <c r="AT43" s="112"/>
+    </row>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="K44" s="119"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="111"/>
+      <c r="O44" s="111"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="111"/>
+      <c r="T44" s="111"/>
+      <c r="U44" s="111"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="111"/>
+      <c r="X44" s="111"/>
+      <c r="Y44" s="111"/>
+      <c r="Z44" s="111"/>
+      <c r="AA44" s="111"/>
+      <c r="AB44" s="111"/>
+      <c r="AC44" s="111"/>
+      <c r="AD44" s="112"/>
+      <c r="AE44" s="116"/>
+      <c r="AF44" s="111"/>
+      <c r="AG44" s="111"/>
+      <c r="AH44" s="111"/>
+      <c r="AI44" s="111"/>
+      <c r="AJ44" s="111"/>
+      <c r="AK44" s="111"/>
+      <c r="AL44" s="111"/>
+      <c r="AM44" s="111"/>
+      <c r="AN44" s="111"/>
+      <c r="AO44" s="111"/>
+      <c r="AP44" s="111"/>
+      <c r="AQ44" s="111"/>
+      <c r="AR44" s="111"/>
+      <c r="AS44" s="111"/>
+      <c r="AT44" s="112"/>
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="K45" s="119"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="111"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="111"/>
+      <c r="S45" s="111"/>
+      <c r="T45" s="111"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="111"/>
+      <c r="X45" s="111"/>
+      <c r="Y45" s="111"/>
+      <c r="Z45" s="111"/>
+      <c r="AA45" s="111"/>
+      <c r="AB45" s="111"/>
+      <c r="AC45" s="111"/>
+      <c r="AD45" s="112"/>
+      <c r="AE45" s="116"/>
+      <c r="AF45" s="111"/>
+      <c r="AG45" s="111"/>
+      <c r="AH45" s="111"/>
+      <c r="AI45" s="111"/>
+      <c r="AJ45" s="111"/>
+      <c r="AK45" s="111"/>
+      <c r="AL45" s="111"/>
+      <c r="AM45" s="111"/>
+      <c r="AN45" s="111"/>
+      <c r="AO45" s="111"/>
+      <c r="AP45" s="111"/>
+      <c r="AQ45" s="111"/>
+      <c r="AR45" s="111"/>
+      <c r="AS45" s="111"/>
+      <c r="AT45" s="112"/>
+    </row>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="K46" s="119"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="111"/>
+      <c r="U46" s="111"/>
+      <c r="V46" s="111"/>
+      <c r="W46" s="111"/>
+      <c r="X46" s="111"/>
+      <c r="Y46" s="111"/>
+      <c r="Z46" s="111"/>
+      <c r="AA46" s="111"/>
+      <c r="AB46" s="111"/>
+      <c r="AC46" s="111"/>
+      <c r="AD46" s="112"/>
+      <c r="AE46" s="116"/>
+      <c r="AF46" s="111"/>
+      <c r="AG46" s="111"/>
+      <c r="AH46" s="111"/>
+      <c r="AI46" s="111"/>
+      <c r="AJ46" s="111"/>
+      <c r="AK46" s="111"/>
+      <c r="AL46" s="111"/>
+      <c r="AM46" s="111"/>
+      <c r="AN46" s="111"/>
+      <c r="AO46" s="111"/>
+      <c r="AP46" s="111"/>
+      <c r="AQ46" s="111"/>
+      <c r="AR46" s="111"/>
+      <c r="AS46" s="111"/>
+      <c r="AT46" s="112"/>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="K47" s="119"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="111"/>
+      <c r="V47" s="111"/>
+      <c r="W47" s="111"/>
+      <c r="X47" s="111"/>
+      <c r="Y47" s="111"/>
+      <c r="Z47" s="111"/>
+      <c r="AA47" s="111"/>
+      <c r="AB47" s="111"/>
+      <c r="AC47" s="111"/>
+      <c r="AD47" s="112"/>
+      <c r="AE47" s="116"/>
+      <c r="AF47" s="111"/>
+      <c r="AG47" s="111"/>
+      <c r="AH47" s="111"/>
+      <c r="AI47" s="111"/>
+      <c r="AJ47" s="111"/>
+      <c r="AK47" s="111"/>
+      <c r="AL47" s="111"/>
+      <c r="AM47" s="111"/>
+      <c r="AN47" s="111"/>
+      <c r="AO47" s="111"/>
+      <c r="AP47" s="111"/>
+      <c r="AQ47" s="111"/>
+      <c r="AR47" s="111"/>
+      <c r="AS47" s="111"/>
+      <c r="AT47" s="112"/>
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="K48" s="119"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="111"/>
+      <c r="O48" s="111"/>
+      <c r="P48" s="111"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="111"/>
+      <c r="S48" s="111"/>
+      <c r="T48" s="111"/>
+      <c r="U48" s="111"/>
+      <c r="V48" s="111"/>
+      <c r="W48" s="111"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="111"/>
+      <c r="Z48" s="111"/>
+      <c r="AA48" s="111"/>
+      <c r="AB48" s="111"/>
+      <c r="AC48" s="111"/>
+      <c r="AD48" s="112"/>
+      <c r="AE48" s="116"/>
+      <c r="AF48" s="111"/>
+      <c r="AG48" s="111"/>
+      <c r="AH48" s="111"/>
+      <c r="AI48" s="111"/>
+      <c r="AJ48" s="111"/>
+      <c r="AK48" s="111"/>
+      <c r="AL48" s="111"/>
+      <c r="AM48" s="111"/>
+      <c r="AN48" s="111"/>
+      <c r="AO48" s="111"/>
+      <c r="AP48" s="111"/>
+      <c r="AQ48" s="111"/>
+      <c r="AR48" s="111"/>
+      <c r="AS48" s="111"/>
+      <c r="AT48" s="112"/>
+    </row>
+    <row r="49" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K49" s="119"/>
+      <c r="L49" s="119"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="111"/>
+      <c r="T49" s="111"/>
+      <c r="U49" s="111"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="111"/>
+      <c r="X49" s="111"/>
+      <c r="Y49" s="111"/>
+      <c r="Z49" s="111"/>
+      <c r="AA49" s="111"/>
+      <c r="AB49" s="111"/>
+      <c r="AC49" s="111"/>
+      <c r="AD49" s="112"/>
+      <c r="AE49" s="116"/>
+      <c r="AF49" s="111"/>
+      <c r="AG49" s="111"/>
+      <c r="AH49" s="111"/>
+      <c r="AI49" s="111"/>
+      <c r="AJ49" s="111"/>
+      <c r="AK49" s="111"/>
+      <c r="AL49" s="111"/>
+      <c r="AM49" s="111"/>
+      <c r="AN49" s="111"/>
+      <c r="AO49" s="111"/>
+      <c r="AP49" s="111"/>
+      <c r="AQ49" s="111"/>
+      <c r="AR49" s="111"/>
+      <c r="AS49" s="111"/>
+      <c r="AT49" s="112"/>
+    </row>
+    <row r="50" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K50" s="119"/>
+      <c r="L50" s="119"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="111"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
+      <c r="Z50" s="111"/>
+      <c r="AA50" s="111"/>
+      <c r="AB50" s="111"/>
+      <c r="AC50" s="111"/>
+      <c r="AD50" s="112"/>
+      <c r="AE50" s="116"/>
+      <c r="AF50" s="111"/>
+      <c r="AG50" s="111"/>
+      <c r="AH50" s="111"/>
+      <c r="AI50" s="111"/>
+      <c r="AJ50" s="111"/>
+      <c r="AK50" s="111"/>
+      <c r="AL50" s="111"/>
+      <c r="AM50" s="111"/>
+      <c r="AN50" s="111"/>
+      <c r="AO50" s="111"/>
+      <c r="AP50" s="111"/>
+      <c r="AQ50" s="111"/>
+      <c r="AR50" s="111"/>
+      <c r="AS50" s="111"/>
+      <c r="AT50" s="112"/>
+    </row>
+    <row r="51" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K51" s="119"/>
+      <c r="L51" s="119"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="V51" s="94" t="s">
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+      <c r="V51" s="111"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="110" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="AD52" s="94" t="s">
+      <c r="Y51" s="111"/>
+      <c r="Z51" s="111"/>
+      <c r="AA51" s="111"/>
+      <c r="AB51" s="111"/>
+      <c r="AC51" s="111"/>
+      <c r="AD51" s="112"/>
+      <c r="AE51" s="116"/>
+      <c r="AF51" s="111"/>
+      <c r="AG51" s="111"/>
+      <c r="AH51" s="111"/>
+      <c r="AI51" s="111"/>
+      <c r="AJ51" s="111"/>
+      <c r="AK51" s="111"/>
+      <c r="AL51" s="111"/>
+      <c r="AM51" s="111"/>
+      <c r="AN51" s="111"/>
+      <c r="AO51" s="111"/>
+      <c r="AP51" s="111"/>
+      <c r="AQ51" s="111"/>
+      <c r="AR51" s="111"/>
+      <c r="AS51" s="111"/>
+      <c r="AT51" s="112"/>
+    </row>
+    <row r="52" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K52" s="119"/>
+      <c r="L52" s="119"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="111"/>
+      <c r="O52" s="111"/>
+      <c r="P52" s="111"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="111"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="111"/>
+      <c r="U52" s="111"/>
+      <c r="V52" s="111"/>
+      <c r="W52" s="111"/>
+      <c r="X52" s="111"/>
+      <c r="Y52" s="111"/>
+      <c r="Z52" s="111"/>
+      <c r="AA52" s="111"/>
+      <c r="AB52" s="111"/>
+      <c r="AC52" s="111"/>
+      <c r="AD52" s="112"/>
+      <c r="AE52" s="116"/>
+      <c r="AF52" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="AK52" s="94" t="s">
+      <c r="AG52" s="111"/>
+      <c r="AH52" s="111"/>
+      <c r="AI52" s="111"/>
+      <c r="AJ52" s="111"/>
+      <c r="AK52" s="111"/>
+      <c r="AL52" s="111"/>
+      <c r="AM52" s="110" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="68" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L68" s="94" t="s">
+      <c r="AN52" s="111"/>
+      <c r="AO52" s="111"/>
+      <c r="AP52" s="111"/>
+      <c r="AQ52" s="111"/>
+      <c r="AR52" s="111"/>
+      <c r="AS52" s="111"/>
+      <c r="AT52" s="112"/>
+      <c r="AV52" s="94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K53" s="119"/>
+      <c r="L53" s="119"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="111"/>
+      <c r="O53" s="111"/>
+      <c r="P53" s="111"/>
+      <c r="Q53" s="111"/>
+      <c r="R53" s="111"/>
+      <c r="S53" s="111"/>
+      <c r="T53" s="111"/>
+      <c r="U53" s="111"/>
+      <c r="V53" s="111"/>
+      <c r="W53" s="111"/>
+      <c r="X53" s="111"/>
+      <c r="Y53" s="111"/>
+      <c r="Z53" s="111"/>
+      <c r="AA53" s="111"/>
+      <c r="AB53" s="111"/>
+      <c r="AC53" s="111"/>
+      <c r="AD53" s="112"/>
+      <c r="AE53" s="116"/>
+      <c r="AF53" s="111"/>
+      <c r="AG53" s="111"/>
+      <c r="AH53" s="111"/>
+      <c r="AI53" s="111"/>
+      <c r="AJ53" s="111"/>
+      <c r="AK53" s="111"/>
+      <c r="AL53" s="111"/>
+      <c r="AM53" s="111"/>
+      <c r="AN53" s="111"/>
+      <c r="AO53" s="111"/>
+      <c r="AP53" s="111"/>
+      <c r="AQ53" s="111"/>
+      <c r="AR53" s="111"/>
+      <c r="AS53" s="111"/>
+      <c r="AT53" s="112"/>
+    </row>
+    <row r="54" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K54" s="119"/>
+      <c r="L54" s="119"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="111"/>
+      <c r="O54" s="111"/>
+      <c r="P54" s="111"/>
+      <c r="Q54" s="111"/>
+      <c r="R54" s="111"/>
+      <c r="S54" s="111"/>
+      <c r="T54" s="111"/>
+      <c r="U54" s="111"/>
+      <c r="V54" s="111"/>
+      <c r="W54" s="111"/>
+      <c r="X54" s="111"/>
+      <c r="Y54" s="111"/>
+      <c r="Z54" s="111"/>
+      <c r="AA54" s="111"/>
+      <c r="AB54" s="111"/>
+      <c r="AC54" s="111"/>
+      <c r="AD54" s="112"/>
+      <c r="AE54" s="116"/>
+      <c r="AF54" s="111"/>
+      <c r="AG54" s="111"/>
+      <c r="AH54" s="111"/>
+      <c r="AI54" s="111"/>
+      <c r="AJ54" s="111"/>
+      <c r="AK54" s="111"/>
+      <c r="AL54" s="111"/>
+      <c r="AM54" s="111"/>
+      <c r="AN54" s="111"/>
+      <c r="AO54" s="111"/>
+      <c r="AP54" s="111"/>
+      <c r="AQ54" s="111"/>
+      <c r="AR54" s="111"/>
+      <c r="AS54" s="111"/>
+      <c r="AT54" s="112"/>
+    </row>
+    <row r="55" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K55" s="119"/>
+      <c r="L55" s="119"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="111"/>
+      <c r="O55" s="111"/>
+      <c r="P55" s="111"/>
+      <c r="Q55" s="111"/>
+      <c r="R55" s="111"/>
+      <c r="S55" s="111"/>
+      <c r="T55" s="111"/>
+      <c r="U55" s="111"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="111"/>
+      <c r="X55" s="111"/>
+      <c r="Y55" s="111"/>
+      <c r="Z55" s="111"/>
+      <c r="AA55" s="111"/>
+      <c r="AB55" s="111"/>
+      <c r="AC55" s="111"/>
+      <c r="AD55" s="112"/>
+      <c r="AE55" s="116"/>
+      <c r="AF55" s="111"/>
+      <c r="AG55" s="111"/>
+      <c r="AH55" s="111"/>
+      <c r="AI55" s="111"/>
+      <c r="AJ55" s="111"/>
+      <c r="AK55" s="111"/>
+      <c r="AL55" s="111"/>
+      <c r="AM55" s="111"/>
+      <c r="AN55" s="111"/>
+      <c r="AO55" s="111"/>
+      <c r="AP55" s="111"/>
+      <c r="AQ55" s="111"/>
+      <c r="AR55" s="111"/>
+      <c r="AS55" s="111"/>
+      <c r="AT55" s="112"/>
+    </row>
+    <row r="56" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K56" s="119"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="111"/>
+      <c r="O56" s="111"/>
+      <c r="P56" s="111"/>
+      <c r="Q56" s="111"/>
+      <c r="R56" s="111"/>
+      <c r="S56" s="111"/>
+      <c r="T56" s="111"/>
+      <c r="U56" s="111"/>
+      <c r="V56" s="111"/>
+      <c r="W56" s="111"/>
+      <c r="X56" s="111"/>
+      <c r="Y56" s="111"/>
+      <c r="Z56" s="111"/>
+      <c r="AA56" s="111"/>
+      <c r="AB56" s="111"/>
+      <c r="AC56" s="111"/>
+      <c r="AD56" s="112"/>
+      <c r="AE56" s="116"/>
+      <c r="AF56" s="111"/>
+      <c r="AG56" s="111"/>
+      <c r="AH56" s="111"/>
+      <c r="AI56" s="111"/>
+      <c r="AJ56" s="111"/>
+      <c r="AK56" s="111"/>
+      <c r="AL56" s="111"/>
+      <c r="AM56" s="111"/>
+      <c r="AN56" s="111"/>
+      <c r="AO56" s="111"/>
+      <c r="AP56" s="111"/>
+      <c r="AQ56" s="111"/>
+      <c r="AR56" s="111"/>
+      <c r="AS56" s="111"/>
+      <c r="AT56" s="112"/>
+    </row>
+    <row r="57" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K57" s="119"/>
+      <c r="L57" s="119"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="111"/>
+      <c r="O57" s="111"/>
+      <c r="P57" s="111"/>
+      <c r="Q57" s="111"/>
+      <c r="R57" s="111"/>
+      <c r="S57" s="111"/>
+      <c r="T57" s="111"/>
+      <c r="U57" s="111"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
+      <c r="X57" s="111"/>
+      <c r="Y57" s="111"/>
+      <c r="Z57" s="111"/>
+      <c r="AA57" s="111"/>
+      <c r="AB57" s="111"/>
+      <c r="AC57" s="111"/>
+      <c r="AD57" s="112"/>
+      <c r="AE57" s="116"/>
+      <c r="AF57" s="111"/>
+      <c r="AG57" s="111"/>
+      <c r="AH57" s="111"/>
+      <c r="AI57" s="111"/>
+      <c r="AJ57" s="111"/>
+      <c r="AK57" s="111"/>
+      <c r="AL57" s="111"/>
+      <c r="AM57" s="111"/>
+      <c r="AN57" s="111"/>
+      <c r="AO57" s="111"/>
+      <c r="AP57" s="111"/>
+      <c r="AQ57" s="111"/>
+      <c r="AR57" s="111"/>
+      <c r="AS57" s="111"/>
+      <c r="AT57" s="112"/>
+    </row>
+    <row r="58" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K58" s="119"/>
+      <c r="L58" s="119"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="111"/>
+      <c r="O58" s="111"/>
+      <c r="P58" s="111"/>
+      <c r="Q58" s="111"/>
+      <c r="R58" s="111"/>
+      <c r="S58" s="111"/>
+      <c r="T58" s="111"/>
+      <c r="U58" s="111"/>
+      <c r="V58" s="111"/>
+      <c r="W58" s="111"/>
+      <c r="X58" s="111"/>
+      <c r="Y58" s="111"/>
+      <c r="Z58" s="111"/>
+      <c r="AA58" s="111"/>
+      <c r="AB58" s="111"/>
+      <c r="AC58" s="111"/>
+      <c r="AD58" s="112"/>
+      <c r="AE58" s="116"/>
+      <c r="AF58" s="111"/>
+      <c r="AG58" s="111"/>
+      <c r="AH58" s="111"/>
+      <c r="AI58" s="111"/>
+      <c r="AJ58" s="111"/>
+      <c r="AK58" s="111"/>
+      <c r="AL58" s="111"/>
+      <c r="AM58" s="111"/>
+      <c r="AN58" s="111"/>
+      <c r="AO58" s="111"/>
+      <c r="AP58" s="111"/>
+      <c r="AQ58" s="111"/>
+      <c r="AR58" s="111"/>
+      <c r="AS58" s="111"/>
+      <c r="AT58" s="112"/>
+    </row>
+    <row r="59" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K59" s="119"/>
+      <c r="L59" s="119"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="111"/>
+      <c r="O59" s="111"/>
+      <c r="P59" s="111"/>
+      <c r="Q59" s="111"/>
+      <c r="R59" s="111"/>
+      <c r="S59" s="111"/>
+      <c r="T59" s="111"/>
+      <c r="U59" s="111"/>
+      <c r="V59" s="111"/>
+      <c r="W59" s="111"/>
+      <c r="X59" s="111"/>
+      <c r="Y59" s="111"/>
+      <c r="Z59" s="111"/>
+      <c r="AA59" s="111"/>
+      <c r="AB59" s="111"/>
+      <c r="AC59" s="111"/>
+      <c r="AD59" s="112"/>
+      <c r="AE59" s="116"/>
+      <c r="AF59" s="111"/>
+      <c r="AG59" s="111"/>
+      <c r="AH59" s="111"/>
+      <c r="AI59" s="111"/>
+      <c r="AJ59" s="111"/>
+      <c r="AK59" s="111"/>
+      <c r="AL59" s="111"/>
+      <c r="AM59" s="111"/>
+      <c r="AN59" s="111"/>
+      <c r="AO59" s="111"/>
+      <c r="AP59" s="111"/>
+      <c r="AQ59" s="111"/>
+      <c r="AR59" s="111"/>
+      <c r="AS59" s="111"/>
+      <c r="AT59" s="112"/>
+    </row>
+    <row r="60" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K60" s="119"/>
+      <c r="L60" s="119"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="111"/>
+      <c r="O60" s="111"/>
+      <c r="P60" s="111"/>
+      <c r="Q60" s="111"/>
+      <c r="R60" s="111"/>
+      <c r="S60" s="111"/>
+      <c r="T60" s="111"/>
+      <c r="U60" s="111"/>
+      <c r="V60" s="111"/>
+      <c r="W60" s="111"/>
+      <c r="X60" s="111"/>
+      <c r="Y60" s="111"/>
+      <c r="Z60" s="111"/>
+      <c r="AA60" s="111"/>
+      <c r="AB60" s="111"/>
+      <c r="AC60" s="111"/>
+      <c r="AD60" s="112"/>
+      <c r="AE60" s="116"/>
+      <c r="AF60" s="111"/>
+      <c r="AG60" s="111"/>
+      <c r="AH60" s="111"/>
+      <c r="AI60" s="111"/>
+      <c r="AJ60" s="111"/>
+      <c r="AK60" s="111"/>
+      <c r="AL60" s="111"/>
+      <c r="AM60" s="111"/>
+      <c r="AN60" s="111"/>
+      <c r="AO60" s="111"/>
+      <c r="AP60" s="111"/>
+      <c r="AQ60" s="111"/>
+      <c r="AR60" s="111"/>
+      <c r="AS60" s="111"/>
+      <c r="AT60" s="112"/>
+    </row>
+    <row r="61" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K61" s="119"/>
+      <c r="L61" s="119"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="111"/>
+      <c r="S61" s="111"/>
+      <c r="T61" s="111"/>
+      <c r="U61" s="111"/>
+      <c r="V61" s="111"/>
+      <c r="W61" s="111"/>
+      <c r="X61" s="111"/>
+      <c r="Y61" s="111"/>
+      <c r="Z61" s="111"/>
+      <c r="AA61" s="111"/>
+      <c r="AB61" s="111"/>
+      <c r="AC61" s="111"/>
+      <c r="AD61" s="112"/>
+      <c r="AE61" s="116"/>
+      <c r="AF61" s="111"/>
+      <c r="AG61" s="111"/>
+      <c r="AH61" s="111"/>
+      <c r="AI61" s="111"/>
+      <c r="AJ61" s="111"/>
+      <c r="AK61" s="111"/>
+      <c r="AL61" s="111"/>
+      <c r="AM61" s="111"/>
+      <c r="AN61" s="111"/>
+      <c r="AO61" s="111"/>
+      <c r="AP61" s="111"/>
+      <c r="AQ61" s="111"/>
+      <c r="AR61" s="111"/>
+      <c r="AS61" s="111"/>
+      <c r="AT61" s="112"/>
+    </row>
+    <row r="62" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K62" s="119"/>
+      <c r="L62" s="119"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="111"/>
+      <c r="O62" s="111"/>
+      <c r="P62" s="111"/>
+      <c r="Q62" s="111"/>
+      <c r="R62" s="111"/>
+      <c r="S62" s="111"/>
+      <c r="T62" s="111"/>
+      <c r="U62" s="111"/>
+      <c r="V62" s="111"/>
+      <c r="W62" s="111"/>
+      <c r="X62" s="111"/>
+      <c r="Y62" s="111"/>
+      <c r="Z62" s="111"/>
+      <c r="AA62" s="111"/>
+      <c r="AB62" s="111"/>
+      <c r="AC62" s="111"/>
+      <c r="AD62" s="112"/>
+      <c r="AE62" s="116"/>
+      <c r="AF62" s="111"/>
+      <c r="AG62" s="111"/>
+      <c r="AH62" s="111"/>
+      <c r="AI62" s="111"/>
+      <c r="AJ62" s="111"/>
+      <c r="AK62" s="111"/>
+      <c r="AL62" s="111"/>
+      <c r="AM62" s="111"/>
+      <c r="AN62" s="111"/>
+      <c r="AO62" s="111"/>
+      <c r="AP62" s="111"/>
+      <c r="AQ62" s="111"/>
+      <c r="AR62" s="111"/>
+      <c r="AS62" s="111"/>
+      <c r="AT62" s="112"/>
+    </row>
+    <row r="63" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K63" s="119"/>
+      <c r="L63" s="119"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="111"/>
+      <c r="O63" s="111"/>
+      <c r="P63" s="111"/>
+      <c r="Q63" s="111"/>
+      <c r="R63" s="111"/>
+      <c r="S63" s="111"/>
+      <c r="T63" s="111"/>
+      <c r="U63" s="111"/>
+      <c r="V63" s="111"/>
+      <c r="W63" s="111"/>
+      <c r="X63" s="111"/>
+      <c r="Y63" s="111"/>
+      <c r="Z63" s="111"/>
+      <c r="AA63" s="111"/>
+      <c r="AB63" s="111"/>
+      <c r="AC63" s="111"/>
+      <c r="AD63" s="112"/>
+      <c r="AE63" s="116"/>
+      <c r="AF63" s="111"/>
+      <c r="AG63" s="111"/>
+      <c r="AH63" s="111"/>
+      <c r="AI63" s="111"/>
+      <c r="AJ63" s="111"/>
+      <c r="AK63" s="111"/>
+      <c r="AL63" s="111"/>
+      <c r="AM63" s="111"/>
+      <c r="AN63" s="111"/>
+      <c r="AO63" s="111"/>
+      <c r="AP63" s="111"/>
+      <c r="AQ63" s="111"/>
+      <c r="AR63" s="111"/>
+      <c r="AS63" s="111"/>
+      <c r="AT63" s="112"/>
+    </row>
+    <row r="64" spans="11:48" x14ac:dyDescent="0.25">
+      <c r="K64" s="119"/>
+      <c r="L64" s="119"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="111"/>
+      <c r="O64" s="111"/>
+      <c r="P64" s="111"/>
+      <c r="Q64" s="111"/>
+      <c r="R64" s="111"/>
+      <c r="S64" s="111"/>
+      <c r="T64" s="111"/>
+      <c r="U64" s="111"/>
+      <c r="V64" s="111"/>
+      <c r="W64" s="111"/>
+      <c r="X64" s="111"/>
+      <c r="Y64" s="111"/>
+      <c r="Z64" s="111"/>
+      <c r="AA64" s="111"/>
+      <c r="AB64" s="111"/>
+      <c r="AC64" s="111"/>
+      <c r="AD64" s="112"/>
+      <c r="AE64" s="116"/>
+      <c r="AF64" s="111"/>
+      <c r="AG64" s="111"/>
+      <c r="AH64" s="111"/>
+      <c r="AI64" s="111"/>
+      <c r="AJ64" s="111"/>
+      <c r="AK64" s="111"/>
+      <c r="AL64" s="111"/>
+      <c r="AM64" s="111"/>
+      <c r="AN64" s="111"/>
+      <c r="AO64" s="111"/>
+      <c r="AP64" s="111"/>
+      <c r="AQ64" s="111"/>
+      <c r="AR64" s="111"/>
+      <c r="AS64" s="111"/>
+      <c r="AT64" s="112"/>
+    </row>
+    <row r="65" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K65" s="119"/>
+      <c r="L65" s="119"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="111"/>
+      <c r="O65" s="111"/>
+      <c r="P65" s="111"/>
+      <c r="Q65" s="111"/>
+      <c r="R65" s="111"/>
+      <c r="S65" s="111"/>
+      <c r="T65" s="111"/>
+      <c r="U65" s="111"/>
+      <c r="V65" s="111"/>
+      <c r="W65" s="111"/>
+      <c r="X65" s="111"/>
+      <c r="Y65" s="111"/>
+      <c r="Z65" s="111"/>
+      <c r="AA65" s="111"/>
+      <c r="AB65" s="111"/>
+      <c r="AC65" s="111"/>
+      <c r="AD65" s="112"/>
+      <c r="AE65" s="116"/>
+      <c r="AF65" s="111"/>
+      <c r="AG65" s="111"/>
+      <c r="AH65" s="111"/>
+      <c r="AI65" s="111"/>
+      <c r="AJ65" s="111"/>
+      <c r="AK65" s="111"/>
+      <c r="AL65" s="111"/>
+      <c r="AM65" s="111"/>
+      <c r="AN65" s="111"/>
+      <c r="AO65" s="111"/>
+      <c r="AP65" s="111"/>
+      <c r="AQ65" s="111"/>
+      <c r="AR65" s="111"/>
+      <c r="AS65" s="111"/>
+      <c r="AT65" s="112"/>
+    </row>
+    <row r="66" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K66" s="119"/>
+      <c r="L66" s="119"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="111"/>
+      <c r="O66" s="111"/>
+      <c r="P66" s="111"/>
+      <c r="Q66" s="111"/>
+      <c r="R66" s="111"/>
+      <c r="S66" s="111"/>
+      <c r="T66" s="111"/>
+      <c r="U66" s="111"/>
+      <c r="V66" s="111"/>
+      <c r="W66" s="111"/>
+      <c r="X66" s="111"/>
+      <c r="Y66" s="111"/>
+      <c r="Z66" s="111"/>
+      <c r="AA66" s="111"/>
+      <c r="AB66" s="111"/>
+      <c r="AC66" s="111"/>
+      <c r="AD66" s="112"/>
+      <c r="AE66" s="116"/>
+      <c r="AF66" s="111"/>
+      <c r="AG66" s="111"/>
+      <c r="AH66" s="111"/>
+      <c r="AI66" s="111"/>
+      <c r="AJ66" s="111"/>
+      <c r="AK66" s="111"/>
+      <c r="AL66" s="111"/>
+      <c r="AM66" s="111"/>
+      <c r="AN66" s="111"/>
+      <c r="AO66" s="111"/>
+      <c r="AP66" s="111"/>
+      <c r="AQ66" s="111"/>
+      <c r="AR66" s="111"/>
+      <c r="AS66" s="111"/>
+      <c r="AT66" s="112"/>
+    </row>
+    <row r="67" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K67" s="119"/>
+      <c r="L67" s="119"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="111"/>
+      <c r="O67" s="111"/>
+      <c r="P67" s="111"/>
+      <c r="Q67" s="111"/>
+      <c r="R67" s="111"/>
+      <c r="S67" s="111"/>
+      <c r="T67" s="111"/>
+      <c r="U67" s="111"/>
+      <c r="V67" s="111"/>
+      <c r="W67" s="111"/>
+      <c r="X67" s="111"/>
+      <c r="Y67" s="111"/>
+      <c r="Z67" s="111"/>
+      <c r="AA67" s="111"/>
+      <c r="AB67" s="111"/>
+      <c r="AC67" s="111"/>
+      <c r="AD67" s="112"/>
+      <c r="AE67" s="116"/>
+      <c r="AF67" s="111"/>
+      <c r="AG67" s="111"/>
+      <c r="AH67" s="111"/>
+      <c r="AI67" s="111"/>
+      <c r="AJ67" s="111"/>
+      <c r="AK67" s="111"/>
+      <c r="AL67" s="111"/>
+      <c r="AM67" s="111"/>
+      <c r="AN67" s="111"/>
+      <c r="AO67" s="111"/>
+      <c r="AP67" s="111"/>
+      <c r="AQ67" s="111"/>
+      <c r="AR67" s="111"/>
+      <c r="AS67" s="111"/>
+      <c r="AT67" s="112"/>
+    </row>
+    <row r="68" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K68" s="119"/>
+      <c r="L68" s="119"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="V68" s="94" t="s">
+      <c r="O68" s="111"/>
+      <c r="P68" s="111"/>
+      <c r="Q68" s="111"/>
+      <c r="R68" s="111"/>
+      <c r="S68" s="111"/>
+      <c r="T68" s="111"/>
+      <c r="U68" s="111"/>
+      <c r="V68" s="111"/>
+      <c r="W68" s="111"/>
+      <c r="X68" s="110" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="AD69" s="94" t="s">
+      <c r="Y68" s="111"/>
+      <c r="Z68" s="111"/>
+      <c r="AA68" s="111"/>
+      <c r="AB68" s="111"/>
+      <c r="AC68" s="111"/>
+      <c r="AD68" s="112"/>
+      <c r="AE68" s="116"/>
+      <c r="AF68" s="111"/>
+      <c r="AG68" s="111"/>
+      <c r="AH68" s="111"/>
+      <c r="AI68" s="111"/>
+      <c r="AJ68" s="111"/>
+      <c r="AK68" s="111"/>
+      <c r="AL68" s="111"/>
+      <c r="AM68" s="111"/>
+      <c r="AN68" s="111"/>
+      <c r="AO68" s="111"/>
+      <c r="AP68" s="111"/>
+      <c r="AQ68" s="111"/>
+      <c r="AR68" s="111"/>
+      <c r="AS68" s="111"/>
+      <c r="AT68" s="112"/>
+    </row>
+    <row r="69" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K69" s="119"/>
+      <c r="L69" s="119"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="111"/>
+      <c r="O69" s="111"/>
+      <c r="P69" s="111"/>
+      <c r="Q69" s="111"/>
+      <c r="R69" s="111"/>
+      <c r="S69" s="111"/>
+      <c r="T69" s="111"/>
+      <c r="U69" s="111"/>
+      <c r="V69" s="111"/>
+      <c r="W69" s="111"/>
+      <c r="X69" s="111"/>
+      <c r="Y69" s="111"/>
+      <c r="Z69" s="111"/>
+      <c r="AA69" s="111"/>
+      <c r="AB69" s="111"/>
+      <c r="AC69" s="111"/>
+      <c r="AD69" s="112"/>
+      <c r="AE69" s="116"/>
+      <c r="AF69" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="AK69" s="94" t="s">
+      <c r="AG69" s="111"/>
+      <c r="AH69" s="111"/>
+      <c r="AI69" s="111"/>
+      <c r="AJ69" s="111"/>
+      <c r="AK69" s="111"/>
+      <c r="AL69" s="111"/>
+      <c r="AM69" s="110" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="84" spans="13:38" x14ac:dyDescent="0.25">
-      <c r="M84" s="94" t="s">
+      <c r="AN69" s="111"/>
+      <c r="AO69" s="111"/>
+      <c r="AP69" s="111"/>
+      <c r="AQ69" s="111"/>
+      <c r="AR69" s="111"/>
+      <c r="AS69" s="111"/>
+      <c r="AT69" s="112"/>
+    </row>
+    <row r="70" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K70" s="119"/>
+      <c r="L70" s="119"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="111"/>
+      <c r="O70" s="111"/>
+      <c r="P70" s="111"/>
+      <c r="Q70" s="111"/>
+      <c r="R70" s="111"/>
+      <c r="S70" s="111"/>
+      <c r="T70" s="111"/>
+      <c r="U70" s="111"/>
+      <c r="V70" s="111"/>
+      <c r="W70" s="111"/>
+      <c r="X70" s="111"/>
+      <c r="Y70" s="111"/>
+      <c r="Z70" s="111"/>
+      <c r="AA70" s="111"/>
+      <c r="AB70" s="111"/>
+      <c r="AC70" s="111"/>
+      <c r="AD70" s="112"/>
+      <c r="AE70" s="116"/>
+      <c r="AF70" s="111"/>
+      <c r="AG70" s="111"/>
+      <c r="AH70" s="111"/>
+      <c r="AI70" s="111"/>
+      <c r="AJ70" s="111"/>
+      <c r="AK70" s="111"/>
+      <c r="AL70" s="111"/>
+      <c r="AM70" s="111"/>
+      <c r="AN70" s="111"/>
+      <c r="AO70" s="111"/>
+      <c r="AP70" s="111"/>
+      <c r="AQ70" s="111"/>
+      <c r="AR70" s="111"/>
+      <c r="AS70" s="111"/>
+      <c r="AT70" s="112"/>
+    </row>
+    <row r="71" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K71" s="119"/>
+      <c r="L71" s="119"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="111"/>
+      <c r="O71" s="111"/>
+      <c r="P71" s="111"/>
+      <c r="Q71" s="111"/>
+      <c r="R71" s="111"/>
+      <c r="S71" s="111"/>
+      <c r="T71" s="111"/>
+      <c r="U71" s="111"/>
+      <c r="V71" s="111"/>
+      <c r="W71" s="111"/>
+      <c r="X71" s="111"/>
+      <c r="Y71" s="111"/>
+      <c r="Z71" s="111"/>
+      <c r="AA71" s="111"/>
+      <c r="AB71" s="111"/>
+      <c r="AC71" s="111"/>
+      <c r="AD71" s="112"/>
+      <c r="AE71" s="116"/>
+      <c r="AF71" s="111"/>
+      <c r="AG71" s="111"/>
+      <c r="AH71" s="111"/>
+      <c r="AI71" s="111"/>
+      <c r="AJ71" s="111"/>
+      <c r="AK71" s="111"/>
+      <c r="AL71" s="111"/>
+      <c r="AM71" s="111"/>
+      <c r="AN71" s="111"/>
+      <c r="AO71" s="111"/>
+      <c r="AP71" s="111"/>
+      <c r="AQ71" s="111"/>
+      <c r="AR71" s="111"/>
+      <c r="AS71" s="111"/>
+      <c r="AT71" s="112"/>
+    </row>
+    <row r="72" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K72" s="119"/>
+      <c r="L72" s="119"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="111"/>
+      <c r="O72" s="111"/>
+      <c r="P72" s="111"/>
+      <c r="Q72" s="111"/>
+      <c r="R72" s="111"/>
+      <c r="S72" s="111"/>
+      <c r="T72" s="111"/>
+      <c r="U72" s="111"/>
+      <c r="V72" s="111"/>
+      <c r="W72" s="111"/>
+      <c r="X72" s="111"/>
+      <c r="Y72" s="111"/>
+      <c r="Z72" s="111"/>
+      <c r="AA72" s="111"/>
+      <c r="AB72" s="111"/>
+      <c r="AC72" s="111"/>
+      <c r="AD72" s="112"/>
+      <c r="AE72" s="116"/>
+      <c r="AF72" s="111"/>
+      <c r="AG72" s="111"/>
+      <c r="AH72" s="111"/>
+      <c r="AI72" s="111"/>
+      <c r="AJ72" s="111"/>
+      <c r="AK72" s="111"/>
+      <c r="AL72" s="111"/>
+      <c r="AM72" s="111"/>
+      <c r="AN72" s="111"/>
+      <c r="AO72" s="111"/>
+      <c r="AP72" s="111"/>
+      <c r="AQ72" s="111"/>
+      <c r="AR72" s="111"/>
+      <c r="AS72" s="111"/>
+      <c r="AT72" s="112"/>
+    </row>
+    <row r="73" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K73" s="119"/>
+      <c r="L73" s="119"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="111"/>
+      <c r="O73" s="111"/>
+      <c r="P73" s="111"/>
+      <c r="Q73" s="111"/>
+      <c r="R73" s="111"/>
+      <c r="S73" s="111"/>
+      <c r="T73" s="111"/>
+      <c r="U73" s="111"/>
+      <c r="V73" s="111"/>
+      <c r="W73" s="111"/>
+      <c r="X73" s="111"/>
+      <c r="Y73" s="111"/>
+      <c r="Z73" s="111"/>
+      <c r="AA73" s="111"/>
+      <c r="AB73" s="111"/>
+      <c r="AC73" s="111"/>
+      <c r="AD73" s="112"/>
+      <c r="AE73" s="116"/>
+      <c r="AF73" s="111"/>
+      <c r="AG73" s="111"/>
+      <c r="AH73" s="111"/>
+      <c r="AI73" s="111"/>
+      <c r="AJ73" s="111"/>
+      <c r="AK73" s="111"/>
+      <c r="AL73" s="111"/>
+      <c r="AM73" s="111"/>
+      <c r="AN73" s="111"/>
+      <c r="AO73" s="111"/>
+      <c r="AP73" s="111"/>
+      <c r="AQ73" s="111"/>
+      <c r="AR73" s="111"/>
+      <c r="AS73" s="111"/>
+      <c r="AT73" s="112"/>
+    </row>
+    <row r="74" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K74" s="119"/>
+      <c r="L74" s="119"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="111"/>
+      <c r="O74" s="111"/>
+      <c r="P74" s="111"/>
+      <c r="Q74" s="111"/>
+      <c r="R74" s="111"/>
+      <c r="S74" s="111"/>
+      <c r="T74" s="111"/>
+      <c r="U74" s="111"/>
+      <c r="V74" s="111"/>
+      <c r="W74" s="111"/>
+      <c r="X74" s="111"/>
+      <c r="Y74" s="111"/>
+      <c r="Z74" s="111"/>
+      <c r="AA74" s="111"/>
+      <c r="AB74" s="111"/>
+      <c r="AC74" s="111"/>
+      <c r="AD74" s="112"/>
+      <c r="AE74" s="116"/>
+      <c r="AF74" s="111"/>
+      <c r="AG74" s="111"/>
+      <c r="AH74" s="111"/>
+      <c r="AI74" s="111"/>
+      <c r="AJ74" s="111"/>
+      <c r="AK74" s="111"/>
+      <c r="AL74" s="111"/>
+      <c r="AM74" s="111"/>
+      <c r="AN74" s="111"/>
+      <c r="AO74" s="111"/>
+      <c r="AP74" s="111"/>
+      <c r="AQ74" s="111"/>
+      <c r="AR74" s="111"/>
+      <c r="AS74" s="111"/>
+      <c r="AT74" s="112"/>
+    </row>
+    <row r="75" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K75" s="119"/>
+      <c r="L75" s="119"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="111"/>
+      <c r="O75" s="111"/>
+      <c r="P75" s="111"/>
+      <c r="Q75" s="111"/>
+      <c r="R75" s="111"/>
+      <c r="S75" s="111"/>
+      <c r="T75" s="111"/>
+      <c r="U75" s="111"/>
+      <c r="V75" s="111"/>
+      <c r="W75" s="111"/>
+      <c r="X75" s="111"/>
+      <c r="Y75" s="111"/>
+      <c r="Z75" s="111"/>
+      <c r="AA75" s="111"/>
+      <c r="AB75" s="111"/>
+      <c r="AC75" s="111"/>
+      <c r="AD75" s="112"/>
+      <c r="AE75" s="116"/>
+      <c r="AF75" s="111"/>
+      <c r="AG75" s="111"/>
+      <c r="AH75" s="111"/>
+      <c r="AI75" s="111"/>
+      <c r="AJ75" s="111"/>
+      <c r="AK75" s="111"/>
+      <c r="AL75" s="111"/>
+      <c r="AM75" s="111"/>
+      <c r="AN75" s="111"/>
+      <c r="AO75" s="111"/>
+      <c r="AP75" s="111"/>
+      <c r="AQ75" s="111"/>
+      <c r="AR75" s="111"/>
+      <c r="AS75" s="111"/>
+      <c r="AT75" s="112"/>
+    </row>
+    <row r="76" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K76" s="119"/>
+      <c r="L76" s="119"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="111"/>
+      <c r="O76" s="111"/>
+      <c r="P76" s="111"/>
+      <c r="Q76" s="111"/>
+      <c r="R76" s="111"/>
+      <c r="S76" s="111"/>
+      <c r="T76" s="111"/>
+      <c r="U76" s="111"/>
+      <c r="V76" s="111"/>
+      <c r="W76" s="111"/>
+      <c r="X76" s="111"/>
+      <c r="Y76" s="111"/>
+      <c r="Z76" s="111"/>
+      <c r="AA76" s="111"/>
+      <c r="AB76" s="111"/>
+      <c r="AC76" s="111"/>
+      <c r="AD76" s="112"/>
+      <c r="AE76" s="116"/>
+      <c r="AF76" s="111"/>
+      <c r="AG76" s="111"/>
+      <c r="AH76" s="111"/>
+      <c r="AI76" s="111"/>
+      <c r="AJ76" s="111"/>
+      <c r="AK76" s="111"/>
+      <c r="AL76" s="111"/>
+      <c r="AM76" s="111"/>
+      <c r="AN76" s="111"/>
+      <c r="AO76" s="111"/>
+      <c r="AP76" s="111"/>
+      <c r="AQ76" s="111"/>
+      <c r="AR76" s="111"/>
+      <c r="AS76" s="111"/>
+      <c r="AT76" s="112"/>
+    </row>
+    <row r="77" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K77" s="119"/>
+      <c r="L77" s="119"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="111"/>
+      <c r="P77" s="111"/>
+      <c r="Q77" s="111"/>
+      <c r="R77" s="111"/>
+      <c r="S77" s="111"/>
+      <c r="T77" s="111"/>
+      <c r="U77" s="111"/>
+      <c r="V77" s="111"/>
+      <c r="W77" s="111"/>
+      <c r="X77" s="111"/>
+      <c r="Y77" s="111"/>
+      <c r="Z77" s="111"/>
+      <c r="AA77" s="111"/>
+      <c r="AB77" s="111"/>
+      <c r="AC77" s="111"/>
+      <c r="AD77" s="112"/>
+      <c r="AE77" s="116"/>
+      <c r="AF77" s="111"/>
+      <c r="AG77" s="111"/>
+      <c r="AH77" s="111"/>
+      <c r="AI77" s="111"/>
+      <c r="AJ77" s="111"/>
+      <c r="AK77" s="111"/>
+      <c r="AL77" s="111"/>
+      <c r="AM77" s="111"/>
+      <c r="AN77" s="111"/>
+      <c r="AO77" s="111"/>
+      <c r="AP77" s="111"/>
+      <c r="AQ77" s="111"/>
+      <c r="AR77" s="111"/>
+      <c r="AS77" s="111"/>
+      <c r="AT77" s="112"/>
+    </row>
+    <row r="78" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K78" s="119"/>
+      <c r="L78" s="119"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="111"/>
+      <c r="O78" s="111"/>
+      <c r="P78" s="111"/>
+      <c r="Q78" s="111"/>
+      <c r="R78" s="111"/>
+      <c r="S78" s="111"/>
+      <c r="T78" s="111"/>
+      <c r="U78" s="111"/>
+      <c r="V78" s="111"/>
+      <c r="W78" s="111"/>
+      <c r="X78" s="111"/>
+      <c r="Y78" s="111"/>
+      <c r="Z78" s="111"/>
+      <c r="AA78" s="111"/>
+      <c r="AB78" s="111"/>
+      <c r="AC78" s="111"/>
+      <c r="AD78" s="112"/>
+      <c r="AE78" s="116"/>
+      <c r="AF78" s="111"/>
+      <c r="AG78" s="111"/>
+      <c r="AH78" s="111"/>
+      <c r="AI78" s="111"/>
+      <c r="AJ78" s="111"/>
+      <c r="AK78" s="111"/>
+      <c r="AL78" s="111"/>
+      <c r="AM78" s="111"/>
+      <c r="AN78" s="111"/>
+      <c r="AO78" s="111"/>
+      <c r="AP78" s="111"/>
+      <c r="AQ78" s="111"/>
+      <c r="AR78" s="111"/>
+      <c r="AS78" s="111"/>
+      <c r="AT78" s="112"/>
+    </row>
+    <row r="79" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K79" s="119"/>
+      <c r="L79" s="119"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="111"/>
+      <c r="O79" s="111"/>
+      <c r="P79" s="111"/>
+      <c r="Q79" s="111"/>
+      <c r="R79" s="111"/>
+      <c r="S79" s="111"/>
+      <c r="T79" s="111"/>
+      <c r="U79" s="111"/>
+      <c r="V79" s="111"/>
+      <c r="W79" s="111"/>
+      <c r="X79" s="111"/>
+      <c r="Y79" s="111"/>
+      <c r="Z79" s="111"/>
+      <c r="AA79" s="111"/>
+      <c r="AB79" s="111"/>
+      <c r="AC79" s="111"/>
+      <c r="AD79" s="112"/>
+      <c r="AE79" s="116"/>
+      <c r="AF79" s="111"/>
+      <c r="AG79" s="111"/>
+      <c r="AH79" s="111"/>
+      <c r="AI79" s="111"/>
+      <c r="AJ79" s="111"/>
+      <c r="AK79" s="111"/>
+      <c r="AL79" s="111"/>
+      <c r="AM79" s="111"/>
+      <c r="AN79" s="111"/>
+      <c r="AO79" s="111"/>
+      <c r="AP79" s="111"/>
+      <c r="AQ79" s="111"/>
+      <c r="AR79" s="111"/>
+      <c r="AS79" s="111"/>
+      <c r="AT79" s="112"/>
+    </row>
+    <row r="80" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K80" s="119"/>
+      <c r="L80" s="119"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="111"/>
+      <c r="O80" s="111"/>
+      <c r="P80" s="111"/>
+      <c r="Q80" s="111"/>
+      <c r="R80" s="111"/>
+      <c r="S80" s="111"/>
+      <c r="T80" s="111"/>
+      <c r="U80" s="111"/>
+      <c r="V80" s="111"/>
+      <c r="W80" s="111"/>
+      <c r="X80" s="111"/>
+      <c r="Y80" s="111"/>
+      <c r="Z80" s="111"/>
+      <c r="AA80" s="111"/>
+      <c r="AB80" s="111"/>
+      <c r="AC80" s="111"/>
+      <c r="AD80" s="112"/>
+      <c r="AE80" s="116"/>
+      <c r="AF80" s="111"/>
+      <c r="AG80" s="111"/>
+      <c r="AH80" s="111"/>
+      <c r="AI80" s="111"/>
+      <c r="AJ80" s="111"/>
+      <c r="AK80" s="111"/>
+      <c r="AL80" s="111"/>
+      <c r="AM80" s="111"/>
+      <c r="AN80" s="111"/>
+      <c r="AO80" s="111"/>
+      <c r="AP80" s="111"/>
+      <c r="AQ80" s="111"/>
+      <c r="AR80" s="111"/>
+      <c r="AS80" s="111"/>
+      <c r="AT80" s="112"/>
+    </row>
+    <row r="81" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K81" s="119"/>
+      <c r="L81" s="119"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="111"/>
+      <c r="O81" s="111"/>
+      <c r="P81" s="111"/>
+      <c r="Q81" s="111"/>
+      <c r="R81" s="111"/>
+      <c r="S81" s="111"/>
+      <c r="T81" s="111"/>
+      <c r="U81" s="111"/>
+      <c r="V81" s="111"/>
+      <c r="W81" s="111"/>
+      <c r="X81" s="111"/>
+      <c r="Y81" s="111"/>
+      <c r="Z81" s="111"/>
+      <c r="AA81" s="111"/>
+      <c r="AB81" s="111"/>
+      <c r="AC81" s="111"/>
+      <c r="AD81" s="112"/>
+      <c r="AE81" s="116"/>
+      <c r="AF81" s="111"/>
+      <c r="AG81" s="111"/>
+      <c r="AH81" s="111"/>
+      <c r="AI81" s="111"/>
+      <c r="AJ81" s="111"/>
+      <c r="AK81" s="111"/>
+      <c r="AL81" s="111"/>
+      <c r="AM81" s="111"/>
+      <c r="AN81" s="111"/>
+      <c r="AO81" s="111"/>
+      <c r="AP81" s="111"/>
+      <c r="AQ81" s="111"/>
+      <c r="AR81" s="111"/>
+      <c r="AS81" s="111"/>
+      <c r="AT81" s="112"/>
+    </row>
+    <row r="82" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K82" s="119"/>
+      <c r="L82" s="119"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="111"/>
+      <c r="O82" s="111"/>
+      <c r="P82" s="111"/>
+      <c r="Q82" s="111"/>
+      <c r="R82" s="111"/>
+      <c r="S82" s="111"/>
+      <c r="T82" s="111"/>
+      <c r="U82" s="111"/>
+      <c r="V82" s="111"/>
+      <c r="W82" s="111"/>
+      <c r="X82" s="111"/>
+      <c r="Y82" s="111"/>
+      <c r="Z82" s="111"/>
+      <c r="AA82" s="111"/>
+      <c r="AB82" s="111"/>
+      <c r="AC82" s="111"/>
+      <c r="AD82" s="112"/>
+      <c r="AE82" s="116"/>
+      <c r="AF82" s="111"/>
+      <c r="AG82" s="111"/>
+      <c r="AH82" s="111"/>
+      <c r="AI82" s="111"/>
+      <c r="AJ82" s="111"/>
+      <c r="AK82" s="111"/>
+      <c r="AL82" s="111"/>
+      <c r="AM82" s="111"/>
+      <c r="AN82" s="111"/>
+      <c r="AO82" s="111"/>
+      <c r="AP82" s="111"/>
+      <c r="AQ82" s="111"/>
+      <c r="AR82" s="111"/>
+      <c r="AS82" s="111"/>
+      <c r="AT82" s="112"/>
+    </row>
+    <row r="83" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K83" s="119"/>
+      <c r="L83" s="119"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="111"/>
+      <c r="O83" s="111"/>
+      <c r="P83" s="111"/>
+      <c r="Q83" s="111"/>
+      <c r="R83" s="111"/>
+      <c r="S83" s="111"/>
+      <c r="T83" s="111"/>
+      <c r="U83" s="111"/>
+      <c r="V83" s="111"/>
+      <c r="W83" s="111"/>
+      <c r="X83" s="111"/>
+      <c r="Y83" s="111"/>
+      <c r="Z83" s="111"/>
+      <c r="AA83" s="111"/>
+      <c r="AB83" s="111"/>
+      <c r="AC83" s="111"/>
+      <c r="AD83" s="112"/>
+      <c r="AE83" s="116"/>
+      <c r="AF83" s="111"/>
+      <c r="AG83" s="111"/>
+      <c r="AH83" s="111"/>
+      <c r="AI83" s="111"/>
+      <c r="AJ83" s="111"/>
+      <c r="AK83" s="111"/>
+      <c r="AL83" s="111"/>
+      <c r="AM83" s="111"/>
+      <c r="AN83" s="111"/>
+      <c r="AO83" s="111"/>
+      <c r="AP83" s="111"/>
+      <c r="AQ83" s="111"/>
+      <c r="AR83" s="111"/>
+      <c r="AS83" s="111"/>
+      <c r="AT83" s="112"/>
+    </row>
+    <row r="84" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K84" s="119"/>
+      <c r="L84" s="119"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="111"/>
+      <c r="O84" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="V84" s="94" t="s">
+      <c r="P84" s="111"/>
+      <c r="Q84" s="111"/>
+      <c r="R84" s="111"/>
+      <c r="S84" s="111"/>
+      <c r="T84" s="111"/>
+      <c r="U84" s="111"/>
+      <c r="V84" s="111"/>
+      <c r="W84" s="111"/>
+      <c r="X84" s="110" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="85" spans="13:38" x14ac:dyDescent="0.25">
-      <c r="AD85" s="94" t="s">
+      <c r="Y84" s="111"/>
+      <c r="Z84" s="111"/>
+      <c r="AA84" s="111"/>
+      <c r="AB84" s="111"/>
+      <c r="AC84" s="111"/>
+      <c r="AD84" s="112"/>
+      <c r="AE84" s="116"/>
+      <c r="AF84" s="111"/>
+      <c r="AG84" s="111"/>
+      <c r="AH84" s="111"/>
+      <c r="AI84" s="111"/>
+      <c r="AJ84" s="111"/>
+      <c r="AK84" s="111"/>
+      <c r="AL84" s="111"/>
+      <c r="AM84" s="111"/>
+      <c r="AN84" s="111"/>
+      <c r="AO84" s="111"/>
+      <c r="AP84" s="111"/>
+      <c r="AQ84" s="111"/>
+      <c r="AR84" s="111"/>
+      <c r="AS84" s="111"/>
+      <c r="AT84" s="112"/>
+    </row>
+    <row r="85" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K85" s="119"/>
+      <c r="L85" s="119"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="111"/>
+      <c r="O85" s="111"/>
+      <c r="P85" s="111"/>
+      <c r="Q85" s="111"/>
+      <c r="R85" s="111"/>
+      <c r="S85" s="111"/>
+      <c r="T85" s="111"/>
+      <c r="U85" s="111"/>
+      <c r="V85" s="111"/>
+      <c r="W85" s="111"/>
+      <c r="X85" s="111"/>
+      <c r="Y85" s="111"/>
+      <c r="Z85" s="111"/>
+      <c r="AA85" s="111"/>
+      <c r="AB85" s="111"/>
+      <c r="AC85" s="111"/>
+      <c r="AD85" s="112"/>
+      <c r="AE85" s="116"/>
+      <c r="AF85" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="AL85" s="94" t="s">
+      <c r="AG85" s="111"/>
+      <c r="AH85" s="111"/>
+      <c r="AI85" s="111"/>
+      <c r="AJ85" s="111"/>
+      <c r="AK85" s="111"/>
+      <c r="AL85" s="111"/>
+      <c r="AM85" s="111"/>
+      <c r="AN85" s="110" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="100" spans="13:38" x14ac:dyDescent="0.25">
-      <c r="M100" s="94" t="s">
+      <c r="AO85" s="111"/>
+      <c r="AP85" s="111"/>
+      <c r="AQ85" s="111"/>
+      <c r="AR85" s="111"/>
+      <c r="AS85" s="111"/>
+      <c r="AT85" s="112"/>
+    </row>
+    <row r="86" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K86" s="119"/>
+      <c r="L86" s="119"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="111"/>
+      <c r="O86" s="111"/>
+      <c r="P86" s="111"/>
+      <c r="Q86" s="111"/>
+      <c r="R86" s="111"/>
+      <c r="S86" s="111"/>
+      <c r="T86" s="111"/>
+      <c r="U86" s="111"/>
+      <c r="V86" s="111"/>
+      <c r="W86" s="111"/>
+      <c r="X86" s="111"/>
+      <c r="Y86" s="111"/>
+      <c r="Z86" s="111"/>
+      <c r="AA86" s="111"/>
+      <c r="AB86" s="111"/>
+      <c r="AC86" s="111"/>
+      <c r="AD86" s="112"/>
+      <c r="AE86" s="116"/>
+      <c r="AF86" s="111"/>
+      <c r="AG86" s="111"/>
+      <c r="AH86" s="111"/>
+      <c r="AI86" s="111"/>
+      <c r="AJ86" s="111"/>
+      <c r="AK86" s="111"/>
+      <c r="AL86" s="111"/>
+      <c r="AM86" s="111"/>
+      <c r="AN86" s="111"/>
+      <c r="AO86" s="111"/>
+      <c r="AP86" s="111"/>
+      <c r="AQ86" s="111"/>
+      <c r="AR86" s="111"/>
+      <c r="AS86" s="111"/>
+      <c r="AT86" s="112"/>
+    </row>
+    <row r="87" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K87" s="119"/>
+      <c r="L87" s="119"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="111"/>
+      <c r="O87" s="111"/>
+      <c r="P87" s="111"/>
+      <c r="Q87" s="111"/>
+      <c r="R87" s="111"/>
+      <c r="S87" s="111"/>
+      <c r="T87" s="111"/>
+      <c r="U87" s="111"/>
+      <c r="V87" s="111"/>
+      <c r="W87" s="111"/>
+      <c r="X87" s="111"/>
+      <c r="Y87" s="111"/>
+      <c r="Z87" s="111"/>
+      <c r="AA87" s="111"/>
+      <c r="AB87" s="111"/>
+      <c r="AC87" s="111"/>
+      <c r="AD87" s="112"/>
+      <c r="AE87" s="116"/>
+      <c r="AF87" s="111"/>
+      <c r="AG87" s="111"/>
+      <c r="AH87" s="111"/>
+      <c r="AI87" s="111"/>
+      <c r="AJ87" s="111"/>
+      <c r="AK87" s="111"/>
+      <c r="AL87" s="111"/>
+      <c r="AM87" s="111"/>
+      <c r="AN87" s="111"/>
+      <c r="AO87" s="111"/>
+      <c r="AP87" s="111"/>
+      <c r="AQ87" s="111"/>
+      <c r="AR87" s="111"/>
+      <c r="AS87" s="111"/>
+      <c r="AT87" s="112"/>
+    </row>
+    <row r="88" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K88" s="119"/>
+      <c r="L88" s="119"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="111"/>
+      <c r="O88" s="111"/>
+      <c r="P88" s="111"/>
+      <c r="Q88" s="111"/>
+      <c r="R88" s="111"/>
+      <c r="S88" s="111"/>
+      <c r="T88" s="111"/>
+      <c r="U88" s="111"/>
+      <c r="V88" s="111"/>
+      <c r="W88" s="111"/>
+      <c r="X88" s="111"/>
+      <c r="Y88" s="111"/>
+      <c r="Z88" s="111"/>
+      <c r="AA88" s="111"/>
+      <c r="AB88" s="111"/>
+      <c r="AC88" s="111"/>
+      <c r="AD88" s="112"/>
+      <c r="AE88" s="116"/>
+      <c r="AF88" s="111"/>
+      <c r="AG88" s="111"/>
+      <c r="AH88" s="111"/>
+      <c r="AI88" s="111"/>
+      <c r="AJ88" s="111"/>
+      <c r="AK88" s="111"/>
+      <c r="AL88" s="111"/>
+      <c r="AM88" s="111"/>
+      <c r="AN88" s="111"/>
+      <c r="AO88" s="111"/>
+      <c r="AP88" s="111"/>
+      <c r="AQ88" s="111"/>
+      <c r="AR88" s="111"/>
+      <c r="AS88" s="111"/>
+      <c r="AT88" s="112"/>
+    </row>
+    <row r="89" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K89" s="119"/>
+      <c r="L89" s="119"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="111"/>
+      <c r="O89" s="111"/>
+      <c r="P89" s="111"/>
+      <c r="Q89" s="111"/>
+      <c r="R89" s="111"/>
+      <c r="S89" s="111"/>
+      <c r="T89" s="111"/>
+      <c r="U89" s="111"/>
+      <c r="V89" s="111"/>
+      <c r="W89" s="111"/>
+      <c r="X89" s="111"/>
+      <c r="Y89" s="111"/>
+      <c r="Z89" s="111"/>
+      <c r="AA89" s="111"/>
+      <c r="AB89" s="111"/>
+      <c r="AC89" s="111"/>
+      <c r="AD89" s="112"/>
+      <c r="AE89" s="116"/>
+      <c r="AF89" s="111"/>
+      <c r="AG89" s="111"/>
+      <c r="AH89" s="111"/>
+      <c r="AI89" s="111"/>
+      <c r="AJ89" s="111"/>
+      <c r="AK89" s="111"/>
+      <c r="AL89" s="111"/>
+      <c r="AM89" s="111"/>
+      <c r="AN89" s="111"/>
+      <c r="AO89" s="111"/>
+      <c r="AP89" s="111"/>
+      <c r="AQ89" s="111"/>
+      <c r="AR89" s="111"/>
+      <c r="AS89" s="111"/>
+      <c r="AT89" s="112"/>
+    </row>
+    <row r="90" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K90" s="119"/>
+      <c r="L90" s="119"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="111"/>
+      <c r="O90" s="111"/>
+      <c r="P90" s="111"/>
+      <c r="Q90" s="111"/>
+      <c r="R90" s="111"/>
+      <c r="S90" s="111"/>
+      <c r="T90" s="111"/>
+      <c r="U90" s="111"/>
+      <c r="V90" s="111"/>
+      <c r="W90" s="111"/>
+      <c r="X90" s="111"/>
+      <c r="Y90" s="111"/>
+      <c r="Z90" s="111"/>
+      <c r="AA90" s="111"/>
+      <c r="AB90" s="111"/>
+      <c r="AC90" s="111"/>
+      <c r="AD90" s="112"/>
+      <c r="AE90" s="116"/>
+      <c r="AF90" s="111"/>
+      <c r="AG90" s="111"/>
+      <c r="AH90" s="111"/>
+      <c r="AI90" s="111"/>
+      <c r="AJ90" s="111"/>
+      <c r="AK90" s="111"/>
+      <c r="AL90" s="111"/>
+      <c r="AM90" s="111"/>
+      <c r="AN90" s="111"/>
+      <c r="AO90" s="111"/>
+      <c r="AP90" s="111"/>
+      <c r="AQ90" s="111"/>
+      <c r="AR90" s="111"/>
+      <c r="AS90" s="111"/>
+      <c r="AT90" s="112"/>
+    </row>
+    <row r="91" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K91" s="119"/>
+      <c r="L91" s="119"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="111"/>
+      <c r="O91" s="111"/>
+      <c r="P91" s="111"/>
+      <c r="Q91" s="111"/>
+      <c r="R91" s="111"/>
+      <c r="S91" s="111"/>
+      <c r="T91" s="111"/>
+      <c r="U91" s="111"/>
+      <c r="V91" s="111"/>
+      <c r="W91" s="111"/>
+      <c r="X91" s="111"/>
+      <c r="Y91" s="111"/>
+      <c r="Z91" s="111"/>
+      <c r="AA91" s="111"/>
+      <c r="AB91" s="111"/>
+      <c r="AC91" s="111"/>
+      <c r="AD91" s="112"/>
+      <c r="AE91" s="116"/>
+      <c r="AF91" s="111"/>
+      <c r="AG91" s="111"/>
+      <c r="AH91" s="111"/>
+      <c r="AI91" s="111"/>
+      <c r="AJ91" s="111"/>
+      <c r="AK91" s="111"/>
+      <c r="AL91" s="111"/>
+      <c r="AM91" s="111"/>
+      <c r="AN91" s="111"/>
+      <c r="AO91" s="111"/>
+      <c r="AP91" s="111"/>
+      <c r="AQ91" s="111"/>
+      <c r="AR91" s="111"/>
+      <c r="AS91" s="111"/>
+      <c r="AT91" s="112"/>
+    </row>
+    <row r="92" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K92" s="119"/>
+      <c r="L92" s="119"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="111"/>
+      <c r="O92" s="111"/>
+      <c r="P92" s="111"/>
+      <c r="Q92" s="111"/>
+      <c r="R92" s="111"/>
+      <c r="S92" s="111"/>
+      <c r="T92" s="111"/>
+      <c r="U92" s="111"/>
+      <c r="V92" s="111"/>
+      <c r="W92" s="111"/>
+      <c r="X92" s="111"/>
+      <c r="Y92" s="111"/>
+      <c r="Z92" s="111"/>
+      <c r="AA92" s="111"/>
+      <c r="AB92" s="111"/>
+      <c r="AC92" s="111"/>
+      <c r="AD92" s="112"/>
+      <c r="AE92" s="116"/>
+      <c r="AF92" s="111"/>
+      <c r="AG92" s="111"/>
+      <c r="AH92" s="111"/>
+      <c r="AI92" s="111"/>
+      <c r="AJ92" s="111"/>
+      <c r="AK92" s="111"/>
+      <c r="AL92" s="111"/>
+      <c r="AM92" s="111"/>
+      <c r="AN92" s="111"/>
+      <c r="AO92" s="111"/>
+      <c r="AP92" s="111"/>
+      <c r="AQ92" s="111"/>
+      <c r="AR92" s="111"/>
+      <c r="AS92" s="111"/>
+      <c r="AT92" s="112"/>
+    </row>
+    <row r="93" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K93" s="119"/>
+      <c r="L93" s="119"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="111"/>
+      <c r="O93" s="111"/>
+      <c r="P93" s="111"/>
+      <c r="Q93" s="111"/>
+      <c r="R93" s="111"/>
+      <c r="S93" s="111"/>
+      <c r="T93" s="111"/>
+      <c r="U93" s="111"/>
+      <c r="V93" s="111"/>
+      <c r="W93" s="111"/>
+      <c r="X93" s="111"/>
+      <c r="Y93" s="111"/>
+      <c r="Z93" s="111"/>
+      <c r="AA93" s="111"/>
+      <c r="AB93" s="111"/>
+      <c r="AC93" s="111"/>
+      <c r="AD93" s="112"/>
+      <c r="AE93" s="116"/>
+      <c r="AF93" s="111"/>
+      <c r="AG93" s="111"/>
+      <c r="AH93" s="111"/>
+      <c r="AI93" s="111"/>
+      <c r="AJ93" s="111"/>
+      <c r="AK93" s="111"/>
+      <c r="AL93" s="111"/>
+      <c r="AM93" s="111"/>
+      <c r="AN93" s="111"/>
+      <c r="AO93" s="111"/>
+      <c r="AP93" s="111"/>
+      <c r="AQ93" s="111"/>
+      <c r="AR93" s="111"/>
+      <c r="AS93" s="111"/>
+      <c r="AT93" s="112"/>
+    </row>
+    <row r="94" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K94" s="119"/>
+      <c r="L94" s="119"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="111"/>
+      <c r="O94" s="111"/>
+      <c r="P94" s="111"/>
+      <c r="Q94" s="111"/>
+      <c r="R94" s="111"/>
+      <c r="S94" s="111"/>
+      <c r="T94" s="111"/>
+      <c r="U94" s="111"/>
+      <c r="V94" s="111"/>
+      <c r="W94" s="111"/>
+      <c r="X94" s="111"/>
+      <c r="Y94" s="111"/>
+      <c r="Z94" s="111"/>
+      <c r="AA94" s="111"/>
+      <c r="AB94" s="111"/>
+      <c r="AC94" s="111"/>
+      <c r="AD94" s="112"/>
+      <c r="AE94" s="116"/>
+      <c r="AF94" s="111"/>
+      <c r="AG94" s="111"/>
+      <c r="AH94" s="111"/>
+      <c r="AI94" s="111"/>
+      <c r="AJ94" s="111"/>
+      <c r="AK94" s="111"/>
+      <c r="AL94" s="111"/>
+      <c r="AM94" s="111"/>
+      <c r="AN94" s="111"/>
+      <c r="AO94" s="111"/>
+      <c r="AP94" s="111"/>
+      <c r="AQ94" s="111"/>
+      <c r="AR94" s="111"/>
+      <c r="AS94" s="111"/>
+      <c r="AT94" s="112"/>
+    </row>
+    <row r="95" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K95" s="119"/>
+      <c r="L95" s="119"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="111"/>
+      <c r="O95" s="111"/>
+      <c r="P95" s="111"/>
+      <c r="Q95" s="111"/>
+      <c r="R95" s="111"/>
+      <c r="S95" s="111"/>
+      <c r="T95" s="111"/>
+      <c r="U95" s="111"/>
+      <c r="V95" s="111"/>
+      <c r="W95" s="111"/>
+      <c r="X95" s="111"/>
+      <c r="Y95" s="111"/>
+      <c r="Z95" s="111"/>
+      <c r="AA95" s="111"/>
+      <c r="AB95" s="111"/>
+      <c r="AC95" s="111"/>
+      <c r="AD95" s="112"/>
+      <c r="AE95" s="116"/>
+      <c r="AF95" s="111"/>
+      <c r="AG95" s="111"/>
+      <c r="AH95" s="111"/>
+      <c r="AI95" s="111"/>
+      <c r="AJ95" s="111"/>
+      <c r="AK95" s="111"/>
+      <c r="AL95" s="111"/>
+      <c r="AM95" s="111"/>
+      <c r="AN95" s="111"/>
+      <c r="AO95" s="111"/>
+      <c r="AP95" s="111"/>
+      <c r="AQ95" s="111"/>
+      <c r="AR95" s="111"/>
+      <c r="AS95" s="111"/>
+      <c r="AT95" s="112"/>
+    </row>
+    <row r="96" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K96" s="119"/>
+      <c r="L96" s="119"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="111"/>
+      <c r="O96" s="111"/>
+      <c r="P96" s="111"/>
+      <c r="Q96" s="111"/>
+      <c r="R96" s="111"/>
+      <c r="S96" s="111"/>
+      <c r="T96" s="111"/>
+      <c r="U96" s="111"/>
+      <c r="V96" s="111"/>
+      <c r="W96" s="111"/>
+      <c r="X96" s="111"/>
+      <c r="Y96" s="111"/>
+      <c r="Z96" s="111"/>
+      <c r="AA96" s="111"/>
+      <c r="AB96" s="111"/>
+      <c r="AC96" s="111"/>
+      <c r="AD96" s="112"/>
+      <c r="AE96" s="116"/>
+      <c r="AF96" s="111"/>
+      <c r="AG96" s="111"/>
+      <c r="AH96" s="111"/>
+      <c r="AI96" s="111"/>
+      <c r="AJ96" s="111"/>
+      <c r="AK96" s="111"/>
+      <c r="AL96" s="111"/>
+      <c r="AM96" s="111"/>
+      <c r="AN96" s="111"/>
+      <c r="AO96" s="111"/>
+      <c r="AP96" s="111"/>
+      <c r="AQ96" s="111"/>
+      <c r="AR96" s="111"/>
+      <c r="AS96" s="111"/>
+      <c r="AT96" s="112"/>
+    </row>
+    <row r="97" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K97" s="119"/>
+      <c r="L97" s="119"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="111"/>
+      <c r="O97" s="111"/>
+      <c r="P97" s="111"/>
+      <c r="Q97" s="111"/>
+      <c r="R97" s="111"/>
+      <c r="S97" s="111"/>
+      <c r="T97" s="111"/>
+      <c r="U97" s="111"/>
+      <c r="V97" s="111"/>
+      <c r="W97" s="111"/>
+      <c r="X97" s="111"/>
+      <c r="Y97" s="111"/>
+      <c r="Z97" s="111"/>
+      <c r="AA97" s="111"/>
+      <c r="AB97" s="111"/>
+      <c r="AC97" s="111"/>
+      <c r="AD97" s="112"/>
+      <c r="AE97" s="116"/>
+      <c r="AF97" s="111"/>
+      <c r="AG97" s="111"/>
+      <c r="AH97" s="111"/>
+      <c r="AI97" s="111"/>
+      <c r="AJ97" s="111"/>
+      <c r="AK97" s="111"/>
+      <c r="AL97" s="111"/>
+      <c r="AM97" s="111"/>
+      <c r="AN97" s="111"/>
+      <c r="AO97" s="111"/>
+      <c r="AP97" s="111"/>
+      <c r="AQ97" s="111"/>
+      <c r="AR97" s="111"/>
+      <c r="AS97" s="111"/>
+      <c r="AT97" s="112"/>
+    </row>
+    <row r="98" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K98" s="119"/>
+      <c r="L98" s="119"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="111"/>
+      <c r="O98" s="111"/>
+      <c r="P98" s="111"/>
+      <c r="Q98" s="111"/>
+      <c r="R98" s="111"/>
+      <c r="S98" s="111"/>
+      <c r="T98" s="111"/>
+      <c r="U98" s="111"/>
+      <c r="V98" s="111"/>
+      <c r="W98" s="111"/>
+      <c r="X98" s="111"/>
+      <c r="Y98" s="111"/>
+      <c r="Z98" s="111"/>
+      <c r="AA98" s="111"/>
+      <c r="AB98" s="111"/>
+      <c r="AC98" s="111"/>
+      <c r="AD98" s="112"/>
+      <c r="AE98" s="116"/>
+      <c r="AF98" s="111"/>
+      <c r="AG98" s="111"/>
+      <c r="AH98" s="111"/>
+      <c r="AI98" s="111"/>
+      <c r="AJ98" s="111"/>
+      <c r="AK98" s="111"/>
+      <c r="AL98" s="111"/>
+      <c r="AM98" s="111"/>
+      <c r="AN98" s="111"/>
+      <c r="AO98" s="111"/>
+      <c r="AP98" s="111"/>
+      <c r="AQ98" s="111"/>
+      <c r="AR98" s="111"/>
+      <c r="AS98" s="111"/>
+      <c r="AT98" s="112"/>
+    </row>
+    <row r="99" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K99" s="119"/>
+      <c r="L99" s="119"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="111"/>
+      <c r="O99" s="111"/>
+      <c r="P99" s="111"/>
+      <c r="Q99" s="111"/>
+      <c r="R99" s="111"/>
+      <c r="S99" s="111"/>
+      <c r="T99" s="111"/>
+      <c r="U99" s="111"/>
+      <c r="V99" s="111"/>
+      <c r="W99" s="111"/>
+      <c r="X99" s="111"/>
+      <c r="Y99" s="111"/>
+      <c r="Z99" s="111"/>
+      <c r="AA99" s="111"/>
+      <c r="AB99" s="111"/>
+      <c r="AC99" s="111"/>
+      <c r="AD99" s="112"/>
+      <c r="AE99" s="116"/>
+      <c r="AF99" s="111"/>
+      <c r="AG99" s="111"/>
+      <c r="AH99" s="111"/>
+      <c r="AI99" s="111"/>
+      <c r="AJ99" s="111"/>
+      <c r="AK99" s="111"/>
+      <c r="AL99" s="111"/>
+      <c r="AM99" s="111"/>
+      <c r="AN99" s="111"/>
+      <c r="AO99" s="111"/>
+      <c r="AP99" s="111"/>
+      <c r="AQ99" s="111"/>
+      <c r="AR99" s="111"/>
+      <c r="AS99" s="111"/>
+      <c r="AT99" s="112"/>
+    </row>
+    <row r="100" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K100" s="119"/>
+      <c r="L100" s="119"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="111"/>
+      <c r="O100" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="W100" s="94" t="s">
+      <c r="P100" s="111"/>
+      <c r="Q100" s="111"/>
+      <c r="R100" s="111"/>
+      <c r="S100" s="111"/>
+      <c r="T100" s="111"/>
+      <c r="U100" s="111"/>
+      <c r="V100" s="111"/>
+      <c r="W100" s="111"/>
+      <c r="X100" s="111"/>
+      <c r="Y100" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="AD100" s="94" t="s">
+      <c r="Z100" s="111"/>
+      <c r="AA100" s="111"/>
+      <c r="AB100" s="111"/>
+      <c r="AC100" s="111"/>
+      <c r="AD100" s="112"/>
+      <c r="AE100" s="116"/>
+      <c r="AF100" s="110" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="101" spans="13:38" x14ac:dyDescent="0.25">
-      <c r="AL101" s="94" t="s">
+      <c r="AG100" s="111"/>
+      <c r="AH100" s="111"/>
+      <c r="AI100" s="111"/>
+      <c r="AJ100" s="111"/>
+      <c r="AK100" s="111"/>
+      <c r="AL100" s="111"/>
+      <c r="AM100" s="111"/>
+      <c r="AN100" s="111"/>
+      <c r="AO100" s="111"/>
+      <c r="AP100" s="111"/>
+      <c r="AQ100" s="111"/>
+      <c r="AR100" s="111"/>
+      <c r="AS100" s="111"/>
+      <c r="AT100" s="112"/>
+    </row>
+    <row r="101" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K101" s="119"/>
+      <c r="L101" s="119"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="111"/>
+      <c r="O101" s="111"/>
+      <c r="P101" s="111"/>
+      <c r="Q101" s="111"/>
+      <c r="R101" s="111"/>
+      <c r="S101" s="111"/>
+      <c r="T101" s="111"/>
+      <c r="U101" s="111"/>
+      <c r="V101" s="111"/>
+      <c r="W101" s="111"/>
+      <c r="X101" s="111"/>
+      <c r="Y101" s="111"/>
+      <c r="Z101" s="111"/>
+      <c r="AA101" s="111"/>
+      <c r="AB101" s="111"/>
+      <c r="AC101" s="111"/>
+      <c r="AD101" s="112"/>
+      <c r="AE101" s="116"/>
+      <c r="AF101" s="111"/>
+      <c r="AG101" s="111"/>
+      <c r="AH101" s="111"/>
+      <c r="AI101" s="111"/>
+      <c r="AJ101" s="111"/>
+      <c r="AK101" s="111"/>
+      <c r="AL101" s="111"/>
+      <c r="AM101" s="111"/>
+      <c r="AN101" s="110" t="s">
         <v>64</v>
       </c>
+      <c r="AO101" s="111"/>
+      <c r="AP101" s="111"/>
+      <c r="AQ101" s="111"/>
+      <c r="AR101" s="111"/>
+      <c r="AS101" s="111"/>
+      <c r="AT101" s="112"/>
+    </row>
+    <row r="102" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K102" s="119"/>
+      <c r="L102" s="119"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="111"/>
+      <c r="O102" s="111"/>
+      <c r="P102" s="111"/>
+      <c r="Q102" s="111"/>
+      <c r="R102" s="111"/>
+      <c r="S102" s="111"/>
+      <c r="T102" s="111"/>
+      <c r="U102" s="111"/>
+      <c r="V102" s="111"/>
+      <c r="W102" s="111"/>
+      <c r="X102" s="111"/>
+      <c r="Y102" s="111"/>
+      <c r="Z102" s="111"/>
+      <c r="AA102" s="111"/>
+      <c r="AB102" s="111"/>
+      <c r="AC102" s="111"/>
+      <c r="AD102" s="112"/>
+      <c r="AE102" s="116"/>
+      <c r="AF102" s="111"/>
+      <c r="AG102" s="111"/>
+      <c r="AH102" s="111"/>
+      <c r="AI102" s="111"/>
+      <c r="AJ102" s="111"/>
+      <c r="AK102" s="111"/>
+      <c r="AL102" s="111"/>
+      <c r="AM102" s="111"/>
+      <c r="AN102" s="111"/>
+      <c r="AO102" s="111"/>
+      <c r="AP102" s="111"/>
+      <c r="AQ102" s="111"/>
+      <c r="AR102" s="111"/>
+      <c r="AS102" s="111"/>
+      <c r="AT102" s="112"/>
+    </row>
+    <row r="103" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K103" s="119"/>
+      <c r="L103" s="119"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="111"/>
+      <c r="O103" s="111"/>
+      <c r="P103" s="111"/>
+      <c r="Q103" s="111"/>
+      <c r="R103" s="111"/>
+      <c r="S103" s="111"/>
+      <c r="T103" s="111"/>
+      <c r="U103" s="111"/>
+      <c r="V103" s="111"/>
+      <c r="W103" s="111"/>
+      <c r="X103" s="111"/>
+      <c r="Y103" s="111"/>
+      <c r="Z103" s="111"/>
+      <c r="AA103" s="111"/>
+      <c r="AB103" s="111"/>
+      <c r="AC103" s="111"/>
+      <c r="AD103" s="112"/>
+      <c r="AE103" s="116"/>
+      <c r="AF103" s="111"/>
+      <c r="AG103" s="111"/>
+      <c r="AH103" s="111"/>
+      <c r="AI103" s="111"/>
+      <c r="AJ103" s="111"/>
+      <c r="AK103" s="111"/>
+      <c r="AL103" s="111"/>
+      <c r="AM103" s="111"/>
+      <c r="AN103" s="111"/>
+      <c r="AO103" s="111"/>
+      <c r="AP103" s="111"/>
+      <c r="AQ103" s="111"/>
+      <c r="AR103" s="111"/>
+      <c r="AS103" s="111"/>
+      <c r="AT103" s="112"/>
+    </row>
+    <row r="104" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K104" s="119"/>
+      <c r="L104" s="119"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="111"/>
+      <c r="O104" s="111"/>
+      <c r="P104" s="111"/>
+      <c r="Q104" s="111"/>
+      <c r="R104" s="111"/>
+      <c r="S104" s="111"/>
+      <c r="T104" s="111"/>
+      <c r="U104" s="111"/>
+      <c r="V104" s="111"/>
+      <c r="W104" s="111"/>
+      <c r="X104" s="111"/>
+      <c r="Y104" s="111"/>
+      <c r="Z104" s="111"/>
+      <c r="AA104" s="111"/>
+      <c r="AB104" s="111"/>
+      <c r="AC104" s="111"/>
+      <c r="AD104" s="112"/>
+      <c r="AE104" s="116"/>
+      <c r="AF104" s="111"/>
+      <c r="AG104" s="111"/>
+      <c r="AH104" s="111"/>
+      <c r="AI104" s="111"/>
+      <c r="AJ104" s="111"/>
+      <c r="AK104" s="111"/>
+      <c r="AL104" s="111"/>
+      <c r="AM104" s="111"/>
+      <c r="AN104" s="111"/>
+      <c r="AO104" s="111"/>
+      <c r="AP104" s="111"/>
+      <c r="AQ104" s="111"/>
+      <c r="AR104" s="111"/>
+      <c r="AS104" s="111"/>
+      <c r="AT104" s="112"/>
+    </row>
+    <row r="105" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K105" s="119"/>
+      <c r="L105" s="119"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="111"/>
+      <c r="O105" s="111"/>
+      <c r="P105" s="111"/>
+      <c r="Q105" s="111"/>
+      <c r="R105" s="111"/>
+      <c r="S105" s="111"/>
+      <c r="T105" s="111"/>
+      <c r="U105" s="111"/>
+      <c r="V105" s="111"/>
+      <c r="W105" s="111"/>
+      <c r="X105" s="111"/>
+      <c r="Y105" s="111"/>
+      <c r="Z105" s="111"/>
+      <c r="AA105" s="111"/>
+      <c r="AB105" s="111"/>
+      <c r="AC105" s="111"/>
+      <c r="AD105" s="112"/>
+      <c r="AE105" s="116"/>
+      <c r="AF105" s="111"/>
+      <c r="AG105" s="111"/>
+      <c r="AH105" s="111"/>
+      <c r="AI105" s="111"/>
+      <c r="AJ105" s="111"/>
+      <c r="AK105" s="111"/>
+      <c r="AL105" s="111"/>
+      <c r="AM105" s="111"/>
+      <c r="AN105" s="111"/>
+      <c r="AO105" s="111"/>
+      <c r="AP105" s="111"/>
+      <c r="AQ105" s="111"/>
+      <c r="AR105" s="111"/>
+      <c r="AS105" s="111"/>
+      <c r="AT105" s="112"/>
+    </row>
+    <row r="106" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K106" s="119"/>
+      <c r="L106" s="119"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="111"/>
+      <c r="O106" s="111"/>
+      <c r="P106" s="111"/>
+      <c r="Q106" s="111"/>
+      <c r="R106" s="111"/>
+      <c r="S106" s="111"/>
+      <c r="T106" s="111"/>
+      <c r="U106" s="111"/>
+      <c r="V106" s="111"/>
+      <c r="W106" s="111"/>
+      <c r="X106" s="111"/>
+      <c r="Y106" s="111"/>
+      <c r="Z106" s="111"/>
+      <c r="AA106" s="111"/>
+      <c r="AB106" s="111"/>
+      <c r="AC106" s="111"/>
+      <c r="AD106" s="112"/>
+      <c r="AE106" s="116"/>
+      <c r="AF106" s="111"/>
+      <c r="AG106" s="111"/>
+      <c r="AH106" s="111"/>
+      <c r="AI106" s="111"/>
+      <c r="AJ106" s="111"/>
+      <c r="AK106" s="111"/>
+      <c r="AL106" s="111"/>
+      <c r="AM106" s="111"/>
+      <c r="AN106" s="111"/>
+      <c r="AO106" s="111"/>
+      <c r="AP106" s="111"/>
+      <c r="AQ106" s="111"/>
+      <c r="AR106" s="111"/>
+      <c r="AS106" s="111"/>
+      <c r="AT106" s="112"/>
+    </row>
+    <row r="107" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K107" s="119"/>
+      <c r="L107" s="119"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="111"/>
+      <c r="O107" s="111"/>
+      <c r="P107" s="111"/>
+      <c r="Q107" s="111"/>
+      <c r="R107" s="111"/>
+      <c r="S107" s="111"/>
+      <c r="T107" s="111"/>
+      <c r="U107" s="111"/>
+      <c r="V107" s="111"/>
+      <c r="W107" s="111"/>
+      <c r="X107" s="111"/>
+      <c r="Y107" s="111"/>
+      <c r="Z107" s="111"/>
+      <c r="AA107" s="111"/>
+      <c r="AB107" s="111"/>
+      <c r="AC107" s="111"/>
+      <c r="AD107" s="112"/>
+      <c r="AE107" s="116"/>
+      <c r="AF107" s="111"/>
+      <c r="AG107" s="111"/>
+      <c r="AH107" s="111"/>
+      <c r="AI107" s="111"/>
+      <c r="AJ107" s="111"/>
+      <c r="AK107" s="111"/>
+      <c r="AL107" s="111"/>
+      <c r="AM107" s="111"/>
+      <c r="AN107" s="111"/>
+      <c r="AO107" s="111"/>
+      <c r="AP107" s="111"/>
+      <c r="AQ107" s="111"/>
+      <c r="AR107" s="111"/>
+      <c r="AS107" s="111"/>
+      <c r="AT107" s="112"/>
+    </row>
+    <row r="108" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K108" s="119"/>
+      <c r="L108" s="119"/>
+      <c r="M108" s="16"/>
+      <c r="N108" s="111"/>
+      <c r="O108" s="111"/>
+      <c r="P108" s="111"/>
+      <c r="Q108" s="111"/>
+      <c r="R108" s="111"/>
+      <c r="S108" s="111"/>
+      <c r="T108" s="111"/>
+      <c r="U108" s="111"/>
+      <c r="V108" s="111"/>
+      <c r="W108" s="111"/>
+      <c r="X108" s="111"/>
+      <c r="Y108" s="111"/>
+      <c r="Z108" s="111"/>
+      <c r="AA108" s="111"/>
+      <c r="AB108" s="111"/>
+      <c r="AC108" s="111"/>
+      <c r="AD108" s="112"/>
+      <c r="AE108" s="116"/>
+      <c r="AF108" s="111"/>
+      <c r="AG108" s="111"/>
+      <c r="AH108" s="111"/>
+      <c r="AI108" s="111"/>
+      <c r="AJ108" s="111"/>
+      <c r="AK108" s="111"/>
+      <c r="AL108" s="111"/>
+      <c r="AM108" s="111"/>
+      <c r="AN108" s="111"/>
+      <c r="AO108" s="111"/>
+      <c r="AP108" s="111"/>
+      <c r="AQ108" s="111"/>
+      <c r="AR108" s="111"/>
+      <c r="AS108" s="111"/>
+      <c r="AT108" s="112"/>
+    </row>
+    <row r="109" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K109" s="119"/>
+      <c r="L109" s="119"/>
+      <c r="M109" s="16"/>
+      <c r="N109" s="111"/>
+      <c r="O109" s="111"/>
+      <c r="P109" s="111"/>
+      <c r="Q109" s="111"/>
+      <c r="R109" s="111"/>
+      <c r="S109" s="111"/>
+      <c r="T109" s="111"/>
+      <c r="U109" s="111"/>
+      <c r="V109" s="111"/>
+      <c r="W109" s="111"/>
+      <c r="X109" s="111"/>
+      <c r="Y109" s="111"/>
+      <c r="Z109" s="111"/>
+      <c r="AA109" s="111"/>
+      <c r="AB109" s="111"/>
+      <c r="AC109" s="111"/>
+      <c r="AD109" s="112"/>
+      <c r="AE109" s="116"/>
+      <c r="AF109" s="111"/>
+      <c r="AG109" s="111"/>
+      <c r="AH109" s="111"/>
+      <c r="AI109" s="111"/>
+      <c r="AJ109" s="111"/>
+      <c r="AK109" s="111"/>
+      <c r="AL109" s="111"/>
+      <c r="AM109" s="111"/>
+      <c r="AN109" s="111"/>
+      <c r="AO109" s="111"/>
+      <c r="AP109" s="111"/>
+      <c r="AQ109" s="111"/>
+      <c r="AR109" s="111"/>
+      <c r="AS109" s="111"/>
+      <c r="AT109" s="112"/>
+    </row>
+    <row r="110" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K110" s="119"/>
+      <c r="L110" s="119"/>
+      <c r="M110" s="16"/>
+      <c r="N110" s="111"/>
+      <c r="O110" s="111"/>
+      <c r="P110" s="111"/>
+      <c r="Q110" s="111"/>
+      <c r="R110" s="111"/>
+      <c r="S110" s="111"/>
+      <c r="T110" s="111"/>
+      <c r="U110" s="111"/>
+      <c r="V110" s="111"/>
+      <c r="W110" s="111"/>
+      <c r="X110" s="111"/>
+      <c r="Y110" s="111"/>
+      <c r="Z110" s="111"/>
+      <c r="AA110" s="111"/>
+      <c r="AB110" s="111"/>
+      <c r="AC110" s="111"/>
+      <c r="AD110" s="112"/>
+      <c r="AE110" s="116"/>
+      <c r="AF110" s="111"/>
+      <c r="AG110" s="111"/>
+      <c r="AH110" s="111"/>
+      <c r="AI110" s="111"/>
+      <c r="AJ110" s="111"/>
+      <c r="AK110" s="111"/>
+      <c r="AL110" s="111"/>
+      <c r="AM110" s="111"/>
+      <c r="AN110" s="111"/>
+      <c r="AO110" s="111"/>
+      <c r="AP110" s="111"/>
+      <c r="AQ110" s="111"/>
+      <c r="AR110" s="111"/>
+      <c r="AS110" s="111"/>
+      <c r="AT110" s="112"/>
+    </row>
+    <row r="111" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K111" s="119"/>
+      <c r="L111" s="119"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="111"/>
+      <c r="O111" s="111"/>
+      <c r="P111" s="111"/>
+      <c r="Q111" s="111"/>
+      <c r="R111" s="111"/>
+      <c r="S111" s="111"/>
+      <c r="T111" s="111"/>
+      <c r="U111" s="111"/>
+      <c r="V111" s="111"/>
+      <c r="W111" s="111"/>
+      <c r="X111" s="111"/>
+      <c r="Y111" s="111"/>
+      <c r="Z111" s="111"/>
+      <c r="AA111" s="111"/>
+      <c r="AB111" s="111"/>
+      <c r="AC111" s="111"/>
+      <c r="AD111" s="112"/>
+      <c r="AE111" s="116"/>
+      <c r="AF111" s="111"/>
+      <c r="AG111" s="111"/>
+      <c r="AH111" s="111"/>
+      <c r="AI111" s="111"/>
+      <c r="AJ111" s="111"/>
+      <c r="AK111" s="111"/>
+      <c r="AL111" s="111"/>
+      <c r="AM111" s="111"/>
+      <c r="AN111" s="111"/>
+      <c r="AO111" s="111"/>
+      <c r="AP111" s="111"/>
+      <c r="AQ111" s="111"/>
+      <c r="AR111" s="111"/>
+      <c r="AS111" s="111"/>
+      <c r="AT111" s="112"/>
+    </row>
+    <row r="112" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K112" s="119"/>
+      <c r="L112" s="119"/>
+      <c r="M112" s="16"/>
+      <c r="N112" s="111"/>
+      <c r="O112" s="111"/>
+      <c r="P112" s="111"/>
+      <c r="Q112" s="111"/>
+      <c r="R112" s="111"/>
+      <c r="S112" s="111"/>
+      <c r="T112" s="111"/>
+      <c r="U112" s="111"/>
+      <c r="V112" s="111"/>
+      <c r="W112" s="111"/>
+      <c r="X112" s="111"/>
+      <c r="Y112" s="111"/>
+      <c r="Z112" s="111"/>
+      <c r="AA112" s="111"/>
+      <c r="AB112" s="111"/>
+      <c r="AC112" s="111"/>
+      <c r="AD112" s="112"/>
+      <c r="AE112" s="116"/>
+      <c r="AF112" s="111"/>
+      <c r="AG112" s="111"/>
+      <c r="AH112" s="111"/>
+      <c r="AI112" s="111"/>
+      <c r="AJ112" s="111"/>
+      <c r="AK112" s="111"/>
+      <c r="AL112" s="111"/>
+      <c r="AM112" s="111"/>
+      <c r="AN112" s="111"/>
+      <c r="AO112" s="111"/>
+      <c r="AP112" s="111"/>
+      <c r="AQ112" s="111"/>
+      <c r="AR112" s="111"/>
+      <c r="AS112" s="111"/>
+      <c r="AT112" s="112"/>
+    </row>
+    <row r="113" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K113" s="119"/>
+      <c r="L113" s="119"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="111"/>
+      <c r="O113" s="111"/>
+      <c r="P113" s="111"/>
+      <c r="Q113" s="111"/>
+      <c r="R113" s="111"/>
+      <c r="S113" s="111"/>
+      <c r="T113" s="111"/>
+      <c r="U113" s="111"/>
+      <c r="V113" s="111"/>
+      <c r="W113" s="111"/>
+      <c r="X113" s="111"/>
+      <c r="Y113" s="111"/>
+      <c r="Z113" s="111"/>
+      <c r="AA113" s="111"/>
+      <c r="AB113" s="111"/>
+      <c r="AC113" s="111"/>
+      <c r="AD113" s="112"/>
+      <c r="AE113" s="116"/>
+      <c r="AF113" s="111"/>
+      <c r="AG113" s="111"/>
+      <c r="AH113" s="111"/>
+      <c r="AI113" s="111"/>
+      <c r="AJ113" s="111"/>
+      <c r="AK113" s="111"/>
+      <c r="AL113" s="111"/>
+      <c r="AM113" s="111"/>
+      <c r="AN113" s="111"/>
+      <c r="AO113" s="111"/>
+      <c r="AP113" s="111"/>
+      <c r="AQ113" s="111"/>
+      <c r="AR113" s="111"/>
+      <c r="AS113" s="111"/>
+      <c r="AT113" s="112"/>
+    </row>
+    <row r="114" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K114" s="119"/>
+      <c r="L114" s="119"/>
+      <c r="M114" s="16"/>
+      <c r="N114" s="111"/>
+      <c r="O114" s="111"/>
+      <c r="P114" s="111"/>
+      <c r="Q114" s="111"/>
+      <c r="R114" s="111"/>
+      <c r="S114" s="111"/>
+      <c r="T114" s="111"/>
+      <c r="U114" s="111"/>
+      <c r="V114" s="111"/>
+      <c r="W114" s="111"/>
+      <c r="X114" s="111"/>
+      <c r="Y114" s="111"/>
+      <c r="Z114" s="111"/>
+      <c r="AA114" s="111"/>
+      <c r="AB114" s="111"/>
+      <c r="AC114" s="111"/>
+      <c r="AD114" s="112"/>
+      <c r="AE114" s="116"/>
+      <c r="AF114" s="111"/>
+      <c r="AG114" s="111"/>
+      <c r="AH114" s="111"/>
+      <c r="AI114" s="111"/>
+      <c r="AJ114" s="111"/>
+      <c r="AK114" s="111"/>
+      <c r="AL114" s="111"/>
+      <c r="AM114" s="111"/>
+      <c r="AN114" s="111"/>
+      <c r="AO114" s="111"/>
+      <c r="AP114" s="111"/>
+      <c r="AQ114" s="111"/>
+      <c r="AR114" s="111"/>
+      <c r="AS114" s="111"/>
+      <c r="AT114" s="112"/>
+    </row>
+    <row r="115" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K115" s="119"/>
+      <c r="L115" s="119"/>
+      <c r="M115" s="16"/>
+      <c r="N115" s="111"/>
+      <c r="O115" s="111"/>
+      <c r="P115" s="111"/>
+      <c r="Q115" s="111"/>
+      <c r="R115" s="111"/>
+      <c r="S115" s="111"/>
+      <c r="T115" s="111"/>
+      <c r="U115" s="111"/>
+      <c r="V115" s="111"/>
+      <c r="W115" s="111"/>
+      <c r="X115" s="111"/>
+      <c r="Y115" s="111"/>
+      <c r="Z115" s="111"/>
+      <c r="AA115" s="111"/>
+      <c r="AB115" s="111"/>
+      <c r="AC115" s="111"/>
+      <c r="AD115" s="112"/>
+      <c r="AE115" s="116"/>
+      <c r="AF115" s="111"/>
+      <c r="AG115" s="111"/>
+      <c r="AH115" s="111"/>
+      <c r="AI115" s="111"/>
+      <c r="AJ115" s="111"/>
+      <c r="AK115" s="111"/>
+      <c r="AL115" s="111"/>
+      <c r="AM115" s="111"/>
+      <c r="AN115" s="111"/>
+      <c r="AO115" s="111"/>
+      <c r="AP115" s="111"/>
+      <c r="AQ115" s="111"/>
+      <c r="AR115" s="111"/>
+      <c r="AS115" s="111"/>
+      <c r="AT115" s="112"/>
+    </row>
+    <row r="116" spans="11:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K116" s="119"/>
+      <c r="L116" s="119"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="113"/>
+      <c r="O116" s="113"/>
+      <c r="P116" s="113"/>
+      <c r="Q116" s="113"/>
+      <c r="R116" s="113"/>
+      <c r="S116" s="113"/>
+      <c r="T116" s="113"/>
+      <c r="U116" s="113"/>
+      <c r="V116" s="113"/>
+      <c r="W116" s="113"/>
+      <c r="X116" s="113"/>
+      <c r="Y116" s="113"/>
+      <c r="Z116" s="113"/>
+      <c r="AA116" s="113"/>
+      <c r="AB116" s="113"/>
+      <c r="AC116" s="113"/>
+      <c r="AD116" s="114"/>
+      <c r="AE116" s="117"/>
+      <c r="AF116" s="113"/>
+      <c r="AG116" s="113"/>
+      <c r="AH116" s="113"/>
+      <c r="AI116" s="113"/>
+      <c r="AJ116" s="113"/>
+      <c r="AK116" s="113"/>
+      <c r="AL116" s="113"/>
+      <c r="AM116" s="113"/>
+      <c r="AN116" s="113"/>
+      <c r="AO116" s="113"/>
+      <c r="AP116" s="113"/>
+      <c r="AQ116" s="113"/>
+      <c r="AR116" s="113"/>
+      <c r="AS116" s="113"/>
+      <c r="AT116" s="114"/>
+    </row>
+    <row r="117" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K117" s="119"/>
+      <c r="L117" s="119"/>
+    </row>
+    <row r="118" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K118" s="119"/>
+      <c r="L118" s="119"/>
+    </row>
+    <row r="119" spans="11:46" x14ac:dyDescent="0.25">
+      <c r="K119" s="119"/>
+      <c r="L119" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF0214F-A187-449C-9911-060731290C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7534430-2806-474A-95C7-F7FFB5A00432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="70">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>#23</t>
+  </si>
+  <si>
+    <t>#24</t>
+  </si>
+  <si>
+    <t>#25</t>
   </si>
 </sst>
 </file>
@@ -891,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1188,6 +1194,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1210,22 +1227,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2787,6 +2788,128 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6488F49-685F-8FAB-3E08-605F03009DBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="32851725" y="9972675"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>578783</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>25774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621A3341-83AD-96BE-AD8A-1221A2B76349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28328470" y="13267765"/>
+          <a:ext cx="3716431" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3147,22 +3270,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="100" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="101" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -4567,22 +4690,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="100" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="101" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -5987,22 +6110,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="100" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="101" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -7407,22 +7530,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="100" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="101" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -8798,22 +8921,22 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106" t="s">
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="104" t="s">
+      <c r="E4" s="113"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="107"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="116"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -9592,22 +9715,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="100" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="101" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -10830,10 +10953,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
-  <dimension ref="A2:BC119"/>
+  <dimension ref="A2:BC116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10905,25 +11028,25 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="100" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="101" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="K5" s="95"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="84" t="s">
@@ -10959,8 +11082,8 @@
       <c r="K6" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -10996,8 +11119,6 @@
       <c r="K7" s="96">
         <v>1</v>
       </c>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
@@ -11033,8 +11154,6 @@
       <c r="K8" s="99">
         <v>2</v>
       </c>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -11070,8 +11189,6 @@
       <c r="K9" s="96">
         <v>3</v>
       </c>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
@@ -11107,8 +11224,6 @@
       <c r="K10" s="99">
         <v>4</v>
       </c>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -11144,8 +11259,6 @@
       <c r="K11" s="96">
         <v>5</v>
       </c>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
@@ -11181,8 +11294,6 @@
       <c r="K12" s="99">
         <v>6</v>
       </c>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
@@ -11218,8 +11329,6 @@
       <c r="K13" s="96">
         <v>7</v>
       </c>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
@@ -11255,8 +11364,6 @@
       <c r="K14" s="99">
         <v>8</v>
       </c>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -11292,8 +11399,6 @@
       <c r="K15" s="96">
         <v>9</v>
       </c>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -11329,10 +11434,8 @@
       <c r="K16" s="97">
         <v>10</v>
       </c>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>2</v>
       </c>
@@ -11366,10 +11469,8 @@
       <c r="K17" s="96">
         <v>11</v>
       </c>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>3</v>
       </c>
@@ -11403,10 +11504,8 @@
       <c r="K18" s="99">
         <v>12</v>
       </c>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>2</v>
       </c>
@@ -11440,10 +11539,8 @@
       <c r="K19" s="96">
         <v>13</v>
       </c>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>3</v>
       </c>
@@ -11477,10 +11574,8 @@
       <c r="K20" s="99">
         <v>14</v>
       </c>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>2</v>
       </c>
@@ -11514,10 +11609,8 @@
       <c r="K21" s="96">
         <v>15</v>
       </c>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>3</v>
       </c>
@@ -11551,10 +11644,8 @@
       <c r="K22" s="99">
         <v>16</v>
       </c>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>2</v>
       </c>
@@ -11588,10 +11679,8 @@
       <c r="K23" s="96">
         <v>17</v>
       </c>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>3</v>
       </c>
@@ -11625,10 +11714,8 @@
       <c r="K24" s="99">
         <v>18</v>
       </c>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>2</v>
       </c>
@@ -11662,10 +11749,8 @@
       <c r="K25" s="96">
         <v>19</v>
       </c>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>3</v>
       </c>
@@ -11699,10 +11784,8 @@
       <c r="K26" s="97">
         <v>20</v>
       </c>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>2</v>
       </c>
@@ -11737,7 +11820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>3</v>
       </c>
@@ -11772,7 +11855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>2</v>
       </c>
@@ -11807,7 +11890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>3</v>
       </c>
@@ -11832,11 +11915,17 @@
       <c r="H30" s="38">
         <v>128</v>
       </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="99"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I30" s="38">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="J30" s="33">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="K30" s="99">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>2</v>
       </c>
@@ -11861,11 +11950,17 @@
       <c r="H31" s="41">
         <v>128</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="96"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I31" s="41">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="J31" s="19">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="K31" s="96">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>3</v>
       </c>
@@ -11893,7 +11988,6 @@
       <c r="I32" s="38"/>
       <c r="J32" s="33"/>
       <c r="K32" s="99"/>
-      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
@@ -11923,7 +12017,6 @@
       <c r="I33" s="40"/>
       <c r="J33" s="36"/>
       <c r="K33" s="96"/>
-      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
@@ -11953,7 +12046,6 @@
       <c r="I34" s="38"/>
       <c r="J34" s="33"/>
       <c r="K34" s="99"/>
-      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -11983,41 +12075,40 @@
       <c r="I35" s="41"/>
       <c r="J35" s="19"/>
       <c r="K35" s="96"/>
-      <c r="L35" s="119"/>
       <c r="M35" s="20"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="108"/>
-      <c r="U35" s="108"/>
-      <c r="V35" s="108"/>
-      <c r="W35" s="108"/>
-      <c r="X35" s="108"/>
-      <c r="Y35" s="108"/>
-      <c r="Z35" s="108"/>
-      <c r="AA35" s="108"/>
-      <c r="AB35" s="108"/>
-      <c r="AC35" s="108"/>
-      <c r="AD35" s="109"/>
-      <c r="AE35" s="115"/>
-      <c r="AF35" s="108"/>
-      <c r="AG35" s="108"/>
-      <c r="AH35" s="108"/>
-      <c r="AI35" s="108"/>
-      <c r="AJ35" s="108"/>
-      <c r="AK35" s="108"/>
-      <c r="AL35" s="108"/>
-      <c r="AM35" s="108"/>
-      <c r="AN35" s="108"/>
-      <c r="AO35" s="108"/>
-      <c r="AP35" s="108"/>
-      <c r="AQ35" s="108"/>
-      <c r="AR35" s="108"/>
-      <c r="AS35" s="108"/>
-      <c r="AT35" s="109"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="100"/>
+      <c r="AB35" s="100"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="101"/>
+      <c r="AE35" s="105"/>
+      <c r="AF35" s="100"/>
+      <c r="AG35" s="100"/>
+      <c r="AH35" s="100"/>
+      <c r="AI35" s="100"/>
+      <c r="AJ35" s="100"/>
+      <c r="AK35" s="100"/>
+      <c r="AL35" s="100"/>
+      <c r="AM35" s="100"/>
+      <c r="AN35" s="100"/>
+      <c r="AO35" s="100"/>
+      <c r="AP35" s="100"/>
+      <c r="AQ35" s="100"/>
+      <c r="AR35" s="100"/>
+      <c r="AS35" s="100"/>
+      <c r="AT35" s="101"/>
     </row>
     <row r="36" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -12047,49 +12138,22 @@
       <c r="I36" s="42"/>
       <c r="J36" s="4"/>
       <c r="K36" s="97"/>
-      <c r="L36" s="119"/>
       <c r="M36" s="16"/>
-      <c r="N36" s="110" t="s">
+      <c r="N36" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="O36" s="111"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-      <c r="U36" s="111"/>
-      <c r="V36" s="111"/>
-      <c r="W36" s="110" t="s">
+      <c r="W36" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="X36" s="111"/>
-      <c r="Y36" s="111"/>
-      <c r="Z36" s="111"/>
-      <c r="AA36" s="111"/>
-      <c r="AB36" s="111"/>
-      <c r="AC36" s="111"/>
-      <c r="AD36" s="112"/>
-      <c r="AE36" s="116"/>
-      <c r="AF36" s="110" t="s">
+      <c r="AD36" s="102"/>
+      <c r="AE36" s="106"/>
+      <c r="AF36" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AG36" s="111"/>
-      <c r="AH36" s="111"/>
-      <c r="AI36" s="111"/>
-      <c r="AJ36" s="111"/>
-      <c r="AK36" s="111"/>
-      <c r="AL36" s="111"/>
-      <c r="AM36" s="110" t="s">
+      <c r="AM36" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="AN36" s="111"/>
-      <c r="AO36" s="111"/>
-      <c r="AP36" s="111"/>
-      <c r="AQ36" s="111"/>
-      <c r="AR36" s="111"/>
-      <c r="AS36" s="111"/>
-      <c r="AT36" s="112"/>
+      <c r="AT36" s="102"/>
       <c r="AV36" s="94" t="s">
         <v>65</v>
       </c>
@@ -12098,3091 +12162,571 @@
       </c>
     </row>
     <row r="37" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="K37" s="119"/>
-      <c r="L37" s="119"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111"/>
-      <c r="U37" s="111"/>
-      <c r="V37" s="111"/>
-      <c r="W37" s="111"/>
-      <c r="X37" s="111"/>
-      <c r="Y37" s="111"/>
-      <c r="Z37" s="111"/>
-      <c r="AA37" s="111"/>
-      <c r="AB37" s="111"/>
-      <c r="AC37" s="111"/>
-      <c r="AD37" s="112"/>
-      <c r="AE37" s="116"/>
-      <c r="AF37" s="111"/>
-      <c r="AG37" s="111"/>
-      <c r="AH37" s="111"/>
-      <c r="AI37" s="111"/>
-      <c r="AJ37" s="111"/>
-      <c r="AK37" s="111"/>
-      <c r="AL37" s="111"/>
-      <c r="AM37" s="111"/>
-      <c r="AN37" s="111"/>
-      <c r="AO37" s="111"/>
-      <c r="AP37" s="111"/>
-      <c r="AQ37" s="111"/>
-      <c r="AR37" s="111"/>
-      <c r="AS37" s="111"/>
-      <c r="AT37" s="112"/>
+      <c r="AD37" s="102"/>
+      <c r="AE37" s="106"/>
+      <c r="AT37" s="102"/>
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111"/>
-      <c r="U38" s="111"/>
-      <c r="V38" s="111"/>
-      <c r="W38" s="111"/>
-      <c r="X38" s="111"/>
-      <c r="Y38" s="111"/>
-      <c r="Z38" s="111"/>
-      <c r="AA38" s="111"/>
-      <c r="AB38" s="111"/>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="112"/>
-      <c r="AE38" s="116"/>
-      <c r="AF38" s="111"/>
-      <c r="AG38" s="111"/>
-      <c r="AH38" s="111"/>
-      <c r="AI38" s="111"/>
-      <c r="AJ38" s="111"/>
-      <c r="AK38" s="111"/>
-      <c r="AL38" s="111"/>
-      <c r="AM38" s="111"/>
-      <c r="AN38" s="111"/>
-      <c r="AO38" s="111"/>
-      <c r="AP38" s="111"/>
-      <c r="AQ38" s="111"/>
-      <c r="AR38" s="111"/>
-      <c r="AS38" s="111"/>
-      <c r="AT38" s="112"/>
+      <c r="AD38" s="102"/>
+      <c r="AE38" s="106"/>
+      <c r="AT38" s="102"/>
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="K39" s="119"/>
-      <c r="L39" s="119"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="111"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-      <c r="U39" s="111"/>
-      <c r="V39" s="111"/>
-      <c r="W39" s="111"/>
-      <c r="X39" s="111"/>
-      <c r="Y39" s="111"/>
-      <c r="Z39" s="111"/>
-      <c r="AA39" s="111"/>
-      <c r="AB39" s="111"/>
-      <c r="AC39" s="111"/>
-      <c r="AD39" s="112"/>
-      <c r="AE39" s="116"/>
-      <c r="AF39" s="111"/>
-      <c r="AG39" s="111"/>
-      <c r="AH39" s="111"/>
-      <c r="AI39" s="111"/>
-      <c r="AJ39" s="111"/>
-      <c r="AK39" s="111"/>
-      <c r="AL39" s="111"/>
-      <c r="AM39" s="111"/>
-      <c r="AN39" s="111"/>
-      <c r="AO39" s="111"/>
-      <c r="AP39" s="111"/>
-      <c r="AQ39" s="111"/>
-      <c r="AR39" s="111"/>
-      <c r="AS39" s="111"/>
-      <c r="AT39" s="112"/>
+      <c r="AD39" s="102"/>
+      <c r="AE39" s="106"/>
+      <c r="AT39" s="102"/>
     </row>
     <row r="40" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="K40" s="119"/>
-      <c r="L40" s="119"/>
       <c r="M40" s="16"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="111"/>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="112"/>
-      <c r="AE40" s="116"/>
-      <c r="AF40" s="111"/>
-      <c r="AG40" s="111"/>
-      <c r="AH40" s="111"/>
-      <c r="AI40" s="111"/>
-      <c r="AJ40" s="111"/>
-      <c r="AK40" s="111"/>
-      <c r="AL40" s="111"/>
-      <c r="AM40" s="111"/>
-      <c r="AN40" s="111"/>
-      <c r="AO40" s="111"/>
-      <c r="AP40" s="111"/>
-      <c r="AQ40" s="111"/>
-      <c r="AR40" s="111"/>
-      <c r="AS40" s="111"/>
-      <c r="AT40" s="112"/>
+      <c r="AD40" s="102"/>
+      <c r="AE40" s="106"/>
+      <c r="AT40" s="102"/>
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="K41" s="119"/>
-      <c r="L41" s="119"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="111"/>
-      <c r="P41" s="111"/>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="111"/>
-      <c r="S41" s="111"/>
-      <c r="T41" s="111"/>
-      <c r="U41" s="111"/>
-      <c r="V41" s="111"/>
-      <c r="W41" s="111"/>
-      <c r="X41" s="111"/>
-      <c r="Y41" s="111"/>
-      <c r="Z41" s="111"/>
-      <c r="AA41" s="111"/>
-      <c r="AB41" s="111"/>
-      <c r="AC41" s="111"/>
-      <c r="AD41" s="112"/>
-      <c r="AE41" s="116"/>
-      <c r="AF41" s="111"/>
-      <c r="AG41" s="111"/>
-      <c r="AH41" s="111"/>
-      <c r="AI41" s="111"/>
-      <c r="AJ41" s="111"/>
-      <c r="AK41" s="111"/>
-      <c r="AL41" s="111"/>
-      <c r="AM41" s="111"/>
-      <c r="AN41" s="111"/>
-      <c r="AO41" s="111"/>
-      <c r="AP41" s="111"/>
-      <c r="AQ41" s="111"/>
-      <c r="AR41" s="111"/>
-      <c r="AS41" s="111"/>
-      <c r="AT41" s="112"/>
+      <c r="AD41" s="102"/>
+      <c r="AE41" s="106"/>
+      <c r="AT41" s="102"/>
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="K42" s="119"/>
-      <c r="L42" s="119"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="111"/>
-      <c r="U42" s="111"/>
-      <c r="V42" s="111"/>
-      <c r="W42" s="111"/>
-      <c r="X42" s="111"/>
-      <c r="Y42" s="111"/>
-      <c r="Z42" s="111"/>
-      <c r="AA42" s="111"/>
-      <c r="AB42" s="111"/>
-      <c r="AC42" s="111"/>
-      <c r="AD42" s="112"/>
-      <c r="AE42" s="116"/>
-      <c r="AF42" s="111"/>
-      <c r="AG42" s="111"/>
-      <c r="AH42" s="111"/>
-      <c r="AI42" s="111"/>
-      <c r="AJ42" s="111"/>
-      <c r="AK42" s="111"/>
-      <c r="AL42" s="111"/>
-      <c r="AM42" s="111"/>
-      <c r="AN42" s="111"/>
-      <c r="AO42" s="111"/>
-      <c r="AP42" s="111"/>
-      <c r="AQ42" s="111"/>
-      <c r="AR42" s="111"/>
-      <c r="AS42" s="111"/>
-      <c r="AT42" s="112"/>
+      <c r="AD42" s="102"/>
+      <c r="AE42" s="106"/>
+      <c r="AT42" s="102"/>
     </row>
     <row r="43" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
-      <c r="P43" s="111"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="111"/>
-      <c r="U43" s="111"/>
-      <c r="V43" s="111"/>
-      <c r="W43" s="111"/>
-      <c r="X43" s="111"/>
-      <c r="Y43" s="111"/>
-      <c r="Z43" s="111"/>
-      <c r="AA43" s="111"/>
-      <c r="AB43" s="111"/>
-      <c r="AC43" s="111"/>
-      <c r="AD43" s="112"/>
-      <c r="AE43" s="116"/>
-      <c r="AF43" s="111"/>
-      <c r="AG43" s="111"/>
-      <c r="AH43" s="111"/>
-      <c r="AI43" s="111"/>
-      <c r="AJ43" s="111"/>
-      <c r="AK43" s="111"/>
-      <c r="AL43" s="111"/>
-      <c r="AM43" s="111"/>
-      <c r="AN43" s="111"/>
-      <c r="AO43" s="111"/>
-      <c r="AP43" s="111"/>
-      <c r="AQ43" s="111"/>
-      <c r="AR43" s="111"/>
-      <c r="AS43" s="111"/>
-      <c r="AT43" s="112"/>
+      <c r="AD43" s="102"/>
+      <c r="AE43" s="106"/>
+      <c r="AT43" s="102"/>
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="K44" s="119"/>
-      <c r="L44" s="119"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="111"/>
-      <c r="O44" s="111"/>
-      <c r="P44" s="111"/>
-      <c r="Q44" s="111"/>
-      <c r="R44" s="111"/>
-      <c r="S44" s="111"/>
-      <c r="T44" s="111"/>
-      <c r="U44" s="111"/>
-      <c r="V44" s="111"/>
-      <c r="W44" s="111"/>
-      <c r="X44" s="111"/>
-      <c r="Y44" s="111"/>
-      <c r="Z44" s="111"/>
-      <c r="AA44" s="111"/>
-      <c r="AB44" s="111"/>
-      <c r="AC44" s="111"/>
-      <c r="AD44" s="112"/>
-      <c r="AE44" s="116"/>
-      <c r="AF44" s="111"/>
-      <c r="AG44" s="111"/>
-      <c r="AH44" s="111"/>
-      <c r="AI44" s="111"/>
-      <c r="AJ44" s="111"/>
-      <c r="AK44" s="111"/>
-      <c r="AL44" s="111"/>
-      <c r="AM44" s="111"/>
-      <c r="AN44" s="111"/>
-      <c r="AO44" s="111"/>
-      <c r="AP44" s="111"/>
-      <c r="AQ44" s="111"/>
-      <c r="AR44" s="111"/>
-      <c r="AS44" s="111"/>
-      <c r="AT44" s="112"/>
+      <c r="AD44" s="102"/>
+      <c r="AE44" s="106"/>
+      <c r="AT44" s="102"/>
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="K45" s="119"/>
-      <c r="L45" s="119"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="111"/>
-      <c r="O45" s="111"/>
-      <c r="P45" s="111"/>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="111"/>
-      <c r="S45" s="111"/>
-      <c r="T45" s="111"/>
-      <c r="U45" s="111"/>
-      <c r="V45" s="111"/>
-      <c r="W45" s="111"/>
-      <c r="X45" s="111"/>
-      <c r="Y45" s="111"/>
-      <c r="Z45" s="111"/>
-      <c r="AA45" s="111"/>
-      <c r="AB45" s="111"/>
-      <c r="AC45" s="111"/>
-      <c r="AD45" s="112"/>
-      <c r="AE45" s="116"/>
-      <c r="AF45" s="111"/>
-      <c r="AG45" s="111"/>
-      <c r="AH45" s="111"/>
-      <c r="AI45" s="111"/>
-      <c r="AJ45" s="111"/>
-      <c r="AK45" s="111"/>
-      <c r="AL45" s="111"/>
-      <c r="AM45" s="111"/>
-      <c r="AN45" s="111"/>
-      <c r="AO45" s="111"/>
-      <c r="AP45" s="111"/>
-      <c r="AQ45" s="111"/>
-      <c r="AR45" s="111"/>
-      <c r="AS45" s="111"/>
-      <c r="AT45" s="112"/>
+      <c r="AD45" s="102"/>
+      <c r="AE45" s="106"/>
+      <c r="AT45" s="102"/>
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="K46" s="119"/>
-      <c r="L46" s="119"/>
       <c r="M46" s="16"/>
-      <c r="N46" s="111"/>
-      <c r="O46" s="111"/>
-      <c r="P46" s="111"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="111"/>
-      <c r="S46" s="111"/>
-      <c r="T46" s="111"/>
-      <c r="U46" s="111"/>
-      <c r="V46" s="111"/>
-      <c r="W46" s="111"/>
-      <c r="X46" s="111"/>
-      <c r="Y46" s="111"/>
-      <c r="Z46" s="111"/>
-      <c r="AA46" s="111"/>
-      <c r="AB46" s="111"/>
-      <c r="AC46" s="111"/>
-      <c r="AD46" s="112"/>
-      <c r="AE46" s="116"/>
-      <c r="AF46" s="111"/>
-      <c r="AG46" s="111"/>
-      <c r="AH46" s="111"/>
-      <c r="AI46" s="111"/>
-      <c r="AJ46" s="111"/>
-      <c r="AK46" s="111"/>
-      <c r="AL46" s="111"/>
-      <c r="AM46" s="111"/>
-      <c r="AN46" s="111"/>
-      <c r="AO46" s="111"/>
-      <c r="AP46" s="111"/>
-      <c r="AQ46" s="111"/>
-      <c r="AR46" s="111"/>
-      <c r="AS46" s="111"/>
-      <c r="AT46" s="112"/>
+      <c r="AD46" s="102"/>
+      <c r="AE46" s="106"/>
+      <c r="AT46" s="102"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="K47" s="119"/>
-      <c r="L47" s="119"/>
       <c r="M47" s="16"/>
-      <c r="N47" s="111"/>
-      <c r="O47" s="111"/>
-      <c r="P47" s="111"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="111"/>
-      <c r="S47" s="111"/>
-      <c r="T47" s="111"/>
-      <c r="U47" s="111"/>
-      <c r="V47" s="111"/>
-      <c r="W47" s="111"/>
-      <c r="X47" s="111"/>
-      <c r="Y47" s="111"/>
-      <c r="Z47" s="111"/>
-      <c r="AA47" s="111"/>
-      <c r="AB47" s="111"/>
-      <c r="AC47" s="111"/>
-      <c r="AD47" s="112"/>
-      <c r="AE47" s="116"/>
-      <c r="AF47" s="111"/>
-      <c r="AG47" s="111"/>
-      <c r="AH47" s="111"/>
-      <c r="AI47" s="111"/>
-      <c r="AJ47" s="111"/>
-      <c r="AK47" s="111"/>
-      <c r="AL47" s="111"/>
-      <c r="AM47" s="111"/>
-      <c r="AN47" s="111"/>
-      <c r="AO47" s="111"/>
-      <c r="AP47" s="111"/>
-      <c r="AQ47" s="111"/>
-      <c r="AR47" s="111"/>
-      <c r="AS47" s="111"/>
-      <c r="AT47" s="112"/>
+      <c r="AD47" s="102"/>
+      <c r="AE47" s="106"/>
+      <c r="AT47" s="102"/>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="K48" s="119"/>
-      <c r="L48" s="119"/>
       <c r="M48" s="16"/>
-      <c r="N48" s="111"/>
-      <c r="O48" s="111"/>
-      <c r="P48" s="111"/>
-      <c r="Q48" s="111"/>
-      <c r="R48" s="111"/>
-      <c r="S48" s="111"/>
-      <c r="T48" s="111"/>
-      <c r="U48" s="111"/>
-      <c r="V48" s="111"/>
-      <c r="W48" s="111"/>
-      <c r="X48" s="111"/>
-      <c r="Y48" s="111"/>
-      <c r="Z48" s="111"/>
-      <c r="AA48" s="111"/>
-      <c r="AB48" s="111"/>
-      <c r="AC48" s="111"/>
-      <c r="AD48" s="112"/>
-      <c r="AE48" s="116"/>
-      <c r="AF48" s="111"/>
-      <c r="AG48" s="111"/>
-      <c r="AH48" s="111"/>
-      <c r="AI48" s="111"/>
-      <c r="AJ48" s="111"/>
-      <c r="AK48" s="111"/>
-      <c r="AL48" s="111"/>
-      <c r="AM48" s="111"/>
-      <c r="AN48" s="111"/>
-      <c r="AO48" s="111"/>
-      <c r="AP48" s="111"/>
-      <c r="AQ48" s="111"/>
-      <c r="AR48" s="111"/>
-      <c r="AS48" s="111"/>
-      <c r="AT48" s="112"/>
-    </row>
-    <row r="49" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K49" s="119"/>
-      <c r="L49" s="119"/>
+      <c r="AD48" s="102"/>
+      <c r="AE48" s="106"/>
+      <c r="AT48" s="102"/>
+    </row>
+    <row r="49" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M49" s="16"/>
-      <c r="N49" s="111"/>
-      <c r="O49" s="111"/>
-      <c r="P49" s="111"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="111"/>
-      <c r="S49" s="111"/>
-      <c r="T49" s="111"/>
-      <c r="U49" s="111"/>
-      <c r="V49" s="111"/>
-      <c r="W49" s="111"/>
-      <c r="X49" s="111"/>
-      <c r="Y49" s="111"/>
-      <c r="Z49" s="111"/>
-      <c r="AA49" s="111"/>
-      <c r="AB49" s="111"/>
-      <c r="AC49" s="111"/>
-      <c r="AD49" s="112"/>
-      <c r="AE49" s="116"/>
-      <c r="AF49" s="111"/>
-      <c r="AG49" s="111"/>
-      <c r="AH49" s="111"/>
-      <c r="AI49" s="111"/>
-      <c r="AJ49" s="111"/>
-      <c r="AK49" s="111"/>
-      <c r="AL49" s="111"/>
-      <c r="AM49" s="111"/>
-      <c r="AN49" s="111"/>
-      <c r="AO49" s="111"/>
-      <c r="AP49" s="111"/>
-      <c r="AQ49" s="111"/>
-      <c r="AR49" s="111"/>
-      <c r="AS49" s="111"/>
-      <c r="AT49" s="112"/>
-    </row>
-    <row r="50" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K50" s="119"/>
-      <c r="L50" s="119"/>
+      <c r="AD49" s="102"/>
+      <c r="AE49" s="106"/>
+      <c r="AT49" s="102"/>
+    </row>
+    <row r="50" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M50" s="16"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="111"/>
-      <c r="S50" s="111"/>
-      <c r="T50" s="111"/>
-      <c r="U50" s="111"/>
-      <c r="V50" s="111"/>
-      <c r="W50" s="111"/>
-      <c r="X50" s="111"/>
-      <c r="Y50" s="111"/>
-      <c r="Z50" s="111"/>
-      <c r="AA50" s="111"/>
-      <c r="AB50" s="111"/>
-      <c r="AC50" s="111"/>
-      <c r="AD50" s="112"/>
-      <c r="AE50" s="116"/>
-      <c r="AF50" s="111"/>
-      <c r="AG50" s="111"/>
-      <c r="AH50" s="111"/>
-      <c r="AI50" s="111"/>
-      <c r="AJ50" s="111"/>
-      <c r="AK50" s="111"/>
-      <c r="AL50" s="111"/>
-      <c r="AM50" s="111"/>
-      <c r="AN50" s="111"/>
-      <c r="AO50" s="111"/>
-      <c r="AP50" s="111"/>
-      <c r="AQ50" s="111"/>
-      <c r="AR50" s="111"/>
-      <c r="AS50" s="111"/>
-      <c r="AT50" s="112"/>
-    </row>
-    <row r="51" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K51" s="119"/>
-      <c r="L51" s="119"/>
+      <c r="AD50" s="102"/>
+      <c r="AE50" s="106"/>
+      <c r="AT50" s="102"/>
+    </row>
+    <row r="51" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M51" s="16"/>
-      <c r="N51" s="110" t="s">
+      <c r="N51" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="O51" s="111"/>
-      <c r="P51" s="111"/>
-      <c r="Q51" s="111"/>
-      <c r="R51" s="111"/>
-      <c r="S51" s="111"/>
-      <c r="T51" s="111"/>
-      <c r="U51" s="111"/>
-      <c r="V51" s="111"/>
-      <c r="W51" s="111"/>
-      <c r="X51" s="110" t="s">
+      <c r="X51" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="Y51" s="111"/>
-      <c r="Z51" s="111"/>
-      <c r="AA51" s="111"/>
-      <c r="AB51" s="111"/>
-      <c r="AC51" s="111"/>
-      <c r="AD51" s="112"/>
-      <c r="AE51" s="116"/>
-      <c r="AF51" s="111"/>
-      <c r="AG51" s="111"/>
-      <c r="AH51" s="111"/>
-      <c r="AI51" s="111"/>
-      <c r="AJ51" s="111"/>
-      <c r="AK51" s="111"/>
-      <c r="AL51" s="111"/>
-      <c r="AM51" s="111"/>
-      <c r="AN51" s="111"/>
-      <c r="AO51" s="111"/>
-      <c r="AP51" s="111"/>
-      <c r="AQ51" s="111"/>
-      <c r="AR51" s="111"/>
-      <c r="AS51" s="111"/>
-      <c r="AT51" s="112"/>
-    </row>
-    <row r="52" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K52" s="119"/>
-      <c r="L52" s="119"/>
+      <c r="AD51" s="102"/>
+      <c r="AE51" s="106"/>
+      <c r="AT51" s="102"/>
+    </row>
+    <row r="52" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M52" s="16"/>
-      <c r="N52" s="111"/>
-      <c r="O52" s="111"/>
-      <c r="P52" s="111"/>
-      <c r="Q52" s="111"/>
-      <c r="R52" s="111"/>
-      <c r="S52" s="111"/>
-      <c r="T52" s="111"/>
-      <c r="U52" s="111"/>
-      <c r="V52" s="111"/>
-      <c r="W52" s="111"/>
-      <c r="X52" s="111"/>
-      <c r="Y52" s="111"/>
-      <c r="Z52" s="111"/>
-      <c r="AA52" s="111"/>
-      <c r="AB52" s="111"/>
-      <c r="AC52" s="111"/>
-      <c r="AD52" s="112"/>
-      <c r="AE52" s="116"/>
-      <c r="AF52" s="110" t="s">
+      <c r="AD52" s="102"/>
+      <c r="AE52" s="106"/>
+      <c r="AF52" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="AG52" s="111"/>
-      <c r="AH52" s="111"/>
-      <c r="AI52" s="111"/>
-      <c r="AJ52" s="111"/>
-      <c r="AK52" s="111"/>
-      <c r="AL52" s="111"/>
-      <c r="AM52" s="110" t="s">
+      <c r="AM52" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="AN52" s="111"/>
-      <c r="AO52" s="111"/>
-      <c r="AP52" s="111"/>
-      <c r="AQ52" s="111"/>
-      <c r="AR52" s="111"/>
-      <c r="AS52" s="111"/>
-      <c r="AT52" s="112"/>
+      <c r="AT52" s="102"/>
       <c r="AV52" s="94" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K53" s="119"/>
-      <c r="L53" s="119"/>
+      <c r="BC52" s="94" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M53" s="16"/>
-      <c r="N53" s="111"/>
-      <c r="O53" s="111"/>
-      <c r="P53" s="111"/>
-      <c r="Q53" s="111"/>
-      <c r="R53" s="111"/>
-      <c r="S53" s="111"/>
-      <c r="T53" s="111"/>
-      <c r="U53" s="111"/>
-      <c r="V53" s="111"/>
-      <c r="W53" s="111"/>
-      <c r="X53" s="111"/>
-      <c r="Y53" s="111"/>
-      <c r="Z53" s="111"/>
-      <c r="AA53" s="111"/>
-      <c r="AB53" s="111"/>
-      <c r="AC53" s="111"/>
-      <c r="AD53" s="112"/>
-      <c r="AE53" s="116"/>
-      <c r="AF53" s="111"/>
-      <c r="AG53" s="111"/>
-      <c r="AH53" s="111"/>
-      <c r="AI53" s="111"/>
-      <c r="AJ53" s="111"/>
-      <c r="AK53" s="111"/>
-      <c r="AL53" s="111"/>
-      <c r="AM53" s="111"/>
-      <c r="AN53" s="111"/>
-      <c r="AO53" s="111"/>
-      <c r="AP53" s="111"/>
-      <c r="AQ53" s="111"/>
-      <c r="AR53" s="111"/>
-      <c r="AS53" s="111"/>
-      <c r="AT53" s="112"/>
-    </row>
-    <row r="54" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K54" s="119"/>
-      <c r="L54" s="119"/>
+      <c r="AD53" s="102"/>
+      <c r="AE53" s="106"/>
+      <c r="AT53" s="102"/>
+    </row>
+    <row r="54" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M54" s="16"/>
-      <c r="N54" s="111"/>
-      <c r="O54" s="111"/>
-      <c r="P54" s="111"/>
-      <c r="Q54" s="111"/>
-      <c r="R54" s="111"/>
-      <c r="S54" s="111"/>
-      <c r="T54" s="111"/>
-      <c r="U54" s="111"/>
-      <c r="V54" s="111"/>
-      <c r="W54" s="111"/>
-      <c r="X54" s="111"/>
-      <c r="Y54" s="111"/>
-      <c r="Z54" s="111"/>
-      <c r="AA54" s="111"/>
-      <c r="AB54" s="111"/>
-      <c r="AC54" s="111"/>
-      <c r="AD54" s="112"/>
-      <c r="AE54" s="116"/>
-      <c r="AF54" s="111"/>
-      <c r="AG54" s="111"/>
-      <c r="AH54" s="111"/>
-      <c r="AI54" s="111"/>
-      <c r="AJ54" s="111"/>
-      <c r="AK54" s="111"/>
-      <c r="AL54" s="111"/>
-      <c r="AM54" s="111"/>
-      <c r="AN54" s="111"/>
-      <c r="AO54" s="111"/>
-      <c r="AP54" s="111"/>
-      <c r="AQ54" s="111"/>
-      <c r="AR54" s="111"/>
-      <c r="AS54" s="111"/>
-      <c r="AT54" s="112"/>
-    </row>
-    <row r="55" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K55" s="119"/>
-      <c r="L55" s="119"/>
+      <c r="AD54" s="102"/>
+      <c r="AE54" s="106"/>
+      <c r="AT54" s="102"/>
+    </row>
+    <row r="55" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M55" s="16"/>
-      <c r="N55" s="111"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="111"/>
-      <c r="S55" s="111"/>
-      <c r="T55" s="111"/>
-      <c r="U55" s="111"/>
-      <c r="V55" s="111"/>
-      <c r="W55" s="111"/>
-      <c r="X55" s="111"/>
-      <c r="Y55" s="111"/>
-      <c r="Z55" s="111"/>
-      <c r="AA55" s="111"/>
-      <c r="AB55" s="111"/>
-      <c r="AC55" s="111"/>
-      <c r="AD55" s="112"/>
-      <c r="AE55" s="116"/>
-      <c r="AF55" s="111"/>
-      <c r="AG55" s="111"/>
-      <c r="AH55" s="111"/>
-      <c r="AI55" s="111"/>
-      <c r="AJ55" s="111"/>
-      <c r="AK55" s="111"/>
-      <c r="AL55" s="111"/>
-      <c r="AM55" s="111"/>
-      <c r="AN55" s="111"/>
-      <c r="AO55" s="111"/>
-      <c r="AP55" s="111"/>
-      <c r="AQ55" s="111"/>
-      <c r="AR55" s="111"/>
-      <c r="AS55" s="111"/>
-      <c r="AT55" s="112"/>
-    </row>
-    <row r="56" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
+      <c r="AD55" s="102"/>
+      <c r="AE55" s="106"/>
+      <c r="AT55" s="102"/>
+    </row>
+    <row r="56" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M56" s="16"/>
-      <c r="N56" s="111"/>
-      <c r="O56" s="111"/>
-      <c r="P56" s="111"/>
-      <c r="Q56" s="111"/>
-      <c r="R56" s="111"/>
-      <c r="S56" s="111"/>
-      <c r="T56" s="111"/>
-      <c r="U56" s="111"/>
-      <c r="V56" s="111"/>
-      <c r="W56" s="111"/>
-      <c r="X56" s="111"/>
-      <c r="Y56" s="111"/>
-      <c r="Z56" s="111"/>
-      <c r="AA56" s="111"/>
-      <c r="AB56" s="111"/>
-      <c r="AC56" s="111"/>
-      <c r="AD56" s="112"/>
-      <c r="AE56" s="116"/>
-      <c r="AF56" s="111"/>
-      <c r="AG56" s="111"/>
-      <c r="AH56" s="111"/>
-      <c r="AI56" s="111"/>
-      <c r="AJ56" s="111"/>
-      <c r="AK56" s="111"/>
-      <c r="AL56" s="111"/>
-      <c r="AM56" s="111"/>
-      <c r="AN56" s="111"/>
-      <c r="AO56" s="111"/>
-      <c r="AP56" s="111"/>
-      <c r="AQ56" s="111"/>
-      <c r="AR56" s="111"/>
-      <c r="AS56" s="111"/>
-      <c r="AT56" s="112"/>
-    </row>
-    <row r="57" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K57" s="119"/>
-      <c r="L57" s="119"/>
+      <c r="AD56" s="102"/>
+      <c r="AE56" s="106"/>
+      <c r="AT56" s="102"/>
+    </row>
+    <row r="57" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M57" s="16"/>
-      <c r="N57" s="111"/>
-      <c r="O57" s="111"/>
-      <c r="P57" s="111"/>
-      <c r="Q57" s="111"/>
-      <c r="R57" s="111"/>
-      <c r="S57" s="111"/>
-      <c r="T57" s="111"/>
-      <c r="U57" s="111"/>
-      <c r="V57" s="111"/>
-      <c r="W57" s="111"/>
-      <c r="X57" s="111"/>
-      <c r="Y57" s="111"/>
-      <c r="Z57" s="111"/>
-      <c r="AA57" s="111"/>
-      <c r="AB57" s="111"/>
-      <c r="AC57" s="111"/>
-      <c r="AD57" s="112"/>
-      <c r="AE57" s="116"/>
-      <c r="AF57" s="111"/>
-      <c r="AG57" s="111"/>
-      <c r="AH57" s="111"/>
-      <c r="AI57" s="111"/>
-      <c r="AJ57" s="111"/>
-      <c r="AK57" s="111"/>
-      <c r="AL57" s="111"/>
-      <c r="AM57" s="111"/>
-      <c r="AN57" s="111"/>
-      <c r="AO57" s="111"/>
-      <c r="AP57" s="111"/>
-      <c r="AQ57" s="111"/>
-      <c r="AR57" s="111"/>
-      <c r="AS57" s="111"/>
-      <c r="AT57" s="112"/>
-    </row>
-    <row r="58" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K58" s="119"/>
-      <c r="L58" s="119"/>
+      <c r="AD57" s="102"/>
+      <c r="AE57" s="106"/>
+      <c r="AT57" s="102"/>
+    </row>
+    <row r="58" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M58" s="16"/>
-      <c r="N58" s="111"/>
-      <c r="O58" s="111"/>
-      <c r="P58" s="111"/>
-      <c r="Q58" s="111"/>
-      <c r="R58" s="111"/>
-      <c r="S58" s="111"/>
-      <c r="T58" s="111"/>
-      <c r="U58" s="111"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="111"/>
-      <c r="X58" s="111"/>
-      <c r="Y58" s="111"/>
-      <c r="Z58" s="111"/>
-      <c r="AA58" s="111"/>
-      <c r="AB58" s="111"/>
-      <c r="AC58" s="111"/>
-      <c r="AD58" s="112"/>
-      <c r="AE58" s="116"/>
-      <c r="AF58" s="111"/>
-      <c r="AG58" s="111"/>
-      <c r="AH58" s="111"/>
-      <c r="AI58" s="111"/>
-      <c r="AJ58" s="111"/>
-      <c r="AK58" s="111"/>
-      <c r="AL58" s="111"/>
-      <c r="AM58" s="111"/>
-      <c r="AN58" s="111"/>
-      <c r="AO58" s="111"/>
-      <c r="AP58" s="111"/>
-      <c r="AQ58" s="111"/>
-      <c r="AR58" s="111"/>
-      <c r="AS58" s="111"/>
-      <c r="AT58" s="112"/>
-    </row>
-    <row r="59" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K59" s="119"/>
-      <c r="L59" s="119"/>
+      <c r="AD58" s="102"/>
+      <c r="AE58" s="106"/>
+      <c r="AT58" s="102"/>
+    </row>
+    <row r="59" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M59" s="16"/>
-      <c r="N59" s="111"/>
-      <c r="O59" s="111"/>
-      <c r="P59" s="111"/>
-      <c r="Q59" s="111"/>
-      <c r="R59" s="111"/>
-      <c r="S59" s="111"/>
-      <c r="T59" s="111"/>
-      <c r="U59" s="111"/>
-      <c r="V59" s="111"/>
-      <c r="W59" s="111"/>
-      <c r="X59" s="111"/>
-      <c r="Y59" s="111"/>
-      <c r="Z59" s="111"/>
-      <c r="AA59" s="111"/>
-      <c r="AB59" s="111"/>
-      <c r="AC59" s="111"/>
-      <c r="AD59" s="112"/>
-      <c r="AE59" s="116"/>
-      <c r="AF59" s="111"/>
-      <c r="AG59" s="111"/>
-      <c r="AH59" s="111"/>
-      <c r="AI59" s="111"/>
-      <c r="AJ59" s="111"/>
-      <c r="AK59" s="111"/>
-      <c r="AL59" s="111"/>
-      <c r="AM59" s="111"/>
-      <c r="AN59" s="111"/>
-      <c r="AO59" s="111"/>
-      <c r="AP59" s="111"/>
-      <c r="AQ59" s="111"/>
-      <c r="AR59" s="111"/>
-      <c r="AS59" s="111"/>
-      <c r="AT59" s="112"/>
-    </row>
-    <row r="60" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K60" s="119"/>
-      <c r="L60" s="119"/>
+      <c r="AD59" s="102"/>
+      <c r="AE59" s="106"/>
+      <c r="AT59" s="102"/>
+    </row>
+    <row r="60" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M60" s="16"/>
-      <c r="N60" s="111"/>
-      <c r="O60" s="111"/>
-      <c r="P60" s="111"/>
-      <c r="Q60" s="111"/>
-      <c r="R60" s="111"/>
-      <c r="S60" s="111"/>
-      <c r="T60" s="111"/>
-      <c r="U60" s="111"/>
-      <c r="V60" s="111"/>
-      <c r="W60" s="111"/>
-      <c r="X60" s="111"/>
-      <c r="Y60" s="111"/>
-      <c r="Z60" s="111"/>
-      <c r="AA60" s="111"/>
-      <c r="AB60" s="111"/>
-      <c r="AC60" s="111"/>
-      <c r="AD60" s="112"/>
-      <c r="AE60" s="116"/>
-      <c r="AF60" s="111"/>
-      <c r="AG60" s="111"/>
-      <c r="AH60" s="111"/>
-      <c r="AI60" s="111"/>
-      <c r="AJ60" s="111"/>
-      <c r="AK60" s="111"/>
-      <c r="AL60" s="111"/>
-      <c r="AM60" s="111"/>
-      <c r="AN60" s="111"/>
-      <c r="AO60" s="111"/>
-      <c r="AP60" s="111"/>
-      <c r="AQ60" s="111"/>
-      <c r="AR60" s="111"/>
-      <c r="AS60" s="111"/>
-      <c r="AT60" s="112"/>
-    </row>
-    <row r="61" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K61" s="119"/>
-      <c r="L61" s="119"/>
+      <c r="AD60" s="102"/>
+      <c r="AE60" s="106"/>
+      <c r="AT60" s="102"/>
+    </row>
+    <row r="61" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M61" s="16"/>
-      <c r="N61" s="111"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="111"/>
-      <c r="S61" s="111"/>
-      <c r="T61" s="111"/>
-      <c r="U61" s="111"/>
-      <c r="V61" s="111"/>
-      <c r="W61" s="111"/>
-      <c r="X61" s="111"/>
-      <c r="Y61" s="111"/>
-      <c r="Z61" s="111"/>
-      <c r="AA61" s="111"/>
-      <c r="AB61" s="111"/>
-      <c r="AC61" s="111"/>
-      <c r="AD61" s="112"/>
-      <c r="AE61" s="116"/>
-      <c r="AF61" s="111"/>
-      <c r="AG61" s="111"/>
-      <c r="AH61" s="111"/>
-      <c r="AI61" s="111"/>
-      <c r="AJ61" s="111"/>
-      <c r="AK61" s="111"/>
-      <c r="AL61" s="111"/>
-      <c r="AM61" s="111"/>
-      <c r="AN61" s="111"/>
-      <c r="AO61" s="111"/>
-      <c r="AP61" s="111"/>
-      <c r="AQ61" s="111"/>
-      <c r="AR61" s="111"/>
-      <c r="AS61" s="111"/>
-      <c r="AT61" s="112"/>
-    </row>
-    <row r="62" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K62" s="119"/>
-      <c r="L62" s="119"/>
+      <c r="AD61" s="102"/>
+      <c r="AE61" s="106"/>
+      <c r="AT61" s="102"/>
+    </row>
+    <row r="62" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M62" s="16"/>
-      <c r="N62" s="111"/>
-      <c r="O62" s="111"/>
-      <c r="P62" s="111"/>
-      <c r="Q62" s="111"/>
-      <c r="R62" s="111"/>
-      <c r="S62" s="111"/>
-      <c r="T62" s="111"/>
-      <c r="U62" s="111"/>
-      <c r="V62" s="111"/>
-      <c r="W62" s="111"/>
-      <c r="X62" s="111"/>
-      <c r="Y62" s="111"/>
-      <c r="Z62" s="111"/>
-      <c r="AA62" s="111"/>
-      <c r="AB62" s="111"/>
-      <c r="AC62" s="111"/>
-      <c r="AD62" s="112"/>
-      <c r="AE62" s="116"/>
-      <c r="AF62" s="111"/>
-      <c r="AG62" s="111"/>
-      <c r="AH62" s="111"/>
-      <c r="AI62" s="111"/>
-      <c r="AJ62" s="111"/>
-      <c r="AK62" s="111"/>
-      <c r="AL62" s="111"/>
-      <c r="AM62" s="111"/>
-      <c r="AN62" s="111"/>
-      <c r="AO62" s="111"/>
-      <c r="AP62" s="111"/>
-      <c r="AQ62" s="111"/>
-      <c r="AR62" s="111"/>
-      <c r="AS62" s="111"/>
-      <c r="AT62" s="112"/>
-    </row>
-    <row r="63" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K63" s="119"/>
-      <c r="L63" s="119"/>
+      <c r="AD62" s="102"/>
+      <c r="AE62" s="106"/>
+      <c r="AT62" s="102"/>
+    </row>
+    <row r="63" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M63" s="16"/>
-      <c r="N63" s="111"/>
-      <c r="O63" s="111"/>
-      <c r="P63" s="111"/>
-      <c r="Q63" s="111"/>
-      <c r="R63" s="111"/>
-      <c r="S63" s="111"/>
-      <c r="T63" s="111"/>
-      <c r="U63" s="111"/>
-      <c r="V63" s="111"/>
-      <c r="W63" s="111"/>
-      <c r="X63" s="111"/>
-      <c r="Y63" s="111"/>
-      <c r="Z63" s="111"/>
-      <c r="AA63" s="111"/>
-      <c r="AB63" s="111"/>
-      <c r="AC63" s="111"/>
-      <c r="AD63" s="112"/>
-      <c r="AE63" s="116"/>
-      <c r="AF63" s="111"/>
-      <c r="AG63" s="111"/>
-      <c r="AH63" s="111"/>
-      <c r="AI63" s="111"/>
-      <c r="AJ63" s="111"/>
-      <c r="AK63" s="111"/>
-      <c r="AL63" s="111"/>
-      <c r="AM63" s="111"/>
-      <c r="AN63" s="111"/>
-      <c r="AO63" s="111"/>
-      <c r="AP63" s="111"/>
-      <c r="AQ63" s="111"/>
-      <c r="AR63" s="111"/>
-      <c r="AS63" s="111"/>
-      <c r="AT63" s="112"/>
-    </row>
-    <row r="64" spans="11:48" x14ac:dyDescent="0.25">
-      <c r="K64" s="119"/>
-      <c r="L64" s="119"/>
+      <c r="AD63" s="102"/>
+      <c r="AE63" s="106"/>
+      <c r="AT63" s="102"/>
+    </row>
+    <row r="64" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M64" s="16"/>
-      <c r="N64" s="111"/>
-      <c r="O64" s="111"/>
-      <c r="P64" s="111"/>
-      <c r="Q64" s="111"/>
-      <c r="R64" s="111"/>
-      <c r="S64" s="111"/>
-      <c r="T64" s="111"/>
-      <c r="U64" s="111"/>
-      <c r="V64" s="111"/>
-      <c r="W64" s="111"/>
-      <c r="X64" s="111"/>
-      <c r="Y64" s="111"/>
-      <c r="Z64" s="111"/>
-      <c r="AA64" s="111"/>
-      <c r="AB64" s="111"/>
-      <c r="AC64" s="111"/>
-      <c r="AD64" s="112"/>
-      <c r="AE64" s="116"/>
-      <c r="AF64" s="111"/>
-      <c r="AG64" s="111"/>
-      <c r="AH64" s="111"/>
-      <c r="AI64" s="111"/>
-      <c r="AJ64" s="111"/>
-      <c r="AK64" s="111"/>
-      <c r="AL64" s="111"/>
-      <c r="AM64" s="111"/>
-      <c r="AN64" s="111"/>
-      <c r="AO64" s="111"/>
-      <c r="AP64" s="111"/>
-      <c r="AQ64" s="111"/>
-      <c r="AR64" s="111"/>
-      <c r="AS64" s="111"/>
-      <c r="AT64" s="112"/>
-    </row>
-    <row r="65" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K65" s="119"/>
-      <c r="L65" s="119"/>
+      <c r="AD64" s="102"/>
+      <c r="AE64" s="106"/>
+      <c r="AT64" s="102"/>
+    </row>
+    <row r="65" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M65" s="16"/>
-      <c r="N65" s="111"/>
-      <c r="O65" s="111"/>
-      <c r="P65" s="111"/>
-      <c r="Q65" s="111"/>
-      <c r="R65" s="111"/>
-      <c r="S65" s="111"/>
-      <c r="T65" s="111"/>
-      <c r="U65" s="111"/>
-      <c r="V65" s="111"/>
-      <c r="W65" s="111"/>
-      <c r="X65" s="111"/>
-      <c r="Y65" s="111"/>
-      <c r="Z65" s="111"/>
-      <c r="AA65" s="111"/>
-      <c r="AB65" s="111"/>
-      <c r="AC65" s="111"/>
-      <c r="AD65" s="112"/>
-      <c r="AE65" s="116"/>
-      <c r="AF65" s="111"/>
-      <c r="AG65" s="111"/>
-      <c r="AH65" s="111"/>
-      <c r="AI65" s="111"/>
-      <c r="AJ65" s="111"/>
-      <c r="AK65" s="111"/>
-      <c r="AL65" s="111"/>
-      <c r="AM65" s="111"/>
-      <c r="AN65" s="111"/>
-      <c r="AO65" s="111"/>
-      <c r="AP65" s="111"/>
-      <c r="AQ65" s="111"/>
-      <c r="AR65" s="111"/>
-      <c r="AS65" s="111"/>
-      <c r="AT65" s="112"/>
-    </row>
-    <row r="66" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K66" s="119"/>
-      <c r="L66" s="119"/>
+      <c r="AD65" s="102"/>
+      <c r="AE65" s="106"/>
+      <c r="AT65" s="102"/>
+    </row>
+    <row r="66" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M66" s="16"/>
-      <c r="N66" s="111"/>
-      <c r="O66" s="111"/>
-      <c r="P66" s="111"/>
-      <c r="Q66" s="111"/>
-      <c r="R66" s="111"/>
-      <c r="S66" s="111"/>
-      <c r="T66" s="111"/>
-      <c r="U66" s="111"/>
-      <c r="V66" s="111"/>
-      <c r="W66" s="111"/>
-      <c r="X66" s="111"/>
-      <c r="Y66" s="111"/>
-      <c r="Z66" s="111"/>
-      <c r="AA66" s="111"/>
-      <c r="AB66" s="111"/>
-      <c r="AC66" s="111"/>
-      <c r="AD66" s="112"/>
-      <c r="AE66" s="116"/>
-      <c r="AF66" s="111"/>
-      <c r="AG66" s="111"/>
-      <c r="AH66" s="111"/>
-      <c r="AI66" s="111"/>
-      <c r="AJ66" s="111"/>
-      <c r="AK66" s="111"/>
-      <c r="AL66" s="111"/>
-      <c r="AM66" s="111"/>
-      <c r="AN66" s="111"/>
-      <c r="AO66" s="111"/>
-      <c r="AP66" s="111"/>
-      <c r="AQ66" s="111"/>
-      <c r="AR66" s="111"/>
-      <c r="AS66" s="111"/>
-      <c r="AT66" s="112"/>
-    </row>
-    <row r="67" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K67" s="119"/>
-      <c r="L67" s="119"/>
+      <c r="AD66" s="102"/>
+      <c r="AE66" s="106"/>
+      <c r="AT66" s="102"/>
+    </row>
+    <row r="67" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M67" s="16"/>
-      <c r="N67" s="111"/>
-      <c r="O67" s="111"/>
-      <c r="P67" s="111"/>
-      <c r="Q67" s="111"/>
-      <c r="R67" s="111"/>
-      <c r="S67" s="111"/>
-      <c r="T67" s="111"/>
-      <c r="U67" s="111"/>
-      <c r="V67" s="111"/>
-      <c r="W67" s="111"/>
-      <c r="X67" s="111"/>
-      <c r="Y67" s="111"/>
-      <c r="Z67" s="111"/>
-      <c r="AA67" s="111"/>
-      <c r="AB67" s="111"/>
-      <c r="AC67" s="111"/>
-      <c r="AD67" s="112"/>
-      <c r="AE67" s="116"/>
-      <c r="AF67" s="111"/>
-      <c r="AG67" s="111"/>
-      <c r="AH67" s="111"/>
-      <c r="AI67" s="111"/>
-      <c r="AJ67" s="111"/>
-      <c r="AK67" s="111"/>
-      <c r="AL67" s="111"/>
-      <c r="AM67" s="111"/>
-      <c r="AN67" s="111"/>
-      <c r="AO67" s="111"/>
-      <c r="AP67" s="111"/>
-      <c r="AQ67" s="111"/>
-      <c r="AR67" s="111"/>
-      <c r="AS67" s="111"/>
-      <c r="AT67" s="112"/>
-    </row>
-    <row r="68" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K68" s="119"/>
-      <c r="L68" s="119"/>
+      <c r="AD67" s="102"/>
+      <c r="AE67" s="106"/>
+      <c r="AT67" s="102"/>
+    </row>
+    <row r="68" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M68" s="16"/>
-      <c r="N68" s="110" t="s">
+      <c r="N68" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="O68" s="111"/>
-      <c r="P68" s="111"/>
-      <c r="Q68" s="111"/>
-      <c r="R68" s="111"/>
-      <c r="S68" s="111"/>
-      <c r="T68" s="111"/>
-      <c r="U68" s="111"/>
-      <c r="V68" s="111"/>
-      <c r="W68" s="111"/>
-      <c r="X68" s="110" t="s">
+      <c r="X68" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="Y68" s="111"/>
-      <c r="Z68" s="111"/>
-      <c r="AA68" s="111"/>
-      <c r="AB68" s="111"/>
-      <c r="AC68" s="111"/>
-      <c r="AD68" s="112"/>
-      <c r="AE68" s="116"/>
-      <c r="AF68" s="111"/>
-      <c r="AG68" s="111"/>
-      <c r="AH68" s="111"/>
-      <c r="AI68" s="111"/>
-      <c r="AJ68" s="111"/>
-      <c r="AK68" s="111"/>
-      <c r="AL68" s="111"/>
-      <c r="AM68" s="111"/>
-      <c r="AN68" s="111"/>
-      <c r="AO68" s="111"/>
-      <c r="AP68" s="111"/>
-      <c r="AQ68" s="111"/>
-      <c r="AR68" s="111"/>
-      <c r="AS68" s="111"/>
-      <c r="AT68" s="112"/>
-    </row>
-    <row r="69" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K69" s="119"/>
-      <c r="L69" s="119"/>
+      <c r="AD68" s="102"/>
+      <c r="AE68" s="106"/>
+      <c r="AT68" s="102"/>
+    </row>
+    <row r="69" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M69" s="16"/>
-      <c r="N69" s="111"/>
-      <c r="O69" s="111"/>
-      <c r="P69" s="111"/>
-      <c r="Q69" s="111"/>
-      <c r="R69" s="111"/>
-      <c r="S69" s="111"/>
-      <c r="T69" s="111"/>
-      <c r="U69" s="111"/>
-      <c r="V69" s="111"/>
-      <c r="W69" s="111"/>
-      <c r="X69" s="111"/>
-      <c r="Y69" s="111"/>
-      <c r="Z69" s="111"/>
-      <c r="AA69" s="111"/>
-      <c r="AB69" s="111"/>
-      <c r="AC69" s="111"/>
-      <c r="AD69" s="112"/>
-      <c r="AE69" s="116"/>
-      <c r="AF69" s="110" t="s">
+      <c r="AD69" s="102"/>
+      <c r="AE69" s="106"/>
+      <c r="AF69" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="AG69" s="111"/>
-      <c r="AH69" s="111"/>
-      <c r="AI69" s="111"/>
-      <c r="AJ69" s="111"/>
-      <c r="AK69" s="111"/>
-      <c r="AL69" s="111"/>
-      <c r="AM69" s="110" t="s">
+      <c r="AM69" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="AN69" s="111"/>
-      <c r="AO69" s="111"/>
-      <c r="AP69" s="111"/>
-      <c r="AQ69" s="111"/>
-      <c r="AR69" s="111"/>
-      <c r="AS69" s="111"/>
-      <c r="AT69" s="112"/>
-    </row>
-    <row r="70" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K70" s="119"/>
-      <c r="L70" s="119"/>
+      <c r="AT69" s="102"/>
+    </row>
+    <row r="70" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M70" s="16"/>
-      <c r="N70" s="111"/>
-      <c r="O70" s="111"/>
-      <c r="P70" s="111"/>
-      <c r="Q70" s="111"/>
-      <c r="R70" s="111"/>
-      <c r="S70" s="111"/>
-      <c r="T70" s="111"/>
-      <c r="U70" s="111"/>
-      <c r="V70" s="111"/>
-      <c r="W70" s="111"/>
-      <c r="X70" s="111"/>
-      <c r="Y70" s="111"/>
-      <c r="Z70" s="111"/>
-      <c r="AA70" s="111"/>
-      <c r="AB70" s="111"/>
-      <c r="AC70" s="111"/>
-      <c r="AD70" s="112"/>
-      <c r="AE70" s="116"/>
-      <c r="AF70" s="111"/>
-      <c r="AG70" s="111"/>
-      <c r="AH70" s="111"/>
-      <c r="AI70" s="111"/>
-      <c r="AJ70" s="111"/>
-      <c r="AK70" s="111"/>
-      <c r="AL70" s="111"/>
-      <c r="AM70" s="111"/>
-      <c r="AN70" s="111"/>
-      <c r="AO70" s="111"/>
-      <c r="AP70" s="111"/>
-      <c r="AQ70" s="111"/>
-      <c r="AR70" s="111"/>
-      <c r="AS70" s="111"/>
-      <c r="AT70" s="112"/>
-    </row>
-    <row r="71" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K71" s="119"/>
-      <c r="L71" s="119"/>
+      <c r="AD70" s="102"/>
+      <c r="AE70" s="106"/>
+      <c r="AT70" s="102"/>
+      <c r="AV70" s="94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M71" s="16"/>
-      <c r="N71" s="111"/>
-      <c r="O71" s="111"/>
-      <c r="P71" s="111"/>
-      <c r="Q71" s="111"/>
-      <c r="R71" s="111"/>
-      <c r="S71" s="111"/>
-      <c r="T71" s="111"/>
-      <c r="U71" s="111"/>
-      <c r="V71" s="111"/>
-      <c r="W71" s="111"/>
-      <c r="X71" s="111"/>
-      <c r="Y71" s="111"/>
-      <c r="Z71" s="111"/>
-      <c r="AA71" s="111"/>
-      <c r="AB71" s="111"/>
-      <c r="AC71" s="111"/>
-      <c r="AD71" s="112"/>
-      <c r="AE71" s="116"/>
-      <c r="AF71" s="111"/>
-      <c r="AG71" s="111"/>
-      <c r="AH71" s="111"/>
-      <c r="AI71" s="111"/>
-      <c r="AJ71" s="111"/>
-      <c r="AK71" s="111"/>
-      <c r="AL71" s="111"/>
-      <c r="AM71" s="111"/>
-      <c r="AN71" s="111"/>
-      <c r="AO71" s="111"/>
-      <c r="AP71" s="111"/>
-      <c r="AQ71" s="111"/>
-      <c r="AR71" s="111"/>
-      <c r="AS71" s="111"/>
-      <c r="AT71" s="112"/>
-    </row>
-    <row r="72" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K72" s="119"/>
-      <c r="L72" s="119"/>
+      <c r="AD71" s="102"/>
+      <c r="AE71" s="106"/>
+      <c r="AT71" s="102"/>
+    </row>
+    <row r="72" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M72" s="16"/>
-      <c r="N72" s="111"/>
-      <c r="O72" s="111"/>
-      <c r="P72" s="111"/>
-      <c r="Q72" s="111"/>
-      <c r="R72" s="111"/>
-      <c r="S72" s="111"/>
-      <c r="T72" s="111"/>
-      <c r="U72" s="111"/>
-      <c r="V72" s="111"/>
-      <c r="W72" s="111"/>
-      <c r="X72" s="111"/>
-      <c r="Y72" s="111"/>
-      <c r="Z72" s="111"/>
-      <c r="AA72" s="111"/>
-      <c r="AB72" s="111"/>
-      <c r="AC72" s="111"/>
-      <c r="AD72" s="112"/>
-      <c r="AE72" s="116"/>
-      <c r="AF72" s="111"/>
-      <c r="AG72" s="111"/>
-      <c r="AH72" s="111"/>
-      <c r="AI72" s="111"/>
-      <c r="AJ72" s="111"/>
-      <c r="AK72" s="111"/>
-      <c r="AL72" s="111"/>
-      <c r="AM72" s="111"/>
-      <c r="AN72" s="111"/>
-      <c r="AO72" s="111"/>
-      <c r="AP72" s="111"/>
-      <c r="AQ72" s="111"/>
-      <c r="AR72" s="111"/>
-      <c r="AS72" s="111"/>
-      <c r="AT72" s="112"/>
-    </row>
-    <row r="73" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K73" s="119"/>
-      <c r="L73" s="119"/>
+      <c r="AD72" s="102"/>
+      <c r="AE72" s="106"/>
+      <c r="AT72" s="102"/>
+    </row>
+    <row r="73" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M73" s="16"/>
-      <c r="N73" s="111"/>
-      <c r="O73" s="111"/>
-      <c r="P73" s="111"/>
-      <c r="Q73" s="111"/>
-      <c r="R73" s="111"/>
-      <c r="S73" s="111"/>
-      <c r="T73" s="111"/>
-      <c r="U73" s="111"/>
-      <c r="V73" s="111"/>
-      <c r="W73" s="111"/>
-      <c r="X73" s="111"/>
-      <c r="Y73" s="111"/>
-      <c r="Z73" s="111"/>
-      <c r="AA73" s="111"/>
-      <c r="AB73" s="111"/>
-      <c r="AC73" s="111"/>
-      <c r="AD73" s="112"/>
-      <c r="AE73" s="116"/>
-      <c r="AF73" s="111"/>
-      <c r="AG73" s="111"/>
-      <c r="AH73" s="111"/>
-      <c r="AI73" s="111"/>
-      <c r="AJ73" s="111"/>
-      <c r="AK73" s="111"/>
-      <c r="AL73" s="111"/>
-      <c r="AM73" s="111"/>
-      <c r="AN73" s="111"/>
-      <c r="AO73" s="111"/>
-      <c r="AP73" s="111"/>
-      <c r="AQ73" s="111"/>
-      <c r="AR73" s="111"/>
-      <c r="AS73" s="111"/>
-      <c r="AT73" s="112"/>
-    </row>
-    <row r="74" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K74" s="119"/>
-      <c r="L74" s="119"/>
+      <c r="AD73" s="102"/>
+      <c r="AE73" s="106"/>
+      <c r="AT73" s="102"/>
+    </row>
+    <row r="74" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M74" s="16"/>
-      <c r="N74" s="111"/>
-      <c r="O74" s="111"/>
-      <c r="P74" s="111"/>
-      <c r="Q74" s="111"/>
-      <c r="R74" s="111"/>
-      <c r="S74" s="111"/>
-      <c r="T74" s="111"/>
-      <c r="U74" s="111"/>
-      <c r="V74" s="111"/>
-      <c r="W74" s="111"/>
-      <c r="X74" s="111"/>
-      <c r="Y74" s="111"/>
-      <c r="Z74" s="111"/>
-      <c r="AA74" s="111"/>
-      <c r="AB74" s="111"/>
-      <c r="AC74" s="111"/>
-      <c r="AD74" s="112"/>
-      <c r="AE74" s="116"/>
-      <c r="AF74" s="111"/>
-      <c r="AG74" s="111"/>
-      <c r="AH74" s="111"/>
-      <c r="AI74" s="111"/>
-      <c r="AJ74" s="111"/>
-      <c r="AK74" s="111"/>
-      <c r="AL74" s="111"/>
-      <c r="AM74" s="111"/>
-      <c r="AN74" s="111"/>
-      <c r="AO74" s="111"/>
-      <c r="AP74" s="111"/>
-      <c r="AQ74" s="111"/>
-      <c r="AR74" s="111"/>
-      <c r="AS74" s="111"/>
-      <c r="AT74" s="112"/>
-    </row>
-    <row r="75" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K75" s="119"/>
-      <c r="L75" s="119"/>
+      <c r="AD74" s="102"/>
+      <c r="AE74" s="106"/>
+      <c r="AT74" s="102"/>
+    </row>
+    <row r="75" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M75" s="16"/>
-      <c r="N75" s="111"/>
-      <c r="O75" s="111"/>
-      <c r="P75" s="111"/>
-      <c r="Q75" s="111"/>
-      <c r="R75" s="111"/>
-      <c r="S75" s="111"/>
-      <c r="T75" s="111"/>
-      <c r="U75" s="111"/>
-      <c r="V75" s="111"/>
-      <c r="W75" s="111"/>
-      <c r="X75" s="111"/>
-      <c r="Y75" s="111"/>
-      <c r="Z75" s="111"/>
-      <c r="AA75" s="111"/>
-      <c r="AB75" s="111"/>
-      <c r="AC75" s="111"/>
-      <c r="AD75" s="112"/>
-      <c r="AE75" s="116"/>
-      <c r="AF75" s="111"/>
-      <c r="AG75" s="111"/>
-      <c r="AH75" s="111"/>
-      <c r="AI75" s="111"/>
-      <c r="AJ75" s="111"/>
-      <c r="AK75" s="111"/>
-      <c r="AL75" s="111"/>
-      <c r="AM75" s="111"/>
-      <c r="AN75" s="111"/>
-      <c r="AO75" s="111"/>
-      <c r="AP75" s="111"/>
-      <c r="AQ75" s="111"/>
-      <c r="AR75" s="111"/>
-      <c r="AS75" s="111"/>
-      <c r="AT75" s="112"/>
-    </row>
-    <row r="76" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K76" s="119"/>
-      <c r="L76" s="119"/>
+      <c r="AD75" s="102"/>
+      <c r="AE75" s="106"/>
+      <c r="AT75" s="102"/>
+    </row>
+    <row r="76" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M76" s="16"/>
-      <c r="N76" s="111"/>
-      <c r="O76" s="111"/>
-      <c r="P76" s="111"/>
-      <c r="Q76" s="111"/>
-      <c r="R76" s="111"/>
-      <c r="S76" s="111"/>
-      <c r="T76" s="111"/>
-      <c r="U76" s="111"/>
-      <c r="V76" s="111"/>
-      <c r="W76" s="111"/>
-      <c r="X76" s="111"/>
-      <c r="Y76" s="111"/>
-      <c r="Z76" s="111"/>
-      <c r="AA76" s="111"/>
-      <c r="AB76" s="111"/>
-      <c r="AC76" s="111"/>
-      <c r="AD76" s="112"/>
-      <c r="AE76" s="116"/>
-      <c r="AF76" s="111"/>
-      <c r="AG76" s="111"/>
-      <c r="AH76" s="111"/>
-      <c r="AI76" s="111"/>
-      <c r="AJ76" s="111"/>
-      <c r="AK76" s="111"/>
-      <c r="AL76" s="111"/>
-      <c r="AM76" s="111"/>
-      <c r="AN76" s="111"/>
-      <c r="AO76" s="111"/>
-      <c r="AP76" s="111"/>
-      <c r="AQ76" s="111"/>
-      <c r="AR76" s="111"/>
-      <c r="AS76" s="111"/>
-      <c r="AT76" s="112"/>
-    </row>
-    <row r="77" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K77" s="119"/>
-      <c r="L77" s="119"/>
+      <c r="AD76" s="102"/>
+      <c r="AE76" s="106"/>
+      <c r="AT76" s="102"/>
+    </row>
+    <row r="77" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M77" s="16"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="111"/>
-      <c r="P77" s="111"/>
-      <c r="Q77" s="111"/>
-      <c r="R77" s="111"/>
-      <c r="S77" s="111"/>
-      <c r="T77" s="111"/>
-      <c r="U77" s="111"/>
-      <c r="V77" s="111"/>
-      <c r="W77" s="111"/>
-      <c r="X77" s="111"/>
-      <c r="Y77" s="111"/>
-      <c r="Z77" s="111"/>
-      <c r="AA77" s="111"/>
-      <c r="AB77" s="111"/>
-      <c r="AC77" s="111"/>
-      <c r="AD77" s="112"/>
-      <c r="AE77" s="116"/>
-      <c r="AF77" s="111"/>
-      <c r="AG77" s="111"/>
-      <c r="AH77" s="111"/>
-      <c r="AI77" s="111"/>
-      <c r="AJ77" s="111"/>
-      <c r="AK77" s="111"/>
-      <c r="AL77" s="111"/>
-      <c r="AM77" s="111"/>
-      <c r="AN77" s="111"/>
-      <c r="AO77" s="111"/>
-      <c r="AP77" s="111"/>
-      <c r="AQ77" s="111"/>
-      <c r="AR77" s="111"/>
-      <c r="AS77" s="111"/>
-      <c r="AT77" s="112"/>
-    </row>
-    <row r="78" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K78" s="119"/>
-      <c r="L78" s="119"/>
+      <c r="AD77" s="102"/>
+      <c r="AE77" s="106"/>
+      <c r="AT77" s="102"/>
+    </row>
+    <row r="78" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M78" s="16"/>
-      <c r="N78" s="111"/>
-      <c r="O78" s="111"/>
-      <c r="P78" s="111"/>
-      <c r="Q78" s="111"/>
-      <c r="R78" s="111"/>
-      <c r="S78" s="111"/>
-      <c r="T78" s="111"/>
-      <c r="U78" s="111"/>
-      <c r="V78" s="111"/>
-      <c r="W78" s="111"/>
-      <c r="X78" s="111"/>
-      <c r="Y78" s="111"/>
-      <c r="Z78" s="111"/>
-      <c r="AA78" s="111"/>
-      <c r="AB78" s="111"/>
-      <c r="AC78" s="111"/>
-      <c r="AD78" s="112"/>
-      <c r="AE78" s="116"/>
-      <c r="AF78" s="111"/>
-      <c r="AG78" s="111"/>
-      <c r="AH78" s="111"/>
-      <c r="AI78" s="111"/>
-      <c r="AJ78" s="111"/>
-      <c r="AK78" s="111"/>
-      <c r="AL78" s="111"/>
-      <c r="AM78" s="111"/>
-      <c r="AN78" s="111"/>
-      <c r="AO78" s="111"/>
-      <c r="AP78" s="111"/>
-      <c r="AQ78" s="111"/>
-      <c r="AR78" s="111"/>
-      <c r="AS78" s="111"/>
-      <c r="AT78" s="112"/>
-    </row>
-    <row r="79" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K79" s="119"/>
-      <c r="L79" s="119"/>
+      <c r="AD78" s="102"/>
+      <c r="AE78" s="106"/>
+      <c r="AT78" s="102"/>
+    </row>
+    <row r="79" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M79" s="16"/>
-      <c r="N79" s="111"/>
-      <c r="O79" s="111"/>
-      <c r="P79" s="111"/>
-      <c r="Q79" s="111"/>
-      <c r="R79" s="111"/>
-      <c r="S79" s="111"/>
-      <c r="T79" s="111"/>
-      <c r="U79" s="111"/>
-      <c r="V79" s="111"/>
-      <c r="W79" s="111"/>
-      <c r="X79" s="111"/>
-      <c r="Y79" s="111"/>
-      <c r="Z79" s="111"/>
-      <c r="AA79" s="111"/>
-      <c r="AB79" s="111"/>
-      <c r="AC79" s="111"/>
-      <c r="AD79" s="112"/>
-      <c r="AE79" s="116"/>
-      <c r="AF79" s="111"/>
-      <c r="AG79" s="111"/>
-      <c r="AH79" s="111"/>
-      <c r="AI79" s="111"/>
-      <c r="AJ79" s="111"/>
-      <c r="AK79" s="111"/>
-      <c r="AL79" s="111"/>
-      <c r="AM79" s="111"/>
-      <c r="AN79" s="111"/>
-      <c r="AO79" s="111"/>
-      <c r="AP79" s="111"/>
-      <c r="AQ79" s="111"/>
-      <c r="AR79" s="111"/>
-      <c r="AS79" s="111"/>
-      <c r="AT79" s="112"/>
-    </row>
-    <row r="80" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K80" s="119"/>
-      <c r="L80" s="119"/>
+      <c r="AD79" s="102"/>
+      <c r="AE79" s="106"/>
+      <c r="AT79" s="102"/>
+    </row>
+    <row r="80" spans="13:48" x14ac:dyDescent="0.25">
       <c r="M80" s="16"/>
-      <c r="N80" s="111"/>
-      <c r="O80" s="111"/>
-      <c r="P80" s="111"/>
-      <c r="Q80" s="111"/>
-      <c r="R80" s="111"/>
-      <c r="S80" s="111"/>
-      <c r="T80" s="111"/>
-      <c r="U80" s="111"/>
-      <c r="V80" s="111"/>
-      <c r="W80" s="111"/>
-      <c r="X80" s="111"/>
-      <c r="Y80" s="111"/>
-      <c r="Z80" s="111"/>
-      <c r="AA80" s="111"/>
-      <c r="AB80" s="111"/>
-      <c r="AC80" s="111"/>
-      <c r="AD80" s="112"/>
-      <c r="AE80" s="116"/>
-      <c r="AF80" s="111"/>
-      <c r="AG80" s="111"/>
-      <c r="AH80" s="111"/>
-      <c r="AI80" s="111"/>
-      <c r="AJ80" s="111"/>
-      <c r="AK80" s="111"/>
-      <c r="AL80" s="111"/>
-      <c r="AM80" s="111"/>
-      <c r="AN80" s="111"/>
-      <c r="AO80" s="111"/>
-      <c r="AP80" s="111"/>
-      <c r="AQ80" s="111"/>
-      <c r="AR80" s="111"/>
-      <c r="AS80" s="111"/>
-      <c r="AT80" s="112"/>
-    </row>
-    <row r="81" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K81" s="119"/>
-      <c r="L81" s="119"/>
+      <c r="AD80" s="102"/>
+      <c r="AE80" s="106"/>
+      <c r="AT80" s="102"/>
+    </row>
+    <row r="81" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M81" s="16"/>
-      <c r="N81" s="111"/>
-      <c r="O81" s="111"/>
-      <c r="P81" s="111"/>
-      <c r="Q81" s="111"/>
-      <c r="R81" s="111"/>
-      <c r="S81" s="111"/>
-      <c r="T81" s="111"/>
-      <c r="U81" s="111"/>
-      <c r="V81" s="111"/>
-      <c r="W81" s="111"/>
-      <c r="X81" s="111"/>
-      <c r="Y81" s="111"/>
-      <c r="Z81" s="111"/>
-      <c r="AA81" s="111"/>
-      <c r="AB81" s="111"/>
-      <c r="AC81" s="111"/>
-      <c r="AD81" s="112"/>
-      <c r="AE81" s="116"/>
-      <c r="AF81" s="111"/>
-      <c r="AG81" s="111"/>
-      <c r="AH81" s="111"/>
-      <c r="AI81" s="111"/>
-      <c r="AJ81" s="111"/>
-      <c r="AK81" s="111"/>
-      <c r="AL81" s="111"/>
-      <c r="AM81" s="111"/>
-      <c r="AN81" s="111"/>
-      <c r="AO81" s="111"/>
-      <c r="AP81" s="111"/>
-      <c r="AQ81" s="111"/>
-      <c r="AR81" s="111"/>
-      <c r="AS81" s="111"/>
-      <c r="AT81" s="112"/>
-    </row>
-    <row r="82" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K82" s="119"/>
-      <c r="L82" s="119"/>
+      <c r="AD81" s="102"/>
+      <c r="AE81" s="106"/>
+      <c r="AT81" s="102"/>
+    </row>
+    <row r="82" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M82" s="16"/>
-      <c r="N82" s="111"/>
-      <c r="O82" s="111"/>
-      <c r="P82" s="111"/>
-      <c r="Q82" s="111"/>
-      <c r="R82" s="111"/>
-      <c r="S82" s="111"/>
-      <c r="T82" s="111"/>
-      <c r="U82" s="111"/>
-      <c r="V82" s="111"/>
-      <c r="W82" s="111"/>
-      <c r="X82" s="111"/>
-      <c r="Y82" s="111"/>
-      <c r="Z82" s="111"/>
-      <c r="AA82" s="111"/>
-      <c r="AB82" s="111"/>
-      <c r="AC82" s="111"/>
-      <c r="AD82" s="112"/>
-      <c r="AE82" s="116"/>
-      <c r="AF82" s="111"/>
-      <c r="AG82" s="111"/>
-      <c r="AH82" s="111"/>
-      <c r="AI82" s="111"/>
-      <c r="AJ82" s="111"/>
-      <c r="AK82" s="111"/>
-      <c r="AL82" s="111"/>
-      <c r="AM82" s="111"/>
-      <c r="AN82" s="111"/>
-      <c r="AO82" s="111"/>
-      <c r="AP82" s="111"/>
-      <c r="AQ82" s="111"/>
-      <c r="AR82" s="111"/>
-      <c r="AS82" s="111"/>
-      <c r="AT82" s="112"/>
-    </row>
-    <row r="83" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K83" s="119"/>
-      <c r="L83" s="119"/>
+      <c r="AD82" s="102"/>
+      <c r="AE82" s="106"/>
+      <c r="AT82" s="102"/>
+    </row>
+    <row r="83" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M83" s="16"/>
-      <c r="N83" s="111"/>
-      <c r="O83" s="111"/>
-      <c r="P83" s="111"/>
-      <c r="Q83" s="111"/>
-      <c r="R83" s="111"/>
-      <c r="S83" s="111"/>
-      <c r="T83" s="111"/>
-      <c r="U83" s="111"/>
-      <c r="V83" s="111"/>
-      <c r="W83" s="111"/>
-      <c r="X83" s="111"/>
-      <c r="Y83" s="111"/>
-      <c r="Z83" s="111"/>
-      <c r="AA83" s="111"/>
-      <c r="AB83" s="111"/>
-      <c r="AC83" s="111"/>
-      <c r="AD83" s="112"/>
-      <c r="AE83" s="116"/>
-      <c r="AF83" s="111"/>
-      <c r="AG83" s="111"/>
-      <c r="AH83" s="111"/>
-      <c r="AI83" s="111"/>
-      <c r="AJ83" s="111"/>
-      <c r="AK83" s="111"/>
-      <c r="AL83" s="111"/>
-      <c r="AM83" s="111"/>
-      <c r="AN83" s="111"/>
-      <c r="AO83" s="111"/>
-      <c r="AP83" s="111"/>
-      <c r="AQ83" s="111"/>
-      <c r="AR83" s="111"/>
-      <c r="AS83" s="111"/>
-      <c r="AT83" s="112"/>
-    </row>
-    <row r="84" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K84" s="119"/>
-      <c r="L84" s="119"/>
+      <c r="AD83" s="102"/>
+      <c r="AE83" s="106"/>
+      <c r="AT83" s="102"/>
+    </row>
+    <row r="84" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M84" s="16"/>
-      <c r="N84" s="111"/>
-      <c r="O84" s="110" t="s">
+      <c r="O84" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="P84" s="111"/>
-      <c r="Q84" s="111"/>
-      <c r="R84" s="111"/>
-      <c r="S84" s="111"/>
-      <c r="T84" s="111"/>
-      <c r="U84" s="111"/>
-      <c r="V84" s="111"/>
-      <c r="W84" s="111"/>
-      <c r="X84" s="110" t="s">
+      <c r="X84" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="Y84" s="111"/>
-      <c r="Z84" s="111"/>
-      <c r="AA84" s="111"/>
-      <c r="AB84" s="111"/>
-      <c r="AC84" s="111"/>
-      <c r="AD84" s="112"/>
-      <c r="AE84" s="116"/>
-      <c r="AF84" s="111"/>
-      <c r="AG84" s="111"/>
-      <c r="AH84" s="111"/>
-      <c r="AI84" s="111"/>
-      <c r="AJ84" s="111"/>
-      <c r="AK84" s="111"/>
-      <c r="AL84" s="111"/>
-      <c r="AM84" s="111"/>
-      <c r="AN84" s="111"/>
-      <c r="AO84" s="111"/>
-      <c r="AP84" s="111"/>
-      <c r="AQ84" s="111"/>
-      <c r="AR84" s="111"/>
-      <c r="AS84" s="111"/>
-      <c r="AT84" s="112"/>
-    </row>
-    <row r="85" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K85" s="119"/>
-      <c r="L85" s="119"/>
+      <c r="AD84" s="102"/>
+      <c r="AE84" s="106"/>
+      <c r="AT84" s="102"/>
+    </row>
+    <row r="85" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M85" s="16"/>
-      <c r="N85" s="111"/>
-      <c r="O85" s="111"/>
-      <c r="P85" s="111"/>
-      <c r="Q85" s="111"/>
-      <c r="R85" s="111"/>
-      <c r="S85" s="111"/>
-      <c r="T85" s="111"/>
-      <c r="U85" s="111"/>
-      <c r="V85" s="111"/>
-      <c r="W85" s="111"/>
-      <c r="X85" s="111"/>
-      <c r="Y85" s="111"/>
-      <c r="Z85" s="111"/>
-      <c r="AA85" s="111"/>
-      <c r="AB85" s="111"/>
-      <c r="AC85" s="111"/>
-      <c r="AD85" s="112"/>
-      <c r="AE85" s="116"/>
-      <c r="AF85" s="110" t="s">
+      <c r="AD85" s="102"/>
+      <c r="AE85" s="106"/>
+      <c r="AF85" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="AG85" s="111"/>
-      <c r="AH85" s="111"/>
-      <c r="AI85" s="111"/>
-      <c r="AJ85" s="111"/>
-      <c r="AK85" s="111"/>
-      <c r="AL85" s="111"/>
-      <c r="AM85" s="111"/>
-      <c r="AN85" s="110" t="s">
+      <c r="AN85" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="AO85" s="111"/>
-      <c r="AP85" s="111"/>
-      <c r="AQ85" s="111"/>
-      <c r="AR85" s="111"/>
-      <c r="AS85" s="111"/>
-      <c r="AT85" s="112"/>
-    </row>
-    <row r="86" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K86" s="119"/>
-      <c r="L86" s="119"/>
+      <c r="AT85" s="102"/>
+    </row>
+    <row r="86" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M86" s="16"/>
-      <c r="N86" s="111"/>
-      <c r="O86" s="111"/>
-      <c r="P86" s="111"/>
-      <c r="Q86" s="111"/>
-      <c r="R86" s="111"/>
-      <c r="S86" s="111"/>
-      <c r="T86" s="111"/>
-      <c r="U86" s="111"/>
-      <c r="V86" s="111"/>
-      <c r="W86" s="111"/>
-      <c r="X86" s="111"/>
-      <c r="Y86" s="111"/>
-      <c r="Z86" s="111"/>
-      <c r="AA86" s="111"/>
-      <c r="AB86" s="111"/>
-      <c r="AC86" s="111"/>
-      <c r="AD86" s="112"/>
-      <c r="AE86" s="116"/>
-      <c r="AF86" s="111"/>
-      <c r="AG86" s="111"/>
-      <c r="AH86" s="111"/>
-      <c r="AI86" s="111"/>
-      <c r="AJ86" s="111"/>
-      <c r="AK86" s="111"/>
-      <c r="AL86" s="111"/>
-      <c r="AM86" s="111"/>
-      <c r="AN86" s="111"/>
-      <c r="AO86" s="111"/>
-      <c r="AP86" s="111"/>
-      <c r="AQ86" s="111"/>
-      <c r="AR86" s="111"/>
-      <c r="AS86" s="111"/>
-      <c r="AT86" s="112"/>
-    </row>
-    <row r="87" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K87" s="119"/>
-      <c r="L87" s="119"/>
+      <c r="AD86" s="102"/>
+      <c r="AE86" s="106"/>
+      <c r="AT86" s="102"/>
+    </row>
+    <row r="87" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M87" s="16"/>
-      <c r="N87" s="111"/>
-      <c r="O87" s="111"/>
-      <c r="P87" s="111"/>
-      <c r="Q87" s="111"/>
-      <c r="R87" s="111"/>
-      <c r="S87" s="111"/>
-      <c r="T87" s="111"/>
-      <c r="U87" s="111"/>
-      <c r="V87" s="111"/>
-      <c r="W87" s="111"/>
-      <c r="X87" s="111"/>
-      <c r="Y87" s="111"/>
-      <c r="Z87" s="111"/>
-      <c r="AA87" s="111"/>
-      <c r="AB87" s="111"/>
-      <c r="AC87" s="111"/>
-      <c r="AD87" s="112"/>
-      <c r="AE87" s="116"/>
-      <c r="AF87" s="111"/>
-      <c r="AG87" s="111"/>
-      <c r="AH87" s="111"/>
-      <c r="AI87" s="111"/>
-      <c r="AJ87" s="111"/>
-      <c r="AK87" s="111"/>
-      <c r="AL87" s="111"/>
-      <c r="AM87" s="111"/>
-      <c r="AN87" s="111"/>
-      <c r="AO87" s="111"/>
-      <c r="AP87" s="111"/>
-      <c r="AQ87" s="111"/>
-      <c r="AR87" s="111"/>
-      <c r="AS87" s="111"/>
-      <c r="AT87" s="112"/>
-    </row>
-    <row r="88" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K88" s="119"/>
-      <c r="L88" s="119"/>
+      <c r="AD87" s="102"/>
+      <c r="AE87" s="106"/>
+      <c r="AT87" s="102"/>
+    </row>
+    <row r="88" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M88" s="16"/>
-      <c r="N88" s="111"/>
-      <c r="O88" s="111"/>
-      <c r="P88" s="111"/>
-      <c r="Q88" s="111"/>
-      <c r="R88" s="111"/>
-      <c r="S88" s="111"/>
-      <c r="T88" s="111"/>
-      <c r="U88" s="111"/>
-      <c r="V88" s="111"/>
-      <c r="W88" s="111"/>
-      <c r="X88" s="111"/>
-      <c r="Y88" s="111"/>
-      <c r="Z88" s="111"/>
-      <c r="AA88" s="111"/>
-      <c r="AB88" s="111"/>
-      <c r="AC88" s="111"/>
-      <c r="AD88" s="112"/>
-      <c r="AE88" s="116"/>
-      <c r="AF88" s="111"/>
-      <c r="AG88" s="111"/>
-      <c r="AH88" s="111"/>
-      <c r="AI88" s="111"/>
-      <c r="AJ88" s="111"/>
-      <c r="AK88" s="111"/>
-      <c r="AL88" s="111"/>
-      <c r="AM88" s="111"/>
-      <c r="AN88" s="111"/>
-      <c r="AO88" s="111"/>
-      <c r="AP88" s="111"/>
-      <c r="AQ88" s="111"/>
-      <c r="AR88" s="111"/>
-      <c r="AS88" s="111"/>
-      <c r="AT88" s="112"/>
-    </row>
-    <row r="89" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K89" s="119"/>
-      <c r="L89" s="119"/>
+      <c r="AD88" s="102"/>
+      <c r="AE88" s="106"/>
+      <c r="AT88" s="102"/>
+    </row>
+    <row r="89" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M89" s="16"/>
-      <c r="N89" s="111"/>
-      <c r="O89" s="111"/>
-      <c r="P89" s="111"/>
-      <c r="Q89" s="111"/>
-      <c r="R89" s="111"/>
-      <c r="S89" s="111"/>
-      <c r="T89" s="111"/>
-      <c r="U89" s="111"/>
-      <c r="V89" s="111"/>
-      <c r="W89" s="111"/>
-      <c r="X89" s="111"/>
-      <c r="Y89" s="111"/>
-      <c r="Z89" s="111"/>
-      <c r="AA89" s="111"/>
-      <c r="AB89" s="111"/>
-      <c r="AC89" s="111"/>
-      <c r="AD89" s="112"/>
-      <c r="AE89" s="116"/>
-      <c r="AF89" s="111"/>
-      <c r="AG89" s="111"/>
-      <c r="AH89" s="111"/>
-      <c r="AI89" s="111"/>
-      <c r="AJ89" s="111"/>
-      <c r="AK89" s="111"/>
-      <c r="AL89" s="111"/>
-      <c r="AM89" s="111"/>
-      <c r="AN89" s="111"/>
-      <c r="AO89" s="111"/>
-      <c r="AP89" s="111"/>
-      <c r="AQ89" s="111"/>
-      <c r="AR89" s="111"/>
-      <c r="AS89" s="111"/>
-      <c r="AT89" s="112"/>
-    </row>
-    <row r="90" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K90" s="119"/>
-      <c r="L90" s="119"/>
+      <c r="AD89" s="102"/>
+      <c r="AE89" s="106"/>
+      <c r="AT89" s="102"/>
+    </row>
+    <row r="90" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M90" s="16"/>
-      <c r="N90" s="111"/>
-      <c r="O90" s="111"/>
-      <c r="P90" s="111"/>
-      <c r="Q90" s="111"/>
-      <c r="R90" s="111"/>
-      <c r="S90" s="111"/>
-      <c r="T90" s="111"/>
-      <c r="U90" s="111"/>
-      <c r="V90" s="111"/>
-      <c r="W90" s="111"/>
-      <c r="X90" s="111"/>
-      <c r="Y90" s="111"/>
-      <c r="Z90" s="111"/>
-      <c r="AA90" s="111"/>
-      <c r="AB90" s="111"/>
-      <c r="AC90" s="111"/>
-      <c r="AD90" s="112"/>
-      <c r="AE90" s="116"/>
-      <c r="AF90" s="111"/>
-      <c r="AG90" s="111"/>
-      <c r="AH90" s="111"/>
-      <c r="AI90" s="111"/>
-      <c r="AJ90" s="111"/>
-      <c r="AK90" s="111"/>
-      <c r="AL90" s="111"/>
-      <c r="AM90" s="111"/>
-      <c r="AN90" s="111"/>
-      <c r="AO90" s="111"/>
-      <c r="AP90" s="111"/>
-      <c r="AQ90" s="111"/>
-      <c r="AR90" s="111"/>
-      <c r="AS90" s="111"/>
-      <c r="AT90" s="112"/>
-    </row>
-    <row r="91" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K91" s="119"/>
-      <c r="L91" s="119"/>
+      <c r="AD90" s="102"/>
+      <c r="AE90" s="106"/>
+      <c r="AT90" s="102"/>
+    </row>
+    <row r="91" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M91" s="16"/>
-      <c r="N91" s="111"/>
-      <c r="O91" s="111"/>
-      <c r="P91" s="111"/>
-      <c r="Q91" s="111"/>
-      <c r="R91" s="111"/>
-      <c r="S91" s="111"/>
-      <c r="T91" s="111"/>
-      <c r="U91" s="111"/>
-      <c r="V91" s="111"/>
-      <c r="W91" s="111"/>
-      <c r="X91" s="111"/>
-      <c r="Y91" s="111"/>
-      <c r="Z91" s="111"/>
-      <c r="AA91" s="111"/>
-      <c r="AB91" s="111"/>
-      <c r="AC91" s="111"/>
-      <c r="AD91" s="112"/>
-      <c r="AE91" s="116"/>
-      <c r="AF91" s="111"/>
-      <c r="AG91" s="111"/>
-      <c r="AH91" s="111"/>
-      <c r="AI91" s="111"/>
-      <c r="AJ91" s="111"/>
-      <c r="AK91" s="111"/>
-      <c r="AL91" s="111"/>
-      <c r="AM91" s="111"/>
-      <c r="AN91" s="111"/>
-      <c r="AO91" s="111"/>
-      <c r="AP91" s="111"/>
-      <c r="AQ91" s="111"/>
-      <c r="AR91" s="111"/>
-      <c r="AS91" s="111"/>
-      <c r="AT91" s="112"/>
-    </row>
-    <row r="92" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K92" s="119"/>
-      <c r="L92" s="119"/>
+      <c r="AD91" s="102"/>
+      <c r="AE91" s="106"/>
+      <c r="AT91" s="102"/>
+    </row>
+    <row r="92" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M92" s="16"/>
-      <c r="N92" s="111"/>
-      <c r="O92" s="111"/>
-      <c r="P92" s="111"/>
-      <c r="Q92" s="111"/>
-      <c r="R92" s="111"/>
-      <c r="S92" s="111"/>
-      <c r="T92" s="111"/>
-      <c r="U92" s="111"/>
-      <c r="V92" s="111"/>
-      <c r="W92" s="111"/>
-      <c r="X92" s="111"/>
-      <c r="Y92" s="111"/>
-      <c r="Z92" s="111"/>
-      <c r="AA92" s="111"/>
-      <c r="AB92" s="111"/>
-      <c r="AC92" s="111"/>
-      <c r="AD92" s="112"/>
-      <c r="AE92" s="116"/>
-      <c r="AF92" s="111"/>
-      <c r="AG92" s="111"/>
-      <c r="AH92" s="111"/>
-      <c r="AI92" s="111"/>
-      <c r="AJ92" s="111"/>
-      <c r="AK92" s="111"/>
-      <c r="AL92" s="111"/>
-      <c r="AM92" s="111"/>
-      <c r="AN92" s="111"/>
-      <c r="AO92" s="111"/>
-      <c r="AP92" s="111"/>
-      <c r="AQ92" s="111"/>
-      <c r="AR92" s="111"/>
-      <c r="AS92" s="111"/>
-      <c r="AT92" s="112"/>
-    </row>
-    <row r="93" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K93" s="119"/>
-      <c r="L93" s="119"/>
+      <c r="AD92" s="102"/>
+      <c r="AE92" s="106"/>
+      <c r="AT92" s="102"/>
+    </row>
+    <row r="93" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M93" s="16"/>
-      <c r="N93" s="111"/>
-      <c r="O93" s="111"/>
-      <c r="P93" s="111"/>
-      <c r="Q93" s="111"/>
-      <c r="R93" s="111"/>
-      <c r="S93" s="111"/>
-      <c r="T93" s="111"/>
-      <c r="U93" s="111"/>
-      <c r="V93" s="111"/>
-      <c r="W93" s="111"/>
-      <c r="X93" s="111"/>
-      <c r="Y93" s="111"/>
-      <c r="Z93" s="111"/>
-      <c r="AA93" s="111"/>
-      <c r="AB93" s="111"/>
-      <c r="AC93" s="111"/>
-      <c r="AD93" s="112"/>
-      <c r="AE93" s="116"/>
-      <c r="AF93" s="111"/>
-      <c r="AG93" s="111"/>
-      <c r="AH93" s="111"/>
-      <c r="AI93" s="111"/>
-      <c r="AJ93" s="111"/>
-      <c r="AK93" s="111"/>
-      <c r="AL93" s="111"/>
-      <c r="AM93" s="111"/>
-      <c r="AN93" s="111"/>
-      <c r="AO93" s="111"/>
-      <c r="AP93" s="111"/>
-      <c r="AQ93" s="111"/>
-      <c r="AR93" s="111"/>
-      <c r="AS93" s="111"/>
-      <c r="AT93" s="112"/>
-    </row>
-    <row r="94" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K94" s="119"/>
-      <c r="L94" s="119"/>
+      <c r="AD93" s="102"/>
+      <c r="AE93" s="106"/>
+      <c r="AT93" s="102"/>
+    </row>
+    <row r="94" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M94" s="16"/>
-      <c r="N94" s="111"/>
-      <c r="O94" s="111"/>
-      <c r="P94" s="111"/>
-      <c r="Q94" s="111"/>
-      <c r="R94" s="111"/>
-      <c r="S94" s="111"/>
-      <c r="T94" s="111"/>
-      <c r="U94" s="111"/>
-      <c r="V94" s="111"/>
-      <c r="W94" s="111"/>
-      <c r="X94" s="111"/>
-      <c r="Y94" s="111"/>
-      <c r="Z94" s="111"/>
-      <c r="AA94" s="111"/>
-      <c r="AB94" s="111"/>
-      <c r="AC94" s="111"/>
-      <c r="AD94" s="112"/>
-      <c r="AE94" s="116"/>
-      <c r="AF94" s="111"/>
-      <c r="AG94" s="111"/>
-      <c r="AH94" s="111"/>
-      <c r="AI94" s="111"/>
-      <c r="AJ94" s="111"/>
-      <c r="AK94" s="111"/>
-      <c r="AL94" s="111"/>
-      <c r="AM94" s="111"/>
-      <c r="AN94" s="111"/>
-      <c r="AO94" s="111"/>
-      <c r="AP94" s="111"/>
-      <c r="AQ94" s="111"/>
-      <c r="AR94" s="111"/>
-      <c r="AS94" s="111"/>
-      <c r="AT94" s="112"/>
-    </row>
-    <row r="95" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K95" s="119"/>
-      <c r="L95" s="119"/>
+      <c r="AD94" s="102"/>
+      <c r="AE94" s="106"/>
+      <c r="AT94" s="102"/>
+    </row>
+    <row r="95" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M95" s="16"/>
-      <c r="N95" s="111"/>
-      <c r="O95" s="111"/>
-      <c r="P95" s="111"/>
-      <c r="Q95" s="111"/>
-      <c r="R95" s="111"/>
-      <c r="S95" s="111"/>
-      <c r="T95" s="111"/>
-      <c r="U95" s="111"/>
-      <c r="V95" s="111"/>
-      <c r="W95" s="111"/>
-      <c r="X95" s="111"/>
-      <c r="Y95" s="111"/>
-      <c r="Z95" s="111"/>
-      <c r="AA95" s="111"/>
-      <c r="AB95" s="111"/>
-      <c r="AC95" s="111"/>
-      <c r="AD95" s="112"/>
-      <c r="AE95" s="116"/>
-      <c r="AF95" s="111"/>
-      <c r="AG95" s="111"/>
-      <c r="AH95" s="111"/>
-      <c r="AI95" s="111"/>
-      <c r="AJ95" s="111"/>
-      <c r="AK95" s="111"/>
-      <c r="AL95" s="111"/>
-      <c r="AM95" s="111"/>
-      <c r="AN95" s="111"/>
-      <c r="AO95" s="111"/>
-      <c r="AP95" s="111"/>
-      <c r="AQ95" s="111"/>
-      <c r="AR95" s="111"/>
-      <c r="AS95" s="111"/>
-      <c r="AT95" s="112"/>
-    </row>
-    <row r="96" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K96" s="119"/>
-      <c r="L96" s="119"/>
+      <c r="AD95" s="102"/>
+      <c r="AE95" s="106"/>
+      <c r="AT95" s="102"/>
+    </row>
+    <row r="96" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M96" s="16"/>
-      <c r="N96" s="111"/>
-      <c r="O96" s="111"/>
-      <c r="P96" s="111"/>
-      <c r="Q96" s="111"/>
-      <c r="R96" s="111"/>
-      <c r="S96" s="111"/>
-      <c r="T96" s="111"/>
-      <c r="U96" s="111"/>
-      <c r="V96" s="111"/>
-      <c r="W96" s="111"/>
-      <c r="X96" s="111"/>
-      <c r="Y96" s="111"/>
-      <c r="Z96" s="111"/>
-      <c r="AA96" s="111"/>
-      <c r="AB96" s="111"/>
-      <c r="AC96" s="111"/>
-      <c r="AD96" s="112"/>
-      <c r="AE96" s="116"/>
-      <c r="AF96" s="111"/>
-      <c r="AG96" s="111"/>
-      <c r="AH96" s="111"/>
-      <c r="AI96" s="111"/>
-      <c r="AJ96" s="111"/>
-      <c r="AK96" s="111"/>
-      <c r="AL96" s="111"/>
-      <c r="AM96" s="111"/>
-      <c r="AN96" s="111"/>
-      <c r="AO96" s="111"/>
-      <c r="AP96" s="111"/>
-      <c r="AQ96" s="111"/>
-      <c r="AR96" s="111"/>
-      <c r="AS96" s="111"/>
-      <c r="AT96" s="112"/>
-    </row>
-    <row r="97" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K97" s="119"/>
-      <c r="L97" s="119"/>
+      <c r="AD96" s="102"/>
+      <c r="AE96" s="106"/>
+      <c r="AT96" s="102"/>
+    </row>
+    <row r="97" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M97" s="16"/>
-      <c r="N97" s="111"/>
-      <c r="O97" s="111"/>
-      <c r="P97" s="111"/>
-      <c r="Q97" s="111"/>
-      <c r="R97" s="111"/>
-      <c r="S97" s="111"/>
-      <c r="T97" s="111"/>
-      <c r="U97" s="111"/>
-      <c r="V97" s="111"/>
-      <c r="W97" s="111"/>
-      <c r="X97" s="111"/>
-      <c r="Y97" s="111"/>
-      <c r="Z97" s="111"/>
-      <c r="AA97" s="111"/>
-      <c r="AB97" s="111"/>
-      <c r="AC97" s="111"/>
-      <c r="AD97" s="112"/>
-      <c r="AE97" s="116"/>
-      <c r="AF97" s="111"/>
-      <c r="AG97" s="111"/>
-      <c r="AH97" s="111"/>
-      <c r="AI97" s="111"/>
-      <c r="AJ97" s="111"/>
-      <c r="AK97" s="111"/>
-      <c r="AL97" s="111"/>
-      <c r="AM97" s="111"/>
-      <c r="AN97" s="111"/>
-      <c r="AO97" s="111"/>
-      <c r="AP97" s="111"/>
-      <c r="AQ97" s="111"/>
-      <c r="AR97" s="111"/>
-      <c r="AS97" s="111"/>
-      <c r="AT97" s="112"/>
-    </row>
-    <row r="98" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K98" s="119"/>
-      <c r="L98" s="119"/>
+      <c r="AD97" s="102"/>
+      <c r="AE97" s="106"/>
+      <c r="AT97" s="102"/>
+    </row>
+    <row r="98" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M98" s="16"/>
-      <c r="N98" s="111"/>
-      <c r="O98" s="111"/>
-      <c r="P98" s="111"/>
-      <c r="Q98" s="111"/>
-      <c r="R98" s="111"/>
-      <c r="S98" s="111"/>
-      <c r="T98" s="111"/>
-      <c r="U98" s="111"/>
-      <c r="V98" s="111"/>
-      <c r="W98" s="111"/>
-      <c r="X98" s="111"/>
-      <c r="Y98" s="111"/>
-      <c r="Z98" s="111"/>
-      <c r="AA98" s="111"/>
-      <c r="AB98" s="111"/>
-      <c r="AC98" s="111"/>
-      <c r="AD98" s="112"/>
-      <c r="AE98" s="116"/>
-      <c r="AF98" s="111"/>
-      <c r="AG98" s="111"/>
-      <c r="AH98" s="111"/>
-      <c r="AI98" s="111"/>
-      <c r="AJ98" s="111"/>
-      <c r="AK98" s="111"/>
-      <c r="AL98" s="111"/>
-      <c r="AM98" s="111"/>
-      <c r="AN98" s="111"/>
-      <c r="AO98" s="111"/>
-      <c r="AP98" s="111"/>
-      <c r="AQ98" s="111"/>
-      <c r="AR98" s="111"/>
-      <c r="AS98" s="111"/>
-      <c r="AT98" s="112"/>
-    </row>
-    <row r="99" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K99" s="119"/>
-      <c r="L99" s="119"/>
+      <c r="AD98" s="102"/>
+      <c r="AE98" s="106"/>
+      <c r="AT98" s="102"/>
+    </row>
+    <row r="99" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M99" s="16"/>
-      <c r="N99" s="111"/>
-      <c r="O99" s="111"/>
-      <c r="P99" s="111"/>
-      <c r="Q99" s="111"/>
-      <c r="R99" s="111"/>
-      <c r="S99" s="111"/>
-      <c r="T99" s="111"/>
-      <c r="U99" s="111"/>
-      <c r="V99" s="111"/>
-      <c r="W99" s="111"/>
-      <c r="X99" s="111"/>
-      <c r="Y99" s="111"/>
-      <c r="Z99" s="111"/>
-      <c r="AA99" s="111"/>
-      <c r="AB99" s="111"/>
-      <c r="AC99" s="111"/>
-      <c r="AD99" s="112"/>
-      <c r="AE99" s="116"/>
-      <c r="AF99" s="111"/>
-      <c r="AG99" s="111"/>
-      <c r="AH99" s="111"/>
-      <c r="AI99" s="111"/>
-      <c r="AJ99" s="111"/>
-      <c r="AK99" s="111"/>
-      <c r="AL99" s="111"/>
-      <c r="AM99" s="111"/>
-      <c r="AN99" s="111"/>
-      <c r="AO99" s="111"/>
-      <c r="AP99" s="111"/>
-      <c r="AQ99" s="111"/>
-      <c r="AR99" s="111"/>
-      <c r="AS99" s="111"/>
-      <c r="AT99" s="112"/>
-    </row>
-    <row r="100" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K100" s="119"/>
-      <c r="L100" s="119"/>
+      <c r="AD99" s="102"/>
+      <c r="AE99" s="106"/>
+      <c r="AT99" s="102"/>
+    </row>
+    <row r="100" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M100" s="16"/>
-      <c r="N100" s="111"/>
-      <c r="O100" s="110" t="s">
+      <c r="O100" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="P100" s="111"/>
-      <c r="Q100" s="111"/>
-      <c r="R100" s="111"/>
-      <c r="S100" s="111"/>
-      <c r="T100" s="111"/>
-      <c r="U100" s="111"/>
-      <c r="V100" s="111"/>
-      <c r="W100" s="111"/>
-      <c r="X100" s="111"/>
-      <c r="Y100" s="110" t="s">
+      <c r="Y100" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="Z100" s="111"/>
-      <c r="AA100" s="111"/>
-      <c r="AB100" s="111"/>
-      <c r="AC100" s="111"/>
-      <c r="AD100" s="112"/>
-      <c r="AE100" s="116"/>
-      <c r="AF100" s="110" t="s">
+      <c r="AD100" s="102"/>
+      <c r="AE100" s="106"/>
+      <c r="AF100" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="AG100" s="111"/>
-      <c r="AH100" s="111"/>
-      <c r="AI100" s="111"/>
-      <c r="AJ100" s="111"/>
-      <c r="AK100" s="111"/>
-      <c r="AL100" s="111"/>
-      <c r="AM100" s="111"/>
-      <c r="AN100" s="111"/>
-      <c r="AO100" s="111"/>
-      <c r="AP100" s="111"/>
-      <c r="AQ100" s="111"/>
-      <c r="AR100" s="111"/>
-      <c r="AS100" s="111"/>
-      <c r="AT100" s="112"/>
-    </row>
-    <row r="101" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K101" s="119"/>
-      <c r="L101" s="119"/>
+      <c r="AT100" s="102"/>
+    </row>
+    <row r="101" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M101" s="16"/>
-      <c r="N101" s="111"/>
-      <c r="O101" s="111"/>
-      <c r="P101" s="111"/>
-      <c r="Q101" s="111"/>
-      <c r="R101" s="111"/>
-      <c r="S101" s="111"/>
-      <c r="T101" s="111"/>
-      <c r="U101" s="111"/>
-      <c r="V101" s="111"/>
-      <c r="W101" s="111"/>
-      <c r="X101" s="111"/>
-      <c r="Y101" s="111"/>
-      <c r="Z101" s="111"/>
-      <c r="AA101" s="111"/>
-      <c r="AB101" s="111"/>
-      <c r="AC101" s="111"/>
-      <c r="AD101" s="112"/>
-      <c r="AE101" s="116"/>
-      <c r="AF101" s="111"/>
-      <c r="AG101" s="111"/>
-      <c r="AH101" s="111"/>
-      <c r="AI101" s="111"/>
-      <c r="AJ101" s="111"/>
-      <c r="AK101" s="111"/>
-      <c r="AL101" s="111"/>
-      <c r="AM101" s="111"/>
-      <c r="AN101" s="110" t="s">
+      <c r="AD101" s="102"/>
+      <c r="AE101" s="106"/>
+      <c r="AN101" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="AO101" s="111"/>
-      <c r="AP101" s="111"/>
-      <c r="AQ101" s="111"/>
-      <c r="AR101" s="111"/>
-      <c r="AS101" s="111"/>
-      <c r="AT101" s="112"/>
-    </row>
-    <row r="102" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K102" s="119"/>
-      <c r="L102" s="119"/>
+      <c r="AT101" s="102"/>
+    </row>
+    <row r="102" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M102" s="16"/>
-      <c r="N102" s="111"/>
-      <c r="O102" s="111"/>
-      <c r="P102" s="111"/>
-      <c r="Q102" s="111"/>
-      <c r="R102" s="111"/>
-      <c r="S102" s="111"/>
-      <c r="T102" s="111"/>
-      <c r="U102" s="111"/>
-      <c r="V102" s="111"/>
-      <c r="W102" s="111"/>
-      <c r="X102" s="111"/>
-      <c r="Y102" s="111"/>
-      <c r="Z102" s="111"/>
-      <c r="AA102" s="111"/>
-      <c r="AB102" s="111"/>
-      <c r="AC102" s="111"/>
-      <c r="AD102" s="112"/>
-      <c r="AE102" s="116"/>
-      <c r="AF102" s="111"/>
-      <c r="AG102" s="111"/>
-      <c r="AH102" s="111"/>
-      <c r="AI102" s="111"/>
-      <c r="AJ102" s="111"/>
-      <c r="AK102" s="111"/>
-      <c r="AL102" s="111"/>
-      <c r="AM102" s="111"/>
-      <c r="AN102" s="111"/>
-      <c r="AO102" s="111"/>
-      <c r="AP102" s="111"/>
-      <c r="AQ102" s="111"/>
-      <c r="AR102" s="111"/>
-      <c r="AS102" s="111"/>
-      <c r="AT102" s="112"/>
-    </row>
-    <row r="103" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K103" s="119"/>
-      <c r="L103" s="119"/>
+      <c r="AD102" s="102"/>
+      <c r="AE102" s="106"/>
+      <c r="AT102" s="102"/>
+    </row>
+    <row r="103" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M103" s="16"/>
-      <c r="N103" s="111"/>
-      <c r="O103" s="111"/>
-      <c r="P103" s="111"/>
-      <c r="Q103" s="111"/>
-      <c r="R103" s="111"/>
-      <c r="S103" s="111"/>
-      <c r="T103" s="111"/>
-      <c r="U103" s="111"/>
-      <c r="V103" s="111"/>
-      <c r="W103" s="111"/>
-      <c r="X103" s="111"/>
-      <c r="Y103" s="111"/>
-      <c r="Z103" s="111"/>
-      <c r="AA103" s="111"/>
-      <c r="AB103" s="111"/>
-      <c r="AC103" s="111"/>
-      <c r="AD103" s="112"/>
-      <c r="AE103" s="116"/>
-      <c r="AF103" s="111"/>
-      <c r="AG103" s="111"/>
-      <c r="AH103" s="111"/>
-      <c r="AI103" s="111"/>
-      <c r="AJ103" s="111"/>
-      <c r="AK103" s="111"/>
-      <c r="AL103" s="111"/>
-      <c r="AM103" s="111"/>
-      <c r="AN103" s="111"/>
-      <c r="AO103" s="111"/>
-      <c r="AP103" s="111"/>
-      <c r="AQ103" s="111"/>
-      <c r="AR103" s="111"/>
-      <c r="AS103" s="111"/>
-      <c r="AT103" s="112"/>
-    </row>
-    <row r="104" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K104" s="119"/>
-      <c r="L104" s="119"/>
+      <c r="AD103" s="102"/>
+      <c r="AE103" s="106"/>
+      <c r="AT103" s="102"/>
+    </row>
+    <row r="104" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M104" s="16"/>
-      <c r="N104" s="111"/>
-      <c r="O104" s="111"/>
-      <c r="P104" s="111"/>
-      <c r="Q104" s="111"/>
-      <c r="R104" s="111"/>
-      <c r="S104" s="111"/>
-      <c r="T104" s="111"/>
-      <c r="U104" s="111"/>
-      <c r="V104" s="111"/>
-      <c r="W104" s="111"/>
-      <c r="X104" s="111"/>
-      <c r="Y104" s="111"/>
-      <c r="Z104" s="111"/>
-      <c r="AA104" s="111"/>
-      <c r="AB104" s="111"/>
-      <c r="AC104" s="111"/>
-      <c r="AD104" s="112"/>
-      <c r="AE104" s="116"/>
-      <c r="AF104" s="111"/>
-      <c r="AG104" s="111"/>
-      <c r="AH104" s="111"/>
-      <c r="AI104" s="111"/>
-      <c r="AJ104" s="111"/>
-      <c r="AK104" s="111"/>
-      <c r="AL104" s="111"/>
-      <c r="AM104" s="111"/>
-      <c r="AN104" s="111"/>
-      <c r="AO104" s="111"/>
-      <c r="AP104" s="111"/>
-      <c r="AQ104" s="111"/>
-      <c r="AR104" s="111"/>
-      <c r="AS104" s="111"/>
-      <c r="AT104" s="112"/>
-    </row>
-    <row r="105" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K105" s="119"/>
-      <c r="L105" s="119"/>
+      <c r="AD104" s="102"/>
+      <c r="AE104" s="106"/>
+      <c r="AT104" s="102"/>
+    </row>
+    <row r="105" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M105" s="16"/>
-      <c r="N105" s="111"/>
-      <c r="O105" s="111"/>
-      <c r="P105" s="111"/>
-      <c r="Q105" s="111"/>
-      <c r="R105" s="111"/>
-      <c r="S105" s="111"/>
-      <c r="T105" s="111"/>
-      <c r="U105" s="111"/>
-      <c r="V105" s="111"/>
-      <c r="W105" s="111"/>
-      <c r="X105" s="111"/>
-      <c r="Y105" s="111"/>
-      <c r="Z105" s="111"/>
-      <c r="AA105" s="111"/>
-      <c r="AB105" s="111"/>
-      <c r="AC105" s="111"/>
-      <c r="AD105" s="112"/>
-      <c r="AE105" s="116"/>
-      <c r="AF105" s="111"/>
-      <c r="AG105" s="111"/>
-      <c r="AH105" s="111"/>
-      <c r="AI105" s="111"/>
-      <c r="AJ105" s="111"/>
-      <c r="AK105" s="111"/>
-      <c r="AL105" s="111"/>
-      <c r="AM105" s="111"/>
-      <c r="AN105" s="111"/>
-      <c r="AO105" s="111"/>
-      <c r="AP105" s="111"/>
-      <c r="AQ105" s="111"/>
-      <c r="AR105" s="111"/>
-      <c r="AS105" s="111"/>
-      <c r="AT105" s="112"/>
-    </row>
-    <row r="106" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K106" s="119"/>
-      <c r="L106" s="119"/>
+      <c r="AD105" s="102"/>
+      <c r="AE105" s="106"/>
+      <c r="AT105" s="102"/>
+    </row>
+    <row r="106" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M106" s="16"/>
-      <c r="N106" s="111"/>
-      <c r="O106" s="111"/>
-      <c r="P106" s="111"/>
-      <c r="Q106" s="111"/>
-      <c r="R106" s="111"/>
-      <c r="S106" s="111"/>
-      <c r="T106" s="111"/>
-      <c r="U106" s="111"/>
-      <c r="V106" s="111"/>
-      <c r="W106" s="111"/>
-      <c r="X106" s="111"/>
-      <c r="Y106" s="111"/>
-      <c r="Z106" s="111"/>
-      <c r="AA106" s="111"/>
-      <c r="AB106" s="111"/>
-      <c r="AC106" s="111"/>
-      <c r="AD106" s="112"/>
-      <c r="AE106" s="116"/>
-      <c r="AF106" s="111"/>
-      <c r="AG106" s="111"/>
-      <c r="AH106" s="111"/>
-      <c r="AI106" s="111"/>
-      <c r="AJ106" s="111"/>
-      <c r="AK106" s="111"/>
-      <c r="AL106" s="111"/>
-      <c r="AM106" s="111"/>
-      <c r="AN106" s="111"/>
-      <c r="AO106" s="111"/>
-      <c r="AP106" s="111"/>
-      <c r="AQ106" s="111"/>
-      <c r="AR106" s="111"/>
-      <c r="AS106" s="111"/>
-      <c r="AT106" s="112"/>
-    </row>
-    <row r="107" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K107" s="119"/>
-      <c r="L107" s="119"/>
+      <c r="AD106" s="102"/>
+      <c r="AE106" s="106"/>
+      <c r="AT106" s="102"/>
+    </row>
+    <row r="107" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M107" s="16"/>
-      <c r="N107" s="111"/>
-      <c r="O107" s="111"/>
-      <c r="P107" s="111"/>
-      <c r="Q107" s="111"/>
-      <c r="R107" s="111"/>
-      <c r="S107" s="111"/>
-      <c r="T107" s="111"/>
-      <c r="U107" s="111"/>
-      <c r="V107" s="111"/>
-      <c r="W107" s="111"/>
-      <c r="X107" s="111"/>
-      <c r="Y107" s="111"/>
-      <c r="Z107" s="111"/>
-      <c r="AA107" s="111"/>
-      <c r="AB107" s="111"/>
-      <c r="AC107" s="111"/>
-      <c r="AD107" s="112"/>
-      <c r="AE107" s="116"/>
-      <c r="AF107" s="111"/>
-      <c r="AG107" s="111"/>
-      <c r="AH107" s="111"/>
-      <c r="AI107" s="111"/>
-      <c r="AJ107" s="111"/>
-      <c r="AK107" s="111"/>
-      <c r="AL107" s="111"/>
-      <c r="AM107" s="111"/>
-      <c r="AN107" s="111"/>
-      <c r="AO107" s="111"/>
-      <c r="AP107" s="111"/>
-      <c r="AQ107" s="111"/>
-      <c r="AR107" s="111"/>
-      <c r="AS107" s="111"/>
-      <c r="AT107" s="112"/>
-    </row>
-    <row r="108" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K108" s="119"/>
-      <c r="L108" s="119"/>
+      <c r="AD107" s="102"/>
+      <c r="AE107" s="106"/>
+      <c r="AT107" s="102"/>
+    </row>
+    <row r="108" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M108" s="16"/>
-      <c r="N108" s="111"/>
-      <c r="O108" s="111"/>
-      <c r="P108" s="111"/>
-      <c r="Q108" s="111"/>
-      <c r="R108" s="111"/>
-      <c r="S108" s="111"/>
-      <c r="T108" s="111"/>
-      <c r="U108" s="111"/>
-      <c r="V108" s="111"/>
-      <c r="W108" s="111"/>
-      <c r="X108" s="111"/>
-      <c r="Y108" s="111"/>
-      <c r="Z108" s="111"/>
-      <c r="AA108" s="111"/>
-      <c r="AB108" s="111"/>
-      <c r="AC108" s="111"/>
-      <c r="AD108" s="112"/>
-      <c r="AE108" s="116"/>
-      <c r="AF108" s="111"/>
-      <c r="AG108" s="111"/>
-      <c r="AH108" s="111"/>
-      <c r="AI108" s="111"/>
-      <c r="AJ108" s="111"/>
-      <c r="AK108" s="111"/>
-      <c r="AL108" s="111"/>
-      <c r="AM108" s="111"/>
-      <c r="AN108" s="111"/>
-      <c r="AO108" s="111"/>
-      <c r="AP108" s="111"/>
-      <c r="AQ108" s="111"/>
-      <c r="AR108" s="111"/>
-      <c r="AS108" s="111"/>
-      <c r="AT108" s="112"/>
-    </row>
-    <row r="109" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K109" s="119"/>
-      <c r="L109" s="119"/>
+      <c r="AD108" s="102"/>
+      <c r="AE108" s="106"/>
+      <c r="AT108" s="102"/>
+    </row>
+    <row r="109" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M109" s="16"/>
-      <c r="N109" s="111"/>
-      <c r="O109" s="111"/>
-      <c r="P109" s="111"/>
-      <c r="Q109" s="111"/>
-      <c r="R109" s="111"/>
-      <c r="S109" s="111"/>
-      <c r="T109" s="111"/>
-      <c r="U109" s="111"/>
-      <c r="V109" s="111"/>
-      <c r="W109" s="111"/>
-      <c r="X109" s="111"/>
-      <c r="Y109" s="111"/>
-      <c r="Z109" s="111"/>
-      <c r="AA109" s="111"/>
-      <c r="AB109" s="111"/>
-      <c r="AC109" s="111"/>
-      <c r="AD109" s="112"/>
-      <c r="AE109" s="116"/>
-      <c r="AF109" s="111"/>
-      <c r="AG109" s="111"/>
-      <c r="AH109" s="111"/>
-      <c r="AI109" s="111"/>
-      <c r="AJ109" s="111"/>
-      <c r="AK109" s="111"/>
-      <c r="AL109" s="111"/>
-      <c r="AM109" s="111"/>
-      <c r="AN109" s="111"/>
-      <c r="AO109" s="111"/>
-      <c r="AP109" s="111"/>
-      <c r="AQ109" s="111"/>
-      <c r="AR109" s="111"/>
-      <c r="AS109" s="111"/>
-      <c r="AT109" s="112"/>
-    </row>
-    <row r="110" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K110" s="119"/>
-      <c r="L110" s="119"/>
+      <c r="AD109" s="102"/>
+      <c r="AE109" s="106"/>
+      <c r="AT109" s="102"/>
+    </row>
+    <row r="110" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M110" s="16"/>
-      <c r="N110" s="111"/>
-      <c r="O110" s="111"/>
-      <c r="P110" s="111"/>
-      <c r="Q110" s="111"/>
-      <c r="R110" s="111"/>
-      <c r="S110" s="111"/>
-      <c r="T110" s="111"/>
-      <c r="U110" s="111"/>
-      <c r="V110" s="111"/>
-      <c r="W110" s="111"/>
-      <c r="X110" s="111"/>
-      <c r="Y110" s="111"/>
-      <c r="Z110" s="111"/>
-      <c r="AA110" s="111"/>
-      <c r="AB110" s="111"/>
-      <c r="AC110" s="111"/>
-      <c r="AD110" s="112"/>
-      <c r="AE110" s="116"/>
-      <c r="AF110" s="111"/>
-      <c r="AG110" s="111"/>
-      <c r="AH110" s="111"/>
-      <c r="AI110" s="111"/>
-      <c r="AJ110" s="111"/>
-      <c r="AK110" s="111"/>
-      <c r="AL110" s="111"/>
-      <c r="AM110" s="111"/>
-      <c r="AN110" s="111"/>
-      <c r="AO110" s="111"/>
-      <c r="AP110" s="111"/>
-      <c r="AQ110" s="111"/>
-      <c r="AR110" s="111"/>
-      <c r="AS110" s="111"/>
-      <c r="AT110" s="112"/>
-    </row>
-    <row r="111" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K111" s="119"/>
-      <c r="L111" s="119"/>
+      <c r="AD110" s="102"/>
+      <c r="AE110" s="106"/>
+      <c r="AT110" s="102"/>
+    </row>
+    <row r="111" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M111" s="16"/>
-      <c r="N111" s="111"/>
-      <c r="O111" s="111"/>
-      <c r="P111" s="111"/>
-      <c r="Q111" s="111"/>
-      <c r="R111" s="111"/>
-      <c r="S111" s="111"/>
-      <c r="T111" s="111"/>
-      <c r="U111" s="111"/>
-      <c r="V111" s="111"/>
-      <c r="W111" s="111"/>
-      <c r="X111" s="111"/>
-      <c r="Y111" s="111"/>
-      <c r="Z111" s="111"/>
-      <c r="AA111" s="111"/>
-      <c r="AB111" s="111"/>
-      <c r="AC111" s="111"/>
-      <c r="AD111" s="112"/>
-      <c r="AE111" s="116"/>
-      <c r="AF111" s="111"/>
-      <c r="AG111" s="111"/>
-      <c r="AH111" s="111"/>
-      <c r="AI111" s="111"/>
-      <c r="AJ111" s="111"/>
-      <c r="AK111" s="111"/>
-      <c r="AL111" s="111"/>
-      <c r="AM111" s="111"/>
-      <c r="AN111" s="111"/>
-      <c r="AO111" s="111"/>
-      <c r="AP111" s="111"/>
-      <c r="AQ111" s="111"/>
-      <c r="AR111" s="111"/>
-      <c r="AS111" s="111"/>
-      <c r="AT111" s="112"/>
-    </row>
-    <row r="112" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K112" s="119"/>
-      <c r="L112" s="119"/>
+      <c r="AD111" s="102"/>
+      <c r="AE111" s="106"/>
+      <c r="AT111" s="102"/>
+    </row>
+    <row r="112" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M112" s="16"/>
-      <c r="N112" s="111"/>
-      <c r="O112" s="111"/>
-      <c r="P112" s="111"/>
-      <c r="Q112" s="111"/>
-      <c r="R112" s="111"/>
-      <c r="S112" s="111"/>
-      <c r="T112" s="111"/>
-      <c r="U112" s="111"/>
-      <c r="V112" s="111"/>
-      <c r="W112" s="111"/>
-      <c r="X112" s="111"/>
-      <c r="Y112" s="111"/>
-      <c r="Z112" s="111"/>
-      <c r="AA112" s="111"/>
-      <c r="AB112" s="111"/>
-      <c r="AC112" s="111"/>
-      <c r="AD112" s="112"/>
-      <c r="AE112" s="116"/>
-      <c r="AF112" s="111"/>
-      <c r="AG112" s="111"/>
-      <c r="AH112" s="111"/>
-      <c r="AI112" s="111"/>
-      <c r="AJ112" s="111"/>
-      <c r="AK112" s="111"/>
-      <c r="AL112" s="111"/>
-      <c r="AM112" s="111"/>
-      <c r="AN112" s="111"/>
-      <c r="AO112" s="111"/>
-      <c r="AP112" s="111"/>
-      <c r="AQ112" s="111"/>
-      <c r="AR112" s="111"/>
-      <c r="AS112" s="111"/>
-      <c r="AT112" s="112"/>
-    </row>
-    <row r="113" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K113" s="119"/>
-      <c r="L113" s="119"/>
+      <c r="AD112" s="102"/>
+      <c r="AE112" s="106"/>
+      <c r="AT112" s="102"/>
+    </row>
+    <row r="113" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M113" s="16"/>
-      <c r="N113" s="111"/>
-      <c r="O113" s="111"/>
-      <c r="P113" s="111"/>
-      <c r="Q113" s="111"/>
-      <c r="R113" s="111"/>
-      <c r="S113" s="111"/>
-      <c r="T113" s="111"/>
-      <c r="U113" s="111"/>
-      <c r="V113" s="111"/>
-      <c r="W113" s="111"/>
-      <c r="X113" s="111"/>
-      <c r="Y113" s="111"/>
-      <c r="Z113" s="111"/>
-      <c r="AA113" s="111"/>
-      <c r="AB113" s="111"/>
-      <c r="AC113" s="111"/>
-      <c r="AD113" s="112"/>
-      <c r="AE113" s="116"/>
-      <c r="AF113" s="111"/>
-      <c r="AG113" s="111"/>
-      <c r="AH113" s="111"/>
-      <c r="AI113" s="111"/>
-      <c r="AJ113" s="111"/>
-      <c r="AK113" s="111"/>
-      <c r="AL113" s="111"/>
-      <c r="AM113" s="111"/>
-      <c r="AN113" s="111"/>
-      <c r="AO113" s="111"/>
-      <c r="AP113" s="111"/>
-      <c r="AQ113" s="111"/>
-      <c r="AR113" s="111"/>
-      <c r="AS113" s="111"/>
-      <c r="AT113" s="112"/>
-    </row>
-    <row r="114" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K114" s="119"/>
-      <c r="L114" s="119"/>
+      <c r="AD113" s="102"/>
+      <c r="AE113" s="106"/>
+      <c r="AT113" s="102"/>
+    </row>
+    <row r="114" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M114" s="16"/>
-      <c r="N114" s="111"/>
-      <c r="O114" s="111"/>
-      <c r="P114" s="111"/>
-      <c r="Q114" s="111"/>
-      <c r="R114" s="111"/>
-      <c r="S114" s="111"/>
-      <c r="T114" s="111"/>
-      <c r="U114" s="111"/>
-      <c r="V114" s="111"/>
-      <c r="W114" s="111"/>
-      <c r="X114" s="111"/>
-      <c r="Y114" s="111"/>
-      <c r="Z114" s="111"/>
-      <c r="AA114" s="111"/>
-      <c r="AB114" s="111"/>
-      <c r="AC114" s="111"/>
-      <c r="AD114" s="112"/>
-      <c r="AE114" s="116"/>
-      <c r="AF114" s="111"/>
-      <c r="AG114" s="111"/>
-      <c r="AH114" s="111"/>
-      <c r="AI114" s="111"/>
-      <c r="AJ114" s="111"/>
-      <c r="AK114" s="111"/>
-      <c r="AL114" s="111"/>
-      <c r="AM114" s="111"/>
-      <c r="AN114" s="111"/>
-      <c r="AO114" s="111"/>
-      <c r="AP114" s="111"/>
-      <c r="AQ114" s="111"/>
-      <c r="AR114" s="111"/>
-      <c r="AS114" s="111"/>
-      <c r="AT114" s="112"/>
-    </row>
-    <row r="115" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K115" s="119"/>
-      <c r="L115" s="119"/>
+      <c r="AD114" s="102"/>
+      <c r="AE114" s="106"/>
+      <c r="AT114" s="102"/>
+    </row>
+    <row r="115" spans="13:46" x14ac:dyDescent="0.25">
       <c r="M115" s="16"/>
-      <c r="N115" s="111"/>
-      <c r="O115" s="111"/>
-      <c r="P115" s="111"/>
-      <c r="Q115" s="111"/>
-      <c r="R115" s="111"/>
-      <c r="S115" s="111"/>
-      <c r="T115" s="111"/>
-      <c r="U115" s="111"/>
-      <c r="V115" s="111"/>
-      <c r="W115" s="111"/>
-      <c r="X115" s="111"/>
-      <c r="Y115" s="111"/>
-      <c r="Z115" s="111"/>
-      <c r="AA115" s="111"/>
-      <c r="AB115" s="111"/>
-      <c r="AC115" s="111"/>
-      <c r="AD115" s="112"/>
-      <c r="AE115" s="116"/>
-      <c r="AF115" s="111"/>
-      <c r="AG115" s="111"/>
-      <c r="AH115" s="111"/>
-      <c r="AI115" s="111"/>
-      <c r="AJ115" s="111"/>
-      <c r="AK115" s="111"/>
-      <c r="AL115" s="111"/>
-      <c r="AM115" s="111"/>
-      <c r="AN115" s="111"/>
-      <c r="AO115" s="111"/>
-      <c r="AP115" s="111"/>
-      <c r="AQ115" s="111"/>
-      <c r="AR115" s="111"/>
-      <c r="AS115" s="111"/>
-      <c r="AT115" s="112"/>
-    </row>
-    <row r="116" spans="11:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K116" s="119"/>
-      <c r="L116" s="119"/>
+      <c r="AD115" s="102"/>
+      <c r="AE115" s="106"/>
+      <c r="AT115" s="102"/>
+    </row>
+    <row r="116" spans="13:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M116" s="2"/>
-      <c r="N116" s="113"/>
-      <c r="O116" s="113"/>
-      <c r="P116" s="113"/>
-      <c r="Q116" s="113"/>
-      <c r="R116" s="113"/>
-      <c r="S116" s="113"/>
-      <c r="T116" s="113"/>
-      <c r="U116" s="113"/>
-      <c r="V116" s="113"/>
-      <c r="W116" s="113"/>
-      <c r="X116" s="113"/>
-      <c r="Y116" s="113"/>
-      <c r="Z116" s="113"/>
-      <c r="AA116" s="113"/>
-      <c r="AB116" s="113"/>
-      <c r="AC116" s="113"/>
-      <c r="AD116" s="114"/>
-      <c r="AE116" s="117"/>
-      <c r="AF116" s="113"/>
-      <c r="AG116" s="113"/>
-      <c r="AH116" s="113"/>
-      <c r="AI116" s="113"/>
-      <c r="AJ116" s="113"/>
-      <c r="AK116" s="113"/>
-      <c r="AL116" s="113"/>
-      <c r="AM116" s="113"/>
-      <c r="AN116" s="113"/>
-      <c r="AO116" s="113"/>
-      <c r="AP116" s="113"/>
-      <c r="AQ116" s="113"/>
-      <c r="AR116" s="113"/>
-      <c r="AS116" s="113"/>
-      <c r="AT116" s="114"/>
-    </row>
-    <row r="117" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K117" s="119"/>
-      <c r="L117" s="119"/>
-    </row>
-    <row r="118" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K118" s="119"/>
-      <c r="L118" s="119"/>
-    </row>
-    <row r="119" spans="11:46" x14ac:dyDescent="0.25">
-      <c r="K119" s="119"/>
-      <c r="L119" s="119"/>
+      <c r="N116" s="103"/>
+      <c r="O116" s="103"/>
+      <c r="P116" s="103"/>
+      <c r="Q116" s="103"/>
+      <c r="R116" s="103"/>
+      <c r="S116" s="103"/>
+      <c r="T116" s="103"/>
+      <c r="U116" s="103"/>
+      <c r="V116" s="103"/>
+      <c r="W116" s="103"/>
+      <c r="X116" s="103"/>
+      <c r="Y116" s="103"/>
+      <c r="Z116" s="103"/>
+      <c r="AA116" s="103"/>
+      <c r="AB116" s="103"/>
+      <c r="AC116" s="103"/>
+      <c r="AD116" s="104"/>
+      <c r="AE116" s="107"/>
+      <c r="AF116" s="103"/>
+      <c r="AG116" s="103"/>
+      <c r="AH116" s="103"/>
+      <c r="AI116" s="103"/>
+      <c r="AJ116" s="103"/>
+      <c r="AK116" s="103"/>
+      <c r="AL116" s="103"/>
+      <c r="AM116" s="103"/>
+      <c r="AN116" s="103"/>
+      <c r="AO116" s="103"/>
+      <c r="AP116" s="103"/>
+      <c r="AQ116" s="103"/>
+      <c r="AR116" s="103"/>
+      <c r="AS116" s="103"/>
+      <c r="AT116" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7534430-2806-474A-95C7-F7FFB5A00432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD379DD5-4AAC-4257-B2EB-321C75487D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="71">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>#25</t>
+  </si>
+  <si>
+    <t>#26</t>
   </si>
 </sst>
 </file>
@@ -2910,6 +2913,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>18490</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>70597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC53010-C640-8D57-F2C9-F68222D5F840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="32609118" y="13312588"/>
+          <a:ext cx="3716431" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10955,8 +11019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
   <dimension ref="A2:BC116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="AB61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BC71" sqref="BC71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11985,9 +12049,15 @@
       <c r="H32" s="38">
         <v>128</v>
       </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="99"/>
+      <c r="I32" s="38">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="J32" s="33">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K32" s="99">
+        <v>26</v>
+      </c>
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
@@ -12347,25 +12417,25 @@
       <c r="AE64" s="106"/>
       <c r="AT64" s="102"/>
     </row>
-    <row r="65" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="65" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M65" s="16"/>
       <c r="AD65" s="102"/>
       <c r="AE65" s="106"/>
       <c r="AT65" s="102"/>
     </row>
-    <row r="66" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="66" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M66" s="16"/>
       <c r="AD66" s="102"/>
       <c r="AE66" s="106"/>
       <c r="AT66" s="102"/>
     </row>
-    <row r="67" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M67" s="16"/>
       <c r="AD67" s="102"/>
       <c r="AE67" s="106"/>
       <c r="AT67" s="102"/>
     </row>
-    <row r="68" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="68" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M68" s="16"/>
       <c r="N68" s="94" t="s">
         <v>49</v>
@@ -12377,7 +12447,7 @@
       <c r="AE68" s="106"/>
       <c r="AT68" s="102"/>
     </row>
-    <row r="69" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="69" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M69" s="16"/>
       <c r="AD69" s="102"/>
       <c r="AE69" s="106"/>
@@ -12389,7 +12459,7 @@
       </c>
       <c r="AT69" s="102"/>
     </row>
-    <row r="70" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="70" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M70" s="16"/>
       <c r="AD70" s="102"/>
       <c r="AE70" s="106"/>
@@ -12397,62 +12467,65 @@
       <c r="AV70" s="94" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="13:48" x14ac:dyDescent="0.25">
+      <c r="BC70" s="94" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M71" s="16"/>
       <c r="AD71" s="102"/>
       <c r="AE71" s="106"/>
       <c r="AT71" s="102"/>
     </row>
-    <row r="72" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="72" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M72" s="16"/>
       <c r="AD72" s="102"/>
       <c r="AE72" s="106"/>
       <c r="AT72" s="102"/>
     </row>
-    <row r="73" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="73" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M73" s="16"/>
       <c r="AD73" s="102"/>
       <c r="AE73" s="106"/>
       <c r="AT73" s="102"/>
     </row>
-    <row r="74" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="74" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M74" s="16"/>
       <c r="AD74" s="102"/>
       <c r="AE74" s="106"/>
       <c r="AT74" s="102"/>
     </row>
-    <row r="75" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="75" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M75" s="16"/>
       <c r="AD75" s="102"/>
       <c r="AE75" s="106"/>
       <c r="AT75" s="102"/>
     </row>
-    <row r="76" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="76" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M76" s="16"/>
       <c r="AD76" s="102"/>
       <c r="AE76" s="106"/>
       <c r="AT76" s="102"/>
     </row>
-    <row r="77" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="77" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M77" s="16"/>
       <c r="AD77" s="102"/>
       <c r="AE77" s="106"/>
       <c r="AT77" s="102"/>
     </row>
-    <row r="78" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="78" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M78" s="16"/>
       <c r="AD78" s="102"/>
       <c r="AE78" s="106"/>
       <c r="AT78" s="102"/>
     </row>
-    <row r="79" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="79" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M79" s="16"/>
       <c r="AD79" s="102"/>
       <c r="AE79" s="106"/>
       <c r="AT79" s="102"/>
     </row>
-    <row r="80" spans="13:48" x14ac:dyDescent="0.25">
+    <row r="80" spans="13:55" x14ac:dyDescent="0.25">
       <c r="M80" s="16"/>
       <c r="AD80" s="102"/>
       <c r="AE80" s="106"/>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD379DD5-4AAC-4257-B2EB-321C75487D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF01B0B-29CC-4395-86BD-94A1D33B5DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="83">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -253,6 +253,42 @@
   </si>
   <si>
     <t>#26</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>#28</t>
+  </si>
+  <si>
+    <t>#29</t>
+  </si>
+  <si>
+    <t>#30</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>#32</t>
+  </si>
+  <si>
+    <t>#33</t>
+  </si>
+  <si>
+    <t>#34</t>
+  </si>
+  <si>
+    <t>#35</t>
+  </si>
+  <si>
+    <t>#36</t>
+  </si>
+  <si>
+    <t>#37</t>
+  </si>
+  <si>
+    <t>#38</t>
   </si>
 </sst>
 </file>
@@ -900,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1232,6 +1268,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,7 +1399,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>100693</xdr:rowOff>
+      <xdr:rowOff>89487</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1460,7 +1504,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>70437</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2008,8 +2052,8 @@
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2070,7 +2114,7 @@
       <xdr:col>44</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>70437</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2619,7 +2663,7 @@
       <xdr:col>53</xdr:col>
       <xdr:colOff>48985</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
+      <xdr:rowOff>37780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2680,7 +2724,7 @@
       <xdr:col>60</xdr:col>
       <xdr:colOff>21771</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
+      <xdr:rowOff>173851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2956,6 +3000,738 @@
         <a:xfrm>
           <a:off x="32609118" y="13312588"/>
           <a:ext cx="3716431" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5AE1115-EE2A-54B5-C8BD-D137B8128ECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28584525" y="16640175"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>42582</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>149039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8551A17F-F5E7-60B5-31F9-15DC11A6EED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="33247853" y="16640736"/>
+          <a:ext cx="3706905" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1703A7-D701-E7ED-8291-48CEE18A9D8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28584525" y="19688175"/>
+          <a:ext cx="3676650" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>534520</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>150719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8107AAC5-CCA5-0FA7-E587-F07925AE5EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="33191823" y="19688735"/>
+          <a:ext cx="3649756" cy="2649631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>538370</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>1657</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>21121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6559CC4F-5A75-6F9D-9B85-5AE9455C9EA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="38439587" y="6775174"/>
+          <a:ext cx="3753679" cy="2646708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>478491</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>72277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30548C28-8172-9222-484E-D4F6F5D49015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="42212559" y="6846793"/>
+          <a:ext cx="3649756" cy="2649631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5FC1AF-56B8-CC7F-5A01-E2EE4297148F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="38338125" y="10172700"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>459440</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>478490</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>59392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A655C86-ED50-D2CA-7478-0B24E7A37246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="42212558" y="10264589"/>
+          <a:ext cx="3649756" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12EE046E-5FF7-E075-12B5-F0C4A38D0371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="38338125" y="13411200"/>
+          <a:ext cx="3743325" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>443192</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>137833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3146E6-691C-DD6D-FB4F-DD78FE496A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="42167735" y="13391030"/>
+          <a:ext cx="3659281" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8033F64-138B-7E20-F3D1-364D65697211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="38338125" y="16840200"/>
+          <a:ext cx="3733800" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>481852</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>500902</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>81803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2D00D5-9972-FE2D-3A1D-8824727FDB1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="42234970" y="16764000"/>
+          <a:ext cx="3649756" cy="2647950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11017,10 +11793,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
-  <dimension ref="A2:BC116"/>
+  <dimension ref="A2:BS116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BC71" sqref="BC71"/>
+    <sheetView tabSelected="1" topLeftCell="AQ74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12059,7 +12835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>2</v>
       </c>
@@ -12084,11 +12860,17 @@
       <c r="H33" s="40">
         <v>128</v>
       </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="96"/>
-    </row>
-    <row r="34" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="40">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="J33" s="36">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="K33" s="96">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
         <v>3</v>
       </c>
@@ -12113,11 +12895,17 @@
       <c r="H34" s="38">
         <v>128</v>
       </c>
-      <c r="I34" s="38"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="99"/>
-    </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="I34" s="38">
+        <v>0.86</v>
+      </c>
+      <c r="J34" s="33">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="K34" s="99">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>2</v>
       </c>
@@ -12142,9 +12930,15 @@
       <c r="H35" s="41">
         <v>128</v>
       </c>
-      <c r="I35" s="41"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="96"/>
+      <c r="I35" s="41">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J35" s="19">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="K35" s="96">
+        <v>29</v>
+      </c>
       <c r="M35" s="20"/>
       <c r="N35" s="100"/>
       <c r="O35" s="100"/>
@@ -12179,8 +12973,24 @@
       <c r="AR35" s="100"/>
       <c r="AS35" s="100"/>
       <c r="AT35" s="101"/>
-    </row>
-    <row r="36" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU35" s="105"/>
+      <c r="AV35" s="100"/>
+      <c r="AW35" s="100"/>
+      <c r="AX35" s="100"/>
+      <c r="AY35" s="100"/>
+      <c r="AZ35" s="100"/>
+      <c r="BA35" s="100"/>
+      <c r="BB35" s="100"/>
+      <c r="BC35" s="100"/>
+      <c r="BD35" s="100"/>
+      <c r="BE35" s="100"/>
+      <c r="BF35" s="100"/>
+      <c r="BG35" s="100"/>
+      <c r="BH35" s="100"/>
+      <c r="BI35" s="100"/>
+      <c r="BJ35" s="101"/>
+    </row>
+    <row r="36" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>3</v>
       </c>
@@ -12205,9 +13015,15 @@
       <c r="H36" s="42">
         <v>128</v>
       </c>
-      <c r="I36" s="42"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="97"/>
+      <c r="I36" s="42">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J36" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="K36" s="97">
+        <v>30</v>
+      </c>
       <c r="M36" s="16"/>
       <c r="N36" s="94" t="s">
         <v>44</v>
@@ -12224,98 +13040,656 @@
         <v>56</v>
       </c>
       <c r="AT36" s="102"/>
-      <c r="AV36" s="94" t="s">
+      <c r="AU36" s="106"/>
+      <c r="AV36" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="BC36" s="94" t="s">
+      <c r="AW36" s="118"/>
+      <c r="AX36" s="118"/>
+      <c r="AY36" s="118"/>
+      <c r="AZ36" s="118"/>
+      <c r="BA36" s="118"/>
+      <c r="BB36" s="118"/>
+      <c r="BC36" s="117" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD36" s="118"/>
+      <c r="BE36" s="118"/>
+      <c r="BF36" s="118"/>
+      <c r="BG36" s="118"/>
+      <c r="BH36" s="118"/>
+      <c r="BI36" s="118"/>
+      <c r="BJ36" s="102"/>
+      <c r="BL36" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS36" s="94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>2</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="29">
+        <v>10</v>
+      </c>
+      <c r="H37" s="43">
+        <v>256</v>
+      </c>
+      <c r="I37" s="43">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="J37" s="22">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="K37" s="96">
+        <v>31</v>
+      </c>
       <c r="M37" s="16"/>
       <c r="AD37" s="102"/>
       <c r="AE37" s="106"/>
       <c r="AT37" s="102"/>
-    </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AU37" s="106"/>
+      <c r="AV37" s="118"/>
+      <c r="AW37" s="118"/>
+      <c r="AX37" s="118"/>
+      <c r="AY37" s="118"/>
+      <c r="AZ37" s="118"/>
+      <c r="BA37" s="118"/>
+      <c r="BB37" s="118"/>
+      <c r="BC37" s="118"/>
+      <c r="BD37" s="118"/>
+      <c r="BE37" s="118"/>
+      <c r="BF37" s="118"/>
+      <c r="BG37" s="118"/>
+      <c r="BH37" s="118"/>
+      <c r="BI37" s="118"/>
+      <c r="BJ37" s="102"/>
+    </row>
+    <row r="38" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A38" s="31">
+        <v>3</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="48">
+        <v>10</v>
+      </c>
+      <c r="H38" s="38">
+        <v>256</v>
+      </c>
+      <c r="I38" s="38">
+        <v>0.871</v>
+      </c>
+      <c r="J38" s="33">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="K38" s="99">
+        <v>32</v>
+      </c>
       <c r="M38" s="16"/>
       <c r="AD38" s="102"/>
       <c r="AE38" s="106"/>
       <c r="AT38" s="102"/>
-    </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AU38" s="106"/>
+      <c r="AV38" s="118"/>
+      <c r="AW38" s="118"/>
+      <c r="AX38" s="118"/>
+      <c r="AY38" s="118"/>
+      <c r="AZ38" s="118"/>
+      <c r="BA38" s="118"/>
+      <c r="BB38" s="118"/>
+      <c r="BC38" s="118"/>
+      <c r="BD38" s="118"/>
+      <c r="BE38" s="118"/>
+      <c r="BF38" s="118"/>
+      <c r="BG38" s="118"/>
+      <c r="BH38" s="118"/>
+      <c r="BI38" s="118"/>
+      <c r="BJ38" s="102"/>
+    </row>
+    <row r="39" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>2</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="1">
+        <v>20</v>
+      </c>
+      <c r="H39" s="41">
+        <v>256</v>
+      </c>
+      <c r="I39" s="41">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J39" s="19">
+        <v>0.753</v>
+      </c>
+      <c r="K39" s="96">
+        <v>33</v>
+      </c>
       <c r="M39" s="16"/>
       <c r="AD39" s="102"/>
       <c r="AE39" s="106"/>
       <c r="AT39" s="102"/>
-    </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AU39" s="106"/>
+      <c r="AV39" s="118"/>
+      <c r="AW39" s="118"/>
+      <c r="AX39" s="118"/>
+      <c r="AY39" s="118"/>
+      <c r="AZ39" s="118"/>
+      <c r="BA39" s="118"/>
+      <c r="BB39" s="118"/>
+      <c r="BC39" s="118"/>
+      <c r="BD39" s="118"/>
+      <c r="BE39" s="118"/>
+      <c r="BF39" s="118"/>
+      <c r="BG39" s="118"/>
+      <c r="BH39" s="118"/>
+      <c r="BI39" s="118"/>
+      <c r="BJ39" s="102"/>
+    </row>
+    <row r="40" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A40" s="31">
+        <v>3</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="32">
+        <v>20</v>
+      </c>
+      <c r="H40" s="38">
+        <v>256</v>
+      </c>
+      <c r="I40" s="119"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="99">
+        <v>34</v>
+      </c>
       <c r="M40" s="16"/>
       <c r="AD40" s="102"/>
       <c r="AE40" s="106"/>
       <c r="AT40" s="102"/>
-    </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AU40" s="106"/>
+      <c r="AV40" s="118"/>
+      <c r="AW40" s="118"/>
+      <c r="AX40" s="118"/>
+      <c r="AY40" s="118"/>
+      <c r="AZ40" s="118"/>
+      <c r="BA40" s="118"/>
+      <c r="BB40" s="118"/>
+      <c r="BC40" s="118"/>
+      <c r="BD40" s="118"/>
+      <c r="BE40" s="118"/>
+      <c r="BF40" s="118"/>
+      <c r="BG40" s="118"/>
+      <c r="BH40" s="118"/>
+      <c r="BI40" s="118"/>
+      <c r="BJ40" s="102"/>
+    </row>
+    <row r="41" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>2</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="1">
+        <v>30</v>
+      </c>
+      <c r="H41" s="41">
+        <v>256</v>
+      </c>
+      <c r="I41" s="41">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="J41" s="19">
+        <v>0.79</v>
+      </c>
+      <c r="K41" s="96">
+        <v>35</v>
+      </c>
       <c r="M41" s="16"/>
       <c r="AD41" s="102"/>
       <c r="AE41" s="106"/>
       <c r="AT41" s="102"/>
-    </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AU41" s="106"/>
+      <c r="AV41" s="118"/>
+      <c r="AW41" s="118"/>
+      <c r="AX41" s="118"/>
+      <c r="AY41" s="118"/>
+      <c r="AZ41" s="118"/>
+      <c r="BA41" s="118"/>
+      <c r="BB41" s="118"/>
+      <c r="BC41" s="118"/>
+      <c r="BD41" s="118"/>
+      <c r="BE41" s="118"/>
+      <c r="BF41" s="118"/>
+      <c r="BG41" s="118"/>
+      <c r="BH41" s="118"/>
+      <c r="BI41" s="118"/>
+      <c r="BJ41" s="102"/>
+    </row>
+    <row r="42" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A42" s="31">
+        <v>3</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="32">
+        <v>30</v>
+      </c>
+      <c r="H42" s="38">
+        <v>256</v>
+      </c>
+      <c r="I42" s="38">
+        <v>0.996</v>
+      </c>
+      <c r="J42" s="33">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="K42" s="99">
+        <v>36</v>
+      </c>
       <c r="M42" s="16"/>
       <c r="AD42" s="102"/>
       <c r="AE42" s="106"/>
       <c r="AT42" s="102"/>
-    </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AU42" s="106"/>
+      <c r="AV42" s="118"/>
+      <c r="AW42" s="118"/>
+      <c r="AX42" s="118"/>
+      <c r="AY42" s="118"/>
+      <c r="AZ42" s="118"/>
+      <c r="BA42" s="118"/>
+      <c r="BB42" s="118"/>
+      <c r="BC42" s="118"/>
+      <c r="BD42" s="118"/>
+      <c r="BE42" s="118"/>
+      <c r="BF42" s="118"/>
+      <c r="BG42" s="118"/>
+      <c r="BH42" s="118"/>
+      <c r="BI42" s="118"/>
+      <c r="BJ42" s="102"/>
+    </row>
+    <row r="43" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
+        <v>2</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="35">
+        <v>40</v>
+      </c>
+      <c r="H43" s="40">
+        <v>256</v>
+      </c>
+      <c r="I43" s="40">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="J43" s="36">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="K43" s="96">
+        <v>37</v>
+      </c>
       <c r="M43" s="16"/>
       <c r="AD43" s="102"/>
       <c r="AE43" s="106"/>
       <c r="AT43" s="102"/>
-    </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AU43" s="106"/>
+      <c r="AV43" s="118"/>
+      <c r="AW43" s="118"/>
+      <c r="AX43" s="118"/>
+      <c r="AY43" s="118"/>
+      <c r="AZ43" s="118"/>
+      <c r="BA43" s="118"/>
+      <c r="BB43" s="118"/>
+      <c r="BC43" s="118"/>
+      <c r="BD43" s="118"/>
+      <c r="BE43" s="118"/>
+      <c r="BF43" s="118"/>
+      <c r="BG43" s="118"/>
+      <c r="BH43" s="118"/>
+      <c r="BI43" s="118"/>
+      <c r="BJ43" s="102"/>
+    </row>
+    <row r="44" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A44" s="31">
+        <v>3</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="32">
+        <v>40</v>
+      </c>
+      <c r="H44" s="38">
+        <v>256</v>
+      </c>
+      <c r="I44" s="38">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="J44" s="33">
+        <v>0.152</v>
+      </c>
+      <c r="K44" s="99">
+        <v>38</v>
+      </c>
       <c r="M44" s="16"/>
       <c r="AD44" s="102"/>
       <c r="AE44" s="106"/>
       <c r="AT44" s="102"/>
-    </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AU44" s="106"/>
+      <c r="AV44" s="118"/>
+      <c r="AW44" s="118"/>
+      <c r="AX44" s="118"/>
+      <c r="AY44" s="118"/>
+      <c r="AZ44" s="118"/>
+      <c r="BA44" s="118"/>
+      <c r="BB44" s="118"/>
+      <c r="BC44" s="118"/>
+      <c r="BD44" s="118"/>
+      <c r="BE44" s="118"/>
+      <c r="BF44" s="118"/>
+      <c r="BG44" s="118"/>
+      <c r="BH44" s="118"/>
+      <c r="BI44" s="118"/>
+      <c r="BJ44" s="102"/>
+    </row>
+    <row r="45" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>2</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="1">
+        <v>50</v>
+      </c>
+      <c r="H45" s="41">
+        <v>256</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="96"/>
       <c r="M45" s="16"/>
       <c r="AD45" s="102"/>
       <c r="AE45" s="106"/>
       <c r="AT45" s="102"/>
-    </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AU45" s="106"/>
+      <c r="AV45" s="118"/>
+      <c r="AW45" s="118"/>
+      <c r="AX45" s="118"/>
+      <c r="AY45" s="118"/>
+      <c r="AZ45" s="118"/>
+      <c r="BA45" s="118"/>
+      <c r="BB45" s="118"/>
+      <c r="BC45" s="118"/>
+      <c r="BD45" s="118"/>
+      <c r="BE45" s="118"/>
+      <c r="BF45" s="118"/>
+      <c r="BG45" s="118"/>
+      <c r="BH45" s="118"/>
+      <c r="BI45" s="118"/>
+      <c r="BJ45" s="102"/>
+    </row>
+    <row r="46" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>3</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="3">
+        <v>50</v>
+      </c>
+      <c r="H46" s="42">
+        <v>256</v>
+      </c>
+      <c r="I46" s="42"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="97"/>
       <c r="M46" s="16"/>
       <c r="AD46" s="102"/>
       <c r="AE46" s="106"/>
       <c r="AT46" s="102"/>
-    </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AU46" s="106"/>
+      <c r="AV46" s="118"/>
+      <c r="AW46" s="118"/>
+      <c r="AX46" s="118"/>
+      <c r="AY46" s="118"/>
+      <c r="AZ46" s="118"/>
+      <c r="BA46" s="118"/>
+      <c r="BB46" s="118"/>
+      <c r="BC46" s="118"/>
+      <c r="BD46" s="118"/>
+      <c r="BE46" s="118"/>
+      <c r="BF46" s="118"/>
+      <c r="BG46" s="118"/>
+      <c r="BH46" s="118"/>
+      <c r="BI46" s="118"/>
+      <c r="BJ46" s="102"/>
+    </row>
+    <row r="47" spans="1:71" x14ac:dyDescent="0.25">
       <c r="M47" s="16"/>
       <c r="AD47" s="102"/>
       <c r="AE47" s="106"/>
       <c r="AT47" s="102"/>
-    </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AU47" s="106"/>
+      <c r="AV47" s="118"/>
+      <c r="AW47" s="118"/>
+      <c r="AX47" s="118"/>
+      <c r="AY47" s="118"/>
+      <c r="AZ47" s="118"/>
+      <c r="BA47" s="118"/>
+      <c r="BB47" s="118"/>
+      <c r="BC47" s="118"/>
+      <c r="BD47" s="118"/>
+      <c r="BE47" s="118"/>
+      <c r="BF47" s="118"/>
+      <c r="BG47" s="118"/>
+      <c r="BH47" s="118"/>
+      <c r="BI47" s="118"/>
+      <c r="BJ47" s="102"/>
+    </row>
+    <row r="48" spans="1:71" x14ac:dyDescent="0.25">
       <c r="M48" s="16"/>
       <c r="AD48" s="102"/>
       <c r="AE48" s="106"/>
       <c r="AT48" s="102"/>
-    </row>
-    <row r="49" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU48" s="106"/>
+      <c r="AV48" s="118"/>
+      <c r="AW48" s="118"/>
+      <c r="AX48" s="118"/>
+      <c r="AY48" s="118"/>
+      <c r="AZ48" s="118"/>
+      <c r="BA48" s="118"/>
+      <c r="BB48" s="118"/>
+      <c r="BC48" s="118"/>
+      <c r="BD48" s="118"/>
+      <c r="BE48" s="118"/>
+      <c r="BF48" s="118"/>
+      <c r="BG48" s="118"/>
+      <c r="BH48" s="118"/>
+      <c r="BI48" s="118"/>
+      <c r="BJ48" s="102"/>
+    </row>
+    <row r="49" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M49" s="16"/>
       <c r="AD49" s="102"/>
       <c r="AE49" s="106"/>
       <c r="AT49" s="102"/>
-    </row>
-    <row r="50" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU49" s="106"/>
+      <c r="AV49" s="118"/>
+      <c r="AW49" s="118"/>
+      <c r="AX49" s="118"/>
+      <c r="AY49" s="118"/>
+      <c r="AZ49" s="118"/>
+      <c r="BA49" s="118"/>
+      <c r="BB49" s="118"/>
+      <c r="BC49" s="118"/>
+      <c r="BD49" s="118"/>
+      <c r="BE49" s="118"/>
+      <c r="BF49" s="118"/>
+      <c r="BG49" s="118"/>
+      <c r="BH49" s="118"/>
+      <c r="BI49" s="118"/>
+      <c r="BJ49" s="102"/>
+    </row>
+    <row r="50" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M50" s="16"/>
       <c r="AD50" s="102"/>
       <c r="AE50" s="106"/>
       <c r="AT50" s="102"/>
-    </row>
-    <row r="51" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU50" s="106"/>
+      <c r="AV50" s="118"/>
+      <c r="AW50" s="118"/>
+      <c r="AX50" s="118"/>
+      <c r="AY50" s="118"/>
+      <c r="AZ50" s="118"/>
+      <c r="BA50" s="118"/>
+      <c r="BB50" s="118"/>
+      <c r="BC50" s="118"/>
+      <c r="BD50" s="118"/>
+      <c r="BE50" s="118"/>
+      <c r="BF50" s="118"/>
+      <c r="BG50" s="118"/>
+      <c r="BH50" s="118"/>
+      <c r="BI50" s="118"/>
+      <c r="BJ50" s="102"/>
+    </row>
+    <row r="51" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M51" s="16"/>
       <c r="N51" s="94" t="s">
         <v>47</v>
@@ -12326,8 +13700,24 @@
       <c r="AD51" s="102"/>
       <c r="AE51" s="106"/>
       <c r="AT51" s="102"/>
-    </row>
-    <row r="52" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU51" s="106"/>
+      <c r="AV51" s="118"/>
+      <c r="AW51" s="118"/>
+      <c r="AX51" s="118"/>
+      <c r="AY51" s="118"/>
+      <c r="AZ51" s="118"/>
+      <c r="BA51" s="118"/>
+      <c r="BB51" s="118"/>
+      <c r="BC51" s="118"/>
+      <c r="BD51" s="118"/>
+      <c r="BE51" s="118"/>
+      <c r="BF51" s="118"/>
+      <c r="BG51" s="118"/>
+      <c r="BH51" s="118"/>
+      <c r="BI51" s="118"/>
+      <c r="BJ51" s="102"/>
+    </row>
+    <row r="52" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M52" s="16"/>
       <c r="AD52" s="102"/>
       <c r="AE52" s="106"/>
@@ -12338,104 +13728,364 @@
         <v>58</v>
       </c>
       <c r="AT52" s="102"/>
-      <c r="AV52" s="94" t="s">
+      <c r="AU52" s="106"/>
+      <c r="AV52" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="BC52" s="94" t="s">
+      <c r="AW52" s="118"/>
+      <c r="AX52" s="118"/>
+      <c r="AY52" s="118"/>
+      <c r="AZ52" s="118"/>
+      <c r="BA52" s="118"/>
+      <c r="BB52" s="118"/>
+      <c r="BC52" s="117" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="BD52" s="118"/>
+      <c r="BE52" s="118"/>
+      <c r="BF52" s="118"/>
+      <c r="BG52" s="118"/>
+      <c r="BH52" s="118"/>
+      <c r="BI52" s="118"/>
+      <c r="BJ52" s="102"/>
+    </row>
+    <row r="53" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M53" s="16"/>
       <c r="AD53" s="102"/>
       <c r="AE53" s="106"/>
       <c r="AT53" s="102"/>
-    </row>
-    <row r="54" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU53" s="106"/>
+      <c r="AV53" s="118"/>
+      <c r="AW53" s="118"/>
+      <c r="AX53" s="118"/>
+      <c r="AY53" s="118"/>
+      <c r="AZ53" s="118"/>
+      <c r="BA53" s="118"/>
+      <c r="BB53" s="118"/>
+      <c r="BC53" s="118"/>
+      <c r="BD53" s="118"/>
+      <c r="BE53" s="118"/>
+      <c r="BF53" s="118"/>
+      <c r="BG53" s="118"/>
+      <c r="BH53" s="118"/>
+      <c r="BI53" s="118"/>
+      <c r="BJ53" s="102"/>
+    </row>
+    <row r="54" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M54" s="16"/>
       <c r="AD54" s="102"/>
       <c r="AE54" s="106"/>
       <c r="AT54" s="102"/>
-    </row>
-    <row r="55" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU54" s="106"/>
+      <c r="AV54" s="118"/>
+      <c r="AW54" s="118"/>
+      <c r="AX54" s="118"/>
+      <c r="AY54" s="118"/>
+      <c r="AZ54" s="118"/>
+      <c r="BA54" s="118"/>
+      <c r="BB54" s="118"/>
+      <c r="BC54" s="118"/>
+      <c r="BD54" s="118"/>
+      <c r="BE54" s="118"/>
+      <c r="BF54" s="118"/>
+      <c r="BG54" s="118"/>
+      <c r="BH54" s="118"/>
+      <c r="BI54" s="118"/>
+      <c r="BJ54" s="102"/>
+      <c r="BL54" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS54" s="94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M55" s="16"/>
       <c r="AD55" s="102"/>
       <c r="AE55" s="106"/>
       <c r="AT55" s="102"/>
-    </row>
-    <row r="56" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU55" s="106"/>
+      <c r="AV55" s="118"/>
+      <c r="AW55" s="118"/>
+      <c r="AX55" s="118"/>
+      <c r="AY55" s="118"/>
+      <c r="AZ55" s="118"/>
+      <c r="BA55" s="118"/>
+      <c r="BB55" s="118"/>
+      <c r="BC55" s="118"/>
+      <c r="BD55" s="118"/>
+      <c r="BE55" s="118"/>
+      <c r="BF55" s="118"/>
+      <c r="BG55" s="118"/>
+      <c r="BH55" s="118"/>
+      <c r="BI55" s="118"/>
+      <c r="BJ55" s="102"/>
+    </row>
+    <row r="56" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M56" s="16"/>
       <c r="AD56" s="102"/>
       <c r="AE56" s="106"/>
       <c r="AT56" s="102"/>
-    </row>
-    <row r="57" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU56" s="106"/>
+      <c r="AV56" s="118"/>
+      <c r="AW56" s="118"/>
+      <c r="AX56" s="118"/>
+      <c r="AY56" s="118"/>
+      <c r="AZ56" s="118"/>
+      <c r="BA56" s="118"/>
+      <c r="BB56" s="118"/>
+      <c r="BC56" s="118"/>
+      <c r="BD56" s="118"/>
+      <c r="BE56" s="118"/>
+      <c r="BF56" s="118"/>
+      <c r="BG56" s="118"/>
+      <c r="BH56" s="118"/>
+      <c r="BI56" s="118"/>
+      <c r="BJ56" s="102"/>
+    </row>
+    <row r="57" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M57" s="16"/>
       <c r="AD57" s="102"/>
       <c r="AE57" s="106"/>
       <c r="AT57" s="102"/>
-    </row>
-    <row r="58" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU57" s="106"/>
+      <c r="AV57" s="118"/>
+      <c r="AW57" s="118"/>
+      <c r="AX57" s="118"/>
+      <c r="AY57" s="118"/>
+      <c r="AZ57" s="118"/>
+      <c r="BA57" s="118"/>
+      <c r="BB57" s="118"/>
+      <c r="BC57" s="118"/>
+      <c r="BD57" s="118"/>
+      <c r="BE57" s="118"/>
+      <c r="BF57" s="118"/>
+      <c r="BG57" s="118"/>
+      <c r="BH57" s="118"/>
+      <c r="BI57" s="118"/>
+      <c r="BJ57" s="102"/>
+    </row>
+    <row r="58" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M58" s="16"/>
       <c r="AD58" s="102"/>
       <c r="AE58" s="106"/>
       <c r="AT58" s="102"/>
-    </row>
-    <row r="59" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU58" s="106"/>
+      <c r="AV58" s="118"/>
+      <c r="AW58" s="118"/>
+      <c r="AX58" s="118"/>
+      <c r="AY58" s="118"/>
+      <c r="AZ58" s="118"/>
+      <c r="BA58" s="118"/>
+      <c r="BB58" s="118"/>
+      <c r="BC58" s="118"/>
+      <c r="BD58" s="118"/>
+      <c r="BE58" s="118"/>
+      <c r="BF58" s="118"/>
+      <c r="BG58" s="118"/>
+      <c r="BH58" s="118"/>
+      <c r="BI58" s="118"/>
+      <c r="BJ58" s="102"/>
+    </row>
+    <row r="59" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M59" s="16"/>
       <c r="AD59" s="102"/>
       <c r="AE59" s="106"/>
       <c r="AT59" s="102"/>
-    </row>
-    <row r="60" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU59" s="106"/>
+      <c r="AV59" s="118"/>
+      <c r="AW59" s="118"/>
+      <c r="AX59" s="118"/>
+      <c r="AY59" s="118"/>
+      <c r="AZ59" s="118"/>
+      <c r="BA59" s="118"/>
+      <c r="BB59" s="118"/>
+      <c r="BC59" s="118"/>
+      <c r="BD59" s="118"/>
+      <c r="BE59" s="118"/>
+      <c r="BF59" s="118"/>
+      <c r="BG59" s="118"/>
+      <c r="BH59" s="118"/>
+      <c r="BI59" s="118"/>
+      <c r="BJ59" s="102"/>
+    </row>
+    <row r="60" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M60" s="16"/>
       <c r="AD60" s="102"/>
       <c r="AE60" s="106"/>
       <c r="AT60" s="102"/>
-    </row>
-    <row r="61" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU60" s="106"/>
+      <c r="AV60" s="118"/>
+      <c r="AW60" s="118"/>
+      <c r="AX60" s="118"/>
+      <c r="AY60" s="118"/>
+      <c r="AZ60" s="118"/>
+      <c r="BA60" s="118"/>
+      <c r="BB60" s="118"/>
+      <c r="BC60" s="118"/>
+      <c r="BD60" s="118"/>
+      <c r="BE60" s="118"/>
+      <c r="BF60" s="118"/>
+      <c r="BG60" s="118"/>
+      <c r="BH60" s="118"/>
+      <c r="BI60" s="118"/>
+      <c r="BJ60" s="102"/>
+    </row>
+    <row r="61" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M61" s="16"/>
       <c r="AD61" s="102"/>
       <c r="AE61" s="106"/>
       <c r="AT61" s="102"/>
-    </row>
-    <row r="62" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU61" s="106"/>
+      <c r="AV61" s="118"/>
+      <c r="AW61" s="118"/>
+      <c r="AX61" s="118"/>
+      <c r="AY61" s="118"/>
+      <c r="AZ61" s="118"/>
+      <c r="BA61" s="118"/>
+      <c r="BB61" s="118"/>
+      <c r="BC61" s="118"/>
+      <c r="BD61" s="118"/>
+      <c r="BE61" s="118"/>
+      <c r="BF61" s="118"/>
+      <c r="BG61" s="118"/>
+      <c r="BH61" s="118"/>
+      <c r="BI61" s="118"/>
+      <c r="BJ61" s="102"/>
+    </row>
+    <row r="62" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M62" s="16"/>
       <c r="AD62" s="102"/>
       <c r="AE62" s="106"/>
       <c r="AT62" s="102"/>
-    </row>
-    <row r="63" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU62" s="106"/>
+      <c r="AV62" s="118"/>
+      <c r="AW62" s="118"/>
+      <c r="AX62" s="118"/>
+      <c r="AY62" s="118"/>
+      <c r="AZ62" s="118"/>
+      <c r="BA62" s="118"/>
+      <c r="BB62" s="118"/>
+      <c r="BC62" s="118"/>
+      <c r="BD62" s="118"/>
+      <c r="BE62" s="118"/>
+      <c r="BF62" s="118"/>
+      <c r="BG62" s="118"/>
+      <c r="BH62" s="118"/>
+      <c r="BI62" s="118"/>
+      <c r="BJ62" s="102"/>
+    </row>
+    <row r="63" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M63" s="16"/>
       <c r="AD63" s="102"/>
       <c r="AE63" s="106"/>
       <c r="AT63" s="102"/>
-    </row>
-    <row r="64" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU63" s="106"/>
+      <c r="AV63" s="118"/>
+      <c r="AW63" s="118"/>
+      <c r="AX63" s="118"/>
+      <c r="AY63" s="118"/>
+      <c r="AZ63" s="118"/>
+      <c r="BA63" s="118"/>
+      <c r="BB63" s="118"/>
+      <c r="BC63" s="118"/>
+      <c r="BD63" s="118"/>
+      <c r="BE63" s="118"/>
+      <c r="BF63" s="118"/>
+      <c r="BG63" s="118"/>
+      <c r="BH63" s="118"/>
+      <c r="BI63" s="118"/>
+      <c r="BJ63" s="102"/>
+    </row>
+    <row r="64" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M64" s="16"/>
       <c r="AD64" s="102"/>
       <c r="AE64" s="106"/>
       <c r="AT64" s="102"/>
-    </row>
-    <row r="65" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU64" s="106"/>
+      <c r="AV64" s="118"/>
+      <c r="AW64" s="118"/>
+      <c r="AX64" s="118"/>
+      <c r="AY64" s="118"/>
+      <c r="AZ64" s="118"/>
+      <c r="BA64" s="118"/>
+      <c r="BB64" s="118"/>
+      <c r="BC64" s="118"/>
+      <c r="BD64" s="118"/>
+      <c r="BE64" s="118"/>
+      <c r="BF64" s="118"/>
+      <c r="BG64" s="118"/>
+      <c r="BH64" s="118"/>
+      <c r="BI64" s="118"/>
+      <c r="BJ64" s="102"/>
+    </row>
+    <row r="65" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M65" s="16"/>
       <c r="AD65" s="102"/>
       <c r="AE65" s="106"/>
       <c r="AT65" s="102"/>
-    </row>
-    <row r="66" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU65" s="106"/>
+      <c r="AV65" s="118"/>
+      <c r="AW65" s="118"/>
+      <c r="AX65" s="118"/>
+      <c r="AY65" s="118"/>
+      <c r="AZ65" s="118"/>
+      <c r="BA65" s="118"/>
+      <c r="BB65" s="118"/>
+      <c r="BC65" s="118"/>
+      <c r="BD65" s="118"/>
+      <c r="BE65" s="118"/>
+      <c r="BF65" s="118"/>
+      <c r="BG65" s="118"/>
+      <c r="BH65" s="118"/>
+      <c r="BI65" s="118"/>
+      <c r="BJ65" s="102"/>
+    </row>
+    <row r="66" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M66" s="16"/>
       <c r="AD66" s="102"/>
       <c r="AE66" s="106"/>
       <c r="AT66" s="102"/>
-    </row>
-    <row r="67" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU66" s="106"/>
+      <c r="AV66" s="118"/>
+      <c r="AW66" s="118"/>
+      <c r="AX66" s="118"/>
+      <c r="AY66" s="118"/>
+      <c r="AZ66" s="118"/>
+      <c r="BA66" s="118"/>
+      <c r="BB66" s="118"/>
+      <c r="BC66" s="118"/>
+      <c r="BD66" s="118"/>
+      <c r="BE66" s="118"/>
+      <c r="BF66" s="118"/>
+      <c r="BG66" s="118"/>
+      <c r="BH66" s="118"/>
+      <c r="BI66" s="118"/>
+      <c r="BJ66" s="102"/>
+    </row>
+    <row r="67" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M67" s="16"/>
       <c r="AD67" s="102"/>
       <c r="AE67" s="106"/>
       <c r="AT67" s="102"/>
-    </row>
-    <row r="68" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU67" s="106"/>
+      <c r="AV67" s="118"/>
+      <c r="AW67" s="118"/>
+      <c r="AX67" s="118"/>
+      <c r="AY67" s="118"/>
+      <c r="AZ67" s="118"/>
+      <c r="BA67" s="118"/>
+      <c r="BB67" s="118"/>
+      <c r="BC67" s="118"/>
+      <c r="BD67" s="118"/>
+      <c r="BE67" s="118"/>
+      <c r="BF67" s="118"/>
+      <c r="BG67" s="118"/>
+      <c r="BH67" s="118"/>
+      <c r="BI67" s="118"/>
+      <c r="BJ67" s="102"/>
+    </row>
+    <row r="68" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M68" s="16"/>
       <c r="N68" s="94" t="s">
         <v>49</v>
@@ -12446,8 +14096,24 @@
       <c r="AD68" s="102"/>
       <c r="AE68" s="106"/>
       <c r="AT68" s="102"/>
-    </row>
-    <row r="69" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU68" s="106"/>
+      <c r="AV68" s="118"/>
+      <c r="AW68" s="118"/>
+      <c r="AX68" s="118"/>
+      <c r="AY68" s="118"/>
+      <c r="AZ68" s="118"/>
+      <c r="BA68" s="118"/>
+      <c r="BB68" s="118"/>
+      <c r="BC68" s="118"/>
+      <c r="BD68" s="118"/>
+      <c r="BE68" s="118"/>
+      <c r="BF68" s="118"/>
+      <c r="BG68" s="118"/>
+      <c r="BH68" s="118"/>
+      <c r="BI68" s="118"/>
+      <c r="BJ68" s="102"/>
+    </row>
+    <row r="69" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M69" s="16"/>
       <c r="AD69" s="102"/>
       <c r="AE69" s="106"/>
@@ -12458,98 +14124,342 @@
         <v>60</v>
       </c>
       <c r="AT69" s="102"/>
-    </row>
-    <row r="70" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU69" s="106"/>
+      <c r="AV69" s="118"/>
+      <c r="AW69" s="118"/>
+      <c r="AX69" s="118"/>
+      <c r="AY69" s="118"/>
+      <c r="AZ69" s="118"/>
+      <c r="BA69" s="118"/>
+      <c r="BB69" s="118"/>
+      <c r="BC69" s="118"/>
+      <c r="BD69" s="118"/>
+      <c r="BE69" s="118"/>
+      <c r="BF69" s="118"/>
+      <c r="BG69" s="118"/>
+      <c r="BH69" s="118"/>
+      <c r="BI69" s="118"/>
+      <c r="BJ69" s="102"/>
+    </row>
+    <row r="70" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M70" s="16"/>
       <c r="AD70" s="102"/>
       <c r="AE70" s="106"/>
       <c r="AT70" s="102"/>
-      <c r="AV70" s="94" t="s">
+      <c r="AU70" s="106"/>
+      <c r="AV70" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="BC70" s="94" t="s">
+      <c r="AW70" s="118"/>
+      <c r="AX70" s="118"/>
+      <c r="AY70" s="118"/>
+      <c r="AZ70" s="118"/>
+      <c r="BA70" s="118"/>
+      <c r="BB70" s="118"/>
+      <c r="BC70" s="117" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="BD70" s="118"/>
+      <c r="BE70" s="118"/>
+      <c r="BF70" s="118"/>
+      <c r="BG70" s="118"/>
+      <c r="BH70" s="118"/>
+      <c r="BI70" s="118"/>
+      <c r="BJ70" s="102"/>
+      <c r="BL70" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS70" s="94" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M71" s="16"/>
       <c r="AD71" s="102"/>
       <c r="AE71" s="106"/>
       <c r="AT71" s="102"/>
-    </row>
-    <row r="72" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU71" s="106"/>
+      <c r="AV71" s="118"/>
+      <c r="AW71" s="118"/>
+      <c r="AX71" s="118"/>
+      <c r="AY71" s="118"/>
+      <c r="AZ71" s="118"/>
+      <c r="BA71" s="118"/>
+      <c r="BB71" s="118"/>
+      <c r="BC71" s="118"/>
+      <c r="BD71" s="118"/>
+      <c r="BE71" s="118"/>
+      <c r="BF71" s="118"/>
+      <c r="BG71" s="118"/>
+      <c r="BH71" s="118"/>
+      <c r="BI71" s="118"/>
+      <c r="BJ71" s="102"/>
+    </row>
+    <row r="72" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M72" s="16"/>
       <c r="AD72" s="102"/>
       <c r="AE72" s="106"/>
       <c r="AT72" s="102"/>
-    </row>
-    <row r="73" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU72" s="106"/>
+      <c r="AV72" s="118"/>
+      <c r="AW72" s="118"/>
+      <c r="AX72" s="118"/>
+      <c r="AY72" s="118"/>
+      <c r="AZ72" s="118"/>
+      <c r="BA72" s="118"/>
+      <c r="BB72" s="118"/>
+      <c r="BC72" s="118"/>
+      <c r="BD72" s="118"/>
+      <c r="BE72" s="118"/>
+      <c r="BF72" s="118"/>
+      <c r="BG72" s="118"/>
+      <c r="BH72" s="118"/>
+      <c r="BI72" s="118"/>
+      <c r="BJ72" s="102"/>
+    </row>
+    <row r="73" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M73" s="16"/>
       <c r="AD73" s="102"/>
       <c r="AE73" s="106"/>
       <c r="AT73" s="102"/>
-    </row>
-    <row r="74" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU73" s="106"/>
+      <c r="AV73" s="118"/>
+      <c r="AW73" s="118"/>
+      <c r="AX73" s="118"/>
+      <c r="AY73" s="118"/>
+      <c r="AZ73" s="118"/>
+      <c r="BA73" s="118"/>
+      <c r="BB73" s="118"/>
+      <c r="BC73" s="118"/>
+      <c r="BD73" s="118"/>
+      <c r="BE73" s="118"/>
+      <c r="BF73" s="118"/>
+      <c r="BG73" s="118"/>
+      <c r="BH73" s="118"/>
+      <c r="BI73" s="118"/>
+      <c r="BJ73" s="102"/>
+    </row>
+    <row r="74" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M74" s="16"/>
       <c r="AD74" s="102"/>
       <c r="AE74" s="106"/>
       <c r="AT74" s="102"/>
-    </row>
-    <row r="75" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU74" s="106"/>
+      <c r="AV74" s="118"/>
+      <c r="AW74" s="118"/>
+      <c r="AX74" s="118"/>
+      <c r="AY74" s="118"/>
+      <c r="AZ74" s="118"/>
+      <c r="BA74" s="118"/>
+      <c r="BB74" s="118"/>
+      <c r="BC74" s="118"/>
+      <c r="BD74" s="118"/>
+      <c r="BE74" s="118"/>
+      <c r="BF74" s="118"/>
+      <c r="BG74" s="118"/>
+      <c r="BH74" s="118"/>
+      <c r="BI74" s="118"/>
+      <c r="BJ74" s="102"/>
+    </row>
+    <row r="75" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M75" s="16"/>
       <c r="AD75" s="102"/>
       <c r="AE75" s="106"/>
       <c r="AT75" s="102"/>
-    </row>
-    <row r="76" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU75" s="106"/>
+      <c r="AV75" s="118"/>
+      <c r="AW75" s="118"/>
+      <c r="AX75" s="118"/>
+      <c r="AY75" s="118"/>
+      <c r="AZ75" s="118"/>
+      <c r="BA75" s="118"/>
+      <c r="BB75" s="118"/>
+      <c r="BC75" s="118"/>
+      <c r="BD75" s="118"/>
+      <c r="BE75" s="118"/>
+      <c r="BF75" s="118"/>
+      <c r="BG75" s="118"/>
+      <c r="BH75" s="118"/>
+      <c r="BI75" s="118"/>
+      <c r="BJ75" s="102"/>
+    </row>
+    <row r="76" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M76" s="16"/>
       <c r="AD76" s="102"/>
       <c r="AE76" s="106"/>
       <c r="AT76" s="102"/>
-    </row>
-    <row r="77" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU76" s="106"/>
+      <c r="AV76" s="118"/>
+      <c r="AW76" s="118"/>
+      <c r="AX76" s="118"/>
+      <c r="AY76" s="118"/>
+      <c r="AZ76" s="118"/>
+      <c r="BA76" s="118"/>
+      <c r="BB76" s="118"/>
+      <c r="BC76" s="118"/>
+      <c r="BD76" s="118"/>
+      <c r="BE76" s="118"/>
+      <c r="BF76" s="118"/>
+      <c r="BG76" s="118"/>
+      <c r="BH76" s="118"/>
+      <c r="BI76" s="118"/>
+      <c r="BJ76" s="102"/>
+    </row>
+    <row r="77" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M77" s="16"/>
       <c r="AD77" s="102"/>
       <c r="AE77" s="106"/>
       <c r="AT77" s="102"/>
-    </row>
-    <row r="78" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU77" s="106"/>
+      <c r="AV77" s="118"/>
+      <c r="AW77" s="118"/>
+      <c r="AX77" s="118"/>
+      <c r="AY77" s="118"/>
+      <c r="AZ77" s="118"/>
+      <c r="BA77" s="118"/>
+      <c r="BB77" s="118"/>
+      <c r="BC77" s="118"/>
+      <c r="BD77" s="118"/>
+      <c r="BE77" s="118"/>
+      <c r="BF77" s="118"/>
+      <c r="BG77" s="118"/>
+      <c r="BH77" s="118"/>
+      <c r="BI77" s="118"/>
+      <c r="BJ77" s="102"/>
+    </row>
+    <row r="78" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M78" s="16"/>
       <c r="AD78" s="102"/>
       <c r="AE78" s="106"/>
       <c r="AT78" s="102"/>
-    </row>
-    <row r="79" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU78" s="106"/>
+      <c r="AV78" s="118"/>
+      <c r="AW78" s="118"/>
+      <c r="AX78" s="118"/>
+      <c r="AY78" s="118"/>
+      <c r="AZ78" s="118"/>
+      <c r="BA78" s="118"/>
+      <c r="BB78" s="118"/>
+      <c r="BC78" s="118"/>
+      <c r="BD78" s="118"/>
+      <c r="BE78" s="118"/>
+      <c r="BF78" s="118"/>
+      <c r="BG78" s="118"/>
+      <c r="BH78" s="118"/>
+      <c r="BI78" s="118"/>
+      <c r="BJ78" s="102"/>
+    </row>
+    <row r="79" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M79" s="16"/>
       <c r="AD79" s="102"/>
       <c r="AE79" s="106"/>
       <c r="AT79" s="102"/>
-    </row>
-    <row r="80" spans="13:55" x14ac:dyDescent="0.25">
+      <c r="AU79" s="106"/>
+      <c r="AV79" s="118"/>
+      <c r="AW79" s="118"/>
+      <c r="AX79" s="118"/>
+      <c r="AY79" s="118"/>
+      <c r="AZ79" s="118"/>
+      <c r="BA79" s="118"/>
+      <c r="BB79" s="118"/>
+      <c r="BC79" s="118"/>
+      <c r="BD79" s="118"/>
+      <c r="BE79" s="118"/>
+      <c r="BF79" s="118"/>
+      <c r="BG79" s="118"/>
+      <c r="BH79" s="118"/>
+      <c r="BI79" s="118"/>
+      <c r="BJ79" s="102"/>
+    </row>
+    <row r="80" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M80" s="16"/>
       <c r="AD80" s="102"/>
       <c r="AE80" s="106"/>
       <c r="AT80" s="102"/>
-    </row>
-    <row r="81" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU80" s="106"/>
+      <c r="AV80" s="118"/>
+      <c r="AW80" s="118"/>
+      <c r="AX80" s="118"/>
+      <c r="AY80" s="118"/>
+      <c r="AZ80" s="118"/>
+      <c r="BA80" s="118"/>
+      <c r="BB80" s="118"/>
+      <c r="BC80" s="118"/>
+      <c r="BD80" s="118"/>
+      <c r="BE80" s="118"/>
+      <c r="BF80" s="118"/>
+      <c r="BG80" s="118"/>
+      <c r="BH80" s="118"/>
+      <c r="BI80" s="118"/>
+      <c r="BJ80" s="102"/>
+    </row>
+    <row r="81" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M81" s="16"/>
       <c r="AD81" s="102"/>
       <c r="AE81" s="106"/>
       <c r="AT81" s="102"/>
-    </row>
-    <row r="82" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU81" s="106"/>
+      <c r="AV81" s="118"/>
+      <c r="AW81" s="118"/>
+      <c r="AX81" s="118"/>
+      <c r="AY81" s="118"/>
+      <c r="AZ81" s="118"/>
+      <c r="BA81" s="118"/>
+      <c r="BB81" s="118"/>
+      <c r="BC81" s="118"/>
+      <c r="BD81" s="118"/>
+      <c r="BE81" s="118"/>
+      <c r="BF81" s="118"/>
+      <c r="BG81" s="118"/>
+      <c r="BH81" s="118"/>
+      <c r="BI81" s="118"/>
+      <c r="BJ81" s="102"/>
+    </row>
+    <row r="82" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M82" s="16"/>
       <c r="AD82" s="102"/>
       <c r="AE82" s="106"/>
       <c r="AT82" s="102"/>
-    </row>
-    <row r="83" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU82" s="106"/>
+      <c r="AV82" s="118"/>
+      <c r="AW82" s="118"/>
+      <c r="AX82" s="118"/>
+      <c r="AY82" s="118"/>
+      <c r="AZ82" s="118"/>
+      <c r="BA82" s="118"/>
+      <c r="BB82" s="118"/>
+      <c r="BC82" s="118"/>
+      <c r="BD82" s="118"/>
+      <c r="BE82" s="118"/>
+      <c r="BF82" s="118"/>
+      <c r="BG82" s="118"/>
+      <c r="BH82" s="118"/>
+      <c r="BI82" s="118"/>
+      <c r="BJ82" s="102"/>
+    </row>
+    <row r="83" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M83" s="16"/>
       <c r="AD83" s="102"/>
       <c r="AE83" s="106"/>
       <c r="AT83" s="102"/>
-    </row>
-    <row r="84" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU83" s="106"/>
+      <c r="AV83" s="118"/>
+      <c r="AW83" s="118"/>
+      <c r="AX83" s="118"/>
+      <c r="AY83" s="118"/>
+      <c r="AZ83" s="118"/>
+      <c r="BA83" s="118"/>
+      <c r="BB83" s="118"/>
+      <c r="BC83" s="118"/>
+      <c r="BD83" s="118"/>
+      <c r="BE83" s="118"/>
+      <c r="BF83" s="118"/>
+      <c r="BG83" s="118"/>
+      <c r="BH83" s="118"/>
+      <c r="BI83" s="118"/>
+      <c r="BJ83" s="102"/>
+    </row>
+    <row r="84" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M84" s="16"/>
       <c r="O84" s="94" t="s">
         <v>51</v>
@@ -12560,8 +14470,24 @@
       <c r="AD84" s="102"/>
       <c r="AE84" s="106"/>
       <c r="AT84" s="102"/>
-    </row>
-    <row r="85" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU84" s="106"/>
+      <c r="AV84" s="118"/>
+      <c r="AW84" s="118"/>
+      <c r="AX84" s="118"/>
+      <c r="AY84" s="118"/>
+      <c r="AZ84" s="118"/>
+      <c r="BA84" s="118"/>
+      <c r="BB84" s="118"/>
+      <c r="BC84" s="118"/>
+      <c r="BD84" s="118"/>
+      <c r="BE84" s="118"/>
+      <c r="BF84" s="118"/>
+      <c r="BG84" s="118"/>
+      <c r="BH84" s="118"/>
+      <c r="BI84" s="118"/>
+      <c r="BJ84" s="102"/>
+    </row>
+    <row r="85" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M85" s="16"/>
       <c r="AD85" s="102"/>
       <c r="AE85" s="106"/>
@@ -12572,92 +14498,342 @@
         <v>62</v>
       </c>
       <c r="AT85" s="102"/>
-    </row>
-    <row r="86" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU85" s="106"/>
+      <c r="AV85" s="118"/>
+      <c r="AW85" s="118"/>
+      <c r="AX85" s="118"/>
+      <c r="AY85" s="118"/>
+      <c r="AZ85" s="118"/>
+      <c r="BA85" s="118"/>
+      <c r="BB85" s="118"/>
+      <c r="BC85" s="118"/>
+      <c r="BD85" s="118"/>
+      <c r="BE85" s="118"/>
+      <c r="BF85" s="118"/>
+      <c r="BG85" s="118"/>
+      <c r="BH85" s="118"/>
+      <c r="BI85" s="118"/>
+      <c r="BJ85" s="102"/>
+    </row>
+    <row r="86" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M86" s="16"/>
       <c r="AD86" s="102"/>
       <c r="AE86" s="106"/>
       <c r="AT86" s="102"/>
-    </row>
-    <row r="87" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU86" s="106"/>
+      <c r="AV86" s="118"/>
+      <c r="AW86" s="118"/>
+      <c r="AX86" s="118"/>
+      <c r="AY86" s="118"/>
+      <c r="AZ86" s="118"/>
+      <c r="BA86" s="118"/>
+      <c r="BB86" s="118"/>
+      <c r="BC86" s="118"/>
+      <c r="BD86" s="118"/>
+      <c r="BE86" s="118"/>
+      <c r="BF86" s="118"/>
+      <c r="BG86" s="118"/>
+      <c r="BH86" s="118"/>
+      <c r="BI86" s="118"/>
+      <c r="BJ86" s="102"/>
+    </row>
+    <row r="87" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M87" s="16"/>
       <c r="AD87" s="102"/>
       <c r="AE87" s="106"/>
       <c r="AT87" s="102"/>
-    </row>
-    <row r="88" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU87" s="106"/>
+      <c r="AV87" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW87" s="118"/>
+      <c r="AX87" s="118"/>
+      <c r="AY87" s="118"/>
+      <c r="AZ87" s="118"/>
+      <c r="BA87" s="118"/>
+      <c r="BB87" s="118"/>
+      <c r="BC87" s="118"/>
+      <c r="BD87" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE87" s="118"/>
+      <c r="BF87" s="118"/>
+      <c r="BG87" s="118"/>
+      <c r="BH87" s="118"/>
+      <c r="BI87" s="118"/>
+      <c r="BJ87" s="102"/>
+    </row>
+    <row r="88" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M88" s="16"/>
       <c r="AD88" s="102"/>
       <c r="AE88" s="106"/>
       <c r="AT88" s="102"/>
-    </row>
-    <row r="89" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU88" s="106"/>
+      <c r="AV88" s="118"/>
+      <c r="AW88" s="118"/>
+      <c r="AX88" s="118"/>
+      <c r="AY88" s="118"/>
+      <c r="AZ88" s="118"/>
+      <c r="BA88" s="118"/>
+      <c r="BB88" s="118"/>
+      <c r="BC88" s="118"/>
+      <c r="BD88" s="118"/>
+      <c r="BE88" s="118"/>
+      <c r="BF88" s="118"/>
+      <c r="BG88" s="118"/>
+      <c r="BH88" s="118"/>
+      <c r="BI88" s="118"/>
+      <c r="BJ88" s="102"/>
+      <c r="BL88" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M89" s="16"/>
       <c r="AD89" s="102"/>
       <c r="AE89" s="106"/>
       <c r="AT89" s="102"/>
-    </row>
-    <row r="90" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU89" s="106"/>
+      <c r="AV89" s="118"/>
+      <c r="AW89" s="118"/>
+      <c r="AX89" s="118"/>
+      <c r="AY89" s="118"/>
+      <c r="AZ89" s="118"/>
+      <c r="BA89" s="118"/>
+      <c r="BB89" s="118"/>
+      <c r="BC89" s="118"/>
+      <c r="BD89" s="118"/>
+      <c r="BE89" s="118"/>
+      <c r="BF89" s="118"/>
+      <c r="BG89" s="118"/>
+      <c r="BH89" s="118"/>
+      <c r="BI89" s="118"/>
+      <c r="BJ89" s="102"/>
+    </row>
+    <row r="90" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M90" s="16"/>
       <c r="AD90" s="102"/>
       <c r="AE90" s="106"/>
       <c r="AT90" s="102"/>
-    </row>
-    <row r="91" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU90" s="106"/>
+      <c r="AV90" s="118"/>
+      <c r="AW90" s="118"/>
+      <c r="AX90" s="118"/>
+      <c r="AY90" s="118"/>
+      <c r="AZ90" s="118"/>
+      <c r="BA90" s="118"/>
+      <c r="BB90" s="118"/>
+      <c r="BC90" s="118"/>
+      <c r="BD90" s="118"/>
+      <c r="BE90" s="118"/>
+      <c r="BF90" s="118"/>
+      <c r="BG90" s="118"/>
+      <c r="BH90" s="118"/>
+      <c r="BI90" s="118"/>
+      <c r="BJ90" s="102"/>
+    </row>
+    <row r="91" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M91" s="16"/>
       <c r="AD91" s="102"/>
       <c r="AE91" s="106"/>
       <c r="AT91" s="102"/>
-    </row>
-    <row r="92" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU91" s="106"/>
+      <c r="AV91" s="118"/>
+      <c r="AW91" s="118"/>
+      <c r="AX91" s="118"/>
+      <c r="AY91" s="118"/>
+      <c r="AZ91" s="118"/>
+      <c r="BA91" s="118"/>
+      <c r="BB91" s="118"/>
+      <c r="BC91" s="118"/>
+      <c r="BD91" s="118"/>
+      <c r="BE91" s="118"/>
+      <c r="BF91" s="118"/>
+      <c r="BG91" s="118"/>
+      <c r="BH91" s="118"/>
+      <c r="BI91" s="118"/>
+      <c r="BJ91" s="102"/>
+    </row>
+    <row r="92" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M92" s="16"/>
       <c r="AD92" s="102"/>
       <c r="AE92" s="106"/>
       <c r="AT92" s="102"/>
-    </row>
-    <row r="93" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU92" s="106"/>
+      <c r="AV92" s="118"/>
+      <c r="AW92" s="118"/>
+      <c r="AX92" s="118"/>
+      <c r="AY92" s="118"/>
+      <c r="AZ92" s="118"/>
+      <c r="BA92" s="118"/>
+      <c r="BB92" s="118"/>
+      <c r="BC92" s="118"/>
+      <c r="BD92" s="118"/>
+      <c r="BE92" s="118"/>
+      <c r="BF92" s="118"/>
+      <c r="BG92" s="118"/>
+      <c r="BH92" s="118"/>
+      <c r="BI92" s="118"/>
+      <c r="BJ92" s="102"/>
+    </row>
+    <row r="93" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M93" s="16"/>
       <c r="AD93" s="102"/>
       <c r="AE93" s="106"/>
       <c r="AT93" s="102"/>
-    </row>
-    <row r="94" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU93" s="106"/>
+      <c r="AV93" s="118"/>
+      <c r="AW93" s="118"/>
+      <c r="AX93" s="118"/>
+      <c r="AY93" s="118"/>
+      <c r="AZ93" s="118"/>
+      <c r="BA93" s="118"/>
+      <c r="BB93" s="118"/>
+      <c r="BC93" s="118"/>
+      <c r="BD93" s="118"/>
+      <c r="BE93" s="118"/>
+      <c r="BF93" s="118"/>
+      <c r="BG93" s="118"/>
+      <c r="BH93" s="118"/>
+      <c r="BI93" s="118"/>
+      <c r="BJ93" s="102"/>
+    </row>
+    <row r="94" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M94" s="16"/>
       <c r="AD94" s="102"/>
       <c r="AE94" s="106"/>
       <c r="AT94" s="102"/>
-    </row>
-    <row r="95" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU94" s="106"/>
+      <c r="AV94" s="118"/>
+      <c r="AW94" s="118"/>
+      <c r="AX94" s="118"/>
+      <c r="AY94" s="118"/>
+      <c r="AZ94" s="118"/>
+      <c r="BA94" s="118"/>
+      <c r="BB94" s="118"/>
+      <c r="BC94" s="118"/>
+      <c r="BD94" s="118"/>
+      <c r="BE94" s="118"/>
+      <c r="BF94" s="118"/>
+      <c r="BG94" s="118"/>
+      <c r="BH94" s="118"/>
+      <c r="BI94" s="118"/>
+      <c r="BJ94" s="102"/>
+    </row>
+    <row r="95" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M95" s="16"/>
       <c r="AD95" s="102"/>
       <c r="AE95" s="106"/>
       <c r="AT95" s="102"/>
-    </row>
-    <row r="96" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU95" s="106"/>
+      <c r="AV95" s="118"/>
+      <c r="AW95" s="118"/>
+      <c r="AX95" s="118"/>
+      <c r="AY95" s="118"/>
+      <c r="AZ95" s="118"/>
+      <c r="BA95" s="118"/>
+      <c r="BB95" s="118"/>
+      <c r="BC95" s="118"/>
+      <c r="BD95" s="118"/>
+      <c r="BE95" s="118"/>
+      <c r="BF95" s="118"/>
+      <c r="BG95" s="118"/>
+      <c r="BH95" s="118"/>
+      <c r="BI95" s="118"/>
+      <c r="BJ95" s="102"/>
+    </row>
+    <row r="96" spans="13:71" x14ac:dyDescent="0.25">
       <c r="M96" s="16"/>
       <c r="AD96" s="102"/>
       <c r="AE96" s="106"/>
       <c r="AT96" s="102"/>
-    </row>
-    <row r="97" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU96" s="106"/>
+      <c r="AV96" s="118"/>
+      <c r="AW96" s="118"/>
+      <c r="AX96" s="118"/>
+      <c r="AY96" s="118"/>
+      <c r="AZ96" s="118"/>
+      <c r="BA96" s="118"/>
+      <c r="BB96" s="118"/>
+      <c r="BC96" s="118"/>
+      <c r="BD96" s="118"/>
+      <c r="BE96" s="118"/>
+      <c r="BF96" s="118"/>
+      <c r="BG96" s="118"/>
+      <c r="BH96" s="118"/>
+      <c r="BI96" s="118"/>
+      <c r="BJ96" s="102"/>
+    </row>
+    <row r="97" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M97" s="16"/>
       <c r="AD97" s="102"/>
       <c r="AE97" s="106"/>
       <c r="AT97" s="102"/>
-    </row>
-    <row r="98" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU97" s="106"/>
+      <c r="AV97" s="118"/>
+      <c r="AW97" s="118"/>
+      <c r="AX97" s="118"/>
+      <c r="AY97" s="118"/>
+      <c r="AZ97" s="118"/>
+      <c r="BA97" s="118"/>
+      <c r="BB97" s="118"/>
+      <c r="BC97" s="118"/>
+      <c r="BD97" s="118"/>
+      <c r="BE97" s="118"/>
+      <c r="BF97" s="118"/>
+      <c r="BG97" s="118"/>
+      <c r="BH97" s="118"/>
+      <c r="BI97" s="118"/>
+      <c r="BJ97" s="102"/>
+    </row>
+    <row r="98" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M98" s="16"/>
       <c r="AD98" s="102"/>
       <c r="AE98" s="106"/>
       <c r="AT98" s="102"/>
-    </row>
-    <row r="99" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU98" s="106"/>
+      <c r="AV98" s="118"/>
+      <c r="AW98" s="118"/>
+      <c r="AX98" s="118"/>
+      <c r="AY98" s="118"/>
+      <c r="AZ98" s="118"/>
+      <c r="BA98" s="118"/>
+      <c r="BB98" s="118"/>
+      <c r="BC98" s="118"/>
+      <c r="BD98" s="118"/>
+      <c r="BE98" s="118"/>
+      <c r="BF98" s="118"/>
+      <c r="BG98" s="118"/>
+      <c r="BH98" s="118"/>
+      <c r="BI98" s="118"/>
+      <c r="BJ98" s="102"/>
+    </row>
+    <row r="99" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M99" s="16"/>
       <c r="AD99" s="102"/>
       <c r="AE99" s="106"/>
       <c r="AT99" s="102"/>
-    </row>
-    <row r="100" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU99" s="106"/>
+      <c r="AV99" s="118"/>
+      <c r="AW99" s="118"/>
+      <c r="AX99" s="118"/>
+      <c r="AY99" s="118"/>
+      <c r="AZ99" s="118"/>
+      <c r="BA99" s="118"/>
+      <c r="BB99" s="118"/>
+      <c r="BC99" s="118"/>
+      <c r="BD99" s="118"/>
+      <c r="BE99" s="118"/>
+      <c r="BF99" s="118"/>
+      <c r="BG99" s="118"/>
+      <c r="BH99" s="118"/>
+      <c r="BI99" s="118"/>
+      <c r="BJ99" s="102"/>
+    </row>
+    <row r="100" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M100" s="16"/>
       <c r="O100" s="94" t="s">
         <v>53</v>
@@ -12671,8 +14847,24 @@
         <v>63</v>
       </c>
       <c r="AT100" s="102"/>
-    </row>
-    <row r="101" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU100" s="106"/>
+      <c r="AV100" s="118"/>
+      <c r="AW100" s="118"/>
+      <c r="AX100" s="118"/>
+      <c r="AY100" s="118"/>
+      <c r="AZ100" s="118"/>
+      <c r="BA100" s="118"/>
+      <c r="BB100" s="118"/>
+      <c r="BC100" s="118"/>
+      <c r="BD100" s="118"/>
+      <c r="BE100" s="118"/>
+      <c r="BF100" s="118"/>
+      <c r="BG100" s="118"/>
+      <c r="BH100" s="118"/>
+      <c r="BI100" s="118"/>
+      <c r="BJ100" s="102"/>
+    </row>
+    <row r="101" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M101" s="16"/>
       <c r="AD101" s="102"/>
       <c r="AE101" s="106"/>
@@ -12680,92 +14872,336 @@
         <v>64</v>
       </c>
       <c r="AT101" s="102"/>
-    </row>
-    <row r="102" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU101" s="106"/>
+      <c r="AV101" s="118"/>
+      <c r="AW101" s="118"/>
+      <c r="AX101" s="118"/>
+      <c r="AY101" s="118"/>
+      <c r="AZ101" s="118"/>
+      <c r="BA101" s="118"/>
+      <c r="BB101" s="118"/>
+      <c r="BC101" s="118"/>
+      <c r="BD101" s="118"/>
+      <c r="BE101" s="118"/>
+      <c r="BF101" s="118"/>
+      <c r="BG101" s="118"/>
+      <c r="BH101" s="118"/>
+      <c r="BI101" s="118"/>
+      <c r="BJ101" s="102"/>
+    </row>
+    <row r="102" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M102" s="16"/>
       <c r="AD102" s="102"/>
       <c r="AE102" s="106"/>
       <c r="AT102" s="102"/>
-    </row>
-    <row r="103" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU102" s="106"/>
+      <c r="AV102" s="118"/>
+      <c r="AW102" s="118"/>
+      <c r="AX102" s="118"/>
+      <c r="AY102" s="118"/>
+      <c r="AZ102" s="118"/>
+      <c r="BA102" s="118"/>
+      <c r="BB102" s="118"/>
+      <c r="BC102" s="118"/>
+      <c r="BD102" s="118"/>
+      <c r="BE102" s="118"/>
+      <c r="BF102" s="118"/>
+      <c r="BG102" s="118"/>
+      <c r="BH102" s="118"/>
+      <c r="BI102" s="118"/>
+      <c r="BJ102" s="102"/>
+    </row>
+    <row r="103" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M103" s="16"/>
       <c r="AD103" s="102"/>
       <c r="AE103" s="106"/>
       <c r="AT103" s="102"/>
-    </row>
-    <row r="104" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU103" s="106"/>
+      <c r="AV103" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW103" s="118"/>
+      <c r="AX103" s="118"/>
+      <c r="AY103" s="118"/>
+      <c r="AZ103" s="118"/>
+      <c r="BA103" s="118"/>
+      <c r="BB103" s="118"/>
+      <c r="BC103" s="118"/>
+      <c r="BD103" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE103" s="118"/>
+      <c r="BF103" s="118"/>
+      <c r="BG103" s="118"/>
+      <c r="BH103" s="118"/>
+      <c r="BI103" s="118"/>
+      <c r="BJ103" s="102"/>
+    </row>
+    <row r="104" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M104" s="16"/>
       <c r="AD104" s="102"/>
       <c r="AE104" s="106"/>
       <c r="AT104" s="102"/>
-    </row>
-    <row r="105" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU104" s="106"/>
+      <c r="AV104" s="118"/>
+      <c r="AW104" s="118"/>
+      <c r="AX104" s="118"/>
+      <c r="AY104" s="118"/>
+      <c r="AZ104" s="118"/>
+      <c r="BA104" s="118"/>
+      <c r="BB104" s="118"/>
+      <c r="BC104" s="118"/>
+      <c r="BD104" s="118"/>
+      <c r="BE104" s="118"/>
+      <c r="BF104" s="118"/>
+      <c r="BG104" s="118"/>
+      <c r="BH104" s="118"/>
+      <c r="BI104" s="118"/>
+      <c r="BJ104" s="102"/>
+    </row>
+    <row r="105" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M105" s="16"/>
       <c r="AD105" s="102"/>
       <c r="AE105" s="106"/>
       <c r="AT105" s="102"/>
-    </row>
-    <row r="106" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU105" s="106"/>
+      <c r="AV105" s="118"/>
+      <c r="AW105" s="118"/>
+      <c r="AX105" s="118"/>
+      <c r="AY105" s="118"/>
+      <c r="AZ105" s="118"/>
+      <c r="BA105" s="118"/>
+      <c r="BB105" s="118"/>
+      <c r="BC105" s="118"/>
+      <c r="BD105" s="118"/>
+      <c r="BE105" s="118"/>
+      <c r="BF105" s="118"/>
+      <c r="BG105" s="118"/>
+      <c r="BH105" s="118"/>
+      <c r="BI105" s="118"/>
+      <c r="BJ105" s="102"/>
+    </row>
+    <row r="106" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M106" s="16"/>
       <c r="AD106" s="102"/>
       <c r="AE106" s="106"/>
       <c r="AT106" s="102"/>
-    </row>
-    <row r="107" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU106" s="106"/>
+      <c r="AV106" s="118"/>
+      <c r="AW106" s="118"/>
+      <c r="AX106" s="118"/>
+      <c r="AY106" s="118"/>
+      <c r="AZ106" s="118"/>
+      <c r="BA106" s="118"/>
+      <c r="BB106" s="118"/>
+      <c r="BC106" s="118"/>
+      <c r="BD106" s="118"/>
+      <c r="BE106" s="118"/>
+      <c r="BF106" s="118"/>
+      <c r="BG106" s="118"/>
+      <c r="BH106" s="118"/>
+      <c r="BI106" s="118"/>
+      <c r="BJ106" s="102"/>
+    </row>
+    <row r="107" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M107" s="16"/>
       <c r="AD107" s="102"/>
       <c r="AE107" s="106"/>
       <c r="AT107" s="102"/>
-    </row>
-    <row r="108" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU107" s="106"/>
+      <c r="AV107" s="118"/>
+      <c r="AW107" s="118"/>
+      <c r="AX107" s="118"/>
+      <c r="AY107" s="118"/>
+      <c r="AZ107" s="118"/>
+      <c r="BA107" s="118"/>
+      <c r="BB107" s="118"/>
+      <c r="BC107" s="118"/>
+      <c r="BD107" s="118"/>
+      <c r="BE107" s="118"/>
+      <c r="BF107" s="118"/>
+      <c r="BG107" s="118"/>
+      <c r="BH107" s="118"/>
+      <c r="BI107" s="118"/>
+      <c r="BJ107" s="102"/>
+    </row>
+    <row r="108" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M108" s="16"/>
       <c r="AD108" s="102"/>
       <c r="AE108" s="106"/>
       <c r="AT108" s="102"/>
-    </row>
-    <row r="109" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU108" s="106"/>
+      <c r="AV108" s="118"/>
+      <c r="AW108" s="118"/>
+      <c r="AX108" s="118"/>
+      <c r="AY108" s="118"/>
+      <c r="AZ108" s="118"/>
+      <c r="BA108" s="118"/>
+      <c r="BB108" s="118"/>
+      <c r="BC108" s="118"/>
+      <c r="BD108" s="118"/>
+      <c r="BE108" s="118"/>
+      <c r="BF108" s="118"/>
+      <c r="BG108" s="118"/>
+      <c r="BH108" s="118"/>
+      <c r="BI108" s="118"/>
+      <c r="BJ108" s="102"/>
+    </row>
+    <row r="109" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M109" s="16"/>
       <c r="AD109" s="102"/>
       <c r="AE109" s="106"/>
       <c r="AT109" s="102"/>
-    </row>
-    <row r="110" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU109" s="106"/>
+      <c r="AV109" s="118"/>
+      <c r="AW109" s="118"/>
+      <c r="AX109" s="118"/>
+      <c r="AY109" s="118"/>
+      <c r="AZ109" s="118"/>
+      <c r="BA109" s="118"/>
+      <c r="BB109" s="118"/>
+      <c r="BC109" s="118"/>
+      <c r="BD109" s="118"/>
+      <c r="BE109" s="118"/>
+      <c r="BF109" s="118"/>
+      <c r="BG109" s="118"/>
+      <c r="BH109" s="118"/>
+      <c r="BI109" s="118"/>
+      <c r="BJ109" s="102"/>
+    </row>
+    <row r="110" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M110" s="16"/>
       <c r="AD110" s="102"/>
       <c r="AE110" s="106"/>
       <c r="AT110" s="102"/>
-    </row>
-    <row r="111" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU110" s="106"/>
+      <c r="AV110" s="118"/>
+      <c r="AW110" s="118"/>
+      <c r="AX110" s="118"/>
+      <c r="AY110" s="118"/>
+      <c r="AZ110" s="118"/>
+      <c r="BA110" s="118"/>
+      <c r="BB110" s="118"/>
+      <c r="BC110" s="118"/>
+      <c r="BD110" s="118"/>
+      <c r="BE110" s="118"/>
+      <c r="BF110" s="118"/>
+      <c r="BG110" s="118"/>
+      <c r="BH110" s="118"/>
+      <c r="BI110" s="118"/>
+      <c r="BJ110" s="102"/>
+    </row>
+    <row r="111" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M111" s="16"/>
       <c r="AD111" s="102"/>
       <c r="AE111" s="106"/>
       <c r="AT111" s="102"/>
-    </row>
-    <row r="112" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU111" s="106"/>
+      <c r="AV111" s="118"/>
+      <c r="AW111" s="118"/>
+      <c r="AX111" s="118"/>
+      <c r="AY111" s="118"/>
+      <c r="AZ111" s="118"/>
+      <c r="BA111" s="118"/>
+      <c r="BB111" s="118"/>
+      <c r="BC111" s="118"/>
+      <c r="BD111" s="118"/>
+      <c r="BE111" s="118"/>
+      <c r="BF111" s="118"/>
+      <c r="BG111" s="118"/>
+      <c r="BH111" s="118"/>
+      <c r="BI111" s="118"/>
+      <c r="BJ111" s="102"/>
+    </row>
+    <row r="112" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M112" s="16"/>
       <c r="AD112" s="102"/>
       <c r="AE112" s="106"/>
       <c r="AT112" s="102"/>
-    </row>
-    <row r="113" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU112" s="106"/>
+      <c r="AV112" s="118"/>
+      <c r="AW112" s="118"/>
+      <c r="AX112" s="118"/>
+      <c r="AY112" s="118"/>
+      <c r="AZ112" s="118"/>
+      <c r="BA112" s="118"/>
+      <c r="BB112" s="118"/>
+      <c r="BC112" s="118"/>
+      <c r="BD112" s="118"/>
+      <c r="BE112" s="118"/>
+      <c r="BF112" s="118"/>
+      <c r="BG112" s="118"/>
+      <c r="BH112" s="118"/>
+      <c r="BI112" s="118"/>
+      <c r="BJ112" s="102"/>
+    </row>
+    <row r="113" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M113" s="16"/>
       <c r="AD113" s="102"/>
       <c r="AE113" s="106"/>
       <c r="AT113" s="102"/>
-    </row>
-    <row r="114" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU113" s="106"/>
+      <c r="AV113" s="118"/>
+      <c r="AW113" s="118"/>
+      <c r="AX113" s="118"/>
+      <c r="AY113" s="118"/>
+      <c r="AZ113" s="118"/>
+      <c r="BA113" s="118"/>
+      <c r="BB113" s="118"/>
+      <c r="BC113" s="118"/>
+      <c r="BD113" s="118"/>
+      <c r="BE113" s="118"/>
+      <c r="BF113" s="118"/>
+      <c r="BG113" s="118"/>
+      <c r="BH113" s="118"/>
+      <c r="BI113" s="118"/>
+      <c r="BJ113" s="102"/>
+    </row>
+    <row r="114" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M114" s="16"/>
       <c r="AD114" s="102"/>
       <c r="AE114" s="106"/>
       <c r="AT114" s="102"/>
-    </row>
-    <row r="115" spans="13:46" x14ac:dyDescent="0.25">
+      <c r="AU114" s="106"/>
+      <c r="AV114" s="118"/>
+      <c r="AW114" s="118"/>
+      <c r="AX114" s="118"/>
+      <c r="AY114" s="118"/>
+      <c r="AZ114" s="118"/>
+      <c r="BA114" s="118"/>
+      <c r="BB114" s="118"/>
+      <c r="BC114" s="118"/>
+      <c r="BD114" s="118"/>
+      <c r="BE114" s="118"/>
+      <c r="BF114" s="118"/>
+      <c r="BG114" s="118"/>
+      <c r="BH114" s="118"/>
+      <c r="BI114" s="118"/>
+      <c r="BJ114" s="102"/>
+    </row>
+    <row r="115" spans="13:62" x14ac:dyDescent="0.25">
       <c r="M115" s="16"/>
       <c r="AD115" s="102"/>
       <c r="AE115" s="106"/>
       <c r="AT115" s="102"/>
-    </row>
-    <row r="116" spans="13:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU115" s="106"/>
+      <c r="AV115" s="118"/>
+      <c r="AW115" s="118"/>
+      <c r="AX115" s="118"/>
+      <c r="AY115" s="118"/>
+      <c r="AZ115" s="118"/>
+      <c r="BA115" s="118"/>
+      <c r="BB115" s="118"/>
+      <c r="BC115" s="118"/>
+      <c r="BD115" s="118"/>
+      <c r="BE115" s="118"/>
+      <c r="BF115" s="118"/>
+      <c r="BG115" s="118"/>
+      <c r="BH115" s="118"/>
+      <c r="BI115" s="118"/>
+      <c r="BJ115" s="102"/>
+    </row>
+    <row r="116" spans="13:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M116" s="2"/>
       <c r="N116" s="103"/>
       <c r="O116" s="103"/>
@@ -12800,6 +15236,22 @@
       <c r="AR116" s="103"/>
       <c r="AS116" s="103"/>
       <c r="AT116" s="104"/>
+      <c r="AU116" s="107"/>
+      <c r="AV116" s="103"/>
+      <c r="AW116" s="103"/>
+      <c r="AX116" s="103"/>
+      <c r="AY116" s="103"/>
+      <c r="AZ116" s="103"/>
+      <c r="BA116" s="103"/>
+      <c r="BB116" s="103"/>
+      <c r="BC116" s="103"/>
+      <c r="BD116" s="103"/>
+      <c r="BE116" s="103"/>
+      <c r="BF116" s="103"/>
+      <c r="BG116" s="103"/>
+      <c r="BH116" s="103"/>
+      <c r="BI116" s="103"/>
+      <c r="BJ116" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF01B0B-29CC-4395-86BD-94A1D33B5DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8868C2-F1F4-4589-9CE5-DBF9B10CF705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="85">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>#38</t>
+  </si>
+  <si>
+    <t>#39</t>
+  </si>
+  <si>
+    <t>#40</t>
   </si>
 </sst>
 </file>
@@ -1244,6 +1250,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1270,12 +1282,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3142,16 +3148,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>7844</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>72278</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3181,8 +3187,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="28584525" y="19688175"/>
-          <a:ext cx="3676650" cy="2647950"/>
+          <a:off x="28429323" y="19419794"/>
+          <a:ext cx="3649756" cy="2649631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3203,16 +3209,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>515470</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>534520</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>150719</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>61072</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3242,7 +3248,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="33191823" y="19688735"/>
+          <a:off x="33281470" y="19408588"/>
           <a:ext cx="3649756" cy="2649631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3750,6 +3756,128 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>602877</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>94690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3530AC-F464-7E5A-E1DD-3C9ED05D4284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="38043971" y="19643912"/>
+          <a:ext cx="3706906" cy="2649631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>220755</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>38661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3C1C34-AC26-8C02-8F4F-390A670F44DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="42559940" y="19587883"/>
+          <a:ext cx="3649756" cy="2649631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4110,22 +4238,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="110" t="s">
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -5530,22 +5658,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="110" t="s">
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -6950,22 +7078,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="110" t="s">
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -8370,22 +8498,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="110" t="s">
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -9761,22 +9889,22 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="113" t="s">
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="116"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="118"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -10555,22 +10683,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="110" t="s">
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -11793,10 +11921,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
-  <dimension ref="A2:BS116"/>
+  <dimension ref="A2:BY116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11868,22 +11996,22 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="110" t="s">
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
       <c r="K5" s="95"/>
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
@@ -12835,7 +12963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>2</v>
       </c>
@@ -12870,7 +12998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
         <v>3</v>
       </c>
@@ -12905,7 +13033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>2</v>
       </c>
@@ -12989,8 +13117,23 @@
       <c r="BH35" s="100"/>
       <c r="BI35" s="100"/>
       <c r="BJ35" s="101"/>
-    </row>
-    <row r="36" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BK35" s="105"/>
+      <c r="BL35" s="100"/>
+      <c r="BM35" s="100"/>
+      <c r="BN35" s="100"/>
+      <c r="BO35" s="100"/>
+      <c r="BP35" s="100"/>
+      <c r="BQ35" s="100"/>
+      <c r="BR35" s="100"/>
+      <c r="BS35" s="100"/>
+      <c r="BT35" s="100"/>
+      <c r="BU35" s="100"/>
+      <c r="BV35" s="100"/>
+      <c r="BW35" s="100"/>
+      <c r="BX35" s="100"/>
+      <c r="BY35" s="101"/>
+    </row>
+    <row r="36" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>3</v>
       </c>
@@ -13041,33 +13184,34 @@
       </c>
       <c r="AT36" s="102"/>
       <c r="AU36" s="106"/>
-      <c r="AV36" s="117" t="s">
+      <c r="AV36" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="AW36" s="118"/>
-      <c r="AX36" s="118"/>
-      <c r="AY36" s="118"/>
-      <c r="AZ36" s="118"/>
-      <c r="BA36" s="118"/>
-      <c r="BB36" s="118"/>
-      <c r="BC36" s="117" t="s">
+      <c r="BC36" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="BD36" s="118"/>
-      <c r="BE36" s="118"/>
-      <c r="BF36" s="118"/>
-      <c r="BG36" s="118"/>
-      <c r="BH36" s="118"/>
-      <c r="BI36" s="118"/>
       <c r="BJ36" s="102"/>
-      <c r="BL36" s="94" t="s">
+      <c r="BK36" s="106"/>
+      <c r="BL36" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="BS36" s="94" t="s">
+      <c r="BM36" s="120"/>
+      <c r="BN36" s="120"/>
+      <c r="BO36" s="120"/>
+      <c r="BP36" s="120"/>
+      <c r="BQ36" s="120"/>
+      <c r="BR36" s="120"/>
+      <c r="BS36" s="119" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BT36" s="120"/>
+      <c r="BU36" s="120"/>
+      <c r="BV36" s="120"/>
+      <c r="BW36" s="120"/>
+      <c r="BX36" s="120"/>
+      <c r="BY36" s="102"/>
+    </row>
+    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>2</v>
       </c>
@@ -13106,23 +13250,24 @@
       <c r="AE37" s="106"/>
       <c r="AT37" s="102"/>
       <c r="AU37" s="106"/>
-      <c r="AV37" s="118"/>
-      <c r="AW37" s="118"/>
-      <c r="AX37" s="118"/>
-      <c r="AY37" s="118"/>
-      <c r="AZ37" s="118"/>
-      <c r="BA37" s="118"/>
-      <c r="BB37" s="118"/>
-      <c r="BC37" s="118"/>
-      <c r="BD37" s="118"/>
-      <c r="BE37" s="118"/>
-      <c r="BF37" s="118"/>
-      <c r="BG37" s="118"/>
-      <c r="BH37" s="118"/>
-      <c r="BI37" s="118"/>
       <c r="BJ37" s="102"/>
-    </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BK37" s="106"/>
+      <c r="BL37" s="120"/>
+      <c r="BM37" s="120"/>
+      <c r="BN37" s="120"/>
+      <c r="BO37" s="120"/>
+      <c r="BP37" s="120"/>
+      <c r="BQ37" s="120"/>
+      <c r="BR37" s="120"/>
+      <c r="BS37" s="120"/>
+      <c r="BT37" s="120"/>
+      <c r="BU37" s="120"/>
+      <c r="BV37" s="120"/>
+      <c r="BW37" s="120"/>
+      <c r="BX37" s="120"/>
+      <c r="BY37" s="102"/>
+    </row>
+    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
         <v>3</v>
       </c>
@@ -13161,23 +13306,24 @@
       <c r="AE38" s="106"/>
       <c r="AT38" s="102"/>
       <c r="AU38" s="106"/>
-      <c r="AV38" s="118"/>
-      <c r="AW38" s="118"/>
-      <c r="AX38" s="118"/>
-      <c r="AY38" s="118"/>
-      <c r="AZ38" s="118"/>
-      <c r="BA38" s="118"/>
-      <c r="BB38" s="118"/>
-      <c r="BC38" s="118"/>
-      <c r="BD38" s="118"/>
-      <c r="BE38" s="118"/>
-      <c r="BF38" s="118"/>
-      <c r="BG38" s="118"/>
-      <c r="BH38" s="118"/>
-      <c r="BI38" s="118"/>
       <c r="BJ38" s="102"/>
-    </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BK38" s="106"/>
+      <c r="BL38" s="120"/>
+      <c r="BM38" s="120"/>
+      <c r="BN38" s="120"/>
+      <c r="BO38" s="120"/>
+      <c r="BP38" s="120"/>
+      <c r="BQ38" s="120"/>
+      <c r="BR38" s="120"/>
+      <c r="BS38" s="120"/>
+      <c r="BT38" s="120"/>
+      <c r="BU38" s="120"/>
+      <c r="BV38" s="120"/>
+      <c r="BW38" s="120"/>
+      <c r="BX38" s="120"/>
+      <c r="BY38" s="102"/>
+    </row>
+    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>2</v>
       </c>
@@ -13216,23 +13362,24 @@
       <c r="AE39" s="106"/>
       <c r="AT39" s="102"/>
       <c r="AU39" s="106"/>
-      <c r="AV39" s="118"/>
-      <c r="AW39" s="118"/>
-      <c r="AX39" s="118"/>
-      <c r="AY39" s="118"/>
-      <c r="AZ39" s="118"/>
-      <c r="BA39" s="118"/>
-      <c r="BB39" s="118"/>
-      <c r="BC39" s="118"/>
-      <c r="BD39" s="118"/>
-      <c r="BE39" s="118"/>
-      <c r="BF39" s="118"/>
-      <c r="BG39" s="118"/>
-      <c r="BH39" s="118"/>
-      <c r="BI39" s="118"/>
       <c r="BJ39" s="102"/>
-    </row>
-    <row r="40" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BK39" s="106"/>
+      <c r="BL39" s="120"/>
+      <c r="BM39" s="120"/>
+      <c r="BN39" s="120"/>
+      <c r="BO39" s="120"/>
+      <c r="BP39" s="120"/>
+      <c r="BQ39" s="120"/>
+      <c r="BR39" s="120"/>
+      <c r="BS39" s="120"/>
+      <c r="BT39" s="120"/>
+      <c r="BU39" s="120"/>
+      <c r="BV39" s="120"/>
+      <c r="BW39" s="120"/>
+      <c r="BX39" s="120"/>
+      <c r="BY39" s="102"/>
+    </row>
+    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>3</v>
       </c>
@@ -13257,8 +13404,8 @@
       <c r="H40" s="38">
         <v>256</v>
       </c>
-      <c r="I40" s="119"/>
-      <c r="J40" s="120"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="110"/>
       <c r="K40" s="99">
         <v>34</v>
       </c>
@@ -13267,23 +13414,24 @@
       <c r="AE40" s="106"/>
       <c r="AT40" s="102"/>
       <c r="AU40" s="106"/>
-      <c r="AV40" s="118"/>
-      <c r="AW40" s="118"/>
-      <c r="AX40" s="118"/>
-      <c r="AY40" s="118"/>
-      <c r="AZ40" s="118"/>
-      <c r="BA40" s="118"/>
-      <c r="BB40" s="118"/>
-      <c r="BC40" s="118"/>
-      <c r="BD40" s="118"/>
-      <c r="BE40" s="118"/>
-      <c r="BF40" s="118"/>
-      <c r="BG40" s="118"/>
-      <c r="BH40" s="118"/>
-      <c r="BI40" s="118"/>
       <c r="BJ40" s="102"/>
-    </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BK40" s="106"/>
+      <c r="BL40" s="120"/>
+      <c r="BM40" s="120"/>
+      <c r="BN40" s="120"/>
+      <c r="BO40" s="120"/>
+      <c r="BP40" s="120"/>
+      <c r="BQ40" s="120"/>
+      <c r="BR40" s="120"/>
+      <c r="BS40" s="120"/>
+      <c r="BT40" s="120"/>
+      <c r="BU40" s="120"/>
+      <c r="BV40" s="120"/>
+      <c r="BW40" s="120"/>
+      <c r="BX40" s="120"/>
+      <c r="BY40" s="102"/>
+    </row>
+    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>2</v>
       </c>
@@ -13322,23 +13470,24 @@
       <c r="AE41" s="106"/>
       <c r="AT41" s="102"/>
       <c r="AU41" s="106"/>
-      <c r="AV41" s="118"/>
-      <c r="AW41" s="118"/>
-      <c r="AX41" s="118"/>
-      <c r="AY41" s="118"/>
-      <c r="AZ41" s="118"/>
-      <c r="BA41" s="118"/>
-      <c r="BB41" s="118"/>
-      <c r="BC41" s="118"/>
-      <c r="BD41" s="118"/>
-      <c r="BE41" s="118"/>
-      <c r="BF41" s="118"/>
-      <c r="BG41" s="118"/>
-      <c r="BH41" s="118"/>
-      <c r="BI41" s="118"/>
       <c r="BJ41" s="102"/>
-    </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BK41" s="106"/>
+      <c r="BL41" s="120"/>
+      <c r="BM41" s="120"/>
+      <c r="BN41" s="120"/>
+      <c r="BO41" s="120"/>
+      <c r="BP41" s="120"/>
+      <c r="BQ41" s="120"/>
+      <c r="BR41" s="120"/>
+      <c r="BS41" s="120"/>
+      <c r="BT41" s="120"/>
+      <c r="BU41" s="120"/>
+      <c r="BV41" s="120"/>
+      <c r="BW41" s="120"/>
+      <c r="BX41" s="120"/>
+      <c r="BY41" s="102"/>
+    </row>
+    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
         <v>3</v>
       </c>
@@ -13377,23 +13526,24 @@
       <c r="AE42" s="106"/>
       <c r="AT42" s="102"/>
       <c r="AU42" s="106"/>
-      <c r="AV42" s="118"/>
-      <c r="AW42" s="118"/>
-      <c r="AX42" s="118"/>
-      <c r="AY42" s="118"/>
-      <c r="AZ42" s="118"/>
-      <c r="BA42" s="118"/>
-      <c r="BB42" s="118"/>
-      <c r="BC42" s="118"/>
-      <c r="BD42" s="118"/>
-      <c r="BE42" s="118"/>
-      <c r="BF42" s="118"/>
-      <c r="BG42" s="118"/>
-      <c r="BH42" s="118"/>
-      <c r="BI42" s="118"/>
       <c r="BJ42" s="102"/>
-    </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BK42" s="106"/>
+      <c r="BL42" s="120"/>
+      <c r="BM42" s="120"/>
+      <c r="BN42" s="120"/>
+      <c r="BO42" s="120"/>
+      <c r="BP42" s="120"/>
+      <c r="BQ42" s="120"/>
+      <c r="BR42" s="120"/>
+      <c r="BS42" s="120"/>
+      <c r="BT42" s="120"/>
+      <c r="BU42" s="120"/>
+      <c r="BV42" s="120"/>
+      <c r="BW42" s="120"/>
+      <c r="BX42" s="120"/>
+      <c r="BY42" s="102"/>
+    </row>
+    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>2</v>
       </c>
@@ -13432,23 +13582,24 @@
       <c r="AE43" s="106"/>
       <c r="AT43" s="102"/>
       <c r="AU43" s="106"/>
-      <c r="AV43" s="118"/>
-      <c r="AW43" s="118"/>
-      <c r="AX43" s="118"/>
-      <c r="AY43" s="118"/>
-      <c r="AZ43" s="118"/>
-      <c r="BA43" s="118"/>
-      <c r="BB43" s="118"/>
-      <c r="BC43" s="118"/>
-      <c r="BD43" s="118"/>
-      <c r="BE43" s="118"/>
-      <c r="BF43" s="118"/>
-      <c r="BG43" s="118"/>
-      <c r="BH43" s="118"/>
-      <c r="BI43" s="118"/>
       <c r="BJ43" s="102"/>
-    </row>
-    <row r="44" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BK43" s="106"/>
+      <c r="BL43" s="120"/>
+      <c r="BM43" s="120"/>
+      <c r="BN43" s="120"/>
+      <c r="BO43" s="120"/>
+      <c r="BP43" s="120"/>
+      <c r="BQ43" s="120"/>
+      <c r="BR43" s="120"/>
+      <c r="BS43" s="120"/>
+      <c r="BT43" s="120"/>
+      <c r="BU43" s="120"/>
+      <c r="BV43" s="120"/>
+      <c r="BW43" s="120"/>
+      <c r="BX43" s="120"/>
+      <c r="BY43" s="102"/>
+    </row>
+    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
         <v>3</v>
       </c>
@@ -13487,23 +13638,24 @@
       <c r="AE44" s="106"/>
       <c r="AT44" s="102"/>
       <c r="AU44" s="106"/>
-      <c r="AV44" s="118"/>
-      <c r="AW44" s="118"/>
-      <c r="AX44" s="118"/>
-      <c r="AY44" s="118"/>
-      <c r="AZ44" s="118"/>
-      <c r="BA44" s="118"/>
-      <c r="BB44" s="118"/>
-      <c r="BC44" s="118"/>
-      <c r="BD44" s="118"/>
-      <c r="BE44" s="118"/>
-      <c r="BF44" s="118"/>
-      <c r="BG44" s="118"/>
-      <c r="BH44" s="118"/>
-      <c r="BI44" s="118"/>
       <c r="BJ44" s="102"/>
-    </row>
-    <row r="45" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BK44" s="106"/>
+      <c r="BL44" s="120"/>
+      <c r="BM44" s="120"/>
+      <c r="BN44" s="120"/>
+      <c r="BO44" s="120"/>
+      <c r="BP44" s="120"/>
+      <c r="BQ44" s="120"/>
+      <c r="BR44" s="120"/>
+      <c r="BS44" s="120"/>
+      <c r="BT44" s="120"/>
+      <c r="BU44" s="120"/>
+      <c r="BV44" s="120"/>
+      <c r="BW44" s="120"/>
+      <c r="BX44" s="120"/>
+      <c r="BY44" s="102"/>
+    </row>
+    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>2</v>
       </c>
@@ -13528,31 +13680,38 @@
       <c r="H45" s="41">
         <v>256</v>
       </c>
-      <c r="I45" s="41"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="96"/>
+      <c r="I45" s="41">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J45" s="19">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="K45" s="96">
+        <v>39</v>
+      </c>
       <c r="M45" s="16"/>
       <c r="AD45" s="102"/>
       <c r="AE45" s="106"/>
       <c r="AT45" s="102"/>
       <c r="AU45" s="106"/>
-      <c r="AV45" s="118"/>
-      <c r="AW45" s="118"/>
-      <c r="AX45" s="118"/>
-      <c r="AY45" s="118"/>
-      <c r="AZ45" s="118"/>
-      <c r="BA45" s="118"/>
-      <c r="BB45" s="118"/>
-      <c r="BC45" s="118"/>
-      <c r="BD45" s="118"/>
-      <c r="BE45" s="118"/>
-      <c r="BF45" s="118"/>
-      <c r="BG45" s="118"/>
-      <c r="BH45" s="118"/>
-      <c r="BI45" s="118"/>
       <c r="BJ45" s="102"/>
-    </row>
-    <row r="46" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BK45" s="106"/>
+      <c r="BL45" s="120"/>
+      <c r="BM45" s="120"/>
+      <c r="BN45" s="120"/>
+      <c r="BO45" s="120"/>
+      <c r="BP45" s="120"/>
+      <c r="BQ45" s="120"/>
+      <c r="BR45" s="120"/>
+      <c r="BS45" s="120"/>
+      <c r="BT45" s="120"/>
+      <c r="BU45" s="120"/>
+      <c r="BV45" s="120"/>
+      <c r="BW45" s="120"/>
+      <c r="BX45" s="120"/>
+      <c r="BY45" s="102"/>
+    </row>
+    <row r="46" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>3</v>
       </c>
@@ -13577,119 +13736,130 @@
       <c r="H46" s="42">
         <v>256</v>
       </c>
-      <c r="I46" s="42"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="97"/>
+      <c r="I46" s="42">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.129</v>
+      </c>
+      <c r="K46" s="97">
+        <v>40</v>
+      </c>
       <c r="M46" s="16"/>
       <c r="AD46" s="102"/>
       <c r="AE46" s="106"/>
       <c r="AT46" s="102"/>
       <c r="AU46" s="106"/>
-      <c r="AV46" s="118"/>
-      <c r="AW46" s="118"/>
-      <c r="AX46" s="118"/>
-      <c r="AY46" s="118"/>
-      <c r="AZ46" s="118"/>
-      <c r="BA46" s="118"/>
-      <c r="BB46" s="118"/>
-      <c r="BC46" s="118"/>
-      <c r="BD46" s="118"/>
-      <c r="BE46" s="118"/>
-      <c r="BF46" s="118"/>
-      <c r="BG46" s="118"/>
-      <c r="BH46" s="118"/>
-      <c r="BI46" s="118"/>
       <c r="BJ46" s="102"/>
-    </row>
-    <row r="47" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BK46" s="106"/>
+      <c r="BL46" s="120"/>
+      <c r="BM46" s="120"/>
+      <c r="BN46" s="120"/>
+      <c r="BO46" s="120"/>
+      <c r="BP46" s="120"/>
+      <c r="BQ46" s="120"/>
+      <c r="BR46" s="120"/>
+      <c r="BS46" s="120"/>
+      <c r="BT46" s="120"/>
+      <c r="BU46" s="120"/>
+      <c r="BV46" s="120"/>
+      <c r="BW46" s="120"/>
+      <c r="BX46" s="120"/>
+      <c r="BY46" s="102"/>
+    </row>
+    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
       <c r="M47" s="16"/>
       <c r="AD47" s="102"/>
       <c r="AE47" s="106"/>
       <c r="AT47" s="102"/>
       <c r="AU47" s="106"/>
-      <c r="AV47" s="118"/>
-      <c r="AW47" s="118"/>
-      <c r="AX47" s="118"/>
-      <c r="AY47" s="118"/>
-      <c r="AZ47" s="118"/>
-      <c r="BA47" s="118"/>
-      <c r="BB47" s="118"/>
-      <c r="BC47" s="118"/>
-      <c r="BD47" s="118"/>
-      <c r="BE47" s="118"/>
-      <c r="BF47" s="118"/>
-      <c r="BG47" s="118"/>
-      <c r="BH47" s="118"/>
-      <c r="BI47" s="118"/>
       <c r="BJ47" s="102"/>
-    </row>
-    <row r="48" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BK47" s="106"/>
+      <c r="BL47" s="120"/>
+      <c r="BM47" s="120"/>
+      <c r="BN47" s="120"/>
+      <c r="BO47" s="120"/>
+      <c r="BP47" s="120"/>
+      <c r="BQ47" s="120"/>
+      <c r="BR47" s="120"/>
+      <c r="BS47" s="120"/>
+      <c r="BT47" s="120"/>
+      <c r="BU47" s="120"/>
+      <c r="BV47" s="120"/>
+      <c r="BW47" s="120"/>
+      <c r="BX47" s="120"/>
+      <c r="BY47" s="102"/>
+    </row>
+    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
       <c r="M48" s="16"/>
       <c r="AD48" s="102"/>
       <c r="AE48" s="106"/>
       <c r="AT48" s="102"/>
       <c r="AU48" s="106"/>
-      <c r="AV48" s="118"/>
-      <c r="AW48" s="118"/>
-      <c r="AX48" s="118"/>
-      <c r="AY48" s="118"/>
-      <c r="AZ48" s="118"/>
-      <c r="BA48" s="118"/>
-      <c r="BB48" s="118"/>
-      <c r="BC48" s="118"/>
-      <c r="BD48" s="118"/>
-      <c r="BE48" s="118"/>
-      <c r="BF48" s="118"/>
-      <c r="BG48" s="118"/>
-      <c r="BH48" s="118"/>
-      <c r="BI48" s="118"/>
       <c r="BJ48" s="102"/>
-    </row>
-    <row r="49" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK48" s="106"/>
+      <c r="BL48" s="120"/>
+      <c r="BM48" s="120"/>
+      <c r="BN48" s="120"/>
+      <c r="BO48" s="120"/>
+      <c r="BP48" s="120"/>
+      <c r="BQ48" s="120"/>
+      <c r="BR48" s="120"/>
+      <c r="BS48" s="120"/>
+      <c r="BT48" s="120"/>
+      <c r="BU48" s="120"/>
+      <c r="BV48" s="120"/>
+      <c r="BW48" s="120"/>
+      <c r="BX48" s="120"/>
+      <c r="BY48" s="102"/>
+    </row>
+    <row r="49" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M49" s="16"/>
       <c r="AD49" s="102"/>
       <c r="AE49" s="106"/>
       <c r="AT49" s="102"/>
       <c r="AU49" s="106"/>
-      <c r="AV49" s="118"/>
-      <c r="AW49" s="118"/>
-      <c r="AX49" s="118"/>
-      <c r="AY49" s="118"/>
-      <c r="AZ49" s="118"/>
-      <c r="BA49" s="118"/>
-      <c r="BB49" s="118"/>
-      <c r="BC49" s="118"/>
-      <c r="BD49" s="118"/>
-      <c r="BE49" s="118"/>
-      <c r="BF49" s="118"/>
-      <c r="BG49" s="118"/>
-      <c r="BH49" s="118"/>
-      <c r="BI49" s="118"/>
       <c r="BJ49" s="102"/>
-    </row>
-    <row r="50" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK49" s="106"/>
+      <c r="BL49" s="120"/>
+      <c r="BM49" s="120"/>
+      <c r="BN49" s="120"/>
+      <c r="BO49" s="120"/>
+      <c r="BP49" s="120"/>
+      <c r="BQ49" s="120"/>
+      <c r="BR49" s="120"/>
+      <c r="BS49" s="120"/>
+      <c r="BT49" s="120"/>
+      <c r="BU49" s="120"/>
+      <c r="BV49" s="120"/>
+      <c r="BW49" s="120"/>
+      <c r="BX49" s="120"/>
+      <c r="BY49" s="102"/>
+    </row>
+    <row r="50" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M50" s="16"/>
       <c r="AD50" s="102"/>
       <c r="AE50" s="106"/>
       <c r="AT50" s="102"/>
       <c r="AU50" s="106"/>
-      <c r="AV50" s="118"/>
-      <c r="AW50" s="118"/>
-      <c r="AX50" s="118"/>
-      <c r="AY50" s="118"/>
-      <c r="AZ50" s="118"/>
-      <c r="BA50" s="118"/>
-      <c r="BB50" s="118"/>
-      <c r="BC50" s="118"/>
-      <c r="BD50" s="118"/>
-      <c r="BE50" s="118"/>
-      <c r="BF50" s="118"/>
-      <c r="BG50" s="118"/>
-      <c r="BH50" s="118"/>
-      <c r="BI50" s="118"/>
       <c r="BJ50" s="102"/>
-    </row>
-    <row r="51" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK50" s="106"/>
+      <c r="BL50" s="120"/>
+      <c r="BM50" s="120"/>
+      <c r="BN50" s="120"/>
+      <c r="BO50" s="120"/>
+      <c r="BP50" s="120"/>
+      <c r="BQ50" s="120"/>
+      <c r="BR50" s="120"/>
+      <c r="BS50" s="120"/>
+      <c r="BT50" s="120"/>
+      <c r="BU50" s="120"/>
+      <c r="BV50" s="120"/>
+      <c r="BW50" s="120"/>
+      <c r="BX50" s="120"/>
+      <c r="BY50" s="102"/>
+    </row>
+    <row r="51" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M51" s="16"/>
       <c r="N51" s="94" t="s">
         <v>47</v>
@@ -13701,23 +13871,24 @@
       <c r="AE51" s="106"/>
       <c r="AT51" s="102"/>
       <c r="AU51" s="106"/>
-      <c r="AV51" s="118"/>
-      <c r="AW51" s="118"/>
-      <c r="AX51" s="118"/>
-      <c r="AY51" s="118"/>
-      <c r="AZ51" s="118"/>
-      <c r="BA51" s="118"/>
-      <c r="BB51" s="118"/>
-      <c r="BC51" s="118"/>
-      <c r="BD51" s="118"/>
-      <c r="BE51" s="118"/>
-      <c r="BF51" s="118"/>
-      <c r="BG51" s="118"/>
-      <c r="BH51" s="118"/>
-      <c r="BI51" s="118"/>
       <c r="BJ51" s="102"/>
-    </row>
-    <row r="52" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK51" s="106"/>
+      <c r="BL51" s="120"/>
+      <c r="BM51" s="120"/>
+      <c r="BN51" s="120"/>
+      <c r="BO51" s="120"/>
+      <c r="BP51" s="120"/>
+      <c r="BQ51" s="120"/>
+      <c r="BR51" s="120"/>
+      <c r="BS51" s="120"/>
+      <c r="BT51" s="120"/>
+      <c r="BU51" s="120"/>
+      <c r="BV51" s="120"/>
+      <c r="BW51" s="120"/>
+      <c r="BX51" s="120"/>
+      <c r="BY51" s="102"/>
+    </row>
+    <row r="52" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M52" s="16"/>
       <c r="AD52" s="102"/>
       <c r="AE52" s="106"/>
@@ -13729,363 +13900,379 @@
       </c>
       <c r="AT52" s="102"/>
       <c r="AU52" s="106"/>
-      <c r="AV52" s="117" t="s">
+      <c r="AV52" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="AW52" s="118"/>
-      <c r="AX52" s="118"/>
-      <c r="AY52" s="118"/>
-      <c r="AZ52" s="118"/>
-      <c r="BA52" s="118"/>
-      <c r="BB52" s="118"/>
-      <c r="BC52" s="117" t="s">
+      <c r="BC52" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="BD52" s="118"/>
-      <c r="BE52" s="118"/>
-      <c r="BF52" s="118"/>
-      <c r="BG52" s="118"/>
-      <c r="BH52" s="118"/>
-      <c r="BI52" s="118"/>
       <c r="BJ52" s="102"/>
-    </row>
-    <row r="53" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK52" s="106"/>
+      <c r="BL52" s="120"/>
+      <c r="BM52" s="120"/>
+      <c r="BN52" s="120"/>
+      <c r="BO52" s="120"/>
+      <c r="BP52" s="120"/>
+      <c r="BQ52" s="120"/>
+      <c r="BR52" s="120"/>
+      <c r="BS52" s="120"/>
+      <c r="BT52" s="120"/>
+      <c r="BU52" s="120"/>
+      <c r="BV52" s="120"/>
+      <c r="BW52" s="120"/>
+      <c r="BX52" s="120"/>
+      <c r="BY52" s="102"/>
+    </row>
+    <row r="53" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M53" s="16"/>
       <c r="AD53" s="102"/>
       <c r="AE53" s="106"/>
       <c r="AT53" s="102"/>
       <c r="AU53" s="106"/>
-      <c r="AV53" s="118"/>
-      <c r="AW53" s="118"/>
-      <c r="AX53" s="118"/>
-      <c r="AY53" s="118"/>
-      <c r="AZ53" s="118"/>
-      <c r="BA53" s="118"/>
-      <c r="BB53" s="118"/>
-      <c r="BC53" s="118"/>
-      <c r="BD53" s="118"/>
-      <c r="BE53" s="118"/>
-      <c r="BF53" s="118"/>
-      <c r="BG53" s="118"/>
-      <c r="BH53" s="118"/>
-      <c r="BI53" s="118"/>
       <c r="BJ53" s="102"/>
-    </row>
-    <row r="54" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK53" s="106"/>
+      <c r="BL53" s="120"/>
+      <c r="BM53" s="120"/>
+      <c r="BN53" s="120"/>
+      <c r="BO53" s="120"/>
+      <c r="BP53" s="120"/>
+      <c r="BQ53" s="120"/>
+      <c r="BR53" s="120"/>
+      <c r="BS53" s="120"/>
+      <c r="BT53" s="120"/>
+      <c r="BU53" s="120"/>
+      <c r="BV53" s="120"/>
+      <c r="BW53" s="120"/>
+      <c r="BX53" s="120"/>
+      <c r="BY53" s="102"/>
+    </row>
+    <row r="54" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M54" s="16"/>
       <c r="AD54" s="102"/>
       <c r="AE54" s="106"/>
       <c r="AT54" s="102"/>
       <c r="AU54" s="106"/>
-      <c r="AV54" s="118"/>
-      <c r="AW54" s="118"/>
-      <c r="AX54" s="118"/>
-      <c r="AY54" s="118"/>
-      <c r="AZ54" s="118"/>
-      <c r="BA54" s="118"/>
-      <c r="BB54" s="118"/>
-      <c r="BC54" s="118"/>
-      <c r="BD54" s="118"/>
-      <c r="BE54" s="118"/>
-      <c r="BF54" s="118"/>
-      <c r="BG54" s="118"/>
-      <c r="BH54" s="118"/>
-      <c r="BI54" s="118"/>
       <c r="BJ54" s="102"/>
-      <c r="BL54" s="94" t="s">
+      <c r="BK54" s="106"/>
+      <c r="BL54" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="BS54" s="94" t="s">
+      <c r="BM54" s="120"/>
+      <c r="BN54" s="120"/>
+      <c r="BO54" s="120"/>
+      <c r="BP54" s="120"/>
+      <c r="BQ54" s="120"/>
+      <c r="BR54" s="120"/>
+      <c r="BS54" s="119" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="55" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BT54" s="120"/>
+      <c r="BU54" s="120"/>
+      <c r="BV54" s="120"/>
+      <c r="BW54" s="120"/>
+      <c r="BX54" s="120"/>
+      <c r="BY54" s="102"/>
+    </row>
+    <row r="55" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M55" s="16"/>
       <c r="AD55" s="102"/>
       <c r="AE55" s="106"/>
       <c r="AT55" s="102"/>
       <c r="AU55" s="106"/>
-      <c r="AV55" s="118"/>
-      <c r="AW55" s="118"/>
-      <c r="AX55" s="118"/>
-      <c r="AY55" s="118"/>
-      <c r="AZ55" s="118"/>
-      <c r="BA55" s="118"/>
-      <c r="BB55" s="118"/>
-      <c r="BC55" s="118"/>
-      <c r="BD55" s="118"/>
-      <c r="BE55" s="118"/>
-      <c r="BF55" s="118"/>
-      <c r="BG55" s="118"/>
-      <c r="BH55" s="118"/>
-      <c r="BI55" s="118"/>
       <c r="BJ55" s="102"/>
-    </row>
-    <row r="56" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK55" s="106"/>
+      <c r="BL55" s="120"/>
+      <c r="BM55" s="120"/>
+      <c r="BN55" s="120"/>
+      <c r="BO55" s="120"/>
+      <c r="BP55" s="120"/>
+      <c r="BQ55" s="120"/>
+      <c r="BR55" s="120"/>
+      <c r="BS55" s="120"/>
+      <c r="BT55" s="120"/>
+      <c r="BU55" s="120"/>
+      <c r="BV55" s="120"/>
+      <c r="BW55" s="120"/>
+      <c r="BX55" s="120"/>
+      <c r="BY55" s="102"/>
+    </row>
+    <row r="56" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M56" s="16"/>
       <c r="AD56" s="102"/>
       <c r="AE56" s="106"/>
       <c r="AT56" s="102"/>
       <c r="AU56" s="106"/>
-      <c r="AV56" s="118"/>
-      <c r="AW56" s="118"/>
-      <c r="AX56" s="118"/>
-      <c r="AY56" s="118"/>
-      <c r="AZ56" s="118"/>
-      <c r="BA56" s="118"/>
-      <c r="BB56" s="118"/>
-      <c r="BC56" s="118"/>
-      <c r="BD56" s="118"/>
-      <c r="BE56" s="118"/>
-      <c r="BF56" s="118"/>
-      <c r="BG56" s="118"/>
-      <c r="BH56" s="118"/>
-      <c r="BI56" s="118"/>
       <c r="BJ56" s="102"/>
-    </row>
-    <row r="57" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK56" s="106"/>
+      <c r="BL56" s="120"/>
+      <c r="BM56" s="120"/>
+      <c r="BN56" s="120"/>
+      <c r="BO56" s="120"/>
+      <c r="BP56" s="120"/>
+      <c r="BQ56" s="120"/>
+      <c r="BR56" s="120"/>
+      <c r="BS56" s="120"/>
+      <c r="BT56" s="120"/>
+      <c r="BU56" s="120"/>
+      <c r="BV56" s="120"/>
+      <c r="BW56" s="120"/>
+      <c r="BX56" s="120"/>
+      <c r="BY56" s="102"/>
+    </row>
+    <row r="57" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M57" s="16"/>
       <c r="AD57" s="102"/>
       <c r="AE57" s="106"/>
       <c r="AT57" s="102"/>
       <c r="AU57" s="106"/>
-      <c r="AV57" s="118"/>
-      <c r="AW57" s="118"/>
-      <c r="AX57" s="118"/>
-      <c r="AY57" s="118"/>
-      <c r="AZ57" s="118"/>
-      <c r="BA57" s="118"/>
-      <c r="BB57" s="118"/>
-      <c r="BC57" s="118"/>
-      <c r="BD57" s="118"/>
-      <c r="BE57" s="118"/>
-      <c r="BF57" s="118"/>
-      <c r="BG57" s="118"/>
-      <c r="BH57" s="118"/>
-      <c r="BI57" s="118"/>
       <c r="BJ57" s="102"/>
-    </row>
-    <row r="58" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK57" s="106"/>
+      <c r="BL57" s="120"/>
+      <c r="BM57" s="120"/>
+      <c r="BN57" s="120"/>
+      <c r="BO57" s="120"/>
+      <c r="BP57" s="120"/>
+      <c r="BQ57" s="120"/>
+      <c r="BR57" s="120"/>
+      <c r="BS57" s="120"/>
+      <c r="BT57" s="120"/>
+      <c r="BU57" s="120"/>
+      <c r="BV57" s="120"/>
+      <c r="BW57" s="120"/>
+      <c r="BX57" s="120"/>
+      <c r="BY57" s="102"/>
+    </row>
+    <row r="58" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M58" s="16"/>
       <c r="AD58" s="102"/>
       <c r="AE58" s="106"/>
       <c r="AT58" s="102"/>
       <c r="AU58" s="106"/>
-      <c r="AV58" s="118"/>
-      <c r="AW58" s="118"/>
-      <c r="AX58" s="118"/>
-      <c r="AY58" s="118"/>
-      <c r="AZ58" s="118"/>
-      <c r="BA58" s="118"/>
-      <c r="BB58" s="118"/>
-      <c r="BC58" s="118"/>
-      <c r="BD58" s="118"/>
-      <c r="BE58" s="118"/>
-      <c r="BF58" s="118"/>
-      <c r="BG58" s="118"/>
-      <c r="BH58" s="118"/>
-      <c r="BI58" s="118"/>
       <c r="BJ58" s="102"/>
-    </row>
-    <row r="59" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK58" s="106"/>
+      <c r="BL58" s="120"/>
+      <c r="BM58" s="120"/>
+      <c r="BN58" s="120"/>
+      <c r="BO58" s="120"/>
+      <c r="BP58" s="120"/>
+      <c r="BQ58" s="120"/>
+      <c r="BR58" s="120"/>
+      <c r="BS58" s="120"/>
+      <c r="BT58" s="120"/>
+      <c r="BU58" s="120"/>
+      <c r="BV58" s="120"/>
+      <c r="BW58" s="120"/>
+      <c r="BX58" s="120"/>
+      <c r="BY58" s="102"/>
+    </row>
+    <row r="59" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M59" s="16"/>
       <c r="AD59" s="102"/>
       <c r="AE59" s="106"/>
       <c r="AT59" s="102"/>
       <c r="AU59" s="106"/>
-      <c r="AV59" s="118"/>
-      <c r="AW59" s="118"/>
-      <c r="AX59" s="118"/>
-      <c r="AY59" s="118"/>
-      <c r="AZ59" s="118"/>
-      <c r="BA59" s="118"/>
-      <c r="BB59" s="118"/>
-      <c r="BC59" s="118"/>
-      <c r="BD59" s="118"/>
-      <c r="BE59" s="118"/>
-      <c r="BF59" s="118"/>
-      <c r="BG59" s="118"/>
-      <c r="BH59" s="118"/>
-      <c r="BI59" s="118"/>
       <c r="BJ59" s="102"/>
-    </row>
-    <row r="60" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK59" s="106"/>
+      <c r="BL59" s="120"/>
+      <c r="BM59" s="120"/>
+      <c r="BN59" s="120"/>
+      <c r="BO59" s="120"/>
+      <c r="BP59" s="120"/>
+      <c r="BQ59" s="120"/>
+      <c r="BR59" s="120"/>
+      <c r="BS59" s="120"/>
+      <c r="BT59" s="120"/>
+      <c r="BU59" s="120"/>
+      <c r="BV59" s="120"/>
+      <c r="BW59" s="120"/>
+      <c r="BX59" s="120"/>
+      <c r="BY59" s="102"/>
+    </row>
+    <row r="60" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M60" s="16"/>
       <c r="AD60" s="102"/>
       <c r="AE60" s="106"/>
       <c r="AT60" s="102"/>
       <c r="AU60" s="106"/>
-      <c r="AV60" s="118"/>
-      <c r="AW60" s="118"/>
-      <c r="AX60" s="118"/>
-      <c r="AY60" s="118"/>
-      <c r="AZ60" s="118"/>
-      <c r="BA60" s="118"/>
-      <c r="BB60" s="118"/>
-      <c r="BC60" s="118"/>
-      <c r="BD60" s="118"/>
-      <c r="BE60" s="118"/>
-      <c r="BF60" s="118"/>
-      <c r="BG60" s="118"/>
-      <c r="BH60" s="118"/>
-      <c r="BI60" s="118"/>
       <c r="BJ60" s="102"/>
-    </row>
-    <row r="61" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK60" s="106"/>
+      <c r="BL60" s="120"/>
+      <c r="BM60" s="120"/>
+      <c r="BN60" s="120"/>
+      <c r="BO60" s="120"/>
+      <c r="BP60" s="120"/>
+      <c r="BQ60" s="120"/>
+      <c r="BR60" s="120"/>
+      <c r="BS60" s="120"/>
+      <c r="BT60" s="120"/>
+      <c r="BU60" s="120"/>
+      <c r="BV60" s="120"/>
+      <c r="BW60" s="120"/>
+      <c r="BX60" s="120"/>
+      <c r="BY60" s="102"/>
+    </row>
+    <row r="61" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M61" s="16"/>
       <c r="AD61" s="102"/>
       <c r="AE61" s="106"/>
       <c r="AT61" s="102"/>
       <c r="AU61" s="106"/>
-      <c r="AV61" s="118"/>
-      <c r="AW61" s="118"/>
-      <c r="AX61" s="118"/>
-      <c r="AY61" s="118"/>
-      <c r="AZ61" s="118"/>
-      <c r="BA61" s="118"/>
-      <c r="BB61" s="118"/>
-      <c r="BC61" s="118"/>
-      <c r="BD61" s="118"/>
-      <c r="BE61" s="118"/>
-      <c r="BF61" s="118"/>
-      <c r="BG61" s="118"/>
-      <c r="BH61" s="118"/>
-      <c r="BI61" s="118"/>
       <c r="BJ61" s="102"/>
-    </row>
-    <row r="62" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK61" s="106"/>
+      <c r="BL61" s="120"/>
+      <c r="BM61" s="120"/>
+      <c r="BN61" s="120"/>
+      <c r="BO61" s="120"/>
+      <c r="BP61" s="120"/>
+      <c r="BQ61" s="120"/>
+      <c r="BR61" s="120"/>
+      <c r="BS61" s="120"/>
+      <c r="BT61" s="120"/>
+      <c r="BU61" s="120"/>
+      <c r="BV61" s="120"/>
+      <c r="BW61" s="120"/>
+      <c r="BX61" s="120"/>
+      <c r="BY61" s="102"/>
+    </row>
+    <row r="62" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M62" s="16"/>
       <c r="AD62" s="102"/>
       <c r="AE62" s="106"/>
       <c r="AT62" s="102"/>
       <c r="AU62" s="106"/>
-      <c r="AV62" s="118"/>
-      <c r="AW62" s="118"/>
-      <c r="AX62" s="118"/>
-      <c r="AY62" s="118"/>
-      <c r="AZ62" s="118"/>
-      <c r="BA62" s="118"/>
-      <c r="BB62" s="118"/>
-      <c r="BC62" s="118"/>
-      <c r="BD62" s="118"/>
-      <c r="BE62" s="118"/>
-      <c r="BF62" s="118"/>
-      <c r="BG62" s="118"/>
-      <c r="BH62" s="118"/>
-      <c r="BI62" s="118"/>
       <c r="BJ62" s="102"/>
-    </row>
-    <row r="63" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK62" s="106"/>
+      <c r="BL62" s="120"/>
+      <c r="BM62" s="120"/>
+      <c r="BN62" s="120"/>
+      <c r="BO62" s="120"/>
+      <c r="BP62" s="120"/>
+      <c r="BQ62" s="120"/>
+      <c r="BR62" s="120"/>
+      <c r="BS62" s="120"/>
+      <c r="BT62" s="120"/>
+      <c r="BU62" s="120"/>
+      <c r="BV62" s="120"/>
+      <c r="BW62" s="120"/>
+      <c r="BX62" s="120"/>
+      <c r="BY62" s="102"/>
+    </row>
+    <row r="63" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M63" s="16"/>
       <c r="AD63" s="102"/>
       <c r="AE63" s="106"/>
       <c r="AT63" s="102"/>
       <c r="AU63" s="106"/>
-      <c r="AV63" s="118"/>
-      <c r="AW63" s="118"/>
-      <c r="AX63" s="118"/>
-      <c r="AY63" s="118"/>
-      <c r="AZ63" s="118"/>
-      <c r="BA63" s="118"/>
-      <c r="BB63" s="118"/>
-      <c r="BC63" s="118"/>
-      <c r="BD63" s="118"/>
-      <c r="BE63" s="118"/>
-      <c r="BF63" s="118"/>
-      <c r="BG63" s="118"/>
-      <c r="BH63" s="118"/>
-      <c r="BI63" s="118"/>
       <c r="BJ63" s="102"/>
-    </row>
-    <row r="64" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK63" s="106"/>
+      <c r="BL63" s="120"/>
+      <c r="BM63" s="120"/>
+      <c r="BN63" s="120"/>
+      <c r="BO63" s="120"/>
+      <c r="BP63" s="120"/>
+      <c r="BQ63" s="120"/>
+      <c r="BR63" s="120"/>
+      <c r="BS63" s="120"/>
+      <c r="BT63" s="120"/>
+      <c r="BU63" s="120"/>
+      <c r="BV63" s="120"/>
+      <c r="BW63" s="120"/>
+      <c r="BX63" s="120"/>
+      <c r="BY63" s="102"/>
+    </row>
+    <row r="64" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M64" s="16"/>
       <c r="AD64" s="102"/>
       <c r="AE64" s="106"/>
       <c r="AT64" s="102"/>
       <c r="AU64" s="106"/>
-      <c r="AV64" s="118"/>
-      <c r="AW64" s="118"/>
-      <c r="AX64" s="118"/>
-      <c r="AY64" s="118"/>
-      <c r="AZ64" s="118"/>
-      <c r="BA64" s="118"/>
-      <c r="BB64" s="118"/>
-      <c r="BC64" s="118"/>
-      <c r="BD64" s="118"/>
-      <c r="BE64" s="118"/>
-      <c r="BF64" s="118"/>
-      <c r="BG64" s="118"/>
-      <c r="BH64" s="118"/>
-      <c r="BI64" s="118"/>
       <c r="BJ64" s="102"/>
-    </row>
-    <row r="65" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK64" s="106"/>
+      <c r="BL64" s="120"/>
+      <c r="BM64" s="120"/>
+      <c r="BN64" s="120"/>
+      <c r="BO64" s="120"/>
+      <c r="BP64" s="120"/>
+      <c r="BQ64" s="120"/>
+      <c r="BR64" s="120"/>
+      <c r="BS64" s="120"/>
+      <c r="BT64" s="120"/>
+      <c r="BU64" s="120"/>
+      <c r="BV64" s="120"/>
+      <c r="BW64" s="120"/>
+      <c r="BX64" s="120"/>
+      <c r="BY64" s="102"/>
+    </row>
+    <row r="65" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M65" s="16"/>
       <c r="AD65" s="102"/>
       <c r="AE65" s="106"/>
       <c r="AT65" s="102"/>
       <c r="AU65" s="106"/>
-      <c r="AV65" s="118"/>
-      <c r="AW65" s="118"/>
-      <c r="AX65" s="118"/>
-      <c r="AY65" s="118"/>
-      <c r="AZ65" s="118"/>
-      <c r="BA65" s="118"/>
-      <c r="BB65" s="118"/>
-      <c r="BC65" s="118"/>
-      <c r="BD65" s="118"/>
-      <c r="BE65" s="118"/>
-      <c r="BF65" s="118"/>
-      <c r="BG65" s="118"/>
-      <c r="BH65" s="118"/>
-      <c r="BI65" s="118"/>
       <c r="BJ65" s="102"/>
-    </row>
-    <row r="66" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK65" s="106"/>
+      <c r="BL65" s="120"/>
+      <c r="BM65" s="120"/>
+      <c r="BN65" s="120"/>
+      <c r="BO65" s="120"/>
+      <c r="BP65" s="120"/>
+      <c r="BQ65" s="120"/>
+      <c r="BR65" s="120"/>
+      <c r="BS65" s="120"/>
+      <c r="BT65" s="120"/>
+      <c r="BU65" s="120"/>
+      <c r="BV65" s="120"/>
+      <c r="BW65" s="120"/>
+      <c r="BX65" s="120"/>
+      <c r="BY65" s="102"/>
+    </row>
+    <row r="66" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M66" s="16"/>
       <c r="AD66" s="102"/>
       <c r="AE66" s="106"/>
       <c r="AT66" s="102"/>
       <c r="AU66" s="106"/>
-      <c r="AV66" s="118"/>
-      <c r="AW66" s="118"/>
-      <c r="AX66" s="118"/>
-      <c r="AY66" s="118"/>
-      <c r="AZ66" s="118"/>
-      <c r="BA66" s="118"/>
-      <c r="BB66" s="118"/>
-      <c r="BC66" s="118"/>
-      <c r="BD66" s="118"/>
-      <c r="BE66" s="118"/>
-      <c r="BF66" s="118"/>
-      <c r="BG66" s="118"/>
-      <c r="BH66" s="118"/>
-      <c r="BI66" s="118"/>
       <c r="BJ66" s="102"/>
-    </row>
-    <row r="67" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK66" s="106"/>
+      <c r="BL66" s="120"/>
+      <c r="BM66" s="120"/>
+      <c r="BN66" s="120"/>
+      <c r="BO66" s="120"/>
+      <c r="BP66" s="120"/>
+      <c r="BQ66" s="120"/>
+      <c r="BR66" s="120"/>
+      <c r="BS66" s="120"/>
+      <c r="BT66" s="120"/>
+      <c r="BU66" s="120"/>
+      <c r="BV66" s="120"/>
+      <c r="BW66" s="120"/>
+      <c r="BX66" s="120"/>
+      <c r="BY66" s="102"/>
+    </row>
+    <row r="67" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M67" s="16"/>
       <c r="AD67" s="102"/>
       <c r="AE67" s="106"/>
       <c r="AT67" s="102"/>
       <c r="AU67" s="106"/>
-      <c r="AV67" s="118"/>
-      <c r="AW67" s="118"/>
-      <c r="AX67" s="118"/>
-      <c r="AY67" s="118"/>
-      <c r="AZ67" s="118"/>
-      <c r="BA67" s="118"/>
-      <c r="BB67" s="118"/>
-      <c r="BC67" s="118"/>
-      <c r="BD67" s="118"/>
-      <c r="BE67" s="118"/>
-      <c r="BF67" s="118"/>
-      <c r="BG67" s="118"/>
-      <c r="BH67" s="118"/>
-      <c r="BI67" s="118"/>
       <c r="BJ67" s="102"/>
-    </row>
-    <row r="68" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK67" s="106"/>
+      <c r="BL67" s="120"/>
+      <c r="BM67" s="120"/>
+      <c r="BN67" s="120"/>
+      <c r="BO67" s="120"/>
+      <c r="BP67" s="120"/>
+      <c r="BQ67" s="120"/>
+      <c r="BR67" s="120"/>
+      <c r="BS67" s="120"/>
+      <c r="BT67" s="120"/>
+      <c r="BU67" s="120"/>
+      <c r="BV67" s="120"/>
+      <c r="BW67" s="120"/>
+      <c r="BX67" s="120"/>
+      <c r="BY67" s="102"/>
+    </row>
+    <row r="68" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M68" s="16"/>
       <c r="N68" s="94" t="s">
         <v>49</v>
@@ -14097,23 +14284,24 @@
       <c r="AE68" s="106"/>
       <c r="AT68" s="102"/>
       <c r="AU68" s="106"/>
-      <c r="AV68" s="118"/>
-      <c r="AW68" s="118"/>
-      <c r="AX68" s="118"/>
-      <c r="AY68" s="118"/>
-      <c r="AZ68" s="118"/>
-      <c r="BA68" s="118"/>
-      <c r="BB68" s="118"/>
-      <c r="BC68" s="118"/>
-      <c r="BD68" s="118"/>
-      <c r="BE68" s="118"/>
-      <c r="BF68" s="118"/>
-      <c r="BG68" s="118"/>
-      <c r="BH68" s="118"/>
-      <c r="BI68" s="118"/>
       <c r="BJ68" s="102"/>
-    </row>
-    <row r="69" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK68" s="106"/>
+      <c r="BL68" s="120"/>
+      <c r="BM68" s="120"/>
+      <c r="BN68" s="120"/>
+      <c r="BO68" s="120"/>
+      <c r="BP68" s="120"/>
+      <c r="BQ68" s="120"/>
+      <c r="BR68" s="120"/>
+      <c r="BS68" s="120"/>
+      <c r="BT68" s="120"/>
+      <c r="BU68" s="120"/>
+      <c r="BV68" s="120"/>
+      <c r="BW68" s="120"/>
+      <c r="BX68" s="120"/>
+      <c r="BY68" s="102"/>
+    </row>
+    <row r="69" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M69" s="16"/>
       <c r="AD69" s="102"/>
       <c r="AE69" s="106"/>
@@ -14125,341 +14313,356 @@
       </c>
       <c r="AT69" s="102"/>
       <c r="AU69" s="106"/>
-      <c r="AV69" s="118"/>
-      <c r="AW69" s="118"/>
-      <c r="AX69" s="118"/>
-      <c r="AY69" s="118"/>
-      <c r="AZ69" s="118"/>
-      <c r="BA69" s="118"/>
-      <c r="BB69" s="118"/>
-      <c r="BC69" s="118"/>
-      <c r="BD69" s="118"/>
-      <c r="BE69" s="118"/>
-      <c r="BF69" s="118"/>
-      <c r="BG69" s="118"/>
-      <c r="BH69" s="118"/>
-      <c r="BI69" s="118"/>
       <c r="BJ69" s="102"/>
-    </row>
-    <row r="70" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK69" s="106"/>
+      <c r="BL69" s="120"/>
+      <c r="BM69" s="120"/>
+      <c r="BN69" s="120"/>
+      <c r="BO69" s="120"/>
+      <c r="BP69" s="120"/>
+      <c r="BQ69" s="120"/>
+      <c r="BR69" s="120"/>
+      <c r="BS69" s="120"/>
+      <c r="BT69" s="120"/>
+      <c r="BU69" s="120"/>
+      <c r="BV69" s="120"/>
+      <c r="BW69" s="120"/>
+      <c r="BX69" s="120"/>
+      <c r="BY69" s="102"/>
+    </row>
+    <row r="70" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M70" s="16"/>
       <c r="AD70" s="102"/>
       <c r="AE70" s="106"/>
       <c r="AT70" s="102"/>
       <c r="AU70" s="106"/>
-      <c r="AV70" s="117" t="s">
+      <c r="AV70" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="AW70" s="118"/>
-      <c r="AX70" s="118"/>
-      <c r="AY70" s="118"/>
-      <c r="AZ70" s="118"/>
-      <c r="BA70" s="118"/>
-      <c r="BB70" s="118"/>
-      <c r="BC70" s="117" t="s">
+      <c r="BC70" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="BD70" s="118"/>
-      <c r="BE70" s="118"/>
-      <c r="BF70" s="118"/>
-      <c r="BG70" s="118"/>
-      <c r="BH70" s="118"/>
-      <c r="BI70" s="118"/>
       <c r="BJ70" s="102"/>
-      <c r="BL70" s="94" t="s">
+      <c r="BK70" s="106"/>
+      <c r="BL70" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="BS70" s="94" t="s">
+      <c r="BM70" s="120"/>
+      <c r="BN70" s="120"/>
+      <c r="BO70" s="120"/>
+      <c r="BP70" s="120"/>
+      <c r="BQ70" s="120"/>
+      <c r="BR70" s="120"/>
+      <c r="BS70" s="119" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BT70" s="120"/>
+      <c r="BU70" s="120"/>
+      <c r="BV70" s="120"/>
+      <c r="BW70" s="120"/>
+      <c r="BX70" s="120"/>
+      <c r="BY70" s="102"/>
+    </row>
+    <row r="71" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M71" s="16"/>
       <c r="AD71" s="102"/>
       <c r="AE71" s="106"/>
       <c r="AT71" s="102"/>
       <c r="AU71" s="106"/>
-      <c r="AV71" s="118"/>
-      <c r="AW71" s="118"/>
-      <c r="AX71" s="118"/>
-      <c r="AY71" s="118"/>
-      <c r="AZ71" s="118"/>
-      <c r="BA71" s="118"/>
-      <c r="BB71" s="118"/>
-      <c r="BC71" s="118"/>
-      <c r="BD71" s="118"/>
-      <c r="BE71" s="118"/>
-      <c r="BF71" s="118"/>
-      <c r="BG71" s="118"/>
-      <c r="BH71" s="118"/>
-      <c r="BI71" s="118"/>
       <c r="BJ71" s="102"/>
-    </row>
-    <row r="72" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK71" s="106"/>
+      <c r="BL71" s="120"/>
+      <c r="BM71" s="120"/>
+      <c r="BN71" s="120"/>
+      <c r="BO71" s="120"/>
+      <c r="BP71" s="120"/>
+      <c r="BQ71" s="120"/>
+      <c r="BR71" s="120"/>
+      <c r="BS71" s="120"/>
+      <c r="BT71" s="120"/>
+      <c r="BU71" s="120"/>
+      <c r="BV71" s="120"/>
+      <c r="BW71" s="120"/>
+      <c r="BX71" s="120"/>
+      <c r="BY71" s="102"/>
+    </row>
+    <row r="72" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M72" s="16"/>
       <c r="AD72" s="102"/>
       <c r="AE72" s="106"/>
       <c r="AT72" s="102"/>
       <c r="AU72" s="106"/>
-      <c r="AV72" s="118"/>
-      <c r="AW72" s="118"/>
-      <c r="AX72" s="118"/>
-      <c r="AY72" s="118"/>
-      <c r="AZ72" s="118"/>
-      <c r="BA72" s="118"/>
-      <c r="BB72" s="118"/>
-      <c r="BC72" s="118"/>
-      <c r="BD72" s="118"/>
-      <c r="BE72" s="118"/>
-      <c r="BF72" s="118"/>
-      <c r="BG72" s="118"/>
-      <c r="BH72" s="118"/>
-      <c r="BI72" s="118"/>
       <c r="BJ72" s="102"/>
-    </row>
-    <row r="73" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK72" s="106"/>
+      <c r="BL72" s="120"/>
+      <c r="BM72" s="120"/>
+      <c r="BN72" s="120"/>
+      <c r="BO72" s="120"/>
+      <c r="BP72" s="120"/>
+      <c r="BQ72" s="120"/>
+      <c r="BR72" s="120"/>
+      <c r="BS72" s="120"/>
+      <c r="BT72" s="120"/>
+      <c r="BU72" s="120"/>
+      <c r="BV72" s="120"/>
+      <c r="BW72" s="120"/>
+      <c r="BX72" s="120"/>
+      <c r="BY72" s="102"/>
+    </row>
+    <row r="73" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M73" s="16"/>
       <c r="AD73" s="102"/>
       <c r="AE73" s="106"/>
       <c r="AT73" s="102"/>
       <c r="AU73" s="106"/>
-      <c r="AV73" s="118"/>
-      <c r="AW73" s="118"/>
-      <c r="AX73" s="118"/>
-      <c r="AY73" s="118"/>
-      <c r="AZ73" s="118"/>
-      <c r="BA73" s="118"/>
-      <c r="BB73" s="118"/>
-      <c r="BC73" s="118"/>
-      <c r="BD73" s="118"/>
-      <c r="BE73" s="118"/>
-      <c r="BF73" s="118"/>
-      <c r="BG73" s="118"/>
-      <c r="BH73" s="118"/>
-      <c r="BI73" s="118"/>
       <c r="BJ73" s="102"/>
-    </row>
-    <row r="74" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK73" s="106"/>
+      <c r="BL73" s="120"/>
+      <c r="BM73" s="120"/>
+      <c r="BN73" s="120"/>
+      <c r="BO73" s="120"/>
+      <c r="BP73" s="120"/>
+      <c r="BQ73" s="120"/>
+      <c r="BR73" s="120"/>
+      <c r="BS73" s="120"/>
+      <c r="BT73" s="120"/>
+      <c r="BU73" s="120"/>
+      <c r="BV73" s="120"/>
+      <c r="BW73" s="120"/>
+      <c r="BX73" s="120"/>
+      <c r="BY73" s="102"/>
+    </row>
+    <row r="74" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M74" s="16"/>
       <c r="AD74" s="102"/>
       <c r="AE74" s="106"/>
       <c r="AT74" s="102"/>
       <c r="AU74" s="106"/>
-      <c r="AV74" s="118"/>
-      <c r="AW74" s="118"/>
-      <c r="AX74" s="118"/>
-      <c r="AY74" s="118"/>
-      <c r="AZ74" s="118"/>
-      <c r="BA74" s="118"/>
-      <c r="BB74" s="118"/>
-      <c r="BC74" s="118"/>
-      <c r="BD74" s="118"/>
-      <c r="BE74" s="118"/>
-      <c r="BF74" s="118"/>
-      <c r="BG74" s="118"/>
-      <c r="BH74" s="118"/>
-      <c r="BI74" s="118"/>
       <c r="BJ74" s="102"/>
-    </row>
-    <row r="75" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK74" s="106"/>
+      <c r="BL74" s="120"/>
+      <c r="BM74" s="120"/>
+      <c r="BN74" s="120"/>
+      <c r="BO74" s="120"/>
+      <c r="BP74" s="120"/>
+      <c r="BQ74" s="120"/>
+      <c r="BR74" s="120"/>
+      <c r="BS74" s="120"/>
+      <c r="BT74" s="120"/>
+      <c r="BU74" s="120"/>
+      <c r="BV74" s="120"/>
+      <c r="BW74" s="120"/>
+      <c r="BX74" s="120"/>
+      <c r="BY74" s="102"/>
+    </row>
+    <row r="75" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M75" s="16"/>
       <c r="AD75" s="102"/>
       <c r="AE75" s="106"/>
       <c r="AT75" s="102"/>
       <c r="AU75" s="106"/>
-      <c r="AV75" s="118"/>
-      <c r="AW75" s="118"/>
-      <c r="AX75" s="118"/>
-      <c r="AY75" s="118"/>
-      <c r="AZ75" s="118"/>
-      <c r="BA75" s="118"/>
-      <c r="BB75" s="118"/>
-      <c r="BC75" s="118"/>
-      <c r="BD75" s="118"/>
-      <c r="BE75" s="118"/>
-      <c r="BF75" s="118"/>
-      <c r="BG75" s="118"/>
-      <c r="BH75" s="118"/>
-      <c r="BI75" s="118"/>
       <c r="BJ75" s="102"/>
-    </row>
-    <row r="76" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK75" s="106"/>
+      <c r="BL75" s="120"/>
+      <c r="BM75" s="120"/>
+      <c r="BN75" s="120"/>
+      <c r="BO75" s="120"/>
+      <c r="BP75" s="120"/>
+      <c r="BQ75" s="120"/>
+      <c r="BR75" s="120"/>
+      <c r="BS75" s="120"/>
+      <c r="BT75" s="120"/>
+      <c r="BU75" s="120"/>
+      <c r="BV75" s="120"/>
+      <c r="BW75" s="120"/>
+      <c r="BX75" s="120"/>
+      <c r="BY75" s="102"/>
+    </row>
+    <row r="76" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M76" s="16"/>
       <c r="AD76" s="102"/>
       <c r="AE76" s="106"/>
       <c r="AT76" s="102"/>
       <c r="AU76" s="106"/>
-      <c r="AV76" s="118"/>
-      <c r="AW76" s="118"/>
-      <c r="AX76" s="118"/>
-      <c r="AY76" s="118"/>
-      <c r="AZ76" s="118"/>
-      <c r="BA76" s="118"/>
-      <c r="BB76" s="118"/>
-      <c r="BC76" s="118"/>
-      <c r="BD76" s="118"/>
-      <c r="BE76" s="118"/>
-      <c r="BF76" s="118"/>
-      <c r="BG76" s="118"/>
-      <c r="BH76" s="118"/>
-      <c r="BI76" s="118"/>
       <c r="BJ76" s="102"/>
-    </row>
-    <row r="77" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK76" s="106"/>
+      <c r="BL76" s="120"/>
+      <c r="BM76" s="120"/>
+      <c r="BN76" s="120"/>
+      <c r="BO76" s="120"/>
+      <c r="BP76" s="120"/>
+      <c r="BQ76" s="120"/>
+      <c r="BR76" s="120"/>
+      <c r="BS76" s="120"/>
+      <c r="BT76" s="120"/>
+      <c r="BU76" s="120"/>
+      <c r="BV76" s="120"/>
+      <c r="BW76" s="120"/>
+      <c r="BX76" s="120"/>
+      <c r="BY76" s="102"/>
+    </row>
+    <row r="77" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M77" s="16"/>
       <c r="AD77" s="102"/>
       <c r="AE77" s="106"/>
       <c r="AT77" s="102"/>
       <c r="AU77" s="106"/>
-      <c r="AV77" s="118"/>
-      <c r="AW77" s="118"/>
-      <c r="AX77" s="118"/>
-      <c r="AY77" s="118"/>
-      <c r="AZ77" s="118"/>
-      <c r="BA77" s="118"/>
-      <c r="BB77" s="118"/>
-      <c r="BC77" s="118"/>
-      <c r="BD77" s="118"/>
-      <c r="BE77" s="118"/>
-      <c r="BF77" s="118"/>
-      <c r="BG77" s="118"/>
-      <c r="BH77" s="118"/>
-      <c r="BI77" s="118"/>
       <c r="BJ77" s="102"/>
-    </row>
-    <row r="78" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK77" s="106"/>
+      <c r="BL77" s="120"/>
+      <c r="BM77" s="120"/>
+      <c r="BN77" s="120"/>
+      <c r="BO77" s="120"/>
+      <c r="BP77" s="120"/>
+      <c r="BQ77" s="120"/>
+      <c r="BR77" s="120"/>
+      <c r="BS77" s="120"/>
+      <c r="BT77" s="120"/>
+      <c r="BU77" s="120"/>
+      <c r="BV77" s="120"/>
+      <c r="BW77" s="120"/>
+      <c r="BX77" s="120"/>
+      <c r="BY77" s="102"/>
+    </row>
+    <row r="78" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M78" s="16"/>
       <c r="AD78" s="102"/>
       <c r="AE78" s="106"/>
       <c r="AT78" s="102"/>
       <c r="AU78" s="106"/>
-      <c r="AV78" s="118"/>
-      <c r="AW78" s="118"/>
-      <c r="AX78" s="118"/>
-      <c r="AY78" s="118"/>
-      <c r="AZ78" s="118"/>
-      <c r="BA78" s="118"/>
-      <c r="BB78" s="118"/>
-      <c r="BC78" s="118"/>
-      <c r="BD78" s="118"/>
-      <c r="BE78" s="118"/>
-      <c r="BF78" s="118"/>
-      <c r="BG78" s="118"/>
-      <c r="BH78" s="118"/>
-      <c r="BI78" s="118"/>
       <c r="BJ78" s="102"/>
-    </row>
-    <row r="79" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK78" s="106"/>
+      <c r="BL78" s="120"/>
+      <c r="BM78" s="120"/>
+      <c r="BN78" s="120"/>
+      <c r="BO78" s="120"/>
+      <c r="BP78" s="120"/>
+      <c r="BQ78" s="120"/>
+      <c r="BR78" s="120"/>
+      <c r="BS78" s="120"/>
+      <c r="BT78" s="120"/>
+      <c r="BU78" s="120"/>
+      <c r="BV78" s="120"/>
+      <c r="BW78" s="120"/>
+      <c r="BX78" s="120"/>
+      <c r="BY78" s="102"/>
+    </row>
+    <row r="79" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M79" s="16"/>
       <c r="AD79" s="102"/>
       <c r="AE79" s="106"/>
       <c r="AT79" s="102"/>
       <c r="AU79" s="106"/>
-      <c r="AV79" s="118"/>
-      <c r="AW79" s="118"/>
-      <c r="AX79" s="118"/>
-      <c r="AY79" s="118"/>
-      <c r="AZ79" s="118"/>
-      <c r="BA79" s="118"/>
-      <c r="BB79" s="118"/>
-      <c r="BC79" s="118"/>
-      <c r="BD79" s="118"/>
-      <c r="BE79" s="118"/>
-      <c r="BF79" s="118"/>
-      <c r="BG79" s="118"/>
-      <c r="BH79" s="118"/>
-      <c r="BI79" s="118"/>
       <c r="BJ79" s="102"/>
-    </row>
-    <row r="80" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK79" s="106"/>
+      <c r="BL79" s="120"/>
+      <c r="BM79" s="120"/>
+      <c r="BN79" s="120"/>
+      <c r="BO79" s="120"/>
+      <c r="BP79" s="120"/>
+      <c r="BQ79" s="120"/>
+      <c r="BR79" s="120"/>
+      <c r="BS79" s="120"/>
+      <c r="BT79" s="120"/>
+      <c r="BU79" s="120"/>
+      <c r="BV79" s="120"/>
+      <c r="BW79" s="120"/>
+      <c r="BX79" s="120"/>
+      <c r="BY79" s="102"/>
+    </row>
+    <row r="80" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M80" s="16"/>
       <c r="AD80" s="102"/>
       <c r="AE80" s="106"/>
       <c r="AT80" s="102"/>
       <c r="AU80" s="106"/>
-      <c r="AV80" s="118"/>
-      <c r="AW80" s="118"/>
-      <c r="AX80" s="118"/>
-      <c r="AY80" s="118"/>
-      <c r="AZ80" s="118"/>
-      <c r="BA80" s="118"/>
-      <c r="BB80" s="118"/>
-      <c r="BC80" s="118"/>
-      <c r="BD80" s="118"/>
-      <c r="BE80" s="118"/>
-      <c r="BF80" s="118"/>
-      <c r="BG80" s="118"/>
-      <c r="BH80" s="118"/>
-      <c r="BI80" s="118"/>
       <c r="BJ80" s="102"/>
-    </row>
-    <row r="81" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK80" s="106"/>
+      <c r="BL80" s="120"/>
+      <c r="BM80" s="120"/>
+      <c r="BN80" s="120"/>
+      <c r="BO80" s="120"/>
+      <c r="BP80" s="120"/>
+      <c r="BQ80" s="120"/>
+      <c r="BR80" s="120"/>
+      <c r="BS80" s="120"/>
+      <c r="BT80" s="120"/>
+      <c r="BU80" s="120"/>
+      <c r="BV80" s="120"/>
+      <c r="BW80" s="120"/>
+      <c r="BX80" s="120"/>
+      <c r="BY80" s="102"/>
+    </row>
+    <row r="81" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M81" s="16"/>
       <c r="AD81" s="102"/>
       <c r="AE81" s="106"/>
       <c r="AT81" s="102"/>
       <c r="AU81" s="106"/>
-      <c r="AV81" s="118"/>
-      <c r="AW81" s="118"/>
-      <c r="AX81" s="118"/>
-      <c r="AY81" s="118"/>
-      <c r="AZ81" s="118"/>
-      <c r="BA81" s="118"/>
-      <c r="BB81" s="118"/>
-      <c r="BC81" s="118"/>
-      <c r="BD81" s="118"/>
-      <c r="BE81" s="118"/>
-      <c r="BF81" s="118"/>
-      <c r="BG81" s="118"/>
-      <c r="BH81" s="118"/>
-      <c r="BI81" s="118"/>
       <c r="BJ81" s="102"/>
-    </row>
-    <row r="82" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK81" s="106"/>
+      <c r="BL81" s="120"/>
+      <c r="BM81" s="120"/>
+      <c r="BN81" s="120"/>
+      <c r="BO81" s="120"/>
+      <c r="BP81" s="120"/>
+      <c r="BQ81" s="120"/>
+      <c r="BR81" s="120"/>
+      <c r="BS81" s="120"/>
+      <c r="BT81" s="120"/>
+      <c r="BU81" s="120"/>
+      <c r="BV81" s="120"/>
+      <c r="BW81" s="120"/>
+      <c r="BX81" s="120"/>
+      <c r="BY81" s="102"/>
+    </row>
+    <row r="82" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M82" s="16"/>
       <c r="AD82" s="102"/>
       <c r="AE82" s="106"/>
       <c r="AT82" s="102"/>
       <c r="AU82" s="106"/>
-      <c r="AV82" s="118"/>
-      <c r="AW82" s="118"/>
-      <c r="AX82" s="118"/>
-      <c r="AY82" s="118"/>
-      <c r="AZ82" s="118"/>
-      <c r="BA82" s="118"/>
-      <c r="BB82" s="118"/>
-      <c r="BC82" s="118"/>
-      <c r="BD82" s="118"/>
-      <c r="BE82" s="118"/>
-      <c r="BF82" s="118"/>
-      <c r="BG82" s="118"/>
-      <c r="BH82" s="118"/>
-      <c r="BI82" s="118"/>
       <c r="BJ82" s="102"/>
-    </row>
-    <row r="83" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK82" s="106"/>
+      <c r="BL82" s="120"/>
+      <c r="BM82" s="120"/>
+      <c r="BN82" s="120"/>
+      <c r="BO82" s="120"/>
+      <c r="BP82" s="120"/>
+      <c r="BQ82" s="120"/>
+      <c r="BR82" s="120"/>
+      <c r="BS82" s="120"/>
+      <c r="BT82" s="120"/>
+      <c r="BU82" s="120"/>
+      <c r="BV82" s="120"/>
+      <c r="BW82" s="120"/>
+      <c r="BX82" s="120"/>
+      <c r="BY82" s="102"/>
+    </row>
+    <row r="83" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M83" s="16"/>
       <c r="AD83" s="102"/>
       <c r="AE83" s="106"/>
       <c r="AT83" s="102"/>
       <c r="AU83" s="106"/>
-      <c r="AV83" s="118"/>
-      <c r="AW83" s="118"/>
-      <c r="AX83" s="118"/>
-      <c r="AY83" s="118"/>
-      <c r="AZ83" s="118"/>
-      <c r="BA83" s="118"/>
-      <c r="BB83" s="118"/>
-      <c r="BC83" s="118"/>
-      <c r="BD83" s="118"/>
-      <c r="BE83" s="118"/>
-      <c r="BF83" s="118"/>
-      <c r="BG83" s="118"/>
-      <c r="BH83" s="118"/>
-      <c r="BI83" s="118"/>
       <c r="BJ83" s="102"/>
-    </row>
-    <row r="84" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK83" s="106"/>
+      <c r="BL83" s="120"/>
+      <c r="BM83" s="120"/>
+      <c r="BN83" s="120"/>
+      <c r="BO83" s="120"/>
+      <c r="BP83" s="120"/>
+      <c r="BQ83" s="120"/>
+      <c r="BR83" s="120"/>
+      <c r="BS83" s="120"/>
+      <c r="BT83" s="120"/>
+      <c r="BU83" s="120"/>
+      <c r="BV83" s="120"/>
+      <c r="BW83" s="120"/>
+      <c r="BX83" s="120"/>
+      <c r="BY83" s="102"/>
+    </row>
+    <row r="84" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M84" s="16"/>
       <c r="O84" s="94" t="s">
         <v>51</v>
@@ -14471,23 +14674,24 @@
       <c r="AE84" s="106"/>
       <c r="AT84" s="102"/>
       <c r="AU84" s="106"/>
-      <c r="AV84" s="118"/>
-      <c r="AW84" s="118"/>
-      <c r="AX84" s="118"/>
-      <c r="AY84" s="118"/>
-      <c r="AZ84" s="118"/>
-      <c r="BA84" s="118"/>
-      <c r="BB84" s="118"/>
-      <c r="BC84" s="118"/>
-      <c r="BD84" s="118"/>
-      <c r="BE84" s="118"/>
-      <c r="BF84" s="118"/>
-      <c r="BG84" s="118"/>
-      <c r="BH84" s="118"/>
-      <c r="BI84" s="118"/>
       <c r="BJ84" s="102"/>
-    </row>
-    <row r="85" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK84" s="106"/>
+      <c r="BL84" s="120"/>
+      <c r="BM84" s="120"/>
+      <c r="BN84" s="120"/>
+      <c r="BO84" s="120"/>
+      <c r="BP84" s="120"/>
+      <c r="BQ84" s="120"/>
+      <c r="BR84" s="120"/>
+      <c r="BS84" s="120"/>
+      <c r="BT84" s="120"/>
+      <c r="BU84" s="120"/>
+      <c r="BV84" s="120"/>
+      <c r="BW84" s="120"/>
+      <c r="BX84" s="120"/>
+      <c r="BY84" s="102"/>
+    </row>
+    <row r="85" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M85" s="16"/>
       <c r="AD85" s="102"/>
       <c r="AE85" s="106"/>
@@ -14499,341 +14703,356 @@
       </c>
       <c r="AT85" s="102"/>
       <c r="AU85" s="106"/>
-      <c r="AV85" s="118"/>
-      <c r="AW85" s="118"/>
-      <c r="AX85" s="118"/>
-      <c r="AY85" s="118"/>
-      <c r="AZ85" s="118"/>
-      <c r="BA85" s="118"/>
-      <c r="BB85" s="118"/>
-      <c r="BC85" s="118"/>
-      <c r="BD85" s="118"/>
-      <c r="BE85" s="118"/>
-      <c r="BF85" s="118"/>
-      <c r="BG85" s="118"/>
-      <c r="BH85" s="118"/>
-      <c r="BI85" s="118"/>
       <c r="BJ85" s="102"/>
-    </row>
-    <row r="86" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK85" s="106"/>
+      <c r="BL85" s="120"/>
+      <c r="BM85" s="120"/>
+      <c r="BN85" s="120"/>
+      <c r="BO85" s="120"/>
+      <c r="BP85" s="120"/>
+      <c r="BQ85" s="120"/>
+      <c r="BR85" s="120"/>
+      <c r="BS85" s="120"/>
+      <c r="BT85" s="120"/>
+      <c r="BU85" s="120"/>
+      <c r="BV85" s="120"/>
+      <c r="BW85" s="120"/>
+      <c r="BX85" s="120"/>
+      <c r="BY85" s="102"/>
+    </row>
+    <row r="86" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M86" s="16"/>
       <c r="AD86" s="102"/>
       <c r="AE86" s="106"/>
       <c r="AT86" s="102"/>
       <c r="AU86" s="106"/>
-      <c r="AV86" s="118"/>
-      <c r="AW86" s="118"/>
-      <c r="AX86" s="118"/>
-      <c r="AY86" s="118"/>
-      <c r="AZ86" s="118"/>
-      <c r="BA86" s="118"/>
-      <c r="BB86" s="118"/>
-      <c r="BC86" s="118"/>
-      <c r="BD86" s="118"/>
-      <c r="BE86" s="118"/>
-      <c r="BF86" s="118"/>
-      <c r="BG86" s="118"/>
-      <c r="BH86" s="118"/>
-      <c r="BI86" s="118"/>
       <c r="BJ86" s="102"/>
-    </row>
-    <row r="87" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK86" s="106"/>
+      <c r="BL86" s="120"/>
+      <c r="BM86" s="120"/>
+      <c r="BN86" s="120"/>
+      <c r="BO86" s="120"/>
+      <c r="BP86" s="120"/>
+      <c r="BQ86" s="120"/>
+      <c r="BR86" s="120"/>
+      <c r="BS86" s="120"/>
+      <c r="BT86" s="120"/>
+      <c r="BU86" s="120"/>
+      <c r="BV86" s="120"/>
+      <c r="BW86" s="120"/>
+      <c r="BX86" s="120"/>
+      <c r="BY86" s="102"/>
+    </row>
+    <row r="87" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M87" s="16"/>
       <c r="AD87" s="102"/>
       <c r="AE87" s="106"/>
       <c r="AT87" s="102"/>
       <c r="AU87" s="106"/>
-      <c r="AV87" s="117" t="s">
+      <c r="AV87" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="AW87" s="118"/>
-      <c r="AX87" s="118"/>
-      <c r="AY87" s="118"/>
-      <c r="AZ87" s="118"/>
-      <c r="BA87" s="118"/>
-      <c r="BB87" s="118"/>
-      <c r="BC87" s="118"/>
-      <c r="BD87" s="117" t="s">
+      <c r="BD87" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="BE87" s="118"/>
-      <c r="BF87" s="118"/>
-      <c r="BG87" s="118"/>
-      <c r="BH87" s="118"/>
-      <c r="BI87" s="118"/>
       <c r="BJ87" s="102"/>
-    </row>
-    <row r="88" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK87" s="106"/>
+      <c r="BL87" s="120"/>
+      <c r="BM87" s="120"/>
+      <c r="BN87" s="120"/>
+      <c r="BO87" s="120"/>
+      <c r="BP87" s="120"/>
+      <c r="BQ87" s="120"/>
+      <c r="BR87" s="120"/>
+      <c r="BS87" s="120"/>
+      <c r="BT87" s="120"/>
+      <c r="BU87" s="120"/>
+      <c r="BV87" s="120"/>
+      <c r="BW87" s="120"/>
+      <c r="BX87" s="120"/>
+      <c r="BY87" s="102"/>
+    </row>
+    <row r="88" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M88" s="16"/>
       <c r="AD88" s="102"/>
       <c r="AE88" s="106"/>
       <c r="AT88" s="102"/>
       <c r="AU88" s="106"/>
-      <c r="AV88" s="118"/>
-      <c r="AW88" s="118"/>
-      <c r="AX88" s="118"/>
-      <c r="AY88" s="118"/>
-      <c r="AZ88" s="118"/>
-      <c r="BA88" s="118"/>
-      <c r="BB88" s="118"/>
-      <c r="BC88" s="118"/>
-      <c r="BD88" s="118"/>
-      <c r="BE88" s="118"/>
-      <c r="BF88" s="118"/>
-      <c r="BG88" s="118"/>
-      <c r="BH88" s="118"/>
-      <c r="BI88" s="118"/>
       <c r="BJ88" s="102"/>
-      <c r="BL88" s="94" t="s">
+      <c r="BK88" s="106"/>
+      <c r="BL88" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="BS88" t="s">
+      <c r="BM88" s="120"/>
+      <c r="BN88" s="120"/>
+      <c r="BO88" s="120"/>
+      <c r="BP88" s="120"/>
+      <c r="BQ88" s="120"/>
+      <c r="BR88" s="120"/>
+      <c r="BS88" s="119" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="89" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BT88" s="120"/>
+      <c r="BU88" s="120"/>
+      <c r="BV88" s="120"/>
+      <c r="BW88" s="120"/>
+      <c r="BX88" s="120"/>
+      <c r="BY88" s="102"/>
+    </row>
+    <row r="89" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M89" s="16"/>
       <c r="AD89" s="102"/>
       <c r="AE89" s="106"/>
       <c r="AT89" s="102"/>
       <c r="AU89" s="106"/>
-      <c r="AV89" s="118"/>
-      <c r="AW89" s="118"/>
-      <c r="AX89" s="118"/>
-      <c r="AY89" s="118"/>
-      <c r="AZ89" s="118"/>
-      <c r="BA89" s="118"/>
-      <c r="BB89" s="118"/>
-      <c r="BC89" s="118"/>
-      <c r="BD89" s="118"/>
-      <c r="BE89" s="118"/>
-      <c r="BF89" s="118"/>
-      <c r="BG89" s="118"/>
-      <c r="BH89" s="118"/>
-      <c r="BI89" s="118"/>
       <c r="BJ89" s="102"/>
-    </row>
-    <row r="90" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK89" s="106"/>
+      <c r="BL89" s="120"/>
+      <c r="BM89" s="120"/>
+      <c r="BN89" s="120"/>
+      <c r="BO89" s="120"/>
+      <c r="BP89" s="120"/>
+      <c r="BQ89" s="120"/>
+      <c r="BR89" s="120"/>
+      <c r="BS89" s="120"/>
+      <c r="BT89" s="120"/>
+      <c r="BU89" s="120"/>
+      <c r="BV89" s="120"/>
+      <c r="BW89" s="120"/>
+      <c r="BX89" s="120"/>
+      <c r="BY89" s="102"/>
+    </row>
+    <row r="90" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M90" s="16"/>
       <c r="AD90" s="102"/>
       <c r="AE90" s="106"/>
       <c r="AT90" s="102"/>
       <c r="AU90" s="106"/>
-      <c r="AV90" s="118"/>
-      <c r="AW90" s="118"/>
-      <c r="AX90" s="118"/>
-      <c r="AY90" s="118"/>
-      <c r="AZ90" s="118"/>
-      <c r="BA90" s="118"/>
-      <c r="BB90" s="118"/>
-      <c r="BC90" s="118"/>
-      <c r="BD90" s="118"/>
-      <c r="BE90" s="118"/>
-      <c r="BF90" s="118"/>
-      <c r="BG90" s="118"/>
-      <c r="BH90" s="118"/>
-      <c r="BI90" s="118"/>
       <c r="BJ90" s="102"/>
-    </row>
-    <row r="91" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK90" s="106"/>
+      <c r="BL90" s="120"/>
+      <c r="BM90" s="120"/>
+      <c r="BN90" s="120"/>
+      <c r="BO90" s="120"/>
+      <c r="BP90" s="120"/>
+      <c r="BQ90" s="120"/>
+      <c r="BR90" s="120"/>
+      <c r="BS90" s="120"/>
+      <c r="BT90" s="120"/>
+      <c r="BU90" s="120"/>
+      <c r="BV90" s="120"/>
+      <c r="BW90" s="120"/>
+      <c r="BX90" s="120"/>
+      <c r="BY90" s="102"/>
+    </row>
+    <row r="91" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M91" s="16"/>
       <c r="AD91" s="102"/>
       <c r="AE91" s="106"/>
       <c r="AT91" s="102"/>
       <c r="AU91" s="106"/>
-      <c r="AV91" s="118"/>
-      <c r="AW91" s="118"/>
-      <c r="AX91" s="118"/>
-      <c r="AY91" s="118"/>
-      <c r="AZ91" s="118"/>
-      <c r="BA91" s="118"/>
-      <c r="BB91" s="118"/>
-      <c r="BC91" s="118"/>
-      <c r="BD91" s="118"/>
-      <c r="BE91" s="118"/>
-      <c r="BF91" s="118"/>
-      <c r="BG91" s="118"/>
-      <c r="BH91" s="118"/>
-      <c r="BI91" s="118"/>
       <c r="BJ91" s="102"/>
-    </row>
-    <row r="92" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK91" s="106"/>
+      <c r="BL91" s="120"/>
+      <c r="BM91" s="120"/>
+      <c r="BN91" s="120"/>
+      <c r="BO91" s="120"/>
+      <c r="BP91" s="120"/>
+      <c r="BQ91" s="120"/>
+      <c r="BR91" s="120"/>
+      <c r="BS91" s="120"/>
+      <c r="BT91" s="120"/>
+      <c r="BU91" s="120"/>
+      <c r="BV91" s="120"/>
+      <c r="BW91" s="120"/>
+      <c r="BX91" s="120"/>
+      <c r="BY91" s="102"/>
+    </row>
+    <row r="92" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M92" s="16"/>
       <c r="AD92" s="102"/>
       <c r="AE92" s="106"/>
       <c r="AT92" s="102"/>
       <c r="AU92" s="106"/>
-      <c r="AV92" s="118"/>
-      <c r="AW92" s="118"/>
-      <c r="AX92" s="118"/>
-      <c r="AY92" s="118"/>
-      <c r="AZ92" s="118"/>
-      <c r="BA92" s="118"/>
-      <c r="BB92" s="118"/>
-      <c r="BC92" s="118"/>
-      <c r="BD92" s="118"/>
-      <c r="BE92" s="118"/>
-      <c r="BF92" s="118"/>
-      <c r="BG92" s="118"/>
-      <c r="BH92" s="118"/>
-      <c r="BI92" s="118"/>
       <c r="BJ92" s="102"/>
-    </row>
-    <row r="93" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK92" s="106"/>
+      <c r="BL92" s="120"/>
+      <c r="BM92" s="120"/>
+      <c r="BN92" s="120"/>
+      <c r="BO92" s="120"/>
+      <c r="BP92" s="120"/>
+      <c r="BQ92" s="120"/>
+      <c r="BR92" s="120"/>
+      <c r="BS92" s="120"/>
+      <c r="BT92" s="120"/>
+      <c r="BU92" s="120"/>
+      <c r="BV92" s="120"/>
+      <c r="BW92" s="120"/>
+      <c r="BX92" s="120"/>
+      <c r="BY92" s="102"/>
+    </row>
+    <row r="93" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M93" s="16"/>
       <c r="AD93" s="102"/>
       <c r="AE93" s="106"/>
       <c r="AT93" s="102"/>
       <c r="AU93" s="106"/>
-      <c r="AV93" s="118"/>
-      <c r="AW93" s="118"/>
-      <c r="AX93" s="118"/>
-      <c r="AY93" s="118"/>
-      <c r="AZ93" s="118"/>
-      <c r="BA93" s="118"/>
-      <c r="BB93" s="118"/>
-      <c r="BC93" s="118"/>
-      <c r="BD93" s="118"/>
-      <c r="BE93" s="118"/>
-      <c r="BF93" s="118"/>
-      <c r="BG93" s="118"/>
-      <c r="BH93" s="118"/>
-      <c r="BI93" s="118"/>
       <c r="BJ93" s="102"/>
-    </row>
-    <row r="94" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK93" s="106"/>
+      <c r="BL93" s="120"/>
+      <c r="BM93" s="120"/>
+      <c r="BN93" s="120"/>
+      <c r="BO93" s="120"/>
+      <c r="BP93" s="120"/>
+      <c r="BQ93" s="120"/>
+      <c r="BR93" s="120"/>
+      <c r="BS93" s="120"/>
+      <c r="BT93" s="120"/>
+      <c r="BU93" s="120"/>
+      <c r="BV93" s="120"/>
+      <c r="BW93" s="120"/>
+      <c r="BX93" s="120"/>
+      <c r="BY93" s="102"/>
+    </row>
+    <row r="94" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M94" s="16"/>
       <c r="AD94" s="102"/>
       <c r="AE94" s="106"/>
       <c r="AT94" s="102"/>
       <c r="AU94" s="106"/>
-      <c r="AV94" s="118"/>
-      <c r="AW94" s="118"/>
-      <c r="AX94" s="118"/>
-      <c r="AY94" s="118"/>
-      <c r="AZ94" s="118"/>
-      <c r="BA94" s="118"/>
-      <c r="BB94" s="118"/>
-      <c r="BC94" s="118"/>
-      <c r="BD94" s="118"/>
-      <c r="BE94" s="118"/>
-      <c r="BF94" s="118"/>
-      <c r="BG94" s="118"/>
-      <c r="BH94" s="118"/>
-      <c r="BI94" s="118"/>
       <c r="BJ94" s="102"/>
-    </row>
-    <row r="95" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK94" s="106"/>
+      <c r="BL94" s="120"/>
+      <c r="BM94" s="120"/>
+      <c r="BN94" s="120"/>
+      <c r="BO94" s="120"/>
+      <c r="BP94" s="120"/>
+      <c r="BQ94" s="120"/>
+      <c r="BR94" s="120"/>
+      <c r="BS94" s="120"/>
+      <c r="BT94" s="120"/>
+      <c r="BU94" s="120"/>
+      <c r="BV94" s="120"/>
+      <c r="BW94" s="120"/>
+      <c r="BX94" s="120"/>
+      <c r="BY94" s="102"/>
+    </row>
+    <row r="95" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M95" s="16"/>
       <c r="AD95" s="102"/>
       <c r="AE95" s="106"/>
       <c r="AT95" s="102"/>
       <c r="AU95" s="106"/>
-      <c r="AV95" s="118"/>
-      <c r="AW95" s="118"/>
-      <c r="AX95" s="118"/>
-      <c r="AY95" s="118"/>
-      <c r="AZ95" s="118"/>
-      <c r="BA95" s="118"/>
-      <c r="BB95" s="118"/>
-      <c r="BC95" s="118"/>
-      <c r="BD95" s="118"/>
-      <c r="BE95" s="118"/>
-      <c r="BF95" s="118"/>
-      <c r="BG95" s="118"/>
-      <c r="BH95" s="118"/>
-      <c r="BI95" s="118"/>
       <c r="BJ95" s="102"/>
-    </row>
-    <row r="96" spans="13:71" x14ac:dyDescent="0.25">
+      <c r="BK95" s="106"/>
+      <c r="BL95" s="120"/>
+      <c r="BM95" s="120"/>
+      <c r="BN95" s="120"/>
+      <c r="BO95" s="120"/>
+      <c r="BP95" s="120"/>
+      <c r="BQ95" s="120"/>
+      <c r="BR95" s="120"/>
+      <c r="BS95" s="120"/>
+      <c r="BT95" s="120"/>
+      <c r="BU95" s="120"/>
+      <c r="BV95" s="120"/>
+      <c r="BW95" s="120"/>
+      <c r="BX95" s="120"/>
+      <c r="BY95" s="102"/>
+    </row>
+    <row r="96" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M96" s="16"/>
       <c r="AD96" s="102"/>
       <c r="AE96" s="106"/>
       <c r="AT96" s="102"/>
       <c r="AU96" s="106"/>
-      <c r="AV96" s="118"/>
-      <c r="AW96" s="118"/>
-      <c r="AX96" s="118"/>
-      <c r="AY96" s="118"/>
-      <c r="AZ96" s="118"/>
-      <c r="BA96" s="118"/>
-      <c r="BB96" s="118"/>
-      <c r="BC96" s="118"/>
-      <c r="BD96" s="118"/>
-      <c r="BE96" s="118"/>
-      <c r="BF96" s="118"/>
-      <c r="BG96" s="118"/>
-      <c r="BH96" s="118"/>
-      <c r="BI96" s="118"/>
       <c r="BJ96" s="102"/>
-    </row>
-    <row r="97" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK96" s="106"/>
+      <c r="BL96" s="120"/>
+      <c r="BM96" s="120"/>
+      <c r="BN96" s="120"/>
+      <c r="BO96" s="120"/>
+      <c r="BP96" s="120"/>
+      <c r="BQ96" s="120"/>
+      <c r="BR96" s="120"/>
+      <c r="BS96" s="120"/>
+      <c r="BT96" s="120"/>
+      <c r="BU96" s="120"/>
+      <c r="BV96" s="120"/>
+      <c r="BW96" s="120"/>
+      <c r="BX96" s="120"/>
+      <c r="BY96" s="102"/>
+    </row>
+    <row r="97" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M97" s="16"/>
       <c r="AD97" s="102"/>
       <c r="AE97" s="106"/>
       <c r="AT97" s="102"/>
       <c r="AU97" s="106"/>
-      <c r="AV97" s="118"/>
-      <c r="AW97" s="118"/>
-      <c r="AX97" s="118"/>
-      <c r="AY97" s="118"/>
-      <c r="AZ97" s="118"/>
-      <c r="BA97" s="118"/>
-      <c r="BB97" s="118"/>
-      <c r="BC97" s="118"/>
-      <c r="BD97" s="118"/>
-      <c r="BE97" s="118"/>
-      <c r="BF97" s="118"/>
-      <c r="BG97" s="118"/>
-      <c r="BH97" s="118"/>
-      <c r="BI97" s="118"/>
       <c r="BJ97" s="102"/>
-    </row>
-    <row r="98" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK97" s="106"/>
+      <c r="BL97" s="120"/>
+      <c r="BM97" s="120"/>
+      <c r="BN97" s="120"/>
+      <c r="BO97" s="120"/>
+      <c r="BP97" s="120"/>
+      <c r="BQ97" s="120"/>
+      <c r="BR97" s="120"/>
+      <c r="BS97" s="120"/>
+      <c r="BT97" s="120"/>
+      <c r="BU97" s="120"/>
+      <c r="BV97" s="120"/>
+      <c r="BW97" s="120"/>
+      <c r="BX97" s="120"/>
+      <c r="BY97" s="102"/>
+    </row>
+    <row r="98" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M98" s="16"/>
       <c r="AD98" s="102"/>
       <c r="AE98" s="106"/>
       <c r="AT98" s="102"/>
       <c r="AU98" s="106"/>
-      <c r="AV98" s="118"/>
-      <c r="AW98" s="118"/>
-      <c r="AX98" s="118"/>
-      <c r="AY98" s="118"/>
-      <c r="AZ98" s="118"/>
-      <c r="BA98" s="118"/>
-      <c r="BB98" s="118"/>
-      <c r="BC98" s="118"/>
-      <c r="BD98" s="118"/>
-      <c r="BE98" s="118"/>
-      <c r="BF98" s="118"/>
-      <c r="BG98" s="118"/>
-      <c r="BH98" s="118"/>
-      <c r="BI98" s="118"/>
       <c r="BJ98" s="102"/>
-    </row>
-    <row r="99" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK98" s="106"/>
+      <c r="BL98" s="120"/>
+      <c r="BM98" s="120"/>
+      <c r="BN98" s="120"/>
+      <c r="BO98" s="120"/>
+      <c r="BP98" s="120"/>
+      <c r="BQ98" s="120"/>
+      <c r="BR98" s="120"/>
+      <c r="BS98" s="120"/>
+      <c r="BT98" s="120"/>
+      <c r="BU98" s="120"/>
+      <c r="BV98" s="120"/>
+      <c r="BW98" s="120"/>
+      <c r="BX98" s="120"/>
+      <c r="BY98" s="102"/>
+    </row>
+    <row r="99" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M99" s="16"/>
       <c r="AD99" s="102"/>
       <c r="AE99" s="106"/>
       <c r="AT99" s="102"/>
       <c r="AU99" s="106"/>
-      <c r="AV99" s="118"/>
-      <c r="AW99" s="118"/>
-      <c r="AX99" s="118"/>
-      <c r="AY99" s="118"/>
-      <c r="AZ99" s="118"/>
-      <c r="BA99" s="118"/>
-      <c r="BB99" s="118"/>
-      <c r="BC99" s="118"/>
-      <c r="BD99" s="118"/>
-      <c r="BE99" s="118"/>
-      <c r="BF99" s="118"/>
-      <c r="BG99" s="118"/>
-      <c r="BH99" s="118"/>
-      <c r="BI99" s="118"/>
       <c r="BJ99" s="102"/>
-    </row>
-    <row r="100" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK99" s="106"/>
+      <c r="BL99" s="120"/>
+      <c r="BM99" s="120"/>
+      <c r="BN99" s="120"/>
+      <c r="BO99" s="120"/>
+      <c r="BP99" s="120"/>
+      <c r="BQ99" s="120"/>
+      <c r="BR99" s="120"/>
+      <c r="BS99" s="120"/>
+      <c r="BT99" s="120"/>
+      <c r="BU99" s="120"/>
+      <c r="BV99" s="120"/>
+      <c r="BW99" s="120"/>
+      <c r="BX99" s="120"/>
+      <c r="BY99" s="102"/>
+    </row>
+    <row r="100" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M100" s="16"/>
       <c r="O100" s="94" t="s">
         <v>53</v>
@@ -14848,23 +15067,24 @@
       </c>
       <c r="AT100" s="102"/>
       <c r="AU100" s="106"/>
-      <c r="AV100" s="118"/>
-      <c r="AW100" s="118"/>
-      <c r="AX100" s="118"/>
-      <c r="AY100" s="118"/>
-      <c r="AZ100" s="118"/>
-      <c r="BA100" s="118"/>
-      <c r="BB100" s="118"/>
-      <c r="BC100" s="118"/>
-      <c r="BD100" s="118"/>
-      <c r="BE100" s="118"/>
-      <c r="BF100" s="118"/>
-      <c r="BG100" s="118"/>
-      <c r="BH100" s="118"/>
-      <c r="BI100" s="118"/>
       <c r="BJ100" s="102"/>
-    </row>
-    <row r="101" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK100" s="106"/>
+      <c r="BL100" s="120"/>
+      <c r="BM100" s="120"/>
+      <c r="BN100" s="120"/>
+      <c r="BO100" s="120"/>
+      <c r="BP100" s="120"/>
+      <c r="BQ100" s="120"/>
+      <c r="BR100" s="120"/>
+      <c r="BS100" s="120"/>
+      <c r="BT100" s="120"/>
+      <c r="BU100" s="120"/>
+      <c r="BV100" s="120"/>
+      <c r="BW100" s="120"/>
+      <c r="BX100" s="120"/>
+      <c r="BY100" s="102"/>
+    </row>
+    <row r="101" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M101" s="16"/>
       <c r="AD101" s="102"/>
       <c r="AE101" s="106"/>
@@ -14873,335 +15093,356 @@
       </c>
       <c r="AT101" s="102"/>
       <c r="AU101" s="106"/>
-      <c r="AV101" s="118"/>
-      <c r="AW101" s="118"/>
-      <c r="AX101" s="118"/>
-      <c r="AY101" s="118"/>
-      <c r="AZ101" s="118"/>
-      <c r="BA101" s="118"/>
-      <c r="BB101" s="118"/>
-      <c r="BC101" s="118"/>
-      <c r="BD101" s="118"/>
-      <c r="BE101" s="118"/>
-      <c r="BF101" s="118"/>
-      <c r="BG101" s="118"/>
-      <c r="BH101" s="118"/>
-      <c r="BI101" s="118"/>
       <c r="BJ101" s="102"/>
-    </row>
-    <row r="102" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK101" s="106"/>
+      <c r="BL101" s="120"/>
+      <c r="BM101" s="120"/>
+      <c r="BN101" s="120"/>
+      <c r="BO101" s="120"/>
+      <c r="BP101" s="120"/>
+      <c r="BQ101" s="120"/>
+      <c r="BR101" s="120"/>
+      <c r="BS101" s="120"/>
+      <c r="BT101" s="120"/>
+      <c r="BU101" s="120"/>
+      <c r="BV101" s="120"/>
+      <c r="BW101" s="120"/>
+      <c r="BX101" s="120"/>
+      <c r="BY101" s="102"/>
+    </row>
+    <row r="102" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M102" s="16"/>
       <c r="AD102" s="102"/>
       <c r="AE102" s="106"/>
       <c r="AT102" s="102"/>
       <c r="AU102" s="106"/>
-      <c r="AV102" s="118"/>
-      <c r="AW102" s="118"/>
-      <c r="AX102" s="118"/>
-      <c r="AY102" s="118"/>
-      <c r="AZ102" s="118"/>
-      <c r="BA102" s="118"/>
-      <c r="BB102" s="118"/>
-      <c r="BC102" s="118"/>
-      <c r="BD102" s="118"/>
-      <c r="BE102" s="118"/>
-      <c r="BF102" s="118"/>
-      <c r="BG102" s="118"/>
-      <c r="BH102" s="118"/>
-      <c r="BI102" s="118"/>
       <c r="BJ102" s="102"/>
-    </row>
-    <row r="103" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK102" s="106"/>
+      <c r="BL102" s="120"/>
+      <c r="BM102" s="120"/>
+      <c r="BN102" s="120"/>
+      <c r="BO102" s="120"/>
+      <c r="BP102" s="120"/>
+      <c r="BQ102" s="120"/>
+      <c r="BR102" s="120"/>
+      <c r="BS102" s="120"/>
+      <c r="BT102" s="120"/>
+      <c r="BU102" s="120"/>
+      <c r="BV102" s="120"/>
+      <c r="BW102" s="120"/>
+      <c r="BX102" s="120"/>
+      <c r="BY102" s="102"/>
+    </row>
+    <row r="103" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M103" s="16"/>
       <c r="AD103" s="102"/>
       <c r="AE103" s="106"/>
       <c r="AT103" s="102"/>
       <c r="AU103" s="106"/>
-      <c r="AV103" s="117" t="s">
+      <c r="AV103" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="AW103" s="118"/>
-      <c r="AX103" s="118"/>
-      <c r="AY103" s="118"/>
-      <c r="AZ103" s="118"/>
-      <c r="BA103" s="118"/>
-      <c r="BB103" s="118"/>
-      <c r="BC103" s="118"/>
-      <c r="BD103" s="117" t="s">
+      <c r="BD103" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="BE103" s="118"/>
-      <c r="BF103" s="118"/>
-      <c r="BG103" s="118"/>
-      <c r="BH103" s="118"/>
-      <c r="BI103" s="118"/>
       <c r="BJ103" s="102"/>
-    </row>
-    <row r="104" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK103" s="106"/>
+      <c r="BL103" s="120"/>
+      <c r="BM103" s="120"/>
+      <c r="BN103" s="120"/>
+      <c r="BO103" s="120"/>
+      <c r="BP103" s="120"/>
+      <c r="BQ103" s="120"/>
+      <c r="BR103" s="120"/>
+      <c r="BS103" s="120"/>
+      <c r="BT103" s="120"/>
+      <c r="BU103" s="120"/>
+      <c r="BV103" s="120"/>
+      <c r="BW103" s="120"/>
+      <c r="BX103" s="120"/>
+      <c r="BY103" s="102"/>
+    </row>
+    <row r="104" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M104" s="16"/>
       <c r="AD104" s="102"/>
       <c r="AE104" s="106"/>
       <c r="AT104" s="102"/>
       <c r="AU104" s="106"/>
-      <c r="AV104" s="118"/>
-      <c r="AW104" s="118"/>
-      <c r="AX104" s="118"/>
-      <c r="AY104" s="118"/>
-      <c r="AZ104" s="118"/>
-      <c r="BA104" s="118"/>
-      <c r="BB104" s="118"/>
-      <c r="BC104" s="118"/>
-      <c r="BD104" s="118"/>
-      <c r="BE104" s="118"/>
-      <c r="BF104" s="118"/>
-      <c r="BG104" s="118"/>
-      <c r="BH104" s="118"/>
-      <c r="BI104" s="118"/>
       <c r="BJ104" s="102"/>
-    </row>
-    <row r="105" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK104" s="106"/>
+      <c r="BL104" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM104" s="120"/>
+      <c r="BN104" s="120"/>
+      <c r="BO104" s="120"/>
+      <c r="BP104" s="120"/>
+      <c r="BQ104" s="120"/>
+      <c r="BR104" s="120"/>
+      <c r="BS104" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT104" s="120"/>
+      <c r="BU104" s="120"/>
+      <c r="BV104" s="120"/>
+      <c r="BW104" s="120"/>
+      <c r="BX104" s="120"/>
+      <c r="BY104" s="102"/>
+    </row>
+    <row r="105" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M105" s="16"/>
       <c r="AD105" s="102"/>
       <c r="AE105" s="106"/>
       <c r="AT105" s="102"/>
       <c r="AU105" s="106"/>
-      <c r="AV105" s="118"/>
-      <c r="AW105" s="118"/>
-      <c r="AX105" s="118"/>
-      <c r="AY105" s="118"/>
-      <c r="AZ105" s="118"/>
-      <c r="BA105" s="118"/>
-      <c r="BB105" s="118"/>
-      <c r="BC105" s="118"/>
-      <c r="BD105" s="118"/>
-      <c r="BE105" s="118"/>
-      <c r="BF105" s="118"/>
-      <c r="BG105" s="118"/>
-      <c r="BH105" s="118"/>
-      <c r="BI105" s="118"/>
       <c r="BJ105" s="102"/>
-    </row>
-    <row r="106" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK105" s="106"/>
+      <c r="BL105" s="120"/>
+      <c r="BM105" s="120"/>
+      <c r="BN105" s="120"/>
+      <c r="BO105" s="120"/>
+      <c r="BP105" s="120"/>
+      <c r="BQ105" s="120"/>
+      <c r="BR105" s="120"/>
+      <c r="BS105" s="120"/>
+      <c r="BT105" s="120"/>
+      <c r="BU105" s="120"/>
+      <c r="BV105" s="120"/>
+      <c r="BW105" s="120"/>
+      <c r="BX105" s="120"/>
+      <c r="BY105" s="102"/>
+    </row>
+    <row r="106" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M106" s="16"/>
       <c r="AD106" s="102"/>
       <c r="AE106" s="106"/>
       <c r="AT106" s="102"/>
       <c r="AU106" s="106"/>
-      <c r="AV106" s="118"/>
-      <c r="AW106" s="118"/>
-      <c r="AX106" s="118"/>
-      <c r="AY106" s="118"/>
-      <c r="AZ106" s="118"/>
-      <c r="BA106" s="118"/>
-      <c r="BB106" s="118"/>
-      <c r="BC106" s="118"/>
-      <c r="BD106" s="118"/>
-      <c r="BE106" s="118"/>
-      <c r="BF106" s="118"/>
-      <c r="BG106" s="118"/>
-      <c r="BH106" s="118"/>
-      <c r="BI106" s="118"/>
       <c r="BJ106" s="102"/>
-    </row>
-    <row r="107" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK106" s="106"/>
+      <c r="BL106" s="120"/>
+      <c r="BM106" s="120"/>
+      <c r="BN106" s="120"/>
+      <c r="BO106" s="120"/>
+      <c r="BP106" s="120"/>
+      <c r="BQ106" s="120"/>
+      <c r="BR106" s="120"/>
+      <c r="BS106" s="120"/>
+      <c r="BT106" s="120"/>
+      <c r="BU106" s="120"/>
+      <c r="BV106" s="120"/>
+      <c r="BW106" s="120"/>
+      <c r="BX106" s="120"/>
+      <c r="BY106" s="102"/>
+    </row>
+    <row r="107" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M107" s="16"/>
       <c r="AD107" s="102"/>
       <c r="AE107" s="106"/>
       <c r="AT107" s="102"/>
       <c r="AU107" s="106"/>
-      <c r="AV107" s="118"/>
-      <c r="AW107" s="118"/>
-      <c r="AX107" s="118"/>
-      <c r="AY107" s="118"/>
-      <c r="AZ107" s="118"/>
-      <c r="BA107" s="118"/>
-      <c r="BB107" s="118"/>
-      <c r="BC107" s="118"/>
-      <c r="BD107" s="118"/>
-      <c r="BE107" s="118"/>
-      <c r="BF107" s="118"/>
-      <c r="BG107" s="118"/>
-      <c r="BH107" s="118"/>
-      <c r="BI107" s="118"/>
       <c r="BJ107" s="102"/>
-    </row>
-    <row r="108" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK107" s="106"/>
+      <c r="BL107" s="120"/>
+      <c r="BM107" s="120"/>
+      <c r="BN107" s="120"/>
+      <c r="BO107" s="120"/>
+      <c r="BP107" s="120"/>
+      <c r="BQ107" s="120"/>
+      <c r="BR107" s="120"/>
+      <c r="BS107" s="120"/>
+      <c r="BT107" s="120"/>
+      <c r="BU107" s="120"/>
+      <c r="BV107" s="120"/>
+      <c r="BW107" s="120"/>
+      <c r="BX107" s="120"/>
+      <c r="BY107" s="102"/>
+    </row>
+    <row r="108" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M108" s="16"/>
       <c r="AD108" s="102"/>
       <c r="AE108" s="106"/>
       <c r="AT108" s="102"/>
       <c r="AU108" s="106"/>
-      <c r="AV108" s="118"/>
-      <c r="AW108" s="118"/>
-      <c r="AX108" s="118"/>
-      <c r="AY108" s="118"/>
-      <c r="AZ108" s="118"/>
-      <c r="BA108" s="118"/>
-      <c r="BB108" s="118"/>
-      <c r="BC108" s="118"/>
-      <c r="BD108" s="118"/>
-      <c r="BE108" s="118"/>
-      <c r="BF108" s="118"/>
-      <c r="BG108" s="118"/>
-      <c r="BH108" s="118"/>
-      <c r="BI108" s="118"/>
       <c r="BJ108" s="102"/>
-    </row>
-    <row r="109" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK108" s="106"/>
+      <c r="BL108" s="120"/>
+      <c r="BM108" s="120"/>
+      <c r="BN108" s="120"/>
+      <c r="BO108" s="120"/>
+      <c r="BP108" s="120"/>
+      <c r="BQ108" s="120"/>
+      <c r="BR108" s="120"/>
+      <c r="BS108" s="120"/>
+      <c r="BT108" s="120"/>
+      <c r="BU108" s="120"/>
+      <c r="BV108" s="120"/>
+      <c r="BW108" s="120"/>
+      <c r="BX108" s="120"/>
+      <c r="BY108" s="102"/>
+    </row>
+    <row r="109" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M109" s="16"/>
       <c r="AD109" s="102"/>
       <c r="AE109" s="106"/>
       <c r="AT109" s="102"/>
       <c r="AU109" s="106"/>
-      <c r="AV109" s="118"/>
-      <c r="AW109" s="118"/>
-      <c r="AX109" s="118"/>
-      <c r="AY109" s="118"/>
-      <c r="AZ109" s="118"/>
-      <c r="BA109" s="118"/>
-      <c r="BB109" s="118"/>
-      <c r="BC109" s="118"/>
-      <c r="BD109" s="118"/>
-      <c r="BE109" s="118"/>
-      <c r="BF109" s="118"/>
-      <c r="BG109" s="118"/>
-      <c r="BH109" s="118"/>
-      <c r="BI109" s="118"/>
       <c r="BJ109" s="102"/>
-    </row>
-    <row r="110" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK109" s="106"/>
+      <c r="BL109" s="120"/>
+      <c r="BM109" s="120"/>
+      <c r="BN109" s="120"/>
+      <c r="BO109" s="120"/>
+      <c r="BP109" s="120"/>
+      <c r="BQ109" s="120"/>
+      <c r="BR109" s="120"/>
+      <c r="BS109" s="120"/>
+      <c r="BT109" s="120"/>
+      <c r="BU109" s="120"/>
+      <c r="BV109" s="120"/>
+      <c r="BW109" s="120"/>
+      <c r="BX109" s="120"/>
+      <c r="BY109" s="102"/>
+    </row>
+    <row r="110" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M110" s="16"/>
       <c r="AD110" s="102"/>
       <c r="AE110" s="106"/>
       <c r="AT110" s="102"/>
       <c r="AU110" s="106"/>
-      <c r="AV110" s="118"/>
-      <c r="AW110" s="118"/>
-      <c r="AX110" s="118"/>
-      <c r="AY110" s="118"/>
-      <c r="AZ110" s="118"/>
-      <c r="BA110" s="118"/>
-      <c r="BB110" s="118"/>
-      <c r="BC110" s="118"/>
-      <c r="BD110" s="118"/>
-      <c r="BE110" s="118"/>
-      <c r="BF110" s="118"/>
-      <c r="BG110" s="118"/>
-      <c r="BH110" s="118"/>
-      <c r="BI110" s="118"/>
       <c r="BJ110" s="102"/>
-    </row>
-    <row r="111" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK110" s="106"/>
+      <c r="BL110" s="120"/>
+      <c r="BM110" s="120"/>
+      <c r="BN110" s="120"/>
+      <c r="BO110" s="120"/>
+      <c r="BP110" s="120"/>
+      <c r="BQ110" s="120"/>
+      <c r="BR110" s="120"/>
+      <c r="BS110" s="120"/>
+      <c r="BT110" s="120"/>
+      <c r="BU110" s="120"/>
+      <c r="BV110" s="120"/>
+      <c r="BW110" s="120"/>
+      <c r="BX110" s="120"/>
+      <c r="BY110" s="102"/>
+    </row>
+    <row r="111" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M111" s="16"/>
       <c r="AD111" s="102"/>
       <c r="AE111" s="106"/>
       <c r="AT111" s="102"/>
       <c r="AU111" s="106"/>
-      <c r="AV111" s="118"/>
-      <c r="AW111" s="118"/>
-      <c r="AX111" s="118"/>
-      <c r="AY111" s="118"/>
-      <c r="AZ111" s="118"/>
-      <c r="BA111" s="118"/>
-      <c r="BB111" s="118"/>
-      <c r="BC111" s="118"/>
-      <c r="BD111" s="118"/>
-      <c r="BE111" s="118"/>
-      <c r="BF111" s="118"/>
-      <c r="BG111" s="118"/>
-      <c r="BH111" s="118"/>
-      <c r="BI111" s="118"/>
       <c r="BJ111" s="102"/>
-    </row>
-    <row r="112" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK111" s="106"/>
+      <c r="BL111" s="120"/>
+      <c r="BM111" s="120"/>
+      <c r="BN111" s="120"/>
+      <c r="BO111" s="120"/>
+      <c r="BP111" s="120"/>
+      <c r="BQ111" s="120"/>
+      <c r="BR111" s="120"/>
+      <c r="BS111" s="120"/>
+      <c r="BT111" s="120"/>
+      <c r="BU111" s="120"/>
+      <c r="BV111" s="120"/>
+      <c r="BW111" s="120"/>
+      <c r="BX111" s="120"/>
+      <c r="BY111" s="102"/>
+    </row>
+    <row r="112" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M112" s="16"/>
       <c r="AD112" s="102"/>
       <c r="AE112" s="106"/>
       <c r="AT112" s="102"/>
       <c r="AU112" s="106"/>
-      <c r="AV112" s="118"/>
-      <c r="AW112" s="118"/>
-      <c r="AX112" s="118"/>
-      <c r="AY112" s="118"/>
-      <c r="AZ112" s="118"/>
-      <c r="BA112" s="118"/>
-      <c r="BB112" s="118"/>
-      <c r="BC112" s="118"/>
-      <c r="BD112" s="118"/>
-      <c r="BE112" s="118"/>
-      <c r="BF112" s="118"/>
-      <c r="BG112" s="118"/>
-      <c r="BH112" s="118"/>
-      <c r="BI112" s="118"/>
       <c r="BJ112" s="102"/>
-    </row>
-    <row r="113" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK112" s="106"/>
+      <c r="BL112" s="120"/>
+      <c r="BM112" s="120"/>
+      <c r="BN112" s="120"/>
+      <c r="BO112" s="120"/>
+      <c r="BP112" s="120"/>
+      <c r="BQ112" s="120"/>
+      <c r="BR112" s="120"/>
+      <c r="BS112" s="120"/>
+      <c r="BT112" s="120"/>
+      <c r="BU112" s="120"/>
+      <c r="BV112" s="120"/>
+      <c r="BW112" s="120"/>
+      <c r="BX112" s="120"/>
+      <c r="BY112" s="102"/>
+    </row>
+    <row r="113" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M113" s="16"/>
       <c r="AD113" s="102"/>
       <c r="AE113" s="106"/>
       <c r="AT113" s="102"/>
       <c r="AU113" s="106"/>
-      <c r="AV113" s="118"/>
-      <c r="AW113" s="118"/>
-      <c r="AX113" s="118"/>
-      <c r="AY113" s="118"/>
-      <c r="AZ113" s="118"/>
-      <c r="BA113" s="118"/>
-      <c r="BB113" s="118"/>
-      <c r="BC113" s="118"/>
-      <c r="BD113" s="118"/>
-      <c r="BE113" s="118"/>
-      <c r="BF113" s="118"/>
-      <c r="BG113" s="118"/>
-      <c r="BH113" s="118"/>
-      <c r="BI113" s="118"/>
       <c r="BJ113" s="102"/>
-    </row>
-    <row r="114" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK113" s="106"/>
+      <c r="BL113" s="120"/>
+      <c r="BM113" s="120"/>
+      <c r="BN113" s="120"/>
+      <c r="BO113" s="120"/>
+      <c r="BP113" s="120"/>
+      <c r="BQ113" s="120"/>
+      <c r="BR113" s="120"/>
+      <c r="BS113" s="120"/>
+      <c r="BT113" s="120"/>
+      <c r="BU113" s="120"/>
+      <c r="BV113" s="120"/>
+      <c r="BW113" s="120"/>
+      <c r="BX113" s="120"/>
+      <c r="BY113" s="102"/>
+    </row>
+    <row r="114" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M114" s="16"/>
       <c r="AD114" s="102"/>
       <c r="AE114" s="106"/>
       <c r="AT114" s="102"/>
       <c r="AU114" s="106"/>
-      <c r="AV114" s="118"/>
-      <c r="AW114" s="118"/>
-      <c r="AX114" s="118"/>
-      <c r="AY114" s="118"/>
-      <c r="AZ114" s="118"/>
-      <c r="BA114" s="118"/>
-      <c r="BB114" s="118"/>
-      <c r="BC114" s="118"/>
-      <c r="BD114" s="118"/>
-      <c r="BE114" s="118"/>
-      <c r="BF114" s="118"/>
-      <c r="BG114" s="118"/>
-      <c r="BH114" s="118"/>
-      <c r="BI114" s="118"/>
       <c r="BJ114" s="102"/>
-    </row>
-    <row r="115" spans="13:62" x14ac:dyDescent="0.25">
+      <c r="BK114" s="106"/>
+      <c r="BL114" s="120"/>
+      <c r="BM114" s="120"/>
+      <c r="BN114" s="120"/>
+      <c r="BO114" s="120"/>
+      <c r="BP114" s="120"/>
+      <c r="BQ114" s="120"/>
+      <c r="BR114" s="120"/>
+      <c r="BS114" s="120"/>
+      <c r="BT114" s="120"/>
+      <c r="BU114" s="120"/>
+      <c r="BV114" s="120"/>
+      <c r="BW114" s="120"/>
+      <c r="BX114" s="120"/>
+      <c r="BY114" s="102"/>
+    </row>
+    <row r="115" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M115" s="16"/>
       <c r="AD115" s="102"/>
       <c r="AE115" s="106"/>
       <c r="AT115" s="102"/>
       <c r="AU115" s="106"/>
-      <c r="AV115" s="118"/>
-      <c r="AW115" s="118"/>
-      <c r="AX115" s="118"/>
-      <c r="AY115" s="118"/>
-      <c r="AZ115" s="118"/>
-      <c r="BA115" s="118"/>
-      <c r="BB115" s="118"/>
-      <c r="BC115" s="118"/>
-      <c r="BD115" s="118"/>
-      <c r="BE115" s="118"/>
-      <c r="BF115" s="118"/>
-      <c r="BG115" s="118"/>
-      <c r="BH115" s="118"/>
-      <c r="BI115" s="118"/>
       <c r="BJ115" s="102"/>
-    </row>
-    <row r="116" spans="13:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BK115" s="106"/>
+      <c r="BL115" s="120"/>
+      <c r="BM115" s="120"/>
+      <c r="BN115" s="120"/>
+      <c r="BO115" s="120"/>
+      <c r="BP115" s="120"/>
+      <c r="BQ115" s="120"/>
+      <c r="BR115" s="120"/>
+      <c r="BS115" s="120"/>
+      <c r="BT115" s="120"/>
+      <c r="BU115" s="120"/>
+      <c r="BV115" s="120"/>
+      <c r="BW115" s="120"/>
+      <c r="BX115" s="120"/>
+      <c r="BY115" s="102"/>
+    </row>
+    <row r="116" spans="13:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M116" s="2"/>
       <c r="N116" s="103"/>
       <c r="O116" s="103"/>
@@ -15252,6 +15493,21 @@
       <c r="BH116" s="103"/>
       <c r="BI116" s="103"/>
       <c r="BJ116" s="104"/>
+      <c r="BK116" s="107"/>
+      <c r="BL116" s="103"/>
+      <c r="BM116" s="103"/>
+      <c r="BN116" s="103"/>
+      <c r="BO116" s="103"/>
+      <c r="BP116" s="103"/>
+      <c r="BQ116" s="103"/>
+      <c r="BR116" s="103"/>
+      <c r="BS116" s="103"/>
+      <c r="BT116" s="103"/>
+      <c r="BU116" s="103"/>
+      <c r="BV116" s="103"/>
+      <c r="BW116" s="103"/>
+      <c r="BX116" s="103"/>
+      <c r="BY116" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8868C2-F1F4-4589-9CE5-DBF9B10CF705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB09C1E4-B929-4D21-9E36-88BCF95472CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -942,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1250,12 +1250,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1280,8 +1274,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3453,67 +3451,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>459440</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>478490</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>59392</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A655C86-ED50-D2CA-7478-0B24E7A37246}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="42212558" y="10264589"/>
-          <a:ext cx="3649756" cy="2647950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>63</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>70</xdr:row>
@@ -3539,7 +3476,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3600,7 +3537,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3661,7 +3598,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3722,7 +3659,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3783,7 +3720,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3844,7 +3781,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3860,6 +3797,67 @@
         <a:xfrm>
           <a:off x="42559940" y="19587883"/>
           <a:ext cx="3649756" cy="2649631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>465666</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>484716</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08344775-4BDE-30AD-76EE-86288786BB45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="42724916" y="10244667"/>
+          <a:ext cx="3702050" cy="2647950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4238,22 +4236,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="111" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="112" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -5658,22 +5656,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="111" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="112" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -7078,22 +7076,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="111" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="112" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -8498,22 +8496,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="111" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="112" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -9889,22 +9887,22 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117" t="s">
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="115" t="s">
+      <c r="E4" s="113"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="118"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="116"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -10683,22 +10681,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="111" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="112" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -11923,8 +11921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
   <dimension ref="A2:BY116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11996,22 +11994,22 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="111" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="112" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="K5" s="95"/>
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
@@ -13192,23 +13190,12 @@
       </c>
       <c r="BJ36" s="102"/>
       <c r="BK36" s="106"/>
-      <c r="BL36" s="119" t="s">
+      <c r="BL36" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="BM36" s="120"/>
-      <c r="BN36" s="120"/>
-      <c r="BO36" s="120"/>
-      <c r="BP36" s="120"/>
-      <c r="BQ36" s="120"/>
-      <c r="BR36" s="120"/>
-      <c r="BS36" s="119" t="s">
+      <c r="BS36" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="BT36" s="120"/>
-      <c r="BU36" s="120"/>
-      <c r="BV36" s="120"/>
-      <c r="BW36" s="120"/>
-      <c r="BX36" s="120"/>
       <c r="BY36" s="102"/>
     </row>
     <row r="37" spans="1:77" x14ac:dyDescent="0.25">
@@ -13252,19 +13239,6 @@
       <c r="AU37" s="106"/>
       <c r="BJ37" s="102"/>
       <c r="BK37" s="106"/>
-      <c r="BL37" s="120"/>
-      <c r="BM37" s="120"/>
-      <c r="BN37" s="120"/>
-      <c r="BO37" s="120"/>
-      <c r="BP37" s="120"/>
-      <c r="BQ37" s="120"/>
-      <c r="BR37" s="120"/>
-      <c r="BS37" s="120"/>
-      <c r="BT37" s="120"/>
-      <c r="BU37" s="120"/>
-      <c r="BV37" s="120"/>
-      <c r="BW37" s="120"/>
-      <c r="BX37" s="120"/>
       <c r="BY37" s="102"/>
     </row>
     <row r="38" spans="1:77" x14ac:dyDescent="0.25">
@@ -13308,19 +13282,6 @@
       <c r="AU38" s="106"/>
       <c r="BJ38" s="102"/>
       <c r="BK38" s="106"/>
-      <c r="BL38" s="120"/>
-      <c r="BM38" s="120"/>
-      <c r="BN38" s="120"/>
-      <c r="BO38" s="120"/>
-      <c r="BP38" s="120"/>
-      <c r="BQ38" s="120"/>
-      <c r="BR38" s="120"/>
-      <c r="BS38" s="120"/>
-      <c r="BT38" s="120"/>
-      <c r="BU38" s="120"/>
-      <c r="BV38" s="120"/>
-      <c r="BW38" s="120"/>
-      <c r="BX38" s="120"/>
       <c r="BY38" s="102"/>
     </row>
     <row r="39" spans="1:77" x14ac:dyDescent="0.25">
@@ -13364,19 +13325,6 @@
       <c r="AU39" s="106"/>
       <c r="BJ39" s="102"/>
       <c r="BK39" s="106"/>
-      <c r="BL39" s="120"/>
-      <c r="BM39" s="120"/>
-      <c r="BN39" s="120"/>
-      <c r="BO39" s="120"/>
-      <c r="BP39" s="120"/>
-      <c r="BQ39" s="120"/>
-      <c r="BR39" s="120"/>
-      <c r="BS39" s="120"/>
-      <c r="BT39" s="120"/>
-      <c r="BU39" s="120"/>
-      <c r="BV39" s="120"/>
-      <c r="BW39" s="120"/>
-      <c r="BX39" s="120"/>
       <c r="BY39" s="102"/>
     </row>
     <row r="40" spans="1:77" x14ac:dyDescent="0.25">
@@ -13404,8 +13352,12 @@
       <c r="H40" s="38">
         <v>256</v>
       </c>
-      <c r="I40" s="109"/>
-      <c r="J40" s="110"/>
+      <c r="I40" s="117">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="J40" s="118">
+        <v>0.41099999999999998</v>
+      </c>
       <c r="K40" s="99">
         <v>34</v>
       </c>
@@ -13416,19 +13368,6 @@
       <c r="AU40" s="106"/>
       <c r="BJ40" s="102"/>
       <c r="BK40" s="106"/>
-      <c r="BL40" s="120"/>
-      <c r="BM40" s="120"/>
-      <c r="BN40" s="120"/>
-      <c r="BO40" s="120"/>
-      <c r="BP40" s="120"/>
-      <c r="BQ40" s="120"/>
-      <c r="BR40" s="120"/>
-      <c r="BS40" s="120"/>
-      <c r="BT40" s="120"/>
-      <c r="BU40" s="120"/>
-      <c r="BV40" s="120"/>
-      <c r="BW40" s="120"/>
-      <c r="BX40" s="120"/>
       <c r="BY40" s="102"/>
     </row>
     <row r="41" spans="1:77" x14ac:dyDescent="0.25">
@@ -13472,19 +13411,6 @@
       <c r="AU41" s="106"/>
       <c r="BJ41" s="102"/>
       <c r="BK41" s="106"/>
-      <c r="BL41" s="120"/>
-      <c r="BM41" s="120"/>
-      <c r="BN41" s="120"/>
-      <c r="BO41" s="120"/>
-      <c r="BP41" s="120"/>
-      <c r="BQ41" s="120"/>
-      <c r="BR41" s="120"/>
-      <c r="BS41" s="120"/>
-      <c r="BT41" s="120"/>
-      <c r="BU41" s="120"/>
-      <c r="BV41" s="120"/>
-      <c r="BW41" s="120"/>
-      <c r="BX41" s="120"/>
       <c r="BY41" s="102"/>
     </row>
     <row r="42" spans="1:77" x14ac:dyDescent="0.25">
@@ -13528,19 +13454,6 @@
       <c r="AU42" s="106"/>
       <c r="BJ42" s="102"/>
       <c r="BK42" s="106"/>
-      <c r="BL42" s="120"/>
-      <c r="BM42" s="120"/>
-      <c r="BN42" s="120"/>
-      <c r="BO42" s="120"/>
-      <c r="BP42" s="120"/>
-      <c r="BQ42" s="120"/>
-      <c r="BR42" s="120"/>
-      <c r="BS42" s="120"/>
-      <c r="BT42" s="120"/>
-      <c r="BU42" s="120"/>
-      <c r="BV42" s="120"/>
-      <c r="BW42" s="120"/>
-      <c r="BX42" s="120"/>
       <c r="BY42" s="102"/>
     </row>
     <row r="43" spans="1:77" x14ac:dyDescent="0.25">
@@ -13584,19 +13497,6 @@
       <c r="AU43" s="106"/>
       <c r="BJ43" s="102"/>
       <c r="BK43" s="106"/>
-      <c r="BL43" s="120"/>
-      <c r="BM43" s="120"/>
-      <c r="BN43" s="120"/>
-      <c r="BO43" s="120"/>
-      <c r="BP43" s="120"/>
-      <c r="BQ43" s="120"/>
-      <c r="BR43" s="120"/>
-      <c r="BS43" s="120"/>
-      <c r="BT43" s="120"/>
-      <c r="BU43" s="120"/>
-      <c r="BV43" s="120"/>
-      <c r="BW43" s="120"/>
-      <c r="BX43" s="120"/>
       <c r="BY43" s="102"/>
     </row>
     <row r="44" spans="1:77" x14ac:dyDescent="0.25">
@@ -13640,19 +13540,6 @@
       <c r="AU44" s="106"/>
       <c r="BJ44" s="102"/>
       <c r="BK44" s="106"/>
-      <c r="BL44" s="120"/>
-      <c r="BM44" s="120"/>
-      <c r="BN44" s="120"/>
-      <c r="BO44" s="120"/>
-      <c r="BP44" s="120"/>
-      <c r="BQ44" s="120"/>
-      <c r="BR44" s="120"/>
-      <c r="BS44" s="120"/>
-      <c r="BT44" s="120"/>
-      <c r="BU44" s="120"/>
-      <c r="BV44" s="120"/>
-      <c r="BW44" s="120"/>
-      <c r="BX44" s="120"/>
       <c r="BY44" s="102"/>
     </row>
     <row r="45" spans="1:77" x14ac:dyDescent="0.25">
@@ -13696,19 +13583,6 @@
       <c r="AU45" s="106"/>
       <c r="BJ45" s="102"/>
       <c r="BK45" s="106"/>
-      <c r="BL45" s="120"/>
-      <c r="BM45" s="120"/>
-      <c r="BN45" s="120"/>
-      <c r="BO45" s="120"/>
-      <c r="BP45" s="120"/>
-      <c r="BQ45" s="120"/>
-      <c r="BR45" s="120"/>
-      <c r="BS45" s="120"/>
-      <c r="BT45" s="120"/>
-      <c r="BU45" s="120"/>
-      <c r="BV45" s="120"/>
-      <c r="BW45" s="120"/>
-      <c r="BX45" s="120"/>
       <c r="BY45" s="102"/>
     </row>
     <row r="46" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13752,19 +13626,6 @@
       <c r="AU46" s="106"/>
       <c r="BJ46" s="102"/>
       <c r="BK46" s="106"/>
-      <c r="BL46" s="120"/>
-      <c r="BM46" s="120"/>
-      <c r="BN46" s="120"/>
-      <c r="BO46" s="120"/>
-      <c r="BP46" s="120"/>
-      <c r="BQ46" s="120"/>
-      <c r="BR46" s="120"/>
-      <c r="BS46" s="120"/>
-      <c r="BT46" s="120"/>
-      <c r="BU46" s="120"/>
-      <c r="BV46" s="120"/>
-      <c r="BW46" s="120"/>
-      <c r="BX46" s="120"/>
       <c r="BY46" s="102"/>
     </row>
     <row r="47" spans="1:77" x14ac:dyDescent="0.25">
@@ -13775,19 +13636,6 @@
       <c r="AU47" s="106"/>
       <c r="BJ47" s="102"/>
       <c r="BK47" s="106"/>
-      <c r="BL47" s="120"/>
-      <c r="BM47" s="120"/>
-      <c r="BN47" s="120"/>
-      <c r="BO47" s="120"/>
-      <c r="BP47" s="120"/>
-      <c r="BQ47" s="120"/>
-      <c r="BR47" s="120"/>
-      <c r="BS47" s="120"/>
-      <c r="BT47" s="120"/>
-      <c r="BU47" s="120"/>
-      <c r="BV47" s="120"/>
-      <c r="BW47" s="120"/>
-      <c r="BX47" s="120"/>
       <c r="BY47" s="102"/>
     </row>
     <row r="48" spans="1:77" x14ac:dyDescent="0.25">
@@ -13798,19 +13646,6 @@
       <c r="AU48" s="106"/>
       <c r="BJ48" s="102"/>
       <c r="BK48" s="106"/>
-      <c r="BL48" s="120"/>
-      <c r="BM48" s="120"/>
-      <c r="BN48" s="120"/>
-      <c r="BO48" s="120"/>
-      <c r="BP48" s="120"/>
-      <c r="BQ48" s="120"/>
-      <c r="BR48" s="120"/>
-      <c r="BS48" s="120"/>
-      <c r="BT48" s="120"/>
-      <c r="BU48" s="120"/>
-      <c r="BV48" s="120"/>
-      <c r="BW48" s="120"/>
-      <c r="BX48" s="120"/>
       <c r="BY48" s="102"/>
     </row>
     <row r="49" spans="13:77" x14ac:dyDescent="0.25">
@@ -13821,19 +13656,6 @@
       <c r="AU49" s="106"/>
       <c r="BJ49" s="102"/>
       <c r="BK49" s="106"/>
-      <c r="BL49" s="120"/>
-      <c r="BM49" s="120"/>
-      <c r="BN49" s="120"/>
-      <c r="BO49" s="120"/>
-      <c r="BP49" s="120"/>
-      <c r="BQ49" s="120"/>
-      <c r="BR49" s="120"/>
-      <c r="BS49" s="120"/>
-      <c r="BT49" s="120"/>
-      <c r="BU49" s="120"/>
-      <c r="BV49" s="120"/>
-      <c r="BW49" s="120"/>
-      <c r="BX49" s="120"/>
       <c r="BY49" s="102"/>
     </row>
     <row r="50" spans="13:77" x14ac:dyDescent="0.25">
@@ -13844,19 +13666,6 @@
       <c r="AU50" s="106"/>
       <c r="BJ50" s="102"/>
       <c r="BK50" s="106"/>
-      <c r="BL50" s="120"/>
-      <c r="BM50" s="120"/>
-      <c r="BN50" s="120"/>
-      <c r="BO50" s="120"/>
-      <c r="BP50" s="120"/>
-      <c r="BQ50" s="120"/>
-      <c r="BR50" s="120"/>
-      <c r="BS50" s="120"/>
-      <c r="BT50" s="120"/>
-      <c r="BU50" s="120"/>
-      <c r="BV50" s="120"/>
-      <c r="BW50" s="120"/>
-      <c r="BX50" s="120"/>
       <c r="BY50" s="102"/>
     </row>
     <row r="51" spans="13:77" x14ac:dyDescent="0.25">
@@ -13873,19 +13682,6 @@
       <c r="AU51" s="106"/>
       <c r="BJ51" s="102"/>
       <c r="BK51" s="106"/>
-      <c r="BL51" s="120"/>
-      <c r="BM51" s="120"/>
-      <c r="BN51" s="120"/>
-      <c r="BO51" s="120"/>
-      <c r="BP51" s="120"/>
-      <c r="BQ51" s="120"/>
-      <c r="BR51" s="120"/>
-      <c r="BS51" s="120"/>
-      <c r="BT51" s="120"/>
-      <c r="BU51" s="120"/>
-      <c r="BV51" s="120"/>
-      <c r="BW51" s="120"/>
-      <c r="BX51" s="120"/>
       <c r="BY51" s="102"/>
     </row>
     <row r="52" spans="13:77" x14ac:dyDescent="0.25">
@@ -13908,19 +13704,6 @@
       </c>
       <c r="BJ52" s="102"/>
       <c r="BK52" s="106"/>
-      <c r="BL52" s="120"/>
-      <c r="BM52" s="120"/>
-      <c r="BN52" s="120"/>
-      <c r="BO52" s="120"/>
-      <c r="BP52" s="120"/>
-      <c r="BQ52" s="120"/>
-      <c r="BR52" s="120"/>
-      <c r="BS52" s="120"/>
-      <c r="BT52" s="120"/>
-      <c r="BU52" s="120"/>
-      <c r="BV52" s="120"/>
-      <c r="BW52" s="120"/>
-      <c r="BX52" s="120"/>
       <c r="BY52" s="102"/>
     </row>
     <row r="53" spans="13:77" x14ac:dyDescent="0.25">
@@ -13931,19 +13714,6 @@
       <c r="AU53" s="106"/>
       <c r="BJ53" s="102"/>
       <c r="BK53" s="106"/>
-      <c r="BL53" s="120"/>
-      <c r="BM53" s="120"/>
-      <c r="BN53" s="120"/>
-      <c r="BO53" s="120"/>
-      <c r="BP53" s="120"/>
-      <c r="BQ53" s="120"/>
-      <c r="BR53" s="120"/>
-      <c r="BS53" s="120"/>
-      <c r="BT53" s="120"/>
-      <c r="BU53" s="120"/>
-      <c r="BV53" s="120"/>
-      <c r="BW53" s="120"/>
-      <c r="BX53" s="120"/>
       <c r="BY53" s="102"/>
     </row>
     <row r="54" spans="13:77" x14ac:dyDescent="0.25">
@@ -13954,23 +13724,12 @@
       <c r="AU54" s="106"/>
       <c r="BJ54" s="102"/>
       <c r="BK54" s="106"/>
-      <c r="BL54" s="119" t="s">
+      <c r="BL54" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="BM54" s="120"/>
-      <c r="BN54" s="120"/>
-      <c r="BO54" s="120"/>
-      <c r="BP54" s="120"/>
-      <c r="BQ54" s="120"/>
-      <c r="BR54" s="120"/>
-      <c r="BS54" s="119" t="s">
+      <c r="BS54" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="BT54" s="120"/>
-      <c r="BU54" s="120"/>
-      <c r="BV54" s="120"/>
-      <c r="BW54" s="120"/>
-      <c r="BX54" s="120"/>
       <c r="BY54" s="102"/>
     </row>
     <row r="55" spans="13:77" x14ac:dyDescent="0.25">
@@ -13981,19 +13740,6 @@
       <c r="AU55" s="106"/>
       <c r="BJ55" s="102"/>
       <c r="BK55" s="106"/>
-      <c r="BL55" s="120"/>
-      <c r="BM55" s="120"/>
-      <c r="BN55" s="120"/>
-      <c r="BO55" s="120"/>
-      <c r="BP55" s="120"/>
-      <c r="BQ55" s="120"/>
-      <c r="BR55" s="120"/>
-      <c r="BS55" s="120"/>
-      <c r="BT55" s="120"/>
-      <c r="BU55" s="120"/>
-      <c r="BV55" s="120"/>
-      <c r="BW55" s="120"/>
-      <c r="BX55" s="120"/>
       <c r="BY55" s="102"/>
     </row>
     <row r="56" spans="13:77" x14ac:dyDescent="0.25">
@@ -14004,19 +13750,6 @@
       <c r="AU56" s="106"/>
       <c r="BJ56" s="102"/>
       <c r="BK56" s="106"/>
-      <c r="BL56" s="120"/>
-      <c r="BM56" s="120"/>
-      <c r="BN56" s="120"/>
-      <c r="BO56" s="120"/>
-      <c r="BP56" s="120"/>
-      <c r="BQ56" s="120"/>
-      <c r="BR56" s="120"/>
-      <c r="BS56" s="120"/>
-      <c r="BT56" s="120"/>
-      <c r="BU56" s="120"/>
-      <c r="BV56" s="120"/>
-      <c r="BW56" s="120"/>
-      <c r="BX56" s="120"/>
       <c r="BY56" s="102"/>
     </row>
     <row r="57" spans="13:77" x14ac:dyDescent="0.25">
@@ -14027,19 +13760,6 @@
       <c r="AU57" s="106"/>
       <c r="BJ57" s="102"/>
       <c r="BK57" s="106"/>
-      <c r="BL57" s="120"/>
-      <c r="BM57" s="120"/>
-      <c r="BN57" s="120"/>
-      <c r="BO57" s="120"/>
-      <c r="BP57" s="120"/>
-      <c r="BQ57" s="120"/>
-      <c r="BR57" s="120"/>
-      <c r="BS57" s="120"/>
-      <c r="BT57" s="120"/>
-      <c r="BU57" s="120"/>
-      <c r="BV57" s="120"/>
-      <c r="BW57" s="120"/>
-      <c r="BX57" s="120"/>
       <c r="BY57" s="102"/>
     </row>
     <row r="58" spans="13:77" x14ac:dyDescent="0.25">
@@ -14050,19 +13770,6 @@
       <c r="AU58" s="106"/>
       <c r="BJ58" s="102"/>
       <c r="BK58" s="106"/>
-      <c r="BL58" s="120"/>
-      <c r="BM58" s="120"/>
-      <c r="BN58" s="120"/>
-      <c r="BO58" s="120"/>
-      <c r="BP58" s="120"/>
-      <c r="BQ58" s="120"/>
-      <c r="BR58" s="120"/>
-      <c r="BS58" s="120"/>
-      <c r="BT58" s="120"/>
-      <c r="BU58" s="120"/>
-      <c r="BV58" s="120"/>
-      <c r="BW58" s="120"/>
-      <c r="BX58" s="120"/>
       <c r="BY58" s="102"/>
     </row>
     <row r="59" spans="13:77" x14ac:dyDescent="0.25">
@@ -14073,19 +13780,6 @@
       <c r="AU59" s="106"/>
       <c r="BJ59" s="102"/>
       <c r="BK59" s="106"/>
-      <c r="BL59" s="120"/>
-      <c r="BM59" s="120"/>
-      <c r="BN59" s="120"/>
-      <c r="BO59" s="120"/>
-      <c r="BP59" s="120"/>
-      <c r="BQ59" s="120"/>
-      <c r="BR59" s="120"/>
-      <c r="BS59" s="120"/>
-      <c r="BT59" s="120"/>
-      <c r="BU59" s="120"/>
-      <c r="BV59" s="120"/>
-      <c r="BW59" s="120"/>
-      <c r="BX59" s="120"/>
       <c r="BY59" s="102"/>
     </row>
     <row r="60" spans="13:77" x14ac:dyDescent="0.25">
@@ -14096,19 +13790,6 @@
       <c r="AU60" s="106"/>
       <c r="BJ60" s="102"/>
       <c r="BK60" s="106"/>
-      <c r="BL60" s="120"/>
-      <c r="BM60" s="120"/>
-      <c r="BN60" s="120"/>
-      <c r="BO60" s="120"/>
-      <c r="BP60" s="120"/>
-      <c r="BQ60" s="120"/>
-      <c r="BR60" s="120"/>
-      <c r="BS60" s="120"/>
-      <c r="BT60" s="120"/>
-      <c r="BU60" s="120"/>
-      <c r="BV60" s="120"/>
-      <c r="BW60" s="120"/>
-      <c r="BX60" s="120"/>
       <c r="BY60" s="102"/>
     </row>
     <row r="61" spans="13:77" x14ac:dyDescent="0.25">
@@ -14119,19 +13800,6 @@
       <c r="AU61" s="106"/>
       <c r="BJ61" s="102"/>
       <c r="BK61" s="106"/>
-      <c r="BL61" s="120"/>
-      <c r="BM61" s="120"/>
-      <c r="BN61" s="120"/>
-      <c r="BO61" s="120"/>
-      <c r="BP61" s="120"/>
-      <c r="BQ61" s="120"/>
-      <c r="BR61" s="120"/>
-      <c r="BS61" s="120"/>
-      <c r="BT61" s="120"/>
-      <c r="BU61" s="120"/>
-      <c r="BV61" s="120"/>
-      <c r="BW61" s="120"/>
-      <c r="BX61" s="120"/>
       <c r="BY61" s="102"/>
     </row>
     <row r="62" spans="13:77" x14ac:dyDescent="0.25">
@@ -14142,19 +13810,6 @@
       <c r="AU62" s="106"/>
       <c r="BJ62" s="102"/>
       <c r="BK62" s="106"/>
-      <c r="BL62" s="120"/>
-      <c r="BM62" s="120"/>
-      <c r="BN62" s="120"/>
-      <c r="BO62" s="120"/>
-      <c r="BP62" s="120"/>
-      <c r="BQ62" s="120"/>
-      <c r="BR62" s="120"/>
-      <c r="BS62" s="120"/>
-      <c r="BT62" s="120"/>
-      <c r="BU62" s="120"/>
-      <c r="BV62" s="120"/>
-      <c r="BW62" s="120"/>
-      <c r="BX62" s="120"/>
       <c r="BY62" s="102"/>
     </row>
     <row r="63" spans="13:77" x14ac:dyDescent="0.25">
@@ -14165,19 +13820,6 @@
       <c r="AU63" s="106"/>
       <c r="BJ63" s="102"/>
       <c r="BK63" s="106"/>
-      <c r="BL63" s="120"/>
-      <c r="BM63" s="120"/>
-      <c r="BN63" s="120"/>
-      <c r="BO63" s="120"/>
-      <c r="BP63" s="120"/>
-      <c r="BQ63" s="120"/>
-      <c r="BR63" s="120"/>
-      <c r="BS63" s="120"/>
-      <c r="BT63" s="120"/>
-      <c r="BU63" s="120"/>
-      <c r="BV63" s="120"/>
-      <c r="BW63" s="120"/>
-      <c r="BX63" s="120"/>
       <c r="BY63" s="102"/>
     </row>
     <row r="64" spans="13:77" x14ac:dyDescent="0.25">
@@ -14188,19 +13830,6 @@
       <c r="AU64" s="106"/>
       <c r="BJ64" s="102"/>
       <c r="BK64" s="106"/>
-      <c r="BL64" s="120"/>
-      <c r="BM64" s="120"/>
-      <c r="BN64" s="120"/>
-      <c r="BO64" s="120"/>
-      <c r="BP64" s="120"/>
-      <c r="BQ64" s="120"/>
-      <c r="BR64" s="120"/>
-      <c r="BS64" s="120"/>
-      <c r="BT64" s="120"/>
-      <c r="BU64" s="120"/>
-      <c r="BV64" s="120"/>
-      <c r="BW64" s="120"/>
-      <c r="BX64" s="120"/>
       <c r="BY64" s="102"/>
     </row>
     <row r="65" spans="13:77" x14ac:dyDescent="0.25">
@@ -14211,19 +13840,6 @@
       <c r="AU65" s="106"/>
       <c r="BJ65" s="102"/>
       <c r="BK65" s="106"/>
-      <c r="BL65" s="120"/>
-      <c r="BM65" s="120"/>
-      <c r="BN65" s="120"/>
-      <c r="BO65" s="120"/>
-      <c r="BP65" s="120"/>
-      <c r="BQ65" s="120"/>
-      <c r="BR65" s="120"/>
-      <c r="BS65" s="120"/>
-      <c r="BT65" s="120"/>
-      <c r="BU65" s="120"/>
-      <c r="BV65" s="120"/>
-      <c r="BW65" s="120"/>
-      <c r="BX65" s="120"/>
       <c r="BY65" s="102"/>
     </row>
     <row r="66" spans="13:77" x14ac:dyDescent="0.25">
@@ -14234,19 +13850,6 @@
       <c r="AU66" s="106"/>
       <c r="BJ66" s="102"/>
       <c r="BK66" s="106"/>
-      <c r="BL66" s="120"/>
-      <c r="BM66" s="120"/>
-      <c r="BN66" s="120"/>
-      <c r="BO66" s="120"/>
-      <c r="BP66" s="120"/>
-      <c r="BQ66" s="120"/>
-      <c r="BR66" s="120"/>
-      <c r="BS66" s="120"/>
-      <c r="BT66" s="120"/>
-      <c r="BU66" s="120"/>
-      <c r="BV66" s="120"/>
-      <c r="BW66" s="120"/>
-      <c r="BX66" s="120"/>
       <c r="BY66" s="102"/>
     </row>
     <row r="67" spans="13:77" x14ac:dyDescent="0.25">
@@ -14257,19 +13860,6 @@
       <c r="AU67" s="106"/>
       <c r="BJ67" s="102"/>
       <c r="BK67" s="106"/>
-      <c r="BL67" s="120"/>
-      <c r="BM67" s="120"/>
-      <c r="BN67" s="120"/>
-      <c r="BO67" s="120"/>
-      <c r="BP67" s="120"/>
-      <c r="BQ67" s="120"/>
-      <c r="BR67" s="120"/>
-      <c r="BS67" s="120"/>
-      <c r="BT67" s="120"/>
-      <c r="BU67" s="120"/>
-      <c r="BV67" s="120"/>
-      <c r="BW67" s="120"/>
-      <c r="BX67" s="120"/>
       <c r="BY67" s="102"/>
     </row>
     <row r="68" spans="13:77" x14ac:dyDescent="0.25">
@@ -14286,19 +13876,6 @@
       <c r="AU68" s="106"/>
       <c r="BJ68" s="102"/>
       <c r="BK68" s="106"/>
-      <c r="BL68" s="120"/>
-      <c r="BM68" s="120"/>
-      <c r="BN68" s="120"/>
-      <c r="BO68" s="120"/>
-      <c r="BP68" s="120"/>
-      <c r="BQ68" s="120"/>
-      <c r="BR68" s="120"/>
-      <c r="BS68" s="120"/>
-      <c r="BT68" s="120"/>
-      <c r="BU68" s="120"/>
-      <c r="BV68" s="120"/>
-      <c r="BW68" s="120"/>
-      <c r="BX68" s="120"/>
       <c r="BY68" s="102"/>
     </row>
     <row r="69" spans="13:77" x14ac:dyDescent="0.25">
@@ -14315,19 +13892,6 @@
       <c r="AU69" s="106"/>
       <c r="BJ69" s="102"/>
       <c r="BK69" s="106"/>
-      <c r="BL69" s="120"/>
-      <c r="BM69" s="120"/>
-      <c r="BN69" s="120"/>
-      <c r="BO69" s="120"/>
-      <c r="BP69" s="120"/>
-      <c r="BQ69" s="120"/>
-      <c r="BR69" s="120"/>
-      <c r="BS69" s="120"/>
-      <c r="BT69" s="120"/>
-      <c r="BU69" s="120"/>
-      <c r="BV69" s="120"/>
-      <c r="BW69" s="120"/>
-      <c r="BX69" s="120"/>
       <c r="BY69" s="102"/>
     </row>
     <row r="70" spans="13:77" x14ac:dyDescent="0.25">
@@ -14344,23 +13908,12 @@
       </c>
       <c r="BJ70" s="102"/>
       <c r="BK70" s="106"/>
-      <c r="BL70" s="119" t="s">
+      <c r="BL70" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="BM70" s="120"/>
-      <c r="BN70" s="120"/>
-      <c r="BO70" s="120"/>
-      <c r="BP70" s="120"/>
-      <c r="BQ70" s="120"/>
-      <c r="BR70" s="120"/>
-      <c r="BS70" s="119" t="s">
+      <c r="BS70" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="BT70" s="120"/>
-      <c r="BU70" s="120"/>
-      <c r="BV70" s="120"/>
-      <c r="BW70" s="120"/>
-      <c r="BX70" s="120"/>
       <c r="BY70" s="102"/>
     </row>
     <row r="71" spans="13:77" x14ac:dyDescent="0.25">
@@ -14371,19 +13924,6 @@
       <c r="AU71" s="106"/>
       <c r="BJ71" s="102"/>
       <c r="BK71" s="106"/>
-      <c r="BL71" s="120"/>
-      <c r="BM71" s="120"/>
-      <c r="BN71" s="120"/>
-      <c r="BO71" s="120"/>
-      <c r="BP71" s="120"/>
-      <c r="BQ71" s="120"/>
-      <c r="BR71" s="120"/>
-      <c r="BS71" s="120"/>
-      <c r="BT71" s="120"/>
-      <c r="BU71" s="120"/>
-      <c r="BV71" s="120"/>
-      <c r="BW71" s="120"/>
-      <c r="BX71" s="120"/>
       <c r="BY71" s="102"/>
     </row>
     <row r="72" spans="13:77" x14ac:dyDescent="0.25">
@@ -14394,19 +13934,6 @@
       <c r="AU72" s="106"/>
       <c r="BJ72" s="102"/>
       <c r="BK72" s="106"/>
-      <c r="BL72" s="120"/>
-      <c r="BM72" s="120"/>
-      <c r="BN72" s="120"/>
-      <c r="BO72" s="120"/>
-      <c r="BP72" s="120"/>
-      <c r="BQ72" s="120"/>
-      <c r="BR72" s="120"/>
-      <c r="BS72" s="120"/>
-      <c r="BT72" s="120"/>
-      <c r="BU72" s="120"/>
-      <c r="BV72" s="120"/>
-      <c r="BW72" s="120"/>
-      <c r="BX72" s="120"/>
       <c r="BY72" s="102"/>
     </row>
     <row r="73" spans="13:77" x14ac:dyDescent="0.25">
@@ -14417,19 +13944,6 @@
       <c r="AU73" s="106"/>
       <c r="BJ73" s="102"/>
       <c r="BK73" s="106"/>
-      <c r="BL73" s="120"/>
-      <c r="BM73" s="120"/>
-      <c r="BN73" s="120"/>
-      <c r="BO73" s="120"/>
-      <c r="BP73" s="120"/>
-      <c r="BQ73" s="120"/>
-      <c r="BR73" s="120"/>
-      <c r="BS73" s="120"/>
-      <c r="BT73" s="120"/>
-      <c r="BU73" s="120"/>
-      <c r="BV73" s="120"/>
-      <c r="BW73" s="120"/>
-      <c r="BX73" s="120"/>
       <c r="BY73" s="102"/>
     </row>
     <row r="74" spans="13:77" x14ac:dyDescent="0.25">
@@ -14440,19 +13954,6 @@
       <c r="AU74" s="106"/>
       <c r="BJ74" s="102"/>
       <c r="BK74" s="106"/>
-      <c r="BL74" s="120"/>
-      <c r="BM74" s="120"/>
-      <c r="BN74" s="120"/>
-      <c r="BO74" s="120"/>
-      <c r="BP74" s="120"/>
-      <c r="BQ74" s="120"/>
-      <c r="BR74" s="120"/>
-      <c r="BS74" s="120"/>
-      <c r="BT74" s="120"/>
-      <c r="BU74" s="120"/>
-      <c r="BV74" s="120"/>
-      <c r="BW74" s="120"/>
-      <c r="BX74" s="120"/>
       <c r="BY74" s="102"/>
     </row>
     <row r="75" spans="13:77" x14ac:dyDescent="0.25">
@@ -14463,19 +13964,6 @@
       <c r="AU75" s="106"/>
       <c r="BJ75" s="102"/>
       <c r="BK75" s="106"/>
-      <c r="BL75" s="120"/>
-      <c r="BM75" s="120"/>
-      <c r="BN75" s="120"/>
-      <c r="BO75" s="120"/>
-      <c r="BP75" s="120"/>
-      <c r="BQ75" s="120"/>
-      <c r="BR75" s="120"/>
-      <c r="BS75" s="120"/>
-      <c r="BT75" s="120"/>
-      <c r="BU75" s="120"/>
-      <c r="BV75" s="120"/>
-      <c r="BW75" s="120"/>
-      <c r="BX75" s="120"/>
       <c r="BY75" s="102"/>
     </row>
     <row r="76" spans="13:77" x14ac:dyDescent="0.25">
@@ -14486,19 +13974,6 @@
       <c r="AU76" s="106"/>
       <c r="BJ76" s="102"/>
       <c r="BK76" s="106"/>
-      <c r="BL76" s="120"/>
-      <c r="BM76" s="120"/>
-      <c r="BN76" s="120"/>
-      <c r="BO76" s="120"/>
-      <c r="BP76" s="120"/>
-      <c r="BQ76" s="120"/>
-      <c r="BR76" s="120"/>
-      <c r="BS76" s="120"/>
-      <c r="BT76" s="120"/>
-      <c r="BU76" s="120"/>
-      <c r="BV76" s="120"/>
-      <c r="BW76" s="120"/>
-      <c r="BX76" s="120"/>
       <c r="BY76" s="102"/>
     </row>
     <row r="77" spans="13:77" x14ac:dyDescent="0.25">
@@ -14509,19 +13984,6 @@
       <c r="AU77" s="106"/>
       <c r="BJ77" s="102"/>
       <c r="BK77" s="106"/>
-      <c r="BL77" s="120"/>
-      <c r="BM77" s="120"/>
-      <c r="BN77" s="120"/>
-      <c r="BO77" s="120"/>
-      <c r="BP77" s="120"/>
-      <c r="BQ77" s="120"/>
-      <c r="BR77" s="120"/>
-      <c r="BS77" s="120"/>
-      <c r="BT77" s="120"/>
-      <c r="BU77" s="120"/>
-      <c r="BV77" s="120"/>
-      <c r="BW77" s="120"/>
-      <c r="BX77" s="120"/>
       <c r="BY77" s="102"/>
     </row>
     <row r="78" spans="13:77" x14ac:dyDescent="0.25">
@@ -14532,19 +13994,6 @@
       <c r="AU78" s="106"/>
       <c r="BJ78" s="102"/>
       <c r="BK78" s="106"/>
-      <c r="BL78" s="120"/>
-      <c r="BM78" s="120"/>
-      <c r="BN78" s="120"/>
-      <c r="BO78" s="120"/>
-      <c r="BP78" s="120"/>
-      <c r="BQ78" s="120"/>
-      <c r="BR78" s="120"/>
-      <c r="BS78" s="120"/>
-      <c r="BT78" s="120"/>
-      <c r="BU78" s="120"/>
-      <c r="BV78" s="120"/>
-      <c r="BW78" s="120"/>
-      <c r="BX78" s="120"/>
       <c r="BY78" s="102"/>
     </row>
     <row r="79" spans="13:77" x14ac:dyDescent="0.25">
@@ -14555,19 +14004,6 @@
       <c r="AU79" s="106"/>
       <c r="BJ79" s="102"/>
       <c r="BK79" s="106"/>
-      <c r="BL79" s="120"/>
-      <c r="BM79" s="120"/>
-      <c r="BN79" s="120"/>
-      <c r="BO79" s="120"/>
-      <c r="BP79" s="120"/>
-      <c r="BQ79" s="120"/>
-      <c r="BR79" s="120"/>
-      <c r="BS79" s="120"/>
-      <c r="BT79" s="120"/>
-      <c r="BU79" s="120"/>
-      <c r="BV79" s="120"/>
-      <c r="BW79" s="120"/>
-      <c r="BX79" s="120"/>
       <c r="BY79" s="102"/>
     </row>
     <row r="80" spans="13:77" x14ac:dyDescent="0.25">
@@ -14578,19 +14014,6 @@
       <c r="AU80" s="106"/>
       <c r="BJ80" s="102"/>
       <c r="BK80" s="106"/>
-      <c r="BL80" s="120"/>
-      <c r="BM80" s="120"/>
-      <c r="BN80" s="120"/>
-      <c r="BO80" s="120"/>
-      <c r="BP80" s="120"/>
-      <c r="BQ80" s="120"/>
-      <c r="BR80" s="120"/>
-      <c r="BS80" s="120"/>
-      <c r="BT80" s="120"/>
-      <c r="BU80" s="120"/>
-      <c r="BV80" s="120"/>
-      <c r="BW80" s="120"/>
-      <c r="BX80" s="120"/>
       <c r="BY80" s="102"/>
     </row>
     <row r="81" spans="13:77" x14ac:dyDescent="0.25">
@@ -14601,19 +14024,6 @@
       <c r="AU81" s="106"/>
       <c r="BJ81" s="102"/>
       <c r="BK81" s="106"/>
-      <c r="BL81" s="120"/>
-      <c r="BM81" s="120"/>
-      <c r="BN81" s="120"/>
-      <c r="BO81" s="120"/>
-      <c r="BP81" s="120"/>
-      <c r="BQ81" s="120"/>
-      <c r="BR81" s="120"/>
-      <c r="BS81" s="120"/>
-      <c r="BT81" s="120"/>
-      <c r="BU81" s="120"/>
-      <c r="BV81" s="120"/>
-      <c r="BW81" s="120"/>
-      <c r="BX81" s="120"/>
       <c r="BY81" s="102"/>
     </row>
     <row r="82" spans="13:77" x14ac:dyDescent="0.25">
@@ -14624,19 +14034,6 @@
       <c r="AU82" s="106"/>
       <c r="BJ82" s="102"/>
       <c r="BK82" s="106"/>
-      <c r="BL82" s="120"/>
-      <c r="BM82" s="120"/>
-      <c r="BN82" s="120"/>
-      <c r="BO82" s="120"/>
-      <c r="BP82" s="120"/>
-      <c r="BQ82" s="120"/>
-      <c r="BR82" s="120"/>
-      <c r="BS82" s="120"/>
-      <c r="BT82" s="120"/>
-      <c r="BU82" s="120"/>
-      <c r="BV82" s="120"/>
-      <c r="BW82" s="120"/>
-      <c r="BX82" s="120"/>
       <c r="BY82" s="102"/>
     </row>
     <row r="83" spans="13:77" x14ac:dyDescent="0.25">
@@ -14647,19 +14044,6 @@
       <c r="AU83" s="106"/>
       <c r="BJ83" s="102"/>
       <c r="BK83" s="106"/>
-      <c r="BL83" s="120"/>
-      <c r="BM83" s="120"/>
-      <c r="BN83" s="120"/>
-      <c r="BO83" s="120"/>
-      <c r="BP83" s="120"/>
-      <c r="BQ83" s="120"/>
-      <c r="BR83" s="120"/>
-      <c r="BS83" s="120"/>
-      <c r="BT83" s="120"/>
-      <c r="BU83" s="120"/>
-      <c r="BV83" s="120"/>
-      <c r="BW83" s="120"/>
-      <c r="BX83" s="120"/>
       <c r="BY83" s="102"/>
     </row>
     <row r="84" spans="13:77" x14ac:dyDescent="0.25">
@@ -14676,19 +14060,6 @@
       <c r="AU84" s="106"/>
       <c r="BJ84" s="102"/>
       <c r="BK84" s="106"/>
-      <c r="BL84" s="120"/>
-      <c r="BM84" s="120"/>
-      <c r="BN84" s="120"/>
-      <c r="BO84" s="120"/>
-      <c r="BP84" s="120"/>
-      <c r="BQ84" s="120"/>
-      <c r="BR84" s="120"/>
-      <c r="BS84" s="120"/>
-      <c r="BT84" s="120"/>
-      <c r="BU84" s="120"/>
-      <c r="BV84" s="120"/>
-      <c r="BW84" s="120"/>
-      <c r="BX84" s="120"/>
       <c r="BY84" s="102"/>
     </row>
     <row r="85" spans="13:77" x14ac:dyDescent="0.25">
@@ -14705,19 +14076,6 @@
       <c r="AU85" s="106"/>
       <c r="BJ85" s="102"/>
       <c r="BK85" s="106"/>
-      <c r="BL85" s="120"/>
-      <c r="BM85" s="120"/>
-      <c r="BN85" s="120"/>
-      <c r="BO85" s="120"/>
-      <c r="BP85" s="120"/>
-      <c r="BQ85" s="120"/>
-      <c r="BR85" s="120"/>
-      <c r="BS85" s="120"/>
-      <c r="BT85" s="120"/>
-      <c r="BU85" s="120"/>
-      <c r="BV85" s="120"/>
-      <c r="BW85" s="120"/>
-      <c r="BX85" s="120"/>
       <c r="BY85" s="102"/>
     </row>
     <row r="86" spans="13:77" x14ac:dyDescent="0.25">
@@ -14728,19 +14086,6 @@
       <c r="AU86" s="106"/>
       <c r="BJ86" s="102"/>
       <c r="BK86" s="106"/>
-      <c r="BL86" s="120"/>
-      <c r="BM86" s="120"/>
-      <c r="BN86" s="120"/>
-      <c r="BO86" s="120"/>
-      <c r="BP86" s="120"/>
-      <c r="BQ86" s="120"/>
-      <c r="BR86" s="120"/>
-      <c r="BS86" s="120"/>
-      <c r="BT86" s="120"/>
-      <c r="BU86" s="120"/>
-      <c r="BV86" s="120"/>
-      <c r="BW86" s="120"/>
-      <c r="BX86" s="120"/>
       <c r="BY86" s="102"/>
     </row>
     <row r="87" spans="13:77" x14ac:dyDescent="0.25">
@@ -14757,19 +14102,6 @@
       </c>
       <c r="BJ87" s="102"/>
       <c r="BK87" s="106"/>
-      <c r="BL87" s="120"/>
-      <c r="BM87" s="120"/>
-      <c r="BN87" s="120"/>
-      <c r="BO87" s="120"/>
-      <c r="BP87" s="120"/>
-      <c r="BQ87" s="120"/>
-      <c r="BR87" s="120"/>
-      <c r="BS87" s="120"/>
-      <c r="BT87" s="120"/>
-      <c r="BU87" s="120"/>
-      <c r="BV87" s="120"/>
-      <c r="BW87" s="120"/>
-      <c r="BX87" s="120"/>
       <c r="BY87" s="102"/>
     </row>
     <row r="88" spans="13:77" x14ac:dyDescent="0.25">
@@ -14780,23 +14112,12 @@
       <c r="AU88" s="106"/>
       <c r="BJ88" s="102"/>
       <c r="BK88" s="106"/>
-      <c r="BL88" s="119" t="s">
+      <c r="BL88" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="BM88" s="120"/>
-      <c r="BN88" s="120"/>
-      <c r="BO88" s="120"/>
-      <c r="BP88" s="120"/>
-      <c r="BQ88" s="120"/>
-      <c r="BR88" s="120"/>
-      <c r="BS88" s="119" t="s">
+      <c r="BS88" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="BT88" s="120"/>
-      <c r="BU88" s="120"/>
-      <c r="BV88" s="120"/>
-      <c r="BW88" s="120"/>
-      <c r="BX88" s="120"/>
       <c r="BY88" s="102"/>
     </row>
     <row r="89" spans="13:77" x14ac:dyDescent="0.25">
@@ -14807,19 +14128,6 @@
       <c r="AU89" s="106"/>
       <c r="BJ89" s="102"/>
       <c r="BK89" s="106"/>
-      <c r="BL89" s="120"/>
-      <c r="BM89" s="120"/>
-      <c r="BN89" s="120"/>
-      <c r="BO89" s="120"/>
-      <c r="BP89" s="120"/>
-      <c r="BQ89" s="120"/>
-      <c r="BR89" s="120"/>
-      <c r="BS89" s="120"/>
-      <c r="BT89" s="120"/>
-      <c r="BU89" s="120"/>
-      <c r="BV89" s="120"/>
-      <c r="BW89" s="120"/>
-      <c r="BX89" s="120"/>
       <c r="BY89" s="102"/>
     </row>
     <row r="90" spans="13:77" x14ac:dyDescent="0.25">
@@ -14830,19 +14138,6 @@
       <c r="AU90" s="106"/>
       <c r="BJ90" s="102"/>
       <c r="BK90" s="106"/>
-      <c r="BL90" s="120"/>
-      <c r="BM90" s="120"/>
-      <c r="BN90" s="120"/>
-      <c r="BO90" s="120"/>
-      <c r="BP90" s="120"/>
-      <c r="BQ90" s="120"/>
-      <c r="BR90" s="120"/>
-      <c r="BS90" s="120"/>
-      <c r="BT90" s="120"/>
-      <c r="BU90" s="120"/>
-      <c r="BV90" s="120"/>
-      <c r="BW90" s="120"/>
-      <c r="BX90" s="120"/>
       <c r="BY90" s="102"/>
     </row>
     <row r="91" spans="13:77" x14ac:dyDescent="0.25">
@@ -14853,19 +14148,6 @@
       <c r="AU91" s="106"/>
       <c r="BJ91" s="102"/>
       <c r="BK91" s="106"/>
-      <c r="BL91" s="120"/>
-      <c r="BM91" s="120"/>
-      <c r="BN91" s="120"/>
-      <c r="BO91" s="120"/>
-      <c r="BP91" s="120"/>
-      <c r="BQ91" s="120"/>
-      <c r="BR91" s="120"/>
-      <c r="BS91" s="120"/>
-      <c r="BT91" s="120"/>
-      <c r="BU91" s="120"/>
-      <c r="BV91" s="120"/>
-      <c r="BW91" s="120"/>
-      <c r="BX91" s="120"/>
       <c r="BY91" s="102"/>
     </row>
     <row r="92" spans="13:77" x14ac:dyDescent="0.25">
@@ -14876,19 +14158,6 @@
       <c r="AU92" s="106"/>
       <c r="BJ92" s="102"/>
       <c r="BK92" s="106"/>
-      <c r="BL92" s="120"/>
-      <c r="BM92" s="120"/>
-      <c r="BN92" s="120"/>
-      <c r="BO92" s="120"/>
-      <c r="BP92" s="120"/>
-      <c r="BQ92" s="120"/>
-      <c r="BR92" s="120"/>
-      <c r="BS92" s="120"/>
-      <c r="BT92" s="120"/>
-      <c r="BU92" s="120"/>
-      <c r="BV92" s="120"/>
-      <c r="BW92" s="120"/>
-      <c r="BX92" s="120"/>
       <c r="BY92" s="102"/>
     </row>
     <row r="93" spans="13:77" x14ac:dyDescent="0.25">
@@ -14899,19 +14168,6 @@
       <c r="AU93" s="106"/>
       <c r="BJ93" s="102"/>
       <c r="BK93" s="106"/>
-      <c r="BL93" s="120"/>
-      <c r="BM93" s="120"/>
-      <c r="BN93" s="120"/>
-      <c r="BO93" s="120"/>
-      <c r="BP93" s="120"/>
-      <c r="BQ93" s="120"/>
-      <c r="BR93" s="120"/>
-      <c r="BS93" s="120"/>
-      <c r="BT93" s="120"/>
-      <c r="BU93" s="120"/>
-      <c r="BV93" s="120"/>
-      <c r="BW93" s="120"/>
-      <c r="BX93" s="120"/>
       <c r="BY93" s="102"/>
     </row>
     <row r="94" spans="13:77" x14ac:dyDescent="0.25">
@@ -14922,19 +14178,6 @@
       <c r="AU94" s="106"/>
       <c r="BJ94" s="102"/>
       <c r="BK94" s="106"/>
-      <c r="BL94" s="120"/>
-      <c r="BM94" s="120"/>
-      <c r="BN94" s="120"/>
-      <c r="BO94" s="120"/>
-      <c r="BP94" s="120"/>
-      <c r="BQ94" s="120"/>
-      <c r="BR94" s="120"/>
-      <c r="BS94" s="120"/>
-      <c r="BT94" s="120"/>
-      <c r="BU94" s="120"/>
-      <c r="BV94" s="120"/>
-      <c r="BW94" s="120"/>
-      <c r="BX94" s="120"/>
       <c r="BY94" s="102"/>
     </row>
     <row r="95" spans="13:77" x14ac:dyDescent="0.25">
@@ -14945,19 +14188,6 @@
       <c r="AU95" s="106"/>
       <c r="BJ95" s="102"/>
       <c r="BK95" s="106"/>
-      <c r="BL95" s="120"/>
-      <c r="BM95" s="120"/>
-      <c r="BN95" s="120"/>
-      <c r="BO95" s="120"/>
-      <c r="BP95" s="120"/>
-      <c r="BQ95" s="120"/>
-      <c r="BR95" s="120"/>
-      <c r="BS95" s="120"/>
-      <c r="BT95" s="120"/>
-      <c r="BU95" s="120"/>
-      <c r="BV95" s="120"/>
-      <c r="BW95" s="120"/>
-      <c r="BX95" s="120"/>
       <c r="BY95" s="102"/>
     </row>
     <row r="96" spans="13:77" x14ac:dyDescent="0.25">
@@ -14968,19 +14198,6 @@
       <c r="AU96" s="106"/>
       <c r="BJ96" s="102"/>
       <c r="BK96" s="106"/>
-      <c r="BL96" s="120"/>
-      <c r="BM96" s="120"/>
-      <c r="BN96" s="120"/>
-      <c r="BO96" s="120"/>
-      <c r="BP96" s="120"/>
-      <c r="BQ96" s="120"/>
-      <c r="BR96" s="120"/>
-      <c r="BS96" s="120"/>
-      <c r="BT96" s="120"/>
-      <c r="BU96" s="120"/>
-      <c r="BV96" s="120"/>
-      <c r="BW96" s="120"/>
-      <c r="BX96" s="120"/>
       <c r="BY96" s="102"/>
     </row>
     <row r="97" spans="13:77" x14ac:dyDescent="0.25">
@@ -14991,19 +14208,6 @@
       <c r="AU97" s="106"/>
       <c r="BJ97" s="102"/>
       <c r="BK97" s="106"/>
-      <c r="BL97" s="120"/>
-      <c r="BM97" s="120"/>
-      <c r="BN97" s="120"/>
-      <c r="BO97" s="120"/>
-      <c r="BP97" s="120"/>
-      <c r="BQ97" s="120"/>
-      <c r="BR97" s="120"/>
-      <c r="BS97" s="120"/>
-      <c r="BT97" s="120"/>
-      <c r="BU97" s="120"/>
-      <c r="BV97" s="120"/>
-      <c r="BW97" s="120"/>
-      <c r="BX97" s="120"/>
       <c r="BY97" s="102"/>
     </row>
     <row r="98" spans="13:77" x14ac:dyDescent="0.25">
@@ -15014,19 +14218,6 @@
       <c r="AU98" s="106"/>
       <c r="BJ98" s="102"/>
       <c r="BK98" s="106"/>
-      <c r="BL98" s="120"/>
-      <c r="BM98" s="120"/>
-      <c r="BN98" s="120"/>
-      <c r="BO98" s="120"/>
-      <c r="BP98" s="120"/>
-      <c r="BQ98" s="120"/>
-      <c r="BR98" s="120"/>
-      <c r="BS98" s="120"/>
-      <c r="BT98" s="120"/>
-      <c r="BU98" s="120"/>
-      <c r="BV98" s="120"/>
-      <c r="BW98" s="120"/>
-      <c r="BX98" s="120"/>
       <c r="BY98" s="102"/>
     </row>
     <row r="99" spans="13:77" x14ac:dyDescent="0.25">
@@ -15037,19 +14228,6 @@
       <c r="AU99" s="106"/>
       <c r="BJ99" s="102"/>
       <c r="BK99" s="106"/>
-      <c r="BL99" s="120"/>
-      <c r="BM99" s="120"/>
-      <c r="BN99" s="120"/>
-      <c r="BO99" s="120"/>
-      <c r="BP99" s="120"/>
-      <c r="BQ99" s="120"/>
-      <c r="BR99" s="120"/>
-      <c r="BS99" s="120"/>
-      <c r="BT99" s="120"/>
-      <c r="BU99" s="120"/>
-      <c r="BV99" s="120"/>
-      <c r="BW99" s="120"/>
-      <c r="BX99" s="120"/>
       <c r="BY99" s="102"/>
     </row>
     <row r="100" spans="13:77" x14ac:dyDescent="0.25">
@@ -15069,19 +14247,6 @@
       <c r="AU100" s="106"/>
       <c r="BJ100" s="102"/>
       <c r="BK100" s="106"/>
-      <c r="BL100" s="120"/>
-      <c r="BM100" s="120"/>
-      <c r="BN100" s="120"/>
-      <c r="BO100" s="120"/>
-      <c r="BP100" s="120"/>
-      <c r="BQ100" s="120"/>
-      <c r="BR100" s="120"/>
-      <c r="BS100" s="120"/>
-      <c r="BT100" s="120"/>
-      <c r="BU100" s="120"/>
-      <c r="BV100" s="120"/>
-      <c r="BW100" s="120"/>
-      <c r="BX100" s="120"/>
       <c r="BY100" s="102"/>
     </row>
     <row r="101" spans="13:77" x14ac:dyDescent="0.25">
@@ -15095,19 +14260,6 @@
       <c r="AU101" s="106"/>
       <c r="BJ101" s="102"/>
       <c r="BK101" s="106"/>
-      <c r="BL101" s="120"/>
-      <c r="BM101" s="120"/>
-      <c r="BN101" s="120"/>
-      <c r="BO101" s="120"/>
-      <c r="BP101" s="120"/>
-      <c r="BQ101" s="120"/>
-      <c r="BR101" s="120"/>
-      <c r="BS101" s="120"/>
-      <c r="BT101" s="120"/>
-      <c r="BU101" s="120"/>
-      <c r="BV101" s="120"/>
-      <c r="BW101" s="120"/>
-      <c r="BX101" s="120"/>
       <c r="BY101" s="102"/>
     </row>
     <row r="102" spans="13:77" x14ac:dyDescent="0.25">
@@ -15118,19 +14270,6 @@
       <c r="AU102" s="106"/>
       <c r="BJ102" s="102"/>
       <c r="BK102" s="106"/>
-      <c r="BL102" s="120"/>
-      <c r="BM102" s="120"/>
-      <c r="BN102" s="120"/>
-      <c r="BO102" s="120"/>
-      <c r="BP102" s="120"/>
-      <c r="BQ102" s="120"/>
-      <c r="BR102" s="120"/>
-      <c r="BS102" s="120"/>
-      <c r="BT102" s="120"/>
-      <c r="BU102" s="120"/>
-      <c r="BV102" s="120"/>
-      <c r="BW102" s="120"/>
-      <c r="BX102" s="120"/>
       <c r="BY102" s="102"/>
     </row>
     <row r="103" spans="13:77" x14ac:dyDescent="0.25">
@@ -15147,19 +14286,6 @@
       </c>
       <c r="BJ103" s="102"/>
       <c r="BK103" s="106"/>
-      <c r="BL103" s="120"/>
-      <c r="BM103" s="120"/>
-      <c r="BN103" s="120"/>
-      <c r="BO103" s="120"/>
-      <c r="BP103" s="120"/>
-      <c r="BQ103" s="120"/>
-      <c r="BR103" s="120"/>
-      <c r="BS103" s="120"/>
-      <c r="BT103" s="120"/>
-      <c r="BU103" s="120"/>
-      <c r="BV103" s="120"/>
-      <c r="BW103" s="120"/>
-      <c r="BX103" s="120"/>
       <c r="BY103" s="102"/>
     </row>
     <row r="104" spans="13:77" x14ac:dyDescent="0.25">
@@ -15170,23 +14296,12 @@
       <c r="AU104" s="106"/>
       <c r="BJ104" s="102"/>
       <c r="BK104" s="106"/>
-      <c r="BL104" s="119" t="s">
+      <c r="BL104" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="BM104" s="120"/>
-      <c r="BN104" s="120"/>
-      <c r="BO104" s="120"/>
-      <c r="BP104" s="120"/>
-      <c r="BQ104" s="120"/>
-      <c r="BR104" s="120"/>
-      <c r="BS104" s="119" t="s">
+      <c r="BS104" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="BT104" s="120"/>
-      <c r="BU104" s="120"/>
-      <c r="BV104" s="120"/>
-      <c r="BW104" s="120"/>
-      <c r="BX104" s="120"/>
       <c r="BY104" s="102"/>
     </row>
     <row r="105" spans="13:77" x14ac:dyDescent="0.25">
@@ -15197,19 +14312,6 @@
       <c r="AU105" s="106"/>
       <c r="BJ105" s="102"/>
       <c r="BK105" s="106"/>
-      <c r="BL105" s="120"/>
-      <c r="BM105" s="120"/>
-      <c r="BN105" s="120"/>
-      <c r="BO105" s="120"/>
-      <c r="BP105" s="120"/>
-      <c r="BQ105" s="120"/>
-      <c r="BR105" s="120"/>
-      <c r="BS105" s="120"/>
-      <c r="BT105" s="120"/>
-      <c r="BU105" s="120"/>
-      <c r="BV105" s="120"/>
-      <c r="BW105" s="120"/>
-      <c r="BX105" s="120"/>
       <c r="BY105" s="102"/>
     </row>
     <row r="106" spans="13:77" x14ac:dyDescent="0.25">
@@ -15220,19 +14322,6 @@
       <c r="AU106" s="106"/>
       <c r="BJ106" s="102"/>
       <c r="BK106" s="106"/>
-      <c r="BL106" s="120"/>
-      <c r="BM106" s="120"/>
-      <c r="BN106" s="120"/>
-      <c r="BO106" s="120"/>
-      <c r="BP106" s="120"/>
-      <c r="BQ106" s="120"/>
-      <c r="BR106" s="120"/>
-      <c r="BS106" s="120"/>
-      <c r="BT106" s="120"/>
-      <c r="BU106" s="120"/>
-      <c r="BV106" s="120"/>
-      <c r="BW106" s="120"/>
-      <c r="BX106" s="120"/>
       <c r="BY106" s="102"/>
     </row>
     <row r="107" spans="13:77" x14ac:dyDescent="0.25">
@@ -15243,19 +14332,6 @@
       <c r="AU107" s="106"/>
       <c r="BJ107" s="102"/>
       <c r="BK107" s="106"/>
-      <c r="BL107" s="120"/>
-      <c r="BM107" s="120"/>
-      <c r="BN107" s="120"/>
-      <c r="BO107" s="120"/>
-      <c r="BP107" s="120"/>
-      <c r="BQ107" s="120"/>
-      <c r="BR107" s="120"/>
-      <c r="BS107" s="120"/>
-      <c r="BT107" s="120"/>
-      <c r="BU107" s="120"/>
-      <c r="BV107" s="120"/>
-      <c r="BW107" s="120"/>
-      <c r="BX107" s="120"/>
       <c r="BY107" s="102"/>
     </row>
     <row r="108" spans="13:77" x14ac:dyDescent="0.25">
@@ -15266,19 +14342,6 @@
       <c r="AU108" s="106"/>
       <c r="BJ108" s="102"/>
       <c r="BK108" s="106"/>
-      <c r="BL108" s="120"/>
-      <c r="BM108" s="120"/>
-      <c r="BN108" s="120"/>
-      <c r="BO108" s="120"/>
-      <c r="BP108" s="120"/>
-      <c r="BQ108" s="120"/>
-      <c r="BR108" s="120"/>
-      <c r="BS108" s="120"/>
-      <c r="BT108" s="120"/>
-      <c r="BU108" s="120"/>
-      <c r="BV108" s="120"/>
-      <c r="BW108" s="120"/>
-      <c r="BX108" s="120"/>
       <c r="BY108" s="102"/>
     </row>
     <row r="109" spans="13:77" x14ac:dyDescent="0.25">
@@ -15289,19 +14352,6 @@
       <c r="AU109" s="106"/>
       <c r="BJ109" s="102"/>
       <c r="BK109" s="106"/>
-      <c r="BL109" s="120"/>
-      <c r="BM109" s="120"/>
-      <c r="BN109" s="120"/>
-      <c r="BO109" s="120"/>
-      <c r="BP109" s="120"/>
-      <c r="BQ109" s="120"/>
-      <c r="BR109" s="120"/>
-      <c r="BS109" s="120"/>
-      <c r="BT109" s="120"/>
-      <c r="BU109" s="120"/>
-      <c r="BV109" s="120"/>
-      <c r="BW109" s="120"/>
-      <c r="BX109" s="120"/>
       <c r="BY109" s="102"/>
     </row>
     <row r="110" spans="13:77" x14ac:dyDescent="0.25">
@@ -15312,19 +14362,6 @@
       <c r="AU110" s="106"/>
       <c r="BJ110" s="102"/>
       <c r="BK110" s="106"/>
-      <c r="BL110" s="120"/>
-      <c r="BM110" s="120"/>
-      <c r="BN110" s="120"/>
-      <c r="BO110" s="120"/>
-      <c r="BP110" s="120"/>
-      <c r="BQ110" s="120"/>
-      <c r="BR110" s="120"/>
-      <c r="BS110" s="120"/>
-      <c r="BT110" s="120"/>
-      <c r="BU110" s="120"/>
-      <c r="BV110" s="120"/>
-      <c r="BW110" s="120"/>
-      <c r="BX110" s="120"/>
       <c r="BY110" s="102"/>
     </row>
     <row r="111" spans="13:77" x14ac:dyDescent="0.25">
@@ -15335,19 +14372,6 @@
       <c r="AU111" s="106"/>
       <c r="BJ111" s="102"/>
       <c r="BK111" s="106"/>
-      <c r="BL111" s="120"/>
-      <c r="BM111" s="120"/>
-      <c r="BN111" s="120"/>
-      <c r="BO111" s="120"/>
-      <c r="BP111" s="120"/>
-      <c r="BQ111" s="120"/>
-      <c r="BR111" s="120"/>
-      <c r="BS111" s="120"/>
-      <c r="BT111" s="120"/>
-      <c r="BU111" s="120"/>
-      <c r="BV111" s="120"/>
-      <c r="BW111" s="120"/>
-      <c r="BX111" s="120"/>
       <c r="BY111" s="102"/>
     </row>
     <row r="112" spans="13:77" x14ac:dyDescent="0.25">
@@ -15358,19 +14382,6 @@
       <c r="AU112" s="106"/>
       <c r="BJ112" s="102"/>
       <c r="BK112" s="106"/>
-      <c r="BL112" s="120"/>
-      <c r="BM112" s="120"/>
-      <c r="BN112" s="120"/>
-      <c r="BO112" s="120"/>
-      <c r="BP112" s="120"/>
-      <c r="BQ112" s="120"/>
-      <c r="BR112" s="120"/>
-      <c r="BS112" s="120"/>
-      <c r="BT112" s="120"/>
-      <c r="BU112" s="120"/>
-      <c r="BV112" s="120"/>
-      <c r="BW112" s="120"/>
-      <c r="BX112" s="120"/>
       <c r="BY112" s="102"/>
     </row>
     <row r="113" spans="13:77" x14ac:dyDescent="0.25">
@@ -15381,19 +14392,6 @@
       <c r="AU113" s="106"/>
       <c r="BJ113" s="102"/>
       <c r="BK113" s="106"/>
-      <c r="BL113" s="120"/>
-      <c r="BM113" s="120"/>
-      <c r="BN113" s="120"/>
-      <c r="BO113" s="120"/>
-      <c r="BP113" s="120"/>
-      <c r="BQ113" s="120"/>
-      <c r="BR113" s="120"/>
-      <c r="BS113" s="120"/>
-      <c r="BT113" s="120"/>
-      <c r="BU113" s="120"/>
-      <c r="BV113" s="120"/>
-      <c r="BW113" s="120"/>
-      <c r="BX113" s="120"/>
       <c r="BY113" s="102"/>
     </row>
     <row r="114" spans="13:77" x14ac:dyDescent="0.25">
@@ -15404,19 +14402,6 @@
       <c r="AU114" s="106"/>
       <c r="BJ114" s="102"/>
       <c r="BK114" s="106"/>
-      <c r="BL114" s="120"/>
-      <c r="BM114" s="120"/>
-      <c r="BN114" s="120"/>
-      <c r="BO114" s="120"/>
-      <c r="BP114" s="120"/>
-      <c r="BQ114" s="120"/>
-      <c r="BR114" s="120"/>
-      <c r="BS114" s="120"/>
-      <c r="BT114" s="120"/>
-      <c r="BU114" s="120"/>
-      <c r="BV114" s="120"/>
-      <c r="BW114" s="120"/>
-      <c r="BX114" s="120"/>
       <c r="BY114" s="102"/>
     </row>
     <row r="115" spans="13:77" x14ac:dyDescent="0.25">
@@ -15427,19 +14412,6 @@
       <c r="AU115" s="106"/>
       <c r="BJ115" s="102"/>
       <c r="BK115" s="106"/>
-      <c r="BL115" s="120"/>
-      <c r="BM115" s="120"/>
-      <c r="BN115" s="120"/>
-      <c r="BO115" s="120"/>
-      <c r="BP115" s="120"/>
-      <c r="BQ115" s="120"/>
-      <c r="BR115" s="120"/>
-      <c r="BS115" s="120"/>
-      <c r="BT115" s="120"/>
-      <c r="BU115" s="120"/>
-      <c r="BV115" s="120"/>
-      <c r="BW115" s="120"/>
-      <c r="BX115" s="120"/>
       <c r="BY115" s="102"/>
     </row>
     <row r="116" spans="13:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB09C1E4-B929-4D21-9E36-88BCF95472CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DB974F-EF42-44F5-8477-A31C19F60E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedDoor" sheetId="3" r:id="rId1"/>
@@ -942,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,12 +1272,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10623,8 +10617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5A619-FAB5-4BB1-8793-63B61E683A60}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11029,8 +11023,12 @@
       <c r="H15" s="41">
         <v>32</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="41">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1.8109999999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -11921,7 +11919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
   <dimension ref="A2:BY116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -13352,10 +13350,10 @@
       <c r="H40" s="38">
         <v>256</v>
       </c>
-      <c r="I40" s="117">
+      <c r="I40" s="38">
         <v>0.80700000000000005</v>
       </c>
-      <c r="J40" s="118">
+      <c r="J40" s="33">
         <v>0.41099999999999998</v>
       </c>
       <c r="K40" s="99">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DB974F-EF42-44F5-8477-A31C19F60E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468AA497-997B-4DA2-8A3E-A178D3CDD61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -10618,7 +10618,7 @@
   <dimension ref="A2:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11055,8 +11055,12 @@
       <c r="H16" s="42">
         <v>32</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="42">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1.159</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="20">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468AA497-997B-4DA2-8A3E-A178D3CDD61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA39F5BB-06BB-42CD-B49A-497FFBE6766B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -10617,8 +10617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5A619-FAB5-4BB1-8793-63B61E683A60}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11653,8 +11653,12 @@
       <c r="H37" s="52">
         <v>256</v>
       </c>
-      <c r="I37" s="44"/>
-      <c r="J37" s="22"/>
+      <c r="I37" s="44">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="J37" s="22">
+        <v>1.4339999999999999</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
@@ -11681,8 +11685,12 @@
       <c r="H38" s="53">
         <v>256</v>
       </c>
-      <c r="I38" s="47"/>
-      <c r="J38" s="33"/>
+      <c r="I38" s="47">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="J38" s="33">
+        <v>1.4339999999999999</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
@@ -11765,8 +11773,12 @@
       <c r="H41" s="54">
         <v>256</v>
       </c>
-      <c r="I41" s="50"/>
-      <c r="J41" s="36"/>
+      <c r="I41" s="50">
+        <v>0.43</v>
+      </c>
+      <c r="J41" s="36">
+        <v>1.4690000000000001</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="47">
@@ -11793,8 +11805,12 @@
       <c r="H42" s="53">
         <v>256</v>
       </c>
-      <c r="I42" s="47"/>
-      <c r="J42" s="33"/>
+      <c r="I42" s="47">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="J42" s="33">
+        <v>1.4690000000000001</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="34">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA39F5BB-06BB-42CD-B49A-497FFBE6766B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4DC5C4-3E9D-463B-AB70-80ED36EF1905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4DC5C4-3E9D-463B-AB70-80ED36EF1905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C931863-933B-4B81-AEC6-820FEB59B05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -10618,7 +10618,7 @@
   <dimension ref="A2:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11373,8 +11373,12 @@
       <c r="H27" s="52">
         <v>128</v>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="22"/>
+      <c r="I27" s="44">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="J27" s="22">
+        <v>1.4590000000000001</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
@@ -11401,8 +11405,12 @@
       <c r="H28" s="53">
         <v>128</v>
       </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="33"/>
+      <c r="I28" s="47">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="J28" s="33">
+        <v>1.4590000000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
@@ -11485,8 +11493,12 @@
       <c r="H31" s="54">
         <v>128</v>
       </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="36"/>
+      <c r="I31" s="50">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="J31" s="36">
+        <v>1.454</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
@@ -11513,8 +11525,12 @@
       <c r="H32" s="53">
         <v>128</v>
       </c>
-      <c r="I32" s="47"/>
-      <c r="J32" s="33"/>
+      <c r="I32" s="47">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="J32" s="33">
+        <v>1.454</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="34">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sensata2com-my.sharepoint.com/personal/sofithcheallaigh_sensata_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C931863-933B-4B81-AEC6-820FEB59B05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{9C931863-933B-4B81-AEC6-820FEB59B05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9873E7C-787C-4B30-ADDE-1074D50AEC32}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
+    <workbookView xWindow="-28920" yWindow="2805" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedDoor" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="LargeBin" sheetId="5" r:id="rId3"/>
     <sheet name="StorageBox" sheetId="6" r:id="rId4"/>
     <sheet name="Keras Seq" sheetId="1" r:id="rId5"/>
-    <sheet name="AllData" sheetId="7" r:id="rId6"/>
-    <sheet name="SGD" sheetId="8" r:id="rId7"/>
+    <sheet name="AllData - Adam" sheetId="7" r:id="rId6"/>
+    <sheet name="AssData - SGD" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="84">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Large Bin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>SGD</t>
@@ -942,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,6 +1269,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10617,8 +10626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5A619-FAB5-4BB1-8793-63B61E683A60}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11119,10 +11128,12 @@
       <c r="H18" s="38">
         <v>64</v>
       </c>
-      <c r="I18" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="33"/>
+      <c r="I18" s="38">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="J18" s="33">
+        <v>1.5960000000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
@@ -11613,8 +11624,12 @@
       <c r="H35" s="55">
         <v>128</v>
       </c>
-      <c r="I35" s="45"/>
-      <c r="J35" s="19"/>
+      <c r="I35" s="45">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="J35" s="19">
+        <v>1.8180000000000001</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="46">
@@ -11641,8 +11656,12 @@
       <c r="H36" s="56">
         <v>128</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="4"/>
+      <c r="I36" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1.8180000000000001</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
@@ -11955,8 +11974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
   <dimension ref="A2:BY116"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11989,10 +12008,10 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -12080,7 +12099,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L6" s="108"/>
       <c r="M6" s="108"/>
@@ -12096,7 +12115,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>25</v>
@@ -12131,7 +12150,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>25</v>
@@ -12166,7 +12185,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>25</v>
@@ -12201,7 +12220,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>25</v>
@@ -12236,7 +12255,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>25</v>
@@ -12271,7 +12290,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>25</v>
@@ -12306,7 +12325,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>25</v>
@@ -12341,7 +12360,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>25</v>
@@ -12376,7 +12395,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>25</v>
@@ -12411,7 +12430,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>25</v>
@@ -12446,7 +12465,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>25</v>
@@ -12481,7 +12500,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>25</v>
@@ -12516,7 +12535,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>25</v>
@@ -12551,7 +12570,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>25</v>
@@ -12586,7 +12605,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>25</v>
@@ -12621,7 +12640,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>25</v>
@@ -12656,7 +12675,7 @@
         <v>34</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>25</v>
@@ -12691,7 +12710,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>25</v>
@@ -12726,7 +12745,7 @@
         <v>34</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="41" t="s">
         <v>25</v>
@@ -12761,7 +12780,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="42" t="s">
         <v>25</v>
@@ -12796,7 +12815,7 @@
         <v>34</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="43" t="s">
         <v>25</v>
@@ -12831,7 +12850,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>25</v>
@@ -12866,7 +12885,7 @@
         <v>34</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="41" t="s">
         <v>25</v>
@@ -12901,7 +12920,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="38" t="s">
         <v>25</v>
@@ -12936,7 +12955,7 @@
         <v>34</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>25</v>
@@ -12971,7 +12990,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>25</v>
@@ -13006,7 +13025,7 @@
         <v>34</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>25</v>
@@ -13041,7 +13060,7 @@
         <v>35</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="38" t="s">
         <v>25</v>
@@ -13076,7 +13095,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="41" t="s">
         <v>25</v>
@@ -13166,28 +13185,28 @@
       <c r="BY35" s="101"/>
     </row>
     <row r="36" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="117">
         <v>3</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="D36" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="120">
         <v>50</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="118">
         <v>128</v>
       </c>
       <c r="I36" s="42">
@@ -13201,34 +13220,34 @@
       </c>
       <c r="M36" s="16"/>
       <c r="N36" s="94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W36" s="94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD36" s="102"/>
       <c r="AE36" s="106"/>
       <c r="AF36" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM36" s="94" t="s">
         <v>55</v>
-      </c>
-      <c r="AM36" s="94" t="s">
-        <v>56</v>
       </c>
       <c r="AT36" s="102"/>
       <c r="AU36" s="106"/>
       <c r="AV36" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC36" s="94" t="s">
         <v>65</v>
-      </c>
-      <c r="BC36" s="94" t="s">
-        <v>66</v>
       </c>
       <c r="BJ36" s="102"/>
       <c r="BK36" s="106"/>
       <c r="BL36" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS36" s="94" t="s">
         <v>75</v>
-      </c>
-      <c r="BS36" s="94" t="s">
-        <v>76</v>
       </c>
       <c r="BY36" s="102"/>
     </row>
@@ -13243,7 +13262,7 @@
         <v>34</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>25</v>
@@ -13286,7 +13305,7 @@
         <v>35</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" s="38" t="s">
         <v>25</v>
@@ -13329,7 +13348,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="41" t="s">
         <v>25</v>
@@ -13372,7 +13391,7 @@
         <v>35</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40" s="38" t="s">
         <v>25</v>
@@ -13415,7 +13434,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41" s="41" t="s">
         <v>25</v>
@@ -13458,7 +13477,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="38" t="s">
         <v>25</v>
@@ -13501,7 +13520,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43" s="40" t="s">
         <v>25</v>
@@ -13544,7 +13563,7 @@
         <v>35</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" s="38" t="s">
         <v>25</v>
@@ -13587,7 +13606,7 @@
         <v>34</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" s="41" t="s">
         <v>25</v>
@@ -13630,7 +13649,7 @@
         <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="42" t="s">
         <v>25</v>
@@ -13705,10 +13724,10 @@
     <row r="51" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M51" s="16"/>
       <c r="N51" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="X51" s="94" t="s">
         <v>47</v>
-      </c>
-      <c r="X51" s="94" t="s">
-        <v>48</v>
       </c>
       <c r="AD51" s="102"/>
       <c r="AE51" s="106"/>
@@ -13723,18 +13742,18 @@
       <c r="AD52" s="102"/>
       <c r="AE52" s="106"/>
       <c r="AF52" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM52" s="94" t="s">
         <v>57</v>
-      </c>
-      <c r="AM52" s="94" t="s">
-        <v>58</v>
       </c>
       <c r="AT52" s="102"/>
       <c r="AU52" s="106"/>
       <c r="AV52" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC52" s="94" t="s">
         <v>67</v>
-      </c>
-      <c r="BC52" s="94" t="s">
-        <v>68</v>
       </c>
       <c r="BJ52" s="102"/>
       <c r="BK52" s="106"/>
@@ -13759,10 +13778,10 @@
       <c r="BJ54" s="102"/>
       <c r="BK54" s="106"/>
       <c r="BL54" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS54" s="94" t="s">
         <v>77</v>
-      </c>
-      <c r="BS54" s="94" t="s">
-        <v>78</v>
       </c>
       <c r="BY54" s="102"/>
     </row>
@@ -13899,10 +13918,10 @@
     <row r="68" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M68" s="16"/>
       <c r="N68" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="X68" s="94" t="s">
         <v>49</v>
-      </c>
-      <c r="X68" s="94" t="s">
-        <v>50</v>
       </c>
       <c r="AD68" s="102"/>
       <c r="AE68" s="106"/>
@@ -13917,10 +13936,10 @@
       <c r="AD69" s="102"/>
       <c r="AE69" s="106"/>
       <c r="AF69" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM69" s="94" t="s">
         <v>59</v>
-      </c>
-      <c r="AM69" s="94" t="s">
-        <v>60</v>
       </c>
       <c r="AT69" s="102"/>
       <c r="AU69" s="106"/>
@@ -13935,18 +13954,18 @@
       <c r="AT70" s="102"/>
       <c r="AU70" s="106"/>
       <c r="AV70" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC70" s="94" t="s">
         <v>69</v>
-      </c>
-      <c r="BC70" s="94" t="s">
-        <v>70</v>
       </c>
       <c r="BJ70" s="102"/>
       <c r="BK70" s="106"/>
       <c r="BL70" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS70" s="94" t="s">
         <v>79</v>
-      </c>
-      <c r="BS70" s="94" t="s">
-        <v>80</v>
       </c>
       <c r="BY70" s="102"/>
     </row>
@@ -14083,10 +14102,10 @@
     <row r="84" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M84" s="16"/>
       <c r="O84" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="X84" s="94" t="s">
         <v>51</v>
-      </c>
-      <c r="X84" s="94" t="s">
-        <v>52</v>
       </c>
       <c r="AD84" s="102"/>
       <c r="AE84" s="106"/>
@@ -14101,10 +14120,10 @@
       <c r="AD85" s="102"/>
       <c r="AE85" s="106"/>
       <c r="AF85" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN85" s="94" t="s">
         <v>61</v>
-      </c>
-      <c r="AN85" s="94" t="s">
-        <v>62</v>
       </c>
       <c r="AT85" s="102"/>
       <c r="AU85" s="106"/>
@@ -14129,10 +14148,10 @@
       <c r="AT87" s="102"/>
       <c r="AU87" s="106"/>
       <c r="AV87" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD87" s="94" t="s">
         <v>71</v>
-      </c>
-      <c r="BD87" s="94" t="s">
-        <v>72</v>
       </c>
       <c r="BJ87" s="102"/>
       <c r="BK87" s="106"/>
@@ -14147,10 +14166,10 @@
       <c r="BJ88" s="102"/>
       <c r="BK88" s="106"/>
       <c r="BL88" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS88" s="94" t="s">
         <v>81</v>
-      </c>
-      <c r="BS88" s="94" t="s">
-        <v>82</v>
       </c>
       <c r="BY88" s="102"/>
     </row>
@@ -14267,15 +14286,15 @@
     <row r="100" spans="13:77" x14ac:dyDescent="0.25">
       <c r="M100" s="16"/>
       <c r="O100" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y100" s="94" t="s">
         <v>53</v>
-      </c>
-      <c r="Y100" s="94" t="s">
-        <v>54</v>
       </c>
       <c r="AD100" s="102"/>
       <c r="AE100" s="106"/>
       <c r="AF100" s="94" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AT100" s="102"/>
       <c r="AU100" s="106"/>
@@ -14288,7 +14307,7 @@
       <c r="AD101" s="102"/>
       <c r="AE101" s="106"/>
       <c r="AN101" s="94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AT101" s="102"/>
       <c r="AU101" s="106"/>
@@ -14313,10 +14332,10 @@
       <c r="AT103" s="102"/>
       <c r="AU103" s="106"/>
       <c r="AV103" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD103" s="94" t="s">
         <v>73</v>
-      </c>
-      <c r="BD103" s="94" t="s">
-        <v>74</v>
       </c>
       <c r="BJ103" s="102"/>
       <c r="BK103" s="106"/>
@@ -14331,10 +14350,10 @@
       <c r="BJ104" s="102"/>
       <c r="BK104" s="106"/>
       <c r="BL104" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS104" s="94" t="s">
         <v>83</v>
-      </c>
-      <c r="BS104" s="94" t="s">
-        <v>84</v>
       </c>
       <c r="BY104" s="102"/>
     </row>
@@ -14521,6 +14540,30 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:J5"/>
   </mergeCells>
+  <conditionalFormatting sqref="I7:I46">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:J46">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sensata2com-my.sharepoint.com/personal/sofithcheallaigh_sensata_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{9C931863-933B-4B81-AEC6-820FEB59B05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9873E7C-787C-4B30-ADDE-1074D50AEC32}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279F452C-04DB-497B-ADD9-5D7D05ED329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2805" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedDoor" sheetId="3" r:id="rId1"/>
     <sheet name="DisplayStand" sheetId="4" r:id="rId2"/>
     <sheet name="LargeBin" sheetId="5" r:id="rId3"/>
     <sheet name="StorageBox" sheetId="6" r:id="rId4"/>
-    <sheet name="Keras Seq" sheetId="1" r:id="rId5"/>
-    <sheet name="AllData - Adam" sheetId="7" r:id="rId6"/>
-    <sheet name="AssData - SGD" sheetId="8" r:id="rId7"/>
+    <sheet name="AllData - Adam" sheetId="7" r:id="rId5"/>
+    <sheet name="AssData - SGD" sheetId="8" r:id="rId6"/>
+    <sheet name="Keras Seq" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1247,6 +1247,18 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1271,18 +1283,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,55 +1301,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>525587</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD5E201-A7F3-4E22-BE68-FDE872F8A5FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="655320"/>
-          <a:ext cx="4678487" cy="2148840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3882,6 +3833,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>525587</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD5E201-A7F3-4E22-BE68-FDE872F8A5FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="655320"/>
+          <a:ext cx="4678487" cy="2148840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4181,7 +4181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9512EAE-7E03-4C9A-9560-62E0DE7C04A5}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
@@ -4239,22 +4239,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="110" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -5659,22 +5659,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="110" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -7079,22 +7079,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="110" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -8499,22 +8499,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="110" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -9858,776 +9858,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCBFCE0-D62A-4787-8AAA-20AB7ACA5ECA}">
-  <dimension ref="A1:J26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="10" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="116"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>2</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="21">
-        <v>10</v>
-      </c>
-      <c r="H6" s="21">
-        <v>16</v>
-      </c>
-      <c r="I6" s="21">
-        <v>2.4470000000000001</v>
-      </c>
-      <c r="J6" s="22">
-        <v>8.1850000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>2</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8">
-        <v>10</v>
-      </c>
-      <c r="H8" s="8">
-        <v>64</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="J8" s="24">
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>2</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="14">
-        <v>10</v>
-      </c>
-      <c r="H9" s="14">
-        <v>64</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="J9" s="26">
-        <v>0.85399999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1">
-        <v>128</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0.91600000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="8">
-        <v>10</v>
-      </c>
-      <c r="H11" s="8">
-        <v>256</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="J11" s="24">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <v>2</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="11">
-        <v>10</v>
-      </c>
-      <c r="H12" s="11">
-        <v>256</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="J12" s="28">
-        <v>0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
-        <v>10</v>
-      </c>
-      <c r="H13" s="11">
-        <v>256</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0.72</v>
-      </c>
-      <c r="J13" s="28">
-        <v>0.86899999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
-        <v>2</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="14">
-        <v>10</v>
-      </c>
-      <c r="H14" s="14">
-        <v>256</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0.443</v>
-      </c>
-      <c r="J14" s="26">
-        <v>0.311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="8">
-        <v>10</v>
-      </c>
-      <c r="H15" s="8">
-        <v>512</v>
-      </c>
-      <c r="I15" s="8">
-        <v>2.464</v>
-      </c>
-      <c r="J15" s="24">
-        <v>8.202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
-        <v>2</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="14">
-        <v>10</v>
-      </c>
-      <c r="H16" s="14">
-        <v>512</v>
-      </c>
-      <c r="I16" s="14">
-        <v>2.4649999999999999</v>
-      </c>
-      <c r="J16" s="26">
-        <v>8.1869999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="1">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1024</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2.4620000000000002</v>
-      </c>
-      <c r="J17" s="19">
-        <v>8.1929999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="3">
-        <v>10</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4096</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2.46</v>
-      </c>
-      <c r="J18" s="4">
-        <v>8190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1">
-        <v>20</v>
-      </c>
-      <c r="H19" s="1">
-        <v>16</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.216</v>
-      </c>
-      <c r="J19" s="1">
-        <v>8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1">
-        <v>20</v>
-      </c>
-      <c r="H20" s="1">
-        <v>32</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.90500000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1">
-        <v>64</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.249</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="1">
-        <v>20</v>
-      </c>
-      <c r="H22" s="1">
-        <v>128</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.90900000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1">
-        <v>20</v>
-      </c>
-      <c r="H23" s="1">
-        <v>256</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.91100000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="1">
-        <v>20</v>
-      </c>
-      <c r="H24" s="1">
-        <v>512</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.90700000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="1">
-        <v>20</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1024</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.82899999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="1">
-        <v>20</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2048</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:J4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5A619-FAB5-4BB1-8793-63B61E683A60}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10684,22 +9919,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="110" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -11928,8 +11163,12 @@
       <c r="H45" s="55">
         <v>256</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="19"/>
+      <c r="I45" s="45">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="J45" s="19">
+        <v>1.869</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46">
@@ -11956,8 +11195,12 @@
       <c r="H46" s="56">
         <v>256</v>
       </c>
-      <c r="I46" s="46"/>
-      <c r="J46" s="4"/>
+      <c r="I46" s="46">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1.869</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11970,11 +11213,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
   <dimension ref="A2:BY116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
@@ -12047,22 +11290,22 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="110" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
       <c r="K5" s="95"/>
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
@@ -13185,28 +12428,28 @@
       <c r="BY35" s="101"/>
     </row>
     <row r="36" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="117">
+      <c r="A36" s="109">
         <v>3</v>
       </c>
-      <c r="B36" s="118" t="s">
+      <c r="B36" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="119" t="s">
+      <c r="C36" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="117" t="s">
+      <c r="D36" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="120">
+      <c r="E36" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="112">
         <v>50</v>
       </c>
-      <c r="H36" s="118">
+      <c r="H36" s="110">
         <v>128</v>
       </c>
       <c r="I36" s="42">
@@ -14568,4 +13811,769 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCBFCE0-D62A-4787-8AAA-20AB7ACA5ECA}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="10" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="120"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="21">
+        <v>10</v>
+      </c>
+      <c r="H6" s="21">
+        <v>16</v>
+      </c>
+      <c r="I6" s="21">
+        <v>2.4470000000000001</v>
+      </c>
+      <c r="J6" s="22">
+        <v>8.1850000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8">
+        <v>64</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="14">
+        <v>10</v>
+      </c>
+      <c r="H9" s="14">
+        <v>64</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>128</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8">
+        <v>256</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11">
+        <v>10</v>
+      </c>
+      <c r="H12" s="11">
+        <v>256</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J12" s="28">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11">
+        <v>256</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="J13" s="28">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>2</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="14">
+        <v>10</v>
+      </c>
+      <c r="H14" s="14">
+        <v>256</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.443</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8">
+        <v>512</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2.464</v>
+      </c>
+      <c r="J15" s="24">
+        <v>8.202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>2</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="14">
+        <v>10</v>
+      </c>
+      <c r="H16" s="14">
+        <v>512</v>
+      </c>
+      <c r="I16" s="14">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="J16" s="26">
+        <v>8.1869999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1024</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="J17" s="19">
+        <v>8.1929999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4096</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2.46</v>
+      </c>
+      <c r="J18" s="4">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="J19" s="1">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1">
+        <v>64</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.249</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1">
+        <v>128</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1">
+        <v>256</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1">
+        <v>512</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1024</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2048</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279F452C-04DB-497B-ADD9-5D7D05ED329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC4FB46-E0D7-4D89-A66F-374EC80CF6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedDoor" sheetId="3" r:id="rId1"/>
@@ -9861,8 +9861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5A619-FAB5-4BB1-8793-63B61E683A60}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10451,8 +10451,12 @@
       <c r="H21" s="40">
         <v>64</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="36"/>
+      <c r="I21" s="40">
+        <v>0.499</v>
+      </c>
+      <c r="J21" s="36">
+        <v>1.4390000000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
@@ -11217,7 +11221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
   <dimension ref="A2:BY116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC4FB46-E0D7-4D89-A66F-374EC80CF6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4548083E-77BE-493F-8F83-932B9183EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -10483,8 +10483,12 @@
       <c r="H22" s="38">
         <v>64</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="33"/>
+      <c r="I22" s="38">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J22" s="33">
+        <v>1.4390000000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
@@ -11221,7 +11225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
   <dimension ref="A2:BY116"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4548083E-77BE-493F-8F83-932B9183EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB42F8FD-0F39-4588-A02E-B759643487C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedDoor" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="StorageBox" sheetId="6" r:id="rId4"/>
     <sheet name="AllData - Adam" sheetId="7" r:id="rId5"/>
     <sheet name="AssData - SGD" sheetId="8" r:id="rId6"/>
-    <sheet name="Keras Seq" sheetId="1" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
+    <sheet name="Keras Seq" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="87">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -292,6 +293,15 @@
   </si>
   <si>
     <t>#40</t>
+  </si>
+  <si>
+    <t>Learning Rate</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>Optmiser</t>
   </si>
 </sst>
 </file>
@@ -3837,6 +3847,238 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>438892</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE233A4B-E921-87BC-3BE2-364B048B631D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="190500"/>
+          <a:ext cx="5315692" cy="2600688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE53CCF-797A-1D6C-37C1-E881D127FA97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9772650" y="3457575"/>
+          <a:ext cx="5486400" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0687A88-422E-8F28-1B3E-2795D3A1CB8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9772650" y="8220075"/>
+          <a:ext cx="5486400" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1FD1C1-1B25-6AB9-1AE9-55FFABA08116}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9772650" y="12982575"/>
+          <a:ext cx="5486400" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -9861,7 +10103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5A619-FAB5-4BB1-8793-63B61E683A60}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -11225,8 +11467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479D5BE-6F44-4838-BE09-A70623EA1687}">
   <dimension ref="A2:BY116"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13822,6 +14064,222 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546EE643-96AE-406E-920D-B005CB201B4A}">
+  <dimension ref="A3:P68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="114"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="95"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>3</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="48">
+        <v>10</v>
+      </c>
+      <c r="I6" s="38">
+        <v>32</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="K6" s="33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L6" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>3</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="48">
+        <v>50</v>
+      </c>
+      <c r="I7" s="38">
+        <v>32</v>
+      </c>
+      <c r="J7" s="38">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="K7" s="33">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="L7" s="99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>3</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="48">
+        <v>100</v>
+      </c>
+      <c r="I8" s="38">
+        <v>32</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="K8" s="33">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="L8" s="99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCBFCE0-D62A-4787-8AAA-20AB7ACA5ECA}">
   <dimension ref="A1:J26"/>
   <sheetViews>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB42F8FD-0F39-4588-A02E-B759643487C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A0595C-7009-4BB2-BD5B-705053813CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="87">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -357,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -945,11 +945,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1291,6 +1386,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4072,6 +4188,860 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1E71AD-0F5F-6F66-87F3-23A8759D2C62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10182225" y="22602825"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8692F8-83C4-1AF1-55B4-36D492066A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10001250" y="17745075"/>
+          <a:ext cx="5486400" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00750CA1-EC4B-1CC7-7C90-F412E4AE087D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10001250" y="27460575"/>
+          <a:ext cx="5486400" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C56D03-0F7F-2E54-CB42-35ACA6055735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10001250" y="32413575"/>
+          <a:ext cx="5486400" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600F2685-BB17-C094-7420-6DCD7922AAB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10001250" y="37366575"/>
+          <a:ext cx="5486400" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826A950B-CFDD-B6A6-8EBB-2FBEDBD57279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10001250" y="42129075"/>
+          <a:ext cx="5486400" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9502938A-5894-3148-41FB-8A5793980FC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10001250" y="46891575"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1E3A46-D224-06E8-173E-1C4875AF7B5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16706850" y="46901100"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD691DA9-DE64-4F70-5FD2-B2C14040EEE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16706850" y="42138600"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF7129B-AF09-25EB-923D-D5B25AF76449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16706850" y="37376100"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024C72F5-2AB9-680E-7A53-67D921DE9242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16706850" y="32423100"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3466B98D-7A37-411B-539A-CC9C04485A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16706850" y="27470100"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F88A821-C71B-2A03-E616-B53B8369866B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16716375" y="22688550"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F58131B-2A14-552A-ABBE-46938E6B1D5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16706850" y="17754600"/>
+          <a:ext cx="5486400" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14065,14 +15035,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546EE643-96AE-406E-920D-B005CB201B4A}">
-  <dimension ref="A3:P68"/>
+  <dimension ref="A3:AA246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="G99" workbookViewId="0">
+      <selection activeCell="AA94" sqref="AA94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
@@ -14140,40 +15111,40 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+      <c r="A6" s="121">
         <v>3</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="124">
         <v>0.1</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="48">
+      <c r="F6" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="126">
         <v>10</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="122">
         <v>32</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="122">
         <v>0.85799999999999998</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="123">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L6" s="99">
+      <c r="L6" s="127">
         <v>1</v>
       </c>
     </row>
@@ -14253,9 +15224,644 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="48">
+        <v>150</v>
+      </c>
+      <c r="I9" s="38">
+        <v>32</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="K9" s="33">
+        <v>0.159</v>
+      </c>
+      <c r="L9" s="99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>3</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="48">
+        <v>200</v>
+      </c>
+      <c r="I10" s="38">
+        <v>32</v>
+      </c>
+      <c r="J10" s="38">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="K10" s="33">
+        <v>0.222</v>
+      </c>
+      <c r="L10" s="99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>3</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="48">
+        <v>250</v>
+      </c>
+      <c r="I11" s="38">
+        <v>32</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0.873</v>
+      </c>
+      <c r="K11" s="33">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L11" s="99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>3</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="48">
+        <v>300</v>
+      </c>
+      <c r="I12" s="38">
+        <v>32</v>
+      </c>
+      <c r="J12" s="38">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="K12" s="33">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="L12" s="99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>3</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="48">
+        <v>350</v>
+      </c>
+      <c r="I13" s="38">
+        <v>32</v>
+      </c>
+      <c r="J13" s="38">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K13" s="33">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="L13" s="99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>3</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="48">
+        <v>400</v>
+      </c>
+      <c r="I14" s="38">
+        <v>32</v>
+      </c>
+      <c r="J14" s="38">
+        <v>0.95</v>
+      </c>
+      <c r="K14" s="33">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L14" s="99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="5">
+        <v>450</v>
+      </c>
+      <c r="I15" s="42">
+        <v>32</v>
+      </c>
+      <c r="J15" s="42">
+        <v>0.96</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.311</v>
+      </c>
+      <c r="L15" s="97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>3</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="48">
+        <v>10</v>
+      </c>
+      <c r="I16" s="38">
+        <v>64</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>3</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="48">
+        <v>50</v>
+      </c>
+      <c r="I17" s="38">
+        <v>64</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="99">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="48">
+        <v>100</v>
+      </c>
+      <c r="I18" s="38">
+        <v>64</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="99">
+        <v>13</v>
+      </c>
       <c r="P18" t="s">
         <v>85</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>3</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="48">
+        <v>150</v>
+      </c>
+      <c r="I19" s="38">
+        <v>64</v>
+      </c>
+      <c r="J19" s="38">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="K19" s="33">
+        <v>0.151</v>
+      </c>
+      <c r="L19" s="99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>3</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="48">
+        <v>200</v>
+      </c>
+      <c r="I20" s="38">
+        <v>64</v>
+      </c>
+      <c r="J20" s="38">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K20" s="33">
+        <v>0.157</v>
+      </c>
+      <c r="L20" s="99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>3</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="48">
+        <v>250</v>
+      </c>
+      <c r="I21" s="38">
+        <v>64</v>
+      </c>
+      <c r="J21" s="38">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="K21" s="33">
+        <v>0.125</v>
+      </c>
+      <c r="L21" s="99">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>3</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="48">
+        <v>300</v>
+      </c>
+      <c r="I22" s="38">
+        <v>64</v>
+      </c>
+      <c r="J22" s="38">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="K22" s="33">
+        <v>0.182</v>
+      </c>
+      <c r="L22" s="99">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>3</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="48">
+        <v>350</v>
+      </c>
+      <c r="I23" s="38">
+        <v>64</v>
+      </c>
+      <c r="J23" s="38">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="K23" s="33">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="L23" s="99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>3</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="48">
+        <v>400</v>
+      </c>
+      <c r="I24" s="38">
+        <v>64</v>
+      </c>
+      <c r="J24" s="38">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K24" s="33">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="L24" s="99">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>3</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="48">
+        <v>450</v>
+      </c>
+      <c r="I25" s="38">
+        <v>64</v>
+      </c>
+      <c r="J25" s="38">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="K25" s="33">
+        <v>0.121</v>
+      </c>
+      <c r="L25" s="99">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="16:16" x14ac:dyDescent="0.25">
@@ -14266,6 +15872,62 @@
     <row r="68" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P68" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P93" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P118" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P144" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="170" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P170" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA170" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P196" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA196" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="221" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P221" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="246" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P246" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A0595C-7009-4BB2-BD5B-705053813CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8DCDD1-E364-4A41-987D-B81F0C6D47F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="87">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -1364,6 +1364,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1386,27 +1407,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4016,7 +4016,7 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5042,6 +5042,372 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2AC77C-C08E-0CB2-09B7-146FCAA2B868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16706850" y="12992100"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CB1A83-6BE2-F255-55FD-0D2252FC81D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16706850" y="8229600"/>
+          <a:ext cx="5486400" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B94BCF3-F63B-CE24-B187-405E93E6783C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16706850" y="3467100"/>
+          <a:ext cx="5486400" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A824AB-8C40-97F9-4473-D0CF5AAFAC6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23412450" y="3467100"/>
+          <a:ext cx="5486400" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFD8977-1DFE-0BD9-B6DD-F53F9FE8056A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23412450" y="8248650"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A0D4A7-E194-4382-B3F9-8002B6CF0458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23412450" y="13011150"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5451,22 +5817,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="113" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -6871,22 +7237,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="113" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -8291,22 +8657,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="113" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -9711,22 +10077,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="113" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -11131,22 +11497,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="113" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -12510,22 +12876,22 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="113" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
       <c r="K5" s="95"/>
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
@@ -15035,10 +15401,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546EE643-96AE-406E-920D-B005CB201B4A}">
-  <dimension ref="A3:AA246"/>
+  <dimension ref="A3:AL246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G99" workbookViewId="0">
-      <selection activeCell="AA94" sqref="AA94"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15051,25 +15417,25 @@
   <sheetData>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="113" t="s">
+      <c r="E4" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="114" t="s">
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="122"/>
       <c r="L4" s="95"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15111,40 +15477,40 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="121">
+      <c r="A6" s="113">
         <v>3</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="124">
+      <c r="D6" s="116">
         <v>0.1</v>
       </c>
-      <c r="E6" s="125" t="s">
+      <c r="E6" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="122" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="123" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="126">
+      <c r="F6" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="118">
         <v>10</v>
       </c>
-      <c r="I6" s="122">
+      <c r="I6" s="114">
         <v>32</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="114">
         <v>0.85799999999999998</v>
       </c>
-      <c r="K6" s="123">
+      <c r="K6" s="115">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L6" s="127">
+      <c r="L6" s="119">
         <v>1</v>
       </c>
     </row>
@@ -15491,40 +15857,44 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+      <c r="A16" s="113">
         <v>3</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="116">
         <v>0.1</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="48">
+      <c r="F16" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="118">
         <v>10</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="114">
         <v>64</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="99">
+      <c r="J16" s="114">
+        <v>0.747</v>
+      </c>
+      <c r="K16" s="115">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="L16" s="119">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>3</v>
       </c>
@@ -15552,13 +15922,17 @@
       <c r="I17" s="38">
         <v>64</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="33"/>
+      <c r="J17" s="38">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="K17" s="33">
+        <v>0.23100000000000001</v>
+      </c>
       <c r="L17" s="99">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>3</v>
       </c>
@@ -15586,8 +15960,12 @@
       <c r="I18" s="38">
         <v>64</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="33"/>
+      <c r="J18" s="38">
+        <v>0.91</v>
+      </c>
+      <c r="K18" s="33">
+        <v>0.22800000000000001</v>
+      </c>
       <c r="L18" s="99">
         <v>13</v>
       </c>
@@ -15597,8 +15975,11 @@
       <c r="AA18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AL18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>3</v>
       </c>
@@ -15636,7 +16017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>3</v>
       </c>
@@ -15674,7 +16055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>3</v>
       </c>
@@ -15712,7 +16093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>3</v>
       </c>
@@ -15750,7 +16131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>3</v>
       </c>
@@ -15788,7 +16169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>3</v>
       </c>
@@ -15826,60 +16207,429 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+    <row r="25" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>3</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="3">
         <v>0.1</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="48">
+      <c r="F25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="5">
         <v>450</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="42">
         <v>64</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="42">
         <v>0.95899999999999996</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="4">
         <v>0.121</v>
       </c>
-      <c r="L25" s="99">
+      <c r="L25" s="97">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>3</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="48">
+        <v>10</v>
+      </c>
+      <c r="I26" s="38">
+        <v>128</v>
+      </c>
+      <c r="J26" s="38">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="K26" s="33">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="L26" s="119">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>3</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="48">
+        <v>50</v>
+      </c>
+      <c r="I27" s="38">
+        <v>128</v>
+      </c>
+      <c r="J27" s="38">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="K27" s="33">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="L27" s="99">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>3</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="48">
+        <v>100</v>
+      </c>
+      <c r="I28" s="38">
+        <v>128</v>
+      </c>
+      <c r="J28" s="38">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="K28" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="L28" s="99">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>3</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="48">
+        <v>150</v>
+      </c>
+      <c r="I29" s="38">
+        <v>128</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="99">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>3</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="48">
+        <v>200</v>
+      </c>
+      <c r="I30" s="38">
+        <v>128</v>
+      </c>
+      <c r="J30" s="38"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>3</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="48">
+        <v>250</v>
+      </c>
+      <c r="I31" s="38">
+        <v>128</v>
+      </c>
+      <c r="J31" s="38"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="99">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <v>3</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="48">
+        <v>300</v>
+      </c>
+      <c r="I32" s="38">
+        <v>128</v>
+      </c>
+      <c r="J32" s="38"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="99">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
+        <v>3</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="48">
+        <v>350</v>
+      </c>
+      <c r="I33" s="38">
+        <v>128</v>
+      </c>
+      <c r="J33" s="38"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="99">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
+        <v>3</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="48">
+        <v>400</v>
+      </c>
+      <c r="I34" s="38">
+        <v>128</v>
+      </c>
+      <c r="J34" s="38"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="99">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31">
+        <v>3</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="48">
+        <v>450</v>
+      </c>
+      <c r="I35" s="38">
+        <v>128</v>
+      </c>
+      <c r="J35" s="38"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="AA43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P68" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="93" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P93" t="s">
         <v>47</v>
       </c>
       <c r="AA93" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="16:38" x14ac:dyDescent="0.25">
+      <c r="AL94" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="16:27" x14ac:dyDescent="0.25">
@@ -15974,22 +16724,22 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119" t="s">
+      <c r="B4" s="124"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="117" t="s">
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="120"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="127"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8DCDD1-E364-4A41-987D-B81F0C6D47F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8C9D64-CDF3-4C2A-A2F6-0E64B0E65601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="87">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -5408,6 +5408,189 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39B2468-BF7C-541A-68E4-3EA610D45988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23412450" y="17964150"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9695E69-101F-B77B-6CFF-2029A25F154C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23412450" y="22726650"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E07DCF-9137-FC87-0204-AAEE8D90C87E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23412450" y="27679650"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15403,8 +15586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546EE643-96AE-406E-920D-B005CB201B4A}">
   <dimension ref="A3:AL246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16387,8 +16570,12 @@
       <c r="I29" s="38">
         <v>128</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="33"/>
+      <c r="J29" s="38">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="K29" s="33">
+        <v>0.214</v>
+      </c>
       <c r="L29" s="99">
         <v>24</v>
       </c>
@@ -16421,8 +16608,12 @@
       <c r="I30" s="38">
         <v>128</v>
       </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="33"/>
+      <c r="J30" s="38">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="K30" s="33">
+        <v>0.14099999999999999</v>
+      </c>
       <c r="L30" s="99">
         <v>25</v>
       </c>
@@ -16455,8 +16646,12 @@
       <c r="I31" s="38">
         <v>128</v>
       </c>
-      <c r="J31" s="38"/>
-      <c r="K31" s="33"/>
+      <c r="J31" s="38">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="K31" s="33">
+        <v>0.219</v>
+      </c>
       <c r="L31" s="99">
         <v>26</v>
       </c>
@@ -16632,12 +16827,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="16:38" x14ac:dyDescent="0.25">
       <c r="P118" t="s">
         <v>48</v>
       </c>
       <c r="AA118" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="16:38" x14ac:dyDescent="0.25">
+      <c r="AL119" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="144" spans="16:27" x14ac:dyDescent="0.25">
@@ -16646,6 +16846,11 @@
       </c>
       <c r="AA144" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="38:38" x14ac:dyDescent="0.25">
+      <c r="AL145" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="170" spans="16:27" x14ac:dyDescent="0.25">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8C9D64-CDF3-4C2A-A2F6-0E64B0E65601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE57C5C-C23C-4B4D-AECF-AAC17A6A40CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -1044,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1409,6 +1409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15584,10 +15585,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546EE643-96AE-406E-920D-B005CB201B4A}">
-  <dimension ref="A3:AL246"/>
+  <dimension ref="A3:AV273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BD26" sqref="BD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15598,8 +15599,8 @@
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="120" t="s">
         <v>15</v>
       </c>
@@ -15621,7 +15622,7 @@
       <c r="K4" s="122"/>
       <c r="L4" s="95"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="84" t="s">
         <v>7</v>
       </c>
@@ -15659,7 +15660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="113">
         <v>3</v>
       </c>
@@ -15697,7 +15698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>3</v>
       </c>
@@ -15735,7 +15736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -15773,7 +15774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>3</v>
       </c>
@@ -15811,7 +15812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>3</v>
       </c>
@@ -15849,7 +15850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>3</v>
       </c>
@@ -15887,7 +15888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>3</v>
       </c>
@@ -15925,7 +15926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>3</v>
       </c>
@@ -15963,7 +15964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>3</v>
       </c>
@@ -16001,7 +16002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -16039,7 +16040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="113">
         <v>3</v>
       </c>
@@ -16076,8 +16077,43 @@
       <c r="L16" s="119">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N16" s="105"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="100"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="105"/>
+      <c r="AA16" s="100"/>
+      <c r="AB16" s="100"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="100"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="100"/>
+      <c r="AI16" s="100"/>
+      <c r="AJ16" s="101"/>
+      <c r="AK16" s="100"/>
+      <c r="AL16" s="100"/>
+      <c r="AM16" s="100"/>
+      <c r="AN16" s="100"/>
+      <c r="AO16" s="100"/>
+      <c r="AP16" s="100"/>
+      <c r="AQ16" s="100"/>
+      <c r="AR16" s="100"/>
+      <c r="AS16" s="100"/>
+      <c r="AT16" s="100"/>
+      <c r="AU16" s="100"/>
+      <c r="AV16" s="101"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>3</v>
       </c>
@@ -16114,8 +16150,43 @@
       <c r="L17" s="99">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N17" s="106"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="128"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="128"/>
+      <c r="AH17" s="128"/>
+      <c r="AI17" s="128"/>
+      <c r="AJ17" s="102"/>
+      <c r="AK17" s="128"/>
+      <c r="AL17" s="128"/>
+      <c r="AM17" s="128"/>
+      <c r="AN17" s="128"/>
+      <c r="AO17" s="128"/>
+      <c r="AP17" s="128"/>
+      <c r="AQ17" s="128"/>
+      <c r="AR17" s="128"/>
+      <c r="AS17" s="128"/>
+      <c r="AT17" s="128"/>
+      <c r="AU17" s="128"/>
+      <c r="AV17" s="102"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>3</v>
       </c>
@@ -16152,17 +16223,49 @@
       <c r="L18" s="99">
         <v>13</v>
       </c>
-      <c r="P18" t="s">
+      <c r="N18" s="106"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="Q18" s="128"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
+      <c r="AD18" s="128"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="128"/>
+      <c r="AH18" s="128"/>
+      <c r="AI18" s="128"/>
+      <c r="AJ18" s="102"/>
+      <c r="AK18" s="128"/>
+      <c r="AL18" s="128" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM18" s="128"/>
+      <c r="AN18" s="128"/>
+      <c r="AO18" s="128"/>
+      <c r="AP18" s="128"/>
+      <c r="AQ18" s="128"/>
+      <c r="AR18" s="128"/>
+      <c r="AS18" s="128"/>
+      <c r="AT18" s="128"/>
+      <c r="AU18" s="128"/>
+      <c r="AV18" s="102"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>3</v>
       </c>
@@ -16199,8 +16302,43 @@
       <c r="L19" s="99">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N19" s="106"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="106"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="128"/>
+      <c r="AH19" s="128"/>
+      <c r="AI19" s="128"/>
+      <c r="AJ19" s="102"/>
+      <c r="AK19" s="128"/>
+      <c r="AL19" s="128"/>
+      <c r="AM19" s="128"/>
+      <c r="AN19" s="128"/>
+      <c r="AO19" s="128"/>
+      <c r="AP19" s="128"/>
+      <c r="AQ19" s="128"/>
+      <c r="AR19" s="128"/>
+      <c r="AS19" s="128"/>
+      <c r="AT19" s="128"/>
+      <c r="AU19" s="128"/>
+      <c r="AV19" s="102"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>3</v>
       </c>
@@ -16237,8 +16375,43 @@
       <c r="L20" s="99">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N20" s="106"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="128"/>
+      <c r="T20" s="128"/>
+      <c r="U20" s="128"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="128"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="128"/>
+      <c r="AD20" s="128"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="128"/>
+      <c r="AG20" s="128"/>
+      <c r="AH20" s="128"/>
+      <c r="AI20" s="128"/>
+      <c r="AJ20" s="102"/>
+      <c r="AK20" s="128"/>
+      <c r="AL20" s="128"/>
+      <c r="AM20" s="128"/>
+      <c r="AN20" s="128"/>
+      <c r="AO20" s="128"/>
+      <c r="AP20" s="128"/>
+      <c r="AQ20" s="128"/>
+      <c r="AR20" s="128"/>
+      <c r="AS20" s="128"/>
+      <c r="AT20" s="128"/>
+      <c r="AU20" s="128"/>
+      <c r="AV20" s="102"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>3</v>
       </c>
@@ -16275,8 +16448,43 @@
       <c r="L21" s="99">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N21" s="106"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="128"/>
+      <c r="AH21" s="128"/>
+      <c r="AI21" s="128"/>
+      <c r="AJ21" s="102"/>
+      <c r="AK21" s="128"/>
+      <c r="AL21" s="128"/>
+      <c r="AM21" s="128"/>
+      <c r="AN21" s="128"/>
+      <c r="AO21" s="128"/>
+      <c r="AP21" s="128"/>
+      <c r="AQ21" s="128"/>
+      <c r="AR21" s="128"/>
+      <c r="AS21" s="128"/>
+      <c r="AT21" s="128"/>
+      <c r="AU21" s="128"/>
+      <c r="AV21" s="102"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>3</v>
       </c>
@@ -16313,8 +16521,43 @@
       <c r="L22" s="99">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N22" s="106"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="106"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="128"/>
+      <c r="AI22" s="128"/>
+      <c r="AJ22" s="102"/>
+      <c r="AK22" s="128"/>
+      <c r="AL22" s="128"/>
+      <c r="AM22" s="128"/>
+      <c r="AN22" s="128"/>
+      <c r="AO22" s="128"/>
+      <c r="AP22" s="128"/>
+      <c r="AQ22" s="128"/>
+      <c r="AR22" s="128"/>
+      <c r="AS22" s="128"/>
+      <c r="AT22" s="128"/>
+      <c r="AU22" s="128"/>
+      <c r="AV22" s="102"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>3</v>
       </c>
@@ -16351,8 +16594,43 @@
       <c r="L23" s="99">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N23" s="106"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="106"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="128"/>
+      <c r="AH23" s="128"/>
+      <c r="AI23" s="128"/>
+      <c r="AJ23" s="102"/>
+      <c r="AK23" s="128"/>
+      <c r="AL23" s="128"/>
+      <c r="AM23" s="128"/>
+      <c r="AN23" s="128"/>
+      <c r="AO23" s="128"/>
+      <c r="AP23" s="128"/>
+      <c r="AQ23" s="128"/>
+      <c r="AR23" s="128"/>
+      <c r="AS23" s="128"/>
+      <c r="AT23" s="128"/>
+      <c r="AU23" s="128"/>
+      <c r="AV23" s="102"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>3</v>
       </c>
@@ -16389,8 +16667,43 @@
       <c r="L24" s="99">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="106"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
+      <c r="X24" s="128"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="128"/>
+      <c r="AD24" s="128"/>
+      <c r="AE24" s="128"/>
+      <c r="AF24" s="128"/>
+      <c r="AG24" s="128"/>
+      <c r="AH24" s="128"/>
+      <c r="AI24" s="128"/>
+      <c r="AJ24" s="102"/>
+      <c r="AK24" s="128"/>
+      <c r="AL24" s="128"/>
+      <c r="AM24" s="128"/>
+      <c r="AN24" s="128"/>
+      <c r="AO24" s="128"/>
+      <c r="AP24" s="128"/>
+      <c r="AQ24" s="128"/>
+      <c r="AR24" s="128"/>
+      <c r="AS24" s="128"/>
+      <c r="AT24" s="128"/>
+      <c r="AU24" s="128"/>
+      <c r="AV24" s="102"/>
+    </row>
+    <row r="25" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -16427,8 +16740,43 @@
       <c r="L25" s="97">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N25" s="106"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="128"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="128"/>
+      <c r="AG25" s="128"/>
+      <c r="AH25" s="128"/>
+      <c r="AI25" s="128"/>
+      <c r="AJ25" s="102"/>
+      <c r="AK25" s="128"/>
+      <c r="AL25" s="128"/>
+      <c r="AM25" s="128"/>
+      <c r="AN25" s="128"/>
+      <c r="AO25" s="128"/>
+      <c r="AP25" s="128"/>
+      <c r="AQ25" s="128"/>
+      <c r="AR25" s="128"/>
+      <c r="AS25" s="128"/>
+      <c r="AT25" s="128"/>
+      <c r="AU25" s="128"/>
+      <c r="AV25" s="102"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>3</v>
       </c>
@@ -16465,8 +16813,43 @@
       <c r="L26" s="119">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N26" s="106"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="128"/>
+      <c r="AE26" s="128"/>
+      <c r="AF26" s="128"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="128"/>
+      <c r="AI26" s="128"/>
+      <c r="AJ26" s="102"/>
+      <c r="AK26" s="128"/>
+      <c r="AL26" s="128"/>
+      <c r="AM26" s="128"/>
+      <c r="AN26" s="128"/>
+      <c r="AO26" s="128"/>
+      <c r="AP26" s="128"/>
+      <c r="AQ26" s="128"/>
+      <c r="AR26" s="128"/>
+      <c r="AS26" s="128"/>
+      <c r="AT26" s="128"/>
+      <c r="AU26" s="128"/>
+      <c r="AV26" s="102"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>3</v>
       </c>
@@ -16503,8 +16886,43 @@
       <c r="L27" s="99">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N27" s="106"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="128"/>
+      <c r="AJ27" s="102"/>
+      <c r="AK27" s="128"/>
+      <c r="AL27" s="128"/>
+      <c r="AM27" s="128"/>
+      <c r="AN27" s="128"/>
+      <c r="AO27" s="128"/>
+      <c r="AP27" s="128"/>
+      <c r="AQ27" s="128"/>
+      <c r="AR27" s="128"/>
+      <c r="AS27" s="128"/>
+      <c r="AT27" s="128"/>
+      <c r="AU27" s="128"/>
+      <c r="AV27" s="102"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>3</v>
       </c>
@@ -16541,8 +16959,43 @@
       <c r="L28" s="99">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N28" s="106"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="128"/>
+      <c r="AB28" s="128"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="128"/>
+      <c r="AH28" s="128"/>
+      <c r="AI28" s="128"/>
+      <c r="AJ28" s="102"/>
+      <c r="AK28" s="128"/>
+      <c r="AL28" s="128"/>
+      <c r="AM28" s="128"/>
+      <c r="AN28" s="128"/>
+      <c r="AO28" s="128"/>
+      <c r="AP28" s="128"/>
+      <c r="AQ28" s="128"/>
+      <c r="AR28" s="128"/>
+      <c r="AS28" s="128"/>
+      <c r="AT28" s="128"/>
+      <c r="AU28" s="128"/>
+      <c r="AV28" s="102"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>3</v>
       </c>
@@ -16579,8 +17032,43 @@
       <c r="L29" s="99">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N29" s="106"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="128"/>
+      <c r="AC29" s="128"/>
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="128"/>
+      <c r="AG29" s="128"/>
+      <c r="AH29" s="128"/>
+      <c r="AI29" s="128"/>
+      <c r="AJ29" s="102"/>
+      <c r="AK29" s="128"/>
+      <c r="AL29" s="128"/>
+      <c r="AM29" s="128"/>
+      <c r="AN29" s="128"/>
+      <c r="AO29" s="128"/>
+      <c r="AP29" s="128"/>
+      <c r="AQ29" s="128"/>
+      <c r="AR29" s="128"/>
+      <c r="AS29" s="128"/>
+      <c r="AT29" s="128"/>
+      <c r="AU29" s="128"/>
+      <c r="AV29" s="102"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>3</v>
       </c>
@@ -16617,8 +17105,43 @@
       <c r="L30" s="99">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N30" s="106"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="128"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="128"/>
+      <c r="T30" s="128"/>
+      <c r="U30" s="128"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="106"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="128"/>
+      <c r="AE30" s="128"/>
+      <c r="AF30" s="128"/>
+      <c r="AG30" s="128"/>
+      <c r="AH30" s="128"/>
+      <c r="AI30" s="128"/>
+      <c r="AJ30" s="102"/>
+      <c r="AK30" s="128"/>
+      <c r="AL30" s="128"/>
+      <c r="AM30" s="128"/>
+      <c r="AN30" s="128"/>
+      <c r="AO30" s="128"/>
+      <c r="AP30" s="128"/>
+      <c r="AQ30" s="128"/>
+      <c r="AR30" s="128"/>
+      <c r="AS30" s="128"/>
+      <c r="AT30" s="128"/>
+      <c r="AU30" s="128"/>
+      <c r="AV30" s="102"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>3</v>
       </c>
@@ -16655,8 +17178,43 @@
       <c r="L31" s="99">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N31" s="106"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="128"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="106"/>
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128"/>
+      <c r="AD31" s="128"/>
+      <c r="AE31" s="128"/>
+      <c r="AF31" s="128"/>
+      <c r="AG31" s="128"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="128"/>
+      <c r="AJ31" s="102"/>
+      <c r="AK31" s="128"/>
+      <c r="AL31" s="128"/>
+      <c r="AM31" s="128"/>
+      <c r="AN31" s="128"/>
+      <c r="AO31" s="128"/>
+      <c r="AP31" s="128"/>
+      <c r="AQ31" s="128"/>
+      <c r="AR31" s="128"/>
+      <c r="AS31" s="128"/>
+      <c r="AT31" s="128"/>
+      <c r="AU31" s="128"/>
+      <c r="AV31" s="102"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>3</v>
       </c>
@@ -16689,8 +17247,43 @@
       <c r="L32" s="99">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N32" s="106"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="128"/>
+      <c r="T32" s="128"/>
+      <c r="U32" s="128"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="106"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="128"/>
+      <c r="AE32" s="128"/>
+      <c r="AF32" s="128"/>
+      <c r="AG32" s="128"/>
+      <c r="AH32" s="128"/>
+      <c r="AI32" s="128"/>
+      <c r="AJ32" s="102"/>
+      <c r="AK32" s="128"/>
+      <c r="AL32" s="128"/>
+      <c r="AM32" s="128"/>
+      <c r="AN32" s="128"/>
+      <c r="AO32" s="128"/>
+      <c r="AP32" s="128"/>
+      <c r="AQ32" s="128"/>
+      <c r="AR32" s="128"/>
+      <c r="AS32" s="128"/>
+      <c r="AT32" s="128"/>
+      <c r="AU32" s="128"/>
+      <c r="AV32" s="102"/>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>3</v>
       </c>
@@ -16723,8 +17316,43 @@
       <c r="L33" s="99">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N33" s="106"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="128"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="128"/>
+      <c r="T33" s="128"/>
+      <c r="U33" s="128"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="106"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="128"/>
+      <c r="AF33" s="128"/>
+      <c r="AG33" s="128"/>
+      <c r="AH33" s="128"/>
+      <c r="AI33" s="128"/>
+      <c r="AJ33" s="102"/>
+      <c r="AK33" s="128"/>
+      <c r="AL33" s="128"/>
+      <c r="AM33" s="128"/>
+      <c r="AN33" s="128"/>
+      <c r="AO33" s="128"/>
+      <c r="AP33" s="128"/>
+      <c r="AQ33" s="128"/>
+      <c r="AR33" s="128"/>
+      <c r="AS33" s="128"/>
+      <c r="AT33" s="128"/>
+      <c r="AU33" s="128"/>
+      <c r="AV33" s="102"/>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
         <v>3</v>
       </c>
@@ -16757,8 +17385,43 @@
       <c r="L34" s="99">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="106"/>
+      <c r="O34" s="128"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="128"/>
+      <c r="S34" s="128"/>
+      <c r="T34" s="128"/>
+      <c r="U34" s="128"/>
+      <c r="V34" s="128"/>
+      <c r="W34" s="128"/>
+      <c r="X34" s="128"/>
+      <c r="Y34" s="102"/>
+      <c r="Z34" s="106"/>
+      <c r="AA34" s="128"/>
+      <c r="AB34" s="128"/>
+      <c r="AC34" s="128"/>
+      <c r="AD34" s="128"/>
+      <c r="AE34" s="128"/>
+      <c r="AF34" s="128"/>
+      <c r="AG34" s="128"/>
+      <c r="AH34" s="128"/>
+      <c r="AI34" s="128"/>
+      <c r="AJ34" s="102"/>
+      <c r="AK34" s="128"/>
+      <c r="AL34" s="128"/>
+      <c r="AM34" s="128"/>
+      <c r="AN34" s="128"/>
+      <c r="AO34" s="128"/>
+      <c r="AP34" s="128"/>
+      <c r="AQ34" s="128"/>
+      <c r="AR34" s="128"/>
+      <c r="AS34" s="128"/>
+      <c r="AT34" s="128"/>
+      <c r="AU34" s="128"/>
+      <c r="AV34" s="102"/>
+    </row>
+    <row r="35" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
         <v>3</v>
       </c>
@@ -16791,99 +17454,8893 @@
       <c r="L35" s="97">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="P43" t="s">
+      <c r="N35" s="106"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="128"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="128"/>
+      <c r="V35" s="128"/>
+      <c r="W35" s="128"/>
+      <c r="X35" s="128"/>
+      <c r="Y35" s="102"/>
+      <c r="Z35" s="106"/>
+      <c r="AA35" s="128"/>
+      <c r="AB35" s="128"/>
+      <c r="AC35" s="128"/>
+      <c r="AD35" s="128"/>
+      <c r="AE35" s="128"/>
+      <c r="AF35" s="128"/>
+      <c r="AG35" s="128"/>
+      <c r="AH35" s="128"/>
+      <c r="AI35" s="128"/>
+      <c r="AJ35" s="102"/>
+      <c r="AK35" s="128"/>
+      <c r="AL35" s="128"/>
+      <c r="AM35" s="128"/>
+      <c r="AN35" s="128"/>
+      <c r="AO35" s="128"/>
+      <c r="AP35" s="128"/>
+      <c r="AQ35" s="128"/>
+      <c r="AR35" s="128"/>
+      <c r="AS35" s="128"/>
+      <c r="AT35" s="128"/>
+      <c r="AU35" s="128"/>
+      <c r="AV35" s="102"/>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N36" s="106"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="128"/>
+      <c r="T36" s="128"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="128"/>
+      <c r="W36" s="128"/>
+      <c r="X36" s="128"/>
+      <c r="Y36" s="102"/>
+      <c r="Z36" s="106"/>
+      <c r="AA36" s="128"/>
+      <c r="AB36" s="128"/>
+      <c r="AC36" s="128"/>
+      <c r="AD36" s="128"/>
+      <c r="AE36" s="128"/>
+      <c r="AF36" s="128"/>
+      <c r="AG36" s="128"/>
+      <c r="AH36" s="128"/>
+      <c r="AI36" s="128"/>
+      <c r="AJ36" s="102"/>
+      <c r="AK36" s="128"/>
+      <c r="AL36" s="128"/>
+      <c r="AM36" s="128"/>
+      <c r="AN36" s="128"/>
+      <c r="AO36" s="128"/>
+      <c r="AP36" s="128"/>
+      <c r="AQ36" s="128"/>
+      <c r="AR36" s="128"/>
+      <c r="AS36" s="128"/>
+      <c r="AT36" s="128"/>
+      <c r="AU36" s="128"/>
+      <c r="AV36" s="102"/>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N37" s="106"/>
+      <c r="O37" s="128"/>
+      <c r="P37" s="128"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="128"/>
+      <c r="S37" s="128"/>
+      <c r="T37" s="128"/>
+      <c r="U37" s="128"/>
+      <c r="V37" s="128"/>
+      <c r="W37" s="128"/>
+      <c r="X37" s="128"/>
+      <c r="Y37" s="102"/>
+      <c r="Z37" s="106"/>
+      <c r="AA37" s="128"/>
+      <c r="AB37" s="128"/>
+      <c r="AC37" s="128"/>
+      <c r="AD37" s="128"/>
+      <c r="AE37" s="128"/>
+      <c r="AF37" s="128"/>
+      <c r="AG37" s="128"/>
+      <c r="AH37" s="128"/>
+      <c r="AI37" s="128"/>
+      <c r="AJ37" s="102"/>
+      <c r="AK37" s="128"/>
+      <c r="AL37" s="128"/>
+      <c r="AM37" s="128"/>
+      <c r="AN37" s="128"/>
+      <c r="AO37" s="128"/>
+      <c r="AP37" s="128"/>
+      <c r="AQ37" s="128"/>
+      <c r="AR37" s="128"/>
+      <c r="AS37" s="128"/>
+      <c r="AT37" s="128"/>
+      <c r="AU37" s="128"/>
+      <c r="AV37" s="102"/>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N38" s="106"/>
+      <c r="O38" s="128"/>
+      <c r="P38" s="128"/>
+      <c r="Q38" s="128"/>
+      <c r="R38" s="128"/>
+      <c r="S38" s="128"/>
+      <c r="T38" s="128"/>
+      <c r="U38" s="128"/>
+      <c r="V38" s="128"/>
+      <c r="W38" s="128"/>
+      <c r="X38" s="128"/>
+      <c r="Y38" s="102"/>
+      <c r="Z38" s="106"/>
+      <c r="AA38" s="128"/>
+      <c r="AB38" s="128"/>
+      <c r="AC38" s="128"/>
+      <c r="AD38" s="128"/>
+      <c r="AE38" s="128"/>
+      <c r="AF38" s="128"/>
+      <c r="AG38" s="128"/>
+      <c r="AH38" s="128"/>
+      <c r="AI38" s="128"/>
+      <c r="AJ38" s="102"/>
+      <c r="AK38" s="128"/>
+      <c r="AL38" s="128"/>
+      <c r="AM38" s="128"/>
+      <c r="AN38" s="128"/>
+      <c r="AO38" s="128"/>
+      <c r="AP38" s="128"/>
+      <c r="AQ38" s="128"/>
+      <c r="AR38" s="128"/>
+      <c r="AS38" s="128"/>
+      <c r="AT38" s="128"/>
+      <c r="AU38" s="128"/>
+      <c r="AV38" s="102"/>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N39" s="106"/>
+      <c r="O39" s="128"/>
+      <c r="P39" s="128"/>
+      <c r="Q39" s="128"/>
+      <c r="R39" s="128"/>
+      <c r="S39" s="128"/>
+      <c r="T39" s="128"/>
+      <c r="U39" s="128"/>
+      <c r="V39" s="128"/>
+      <c r="W39" s="128"/>
+      <c r="X39" s="128"/>
+      <c r="Y39" s="102"/>
+      <c r="Z39" s="106"/>
+      <c r="AA39" s="128"/>
+      <c r="AB39" s="128"/>
+      <c r="AC39" s="128"/>
+      <c r="AD39" s="128"/>
+      <c r="AE39" s="128"/>
+      <c r="AF39" s="128"/>
+      <c r="AG39" s="128"/>
+      <c r="AH39" s="128"/>
+      <c r="AI39" s="128"/>
+      <c r="AJ39" s="102"/>
+      <c r="AK39" s="128"/>
+      <c r="AL39" s="128"/>
+      <c r="AM39" s="128"/>
+      <c r="AN39" s="128"/>
+      <c r="AO39" s="128"/>
+      <c r="AP39" s="128"/>
+      <c r="AQ39" s="128"/>
+      <c r="AR39" s="128"/>
+      <c r="AS39" s="128"/>
+      <c r="AT39" s="128"/>
+      <c r="AU39" s="128"/>
+      <c r="AV39" s="102"/>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N40" s="106"/>
+      <c r="O40" s="128"/>
+      <c r="P40" s="128"/>
+      <c r="Q40" s="128"/>
+      <c r="R40" s="128"/>
+      <c r="S40" s="128"/>
+      <c r="T40" s="128"/>
+      <c r="U40" s="128"/>
+      <c r="V40" s="128"/>
+      <c r="W40" s="128"/>
+      <c r="X40" s="128"/>
+      <c r="Y40" s="102"/>
+      <c r="Z40" s="106"/>
+      <c r="AA40" s="128"/>
+      <c r="AB40" s="128"/>
+      <c r="AC40" s="128"/>
+      <c r="AD40" s="128"/>
+      <c r="AE40" s="128"/>
+      <c r="AF40" s="128"/>
+      <c r="AG40" s="128"/>
+      <c r="AH40" s="128"/>
+      <c r="AI40" s="128"/>
+      <c r="AJ40" s="102"/>
+      <c r="AK40" s="128"/>
+      <c r="AL40" s="128"/>
+      <c r="AM40" s="128"/>
+      <c r="AN40" s="128"/>
+      <c r="AO40" s="128"/>
+      <c r="AP40" s="128"/>
+      <c r="AQ40" s="128"/>
+      <c r="AR40" s="128"/>
+      <c r="AS40" s="128"/>
+      <c r="AT40" s="128"/>
+      <c r="AU40" s="128"/>
+      <c r="AV40" s="102"/>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N41" s="106"/>
+      <c r="O41" s="128"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="128"/>
+      <c r="R41" s="128"/>
+      <c r="S41" s="128"/>
+      <c r="T41" s="128"/>
+      <c r="U41" s="128"/>
+      <c r="V41" s="128"/>
+      <c r="W41" s="128"/>
+      <c r="X41" s="128"/>
+      <c r="Y41" s="102"/>
+      <c r="Z41" s="106"/>
+      <c r="AA41" s="128"/>
+      <c r="AB41" s="128"/>
+      <c r="AC41" s="128"/>
+      <c r="AD41" s="128"/>
+      <c r="AE41" s="128"/>
+      <c r="AF41" s="128"/>
+      <c r="AG41" s="128"/>
+      <c r="AH41" s="128"/>
+      <c r="AI41" s="128"/>
+      <c r="AJ41" s="102"/>
+      <c r="AK41" s="128"/>
+      <c r="AL41" s="128"/>
+      <c r="AM41" s="128"/>
+      <c r="AN41" s="128"/>
+      <c r="AO41" s="128"/>
+      <c r="AP41" s="128"/>
+      <c r="AQ41" s="128"/>
+      <c r="AR41" s="128"/>
+      <c r="AS41" s="128"/>
+      <c r="AT41" s="128"/>
+      <c r="AU41" s="128"/>
+      <c r="AV41" s="102"/>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N42" s="106"/>
+      <c r="O42" s="128"/>
+      <c r="P42" s="128"/>
+      <c r="Q42" s="128"/>
+      <c r="R42" s="128"/>
+      <c r="S42" s="128"/>
+      <c r="T42" s="128"/>
+      <c r="U42" s="128"/>
+      <c r="V42" s="128"/>
+      <c r="W42" s="128"/>
+      <c r="X42" s="128"/>
+      <c r="Y42" s="102"/>
+      <c r="Z42" s="106"/>
+      <c r="AA42" s="128"/>
+      <c r="AB42" s="128"/>
+      <c r="AC42" s="128"/>
+      <c r="AD42" s="128"/>
+      <c r="AE42" s="128"/>
+      <c r="AF42" s="128"/>
+      <c r="AG42" s="128"/>
+      <c r="AH42" s="128"/>
+      <c r="AI42" s="128"/>
+      <c r="AJ42" s="102"/>
+      <c r="AK42" s="128"/>
+      <c r="AL42" s="128"/>
+      <c r="AM42" s="128"/>
+      <c r="AN42" s="128"/>
+      <c r="AO42" s="128"/>
+      <c r="AP42" s="128"/>
+      <c r="AQ42" s="128"/>
+      <c r="AR42" s="128"/>
+      <c r="AS42" s="128"/>
+      <c r="AT42" s="128"/>
+      <c r="AU42" s="128"/>
+      <c r="AV42" s="102"/>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N43" s="106"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="Q43" s="128"/>
+      <c r="R43" s="128"/>
+      <c r="S43" s="128"/>
+      <c r="T43" s="128"/>
+      <c r="U43" s="128"/>
+      <c r="V43" s="128"/>
+      <c r="W43" s="128"/>
+      <c r="X43" s="128"/>
+      <c r="Y43" s="102"/>
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="AL43" t="s">
+      <c r="AB43" s="128"/>
+      <c r="AC43" s="128"/>
+      <c r="AD43" s="128"/>
+      <c r="AE43" s="128"/>
+      <c r="AF43" s="128"/>
+      <c r="AG43" s="128"/>
+      <c r="AH43" s="128"/>
+      <c r="AI43" s="128"/>
+      <c r="AJ43" s="102"/>
+      <c r="AK43" s="128"/>
+      <c r="AL43" s="128" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="16:38" x14ac:dyDescent="0.25">
-      <c r="P68" t="s">
+      <c r="AM43" s="128"/>
+      <c r="AN43" s="128"/>
+      <c r="AO43" s="128"/>
+      <c r="AP43" s="128"/>
+      <c r="AQ43" s="128"/>
+      <c r="AR43" s="128"/>
+      <c r="AS43" s="128"/>
+      <c r="AT43" s="128"/>
+      <c r="AU43" s="128"/>
+      <c r="AV43" s="102"/>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N44" s="106"/>
+      <c r="O44" s="128"/>
+      <c r="P44" s="128"/>
+      <c r="Q44" s="128"/>
+      <c r="R44" s="128"/>
+      <c r="S44" s="128"/>
+      <c r="T44" s="128"/>
+      <c r="U44" s="128"/>
+      <c r="V44" s="128"/>
+      <c r="W44" s="128"/>
+      <c r="X44" s="128"/>
+      <c r="Y44" s="102"/>
+      <c r="Z44" s="106"/>
+      <c r="AA44" s="128"/>
+      <c r="AB44" s="128"/>
+      <c r="AC44" s="128"/>
+      <c r="AD44" s="128"/>
+      <c r="AE44" s="128"/>
+      <c r="AF44" s="128"/>
+      <c r="AG44" s="128"/>
+      <c r="AH44" s="128"/>
+      <c r="AI44" s="128"/>
+      <c r="AJ44" s="102"/>
+      <c r="AK44" s="128"/>
+      <c r="AL44" s="128"/>
+      <c r="AM44" s="128"/>
+      <c r="AN44" s="128"/>
+      <c r="AO44" s="128"/>
+      <c r="AP44" s="128"/>
+      <c r="AQ44" s="128"/>
+      <c r="AR44" s="128"/>
+      <c r="AS44" s="128"/>
+      <c r="AT44" s="128"/>
+      <c r="AU44" s="128"/>
+      <c r="AV44" s="102"/>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N45" s="106"/>
+      <c r="O45" s="128"/>
+      <c r="P45" s="128"/>
+      <c r="Q45" s="128"/>
+      <c r="R45" s="128"/>
+      <c r="S45" s="128"/>
+      <c r="T45" s="128"/>
+      <c r="U45" s="128"/>
+      <c r="V45" s="128"/>
+      <c r="W45" s="128"/>
+      <c r="X45" s="128"/>
+      <c r="Y45" s="102"/>
+      <c r="Z45" s="106"/>
+      <c r="AA45" s="128"/>
+      <c r="AB45" s="128"/>
+      <c r="AC45" s="128"/>
+      <c r="AD45" s="128"/>
+      <c r="AE45" s="128"/>
+      <c r="AF45" s="128"/>
+      <c r="AG45" s="128"/>
+      <c r="AH45" s="128"/>
+      <c r="AI45" s="128"/>
+      <c r="AJ45" s="102"/>
+      <c r="AK45" s="128"/>
+      <c r="AL45" s="128"/>
+      <c r="AM45" s="128"/>
+      <c r="AN45" s="128"/>
+      <c r="AO45" s="128"/>
+      <c r="AP45" s="128"/>
+      <c r="AQ45" s="128"/>
+      <c r="AR45" s="128"/>
+      <c r="AS45" s="128"/>
+      <c r="AT45" s="128"/>
+      <c r="AU45" s="128"/>
+      <c r="AV45" s="102"/>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N46" s="106"/>
+      <c r="O46" s="128"/>
+      <c r="P46" s="128"/>
+      <c r="Q46" s="128"/>
+      <c r="R46" s="128"/>
+      <c r="S46" s="128"/>
+      <c r="T46" s="128"/>
+      <c r="U46" s="128"/>
+      <c r="V46" s="128"/>
+      <c r="W46" s="128"/>
+      <c r="X46" s="128"/>
+      <c r="Y46" s="102"/>
+      <c r="Z46" s="106"/>
+      <c r="AA46" s="128"/>
+      <c r="AB46" s="128"/>
+      <c r="AC46" s="128"/>
+      <c r="AD46" s="128"/>
+      <c r="AE46" s="128"/>
+      <c r="AF46" s="128"/>
+      <c r="AG46" s="128"/>
+      <c r="AH46" s="128"/>
+      <c r="AI46" s="128"/>
+      <c r="AJ46" s="102"/>
+      <c r="AK46" s="128"/>
+      <c r="AL46" s="128"/>
+      <c r="AM46" s="128"/>
+      <c r="AN46" s="128"/>
+      <c r="AO46" s="128"/>
+      <c r="AP46" s="128"/>
+      <c r="AQ46" s="128"/>
+      <c r="AR46" s="128"/>
+      <c r="AS46" s="128"/>
+      <c r="AT46" s="128"/>
+      <c r="AU46" s="128"/>
+      <c r="AV46" s="102"/>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N47" s="106"/>
+      <c r="O47" s="128"/>
+      <c r="P47" s="128"/>
+      <c r="Q47" s="128"/>
+      <c r="R47" s="128"/>
+      <c r="S47" s="128"/>
+      <c r="T47" s="128"/>
+      <c r="U47" s="128"/>
+      <c r="V47" s="128"/>
+      <c r="W47" s="128"/>
+      <c r="X47" s="128"/>
+      <c r="Y47" s="102"/>
+      <c r="Z47" s="106"/>
+      <c r="AA47" s="128"/>
+      <c r="AB47" s="128"/>
+      <c r="AC47" s="128"/>
+      <c r="AD47" s="128"/>
+      <c r="AE47" s="128"/>
+      <c r="AF47" s="128"/>
+      <c r="AG47" s="128"/>
+      <c r="AH47" s="128"/>
+      <c r="AI47" s="128"/>
+      <c r="AJ47" s="102"/>
+      <c r="AK47" s="128"/>
+      <c r="AL47" s="128"/>
+      <c r="AM47" s="128"/>
+      <c r="AN47" s="128"/>
+      <c r="AO47" s="128"/>
+      <c r="AP47" s="128"/>
+      <c r="AQ47" s="128"/>
+      <c r="AR47" s="128"/>
+      <c r="AS47" s="128"/>
+      <c r="AT47" s="128"/>
+      <c r="AU47" s="128"/>
+      <c r="AV47" s="102"/>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N48" s="106"/>
+      <c r="O48" s="128"/>
+      <c r="P48" s="128"/>
+      <c r="Q48" s="128"/>
+      <c r="R48" s="128"/>
+      <c r="S48" s="128"/>
+      <c r="T48" s="128"/>
+      <c r="U48" s="128"/>
+      <c r="V48" s="128"/>
+      <c r="W48" s="128"/>
+      <c r="X48" s="128"/>
+      <c r="Y48" s="102"/>
+      <c r="Z48" s="106"/>
+      <c r="AA48" s="128"/>
+      <c r="AB48" s="128"/>
+      <c r="AC48" s="128"/>
+      <c r="AD48" s="128"/>
+      <c r="AE48" s="128"/>
+      <c r="AF48" s="128"/>
+      <c r="AG48" s="128"/>
+      <c r="AH48" s="128"/>
+      <c r="AI48" s="128"/>
+      <c r="AJ48" s="102"/>
+      <c r="AK48" s="128"/>
+      <c r="AL48" s="128"/>
+      <c r="AM48" s="128"/>
+      <c r="AN48" s="128"/>
+      <c r="AO48" s="128"/>
+      <c r="AP48" s="128"/>
+      <c r="AQ48" s="128"/>
+      <c r="AR48" s="128"/>
+      <c r="AS48" s="128"/>
+      <c r="AT48" s="128"/>
+      <c r="AU48" s="128"/>
+      <c r="AV48" s="102"/>
+    </row>
+    <row r="49" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N49" s="106"/>
+      <c r="O49" s="128"/>
+      <c r="P49" s="128"/>
+      <c r="Q49" s="128"/>
+      <c r="R49" s="128"/>
+      <c r="S49" s="128"/>
+      <c r="T49" s="128"/>
+      <c r="U49" s="128"/>
+      <c r="V49" s="128"/>
+      <c r="W49" s="128"/>
+      <c r="X49" s="128"/>
+      <c r="Y49" s="102"/>
+      <c r="Z49" s="106"/>
+      <c r="AA49" s="128"/>
+      <c r="AB49" s="128"/>
+      <c r="AC49" s="128"/>
+      <c r="AD49" s="128"/>
+      <c r="AE49" s="128"/>
+      <c r="AF49" s="128"/>
+      <c r="AG49" s="128"/>
+      <c r="AH49" s="128"/>
+      <c r="AI49" s="128"/>
+      <c r="AJ49" s="102"/>
+      <c r="AK49" s="128"/>
+      <c r="AL49" s="128"/>
+      <c r="AM49" s="128"/>
+      <c r="AN49" s="128"/>
+      <c r="AO49" s="128"/>
+      <c r="AP49" s="128"/>
+      <c r="AQ49" s="128"/>
+      <c r="AR49" s="128"/>
+      <c r="AS49" s="128"/>
+      <c r="AT49" s="128"/>
+      <c r="AU49" s="128"/>
+      <c r="AV49" s="102"/>
+    </row>
+    <row r="50" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N50" s="106"/>
+      <c r="O50" s="128"/>
+      <c r="P50" s="128"/>
+      <c r="Q50" s="128"/>
+      <c r="R50" s="128"/>
+      <c r="S50" s="128"/>
+      <c r="T50" s="128"/>
+      <c r="U50" s="128"/>
+      <c r="V50" s="128"/>
+      <c r="W50" s="128"/>
+      <c r="X50" s="128"/>
+      <c r="Y50" s="102"/>
+      <c r="Z50" s="106"/>
+      <c r="AA50" s="128"/>
+      <c r="AB50" s="128"/>
+      <c r="AC50" s="128"/>
+      <c r="AD50" s="128"/>
+      <c r="AE50" s="128"/>
+      <c r="AF50" s="128"/>
+      <c r="AG50" s="128"/>
+      <c r="AH50" s="128"/>
+      <c r="AI50" s="128"/>
+      <c r="AJ50" s="102"/>
+      <c r="AK50" s="128"/>
+      <c r="AL50" s="128"/>
+      <c r="AM50" s="128"/>
+      <c r="AN50" s="128"/>
+      <c r="AO50" s="128"/>
+      <c r="AP50" s="128"/>
+      <c r="AQ50" s="128"/>
+      <c r="AR50" s="128"/>
+      <c r="AS50" s="128"/>
+      <c r="AT50" s="128"/>
+      <c r="AU50" s="128"/>
+      <c r="AV50" s="102"/>
+    </row>
+    <row r="51" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N51" s="106"/>
+      <c r="O51" s="128"/>
+      <c r="P51" s="128"/>
+      <c r="Q51" s="128"/>
+      <c r="R51" s="128"/>
+      <c r="S51" s="128"/>
+      <c r="T51" s="128"/>
+      <c r="U51" s="128"/>
+      <c r="V51" s="128"/>
+      <c r="W51" s="128"/>
+      <c r="X51" s="128"/>
+      <c r="Y51" s="102"/>
+      <c r="Z51" s="106"/>
+      <c r="AA51" s="128"/>
+      <c r="AB51" s="128"/>
+      <c r="AC51" s="128"/>
+      <c r="AD51" s="128"/>
+      <c r="AE51" s="128"/>
+      <c r="AF51" s="128"/>
+      <c r="AG51" s="128"/>
+      <c r="AH51" s="128"/>
+      <c r="AI51" s="128"/>
+      <c r="AJ51" s="102"/>
+      <c r="AK51" s="128"/>
+      <c r="AL51" s="128"/>
+      <c r="AM51" s="128"/>
+      <c r="AN51" s="128"/>
+      <c r="AO51" s="128"/>
+      <c r="AP51" s="128"/>
+      <c r="AQ51" s="128"/>
+      <c r="AR51" s="128"/>
+      <c r="AS51" s="128"/>
+      <c r="AT51" s="128"/>
+      <c r="AU51" s="128"/>
+      <c r="AV51" s="102"/>
+    </row>
+    <row r="52" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N52" s="106"/>
+      <c r="O52" s="128"/>
+      <c r="P52" s="128"/>
+      <c r="Q52" s="128"/>
+      <c r="R52" s="128"/>
+      <c r="S52" s="128"/>
+      <c r="T52" s="128"/>
+      <c r="U52" s="128"/>
+      <c r="V52" s="128"/>
+      <c r="W52" s="128"/>
+      <c r="X52" s="128"/>
+      <c r="Y52" s="102"/>
+      <c r="Z52" s="106"/>
+      <c r="AA52" s="128"/>
+      <c r="AB52" s="128"/>
+      <c r="AC52" s="128"/>
+      <c r="AD52" s="128"/>
+      <c r="AE52" s="128"/>
+      <c r="AF52" s="128"/>
+      <c r="AG52" s="128"/>
+      <c r="AH52" s="128"/>
+      <c r="AI52" s="128"/>
+      <c r="AJ52" s="102"/>
+      <c r="AK52" s="128"/>
+      <c r="AL52" s="128"/>
+      <c r="AM52" s="128"/>
+      <c r="AN52" s="128"/>
+      <c r="AO52" s="128"/>
+      <c r="AP52" s="128"/>
+      <c r="AQ52" s="128"/>
+      <c r="AR52" s="128"/>
+      <c r="AS52" s="128"/>
+      <c r="AT52" s="128"/>
+      <c r="AU52" s="128"/>
+      <c r="AV52" s="102"/>
+    </row>
+    <row r="53" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N53" s="106"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="128"/>
+      <c r="U53" s="128"/>
+      <c r="V53" s="128"/>
+      <c r="W53" s="128"/>
+      <c r="X53" s="128"/>
+      <c r="Y53" s="102"/>
+      <c r="Z53" s="106"/>
+      <c r="AA53" s="128"/>
+      <c r="AB53" s="128"/>
+      <c r="AC53" s="128"/>
+      <c r="AD53" s="128"/>
+      <c r="AE53" s="128"/>
+      <c r="AF53" s="128"/>
+      <c r="AG53" s="128"/>
+      <c r="AH53" s="128"/>
+      <c r="AI53" s="128"/>
+      <c r="AJ53" s="102"/>
+      <c r="AK53" s="128"/>
+      <c r="AL53" s="128"/>
+      <c r="AM53" s="128"/>
+      <c r="AN53" s="128"/>
+      <c r="AO53" s="128"/>
+      <c r="AP53" s="128"/>
+      <c r="AQ53" s="128"/>
+      <c r="AR53" s="128"/>
+      <c r="AS53" s="128"/>
+      <c r="AT53" s="128"/>
+      <c r="AU53" s="128"/>
+      <c r="AV53" s="102"/>
+    </row>
+    <row r="54" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N54" s="106"/>
+      <c r="O54" s="128"/>
+      <c r="P54" s="128"/>
+      <c r="Q54" s="128"/>
+      <c r="R54" s="128"/>
+      <c r="S54" s="128"/>
+      <c r="T54" s="128"/>
+      <c r="U54" s="128"/>
+      <c r="V54" s="128"/>
+      <c r="W54" s="128"/>
+      <c r="X54" s="128"/>
+      <c r="Y54" s="102"/>
+      <c r="Z54" s="106"/>
+      <c r="AA54" s="128"/>
+      <c r="AB54" s="128"/>
+      <c r="AC54" s="128"/>
+      <c r="AD54" s="128"/>
+      <c r="AE54" s="128"/>
+      <c r="AF54" s="128"/>
+      <c r="AG54" s="128"/>
+      <c r="AH54" s="128"/>
+      <c r="AI54" s="128"/>
+      <c r="AJ54" s="102"/>
+      <c r="AK54" s="128"/>
+      <c r="AL54" s="128"/>
+      <c r="AM54" s="128"/>
+      <c r="AN54" s="128"/>
+      <c r="AO54" s="128"/>
+      <c r="AP54" s="128"/>
+      <c r="AQ54" s="128"/>
+      <c r="AR54" s="128"/>
+      <c r="AS54" s="128"/>
+      <c r="AT54" s="128"/>
+      <c r="AU54" s="128"/>
+      <c r="AV54" s="102"/>
+    </row>
+    <row r="55" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N55" s="106"/>
+      <c r="O55" s="128"/>
+      <c r="P55" s="128"/>
+      <c r="Q55" s="128"/>
+      <c r="R55" s="128"/>
+      <c r="S55" s="128"/>
+      <c r="T55" s="128"/>
+      <c r="U55" s="128"/>
+      <c r="V55" s="128"/>
+      <c r="W55" s="128"/>
+      <c r="X55" s="128"/>
+      <c r="Y55" s="102"/>
+      <c r="Z55" s="106"/>
+      <c r="AA55" s="128"/>
+      <c r="AB55" s="128"/>
+      <c r="AC55" s="128"/>
+      <c r="AD55" s="128"/>
+      <c r="AE55" s="128"/>
+      <c r="AF55" s="128"/>
+      <c r="AG55" s="128"/>
+      <c r="AH55" s="128"/>
+      <c r="AI55" s="128"/>
+      <c r="AJ55" s="102"/>
+      <c r="AK55" s="128"/>
+      <c r="AL55" s="128"/>
+      <c r="AM55" s="128"/>
+      <c r="AN55" s="128"/>
+      <c r="AO55" s="128"/>
+      <c r="AP55" s="128"/>
+      <c r="AQ55" s="128"/>
+      <c r="AR55" s="128"/>
+      <c r="AS55" s="128"/>
+      <c r="AT55" s="128"/>
+      <c r="AU55" s="128"/>
+      <c r="AV55" s="102"/>
+    </row>
+    <row r="56" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N56" s="106"/>
+      <c r="O56" s="128"/>
+      <c r="P56" s="128"/>
+      <c r="Q56" s="128"/>
+      <c r="R56" s="128"/>
+      <c r="S56" s="128"/>
+      <c r="T56" s="128"/>
+      <c r="U56" s="128"/>
+      <c r="V56" s="128"/>
+      <c r="W56" s="128"/>
+      <c r="X56" s="128"/>
+      <c r="Y56" s="102"/>
+      <c r="Z56" s="106"/>
+      <c r="AA56" s="128"/>
+      <c r="AB56" s="128"/>
+      <c r="AC56" s="128"/>
+      <c r="AD56" s="128"/>
+      <c r="AE56" s="128"/>
+      <c r="AF56" s="128"/>
+      <c r="AG56" s="128"/>
+      <c r="AH56" s="128"/>
+      <c r="AI56" s="128"/>
+      <c r="AJ56" s="102"/>
+      <c r="AK56" s="128"/>
+      <c r="AL56" s="128"/>
+      <c r="AM56" s="128"/>
+      <c r="AN56" s="128"/>
+      <c r="AO56" s="128"/>
+      <c r="AP56" s="128"/>
+      <c r="AQ56" s="128"/>
+      <c r="AR56" s="128"/>
+      <c r="AS56" s="128"/>
+      <c r="AT56" s="128"/>
+      <c r="AU56" s="128"/>
+      <c r="AV56" s="102"/>
+    </row>
+    <row r="57" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N57" s="106"/>
+      <c r="O57" s="128"/>
+      <c r="P57" s="128"/>
+      <c r="Q57" s="128"/>
+      <c r="R57" s="128"/>
+      <c r="S57" s="128"/>
+      <c r="T57" s="128"/>
+      <c r="U57" s="128"/>
+      <c r="V57" s="128"/>
+      <c r="W57" s="128"/>
+      <c r="X57" s="128"/>
+      <c r="Y57" s="102"/>
+      <c r="Z57" s="106"/>
+      <c r="AA57" s="128"/>
+      <c r="AB57" s="128"/>
+      <c r="AC57" s="128"/>
+      <c r="AD57" s="128"/>
+      <c r="AE57" s="128"/>
+      <c r="AF57" s="128"/>
+      <c r="AG57" s="128"/>
+      <c r="AH57" s="128"/>
+      <c r="AI57" s="128"/>
+      <c r="AJ57" s="102"/>
+      <c r="AK57" s="128"/>
+      <c r="AL57" s="128"/>
+      <c r="AM57" s="128"/>
+      <c r="AN57" s="128"/>
+      <c r="AO57" s="128"/>
+      <c r="AP57" s="128"/>
+      <c r="AQ57" s="128"/>
+      <c r="AR57" s="128"/>
+      <c r="AS57" s="128"/>
+      <c r="AT57" s="128"/>
+      <c r="AU57" s="128"/>
+      <c r="AV57" s="102"/>
+    </row>
+    <row r="58" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N58" s="106"/>
+      <c r="O58" s="128"/>
+      <c r="P58" s="128"/>
+      <c r="Q58" s="128"/>
+      <c r="R58" s="128"/>
+      <c r="S58" s="128"/>
+      <c r="T58" s="128"/>
+      <c r="U58" s="128"/>
+      <c r="V58" s="128"/>
+      <c r="W58" s="128"/>
+      <c r="X58" s="128"/>
+      <c r="Y58" s="102"/>
+      <c r="Z58" s="106"/>
+      <c r="AA58" s="128"/>
+      <c r="AB58" s="128"/>
+      <c r="AC58" s="128"/>
+      <c r="AD58" s="128"/>
+      <c r="AE58" s="128"/>
+      <c r="AF58" s="128"/>
+      <c r="AG58" s="128"/>
+      <c r="AH58" s="128"/>
+      <c r="AI58" s="128"/>
+      <c r="AJ58" s="102"/>
+      <c r="AK58" s="128"/>
+      <c r="AL58" s="128"/>
+      <c r="AM58" s="128"/>
+      <c r="AN58" s="128"/>
+      <c r="AO58" s="128"/>
+      <c r="AP58" s="128"/>
+      <c r="AQ58" s="128"/>
+      <c r="AR58" s="128"/>
+      <c r="AS58" s="128"/>
+      <c r="AT58" s="128"/>
+      <c r="AU58" s="128"/>
+      <c r="AV58" s="102"/>
+    </row>
+    <row r="59" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N59" s="106"/>
+      <c r="O59" s="128"/>
+      <c r="P59" s="128"/>
+      <c r="Q59" s="128"/>
+      <c r="R59" s="128"/>
+      <c r="S59" s="128"/>
+      <c r="T59" s="128"/>
+      <c r="U59" s="128"/>
+      <c r="V59" s="128"/>
+      <c r="W59" s="128"/>
+      <c r="X59" s="128"/>
+      <c r="Y59" s="102"/>
+      <c r="Z59" s="106"/>
+      <c r="AA59" s="128"/>
+      <c r="AB59" s="128"/>
+      <c r="AC59" s="128"/>
+      <c r="AD59" s="128"/>
+      <c r="AE59" s="128"/>
+      <c r="AF59" s="128"/>
+      <c r="AG59" s="128"/>
+      <c r="AH59" s="128"/>
+      <c r="AI59" s="128"/>
+      <c r="AJ59" s="102"/>
+      <c r="AK59" s="128"/>
+      <c r="AL59" s="128"/>
+      <c r="AM59" s="128"/>
+      <c r="AN59" s="128"/>
+      <c r="AO59" s="128"/>
+      <c r="AP59" s="128"/>
+      <c r="AQ59" s="128"/>
+      <c r="AR59" s="128"/>
+      <c r="AS59" s="128"/>
+      <c r="AT59" s="128"/>
+      <c r="AU59" s="128"/>
+      <c r="AV59" s="102"/>
+    </row>
+    <row r="60" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N60" s="106"/>
+      <c r="O60" s="128"/>
+      <c r="P60" s="128"/>
+      <c r="Q60" s="128"/>
+      <c r="R60" s="128"/>
+      <c r="S60" s="128"/>
+      <c r="T60" s="128"/>
+      <c r="U60" s="128"/>
+      <c r="V60" s="128"/>
+      <c r="W60" s="128"/>
+      <c r="X60" s="128"/>
+      <c r="Y60" s="102"/>
+      <c r="Z60" s="106"/>
+      <c r="AA60" s="128"/>
+      <c r="AB60" s="128"/>
+      <c r="AC60" s="128"/>
+      <c r="AD60" s="128"/>
+      <c r="AE60" s="128"/>
+      <c r="AF60" s="128"/>
+      <c r="AG60" s="128"/>
+      <c r="AH60" s="128"/>
+      <c r="AI60" s="128"/>
+      <c r="AJ60" s="102"/>
+      <c r="AK60" s="128"/>
+      <c r="AL60" s="128"/>
+      <c r="AM60" s="128"/>
+      <c r="AN60" s="128"/>
+      <c r="AO60" s="128"/>
+      <c r="AP60" s="128"/>
+      <c r="AQ60" s="128"/>
+      <c r="AR60" s="128"/>
+      <c r="AS60" s="128"/>
+      <c r="AT60" s="128"/>
+      <c r="AU60" s="128"/>
+      <c r="AV60" s="102"/>
+    </row>
+    <row r="61" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N61" s="106"/>
+      <c r="O61" s="128"/>
+      <c r="P61" s="128"/>
+      <c r="Q61" s="128"/>
+      <c r="R61" s="128"/>
+      <c r="S61" s="128"/>
+      <c r="T61" s="128"/>
+      <c r="U61" s="128"/>
+      <c r="V61" s="128"/>
+      <c r="W61" s="128"/>
+      <c r="X61" s="128"/>
+      <c r="Y61" s="102"/>
+      <c r="Z61" s="106"/>
+      <c r="AA61" s="128"/>
+      <c r="AB61" s="128"/>
+      <c r="AC61" s="128"/>
+      <c r="AD61" s="128"/>
+      <c r="AE61" s="128"/>
+      <c r="AF61" s="128"/>
+      <c r="AG61" s="128"/>
+      <c r="AH61" s="128"/>
+      <c r="AI61" s="128"/>
+      <c r="AJ61" s="102"/>
+      <c r="AK61" s="128"/>
+      <c r="AL61" s="128"/>
+      <c r="AM61" s="128"/>
+      <c r="AN61" s="128"/>
+      <c r="AO61" s="128"/>
+      <c r="AP61" s="128"/>
+      <c r="AQ61" s="128"/>
+      <c r="AR61" s="128"/>
+      <c r="AS61" s="128"/>
+      <c r="AT61" s="128"/>
+      <c r="AU61" s="128"/>
+      <c r="AV61" s="102"/>
+    </row>
+    <row r="62" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N62" s="106"/>
+      <c r="O62" s="128"/>
+      <c r="P62" s="128"/>
+      <c r="Q62" s="128"/>
+      <c r="R62" s="128"/>
+      <c r="S62" s="128"/>
+      <c r="T62" s="128"/>
+      <c r="U62" s="128"/>
+      <c r="V62" s="128"/>
+      <c r="W62" s="128"/>
+      <c r="X62" s="128"/>
+      <c r="Y62" s="102"/>
+      <c r="Z62" s="106"/>
+      <c r="AA62" s="128"/>
+      <c r="AB62" s="128"/>
+      <c r="AC62" s="128"/>
+      <c r="AD62" s="128"/>
+      <c r="AE62" s="128"/>
+      <c r="AF62" s="128"/>
+      <c r="AG62" s="128"/>
+      <c r="AH62" s="128"/>
+      <c r="AI62" s="128"/>
+      <c r="AJ62" s="102"/>
+      <c r="AK62" s="128"/>
+      <c r="AL62" s="128"/>
+      <c r="AM62" s="128"/>
+      <c r="AN62" s="128"/>
+      <c r="AO62" s="128"/>
+      <c r="AP62" s="128"/>
+      <c r="AQ62" s="128"/>
+      <c r="AR62" s="128"/>
+      <c r="AS62" s="128"/>
+      <c r="AT62" s="128"/>
+      <c r="AU62" s="128"/>
+      <c r="AV62" s="102"/>
+    </row>
+    <row r="63" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N63" s="106"/>
+      <c r="O63" s="128"/>
+      <c r="P63" s="128"/>
+      <c r="Q63" s="128"/>
+      <c r="R63" s="128"/>
+      <c r="S63" s="128"/>
+      <c r="T63" s="128"/>
+      <c r="U63" s="128"/>
+      <c r="V63" s="128"/>
+      <c r="W63" s="128"/>
+      <c r="X63" s="128"/>
+      <c r="Y63" s="102"/>
+      <c r="Z63" s="106"/>
+      <c r="AA63" s="128"/>
+      <c r="AB63" s="128"/>
+      <c r="AC63" s="128"/>
+      <c r="AD63" s="128"/>
+      <c r="AE63" s="128"/>
+      <c r="AF63" s="128"/>
+      <c r="AG63" s="128"/>
+      <c r="AH63" s="128"/>
+      <c r="AI63" s="128"/>
+      <c r="AJ63" s="102"/>
+      <c r="AK63" s="128"/>
+      <c r="AL63" s="128"/>
+      <c r="AM63" s="128"/>
+      <c r="AN63" s="128"/>
+      <c r="AO63" s="128"/>
+      <c r="AP63" s="128"/>
+      <c r="AQ63" s="128"/>
+      <c r="AR63" s="128"/>
+      <c r="AS63" s="128"/>
+      <c r="AT63" s="128"/>
+      <c r="AU63" s="128"/>
+      <c r="AV63" s="102"/>
+    </row>
+    <row r="64" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N64" s="106"/>
+      <c r="O64" s="128"/>
+      <c r="P64" s="128"/>
+      <c r="Q64" s="128"/>
+      <c r="R64" s="128"/>
+      <c r="S64" s="128"/>
+      <c r="T64" s="128"/>
+      <c r="U64" s="128"/>
+      <c r="V64" s="128"/>
+      <c r="W64" s="128"/>
+      <c r="X64" s="128"/>
+      <c r="Y64" s="102"/>
+      <c r="Z64" s="106"/>
+      <c r="AA64" s="128"/>
+      <c r="AB64" s="128"/>
+      <c r="AC64" s="128"/>
+      <c r="AD64" s="128"/>
+      <c r="AE64" s="128"/>
+      <c r="AF64" s="128"/>
+      <c r="AG64" s="128"/>
+      <c r="AH64" s="128"/>
+      <c r="AI64" s="128"/>
+      <c r="AJ64" s="102"/>
+      <c r="AK64" s="128"/>
+      <c r="AL64" s="128"/>
+      <c r="AM64" s="128"/>
+      <c r="AN64" s="128"/>
+      <c r="AO64" s="128"/>
+      <c r="AP64" s="128"/>
+      <c r="AQ64" s="128"/>
+      <c r="AR64" s="128"/>
+      <c r="AS64" s="128"/>
+      <c r="AT64" s="128"/>
+      <c r="AU64" s="128"/>
+      <c r="AV64" s="102"/>
+    </row>
+    <row r="65" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N65" s="106"/>
+      <c r="O65" s="128"/>
+      <c r="P65" s="128"/>
+      <c r="Q65" s="128"/>
+      <c r="R65" s="128"/>
+      <c r="S65" s="128"/>
+      <c r="T65" s="128"/>
+      <c r="U65" s="128"/>
+      <c r="V65" s="128"/>
+      <c r="W65" s="128"/>
+      <c r="X65" s="128"/>
+      <c r="Y65" s="102"/>
+      <c r="Z65" s="106"/>
+      <c r="AA65" s="128"/>
+      <c r="AB65" s="128"/>
+      <c r="AC65" s="128"/>
+      <c r="AD65" s="128"/>
+      <c r="AE65" s="128"/>
+      <c r="AF65" s="128"/>
+      <c r="AG65" s="128"/>
+      <c r="AH65" s="128"/>
+      <c r="AI65" s="128"/>
+      <c r="AJ65" s="102"/>
+      <c r="AK65" s="128"/>
+      <c r="AL65" s="128"/>
+      <c r="AM65" s="128"/>
+      <c r="AN65" s="128"/>
+      <c r="AO65" s="128"/>
+      <c r="AP65" s="128"/>
+      <c r="AQ65" s="128"/>
+      <c r="AR65" s="128"/>
+      <c r="AS65" s="128"/>
+      <c r="AT65" s="128"/>
+      <c r="AU65" s="128"/>
+      <c r="AV65" s="102"/>
+    </row>
+    <row r="66" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N66" s="106"/>
+      <c r="O66" s="128"/>
+      <c r="P66" s="128"/>
+      <c r="Q66" s="128"/>
+      <c r="R66" s="128"/>
+      <c r="S66" s="128"/>
+      <c r="T66" s="128"/>
+      <c r="U66" s="128"/>
+      <c r="V66" s="128"/>
+      <c r="W66" s="128"/>
+      <c r="X66" s="128"/>
+      <c r="Y66" s="102"/>
+      <c r="Z66" s="106"/>
+      <c r="AA66" s="128"/>
+      <c r="AB66" s="128"/>
+      <c r="AC66" s="128"/>
+      <c r="AD66" s="128"/>
+      <c r="AE66" s="128"/>
+      <c r="AF66" s="128"/>
+      <c r="AG66" s="128"/>
+      <c r="AH66" s="128"/>
+      <c r="AI66" s="128"/>
+      <c r="AJ66" s="102"/>
+      <c r="AK66" s="128"/>
+      <c r="AL66" s="128"/>
+      <c r="AM66" s="128"/>
+      <c r="AN66" s="128"/>
+      <c r="AO66" s="128"/>
+      <c r="AP66" s="128"/>
+      <c r="AQ66" s="128"/>
+      <c r="AR66" s="128"/>
+      <c r="AS66" s="128"/>
+      <c r="AT66" s="128"/>
+      <c r="AU66" s="128"/>
+      <c r="AV66" s="102"/>
+    </row>
+    <row r="67" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N67" s="106"/>
+      <c r="O67" s="128"/>
+      <c r="P67" s="128"/>
+      <c r="Q67" s="128"/>
+      <c r="R67" s="128"/>
+      <c r="S67" s="128"/>
+      <c r="T67" s="128"/>
+      <c r="U67" s="128"/>
+      <c r="V67" s="128"/>
+      <c r="W67" s="128"/>
+      <c r="X67" s="128"/>
+      <c r="Y67" s="102"/>
+      <c r="Z67" s="106"/>
+      <c r="AA67" s="128"/>
+      <c r="AB67" s="128"/>
+      <c r="AC67" s="128"/>
+      <c r="AD67" s="128"/>
+      <c r="AE67" s="128"/>
+      <c r="AF67" s="128"/>
+      <c r="AG67" s="128"/>
+      <c r="AH67" s="128"/>
+      <c r="AI67" s="128"/>
+      <c r="AJ67" s="102"/>
+      <c r="AK67" s="128"/>
+      <c r="AL67" s="128"/>
+      <c r="AM67" s="128"/>
+      <c r="AN67" s="128"/>
+      <c r="AO67" s="128"/>
+      <c r="AP67" s="128"/>
+      <c r="AQ67" s="128"/>
+      <c r="AR67" s="128"/>
+      <c r="AS67" s="128"/>
+      <c r="AT67" s="128"/>
+      <c r="AU67" s="128"/>
+      <c r="AV67" s="102"/>
+    </row>
+    <row r="68" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N68" s="106"/>
+      <c r="O68" s="128"/>
+      <c r="P68" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="Q68" s="128"/>
+      <c r="R68" s="128"/>
+      <c r="S68" s="128"/>
+      <c r="T68" s="128"/>
+      <c r="U68" s="128"/>
+      <c r="V68" s="128"/>
+      <c r="W68" s="128"/>
+      <c r="X68" s="128"/>
+      <c r="Y68" s="102"/>
+      <c r="Z68" s="106"/>
+      <c r="AA68" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="AL68" t="s">
+      <c r="AB68" s="128"/>
+      <c r="AC68" s="128"/>
+      <c r="AD68" s="128"/>
+      <c r="AE68" s="128"/>
+      <c r="AF68" s="128"/>
+      <c r="AG68" s="128"/>
+      <c r="AH68" s="128"/>
+      <c r="AI68" s="128"/>
+      <c r="AJ68" s="102"/>
+      <c r="AK68" s="128"/>
+      <c r="AL68" s="128" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="93" spans="16:38" x14ac:dyDescent="0.25">
-      <c r="P93" t="s">
+      <c r="AM68" s="128"/>
+      <c r="AN68" s="128"/>
+      <c r="AO68" s="128"/>
+      <c r="AP68" s="128"/>
+      <c r="AQ68" s="128"/>
+      <c r="AR68" s="128"/>
+      <c r="AS68" s="128"/>
+      <c r="AT68" s="128"/>
+      <c r="AU68" s="128"/>
+      <c r="AV68" s="102"/>
+    </row>
+    <row r="69" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N69" s="106"/>
+      <c r="O69" s="128"/>
+      <c r="P69" s="128"/>
+      <c r="Q69" s="128"/>
+      <c r="R69" s="128"/>
+      <c r="S69" s="128"/>
+      <c r="T69" s="128"/>
+      <c r="U69" s="128"/>
+      <c r="V69" s="128"/>
+      <c r="W69" s="128"/>
+      <c r="X69" s="128"/>
+      <c r="Y69" s="102"/>
+      <c r="Z69" s="106"/>
+      <c r="AA69" s="128"/>
+      <c r="AB69" s="128"/>
+      <c r="AC69" s="128"/>
+      <c r="AD69" s="128"/>
+      <c r="AE69" s="128"/>
+      <c r="AF69" s="128"/>
+      <c r="AG69" s="128"/>
+      <c r="AH69" s="128"/>
+      <c r="AI69" s="128"/>
+      <c r="AJ69" s="102"/>
+      <c r="AK69" s="128"/>
+      <c r="AL69" s="128"/>
+      <c r="AM69" s="128"/>
+      <c r="AN69" s="128"/>
+      <c r="AO69" s="128"/>
+      <c r="AP69" s="128"/>
+      <c r="AQ69" s="128"/>
+      <c r="AR69" s="128"/>
+      <c r="AS69" s="128"/>
+      <c r="AT69" s="128"/>
+      <c r="AU69" s="128"/>
+      <c r="AV69" s="102"/>
+    </row>
+    <row r="70" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N70" s="106"/>
+      <c r="O70" s="128"/>
+      <c r="P70" s="128"/>
+      <c r="Q70" s="128"/>
+      <c r="R70" s="128"/>
+      <c r="S70" s="128"/>
+      <c r="T70" s="128"/>
+      <c r="U70" s="128"/>
+      <c r="V70" s="128"/>
+      <c r="W70" s="128"/>
+      <c r="X70" s="128"/>
+      <c r="Y70" s="102"/>
+      <c r="Z70" s="106"/>
+      <c r="AA70" s="128"/>
+      <c r="AB70" s="128"/>
+      <c r="AC70" s="128"/>
+      <c r="AD70" s="128"/>
+      <c r="AE70" s="128"/>
+      <c r="AF70" s="128"/>
+      <c r="AG70" s="128"/>
+      <c r="AH70" s="128"/>
+      <c r="AI70" s="128"/>
+      <c r="AJ70" s="102"/>
+      <c r="AK70" s="128"/>
+      <c r="AL70" s="128"/>
+      <c r="AM70" s="128"/>
+      <c r="AN70" s="128"/>
+      <c r="AO70" s="128"/>
+      <c r="AP70" s="128"/>
+      <c r="AQ70" s="128"/>
+      <c r="AR70" s="128"/>
+      <c r="AS70" s="128"/>
+      <c r="AT70" s="128"/>
+      <c r="AU70" s="128"/>
+      <c r="AV70" s="102"/>
+    </row>
+    <row r="71" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N71" s="106"/>
+      <c r="O71" s="128"/>
+      <c r="P71" s="128"/>
+      <c r="Q71" s="128"/>
+      <c r="R71" s="128"/>
+      <c r="S71" s="128"/>
+      <c r="T71" s="128"/>
+      <c r="U71" s="128"/>
+      <c r="V71" s="128"/>
+      <c r="W71" s="128"/>
+      <c r="X71" s="128"/>
+      <c r="Y71" s="102"/>
+      <c r="Z71" s="106"/>
+      <c r="AA71" s="128"/>
+      <c r="AB71" s="128"/>
+      <c r="AC71" s="128"/>
+      <c r="AD71" s="128"/>
+      <c r="AE71" s="128"/>
+      <c r="AF71" s="128"/>
+      <c r="AG71" s="128"/>
+      <c r="AH71" s="128"/>
+      <c r="AI71" s="128"/>
+      <c r="AJ71" s="102"/>
+      <c r="AK71" s="128"/>
+      <c r="AL71" s="128"/>
+      <c r="AM71" s="128"/>
+      <c r="AN71" s="128"/>
+      <c r="AO71" s="128"/>
+      <c r="AP71" s="128"/>
+      <c r="AQ71" s="128"/>
+      <c r="AR71" s="128"/>
+      <c r="AS71" s="128"/>
+      <c r="AT71" s="128"/>
+      <c r="AU71" s="128"/>
+      <c r="AV71" s="102"/>
+    </row>
+    <row r="72" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N72" s="106"/>
+      <c r="O72" s="128"/>
+      <c r="P72" s="128"/>
+      <c r="Q72" s="128"/>
+      <c r="R72" s="128"/>
+      <c r="S72" s="128"/>
+      <c r="T72" s="128"/>
+      <c r="U72" s="128"/>
+      <c r="V72" s="128"/>
+      <c r="W72" s="128"/>
+      <c r="X72" s="128"/>
+      <c r="Y72" s="102"/>
+      <c r="Z72" s="106"/>
+      <c r="AA72" s="128"/>
+      <c r="AB72" s="128"/>
+      <c r="AC72" s="128"/>
+      <c r="AD72" s="128"/>
+      <c r="AE72" s="128"/>
+      <c r="AF72" s="128"/>
+      <c r="AG72" s="128"/>
+      <c r="AH72" s="128"/>
+      <c r="AI72" s="128"/>
+      <c r="AJ72" s="102"/>
+      <c r="AK72" s="128"/>
+      <c r="AL72" s="128"/>
+      <c r="AM72" s="128"/>
+      <c r="AN72" s="128"/>
+      <c r="AO72" s="128"/>
+      <c r="AP72" s="128"/>
+      <c r="AQ72" s="128"/>
+      <c r="AR72" s="128"/>
+      <c r="AS72" s="128"/>
+      <c r="AT72" s="128"/>
+      <c r="AU72" s="128"/>
+      <c r="AV72" s="102"/>
+    </row>
+    <row r="73" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N73" s="106"/>
+      <c r="O73" s="128"/>
+      <c r="P73" s="128"/>
+      <c r="Q73" s="128"/>
+      <c r="R73" s="128"/>
+      <c r="S73" s="128"/>
+      <c r="T73" s="128"/>
+      <c r="U73" s="128"/>
+      <c r="V73" s="128"/>
+      <c r="W73" s="128"/>
+      <c r="X73" s="128"/>
+      <c r="Y73" s="102"/>
+      <c r="Z73" s="106"/>
+      <c r="AA73" s="128"/>
+      <c r="AB73" s="128"/>
+      <c r="AC73" s="128"/>
+      <c r="AD73" s="128"/>
+      <c r="AE73" s="128"/>
+      <c r="AF73" s="128"/>
+      <c r="AG73" s="128"/>
+      <c r="AH73" s="128"/>
+      <c r="AI73" s="128"/>
+      <c r="AJ73" s="102"/>
+      <c r="AK73" s="128"/>
+      <c r="AL73" s="128"/>
+      <c r="AM73" s="128"/>
+      <c r="AN73" s="128"/>
+      <c r="AO73" s="128"/>
+      <c r="AP73" s="128"/>
+      <c r="AQ73" s="128"/>
+      <c r="AR73" s="128"/>
+      <c r="AS73" s="128"/>
+      <c r="AT73" s="128"/>
+      <c r="AU73" s="128"/>
+      <c r="AV73" s="102"/>
+    </row>
+    <row r="74" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N74" s="106"/>
+      <c r="O74" s="128"/>
+      <c r="P74" s="128"/>
+      <c r="Q74" s="128"/>
+      <c r="R74" s="128"/>
+      <c r="S74" s="128"/>
+      <c r="T74" s="128"/>
+      <c r="U74" s="128"/>
+      <c r="V74" s="128"/>
+      <c r="W74" s="128"/>
+      <c r="X74" s="128"/>
+      <c r="Y74" s="102"/>
+      <c r="Z74" s="106"/>
+      <c r="AA74" s="128"/>
+      <c r="AB74" s="128"/>
+      <c r="AC74" s="128"/>
+      <c r="AD74" s="128"/>
+      <c r="AE74" s="128"/>
+      <c r="AF74" s="128"/>
+      <c r="AG74" s="128"/>
+      <c r="AH74" s="128"/>
+      <c r="AI74" s="128"/>
+      <c r="AJ74" s="102"/>
+      <c r="AK74" s="128"/>
+      <c r="AL74" s="128"/>
+      <c r="AM74" s="128"/>
+      <c r="AN74" s="128"/>
+      <c r="AO74" s="128"/>
+      <c r="AP74" s="128"/>
+      <c r="AQ74" s="128"/>
+      <c r="AR74" s="128"/>
+      <c r="AS74" s="128"/>
+      <c r="AT74" s="128"/>
+      <c r="AU74" s="128"/>
+      <c r="AV74" s="102"/>
+    </row>
+    <row r="75" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N75" s="106"/>
+      <c r="O75" s="128"/>
+      <c r="P75" s="128"/>
+      <c r="Q75" s="128"/>
+      <c r="R75" s="128"/>
+      <c r="S75" s="128"/>
+      <c r="T75" s="128"/>
+      <c r="U75" s="128"/>
+      <c r="V75" s="128"/>
+      <c r="W75" s="128"/>
+      <c r="X75" s="128"/>
+      <c r="Y75" s="102"/>
+      <c r="Z75" s="106"/>
+      <c r="AA75" s="128"/>
+      <c r="AB75" s="128"/>
+      <c r="AC75" s="128"/>
+      <c r="AD75" s="128"/>
+      <c r="AE75" s="128"/>
+      <c r="AF75" s="128"/>
+      <c r="AG75" s="128"/>
+      <c r="AH75" s="128"/>
+      <c r="AI75" s="128"/>
+      <c r="AJ75" s="102"/>
+      <c r="AK75" s="128"/>
+      <c r="AL75" s="128"/>
+      <c r="AM75" s="128"/>
+      <c r="AN75" s="128"/>
+      <c r="AO75" s="128"/>
+      <c r="AP75" s="128"/>
+      <c r="AQ75" s="128"/>
+      <c r="AR75" s="128"/>
+      <c r="AS75" s="128"/>
+      <c r="AT75" s="128"/>
+      <c r="AU75" s="128"/>
+      <c r="AV75" s="102"/>
+    </row>
+    <row r="76" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N76" s="106"/>
+      <c r="O76" s="128"/>
+      <c r="P76" s="128"/>
+      <c r="Q76" s="128"/>
+      <c r="R76" s="128"/>
+      <c r="S76" s="128"/>
+      <c r="T76" s="128"/>
+      <c r="U76" s="128"/>
+      <c r="V76" s="128"/>
+      <c r="W76" s="128"/>
+      <c r="X76" s="128"/>
+      <c r="Y76" s="102"/>
+      <c r="Z76" s="106"/>
+      <c r="AA76" s="128"/>
+      <c r="AB76" s="128"/>
+      <c r="AC76" s="128"/>
+      <c r="AD76" s="128"/>
+      <c r="AE76" s="128"/>
+      <c r="AF76" s="128"/>
+      <c r="AG76" s="128"/>
+      <c r="AH76" s="128"/>
+      <c r="AI76" s="128"/>
+      <c r="AJ76" s="102"/>
+      <c r="AK76" s="128"/>
+      <c r="AL76" s="128"/>
+      <c r="AM76" s="128"/>
+      <c r="AN76" s="128"/>
+      <c r="AO76" s="128"/>
+      <c r="AP76" s="128"/>
+      <c r="AQ76" s="128"/>
+      <c r="AR76" s="128"/>
+      <c r="AS76" s="128"/>
+      <c r="AT76" s="128"/>
+      <c r="AU76" s="128"/>
+      <c r="AV76" s="102"/>
+    </row>
+    <row r="77" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N77" s="106"/>
+      <c r="O77" s="128"/>
+      <c r="P77" s="128"/>
+      <c r="Q77" s="128"/>
+      <c r="R77" s="128"/>
+      <c r="S77" s="128"/>
+      <c r="T77" s="128"/>
+      <c r="U77" s="128"/>
+      <c r="V77" s="128"/>
+      <c r="W77" s="128"/>
+      <c r="X77" s="128"/>
+      <c r="Y77" s="102"/>
+      <c r="Z77" s="106"/>
+      <c r="AA77" s="128"/>
+      <c r="AB77" s="128"/>
+      <c r="AC77" s="128"/>
+      <c r="AD77" s="128"/>
+      <c r="AE77" s="128"/>
+      <c r="AF77" s="128"/>
+      <c r="AG77" s="128"/>
+      <c r="AH77" s="128"/>
+      <c r="AI77" s="128"/>
+      <c r="AJ77" s="102"/>
+      <c r="AK77" s="128"/>
+      <c r="AL77" s="128"/>
+      <c r="AM77" s="128"/>
+      <c r="AN77" s="128"/>
+      <c r="AO77" s="128"/>
+      <c r="AP77" s="128"/>
+      <c r="AQ77" s="128"/>
+      <c r="AR77" s="128"/>
+      <c r="AS77" s="128"/>
+      <c r="AT77" s="128"/>
+      <c r="AU77" s="128"/>
+      <c r="AV77" s="102"/>
+    </row>
+    <row r="78" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N78" s="106"/>
+      <c r="O78" s="128"/>
+      <c r="P78" s="128"/>
+      <c r="Q78" s="128"/>
+      <c r="R78" s="128"/>
+      <c r="S78" s="128"/>
+      <c r="T78" s="128"/>
+      <c r="U78" s="128"/>
+      <c r="V78" s="128"/>
+      <c r="W78" s="128"/>
+      <c r="X78" s="128"/>
+      <c r="Y78" s="102"/>
+      <c r="Z78" s="106"/>
+      <c r="AA78" s="128"/>
+      <c r="AB78" s="128"/>
+      <c r="AC78" s="128"/>
+      <c r="AD78" s="128"/>
+      <c r="AE78" s="128"/>
+      <c r="AF78" s="128"/>
+      <c r="AG78" s="128"/>
+      <c r="AH78" s="128"/>
+      <c r="AI78" s="128"/>
+      <c r="AJ78" s="102"/>
+      <c r="AK78" s="128"/>
+      <c r="AL78" s="128"/>
+      <c r="AM78" s="128"/>
+      <c r="AN78" s="128"/>
+      <c r="AO78" s="128"/>
+      <c r="AP78" s="128"/>
+      <c r="AQ78" s="128"/>
+      <c r="AR78" s="128"/>
+      <c r="AS78" s="128"/>
+      <c r="AT78" s="128"/>
+      <c r="AU78" s="128"/>
+      <c r="AV78" s="102"/>
+    </row>
+    <row r="79" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N79" s="106"/>
+      <c r="O79" s="128"/>
+      <c r="P79" s="128"/>
+      <c r="Q79" s="128"/>
+      <c r="R79" s="128"/>
+      <c r="S79" s="128"/>
+      <c r="T79" s="128"/>
+      <c r="U79" s="128"/>
+      <c r="V79" s="128"/>
+      <c r="W79" s="128"/>
+      <c r="X79" s="128"/>
+      <c r="Y79" s="102"/>
+      <c r="Z79" s="106"/>
+      <c r="AA79" s="128"/>
+      <c r="AB79" s="128"/>
+      <c r="AC79" s="128"/>
+      <c r="AD79" s="128"/>
+      <c r="AE79" s="128"/>
+      <c r="AF79" s="128"/>
+      <c r="AG79" s="128"/>
+      <c r="AH79" s="128"/>
+      <c r="AI79" s="128"/>
+      <c r="AJ79" s="102"/>
+      <c r="AK79" s="128"/>
+      <c r="AL79" s="128"/>
+      <c r="AM79" s="128"/>
+      <c r="AN79" s="128"/>
+      <c r="AO79" s="128"/>
+      <c r="AP79" s="128"/>
+      <c r="AQ79" s="128"/>
+      <c r="AR79" s="128"/>
+      <c r="AS79" s="128"/>
+      <c r="AT79" s="128"/>
+      <c r="AU79" s="128"/>
+      <c r="AV79" s="102"/>
+    </row>
+    <row r="80" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N80" s="106"/>
+      <c r="O80" s="128"/>
+      <c r="P80" s="128"/>
+      <c r="Q80" s="128"/>
+      <c r="R80" s="128"/>
+      <c r="S80" s="128"/>
+      <c r="T80" s="128"/>
+      <c r="U80" s="128"/>
+      <c r="V80" s="128"/>
+      <c r="W80" s="128"/>
+      <c r="X80" s="128"/>
+      <c r="Y80" s="102"/>
+      <c r="Z80" s="106"/>
+      <c r="AA80" s="128"/>
+      <c r="AB80" s="128"/>
+      <c r="AC80" s="128"/>
+      <c r="AD80" s="128"/>
+      <c r="AE80" s="128"/>
+      <c r="AF80" s="128"/>
+      <c r="AG80" s="128"/>
+      <c r="AH80" s="128"/>
+      <c r="AI80" s="128"/>
+      <c r="AJ80" s="102"/>
+      <c r="AK80" s="128"/>
+      <c r="AL80" s="128"/>
+      <c r="AM80" s="128"/>
+      <c r="AN80" s="128"/>
+      <c r="AO80" s="128"/>
+      <c r="AP80" s="128"/>
+      <c r="AQ80" s="128"/>
+      <c r="AR80" s="128"/>
+      <c r="AS80" s="128"/>
+      <c r="AT80" s="128"/>
+      <c r="AU80" s="128"/>
+      <c r="AV80" s="102"/>
+    </row>
+    <row r="81" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N81" s="106"/>
+      <c r="O81" s="128"/>
+      <c r="P81" s="128"/>
+      <c r="Q81" s="128"/>
+      <c r="R81" s="128"/>
+      <c r="S81" s="128"/>
+      <c r="T81" s="128"/>
+      <c r="U81" s="128"/>
+      <c r="V81" s="128"/>
+      <c r="W81" s="128"/>
+      <c r="X81" s="128"/>
+      <c r="Y81" s="102"/>
+      <c r="Z81" s="106"/>
+      <c r="AA81" s="128"/>
+      <c r="AB81" s="128"/>
+      <c r="AC81" s="128"/>
+      <c r="AD81" s="128"/>
+      <c r="AE81" s="128"/>
+      <c r="AF81" s="128"/>
+      <c r="AG81" s="128"/>
+      <c r="AH81" s="128"/>
+      <c r="AI81" s="128"/>
+      <c r="AJ81" s="102"/>
+      <c r="AK81" s="128"/>
+      <c r="AL81" s="128"/>
+      <c r="AM81" s="128"/>
+      <c r="AN81" s="128"/>
+      <c r="AO81" s="128"/>
+      <c r="AP81" s="128"/>
+      <c r="AQ81" s="128"/>
+      <c r="AR81" s="128"/>
+      <c r="AS81" s="128"/>
+      <c r="AT81" s="128"/>
+      <c r="AU81" s="128"/>
+      <c r="AV81" s="102"/>
+    </row>
+    <row r="82" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N82" s="106"/>
+      <c r="O82" s="128"/>
+      <c r="P82" s="128"/>
+      <c r="Q82" s="128"/>
+      <c r="R82" s="128"/>
+      <c r="S82" s="128"/>
+      <c r="T82" s="128"/>
+      <c r="U82" s="128"/>
+      <c r="V82" s="128"/>
+      <c r="W82" s="128"/>
+      <c r="X82" s="128"/>
+      <c r="Y82" s="102"/>
+      <c r="Z82" s="106"/>
+      <c r="AA82" s="128"/>
+      <c r="AB82" s="128"/>
+      <c r="AC82" s="128"/>
+      <c r="AD82" s="128"/>
+      <c r="AE82" s="128"/>
+      <c r="AF82" s="128"/>
+      <c r="AG82" s="128"/>
+      <c r="AH82" s="128"/>
+      <c r="AI82" s="128"/>
+      <c r="AJ82" s="102"/>
+      <c r="AK82" s="128"/>
+      <c r="AL82" s="128"/>
+      <c r="AM82" s="128"/>
+      <c r="AN82" s="128"/>
+      <c r="AO82" s="128"/>
+      <c r="AP82" s="128"/>
+      <c r="AQ82" s="128"/>
+      <c r="AR82" s="128"/>
+      <c r="AS82" s="128"/>
+      <c r="AT82" s="128"/>
+      <c r="AU82" s="128"/>
+      <c r="AV82" s="102"/>
+    </row>
+    <row r="83" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N83" s="106"/>
+      <c r="O83" s="128"/>
+      <c r="P83" s="128"/>
+      <c r="Q83" s="128"/>
+      <c r="R83" s="128"/>
+      <c r="S83" s="128"/>
+      <c r="T83" s="128"/>
+      <c r="U83" s="128"/>
+      <c r="V83" s="128"/>
+      <c r="W83" s="128"/>
+      <c r="X83" s="128"/>
+      <c r="Y83" s="102"/>
+      <c r="Z83" s="106"/>
+      <c r="AA83" s="128"/>
+      <c r="AB83" s="128"/>
+      <c r="AC83" s="128"/>
+      <c r="AD83" s="128"/>
+      <c r="AE83" s="128"/>
+      <c r="AF83" s="128"/>
+      <c r="AG83" s="128"/>
+      <c r="AH83" s="128"/>
+      <c r="AI83" s="128"/>
+      <c r="AJ83" s="102"/>
+      <c r="AK83" s="128"/>
+      <c r="AL83" s="128"/>
+      <c r="AM83" s="128"/>
+      <c r="AN83" s="128"/>
+      <c r="AO83" s="128"/>
+      <c r="AP83" s="128"/>
+      <c r="AQ83" s="128"/>
+      <c r="AR83" s="128"/>
+      <c r="AS83" s="128"/>
+      <c r="AT83" s="128"/>
+      <c r="AU83" s="128"/>
+      <c r="AV83" s="102"/>
+    </row>
+    <row r="84" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N84" s="106"/>
+      <c r="O84" s="128"/>
+      <c r="P84" s="128"/>
+      <c r="Q84" s="128"/>
+      <c r="R84" s="128"/>
+      <c r="S84" s="128"/>
+      <c r="T84" s="128"/>
+      <c r="U84" s="128"/>
+      <c r="V84" s="128"/>
+      <c r="W84" s="128"/>
+      <c r="X84" s="128"/>
+      <c r="Y84" s="102"/>
+      <c r="Z84" s="106"/>
+      <c r="AA84" s="128"/>
+      <c r="AB84" s="128"/>
+      <c r="AC84" s="128"/>
+      <c r="AD84" s="128"/>
+      <c r="AE84" s="128"/>
+      <c r="AF84" s="128"/>
+      <c r="AG84" s="128"/>
+      <c r="AH84" s="128"/>
+      <c r="AI84" s="128"/>
+      <c r="AJ84" s="102"/>
+      <c r="AK84" s="128"/>
+      <c r="AL84" s="128"/>
+      <c r="AM84" s="128"/>
+      <c r="AN84" s="128"/>
+      <c r="AO84" s="128"/>
+      <c r="AP84" s="128"/>
+      <c r="AQ84" s="128"/>
+      <c r="AR84" s="128"/>
+      <c r="AS84" s="128"/>
+      <c r="AT84" s="128"/>
+      <c r="AU84" s="128"/>
+      <c r="AV84" s="102"/>
+    </row>
+    <row r="85" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N85" s="106"/>
+      <c r="O85" s="128"/>
+      <c r="P85" s="128"/>
+      <c r="Q85" s="128"/>
+      <c r="R85" s="128"/>
+      <c r="S85" s="128"/>
+      <c r="T85" s="128"/>
+      <c r="U85" s="128"/>
+      <c r="V85" s="128"/>
+      <c r="W85" s="128"/>
+      <c r="X85" s="128"/>
+      <c r="Y85" s="102"/>
+      <c r="Z85" s="106"/>
+      <c r="AA85" s="128"/>
+      <c r="AB85" s="128"/>
+      <c r="AC85" s="128"/>
+      <c r="AD85" s="128"/>
+      <c r="AE85" s="128"/>
+      <c r="AF85" s="128"/>
+      <c r="AG85" s="128"/>
+      <c r="AH85" s="128"/>
+      <c r="AI85" s="128"/>
+      <c r="AJ85" s="102"/>
+      <c r="AK85" s="128"/>
+      <c r="AL85" s="128"/>
+      <c r="AM85" s="128"/>
+      <c r="AN85" s="128"/>
+      <c r="AO85" s="128"/>
+      <c r="AP85" s="128"/>
+      <c r="AQ85" s="128"/>
+      <c r="AR85" s="128"/>
+      <c r="AS85" s="128"/>
+      <c r="AT85" s="128"/>
+      <c r="AU85" s="128"/>
+      <c r="AV85" s="102"/>
+    </row>
+    <row r="86" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N86" s="106"/>
+      <c r="O86" s="128"/>
+      <c r="P86" s="128"/>
+      <c r="Q86" s="128"/>
+      <c r="R86" s="128"/>
+      <c r="S86" s="128"/>
+      <c r="T86" s="128"/>
+      <c r="U86" s="128"/>
+      <c r="V86" s="128"/>
+      <c r="W86" s="128"/>
+      <c r="X86" s="128"/>
+      <c r="Y86" s="102"/>
+      <c r="Z86" s="106"/>
+      <c r="AA86" s="128"/>
+      <c r="AB86" s="128"/>
+      <c r="AC86" s="128"/>
+      <c r="AD86" s="128"/>
+      <c r="AE86" s="128"/>
+      <c r="AF86" s="128"/>
+      <c r="AG86" s="128"/>
+      <c r="AH86" s="128"/>
+      <c r="AI86" s="128"/>
+      <c r="AJ86" s="102"/>
+      <c r="AK86" s="128"/>
+      <c r="AL86" s="128"/>
+      <c r="AM86" s="128"/>
+      <c r="AN86" s="128"/>
+      <c r="AO86" s="128"/>
+      <c r="AP86" s="128"/>
+      <c r="AQ86" s="128"/>
+      <c r="AR86" s="128"/>
+      <c r="AS86" s="128"/>
+      <c r="AT86" s="128"/>
+      <c r="AU86" s="128"/>
+      <c r="AV86" s="102"/>
+    </row>
+    <row r="87" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N87" s="106"/>
+      <c r="O87" s="128"/>
+      <c r="P87" s="128"/>
+      <c r="Q87" s="128"/>
+      <c r="R87" s="128"/>
+      <c r="S87" s="128"/>
+      <c r="T87" s="128"/>
+      <c r="U87" s="128"/>
+      <c r="V87" s="128"/>
+      <c r="W87" s="128"/>
+      <c r="X87" s="128"/>
+      <c r="Y87" s="102"/>
+      <c r="Z87" s="106"/>
+      <c r="AA87" s="128"/>
+      <c r="AB87" s="128"/>
+      <c r="AC87" s="128"/>
+      <c r="AD87" s="128"/>
+      <c r="AE87" s="128"/>
+      <c r="AF87" s="128"/>
+      <c r="AG87" s="128"/>
+      <c r="AH87" s="128"/>
+      <c r="AI87" s="128"/>
+      <c r="AJ87" s="102"/>
+      <c r="AK87" s="128"/>
+      <c r="AL87" s="128"/>
+      <c r="AM87" s="128"/>
+      <c r="AN87" s="128"/>
+      <c r="AO87" s="128"/>
+      <c r="AP87" s="128"/>
+      <c r="AQ87" s="128"/>
+      <c r="AR87" s="128"/>
+      <c r="AS87" s="128"/>
+      <c r="AT87" s="128"/>
+      <c r="AU87" s="128"/>
+      <c r="AV87" s="102"/>
+    </row>
+    <row r="88" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N88" s="106"/>
+      <c r="O88" s="128"/>
+      <c r="P88" s="128"/>
+      <c r="Q88" s="128"/>
+      <c r="R88" s="128"/>
+      <c r="S88" s="128"/>
+      <c r="T88" s="128"/>
+      <c r="U88" s="128"/>
+      <c r="V88" s="128"/>
+      <c r="W88" s="128"/>
+      <c r="X88" s="128"/>
+      <c r="Y88" s="102"/>
+      <c r="Z88" s="106"/>
+      <c r="AA88" s="128"/>
+      <c r="AB88" s="128"/>
+      <c r="AC88" s="128"/>
+      <c r="AD88" s="128"/>
+      <c r="AE88" s="128"/>
+      <c r="AF88" s="128"/>
+      <c r="AG88" s="128"/>
+      <c r="AH88" s="128"/>
+      <c r="AI88" s="128"/>
+      <c r="AJ88" s="102"/>
+      <c r="AK88" s="128"/>
+      <c r="AL88" s="128"/>
+      <c r="AM88" s="128"/>
+      <c r="AN88" s="128"/>
+      <c r="AO88" s="128"/>
+      <c r="AP88" s="128"/>
+      <c r="AQ88" s="128"/>
+      <c r="AR88" s="128"/>
+      <c r="AS88" s="128"/>
+      <c r="AT88" s="128"/>
+      <c r="AU88" s="128"/>
+      <c r="AV88" s="102"/>
+    </row>
+    <row r="89" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N89" s="106"/>
+      <c r="O89" s="128"/>
+      <c r="P89" s="128"/>
+      <c r="Q89" s="128"/>
+      <c r="R89" s="128"/>
+      <c r="S89" s="128"/>
+      <c r="T89" s="128"/>
+      <c r="U89" s="128"/>
+      <c r="V89" s="128"/>
+      <c r="W89" s="128"/>
+      <c r="X89" s="128"/>
+      <c r="Y89" s="102"/>
+      <c r="Z89" s="106"/>
+      <c r="AA89" s="128"/>
+      <c r="AB89" s="128"/>
+      <c r="AC89" s="128"/>
+      <c r="AD89" s="128"/>
+      <c r="AE89" s="128"/>
+      <c r="AF89" s="128"/>
+      <c r="AG89" s="128"/>
+      <c r="AH89" s="128"/>
+      <c r="AI89" s="128"/>
+      <c r="AJ89" s="102"/>
+      <c r="AK89" s="128"/>
+      <c r="AL89" s="128"/>
+      <c r="AM89" s="128"/>
+      <c r="AN89" s="128"/>
+      <c r="AO89" s="128"/>
+      <c r="AP89" s="128"/>
+      <c r="AQ89" s="128"/>
+      <c r="AR89" s="128"/>
+      <c r="AS89" s="128"/>
+      <c r="AT89" s="128"/>
+      <c r="AU89" s="128"/>
+      <c r="AV89" s="102"/>
+    </row>
+    <row r="90" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N90" s="106"/>
+      <c r="O90" s="128"/>
+      <c r="P90" s="128"/>
+      <c r="Q90" s="128"/>
+      <c r="R90" s="128"/>
+      <c r="S90" s="128"/>
+      <c r="T90" s="128"/>
+      <c r="U90" s="128"/>
+      <c r="V90" s="128"/>
+      <c r="W90" s="128"/>
+      <c r="X90" s="128"/>
+      <c r="Y90" s="102"/>
+      <c r="Z90" s="106"/>
+      <c r="AA90" s="128"/>
+      <c r="AB90" s="128"/>
+      <c r="AC90" s="128"/>
+      <c r="AD90" s="128"/>
+      <c r="AE90" s="128"/>
+      <c r="AF90" s="128"/>
+      <c r="AG90" s="128"/>
+      <c r="AH90" s="128"/>
+      <c r="AI90" s="128"/>
+      <c r="AJ90" s="102"/>
+      <c r="AK90" s="128"/>
+      <c r="AL90" s="128"/>
+      <c r="AM90" s="128"/>
+      <c r="AN90" s="128"/>
+      <c r="AO90" s="128"/>
+      <c r="AP90" s="128"/>
+      <c r="AQ90" s="128"/>
+      <c r="AR90" s="128"/>
+      <c r="AS90" s="128"/>
+      <c r="AT90" s="128"/>
+      <c r="AU90" s="128"/>
+      <c r="AV90" s="102"/>
+    </row>
+    <row r="91" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N91" s="106"/>
+      <c r="O91" s="128"/>
+      <c r="P91" s="128"/>
+      <c r="Q91" s="128"/>
+      <c r="R91" s="128"/>
+      <c r="S91" s="128"/>
+      <c r="T91" s="128"/>
+      <c r="U91" s="128"/>
+      <c r="V91" s="128"/>
+      <c r="W91" s="128"/>
+      <c r="X91" s="128"/>
+      <c r="Y91" s="102"/>
+      <c r="Z91" s="106"/>
+      <c r="AA91" s="128"/>
+      <c r="AB91" s="128"/>
+      <c r="AC91" s="128"/>
+      <c r="AD91" s="128"/>
+      <c r="AE91" s="128"/>
+      <c r="AF91" s="128"/>
+      <c r="AG91" s="128"/>
+      <c r="AH91" s="128"/>
+      <c r="AI91" s="128"/>
+      <c r="AJ91" s="102"/>
+      <c r="AK91" s="128"/>
+      <c r="AL91" s="128"/>
+      <c r="AM91" s="128"/>
+      <c r="AN91" s="128"/>
+      <c r="AO91" s="128"/>
+      <c r="AP91" s="128"/>
+      <c r="AQ91" s="128"/>
+      <c r="AR91" s="128"/>
+      <c r="AS91" s="128"/>
+      <c r="AT91" s="128"/>
+      <c r="AU91" s="128"/>
+      <c r="AV91" s="102"/>
+    </row>
+    <row r="92" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N92" s="106"/>
+      <c r="O92" s="128"/>
+      <c r="P92" s="128"/>
+      <c r="Q92" s="128"/>
+      <c r="R92" s="128"/>
+      <c r="S92" s="128"/>
+      <c r="T92" s="128"/>
+      <c r="U92" s="128"/>
+      <c r="V92" s="128"/>
+      <c r="W92" s="128"/>
+      <c r="X92" s="128"/>
+      <c r="Y92" s="102"/>
+      <c r="Z92" s="106"/>
+      <c r="AA92" s="128"/>
+      <c r="AB92" s="128"/>
+      <c r="AC92" s="128"/>
+      <c r="AD92" s="128"/>
+      <c r="AE92" s="128"/>
+      <c r="AF92" s="128"/>
+      <c r="AG92" s="128"/>
+      <c r="AH92" s="128"/>
+      <c r="AI92" s="128"/>
+      <c r="AJ92" s="102"/>
+      <c r="AK92" s="128"/>
+      <c r="AL92" s="128"/>
+      <c r="AM92" s="128"/>
+      <c r="AN92" s="128"/>
+      <c r="AO92" s="128"/>
+      <c r="AP92" s="128"/>
+      <c r="AQ92" s="128"/>
+      <c r="AR92" s="128"/>
+      <c r="AS92" s="128"/>
+      <c r="AT92" s="128"/>
+      <c r="AU92" s="128"/>
+      <c r="AV92" s="102"/>
+    </row>
+    <row r="93" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N93" s="106"/>
+      <c r="O93" s="128"/>
+      <c r="P93" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="AA93" t="s">
+      <c r="Q93" s="128"/>
+      <c r="R93" s="128"/>
+      <c r="S93" s="128"/>
+      <c r="T93" s="128"/>
+      <c r="U93" s="128"/>
+      <c r="V93" s="128"/>
+      <c r="W93" s="128"/>
+      <c r="X93" s="128"/>
+      <c r="Y93" s="102"/>
+      <c r="Z93" s="106"/>
+      <c r="AA93" s="128" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="94" spans="16:38" x14ac:dyDescent="0.25">
-      <c r="AL94" t="s">
+      <c r="AB93" s="128"/>
+      <c r="AC93" s="128"/>
+      <c r="AD93" s="128"/>
+      <c r="AE93" s="128"/>
+      <c r="AF93" s="128"/>
+      <c r="AG93" s="128"/>
+      <c r="AH93" s="128"/>
+      <c r="AI93" s="128"/>
+      <c r="AJ93" s="102"/>
+      <c r="AK93" s="128"/>
+      <c r="AL93" s="128"/>
+      <c r="AM93" s="128"/>
+      <c r="AN93" s="128"/>
+      <c r="AO93" s="128"/>
+      <c r="AP93" s="128"/>
+      <c r="AQ93" s="128"/>
+      <c r="AR93" s="128"/>
+      <c r="AS93" s="128"/>
+      <c r="AT93" s="128"/>
+      <c r="AU93" s="128"/>
+      <c r="AV93" s="102"/>
+    </row>
+    <row r="94" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N94" s="106"/>
+      <c r="O94" s="128"/>
+      <c r="P94" s="128"/>
+      <c r="Q94" s="128"/>
+      <c r="R94" s="128"/>
+      <c r="S94" s="128"/>
+      <c r="T94" s="128"/>
+      <c r="U94" s="128"/>
+      <c r="V94" s="128"/>
+      <c r="W94" s="128"/>
+      <c r="X94" s="128"/>
+      <c r="Y94" s="102"/>
+      <c r="Z94" s="106"/>
+      <c r="AA94" s="128"/>
+      <c r="AB94" s="128"/>
+      <c r="AC94" s="128"/>
+      <c r="AD94" s="128"/>
+      <c r="AE94" s="128"/>
+      <c r="AF94" s="128"/>
+      <c r="AG94" s="128"/>
+      <c r="AH94" s="128"/>
+      <c r="AI94" s="128"/>
+      <c r="AJ94" s="102"/>
+      <c r="AK94" s="128"/>
+      <c r="AL94" s="128" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="118" spans="16:38" x14ac:dyDescent="0.25">
-      <c r="P118" t="s">
+      <c r="AM94" s="128"/>
+      <c r="AN94" s="128"/>
+      <c r="AO94" s="128"/>
+      <c r="AP94" s="128"/>
+      <c r="AQ94" s="128"/>
+      <c r="AR94" s="128"/>
+      <c r="AS94" s="128"/>
+      <c r="AT94" s="128"/>
+      <c r="AU94" s="128"/>
+      <c r="AV94" s="102"/>
+    </row>
+    <row r="95" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N95" s="106"/>
+      <c r="O95" s="128"/>
+      <c r="P95" s="128"/>
+      <c r="Q95" s="128"/>
+      <c r="R95" s="128"/>
+      <c r="S95" s="128"/>
+      <c r="T95" s="128"/>
+      <c r="U95" s="128"/>
+      <c r="V95" s="128"/>
+      <c r="W95" s="128"/>
+      <c r="X95" s="128"/>
+      <c r="Y95" s="102"/>
+      <c r="Z95" s="106"/>
+      <c r="AA95" s="128"/>
+      <c r="AB95" s="128"/>
+      <c r="AC95" s="128"/>
+      <c r="AD95" s="128"/>
+      <c r="AE95" s="128"/>
+      <c r="AF95" s="128"/>
+      <c r="AG95" s="128"/>
+      <c r="AH95" s="128"/>
+      <c r="AI95" s="128"/>
+      <c r="AJ95" s="102"/>
+      <c r="AK95" s="128"/>
+      <c r="AL95" s="128"/>
+      <c r="AM95" s="128"/>
+      <c r="AN95" s="128"/>
+      <c r="AO95" s="128"/>
+      <c r="AP95" s="128"/>
+      <c r="AQ95" s="128"/>
+      <c r="AR95" s="128"/>
+      <c r="AS95" s="128"/>
+      <c r="AT95" s="128"/>
+      <c r="AU95" s="128"/>
+      <c r="AV95" s="102"/>
+    </row>
+    <row r="96" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N96" s="106"/>
+      <c r="O96" s="128"/>
+      <c r="P96" s="128"/>
+      <c r="Q96" s="128"/>
+      <c r="R96" s="128"/>
+      <c r="S96" s="128"/>
+      <c r="T96" s="128"/>
+      <c r="U96" s="128"/>
+      <c r="V96" s="128"/>
+      <c r="W96" s="128"/>
+      <c r="X96" s="128"/>
+      <c r="Y96" s="102"/>
+      <c r="Z96" s="106"/>
+      <c r="AA96" s="128"/>
+      <c r="AB96" s="128"/>
+      <c r="AC96" s="128"/>
+      <c r="AD96" s="128"/>
+      <c r="AE96" s="128"/>
+      <c r="AF96" s="128"/>
+      <c r="AG96" s="128"/>
+      <c r="AH96" s="128"/>
+      <c r="AI96" s="128"/>
+      <c r="AJ96" s="102"/>
+      <c r="AK96" s="128"/>
+      <c r="AL96" s="128"/>
+      <c r="AM96" s="128"/>
+      <c r="AN96" s="128"/>
+      <c r="AO96" s="128"/>
+      <c r="AP96" s="128"/>
+      <c r="AQ96" s="128"/>
+      <c r="AR96" s="128"/>
+      <c r="AS96" s="128"/>
+      <c r="AT96" s="128"/>
+      <c r="AU96" s="128"/>
+      <c r="AV96" s="102"/>
+    </row>
+    <row r="97" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N97" s="106"/>
+      <c r="O97" s="128"/>
+      <c r="P97" s="128"/>
+      <c r="Q97" s="128"/>
+      <c r="R97" s="128"/>
+      <c r="S97" s="128"/>
+      <c r="T97" s="128"/>
+      <c r="U97" s="128"/>
+      <c r="V97" s="128"/>
+      <c r="W97" s="128"/>
+      <c r="X97" s="128"/>
+      <c r="Y97" s="102"/>
+      <c r="Z97" s="106"/>
+      <c r="AA97" s="128"/>
+      <c r="AB97" s="128"/>
+      <c r="AC97" s="128"/>
+      <c r="AD97" s="128"/>
+      <c r="AE97" s="128"/>
+      <c r="AF97" s="128"/>
+      <c r="AG97" s="128"/>
+      <c r="AH97" s="128"/>
+      <c r="AI97" s="128"/>
+      <c r="AJ97" s="102"/>
+      <c r="AK97" s="128"/>
+      <c r="AL97" s="128"/>
+      <c r="AM97" s="128"/>
+      <c r="AN97" s="128"/>
+      <c r="AO97" s="128"/>
+      <c r="AP97" s="128"/>
+      <c r="AQ97" s="128"/>
+      <c r="AR97" s="128"/>
+      <c r="AS97" s="128"/>
+      <c r="AT97" s="128"/>
+      <c r="AU97" s="128"/>
+      <c r="AV97" s="102"/>
+    </row>
+    <row r="98" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N98" s="106"/>
+      <c r="O98" s="128"/>
+      <c r="P98" s="128"/>
+      <c r="Q98" s="128"/>
+      <c r="R98" s="128"/>
+      <c r="S98" s="128"/>
+      <c r="T98" s="128"/>
+      <c r="U98" s="128"/>
+      <c r="V98" s="128"/>
+      <c r="W98" s="128"/>
+      <c r="X98" s="128"/>
+      <c r="Y98" s="102"/>
+      <c r="Z98" s="106"/>
+      <c r="AA98" s="128"/>
+      <c r="AB98" s="128"/>
+      <c r="AC98" s="128"/>
+      <c r="AD98" s="128"/>
+      <c r="AE98" s="128"/>
+      <c r="AF98" s="128"/>
+      <c r="AG98" s="128"/>
+      <c r="AH98" s="128"/>
+      <c r="AI98" s="128"/>
+      <c r="AJ98" s="102"/>
+      <c r="AK98" s="128"/>
+      <c r="AL98" s="128"/>
+      <c r="AM98" s="128"/>
+      <c r="AN98" s="128"/>
+      <c r="AO98" s="128"/>
+      <c r="AP98" s="128"/>
+      <c r="AQ98" s="128"/>
+      <c r="AR98" s="128"/>
+      <c r="AS98" s="128"/>
+      <c r="AT98" s="128"/>
+      <c r="AU98" s="128"/>
+      <c r="AV98" s="102"/>
+    </row>
+    <row r="99" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N99" s="106"/>
+      <c r="O99" s="128"/>
+      <c r="P99" s="128"/>
+      <c r="Q99" s="128"/>
+      <c r="R99" s="128"/>
+      <c r="S99" s="128"/>
+      <c r="T99" s="128"/>
+      <c r="U99" s="128"/>
+      <c r="V99" s="128"/>
+      <c r="W99" s="128"/>
+      <c r="X99" s="128"/>
+      <c r="Y99" s="102"/>
+      <c r="Z99" s="106"/>
+      <c r="AA99" s="128"/>
+      <c r="AB99" s="128"/>
+      <c r="AC99" s="128"/>
+      <c r="AD99" s="128"/>
+      <c r="AE99" s="128"/>
+      <c r="AF99" s="128"/>
+      <c r="AG99" s="128"/>
+      <c r="AH99" s="128"/>
+      <c r="AI99" s="128"/>
+      <c r="AJ99" s="102"/>
+      <c r="AK99" s="128"/>
+      <c r="AL99" s="128"/>
+      <c r="AM99" s="128"/>
+      <c r="AN99" s="128"/>
+      <c r="AO99" s="128"/>
+      <c r="AP99" s="128"/>
+      <c r="AQ99" s="128"/>
+      <c r="AR99" s="128"/>
+      <c r="AS99" s="128"/>
+      <c r="AT99" s="128"/>
+      <c r="AU99" s="128"/>
+      <c r="AV99" s="102"/>
+    </row>
+    <row r="100" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N100" s="106"/>
+      <c r="O100" s="128"/>
+      <c r="P100" s="128"/>
+      <c r="Q100" s="128"/>
+      <c r="R100" s="128"/>
+      <c r="S100" s="128"/>
+      <c r="T100" s="128"/>
+      <c r="U100" s="128"/>
+      <c r="V100" s="128"/>
+      <c r="W100" s="128"/>
+      <c r="X100" s="128"/>
+      <c r="Y100" s="102"/>
+      <c r="Z100" s="106"/>
+      <c r="AA100" s="128"/>
+      <c r="AB100" s="128"/>
+      <c r="AC100" s="128"/>
+      <c r="AD100" s="128"/>
+      <c r="AE100" s="128"/>
+      <c r="AF100" s="128"/>
+      <c r="AG100" s="128"/>
+      <c r="AH100" s="128"/>
+      <c r="AI100" s="128"/>
+      <c r="AJ100" s="102"/>
+      <c r="AK100" s="128"/>
+      <c r="AL100" s="128"/>
+      <c r="AM100" s="128"/>
+      <c r="AN100" s="128"/>
+      <c r="AO100" s="128"/>
+      <c r="AP100" s="128"/>
+      <c r="AQ100" s="128"/>
+      <c r="AR100" s="128"/>
+      <c r="AS100" s="128"/>
+      <c r="AT100" s="128"/>
+      <c r="AU100" s="128"/>
+      <c r="AV100" s="102"/>
+    </row>
+    <row r="101" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N101" s="106"/>
+      <c r="O101" s="128"/>
+      <c r="P101" s="128"/>
+      <c r="Q101" s="128"/>
+      <c r="R101" s="128"/>
+      <c r="S101" s="128"/>
+      <c r="T101" s="128"/>
+      <c r="U101" s="128"/>
+      <c r="V101" s="128"/>
+      <c r="W101" s="128"/>
+      <c r="X101" s="128"/>
+      <c r="Y101" s="102"/>
+      <c r="Z101" s="106"/>
+      <c r="AA101" s="128"/>
+      <c r="AB101" s="128"/>
+      <c r="AC101" s="128"/>
+      <c r="AD101" s="128"/>
+      <c r="AE101" s="128"/>
+      <c r="AF101" s="128"/>
+      <c r="AG101" s="128"/>
+      <c r="AH101" s="128"/>
+      <c r="AI101" s="128"/>
+      <c r="AJ101" s="102"/>
+      <c r="AK101" s="128"/>
+      <c r="AL101" s="128"/>
+      <c r="AM101" s="128"/>
+      <c r="AN101" s="128"/>
+      <c r="AO101" s="128"/>
+      <c r="AP101" s="128"/>
+      <c r="AQ101" s="128"/>
+      <c r="AR101" s="128"/>
+      <c r="AS101" s="128"/>
+      <c r="AT101" s="128"/>
+      <c r="AU101" s="128"/>
+      <c r="AV101" s="102"/>
+    </row>
+    <row r="102" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N102" s="106"/>
+      <c r="O102" s="128"/>
+      <c r="P102" s="128"/>
+      <c r="Q102" s="128"/>
+      <c r="R102" s="128"/>
+      <c r="S102" s="128"/>
+      <c r="T102" s="128"/>
+      <c r="U102" s="128"/>
+      <c r="V102" s="128"/>
+      <c r="W102" s="128"/>
+      <c r="X102" s="128"/>
+      <c r="Y102" s="102"/>
+      <c r="Z102" s="106"/>
+      <c r="AA102" s="128"/>
+      <c r="AB102" s="128"/>
+      <c r="AC102" s="128"/>
+      <c r="AD102" s="128"/>
+      <c r="AE102" s="128"/>
+      <c r="AF102" s="128"/>
+      <c r="AG102" s="128"/>
+      <c r="AH102" s="128"/>
+      <c r="AI102" s="128"/>
+      <c r="AJ102" s="102"/>
+      <c r="AK102" s="128"/>
+      <c r="AL102" s="128"/>
+      <c r="AM102" s="128"/>
+      <c r="AN102" s="128"/>
+      <c r="AO102" s="128"/>
+      <c r="AP102" s="128"/>
+      <c r="AQ102" s="128"/>
+      <c r="AR102" s="128"/>
+      <c r="AS102" s="128"/>
+      <c r="AT102" s="128"/>
+      <c r="AU102" s="128"/>
+      <c r="AV102" s="102"/>
+    </row>
+    <row r="103" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N103" s="106"/>
+      <c r="O103" s="128"/>
+      <c r="P103" s="128"/>
+      <c r="Q103" s="128"/>
+      <c r="R103" s="128"/>
+      <c r="S103" s="128"/>
+      <c r="T103" s="128"/>
+      <c r="U103" s="128"/>
+      <c r="V103" s="128"/>
+      <c r="W103" s="128"/>
+      <c r="X103" s="128"/>
+      <c r="Y103" s="102"/>
+      <c r="Z103" s="106"/>
+      <c r="AA103" s="128"/>
+      <c r="AB103" s="128"/>
+      <c r="AC103" s="128"/>
+      <c r="AD103" s="128"/>
+      <c r="AE103" s="128"/>
+      <c r="AF103" s="128"/>
+      <c r="AG103" s="128"/>
+      <c r="AH103" s="128"/>
+      <c r="AI103" s="128"/>
+      <c r="AJ103" s="102"/>
+      <c r="AK103" s="128"/>
+      <c r="AL103" s="128"/>
+      <c r="AM103" s="128"/>
+      <c r="AN103" s="128"/>
+      <c r="AO103" s="128"/>
+      <c r="AP103" s="128"/>
+      <c r="AQ103" s="128"/>
+      <c r="AR103" s="128"/>
+      <c r="AS103" s="128"/>
+      <c r="AT103" s="128"/>
+      <c r="AU103" s="128"/>
+      <c r="AV103" s="102"/>
+    </row>
+    <row r="104" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N104" s="106"/>
+      <c r="O104" s="128"/>
+      <c r="P104" s="128"/>
+      <c r="Q104" s="128"/>
+      <c r="R104" s="128"/>
+      <c r="S104" s="128"/>
+      <c r="T104" s="128"/>
+      <c r="U104" s="128"/>
+      <c r="V104" s="128"/>
+      <c r="W104" s="128"/>
+      <c r="X104" s="128"/>
+      <c r="Y104" s="102"/>
+      <c r="Z104" s="106"/>
+      <c r="AA104" s="128"/>
+      <c r="AB104" s="128"/>
+      <c r="AC104" s="128"/>
+      <c r="AD104" s="128"/>
+      <c r="AE104" s="128"/>
+      <c r="AF104" s="128"/>
+      <c r="AG104" s="128"/>
+      <c r="AH104" s="128"/>
+      <c r="AI104" s="128"/>
+      <c r="AJ104" s="102"/>
+      <c r="AK104" s="128"/>
+      <c r="AL104" s="128"/>
+      <c r="AM104" s="128"/>
+      <c r="AN104" s="128"/>
+      <c r="AO104" s="128"/>
+      <c r="AP104" s="128"/>
+      <c r="AQ104" s="128"/>
+      <c r="AR104" s="128"/>
+      <c r="AS104" s="128"/>
+      <c r="AT104" s="128"/>
+      <c r="AU104" s="128"/>
+      <c r="AV104" s="102"/>
+    </row>
+    <row r="105" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N105" s="106"/>
+      <c r="O105" s="128"/>
+      <c r="P105" s="128"/>
+      <c r="Q105" s="128"/>
+      <c r="R105" s="128"/>
+      <c r="S105" s="128"/>
+      <c r="T105" s="128"/>
+      <c r="U105" s="128"/>
+      <c r="V105" s="128"/>
+      <c r="W105" s="128"/>
+      <c r="X105" s="128"/>
+      <c r="Y105" s="102"/>
+      <c r="Z105" s="106"/>
+      <c r="AA105" s="128"/>
+      <c r="AB105" s="128"/>
+      <c r="AC105" s="128"/>
+      <c r="AD105" s="128"/>
+      <c r="AE105" s="128"/>
+      <c r="AF105" s="128"/>
+      <c r="AG105" s="128"/>
+      <c r="AH105" s="128"/>
+      <c r="AI105" s="128"/>
+      <c r="AJ105" s="102"/>
+      <c r="AK105" s="128"/>
+      <c r="AL105" s="128"/>
+      <c r="AM105" s="128"/>
+      <c r="AN105" s="128"/>
+      <c r="AO105" s="128"/>
+      <c r="AP105" s="128"/>
+      <c r="AQ105" s="128"/>
+      <c r="AR105" s="128"/>
+      <c r="AS105" s="128"/>
+      <c r="AT105" s="128"/>
+      <c r="AU105" s="128"/>
+      <c r="AV105" s="102"/>
+    </row>
+    <row r="106" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N106" s="106"/>
+      <c r="O106" s="128"/>
+      <c r="P106" s="128"/>
+      <c r="Q106" s="128"/>
+      <c r="R106" s="128"/>
+      <c r="S106" s="128"/>
+      <c r="T106" s="128"/>
+      <c r="U106" s="128"/>
+      <c r="V106" s="128"/>
+      <c r="W106" s="128"/>
+      <c r="X106" s="128"/>
+      <c r="Y106" s="102"/>
+      <c r="Z106" s="106"/>
+      <c r="AA106" s="128"/>
+      <c r="AB106" s="128"/>
+      <c r="AC106" s="128"/>
+      <c r="AD106" s="128"/>
+      <c r="AE106" s="128"/>
+      <c r="AF106" s="128"/>
+      <c r="AG106" s="128"/>
+      <c r="AH106" s="128"/>
+      <c r="AI106" s="128"/>
+      <c r="AJ106" s="102"/>
+      <c r="AK106" s="128"/>
+      <c r="AL106" s="128"/>
+      <c r="AM106" s="128"/>
+      <c r="AN106" s="128"/>
+      <c r="AO106" s="128"/>
+      <c r="AP106" s="128"/>
+      <c r="AQ106" s="128"/>
+      <c r="AR106" s="128"/>
+      <c r="AS106" s="128"/>
+      <c r="AT106" s="128"/>
+      <c r="AU106" s="128"/>
+      <c r="AV106" s="102"/>
+    </row>
+    <row r="107" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N107" s="106"/>
+      <c r="O107" s="128"/>
+      <c r="P107" s="128"/>
+      <c r="Q107" s="128"/>
+      <c r="R107" s="128"/>
+      <c r="S107" s="128"/>
+      <c r="T107" s="128"/>
+      <c r="U107" s="128"/>
+      <c r="V107" s="128"/>
+      <c r="W107" s="128"/>
+      <c r="X107" s="128"/>
+      <c r="Y107" s="102"/>
+      <c r="Z107" s="106"/>
+      <c r="AA107" s="128"/>
+      <c r="AB107" s="128"/>
+      <c r="AC107" s="128"/>
+      <c r="AD107" s="128"/>
+      <c r="AE107" s="128"/>
+      <c r="AF107" s="128"/>
+      <c r="AG107" s="128"/>
+      <c r="AH107" s="128"/>
+      <c r="AI107" s="128"/>
+      <c r="AJ107" s="102"/>
+      <c r="AK107" s="128"/>
+      <c r="AL107" s="128"/>
+      <c r="AM107" s="128"/>
+      <c r="AN107" s="128"/>
+      <c r="AO107" s="128"/>
+      <c r="AP107" s="128"/>
+      <c r="AQ107" s="128"/>
+      <c r="AR107" s="128"/>
+      <c r="AS107" s="128"/>
+      <c r="AT107" s="128"/>
+      <c r="AU107" s="128"/>
+      <c r="AV107" s="102"/>
+    </row>
+    <row r="108" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N108" s="106"/>
+      <c r="O108" s="128"/>
+      <c r="P108" s="128"/>
+      <c r="Q108" s="128"/>
+      <c r="R108" s="128"/>
+      <c r="S108" s="128"/>
+      <c r="T108" s="128"/>
+      <c r="U108" s="128"/>
+      <c r="V108" s="128"/>
+      <c r="W108" s="128"/>
+      <c r="X108" s="128"/>
+      <c r="Y108" s="102"/>
+      <c r="Z108" s="106"/>
+      <c r="AA108" s="128"/>
+      <c r="AB108" s="128"/>
+      <c r="AC108" s="128"/>
+      <c r="AD108" s="128"/>
+      <c r="AE108" s="128"/>
+      <c r="AF108" s="128"/>
+      <c r="AG108" s="128"/>
+      <c r="AH108" s="128"/>
+      <c r="AI108" s="128"/>
+      <c r="AJ108" s="102"/>
+      <c r="AK108" s="128"/>
+      <c r="AL108" s="128"/>
+      <c r="AM108" s="128"/>
+      <c r="AN108" s="128"/>
+      <c r="AO108" s="128"/>
+      <c r="AP108" s="128"/>
+      <c r="AQ108" s="128"/>
+      <c r="AR108" s="128"/>
+      <c r="AS108" s="128"/>
+      <c r="AT108" s="128"/>
+      <c r="AU108" s="128"/>
+      <c r="AV108" s="102"/>
+    </row>
+    <row r="109" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N109" s="106"/>
+      <c r="O109" s="128"/>
+      <c r="P109" s="128"/>
+      <c r="Q109" s="128"/>
+      <c r="R109" s="128"/>
+      <c r="S109" s="128"/>
+      <c r="T109" s="128"/>
+      <c r="U109" s="128"/>
+      <c r="V109" s="128"/>
+      <c r="W109" s="128"/>
+      <c r="X109" s="128"/>
+      <c r="Y109" s="102"/>
+      <c r="Z109" s="106"/>
+      <c r="AA109" s="128"/>
+      <c r="AB109" s="128"/>
+      <c r="AC109" s="128"/>
+      <c r="AD109" s="128"/>
+      <c r="AE109" s="128"/>
+      <c r="AF109" s="128"/>
+      <c r="AG109" s="128"/>
+      <c r="AH109" s="128"/>
+      <c r="AI109" s="128"/>
+      <c r="AJ109" s="102"/>
+      <c r="AK109" s="128"/>
+      <c r="AL109" s="128"/>
+      <c r="AM109" s="128"/>
+      <c r="AN109" s="128"/>
+      <c r="AO109" s="128"/>
+      <c r="AP109" s="128"/>
+      <c r="AQ109" s="128"/>
+      <c r="AR109" s="128"/>
+      <c r="AS109" s="128"/>
+      <c r="AT109" s="128"/>
+      <c r="AU109" s="128"/>
+      <c r="AV109" s="102"/>
+    </row>
+    <row r="110" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N110" s="106"/>
+      <c r="O110" s="128"/>
+      <c r="P110" s="128"/>
+      <c r="Q110" s="128"/>
+      <c r="R110" s="128"/>
+      <c r="S110" s="128"/>
+      <c r="T110" s="128"/>
+      <c r="U110" s="128"/>
+      <c r="V110" s="128"/>
+      <c r="W110" s="128"/>
+      <c r="X110" s="128"/>
+      <c r="Y110" s="102"/>
+      <c r="Z110" s="106"/>
+      <c r="AA110" s="128"/>
+      <c r="AB110" s="128"/>
+      <c r="AC110" s="128"/>
+      <c r="AD110" s="128"/>
+      <c r="AE110" s="128"/>
+      <c r="AF110" s="128"/>
+      <c r="AG110" s="128"/>
+      <c r="AH110" s="128"/>
+      <c r="AI110" s="128"/>
+      <c r="AJ110" s="102"/>
+      <c r="AK110" s="128"/>
+      <c r="AL110" s="128"/>
+      <c r="AM110" s="128"/>
+      <c r="AN110" s="128"/>
+      <c r="AO110" s="128"/>
+      <c r="AP110" s="128"/>
+      <c r="AQ110" s="128"/>
+      <c r="AR110" s="128"/>
+      <c r="AS110" s="128"/>
+      <c r="AT110" s="128"/>
+      <c r="AU110" s="128"/>
+      <c r="AV110" s="102"/>
+    </row>
+    <row r="111" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N111" s="106"/>
+      <c r="O111" s="128"/>
+      <c r="P111" s="128"/>
+      <c r="Q111" s="128"/>
+      <c r="R111" s="128"/>
+      <c r="S111" s="128"/>
+      <c r="T111" s="128"/>
+      <c r="U111" s="128"/>
+      <c r="V111" s="128"/>
+      <c r="W111" s="128"/>
+      <c r="X111" s="128"/>
+      <c r="Y111" s="102"/>
+      <c r="Z111" s="106"/>
+      <c r="AA111" s="128"/>
+      <c r="AB111" s="128"/>
+      <c r="AC111" s="128"/>
+      <c r="AD111" s="128"/>
+      <c r="AE111" s="128"/>
+      <c r="AF111" s="128"/>
+      <c r="AG111" s="128"/>
+      <c r="AH111" s="128"/>
+      <c r="AI111" s="128"/>
+      <c r="AJ111" s="102"/>
+      <c r="AK111" s="128"/>
+      <c r="AL111" s="128"/>
+      <c r="AM111" s="128"/>
+      <c r="AN111" s="128"/>
+      <c r="AO111" s="128"/>
+      <c r="AP111" s="128"/>
+      <c r="AQ111" s="128"/>
+      <c r="AR111" s="128"/>
+      <c r="AS111" s="128"/>
+      <c r="AT111" s="128"/>
+      <c r="AU111" s="128"/>
+      <c r="AV111" s="102"/>
+    </row>
+    <row r="112" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N112" s="106"/>
+      <c r="O112" s="128"/>
+      <c r="P112" s="128"/>
+      <c r="Q112" s="128"/>
+      <c r="R112" s="128"/>
+      <c r="S112" s="128"/>
+      <c r="T112" s="128"/>
+      <c r="U112" s="128"/>
+      <c r="V112" s="128"/>
+      <c r="W112" s="128"/>
+      <c r="X112" s="128"/>
+      <c r="Y112" s="102"/>
+      <c r="Z112" s="106"/>
+      <c r="AA112" s="128"/>
+      <c r="AB112" s="128"/>
+      <c r="AC112" s="128"/>
+      <c r="AD112" s="128"/>
+      <c r="AE112" s="128"/>
+      <c r="AF112" s="128"/>
+      <c r="AG112" s="128"/>
+      <c r="AH112" s="128"/>
+      <c r="AI112" s="128"/>
+      <c r="AJ112" s="102"/>
+      <c r="AK112" s="128"/>
+      <c r="AL112" s="128"/>
+      <c r="AM112" s="128"/>
+      <c r="AN112" s="128"/>
+      <c r="AO112" s="128"/>
+      <c r="AP112" s="128"/>
+      <c r="AQ112" s="128"/>
+      <c r="AR112" s="128"/>
+      <c r="AS112" s="128"/>
+      <c r="AT112" s="128"/>
+      <c r="AU112" s="128"/>
+      <c r="AV112" s="102"/>
+    </row>
+    <row r="113" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N113" s="106"/>
+      <c r="O113" s="128"/>
+      <c r="P113" s="128"/>
+      <c r="Q113" s="128"/>
+      <c r="R113" s="128"/>
+      <c r="S113" s="128"/>
+      <c r="T113" s="128"/>
+      <c r="U113" s="128"/>
+      <c r="V113" s="128"/>
+      <c r="W113" s="128"/>
+      <c r="X113" s="128"/>
+      <c r="Y113" s="102"/>
+      <c r="Z113" s="106"/>
+      <c r="AA113" s="128"/>
+      <c r="AB113" s="128"/>
+      <c r="AC113" s="128"/>
+      <c r="AD113" s="128"/>
+      <c r="AE113" s="128"/>
+      <c r="AF113" s="128"/>
+      <c r="AG113" s="128"/>
+      <c r="AH113" s="128"/>
+      <c r="AI113" s="128"/>
+      <c r="AJ113" s="102"/>
+      <c r="AK113" s="128"/>
+      <c r="AL113" s="128"/>
+      <c r="AM113" s="128"/>
+      <c r="AN113" s="128"/>
+      <c r="AO113" s="128"/>
+      <c r="AP113" s="128"/>
+      <c r="AQ113" s="128"/>
+      <c r="AR113" s="128"/>
+      <c r="AS113" s="128"/>
+      <c r="AT113" s="128"/>
+      <c r="AU113" s="128"/>
+      <c r="AV113" s="102"/>
+    </row>
+    <row r="114" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N114" s="106"/>
+      <c r="O114" s="128"/>
+      <c r="P114" s="128"/>
+      <c r="Q114" s="128"/>
+      <c r="R114" s="128"/>
+      <c r="S114" s="128"/>
+      <c r="T114" s="128"/>
+      <c r="U114" s="128"/>
+      <c r="V114" s="128"/>
+      <c r="W114" s="128"/>
+      <c r="X114" s="128"/>
+      <c r="Y114" s="102"/>
+      <c r="Z114" s="106"/>
+      <c r="AA114" s="128"/>
+      <c r="AB114" s="128"/>
+      <c r="AC114" s="128"/>
+      <c r="AD114" s="128"/>
+      <c r="AE114" s="128"/>
+      <c r="AF114" s="128"/>
+      <c r="AG114" s="128"/>
+      <c r="AH114" s="128"/>
+      <c r="AI114" s="128"/>
+      <c r="AJ114" s="102"/>
+      <c r="AK114" s="128"/>
+      <c r="AL114" s="128"/>
+      <c r="AM114" s="128"/>
+      <c r="AN114" s="128"/>
+      <c r="AO114" s="128"/>
+      <c r="AP114" s="128"/>
+      <c r="AQ114" s="128"/>
+      <c r="AR114" s="128"/>
+      <c r="AS114" s="128"/>
+      <c r="AT114" s="128"/>
+      <c r="AU114" s="128"/>
+      <c r="AV114" s="102"/>
+    </row>
+    <row r="115" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N115" s="106"/>
+      <c r="O115" s="128"/>
+      <c r="P115" s="128"/>
+      <c r="Q115" s="128"/>
+      <c r="R115" s="128"/>
+      <c r="S115" s="128"/>
+      <c r="T115" s="128"/>
+      <c r="U115" s="128"/>
+      <c r="V115" s="128"/>
+      <c r="W115" s="128"/>
+      <c r="X115" s="128"/>
+      <c r="Y115" s="102"/>
+      <c r="Z115" s="106"/>
+      <c r="AA115" s="128"/>
+      <c r="AB115" s="128"/>
+      <c r="AC115" s="128"/>
+      <c r="AD115" s="128"/>
+      <c r="AE115" s="128"/>
+      <c r="AF115" s="128"/>
+      <c r="AG115" s="128"/>
+      <c r="AH115" s="128"/>
+      <c r="AI115" s="128"/>
+      <c r="AJ115" s="102"/>
+      <c r="AK115" s="128"/>
+      <c r="AL115" s="128"/>
+      <c r="AM115" s="128"/>
+      <c r="AN115" s="128"/>
+      <c r="AO115" s="128"/>
+      <c r="AP115" s="128"/>
+      <c r="AQ115" s="128"/>
+      <c r="AR115" s="128"/>
+      <c r="AS115" s="128"/>
+      <c r="AT115" s="128"/>
+      <c r="AU115" s="128"/>
+      <c r="AV115" s="102"/>
+    </row>
+    <row r="116" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N116" s="106"/>
+      <c r="O116" s="128"/>
+      <c r="P116" s="128"/>
+      <c r="Q116" s="128"/>
+      <c r="R116" s="128"/>
+      <c r="S116" s="128"/>
+      <c r="T116" s="128"/>
+      <c r="U116" s="128"/>
+      <c r="V116" s="128"/>
+      <c r="W116" s="128"/>
+      <c r="X116" s="128"/>
+      <c r="Y116" s="102"/>
+      <c r="Z116" s="106"/>
+      <c r="AA116" s="128"/>
+      <c r="AB116" s="128"/>
+      <c r="AC116" s="128"/>
+      <c r="AD116" s="128"/>
+      <c r="AE116" s="128"/>
+      <c r="AF116" s="128"/>
+      <c r="AG116" s="128"/>
+      <c r="AH116" s="128"/>
+      <c r="AI116" s="128"/>
+      <c r="AJ116" s="102"/>
+      <c r="AK116" s="128"/>
+      <c r="AL116" s="128"/>
+      <c r="AM116" s="128"/>
+      <c r="AN116" s="128"/>
+      <c r="AO116" s="128"/>
+      <c r="AP116" s="128"/>
+      <c r="AQ116" s="128"/>
+      <c r="AR116" s="128"/>
+      <c r="AS116" s="128"/>
+      <c r="AT116" s="128"/>
+      <c r="AU116" s="128"/>
+      <c r="AV116" s="102"/>
+    </row>
+    <row r="117" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N117" s="106"/>
+      <c r="O117" s="128"/>
+      <c r="P117" s="128"/>
+      <c r="Q117" s="128"/>
+      <c r="R117" s="128"/>
+      <c r="S117" s="128"/>
+      <c r="T117" s="128"/>
+      <c r="U117" s="128"/>
+      <c r="V117" s="128"/>
+      <c r="W117" s="128"/>
+      <c r="X117" s="128"/>
+      <c r="Y117" s="102"/>
+      <c r="Z117" s="106"/>
+      <c r="AA117" s="128"/>
+      <c r="AB117" s="128"/>
+      <c r="AC117" s="128"/>
+      <c r="AD117" s="128"/>
+      <c r="AE117" s="128"/>
+      <c r="AF117" s="128"/>
+      <c r="AG117" s="128"/>
+      <c r="AH117" s="128"/>
+      <c r="AI117" s="128"/>
+      <c r="AJ117" s="102"/>
+      <c r="AK117" s="128"/>
+      <c r="AL117" s="128"/>
+      <c r="AM117" s="128"/>
+      <c r="AN117" s="128"/>
+      <c r="AO117" s="128"/>
+      <c r="AP117" s="128"/>
+      <c r="AQ117" s="128"/>
+      <c r="AR117" s="128"/>
+      <c r="AS117" s="128"/>
+      <c r="AT117" s="128"/>
+      <c r="AU117" s="128"/>
+      <c r="AV117" s="102"/>
+    </row>
+    <row r="118" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N118" s="106"/>
+      <c r="O118" s="128"/>
+      <c r="P118" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="AA118" t="s">
+      <c r="Q118" s="128"/>
+      <c r="R118" s="128"/>
+      <c r="S118" s="128"/>
+      <c r="T118" s="128"/>
+      <c r="U118" s="128"/>
+      <c r="V118" s="128"/>
+      <c r="W118" s="128"/>
+      <c r="X118" s="128"/>
+      <c r="Y118" s="102"/>
+      <c r="Z118" s="106"/>
+      <c r="AA118" s="128" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="119" spans="16:38" x14ac:dyDescent="0.25">
-      <c r="AL119" t="s">
+      <c r="AB118" s="128"/>
+      <c r="AC118" s="128"/>
+      <c r="AD118" s="128"/>
+      <c r="AE118" s="128"/>
+      <c r="AF118" s="128"/>
+      <c r="AG118" s="128"/>
+      <c r="AH118" s="128"/>
+      <c r="AI118" s="128"/>
+      <c r="AJ118" s="102"/>
+      <c r="AK118" s="128"/>
+      <c r="AL118" s="128"/>
+      <c r="AM118" s="128"/>
+      <c r="AN118" s="128"/>
+      <c r="AO118" s="128"/>
+      <c r="AP118" s="128"/>
+      <c r="AQ118" s="128"/>
+      <c r="AR118" s="128"/>
+      <c r="AS118" s="128"/>
+      <c r="AT118" s="128"/>
+      <c r="AU118" s="128"/>
+      <c r="AV118" s="102"/>
+    </row>
+    <row r="119" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N119" s="106"/>
+      <c r="O119" s="128"/>
+      <c r="P119" s="128"/>
+      <c r="Q119" s="128"/>
+      <c r="R119" s="128"/>
+      <c r="S119" s="128"/>
+      <c r="T119" s="128"/>
+      <c r="U119" s="128"/>
+      <c r="V119" s="128"/>
+      <c r="W119" s="128"/>
+      <c r="X119" s="128"/>
+      <c r="Y119" s="102"/>
+      <c r="Z119" s="106"/>
+      <c r="AA119" s="128"/>
+      <c r="AB119" s="128"/>
+      <c r="AC119" s="128"/>
+      <c r="AD119" s="128"/>
+      <c r="AE119" s="128"/>
+      <c r="AF119" s="128"/>
+      <c r="AG119" s="128"/>
+      <c r="AH119" s="128"/>
+      <c r="AI119" s="128"/>
+      <c r="AJ119" s="102"/>
+      <c r="AK119" s="128"/>
+      <c r="AL119" s="128" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="144" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P144" t="s">
+      <c r="AM119" s="128"/>
+      <c r="AN119" s="128"/>
+      <c r="AO119" s="128"/>
+      <c r="AP119" s="128"/>
+      <c r="AQ119" s="128"/>
+      <c r="AR119" s="128"/>
+      <c r="AS119" s="128"/>
+      <c r="AT119" s="128"/>
+      <c r="AU119" s="128"/>
+      <c r="AV119" s="102"/>
+    </row>
+    <row r="120" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N120" s="106"/>
+      <c r="O120" s="128"/>
+      <c r="P120" s="128"/>
+      <c r="Q120" s="128"/>
+      <c r="R120" s="128"/>
+      <c r="S120" s="128"/>
+      <c r="T120" s="128"/>
+      <c r="U120" s="128"/>
+      <c r="V120" s="128"/>
+      <c r="W120" s="128"/>
+      <c r="X120" s="128"/>
+      <c r="Y120" s="102"/>
+      <c r="Z120" s="106"/>
+      <c r="AA120" s="128"/>
+      <c r="AB120" s="128"/>
+      <c r="AC120" s="128"/>
+      <c r="AD120" s="128"/>
+      <c r="AE120" s="128"/>
+      <c r="AF120" s="128"/>
+      <c r="AG120" s="128"/>
+      <c r="AH120" s="128"/>
+      <c r="AI120" s="128"/>
+      <c r="AJ120" s="102"/>
+      <c r="AK120" s="128"/>
+      <c r="AL120" s="128"/>
+      <c r="AM120" s="128"/>
+      <c r="AN120" s="128"/>
+      <c r="AO120" s="128"/>
+      <c r="AP120" s="128"/>
+      <c r="AQ120" s="128"/>
+      <c r="AR120" s="128"/>
+      <c r="AS120" s="128"/>
+      <c r="AT120" s="128"/>
+      <c r="AU120" s="128"/>
+      <c r="AV120" s="102"/>
+    </row>
+    <row r="121" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N121" s="106"/>
+      <c r="O121" s="128"/>
+      <c r="P121" s="128"/>
+      <c r="Q121" s="128"/>
+      <c r="R121" s="128"/>
+      <c r="S121" s="128"/>
+      <c r="T121" s="128"/>
+      <c r="U121" s="128"/>
+      <c r="V121" s="128"/>
+      <c r="W121" s="128"/>
+      <c r="X121" s="128"/>
+      <c r="Y121" s="102"/>
+      <c r="Z121" s="106"/>
+      <c r="AA121" s="128"/>
+      <c r="AB121" s="128"/>
+      <c r="AC121" s="128"/>
+      <c r="AD121" s="128"/>
+      <c r="AE121" s="128"/>
+      <c r="AF121" s="128"/>
+      <c r="AG121" s="128"/>
+      <c r="AH121" s="128"/>
+      <c r="AI121" s="128"/>
+      <c r="AJ121" s="102"/>
+      <c r="AK121" s="128"/>
+      <c r="AL121" s="128"/>
+      <c r="AM121" s="128"/>
+      <c r="AN121" s="128"/>
+      <c r="AO121" s="128"/>
+      <c r="AP121" s="128"/>
+      <c r="AQ121" s="128"/>
+      <c r="AR121" s="128"/>
+      <c r="AS121" s="128"/>
+      <c r="AT121" s="128"/>
+      <c r="AU121" s="128"/>
+      <c r="AV121" s="102"/>
+    </row>
+    <row r="122" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N122" s="106"/>
+      <c r="O122" s="128"/>
+      <c r="P122" s="128"/>
+      <c r="Q122" s="128"/>
+      <c r="R122" s="128"/>
+      <c r="S122" s="128"/>
+      <c r="T122" s="128"/>
+      <c r="U122" s="128"/>
+      <c r="V122" s="128"/>
+      <c r="W122" s="128"/>
+      <c r="X122" s="128"/>
+      <c r="Y122" s="102"/>
+      <c r="Z122" s="106"/>
+      <c r="AA122" s="128"/>
+      <c r="AB122" s="128"/>
+      <c r="AC122" s="128"/>
+      <c r="AD122" s="128"/>
+      <c r="AE122" s="128"/>
+      <c r="AF122" s="128"/>
+      <c r="AG122" s="128"/>
+      <c r="AH122" s="128"/>
+      <c r="AI122" s="128"/>
+      <c r="AJ122" s="102"/>
+      <c r="AK122" s="128"/>
+      <c r="AL122" s="128"/>
+      <c r="AM122" s="128"/>
+      <c r="AN122" s="128"/>
+      <c r="AO122" s="128"/>
+      <c r="AP122" s="128"/>
+      <c r="AQ122" s="128"/>
+      <c r="AR122" s="128"/>
+      <c r="AS122" s="128"/>
+      <c r="AT122" s="128"/>
+      <c r="AU122" s="128"/>
+      <c r="AV122" s="102"/>
+    </row>
+    <row r="123" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N123" s="106"/>
+      <c r="O123" s="128"/>
+      <c r="P123" s="128"/>
+      <c r="Q123" s="128"/>
+      <c r="R123" s="128"/>
+      <c r="S123" s="128"/>
+      <c r="T123" s="128"/>
+      <c r="U123" s="128"/>
+      <c r="V123" s="128"/>
+      <c r="W123" s="128"/>
+      <c r="X123" s="128"/>
+      <c r="Y123" s="102"/>
+      <c r="Z123" s="106"/>
+      <c r="AA123" s="128"/>
+      <c r="AB123" s="128"/>
+      <c r="AC123" s="128"/>
+      <c r="AD123" s="128"/>
+      <c r="AE123" s="128"/>
+      <c r="AF123" s="128"/>
+      <c r="AG123" s="128"/>
+      <c r="AH123" s="128"/>
+      <c r="AI123" s="128"/>
+      <c r="AJ123" s="102"/>
+      <c r="AK123" s="128"/>
+      <c r="AL123" s="128"/>
+      <c r="AM123" s="128"/>
+      <c r="AN123" s="128"/>
+      <c r="AO123" s="128"/>
+      <c r="AP123" s="128"/>
+      <c r="AQ123" s="128"/>
+      <c r="AR123" s="128"/>
+      <c r="AS123" s="128"/>
+      <c r="AT123" s="128"/>
+      <c r="AU123" s="128"/>
+      <c r="AV123" s="102"/>
+    </row>
+    <row r="124" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N124" s="106"/>
+      <c r="O124" s="128"/>
+      <c r="P124" s="128"/>
+      <c r="Q124" s="128"/>
+      <c r="R124" s="128"/>
+      <c r="S124" s="128"/>
+      <c r="T124" s="128"/>
+      <c r="U124" s="128"/>
+      <c r="V124" s="128"/>
+      <c r="W124" s="128"/>
+      <c r="X124" s="128"/>
+      <c r="Y124" s="102"/>
+      <c r="Z124" s="106"/>
+      <c r="AA124" s="128"/>
+      <c r="AB124" s="128"/>
+      <c r="AC124" s="128"/>
+      <c r="AD124" s="128"/>
+      <c r="AE124" s="128"/>
+      <c r="AF124" s="128"/>
+      <c r="AG124" s="128"/>
+      <c r="AH124" s="128"/>
+      <c r="AI124" s="128"/>
+      <c r="AJ124" s="102"/>
+      <c r="AK124" s="128"/>
+      <c r="AL124" s="128"/>
+      <c r="AM124" s="128"/>
+      <c r="AN124" s="128"/>
+      <c r="AO124" s="128"/>
+      <c r="AP124" s="128"/>
+      <c r="AQ124" s="128"/>
+      <c r="AR124" s="128"/>
+      <c r="AS124" s="128"/>
+      <c r="AT124" s="128"/>
+      <c r="AU124" s="128"/>
+      <c r="AV124" s="102"/>
+    </row>
+    <row r="125" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N125" s="106"/>
+      <c r="O125" s="128"/>
+      <c r="P125" s="128"/>
+      <c r="Q125" s="128"/>
+      <c r="R125" s="128"/>
+      <c r="S125" s="128"/>
+      <c r="T125" s="128"/>
+      <c r="U125" s="128"/>
+      <c r="V125" s="128"/>
+      <c r="W125" s="128"/>
+      <c r="X125" s="128"/>
+      <c r="Y125" s="102"/>
+      <c r="Z125" s="106"/>
+      <c r="AA125" s="128"/>
+      <c r="AB125" s="128"/>
+      <c r="AC125" s="128"/>
+      <c r="AD125" s="128"/>
+      <c r="AE125" s="128"/>
+      <c r="AF125" s="128"/>
+      <c r="AG125" s="128"/>
+      <c r="AH125" s="128"/>
+      <c r="AI125" s="128"/>
+      <c r="AJ125" s="102"/>
+      <c r="AK125" s="128"/>
+      <c r="AL125" s="128"/>
+      <c r="AM125" s="128"/>
+      <c r="AN125" s="128"/>
+      <c r="AO125" s="128"/>
+      <c r="AP125" s="128"/>
+      <c r="AQ125" s="128"/>
+      <c r="AR125" s="128"/>
+      <c r="AS125" s="128"/>
+      <c r="AT125" s="128"/>
+      <c r="AU125" s="128"/>
+      <c r="AV125" s="102"/>
+    </row>
+    <row r="126" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N126" s="106"/>
+      <c r="O126" s="128"/>
+      <c r="P126" s="128"/>
+      <c r="Q126" s="128"/>
+      <c r="R126" s="128"/>
+      <c r="S126" s="128"/>
+      <c r="T126" s="128"/>
+      <c r="U126" s="128"/>
+      <c r="V126" s="128"/>
+      <c r="W126" s="128"/>
+      <c r="X126" s="128"/>
+      <c r="Y126" s="102"/>
+      <c r="Z126" s="106"/>
+      <c r="AA126" s="128"/>
+      <c r="AB126" s="128"/>
+      <c r="AC126" s="128"/>
+      <c r="AD126" s="128"/>
+      <c r="AE126" s="128"/>
+      <c r="AF126" s="128"/>
+      <c r="AG126" s="128"/>
+      <c r="AH126" s="128"/>
+      <c r="AI126" s="128"/>
+      <c r="AJ126" s="102"/>
+      <c r="AK126" s="128"/>
+      <c r="AL126" s="128"/>
+      <c r="AM126" s="128"/>
+      <c r="AN126" s="128"/>
+      <c r="AO126" s="128"/>
+      <c r="AP126" s="128"/>
+      <c r="AQ126" s="128"/>
+      <c r="AR126" s="128"/>
+      <c r="AS126" s="128"/>
+      <c r="AT126" s="128"/>
+      <c r="AU126" s="128"/>
+      <c r="AV126" s="102"/>
+    </row>
+    <row r="127" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N127" s="106"/>
+      <c r="O127" s="128"/>
+      <c r="P127" s="128"/>
+      <c r="Q127" s="128"/>
+      <c r="R127" s="128"/>
+      <c r="S127" s="128"/>
+      <c r="T127" s="128"/>
+      <c r="U127" s="128"/>
+      <c r="V127" s="128"/>
+      <c r="W127" s="128"/>
+      <c r="X127" s="128"/>
+      <c r="Y127" s="102"/>
+      <c r="Z127" s="106"/>
+      <c r="AA127" s="128"/>
+      <c r="AB127" s="128"/>
+      <c r="AC127" s="128"/>
+      <c r="AD127" s="128"/>
+      <c r="AE127" s="128"/>
+      <c r="AF127" s="128"/>
+      <c r="AG127" s="128"/>
+      <c r="AH127" s="128"/>
+      <c r="AI127" s="128"/>
+      <c r="AJ127" s="102"/>
+      <c r="AK127" s="128"/>
+      <c r="AL127" s="128"/>
+      <c r="AM127" s="128"/>
+      <c r="AN127" s="128"/>
+      <c r="AO127" s="128"/>
+      <c r="AP127" s="128"/>
+      <c r="AQ127" s="128"/>
+      <c r="AR127" s="128"/>
+      <c r="AS127" s="128"/>
+      <c r="AT127" s="128"/>
+      <c r="AU127" s="128"/>
+      <c r="AV127" s="102"/>
+    </row>
+    <row r="128" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N128" s="106"/>
+      <c r="O128" s="128"/>
+      <c r="P128" s="128"/>
+      <c r="Q128" s="128"/>
+      <c r="R128" s="128"/>
+      <c r="S128" s="128"/>
+      <c r="T128" s="128"/>
+      <c r="U128" s="128"/>
+      <c r="V128" s="128"/>
+      <c r="W128" s="128"/>
+      <c r="X128" s="128"/>
+      <c r="Y128" s="102"/>
+      <c r="Z128" s="106"/>
+      <c r="AA128" s="128"/>
+      <c r="AB128" s="128"/>
+      <c r="AC128" s="128"/>
+      <c r="AD128" s="128"/>
+      <c r="AE128" s="128"/>
+      <c r="AF128" s="128"/>
+      <c r="AG128" s="128"/>
+      <c r="AH128" s="128"/>
+      <c r="AI128" s="128"/>
+      <c r="AJ128" s="102"/>
+      <c r="AK128" s="128"/>
+      <c r="AL128" s="128"/>
+      <c r="AM128" s="128"/>
+      <c r="AN128" s="128"/>
+      <c r="AO128" s="128"/>
+      <c r="AP128" s="128"/>
+      <c r="AQ128" s="128"/>
+      <c r="AR128" s="128"/>
+      <c r="AS128" s="128"/>
+      <c r="AT128" s="128"/>
+      <c r="AU128" s="128"/>
+      <c r="AV128" s="102"/>
+    </row>
+    <row r="129" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N129" s="106"/>
+      <c r="O129" s="128"/>
+      <c r="P129" s="128"/>
+      <c r="Q129" s="128"/>
+      <c r="R129" s="128"/>
+      <c r="S129" s="128"/>
+      <c r="T129" s="128"/>
+      <c r="U129" s="128"/>
+      <c r="V129" s="128"/>
+      <c r="W129" s="128"/>
+      <c r="X129" s="128"/>
+      <c r="Y129" s="102"/>
+      <c r="Z129" s="106"/>
+      <c r="AA129" s="128"/>
+      <c r="AB129" s="128"/>
+      <c r="AC129" s="128"/>
+      <c r="AD129" s="128"/>
+      <c r="AE129" s="128"/>
+      <c r="AF129" s="128"/>
+      <c r="AG129" s="128"/>
+      <c r="AH129" s="128"/>
+      <c r="AI129" s="128"/>
+      <c r="AJ129" s="102"/>
+      <c r="AK129" s="128"/>
+      <c r="AL129" s="128"/>
+      <c r="AM129" s="128"/>
+      <c r="AN129" s="128"/>
+      <c r="AO129" s="128"/>
+      <c r="AP129" s="128"/>
+      <c r="AQ129" s="128"/>
+      <c r="AR129" s="128"/>
+      <c r="AS129" s="128"/>
+      <c r="AT129" s="128"/>
+      <c r="AU129" s="128"/>
+      <c r="AV129" s="102"/>
+    </row>
+    <row r="130" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N130" s="106"/>
+      <c r="O130" s="128"/>
+      <c r="P130" s="128"/>
+      <c r="Q130" s="128"/>
+      <c r="R130" s="128"/>
+      <c r="S130" s="128"/>
+      <c r="T130" s="128"/>
+      <c r="U130" s="128"/>
+      <c r="V130" s="128"/>
+      <c r="W130" s="128"/>
+      <c r="X130" s="128"/>
+      <c r="Y130" s="102"/>
+      <c r="Z130" s="106"/>
+      <c r="AA130" s="128"/>
+      <c r="AB130" s="128"/>
+      <c r="AC130" s="128"/>
+      <c r="AD130" s="128"/>
+      <c r="AE130" s="128"/>
+      <c r="AF130" s="128"/>
+      <c r="AG130" s="128"/>
+      <c r="AH130" s="128"/>
+      <c r="AI130" s="128"/>
+      <c r="AJ130" s="102"/>
+      <c r="AK130" s="128"/>
+      <c r="AL130" s="128"/>
+      <c r="AM130" s="128"/>
+      <c r="AN130" s="128"/>
+      <c r="AO130" s="128"/>
+      <c r="AP130" s="128"/>
+      <c r="AQ130" s="128"/>
+      <c r="AR130" s="128"/>
+      <c r="AS130" s="128"/>
+      <c r="AT130" s="128"/>
+      <c r="AU130" s="128"/>
+      <c r="AV130" s="102"/>
+    </row>
+    <row r="131" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N131" s="106"/>
+      <c r="O131" s="128"/>
+      <c r="P131" s="128"/>
+      <c r="Q131" s="128"/>
+      <c r="R131" s="128"/>
+      <c r="S131" s="128"/>
+      <c r="T131" s="128"/>
+      <c r="U131" s="128"/>
+      <c r="V131" s="128"/>
+      <c r="W131" s="128"/>
+      <c r="X131" s="128"/>
+      <c r="Y131" s="102"/>
+      <c r="Z131" s="106"/>
+      <c r="AA131" s="128"/>
+      <c r="AB131" s="128"/>
+      <c r="AC131" s="128"/>
+      <c r="AD131" s="128"/>
+      <c r="AE131" s="128"/>
+      <c r="AF131" s="128"/>
+      <c r="AG131" s="128"/>
+      <c r="AH131" s="128"/>
+      <c r="AI131" s="128"/>
+      <c r="AJ131" s="102"/>
+      <c r="AK131" s="128"/>
+      <c r="AL131" s="128"/>
+      <c r="AM131" s="128"/>
+      <c r="AN131" s="128"/>
+      <c r="AO131" s="128"/>
+      <c r="AP131" s="128"/>
+      <c r="AQ131" s="128"/>
+      <c r="AR131" s="128"/>
+      <c r="AS131" s="128"/>
+      <c r="AT131" s="128"/>
+      <c r="AU131" s="128"/>
+      <c r="AV131" s="102"/>
+    </row>
+    <row r="132" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N132" s="106"/>
+      <c r="O132" s="128"/>
+      <c r="P132" s="128"/>
+      <c r="Q132" s="128"/>
+      <c r="R132" s="128"/>
+      <c r="S132" s="128"/>
+      <c r="T132" s="128"/>
+      <c r="U132" s="128"/>
+      <c r="V132" s="128"/>
+      <c r="W132" s="128"/>
+      <c r="X132" s="128"/>
+      <c r="Y132" s="102"/>
+      <c r="Z132" s="106"/>
+      <c r="AA132" s="128"/>
+      <c r="AB132" s="128"/>
+      <c r="AC132" s="128"/>
+      <c r="AD132" s="128"/>
+      <c r="AE132" s="128"/>
+      <c r="AF132" s="128"/>
+      <c r="AG132" s="128"/>
+      <c r="AH132" s="128"/>
+      <c r="AI132" s="128"/>
+      <c r="AJ132" s="102"/>
+      <c r="AK132" s="128"/>
+      <c r="AL132" s="128"/>
+      <c r="AM132" s="128"/>
+      <c r="AN132" s="128"/>
+      <c r="AO132" s="128"/>
+      <c r="AP132" s="128"/>
+      <c r="AQ132" s="128"/>
+      <c r="AR132" s="128"/>
+      <c r="AS132" s="128"/>
+      <c r="AT132" s="128"/>
+      <c r="AU132" s="128"/>
+      <c r="AV132" s="102"/>
+    </row>
+    <row r="133" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N133" s="106"/>
+      <c r="O133" s="128"/>
+      <c r="P133" s="128"/>
+      <c r="Q133" s="128"/>
+      <c r="R133" s="128"/>
+      <c r="S133" s="128"/>
+      <c r="T133" s="128"/>
+      <c r="U133" s="128"/>
+      <c r="V133" s="128"/>
+      <c r="W133" s="128"/>
+      <c r="X133" s="128"/>
+      <c r="Y133" s="102"/>
+      <c r="Z133" s="106"/>
+      <c r="AA133" s="128"/>
+      <c r="AB133" s="128"/>
+      <c r="AC133" s="128"/>
+      <c r="AD133" s="128"/>
+      <c r="AE133" s="128"/>
+      <c r="AF133" s="128"/>
+      <c r="AG133" s="128"/>
+      <c r="AH133" s="128"/>
+      <c r="AI133" s="128"/>
+      <c r="AJ133" s="102"/>
+      <c r="AK133" s="128"/>
+      <c r="AL133" s="128"/>
+      <c r="AM133" s="128"/>
+      <c r="AN133" s="128"/>
+      <c r="AO133" s="128"/>
+      <c r="AP133" s="128"/>
+      <c r="AQ133" s="128"/>
+      <c r="AR133" s="128"/>
+      <c r="AS133" s="128"/>
+      <c r="AT133" s="128"/>
+      <c r="AU133" s="128"/>
+      <c r="AV133" s="102"/>
+    </row>
+    <row r="134" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N134" s="106"/>
+      <c r="O134" s="128"/>
+      <c r="P134" s="128"/>
+      <c r="Q134" s="128"/>
+      <c r="R134" s="128"/>
+      <c r="S134" s="128"/>
+      <c r="T134" s="128"/>
+      <c r="U134" s="128"/>
+      <c r="V134" s="128"/>
+      <c r="W134" s="128"/>
+      <c r="X134" s="128"/>
+      <c r="Y134" s="102"/>
+      <c r="Z134" s="106"/>
+      <c r="AA134" s="128"/>
+      <c r="AB134" s="128"/>
+      <c r="AC134" s="128"/>
+      <c r="AD134" s="128"/>
+      <c r="AE134" s="128"/>
+      <c r="AF134" s="128"/>
+      <c r="AG134" s="128"/>
+      <c r="AH134" s="128"/>
+      <c r="AI134" s="128"/>
+      <c r="AJ134" s="102"/>
+      <c r="AK134" s="128"/>
+      <c r="AL134" s="128"/>
+      <c r="AM134" s="128"/>
+      <c r="AN134" s="128"/>
+      <c r="AO134" s="128"/>
+      <c r="AP134" s="128"/>
+      <c r="AQ134" s="128"/>
+      <c r="AR134" s="128"/>
+      <c r="AS134" s="128"/>
+      <c r="AT134" s="128"/>
+      <c r="AU134" s="128"/>
+      <c r="AV134" s="102"/>
+    </row>
+    <row r="135" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N135" s="106"/>
+      <c r="O135" s="128"/>
+      <c r="P135" s="128"/>
+      <c r="Q135" s="128"/>
+      <c r="R135" s="128"/>
+      <c r="S135" s="128"/>
+      <c r="T135" s="128"/>
+      <c r="U135" s="128"/>
+      <c r="V135" s="128"/>
+      <c r="W135" s="128"/>
+      <c r="X135" s="128"/>
+      <c r="Y135" s="102"/>
+      <c r="Z135" s="106"/>
+      <c r="AA135" s="128"/>
+      <c r="AB135" s="128"/>
+      <c r="AC135" s="128"/>
+      <c r="AD135" s="128"/>
+      <c r="AE135" s="128"/>
+      <c r="AF135" s="128"/>
+      <c r="AG135" s="128"/>
+      <c r="AH135" s="128"/>
+      <c r="AI135" s="128"/>
+      <c r="AJ135" s="102"/>
+      <c r="AK135" s="128"/>
+      <c r="AL135" s="128"/>
+      <c r="AM135" s="128"/>
+      <c r="AN135" s="128"/>
+      <c r="AO135" s="128"/>
+      <c r="AP135" s="128"/>
+      <c r="AQ135" s="128"/>
+      <c r="AR135" s="128"/>
+      <c r="AS135" s="128"/>
+      <c r="AT135" s="128"/>
+      <c r="AU135" s="128"/>
+      <c r="AV135" s="102"/>
+    </row>
+    <row r="136" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N136" s="106"/>
+      <c r="O136" s="128"/>
+      <c r="P136" s="128"/>
+      <c r="Q136" s="128"/>
+      <c r="R136" s="128"/>
+      <c r="S136" s="128"/>
+      <c r="T136" s="128"/>
+      <c r="U136" s="128"/>
+      <c r="V136" s="128"/>
+      <c r="W136" s="128"/>
+      <c r="X136" s="128"/>
+      <c r="Y136" s="102"/>
+      <c r="Z136" s="106"/>
+      <c r="AA136" s="128"/>
+      <c r="AB136" s="128"/>
+      <c r="AC136" s="128"/>
+      <c r="AD136" s="128"/>
+      <c r="AE136" s="128"/>
+      <c r="AF136" s="128"/>
+      <c r="AG136" s="128"/>
+      <c r="AH136" s="128"/>
+      <c r="AI136" s="128"/>
+      <c r="AJ136" s="102"/>
+      <c r="AK136" s="128"/>
+      <c r="AL136" s="128"/>
+      <c r="AM136" s="128"/>
+      <c r="AN136" s="128"/>
+      <c r="AO136" s="128"/>
+      <c r="AP136" s="128"/>
+      <c r="AQ136" s="128"/>
+      <c r="AR136" s="128"/>
+      <c r="AS136" s="128"/>
+      <c r="AT136" s="128"/>
+      <c r="AU136" s="128"/>
+      <c r="AV136" s="102"/>
+    </row>
+    <row r="137" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N137" s="106"/>
+      <c r="O137" s="128"/>
+      <c r="P137" s="128"/>
+      <c r="Q137" s="128"/>
+      <c r="R137" s="128"/>
+      <c r="S137" s="128"/>
+      <c r="T137" s="128"/>
+      <c r="U137" s="128"/>
+      <c r="V137" s="128"/>
+      <c r="W137" s="128"/>
+      <c r="X137" s="128"/>
+      <c r="Y137" s="102"/>
+      <c r="Z137" s="106"/>
+      <c r="AA137" s="128"/>
+      <c r="AB137" s="128"/>
+      <c r="AC137" s="128"/>
+      <c r="AD137" s="128"/>
+      <c r="AE137" s="128"/>
+      <c r="AF137" s="128"/>
+      <c r="AG137" s="128"/>
+      <c r="AH137" s="128"/>
+      <c r="AI137" s="128"/>
+      <c r="AJ137" s="102"/>
+      <c r="AK137" s="128"/>
+      <c r="AL137" s="128"/>
+      <c r="AM137" s="128"/>
+      <c r="AN137" s="128"/>
+      <c r="AO137" s="128"/>
+      <c r="AP137" s="128"/>
+      <c r="AQ137" s="128"/>
+      <c r="AR137" s="128"/>
+      <c r="AS137" s="128"/>
+      <c r="AT137" s="128"/>
+      <c r="AU137" s="128"/>
+      <c r="AV137" s="102"/>
+    </row>
+    <row r="138" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N138" s="106"/>
+      <c r="O138" s="128"/>
+      <c r="P138" s="128"/>
+      <c r="Q138" s="128"/>
+      <c r="R138" s="128"/>
+      <c r="S138" s="128"/>
+      <c r="T138" s="128"/>
+      <c r="U138" s="128"/>
+      <c r="V138" s="128"/>
+      <c r="W138" s="128"/>
+      <c r="X138" s="128"/>
+      <c r="Y138" s="102"/>
+      <c r="Z138" s="106"/>
+      <c r="AA138" s="128"/>
+      <c r="AB138" s="128"/>
+      <c r="AC138" s="128"/>
+      <c r="AD138" s="128"/>
+      <c r="AE138" s="128"/>
+      <c r="AF138" s="128"/>
+      <c r="AG138" s="128"/>
+      <c r="AH138" s="128"/>
+      <c r="AI138" s="128"/>
+      <c r="AJ138" s="102"/>
+      <c r="AK138" s="128"/>
+      <c r="AL138" s="128"/>
+      <c r="AM138" s="128"/>
+      <c r="AN138" s="128"/>
+      <c r="AO138" s="128"/>
+      <c r="AP138" s="128"/>
+      <c r="AQ138" s="128"/>
+      <c r="AR138" s="128"/>
+      <c r="AS138" s="128"/>
+      <c r="AT138" s="128"/>
+      <c r="AU138" s="128"/>
+      <c r="AV138" s="102"/>
+    </row>
+    <row r="139" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N139" s="106"/>
+      <c r="O139" s="128"/>
+      <c r="P139" s="128"/>
+      <c r="Q139" s="128"/>
+      <c r="R139" s="128"/>
+      <c r="S139" s="128"/>
+      <c r="T139" s="128"/>
+      <c r="U139" s="128"/>
+      <c r="V139" s="128"/>
+      <c r="W139" s="128"/>
+      <c r="X139" s="128"/>
+      <c r="Y139" s="102"/>
+      <c r="Z139" s="106"/>
+      <c r="AA139" s="128"/>
+      <c r="AB139" s="128"/>
+      <c r="AC139" s="128"/>
+      <c r="AD139" s="128"/>
+      <c r="AE139" s="128"/>
+      <c r="AF139" s="128"/>
+      <c r="AG139" s="128"/>
+      <c r="AH139" s="128"/>
+      <c r="AI139" s="128"/>
+      <c r="AJ139" s="102"/>
+      <c r="AK139" s="128"/>
+      <c r="AL139" s="128"/>
+      <c r="AM139" s="128"/>
+      <c r="AN139" s="128"/>
+      <c r="AO139" s="128"/>
+      <c r="AP139" s="128"/>
+      <c r="AQ139" s="128"/>
+      <c r="AR139" s="128"/>
+      <c r="AS139" s="128"/>
+      <c r="AT139" s="128"/>
+      <c r="AU139" s="128"/>
+      <c r="AV139" s="102"/>
+    </row>
+    <row r="140" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N140" s="106"/>
+      <c r="O140" s="128"/>
+      <c r="P140" s="128"/>
+      <c r="Q140" s="128"/>
+      <c r="R140" s="128"/>
+      <c r="S140" s="128"/>
+      <c r="T140" s="128"/>
+      <c r="U140" s="128"/>
+      <c r="V140" s="128"/>
+      <c r="W140" s="128"/>
+      <c r="X140" s="128"/>
+      <c r="Y140" s="102"/>
+      <c r="Z140" s="106"/>
+      <c r="AA140" s="128"/>
+      <c r="AB140" s="128"/>
+      <c r="AC140" s="128"/>
+      <c r="AD140" s="128"/>
+      <c r="AE140" s="128"/>
+      <c r="AF140" s="128"/>
+      <c r="AG140" s="128"/>
+      <c r="AH140" s="128"/>
+      <c r="AI140" s="128"/>
+      <c r="AJ140" s="102"/>
+      <c r="AK140" s="128"/>
+      <c r="AL140" s="128"/>
+      <c r="AM140" s="128"/>
+      <c r="AN140" s="128"/>
+      <c r="AO140" s="128"/>
+      <c r="AP140" s="128"/>
+      <c r="AQ140" s="128"/>
+      <c r="AR140" s="128"/>
+      <c r="AS140" s="128"/>
+      <c r="AT140" s="128"/>
+      <c r="AU140" s="128"/>
+      <c r="AV140" s="102"/>
+    </row>
+    <row r="141" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N141" s="106"/>
+      <c r="O141" s="128"/>
+      <c r="P141" s="128"/>
+      <c r="Q141" s="128"/>
+      <c r="R141" s="128"/>
+      <c r="S141" s="128"/>
+      <c r="T141" s="128"/>
+      <c r="U141" s="128"/>
+      <c r="V141" s="128"/>
+      <c r="W141" s="128"/>
+      <c r="X141" s="128"/>
+      <c r="Y141" s="102"/>
+      <c r="Z141" s="106"/>
+      <c r="AA141" s="128"/>
+      <c r="AB141" s="128"/>
+      <c r="AC141" s="128"/>
+      <c r="AD141" s="128"/>
+      <c r="AE141" s="128"/>
+      <c r="AF141" s="128"/>
+      <c r="AG141" s="128"/>
+      <c r="AH141" s="128"/>
+      <c r="AI141" s="128"/>
+      <c r="AJ141" s="102"/>
+      <c r="AK141" s="128"/>
+      <c r="AL141" s="128"/>
+      <c r="AM141" s="128"/>
+      <c r="AN141" s="128"/>
+      <c r="AO141" s="128"/>
+      <c r="AP141" s="128"/>
+      <c r="AQ141" s="128"/>
+      <c r="AR141" s="128"/>
+      <c r="AS141" s="128"/>
+      <c r="AT141" s="128"/>
+      <c r="AU141" s="128"/>
+      <c r="AV141" s="102"/>
+    </row>
+    <row r="142" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N142" s="106"/>
+      <c r="O142" s="128"/>
+      <c r="P142" s="128"/>
+      <c r="Q142" s="128"/>
+      <c r="R142" s="128"/>
+      <c r="S142" s="128"/>
+      <c r="T142" s="128"/>
+      <c r="U142" s="128"/>
+      <c r="V142" s="128"/>
+      <c r="W142" s="128"/>
+      <c r="X142" s="128"/>
+      <c r="Y142" s="102"/>
+      <c r="Z142" s="106"/>
+      <c r="AA142" s="128"/>
+      <c r="AB142" s="128"/>
+      <c r="AC142" s="128"/>
+      <c r="AD142" s="128"/>
+      <c r="AE142" s="128"/>
+      <c r="AF142" s="128"/>
+      <c r="AG142" s="128"/>
+      <c r="AH142" s="128"/>
+      <c r="AI142" s="128"/>
+      <c r="AJ142" s="102"/>
+      <c r="AK142" s="128"/>
+      <c r="AL142" s="128"/>
+      <c r="AM142" s="128"/>
+      <c r="AN142" s="128"/>
+      <c r="AO142" s="128"/>
+      <c r="AP142" s="128"/>
+      <c r="AQ142" s="128"/>
+      <c r="AR142" s="128"/>
+      <c r="AS142" s="128"/>
+      <c r="AT142" s="128"/>
+      <c r="AU142" s="128"/>
+      <c r="AV142" s="102"/>
+    </row>
+    <row r="143" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N143" s="106"/>
+      <c r="O143" s="128"/>
+      <c r="P143" s="128"/>
+      <c r="Q143" s="128"/>
+      <c r="R143" s="128"/>
+      <c r="S143" s="128"/>
+      <c r="T143" s="128"/>
+      <c r="U143" s="128"/>
+      <c r="V143" s="128"/>
+      <c r="W143" s="128"/>
+      <c r="X143" s="128"/>
+      <c r="Y143" s="102"/>
+      <c r="Z143" s="106"/>
+      <c r="AA143" s="128"/>
+      <c r="AB143" s="128"/>
+      <c r="AC143" s="128"/>
+      <c r="AD143" s="128"/>
+      <c r="AE143" s="128"/>
+      <c r="AF143" s="128"/>
+      <c r="AG143" s="128"/>
+      <c r="AH143" s="128"/>
+      <c r="AI143" s="128"/>
+      <c r="AJ143" s="102"/>
+      <c r="AK143" s="128"/>
+      <c r="AL143" s="128"/>
+      <c r="AM143" s="128"/>
+      <c r="AN143" s="128"/>
+      <c r="AO143" s="128"/>
+      <c r="AP143" s="128"/>
+      <c r="AQ143" s="128"/>
+      <c r="AR143" s="128"/>
+      <c r="AS143" s="128"/>
+      <c r="AT143" s="128"/>
+      <c r="AU143" s="128"/>
+      <c r="AV143" s="102"/>
+    </row>
+    <row r="144" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N144" s="106"/>
+      <c r="O144" s="128"/>
+      <c r="P144" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="AA144" t="s">
+      <c r="Q144" s="128"/>
+      <c r="R144" s="128"/>
+      <c r="S144" s="128"/>
+      <c r="T144" s="128"/>
+      <c r="U144" s="128"/>
+      <c r="V144" s="128"/>
+      <c r="W144" s="128"/>
+      <c r="X144" s="128"/>
+      <c r="Y144" s="102"/>
+      <c r="Z144" s="106"/>
+      <c r="AA144" s="128" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="145" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL145" t="s">
+      <c r="AB144" s="128"/>
+      <c r="AC144" s="128"/>
+      <c r="AD144" s="128"/>
+      <c r="AE144" s="128"/>
+      <c r="AF144" s="128"/>
+      <c r="AG144" s="128"/>
+      <c r="AH144" s="128"/>
+      <c r="AI144" s="128"/>
+      <c r="AJ144" s="102"/>
+      <c r="AK144" s="128"/>
+      <c r="AL144" s="128"/>
+      <c r="AM144" s="128"/>
+      <c r="AN144" s="128"/>
+      <c r="AO144" s="128"/>
+      <c r="AP144" s="128"/>
+      <c r="AQ144" s="128"/>
+      <c r="AR144" s="128"/>
+      <c r="AS144" s="128"/>
+      <c r="AT144" s="128"/>
+      <c r="AU144" s="128"/>
+      <c r="AV144" s="102"/>
+    </row>
+    <row r="145" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N145" s="106"/>
+      <c r="O145" s="128"/>
+      <c r="P145" s="128"/>
+      <c r="Q145" s="128"/>
+      <c r="R145" s="128"/>
+      <c r="S145" s="128"/>
+      <c r="T145" s="128"/>
+      <c r="U145" s="128"/>
+      <c r="V145" s="128"/>
+      <c r="W145" s="128"/>
+      <c r="X145" s="128"/>
+      <c r="Y145" s="102"/>
+      <c r="Z145" s="106"/>
+      <c r="AA145" s="128"/>
+      <c r="AB145" s="128"/>
+      <c r="AC145" s="128"/>
+      <c r="AD145" s="128"/>
+      <c r="AE145" s="128"/>
+      <c r="AF145" s="128"/>
+      <c r="AG145" s="128"/>
+      <c r="AH145" s="128"/>
+      <c r="AI145" s="128"/>
+      <c r="AJ145" s="102"/>
+      <c r="AK145" s="128"/>
+      <c r="AL145" s="128" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="170" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P170" t="s">
+      <c r="AM145" s="128"/>
+      <c r="AN145" s="128"/>
+      <c r="AO145" s="128"/>
+      <c r="AP145" s="128"/>
+      <c r="AQ145" s="128"/>
+      <c r="AR145" s="128"/>
+      <c r="AS145" s="128"/>
+      <c r="AT145" s="128"/>
+      <c r="AU145" s="128"/>
+      <c r="AV145" s="102"/>
+    </row>
+    <row r="146" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N146" s="106"/>
+      <c r="O146" s="128"/>
+      <c r="P146" s="128"/>
+      <c r="Q146" s="128"/>
+      <c r="R146" s="128"/>
+      <c r="S146" s="128"/>
+      <c r="T146" s="128"/>
+      <c r="U146" s="128"/>
+      <c r="V146" s="128"/>
+      <c r="W146" s="128"/>
+      <c r="X146" s="128"/>
+      <c r="Y146" s="102"/>
+      <c r="Z146" s="106"/>
+      <c r="AA146" s="128"/>
+      <c r="AB146" s="128"/>
+      <c r="AC146" s="128"/>
+      <c r="AD146" s="128"/>
+      <c r="AE146" s="128"/>
+      <c r="AF146" s="128"/>
+      <c r="AG146" s="128"/>
+      <c r="AH146" s="128"/>
+      <c r="AI146" s="128"/>
+      <c r="AJ146" s="102"/>
+      <c r="AK146" s="128"/>
+      <c r="AL146" s="128"/>
+      <c r="AM146" s="128"/>
+      <c r="AN146" s="128"/>
+      <c r="AO146" s="128"/>
+      <c r="AP146" s="128"/>
+      <c r="AQ146" s="128"/>
+      <c r="AR146" s="128"/>
+      <c r="AS146" s="128"/>
+      <c r="AT146" s="128"/>
+      <c r="AU146" s="128"/>
+      <c r="AV146" s="102"/>
+    </row>
+    <row r="147" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N147" s="106"/>
+      <c r="O147" s="128"/>
+      <c r="P147" s="128"/>
+      <c r="Q147" s="128"/>
+      <c r="R147" s="128"/>
+      <c r="S147" s="128"/>
+      <c r="T147" s="128"/>
+      <c r="U147" s="128"/>
+      <c r="V147" s="128"/>
+      <c r="W147" s="128"/>
+      <c r="X147" s="128"/>
+      <c r="Y147" s="102"/>
+      <c r="Z147" s="106"/>
+      <c r="AA147" s="128"/>
+      <c r="AB147" s="128"/>
+      <c r="AC147" s="128"/>
+      <c r="AD147" s="128"/>
+      <c r="AE147" s="128"/>
+      <c r="AF147" s="128"/>
+      <c r="AG147" s="128"/>
+      <c r="AH147" s="128"/>
+      <c r="AI147" s="128"/>
+      <c r="AJ147" s="102"/>
+      <c r="AK147" s="128"/>
+      <c r="AL147" s="128"/>
+      <c r="AM147" s="128"/>
+      <c r="AN147" s="128"/>
+      <c r="AO147" s="128"/>
+      <c r="AP147" s="128"/>
+      <c r="AQ147" s="128"/>
+      <c r="AR147" s="128"/>
+      <c r="AS147" s="128"/>
+      <c r="AT147" s="128"/>
+      <c r="AU147" s="128"/>
+      <c r="AV147" s="102"/>
+    </row>
+    <row r="148" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N148" s="106"/>
+      <c r="O148" s="128"/>
+      <c r="P148" s="128"/>
+      <c r="Q148" s="128"/>
+      <c r="R148" s="128"/>
+      <c r="S148" s="128"/>
+      <c r="T148" s="128"/>
+      <c r="U148" s="128"/>
+      <c r="V148" s="128"/>
+      <c r="W148" s="128"/>
+      <c r="X148" s="128"/>
+      <c r="Y148" s="102"/>
+      <c r="Z148" s="106"/>
+      <c r="AA148" s="128"/>
+      <c r="AB148" s="128"/>
+      <c r="AC148" s="128"/>
+      <c r="AD148" s="128"/>
+      <c r="AE148" s="128"/>
+      <c r="AF148" s="128"/>
+      <c r="AG148" s="128"/>
+      <c r="AH148" s="128"/>
+      <c r="AI148" s="128"/>
+      <c r="AJ148" s="102"/>
+      <c r="AK148" s="128"/>
+      <c r="AL148" s="128"/>
+      <c r="AM148" s="128"/>
+      <c r="AN148" s="128"/>
+      <c r="AO148" s="128"/>
+      <c r="AP148" s="128"/>
+      <c r="AQ148" s="128"/>
+      <c r="AR148" s="128"/>
+      <c r="AS148" s="128"/>
+      <c r="AT148" s="128"/>
+      <c r="AU148" s="128"/>
+      <c r="AV148" s="102"/>
+    </row>
+    <row r="149" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N149" s="106"/>
+      <c r="O149" s="128"/>
+      <c r="P149" s="128"/>
+      <c r="Q149" s="128"/>
+      <c r="R149" s="128"/>
+      <c r="S149" s="128"/>
+      <c r="T149" s="128"/>
+      <c r="U149" s="128"/>
+      <c r="V149" s="128"/>
+      <c r="W149" s="128"/>
+      <c r="X149" s="128"/>
+      <c r="Y149" s="102"/>
+      <c r="Z149" s="106"/>
+      <c r="AA149" s="128"/>
+      <c r="AB149" s="128"/>
+      <c r="AC149" s="128"/>
+      <c r="AD149" s="128"/>
+      <c r="AE149" s="128"/>
+      <c r="AF149" s="128"/>
+      <c r="AG149" s="128"/>
+      <c r="AH149" s="128"/>
+      <c r="AI149" s="128"/>
+      <c r="AJ149" s="102"/>
+      <c r="AK149" s="128"/>
+      <c r="AL149" s="128"/>
+      <c r="AM149" s="128"/>
+      <c r="AN149" s="128"/>
+      <c r="AO149" s="128"/>
+      <c r="AP149" s="128"/>
+      <c r="AQ149" s="128"/>
+      <c r="AR149" s="128"/>
+      <c r="AS149" s="128"/>
+      <c r="AT149" s="128"/>
+      <c r="AU149" s="128"/>
+      <c r="AV149" s="102"/>
+    </row>
+    <row r="150" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N150" s="106"/>
+      <c r="O150" s="128"/>
+      <c r="P150" s="128"/>
+      <c r="Q150" s="128"/>
+      <c r="R150" s="128"/>
+      <c r="S150" s="128"/>
+      <c r="T150" s="128"/>
+      <c r="U150" s="128"/>
+      <c r="V150" s="128"/>
+      <c r="W150" s="128"/>
+      <c r="X150" s="128"/>
+      <c r="Y150" s="102"/>
+      <c r="Z150" s="106"/>
+      <c r="AA150" s="128"/>
+      <c r="AB150" s="128"/>
+      <c r="AC150" s="128"/>
+      <c r="AD150" s="128"/>
+      <c r="AE150" s="128"/>
+      <c r="AF150" s="128"/>
+      <c r="AG150" s="128"/>
+      <c r="AH150" s="128"/>
+      <c r="AI150" s="128"/>
+      <c r="AJ150" s="102"/>
+      <c r="AK150" s="128"/>
+      <c r="AL150" s="128"/>
+      <c r="AM150" s="128"/>
+      <c r="AN150" s="128"/>
+      <c r="AO150" s="128"/>
+      <c r="AP150" s="128"/>
+      <c r="AQ150" s="128"/>
+      <c r="AR150" s="128"/>
+      <c r="AS150" s="128"/>
+      <c r="AT150" s="128"/>
+      <c r="AU150" s="128"/>
+      <c r="AV150" s="102"/>
+    </row>
+    <row r="151" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N151" s="106"/>
+      <c r="O151" s="128"/>
+      <c r="P151" s="128"/>
+      <c r="Q151" s="128"/>
+      <c r="R151" s="128"/>
+      <c r="S151" s="128"/>
+      <c r="T151" s="128"/>
+      <c r="U151" s="128"/>
+      <c r="V151" s="128"/>
+      <c r="W151" s="128"/>
+      <c r="X151" s="128"/>
+      <c r="Y151" s="102"/>
+      <c r="Z151" s="106"/>
+      <c r="AA151" s="128"/>
+      <c r="AB151" s="128"/>
+      <c r="AC151" s="128"/>
+      <c r="AD151" s="128"/>
+      <c r="AE151" s="128"/>
+      <c r="AF151" s="128"/>
+      <c r="AG151" s="128"/>
+      <c r="AH151" s="128"/>
+      <c r="AI151" s="128"/>
+      <c r="AJ151" s="102"/>
+      <c r="AK151" s="128"/>
+      <c r="AL151" s="128"/>
+      <c r="AM151" s="128"/>
+      <c r="AN151" s="128"/>
+      <c r="AO151" s="128"/>
+      <c r="AP151" s="128"/>
+      <c r="AQ151" s="128"/>
+      <c r="AR151" s="128"/>
+      <c r="AS151" s="128"/>
+      <c r="AT151" s="128"/>
+      <c r="AU151" s="128"/>
+      <c r="AV151" s="102"/>
+    </row>
+    <row r="152" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N152" s="106"/>
+      <c r="O152" s="128"/>
+      <c r="P152" s="128"/>
+      <c r="Q152" s="128"/>
+      <c r="R152" s="128"/>
+      <c r="S152" s="128"/>
+      <c r="T152" s="128"/>
+      <c r="U152" s="128"/>
+      <c r="V152" s="128"/>
+      <c r="W152" s="128"/>
+      <c r="X152" s="128"/>
+      <c r="Y152" s="102"/>
+      <c r="Z152" s="106"/>
+      <c r="AA152" s="128"/>
+      <c r="AB152" s="128"/>
+      <c r="AC152" s="128"/>
+      <c r="AD152" s="128"/>
+      <c r="AE152" s="128"/>
+      <c r="AF152" s="128"/>
+      <c r="AG152" s="128"/>
+      <c r="AH152" s="128"/>
+      <c r="AI152" s="128"/>
+      <c r="AJ152" s="102"/>
+      <c r="AK152" s="128"/>
+      <c r="AL152" s="128"/>
+      <c r="AM152" s="128"/>
+      <c r="AN152" s="128"/>
+      <c r="AO152" s="128"/>
+      <c r="AP152" s="128"/>
+      <c r="AQ152" s="128"/>
+      <c r="AR152" s="128"/>
+      <c r="AS152" s="128"/>
+      <c r="AT152" s="128"/>
+      <c r="AU152" s="128"/>
+      <c r="AV152" s="102"/>
+    </row>
+    <row r="153" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N153" s="106"/>
+      <c r="O153" s="128"/>
+      <c r="P153" s="128"/>
+      <c r="Q153" s="128"/>
+      <c r="R153" s="128"/>
+      <c r="S153" s="128"/>
+      <c r="T153" s="128"/>
+      <c r="U153" s="128"/>
+      <c r="V153" s="128"/>
+      <c r="W153" s="128"/>
+      <c r="X153" s="128"/>
+      <c r="Y153" s="102"/>
+      <c r="Z153" s="106"/>
+      <c r="AA153" s="128"/>
+      <c r="AB153" s="128"/>
+      <c r="AC153" s="128"/>
+      <c r="AD153" s="128"/>
+      <c r="AE153" s="128"/>
+      <c r="AF153" s="128"/>
+      <c r="AG153" s="128"/>
+      <c r="AH153" s="128"/>
+      <c r="AI153" s="128"/>
+      <c r="AJ153" s="102"/>
+      <c r="AK153" s="128"/>
+      <c r="AL153" s="128"/>
+      <c r="AM153" s="128"/>
+      <c r="AN153" s="128"/>
+      <c r="AO153" s="128"/>
+      <c r="AP153" s="128"/>
+      <c r="AQ153" s="128"/>
+      <c r="AR153" s="128"/>
+      <c r="AS153" s="128"/>
+      <c r="AT153" s="128"/>
+      <c r="AU153" s="128"/>
+      <c r="AV153" s="102"/>
+    </row>
+    <row r="154" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N154" s="106"/>
+      <c r="O154" s="128"/>
+      <c r="P154" s="128"/>
+      <c r="Q154" s="128"/>
+      <c r="R154" s="128"/>
+      <c r="S154" s="128"/>
+      <c r="T154" s="128"/>
+      <c r="U154" s="128"/>
+      <c r="V154" s="128"/>
+      <c r="W154" s="128"/>
+      <c r="X154" s="128"/>
+      <c r="Y154" s="102"/>
+      <c r="Z154" s="106"/>
+      <c r="AA154" s="128"/>
+      <c r="AB154" s="128"/>
+      <c r="AC154" s="128"/>
+      <c r="AD154" s="128"/>
+      <c r="AE154" s="128"/>
+      <c r="AF154" s="128"/>
+      <c r="AG154" s="128"/>
+      <c r="AH154" s="128"/>
+      <c r="AI154" s="128"/>
+      <c r="AJ154" s="102"/>
+      <c r="AK154" s="128"/>
+      <c r="AL154" s="128"/>
+      <c r="AM154" s="128"/>
+      <c r="AN154" s="128"/>
+      <c r="AO154" s="128"/>
+      <c r="AP154" s="128"/>
+      <c r="AQ154" s="128"/>
+      <c r="AR154" s="128"/>
+      <c r="AS154" s="128"/>
+      <c r="AT154" s="128"/>
+      <c r="AU154" s="128"/>
+      <c r="AV154" s="102"/>
+    </row>
+    <row r="155" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N155" s="106"/>
+      <c r="O155" s="128"/>
+      <c r="P155" s="128"/>
+      <c r="Q155" s="128"/>
+      <c r="R155" s="128"/>
+      <c r="S155" s="128"/>
+      <c r="T155" s="128"/>
+      <c r="U155" s="128"/>
+      <c r="V155" s="128"/>
+      <c r="W155" s="128"/>
+      <c r="X155" s="128"/>
+      <c r="Y155" s="102"/>
+      <c r="Z155" s="106"/>
+      <c r="AA155" s="128"/>
+      <c r="AB155" s="128"/>
+      <c r="AC155" s="128"/>
+      <c r="AD155" s="128"/>
+      <c r="AE155" s="128"/>
+      <c r="AF155" s="128"/>
+      <c r="AG155" s="128"/>
+      <c r="AH155" s="128"/>
+      <c r="AI155" s="128"/>
+      <c r="AJ155" s="102"/>
+      <c r="AK155" s="128"/>
+      <c r="AL155" s="128"/>
+      <c r="AM155" s="128"/>
+      <c r="AN155" s="128"/>
+      <c r="AO155" s="128"/>
+      <c r="AP155" s="128"/>
+      <c r="AQ155" s="128"/>
+      <c r="AR155" s="128"/>
+      <c r="AS155" s="128"/>
+      <c r="AT155" s="128"/>
+      <c r="AU155" s="128"/>
+      <c r="AV155" s="102"/>
+    </row>
+    <row r="156" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N156" s="106"/>
+      <c r="O156" s="128"/>
+      <c r="P156" s="128"/>
+      <c r="Q156" s="128"/>
+      <c r="R156" s="128"/>
+      <c r="S156" s="128"/>
+      <c r="T156" s="128"/>
+      <c r="U156" s="128"/>
+      <c r="V156" s="128"/>
+      <c r="W156" s="128"/>
+      <c r="X156" s="128"/>
+      <c r="Y156" s="102"/>
+      <c r="Z156" s="106"/>
+      <c r="AA156" s="128"/>
+      <c r="AB156" s="128"/>
+      <c r="AC156" s="128"/>
+      <c r="AD156" s="128"/>
+      <c r="AE156" s="128"/>
+      <c r="AF156" s="128"/>
+      <c r="AG156" s="128"/>
+      <c r="AH156" s="128"/>
+      <c r="AI156" s="128"/>
+      <c r="AJ156" s="102"/>
+      <c r="AK156" s="128"/>
+      <c r="AL156" s="128"/>
+      <c r="AM156" s="128"/>
+      <c r="AN156" s="128"/>
+      <c r="AO156" s="128"/>
+      <c r="AP156" s="128"/>
+      <c r="AQ156" s="128"/>
+      <c r="AR156" s="128"/>
+      <c r="AS156" s="128"/>
+      <c r="AT156" s="128"/>
+      <c r="AU156" s="128"/>
+      <c r="AV156" s="102"/>
+    </row>
+    <row r="157" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N157" s="106"/>
+      <c r="O157" s="128"/>
+      <c r="P157" s="128"/>
+      <c r="Q157" s="128"/>
+      <c r="R157" s="128"/>
+      <c r="S157" s="128"/>
+      <c r="T157" s="128"/>
+      <c r="U157" s="128"/>
+      <c r="V157" s="128"/>
+      <c r="W157" s="128"/>
+      <c r="X157" s="128"/>
+      <c r="Y157" s="102"/>
+      <c r="Z157" s="106"/>
+      <c r="AA157" s="128"/>
+      <c r="AB157" s="128"/>
+      <c r="AC157" s="128"/>
+      <c r="AD157" s="128"/>
+      <c r="AE157" s="128"/>
+      <c r="AF157" s="128"/>
+      <c r="AG157" s="128"/>
+      <c r="AH157" s="128"/>
+      <c r="AI157" s="128"/>
+      <c r="AJ157" s="102"/>
+      <c r="AK157" s="128"/>
+      <c r="AL157" s="128"/>
+      <c r="AM157" s="128"/>
+      <c r="AN157" s="128"/>
+      <c r="AO157" s="128"/>
+      <c r="AP157" s="128"/>
+      <c r="AQ157" s="128"/>
+      <c r="AR157" s="128"/>
+      <c r="AS157" s="128"/>
+      <c r="AT157" s="128"/>
+      <c r="AU157" s="128"/>
+      <c r="AV157" s="102"/>
+    </row>
+    <row r="158" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N158" s="106"/>
+      <c r="O158" s="128"/>
+      <c r="P158" s="128"/>
+      <c r="Q158" s="128"/>
+      <c r="R158" s="128"/>
+      <c r="S158" s="128"/>
+      <c r="T158" s="128"/>
+      <c r="U158" s="128"/>
+      <c r="V158" s="128"/>
+      <c r="W158" s="128"/>
+      <c r="X158" s="128"/>
+      <c r="Y158" s="102"/>
+      <c r="Z158" s="106"/>
+      <c r="AA158" s="128"/>
+      <c r="AB158" s="128"/>
+      <c r="AC158" s="128"/>
+      <c r="AD158" s="128"/>
+      <c r="AE158" s="128"/>
+      <c r="AF158" s="128"/>
+      <c r="AG158" s="128"/>
+      <c r="AH158" s="128"/>
+      <c r="AI158" s="128"/>
+      <c r="AJ158" s="102"/>
+      <c r="AK158" s="128"/>
+      <c r="AL158" s="128"/>
+      <c r="AM158" s="128"/>
+      <c r="AN158" s="128"/>
+      <c r="AO158" s="128"/>
+      <c r="AP158" s="128"/>
+      <c r="AQ158" s="128"/>
+      <c r="AR158" s="128"/>
+      <c r="AS158" s="128"/>
+      <c r="AT158" s="128"/>
+      <c r="AU158" s="128"/>
+      <c r="AV158" s="102"/>
+    </row>
+    <row r="159" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N159" s="106"/>
+      <c r="O159" s="128"/>
+      <c r="P159" s="128"/>
+      <c r="Q159" s="128"/>
+      <c r="R159" s="128"/>
+      <c r="S159" s="128"/>
+      <c r="T159" s="128"/>
+      <c r="U159" s="128"/>
+      <c r="V159" s="128"/>
+      <c r="W159" s="128"/>
+      <c r="X159" s="128"/>
+      <c r="Y159" s="102"/>
+      <c r="Z159" s="106"/>
+      <c r="AA159" s="128"/>
+      <c r="AB159" s="128"/>
+      <c r="AC159" s="128"/>
+      <c r="AD159" s="128"/>
+      <c r="AE159" s="128"/>
+      <c r="AF159" s="128"/>
+      <c r="AG159" s="128"/>
+      <c r="AH159" s="128"/>
+      <c r="AI159" s="128"/>
+      <c r="AJ159" s="102"/>
+      <c r="AK159" s="128"/>
+      <c r="AL159" s="128"/>
+      <c r="AM159" s="128"/>
+      <c r="AN159" s="128"/>
+      <c r="AO159" s="128"/>
+      <c r="AP159" s="128"/>
+      <c r="AQ159" s="128"/>
+      <c r="AR159" s="128"/>
+      <c r="AS159" s="128"/>
+      <c r="AT159" s="128"/>
+      <c r="AU159" s="128"/>
+      <c r="AV159" s="102"/>
+    </row>
+    <row r="160" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N160" s="106"/>
+      <c r="O160" s="128"/>
+      <c r="P160" s="128"/>
+      <c r="Q160" s="128"/>
+      <c r="R160" s="128"/>
+      <c r="S160" s="128"/>
+      <c r="T160" s="128"/>
+      <c r="U160" s="128"/>
+      <c r="V160" s="128"/>
+      <c r="W160" s="128"/>
+      <c r="X160" s="128"/>
+      <c r="Y160" s="102"/>
+      <c r="Z160" s="106"/>
+      <c r="AA160" s="128"/>
+      <c r="AB160" s="128"/>
+      <c r="AC160" s="128"/>
+      <c r="AD160" s="128"/>
+      <c r="AE160" s="128"/>
+      <c r="AF160" s="128"/>
+      <c r="AG160" s="128"/>
+      <c r="AH160" s="128"/>
+      <c r="AI160" s="128"/>
+      <c r="AJ160" s="102"/>
+      <c r="AK160" s="128"/>
+      <c r="AL160" s="128"/>
+      <c r="AM160" s="128"/>
+      <c r="AN160" s="128"/>
+      <c r="AO160" s="128"/>
+      <c r="AP160" s="128"/>
+      <c r="AQ160" s="128"/>
+      <c r="AR160" s="128"/>
+      <c r="AS160" s="128"/>
+      <c r="AT160" s="128"/>
+      <c r="AU160" s="128"/>
+      <c r="AV160" s="102"/>
+    </row>
+    <row r="161" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N161" s="106"/>
+      <c r="O161" s="128"/>
+      <c r="P161" s="128"/>
+      <c r="Q161" s="128"/>
+      <c r="R161" s="128"/>
+      <c r="S161" s="128"/>
+      <c r="T161" s="128"/>
+      <c r="U161" s="128"/>
+      <c r="V161" s="128"/>
+      <c r="W161" s="128"/>
+      <c r="X161" s="128"/>
+      <c r="Y161" s="102"/>
+      <c r="Z161" s="106"/>
+      <c r="AA161" s="128"/>
+      <c r="AB161" s="128"/>
+      <c r="AC161" s="128"/>
+      <c r="AD161" s="128"/>
+      <c r="AE161" s="128"/>
+      <c r="AF161" s="128"/>
+      <c r="AG161" s="128"/>
+      <c r="AH161" s="128"/>
+      <c r="AI161" s="128"/>
+      <c r="AJ161" s="102"/>
+      <c r="AK161" s="128"/>
+      <c r="AL161" s="128"/>
+      <c r="AM161" s="128"/>
+      <c r="AN161" s="128"/>
+      <c r="AO161" s="128"/>
+      <c r="AP161" s="128"/>
+      <c r="AQ161" s="128"/>
+      <c r="AR161" s="128"/>
+      <c r="AS161" s="128"/>
+      <c r="AT161" s="128"/>
+      <c r="AU161" s="128"/>
+      <c r="AV161" s="102"/>
+    </row>
+    <row r="162" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N162" s="106"/>
+      <c r="O162" s="128"/>
+      <c r="P162" s="128"/>
+      <c r="Q162" s="128"/>
+      <c r="R162" s="128"/>
+      <c r="S162" s="128"/>
+      <c r="T162" s="128"/>
+      <c r="U162" s="128"/>
+      <c r="V162" s="128"/>
+      <c r="W162" s="128"/>
+      <c r="X162" s="128"/>
+      <c r="Y162" s="102"/>
+      <c r="Z162" s="106"/>
+      <c r="AA162" s="128"/>
+      <c r="AB162" s="128"/>
+      <c r="AC162" s="128"/>
+      <c r="AD162" s="128"/>
+      <c r="AE162" s="128"/>
+      <c r="AF162" s="128"/>
+      <c r="AG162" s="128"/>
+      <c r="AH162" s="128"/>
+      <c r="AI162" s="128"/>
+      <c r="AJ162" s="102"/>
+      <c r="AK162" s="128"/>
+      <c r="AL162" s="128"/>
+      <c r="AM162" s="128"/>
+      <c r="AN162" s="128"/>
+      <c r="AO162" s="128"/>
+      <c r="AP162" s="128"/>
+      <c r="AQ162" s="128"/>
+      <c r="AR162" s="128"/>
+      <c r="AS162" s="128"/>
+      <c r="AT162" s="128"/>
+      <c r="AU162" s="128"/>
+      <c r="AV162" s="102"/>
+    </row>
+    <row r="163" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N163" s="106"/>
+      <c r="O163" s="128"/>
+      <c r="P163" s="128"/>
+      <c r="Q163" s="128"/>
+      <c r="R163" s="128"/>
+      <c r="S163" s="128"/>
+      <c r="T163" s="128"/>
+      <c r="U163" s="128"/>
+      <c r="V163" s="128"/>
+      <c r="W163" s="128"/>
+      <c r="X163" s="128"/>
+      <c r="Y163" s="102"/>
+      <c r="Z163" s="106"/>
+      <c r="AA163" s="128"/>
+      <c r="AB163" s="128"/>
+      <c r="AC163" s="128"/>
+      <c r="AD163" s="128"/>
+      <c r="AE163" s="128"/>
+      <c r="AF163" s="128"/>
+      <c r="AG163" s="128"/>
+      <c r="AH163" s="128"/>
+      <c r="AI163" s="128"/>
+      <c r="AJ163" s="102"/>
+      <c r="AK163" s="128"/>
+      <c r="AL163" s="128"/>
+      <c r="AM163" s="128"/>
+      <c r="AN163" s="128"/>
+      <c r="AO163" s="128"/>
+      <c r="AP163" s="128"/>
+      <c r="AQ163" s="128"/>
+      <c r="AR163" s="128"/>
+      <c r="AS163" s="128"/>
+      <c r="AT163" s="128"/>
+      <c r="AU163" s="128"/>
+      <c r="AV163" s="102"/>
+    </row>
+    <row r="164" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N164" s="106"/>
+      <c r="O164" s="128"/>
+      <c r="P164" s="128"/>
+      <c r="Q164" s="128"/>
+      <c r="R164" s="128"/>
+      <c r="S164" s="128"/>
+      <c r="T164" s="128"/>
+      <c r="U164" s="128"/>
+      <c r="V164" s="128"/>
+      <c r="W164" s="128"/>
+      <c r="X164" s="128"/>
+      <c r="Y164" s="102"/>
+      <c r="Z164" s="106"/>
+      <c r="AA164" s="128"/>
+      <c r="AB164" s="128"/>
+      <c r="AC164" s="128"/>
+      <c r="AD164" s="128"/>
+      <c r="AE164" s="128"/>
+      <c r="AF164" s="128"/>
+      <c r="AG164" s="128"/>
+      <c r="AH164" s="128"/>
+      <c r="AI164" s="128"/>
+      <c r="AJ164" s="102"/>
+      <c r="AK164" s="128"/>
+      <c r="AL164" s="128"/>
+      <c r="AM164" s="128"/>
+      <c r="AN164" s="128"/>
+      <c r="AO164" s="128"/>
+      <c r="AP164" s="128"/>
+      <c r="AQ164" s="128"/>
+      <c r="AR164" s="128"/>
+      <c r="AS164" s="128"/>
+      <c r="AT164" s="128"/>
+      <c r="AU164" s="128"/>
+      <c r="AV164" s="102"/>
+    </row>
+    <row r="165" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N165" s="106"/>
+      <c r="O165" s="128"/>
+      <c r="P165" s="128"/>
+      <c r="Q165" s="128"/>
+      <c r="R165" s="128"/>
+      <c r="S165" s="128"/>
+      <c r="T165" s="128"/>
+      <c r="U165" s="128"/>
+      <c r="V165" s="128"/>
+      <c r="W165" s="128"/>
+      <c r="X165" s="128"/>
+      <c r="Y165" s="102"/>
+      <c r="Z165" s="106"/>
+      <c r="AA165" s="128"/>
+      <c r="AB165" s="128"/>
+      <c r="AC165" s="128"/>
+      <c r="AD165" s="128"/>
+      <c r="AE165" s="128"/>
+      <c r="AF165" s="128"/>
+      <c r="AG165" s="128"/>
+      <c r="AH165" s="128"/>
+      <c r="AI165" s="128"/>
+      <c r="AJ165" s="102"/>
+      <c r="AK165" s="128"/>
+      <c r="AL165" s="128"/>
+      <c r="AM165" s="128"/>
+      <c r="AN165" s="128"/>
+      <c r="AO165" s="128"/>
+      <c r="AP165" s="128"/>
+      <c r="AQ165" s="128"/>
+      <c r="AR165" s="128"/>
+      <c r="AS165" s="128"/>
+      <c r="AT165" s="128"/>
+      <c r="AU165" s="128"/>
+      <c r="AV165" s="102"/>
+    </row>
+    <row r="166" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N166" s="106"/>
+      <c r="O166" s="128"/>
+      <c r="P166" s="128"/>
+      <c r="Q166" s="128"/>
+      <c r="R166" s="128"/>
+      <c r="S166" s="128"/>
+      <c r="T166" s="128"/>
+      <c r="U166" s="128"/>
+      <c r="V166" s="128"/>
+      <c r="W166" s="128"/>
+      <c r="X166" s="128"/>
+      <c r="Y166" s="102"/>
+      <c r="Z166" s="106"/>
+      <c r="AA166" s="128"/>
+      <c r="AB166" s="128"/>
+      <c r="AC166" s="128"/>
+      <c r="AD166" s="128"/>
+      <c r="AE166" s="128"/>
+      <c r="AF166" s="128"/>
+      <c r="AG166" s="128"/>
+      <c r="AH166" s="128"/>
+      <c r="AI166" s="128"/>
+      <c r="AJ166" s="102"/>
+      <c r="AK166" s="128"/>
+      <c r="AL166" s="128"/>
+      <c r="AM166" s="128"/>
+      <c r="AN166" s="128"/>
+      <c r="AO166" s="128"/>
+      <c r="AP166" s="128"/>
+      <c r="AQ166" s="128"/>
+      <c r="AR166" s="128"/>
+      <c r="AS166" s="128"/>
+      <c r="AT166" s="128"/>
+      <c r="AU166" s="128"/>
+      <c r="AV166" s="102"/>
+    </row>
+    <row r="167" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N167" s="106"/>
+      <c r="O167" s="128"/>
+      <c r="P167" s="128"/>
+      <c r="Q167" s="128"/>
+      <c r="R167" s="128"/>
+      <c r="S167" s="128"/>
+      <c r="T167" s="128"/>
+      <c r="U167" s="128"/>
+      <c r="V167" s="128"/>
+      <c r="W167" s="128"/>
+      <c r="X167" s="128"/>
+      <c r="Y167" s="102"/>
+      <c r="Z167" s="106"/>
+      <c r="AA167" s="128"/>
+      <c r="AB167" s="128"/>
+      <c r="AC167" s="128"/>
+      <c r="AD167" s="128"/>
+      <c r="AE167" s="128"/>
+      <c r="AF167" s="128"/>
+      <c r="AG167" s="128"/>
+      <c r="AH167" s="128"/>
+      <c r="AI167" s="128"/>
+      <c r="AJ167" s="102"/>
+      <c r="AK167" s="128"/>
+      <c r="AL167" s="128"/>
+      <c r="AM167" s="128"/>
+      <c r="AN167" s="128"/>
+      <c r="AO167" s="128"/>
+      <c r="AP167" s="128"/>
+      <c r="AQ167" s="128"/>
+      <c r="AR167" s="128"/>
+      <c r="AS167" s="128"/>
+      <c r="AT167" s="128"/>
+      <c r="AU167" s="128"/>
+      <c r="AV167" s="102"/>
+    </row>
+    <row r="168" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N168" s="106"/>
+      <c r="O168" s="128"/>
+      <c r="P168" s="128"/>
+      <c r="Q168" s="128"/>
+      <c r="R168" s="128"/>
+      <c r="S168" s="128"/>
+      <c r="T168" s="128"/>
+      <c r="U168" s="128"/>
+      <c r="V168" s="128"/>
+      <c r="W168" s="128"/>
+      <c r="X168" s="128"/>
+      <c r="Y168" s="102"/>
+      <c r="Z168" s="106"/>
+      <c r="AA168" s="128"/>
+      <c r="AB168" s="128"/>
+      <c r="AC168" s="128"/>
+      <c r="AD168" s="128"/>
+      <c r="AE168" s="128"/>
+      <c r="AF168" s="128"/>
+      <c r="AG168" s="128"/>
+      <c r="AH168" s="128"/>
+      <c r="AI168" s="128"/>
+      <c r="AJ168" s="102"/>
+      <c r="AK168" s="128"/>
+      <c r="AL168" s="128"/>
+      <c r="AM168" s="128"/>
+      <c r="AN168" s="128"/>
+      <c r="AO168" s="128"/>
+      <c r="AP168" s="128"/>
+      <c r="AQ168" s="128"/>
+      <c r="AR168" s="128"/>
+      <c r="AS168" s="128"/>
+      <c r="AT168" s="128"/>
+      <c r="AU168" s="128"/>
+      <c r="AV168" s="102"/>
+    </row>
+    <row r="169" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N169" s="106"/>
+      <c r="O169" s="128"/>
+      <c r="P169" s="128"/>
+      <c r="Q169" s="128"/>
+      <c r="R169" s="128"/>
+      <c r="S169" s="128"/>
+      <c r="T169" s="128"/>
+      <c r="U169" s="128"/>
+      <c r="V169" s="128"/>
+      <c r="W169" s="128"/>
+      <c r="X169" s="128"/>
+      <c r="Y169" s="102"/>
+      <c r="Z169" s="106"/>
+      <c r="AA169" s="128"/>
+      <c r="AB169" s="128"/>
+      <c r="AC169" s="128"/>
+      <c r="AD169" s="128"/>
+      <c r="AE169" s="128"/>
+      <c r="AF169" s="128"/>
+      <c r="AG169" s="128"/>
+      <c r="AH169" s="128"/>
+      <c r="AI169" s="128"/>
+      <c r="AJ169" s="102"/>
+      <c r="AK169" s="128"/>
+      <c r="AL169" s="128"/>
+      <c r="AM169" s="128"/>
+      <c r="AN169" s="128"/>
+      <c r="AO169" s="128"/>
+      <c r="AP169" s="128"/>
+      <c r="AQ169" s="128"/>
+      <c r="AR169" s="128"/>
+      <c r="AS169" s="128"/>
+      <c r="AT169" s="128"/>
+      <c r="AU169" s="128"/>
+      <c r="AV169" s="102"/>
+    </row>
+    <row r="170" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N170" s="106"/>
+      <c r="O170" s="128"/>
+      <c r="P170" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="AA170" t="s">
+      <c r="Q170" s="128"/>
+      <c r="R170" s="128"/>
+      <c r="S170" s="128"/>
+      <c r="T170" s="128"/>
+      <c r="U170" s="128"/>
+      <c r="V170" s="128"/>
+      <c r="W170" s="128"/>
+      <c r="X170" s="128"/>
+      <c r="Y170" s="102"/>
+      <c r="Z170" s="106"/>
+      <c r="AA170" s="128" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="196" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P196" t="s">
+      <c r="AB170" s="128"/>
+      <c r="AC170" s="128"/>
+      <c r="AD170" s="128"/>
+      <c r="AE170" s="128"/>
+      <c r="AF170" s="128"/>
+      <c r="AG170" s="128"/>
+      <c r="AH170" s="128"/>
+      <c r="AI170" s="128"/>
+      <c r="AJ170" s="102"/>
+      <c r="AK170" s="128"/>
+      <c r="AL170" s="128"/>
+      <c r="AM170" s="128"/>
+      <c r="AN170" s="128"/>
+      <c r="AO170" s="128"/>
+      <c r="AP170" s="128"/>
+      <c r="AQ170" s="128"/>
+      <c r="AR170" s="128"/>
+      <c r="AS170" s="128"/>
+      <c r="AT170" s="128"/>
+      <c r="AU170" s="128"/>
+      <c r="AV170" s="102"/>
+    </row>
+    <row r="171" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N171" s="106"/>
+      <c r="O171" s="128"/>
+      <c r="P171" s="128"/>
+      <c r="Q171" s="128"/>
+      <c r="R171" s="128"/>
+      <c r="S171" s="128"/>
+      <c r="T171" s="128"/>
+      <c r="U171" s="128"/>
+      <c r="V171" s="128"/>
+      <c r="W171" s="128"/>
+      <c r="X171" s="128"/>
+      <c r="Y171" s="102"/>
+      <c r="Z171" s="106"/>
+      <c r="AA171" s="128"/>
+      <c r="AB171" s="128"/>
+      <c r="AC171" s="128"/>
+      <c r="AD171" s="128"/>
+      <c r="AE171" s="128"/>
+      <c r="AF171" s="128"/>
+      <c r="AG171" s="128"/>
+      <c r="AH171" s="128"/>
+      <c r="AI171" s="128"/>
+      <c r="AJ171" s="102"/>
+      <c r="AK171" s="128"/>
+      <c r="AL171" s="128"/>
+      <c r="AM171" s="128"/>
+      <c r="AN171" s="128"/>
+      <c r="AO171" s="128"/>
+      <c r="AP171" s="128"/>
+      <c r="AQ171" s="128"/>
+      <c r="AR171" s="128"/>
+      <c r="AS171" s="128"/>
+      <c r="AT171" s="128"/>
+      <c r="AU171" s="128"/>
+      <c r="AV171" s="102"/>
+    </row>
+    <row r="172" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N172" s="106"/>
+      <c r="O172" s="128"/>
+      <c r="P172" s="128"/>
+      <c r="Q172" s="128"/>
+      <c r="R172" s="128"/>
+      <c r="S172" s="128"/>
+      <c r="T172" s="128"/>
+      <c r="U172" s="128"/>
+      <c r="V172" s="128"/>
+      <c r="W172" s="128"/>
+      <c r="X172" s="128"/>
+      <c r="Y172" s="102"/>
+      <c r="Z172" s="106"/>
+      <c r="AA172" s="128"/>
+      <c r="AB172" s="128"/>
+      <c r="AC172" s="128"/>
+      <c r="AD172" s="128"/>
+      <c r="AE172" s="128"/>
+      <c r="AF172" s="128"/>
+      <c r="AG172" s="128"/>
+      <c r="AH172" s="128"/>
+      <c r="AI172" s="128"/>
+      <c r="AJ172" s="102"/>
+      <c r="AK172" s="128"/>
+      <c r="AL172" s="128"/>
+      <c r="AM172" s="128"/>
+      <c r="AN172" s="128"/>
+      <c r="AO172" s="128"/>
+      <c r="AP172" s="128"/>
+      <c r="AQ172" s="128"/>
+      <c r="AR172" s="128"/>
+      <c r="AS172" s="128"/>
+      <c r="AT172" s="128"/>
+      <c r="AU172" s="128"/>
+      <c r="AV172" s="102"/>
+    </row>
+    <row r="173" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N173" s="106"/>
+      <c r="O173" s="128"/>
+      <c r="P173" s="128"/>
+      <c r="Q173" s="128"/>
+      <c r="R173" s="128"/>
+      <c r="S173" s="128"/>
+      <c r="T173" s="128"/>
+      <c r="U173" s="128"/>
+      <c r="V173" s="128"/>
+      <c r="W173" s="128"/>
+      <c r="X173" s="128"/>
+      <c r="Y173" s="102"/>
+      <c r="Z173" s="106"/>
+      <c r="AA173" s="128"/>
+      <c r="AB173" s="128"/>
+      <c r="AC173" s="128"/>
+      <c r="AD173" s="128"/>
+      <c r="AE173" s="128"/>
+      <c r="AF173" s="128"/>
+      <c r="AG173" s="128"/>
+      <c r="AH173" s="128"/>
+      <c r="AI173" s="128"/>
+      <c r="AJ173" s="102"/>
+      <c r="AK173" s="128"/>
+      <c r="AL173" s="128"/>
+      <c r="AM173" s="128"/>
+      <c r="AN173" s="128"/>
+      <c r="AO173" s="128"/>
+      <c r="AP173" s="128"/>
+      <c r="AQ173" s="128"/>
+      <c r="AR173" s="128"/>
+      <c r="AS173" s="128"/>
+      <c r="AT173" s="128"/>
+      <c r="AU173" s="128"/>
+      <c r="AV173" s="102"/>
+    </row>
+    <row r="174" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N174" s="106"/>
+      <c r="O174" s="128"/>
+      <c r="P174" s="128"/>
+      <c r="Q174" s="128"/>
+      <c r="R174" s="128"/>
+      <c r="S174" s="128"/>
+      <c r="T174" s="128"/>
+      <c r="U174" s="128"/>
+      <c r="V174" s="128"/>
+      <c r="W174" s="128"/>
+      <c r="X174" s="128"/>
+      <c r="Y174" s="102"/>
+      <c r="Z174" s="106"/>
+      <c r="AA174" s="128"/>
+      <c r="AB174" s="128"/>
+      <c r="AC174" s="128"/>
+      <c r="AD174" s="128"/>
+      <c r="AE174" s="128"/>
+      <c r="AF174" s="128"/>
+      <c r="AG174" s="128"/>
+      <c r="AH174" s="128"/>
+      <c r="AI174" s="128"/>
+      <c r="AJ174" s="102"/>
+      <c r="AK174" s="128"/>
+      <c r="AL174" s="128"/>
+      <c r="AM174" s="128"/>
+      <c r="AN174" s="128"/>
+      <c r="AO174" s="128"/>
+      <c r="AP174" s="128"/>
+      <c r="AQ174" s="128"/>
+      <c r="AR174" s="128"/>
+      <c r="AS174" s="128"/>
+      <c r="AT174" s="128"/>
+      <c r="AU174" s="128"/>
+      <c r="AV174" s="102"/>
+    </row>
+    <row r="175" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N175" s="106"/>
+      <c r="O175" s="128"/>
+      <c r="P175" s="128"/>
+      <c r="Q175" s="128"/>
+      <c r="R175" s="128"/>
+      <c r="S175" s="128"/>
+      <c r="T175" s="128"/>
+      <c r="U175" s="128"/>
+      <c r="V175" s="128"/>
+      <c r="W175" s="128"/>
+      <c r="X175" s="128"/>
+      <c r="Y175" s="102"/>
+      <c r="Z175" s="106"/>
+      <c r="AA175" s="128"/>
+      <c r="AB175" s="128"/>
+      <c r="AC175" s="128"/>
+      <c r="AD175" s="128"/>
+      <c r="AE175" s="128"/>
+      <c r="AF175" s="128"/>
+      <c r="AG175" s="128"/>
+      <c r="AH175" s="128"/>
+      <c r="AI175" s="128"/>
+      <c r="AJ175" s="102"/>
+      <c r="AK175" s="128"/>
+      <c r="AL175" s="128"/>
+      <c r="AM175" s="128"/>
+      <c r="AN175" s="128"/>
+      <c r="AO175" s="128"/>
+      <c r="AP175" s="128"/>
+      <c r="AQ175" s="128"/>
+      <c r="AR175" s="128"/>
+      <c r="AS175" s="128"/>
+      <c r="AT175" s="128"/>
+      <c r="AU175" s="128"/>
+      <c r="AV175" s="102"/>
+    </row>
+    <row r="176" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N176" s="106"/>
+      <c r="O176" s="128"/>
+      <c r="P176" s="128"/>
+      <c r="Q176" s="128"/>
+      <c r="R176" s="128"/>
+      <c r="S176" s="128"/>
+      <c r="T176" s="128"/>
+      <c r="U176" s="128"/>
+      <c r="V176" s="128"/>
+      <c r="W176" s="128"/>
+      <c r="X176" s="128"/>
+      <c r="Y176" s="102"/>
+      <c r="Z176" s="106"/>
+      <c r="AA176" s="128"/>
+      <c r="AB176" s="128"/>
+      <c r="AC176" s="128"/>
+      <c r="AD176" s="128"/>
+      <c r="AE176" s="128"/>
+      <c r="AF176" s="128"/>
+      <c r="AG176" s="128"/>
+      <c r="AH176" s="128"/>
+      <c r="AI176" s="128"/>
+      <c r="AJ176" s="102"/>
+      <c r="AK176" s="128"/>
+      <c r="AL176" s="128"/>
+      <c r="AM176" s="128"/>
+      <c r="AN176" s="128"/>
+      <c r="AO176" s="128"/>
+      <c r="AP176" s="128"/>
+      <c r="AQ176" s="128"/>
+      <c r="AR176" s="128"/>
+      <c r="AS176" s="128"/>
+      <c r="AT176" s="128"/>
+      <c r="AU176" s="128"/>
+      <c r="AV176" s="102"/>
+    </row>
+    <row r="177" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N177" s="106"/>
+      <c r="O177" s="128"/>
+      <c r="P177" s="128"/>
+      <c r="Q177" s="128"/>
+      <c r="R177" s="128"/>
+      <c r="S177" s="128"/>
+      <c r="T177" s="128"/>
+      <c r="U177" s="128"/>
+      <c r="V177" s="128"/>
+      <c r="W177" s="128"/>
+      <c r="X177" s="128"/>
+      <c r="Y177" s="102"/>
+      <c r="Z177" s="106"/>
+      <c r="AA177" s="128"/>
+      <c r="AB177" s="128"/>
+      <c r="AC177" s="128"/>
+      <c r="AD177" s="128"/>
+      <c r="AE177" s="128"/>
+      <c r="AF177" s="128"/>
+      <c r="AG177" s="128"/>
+      <c r="AH177" s="128"/>
+      <c r="AI177" s="128"/>
+      <c r="AJ177" s="102"/>
+      <c r="AK177" s="128"/>
+      <c r="AL177" s="128"/>
+      <c r="AM177" s="128"/>
+      <c r="AN177" s="128"/>
+      <c r="AO177" s="128"/>
+      <c r="AP177" s="128"/>
+      <c r="AQ177" s="128"/>
+      <c r="AR177" s="128"/>
+      <c r="AS177" s="128"/>
+      <c r="AT177" s="128"/>
+      <c r="AU177" s="128"/>
+      <c r="AV177" s="102"/>
+    </row>
+    <row r="178" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N178" s="106"/>
+      <c r="O178" s="128"/>
+      <c r="P178" s="128"/>
+      <c r="Q178" s="128"/>
+      <c r="R178" s="128"/>
+      <c r="S178" s="128"/>
+      <c r="T178" s="128"/>
+      <c r="U178" s="128"/>
+      <c r="V178" s="128"/>
+      <c r="W178" s="128"/>
+      <c r="X178" s="128"/>
+      <c r="Y178" s="102"/>
+      <c r="Z178" s="106"/>
+      <c r="AA178" s="128"/>
+      <c r="AB178" s="128"/>
+      <c r="AC178" s="128"/>
+      <c r="AD178" s="128"/>
+      <c r="AE178" s="128"/>
+      <c r="AF178" s="128"/>
+      <c r="AG178" s="128"/>
+      <c r="AH178" s="128"/>
+      <c r="AI178" s="128"/>
+      <c r="AJ178" s="102"/>
+      <c r="AK178" s="128"/>
+      <c r="AL178" s="128"/>
+      <c r="AM178" s="128"/>
+      <c r="AN178" s="128"/>
+      <c r="AO178" s="128"/>
+      <c r="AP178" s="128"/>
+      <c r="AQ178" s="128"/>
+      <c r="AR178" s="128"/>
+      <c r="AS178" s="128"/>
+      <c r="AT178" s="128"/>
+      <c r="AU178" s="128"/>
+      <c r="AV178" s="102"/>
+    </row>
+    <row r="179" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N179" s="106"/>
+      <c r="O179" s="128"/>
+      <c r="P179" s="128"/>
+      <c r="Q179" s="128"/>
+      <c r="R179" s="128"/>
+      <c r="S179" s="128"/>
+      <c r="T179" s="128"/>
+      <c r="U179" s="128"/>
+      <c r="V179" s="128"/>
+      <c r="W179" s="128"/>
+      <c r="X179" s="128"/>
+      <c r="Y179" s="102"/>
+      <c r="Z179" s="106"/>
+      <c r="AA179" s="128"/>
+      <c r="AB179" s="128"/>
+      <c r="AC179" s="128"/>
+      <c r="AD179" s="128"/>
+      <c r="AE179" s="128"/>
+      <c r="AF179" s="128"/>
+      <c r="AG179" s="128"/>
+      <c r="AH179" s="128"/>
+      <c r="AI179" s="128"/>
+      <c r="AJ179" s="102"/>
+      <c r="AK179" s="128"/>
+      <c r="AL179" s="128"/>
+      <c r="AM179" s="128"/>
+      <c r="AN179" s="128"/>
+      <c r="AO179" s="128"/>
+      <c r="AP179" s="128"/>
+      <c r="AQ179" s="128"/>
+      <c r="AR179" s="128"/>
+      <c r="AS179" s="128"/>
+      <c r="AT179" s="128"/>
+      <c r="AU179" s="128"/>
+      <c r="AV179" s="102"/>
+    </row>
+    <row r="180" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N180" s="106"/>
+      <c r="O180" s="128"/>
+      <c r="P180" s="128"/>
+      <c r="Q180" s="128"/>
+      <c r="R180" s="128"/>
+      <c r="S180" s="128"/>
+      <c r="T180" s="128"/>
+      <c r="U180" s="128"/>
+      <c r="V180" s="128"/>
+      <c r="W180" s="128"/>
+      <c r="X180" s="128"/>
+      <c r="Y180" s="102"/>
+      <c r="Z180" s="106"/>
+      <c r="AA180" s="128"/>
+      <c r="AB180" s="128"/>
+      <c r="AC180" s="128"/>
+      <c r="AD180" s="128"/>
+      <c r="AE180" s="128"/>
+      <c r="AF180" s="128"/>
+      <c r="AG180" s="128"/>
+      <c r="AH180" s="128"/>
+      <c r="AI180" s="128"/>
+      <c r="AJ180" s="102"/>
+      <c r="AK180" s="128"/>
+      <c r="AL180" s="128"/>
+      <c r="AM180" s="128"/>
+      <c r="AN180" s="128"/>
+      <c r="AO180" s="128"/>
+      <c r="AP180" s="128"/>
+      <c r="AQ180" s="128"/>
+      <c r="AR180" s="128"/>
+      <c r="AS180" s="128"/>
+      <c r="AT180" s="128"/>
+      <c r="AU180" s="128"/>
+      <c r="AV180" s="102"/>
+    </row>
+    <row r="181" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N181" s="106"/>
+      <c r="O181" s="128"/>
+      <c r="P181" s="128"/>
+      <c r="Q181" s="128"/>
+      <c r="R181" s="128"/>
+      <c r="S181" s="128"/>
+      <c r="T181" s="128"/>
+      <c r="U181" s="128"/>
+      <c r="V181" s="128"/>
+      <c r="W181" s="128"/>
+      <c r="X181" s="128"/>
+      <c r="Y181" s="102"/>
+      <c r="Z181" s="106"/>
+      <c r="AA181" s="128"/>
+      <c r="AB181" s="128"/>
+      <c r="AC181" s="128"/>
+      <c r="AD181" s="128"/>
+      <c r="AE181" s="128"/>
+      <c r="AF181" s="128"/>
+      <c r="AG181" s="128"/>
+      <c r="AH181" s="128"/>
+      <c r="AI181" s="128"/>
+      <c r="AJ181" s="102"/>
+      <c r="AK181" s="128"/>
+      <c r="AL181" s="128"/>
+      <c r="AM181" s="128"/>
+      <c r="AN181" s="128"/>
+      <c r="AO181" s="128"/>
+      <c r="AP181" s="128"/>
+      <c r="AQ181" s="128"/>
+      <c r="AR181" s="128"/>
+      <c r="AS181" s="128"/>
+      <c r="AT181" s="128"/>
+      <c r="AU181" s="128"/>
+      <c r="AV181" s="102"/>
+    </row>
+    <row r="182" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N182" s="106"/>
+      <c r="O182" s="128"/>
+      <c r="P182" s="128"/>
+      <c r="Q182" s="128"/>
+      <c r="R182" s="128"/>
+      <c r="S182" s="128"/>
+      <c r="T182" s="128"/>
+      <c r="U182" s="128"/>
+      <c r="V182" s="128"/>
+      <c r="W182" s="128"/>
+      <c r="X182" s="128"/>
+      <c r="Y182" s="102"/>
+      <c r="Z182" s="106"/>
+      <c r="AA182" s="128"/>
+      <c r="AB182" s="128"/>
+      <c r="AC182" s="128"/>
+      <c r="AD182" s="128"/>
+      <c r="AE182" s="128"/>
+      <c r="AF182" s="128"/>
+      <c r="AG182" s="128"/>
+      <c r="AH182" s="128"/>
+      <c r="AI182" s="128"/>
+      <c r="AJ182" s="102"/>
+      <c r="AK182" s="128"/>
+      <c r="AL182" s="128"/>
+      <c r="AM182" s="128"/>
+      <c r="AN182" s="128"/>
+      <c r="AO182" s="128"/>
+      <c r="AP182" s="128"/>
+      <c r="AQ182" s="128"/>
+      <c r="AR182" s="128"/>
+      <c r="AS182" s="128"/>
+      <c r="AT182" s="128"/>
+      <c r="AU182" s="128"/>
+      <c r="AV182" s="102"/>
+    </row>
+    <row r="183" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N183" s="106"/>
+      <c r="O183" s="128"/>
+      <c r="P183" s="128"/>
+      <c r="Q183" s="128"/>
+      <c r="R183" s="128"/>
+      <c r="S183" s="128"/>
+      <c r="T183" s="128"/>
+      <c r="U183" s="128"/>
+      <c r="V183" s="128"/>
+      <c r="W183" s="128"/>
+      <c r="X183" s="128"/>
+      <c r="Y183" s="102"/>
+      <c r="Z183" s="106"/>
+      <c r="AA183" s="128"/>
+      <c r="AB183" s="128"/>
+      <c r="AC183" s="128"/>
+      <c r="AD183" s="128"/>
+      <c r="AE183" s="128"/>
+      <c r="AF183" s="128"/>
+      <c r="AG183" s="128"/>
+      <c r="AH183" s="128"/>
+      <c r="AI183" s="128"/>
+      <c r="AJ183" s="102"/>
+      <c r="AK183" s="128"/>
+      <c r="AL183" s="128"/>
+      <c r="AM183" s="128"/>
+      <c r="AN183" s="128"/>
+      <c r="AO183" s="128"/>
+      <c r="AP183" s="128"/>
+      <c r="AQ183" s="128"/>
+      <c r="AR183" s="128"/>
+      <c r="AS183" s="128"/>
+      <c r="AT183" s="128"/>
+      <c r="AU183" s="128"/>
+      <c r="AV183" s="102"/>
+    </row>
+    <row r="184" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N184" s="106"/>
+      <c r="O184" s="128"/>
+      <c r="P184" s="128"/>
+      <c r="Q184" s="128"/>
+      <c r="R184" s="128"/>
+      <c r="S184" s="128"/>
+      <c r="T184" s="128"/>
+      <c r="U184" s="128"/>
+      <c r="V184" s="128"/>
+      <c r="W184" s="128"/>
+      <c r="X184" s="128"/>
+      <c r="Y184" s="102"/>
+      <c r="Z184" s="106"/>
+      <c r="AA184" s="128"/>
+      <c r="AB184" s="128"/>
+      <c r="AC184" s="128"/>
+      <c r="AD184" s="128"/>
+      <c r="AE184" s="128"/>
+      <c r="AF184" s="128"/>
+      <c r="AG184" s="128"/>
+      <c r="AH184" s="128"/>
+      <c r="AI184" s="128"/>
+      <c r="AJ184" s="102"/>
+      <c r="AK184" s="128"/>
+      <c r="AL184" s="128"/>
+      <c r="AM184" s="128"/>
+      <c r="AN184" s="128"/>
+      <c r="AO184" s="128"/>
+      <c r="AP184" s="128"/>
+      <c r="AQ184" s="128"/>
+      <c r="AR184" s="128"/>
+      <c r="AS184" s="128"/>
+      <c r="AT184" s="128"/>
+      <c r="AU184" s="128"/>
+      <c r="AV184" s="102"/>
+    </row>
+    <row r="185" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N185" s="106"/>
+      <c r="O185" s="128"/>
+      <c r="P185" s="128"/>
+      <c r="Q185" s="128"/>
+      <c r="R185" s="128"/>
+      <c r="S185" s="128"/>
+      <c r="T185" s="128"/>
+      <c r="U185" s="128"/>
+      <c r="V185" s="128"/>
+      <c r="W185" s="128"/>
+      <c r="X185" s="128"/>
+      <c r="Y185" s="102"/>
+      <c r="Z185" s="106"/>
+      <c r="AA185" s="128"/>
+      <c r="AB185" s="128"/>
+      <c r="AC185" s="128"/>
+      <c r="AD185" s="128"/>
+      <c r="AE185" s="128"/>
+      <c r="AF185" s="128"/>
+      <c r="AG185" s="128"/>
+      <c r="AH185" s="128"/>
+      <c r="AI185" s="128"/>
+      <c r="AJ185" s="102"/>
+      <c r="AK185" s="128"/>
+      <c r="AL185" s="128"/>
+      <c r="AM185" s="128"/>
+      <c r="AN185" s="128"/>
+      <c r="AO185" s="128"/>
+      <c r="AP185" s="128"/>
+      <c r="AQ185" s="128"/>
+      <c r="AR185" s="128"/>
+      <c r="AS185" s="128"/>
+      <c r="AT185" s="128"/>
+      <c r="AU185" s="128"/>
+      <c r="AV185" s="102"/>
+    </row>
+    <row r="186" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N186" s="106"/>
+      <c r="O186" s="128"/>
+      <c r="P186" s="128"/>
+      <c r="Q186" s="128"/>
+      <c r="R186" s="128"/>
+      <c r="S186" s="128"/>
+      <c r="T186" s="128"/>
+      <c r="U186" s="128"/>
+      <c r="V186" s="128"/>
+      <c r="W186" s="128"/>
+      <c r="X186" s="128"/>
+      <c r="Y186" s="102"/>
+      <c r="Z186" s="106"/>
+      <c r="AA186" s="128"/>
+      <c r="AB186" s="128"/>
+      <c r="AC186" s="128"/>
+      <c r="AD186" s="128"/>
+      <c r="AE186" s="128"/>
+      <c r="AF186" s="128"/>
+      <c r="AG186" s="128"/>
+      <c r="AH186" s="128"/>
+      <c r="AI186" s="128"/>
+      <c r="AJ186" s="102"/>
+      <c r="AK186" s="128"/>
+      <c r="AL186" s="128"/>
+      <c r="AM186" s="128"/>
+      <c r="AN186" s="128"/>
+      <c r="AO186" s="128"/>
+      <c r="AP186" s="128"/>
+      <c r="AQ186" s="128"/>
+      <c r="AR186" s="128"/>
+      <c r="AS186" s="128"/>
+      <c r="AT186" s="128"/>
+      <c r="AU186" s="128"/>
+      <c r="AV186" s="102"/>
+    </row>
+    <row r="187" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N187" s="106"/>
+      <c r="O187" s="128"/>
+      <c r="P187" s="128"/>
+      <c r="Q187" s="128"/>
+      <c r="R187" s="128"/>
+      <c r="S187" s="128"/>
+      <c r="T187" s="128"/>
+      <c r="U187" s="128"/>
+      <c r="V187" s="128"/>
+      <c r="W187" s="128"/>
+      <c r="X187" s="128"/>
+      <c r="Y187" s="102"/>
+      <c r="Z187" s="106"/>
+      <c r="AA187" s="128"/>
+      <c r="AB187" s="128"/>
+      <c r="AC187" s="128"/>
+      <c r="AD187" s="128"/>
+      <c r="AE187" s="128"/>
+      <c r="AF187" s="128"/>
+      <c r="AG187" s="128"/>
+      <c r="AH187" s="128"/>
+      <c r="AI187" s="128"/>
+      <c r="AJ187" s="102"/>
+      <c r="AK187" s="128"/>
+      <c r="AL187" s="128"/>
+      <c r="AM187" s="128"/>
+      <c r="AN187" s="128"/>
+      <c r="AO187" s="128"/>
+      <c r="AP187" s="128"/>
+      <c r="AQ187" s="128"/>
+      <c r="AR187" s="128"/>
+      <c r="AS187" s="128"/>
+      <c r="AT187" s="128"/>
+      <c r="AU187" s="128"/>
+      <c r="AV187" s="102"/>
+    </row>
+    <row r="188" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N188" s="106"/>
+      <c r="O188" s="128"/>
+      <c r="P188" s="128"/>
+      <c r="Q188" s="128"/>
+      <c r="R188" s="128"/>
+      <c r="S188" s="128"/>
+      <c r="T188" s="128"/>
+      <c r="U188" s="128"/>
+      <c r="V188" s="128"/>
+      <c r="W188" s="128"/>
+      <c r="X188" s="128"/>
+      <c r="Y188" s="102"/>
+      <c r="Z188" s="106"/>
+      <c r="AA188" s="128"/>
+      <c r="AB188" s="128"/>
+      <c r="AC188" s="128"/>
+      <c r="AD188" s="128"/>
+      <c r="AE188" s="128"/>
+      <c r="AF188" s="128"/>
+      <c r="AG188" s="128"/>
+      <c r="AH188" s="128"/>
+      <c r="AI188" s="128"/>
+      <c r="AJ188" s="102"/>
+      <c r="AK188" s="128"/>
+      <c r="AL188" s="128"/>
+      <c r="AM188" s="128"/>
+      <c r="AN188" s="128"/>
+      <c r="AO188" s="128"/>
+      <c r="AP188" s="128"/>
+      <c r="AQ188" s="128"/>
+      <c r="AR188" s="128"/>
+      <c r="AS188" s="128"/>
+      <c r="AT188" s="128"/>
+      <c r="AU188" s="128"/>
+      <c r="AV188" s="102"/>
+    </row>
+    <row r="189" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N189" s="106"/>
+      <c r="O189" s="128"/>
+      <c r="P189" s="128"/>
+      <c r="Q189" s="128"/>
+      <c r="R189" s="128"/>
+      <c r="S189" s="128"/>
+      <c r="T189" s="128"/>
+      <c r="U189" s="128"/>
+      <c r="V189" s="128"/>
+      <c r="W189" s="128"/>
+      <c r="X189" s="128"/>
+      <c r="Y189" s="102"/>
+      <c r="Z189" s="106"/>
+      <c r="AA189" s="128"/>
+      <c r="AB189" s="128"/>
+      <c r="AC189" s="128"/>
+      <c r="AD189" s="128"/>
+      <c r="AE189" s="128"/>
+      <c r="AF189" s="128"/>
+      <c r="AG189" s="128"/>
+      <c r="AH189" s="128"/>
+      <c r="AI189" s="128"/>
+      <c r="AJ189" s="102"/>
+      <c r="AK189" s="128"/>
+      <c r="AL189" s="128"/>
+      <c r="AM189" s="128"/>
+      <c r="AN189" s="128"/>
+      <c r="AO189" s="128"/>
+      <c r="AP189" s="128"/>
+      <c r="AQ189" s="128"/>
+      <c r="AR189" s="128"/>
+      <c r="AS189" s="128"/>
+      <c r="AT189" s="128"/>
+      <c r="AU189" s="128"/>
+      <c r="AV189" s="102"/>
+    </row>
+    <row r="190" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N190" s="106"/>
+      <c r="O190" s="128"/>
+      <c r="P190" s="128"/>
+      <c r="Q190" s="128"/>
+      <c r="R190" s="128"/>
+      <c r="S190" s="128"/>
+      <c r="T190" s="128"/>
+      <c r="U190" s="128"/>
+      <c r="V190" s="128"/>
+      <c r="W190" s="128"/>
+      <c r="X190" s="128"/>
+      <c r="Y190" s="102"/>
+      <c r="Z190" s="106"/>
+      <c r="AA190" s="128"/>
+      <c r="AB190" s="128"/>
+      <c r="AC190" s="128"/>
+      <c r="AD190" s="128"/>
+      <c r="AE190" s="128"/>
+      <c r="AF190" s="128"/>
+      <c r="AG190" s="128"/>
+      <c r="AH190" s="128"/>
+      <c r="AI190" s="128"/>
+      <c r="AJ190" s="102"/>
+      <c r="AK190" s="128"/>
+      <c r="AL190" s="128"/>
+      <c r="AM190" s="128"/>
+      <c r="AN190" s="128"/>
+      <c r="AO190" s="128"/>
+      <c r="AP190" s="128"/>
+      <c r="AQ190" s="128"/>
+      <c r="AR190" s="128"/>
+      <c r="AS190" s="128"/>
+      <c r="AT190" s="128"/>
+      <c r="AU190" s="128"/>
+      <c r="AV190" s="102"/>
+    </row>
+    <row r="191" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N191" s="106"/>
+      <c r="O191" s="128"/>
+      <c r="P191" s="128"/>
+      <c r="Q191" s="128"/>
+      <c r="R191" s="128"/>
+      <c r="S191" s="128"/>
+      <c r="T191" s="128"/>
+      <c r="U191" s="128"/>
+      <c r="V191" s="128"/>
+      <c r="W191" s="128"/>
+      <c r="X191" s="128"/>
+      <c r="Y191" s="102"/>
+      <c r="Z191" s="106"/>
+      <c r="AA191" s="128"/>
+      <c r="AB191" s="128"/>
+      <c r="AC191" s="128"/>
+      <c r="AD191" s="128"/>
+      <c r="AE191" s="128"/>
+      <c r="AF191" s="128"/>
+      <c r="AG191" s="128"/>
+      <c r="AH191" s="128"/>
+      <c r="AI191" s="128"/>
+      <c r="AJ191" s="102"/>
+      <c r="AK191" s="128"/>
+      <c r="AL191" s="128"/>
+      <c r="AM191" s="128"/>
+      <c r="AN191" s="128"/>
+      <c r="AO191" s="128"/>
+      <c r="AP191" s="128"/>
+      <c r="AQ191" s="128"/>
+      <c r="AR191" s="128"/>
+      <c r="AS191" s="128"/>
+      <c r="AT191" s="128"/>
+      <c r="AU191" s="128"/>
+      <c r="AV191" s="102"/>
+    </row>
+    <row r="192" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N192" s="106"/>
+      <c r="O192" s="128"/>
+      <c r="P192" s="128"/>
+      <c r="Q192" s="128"/>
+      <c r="R192" s="128"/>
+      <c r="S192" s="128"/>
+      <c r="T192" s="128"/>
+      <c r="U192" s="128"/>
+      <c r="V192" s="128"/>
+      <c r="W192" s="128"/>
+      <c r="X192" s="128"/>
+      <c r="Y192" s="102"/>
+      <c r="Z192" s="106"/>
+      <c r="AA192" s="128"/>
+      <c r="AB192" s="128"/>
+      <c r="AC192" s="128"/>
+      <c r="AD192" s="128"/>
+      <c r="AE192" s="128"/>
+      <c r="AF192" s="128"/>
+      <c r="AG192" s="128"/>
+      <c r="AH192" s="128"/>
+      <c r="AI192" s="128"/>
+      <c r="AJ192" s="102"/>
+      <c r="AK192" s="128"/>
+      <c r="AL192" s="128"/>
+      <c r="AM192" s="128"/>
+      <c r="AN192" s="128"/>
+      <c r="AO192" s="128"/>
+      <c r="AP192" s="128"/>
+      <c r="AQ192" s="128"/>
+      <c r="AR192" s="128"/>
+      <c r="AS192" s="128"/>
+      <c r="AT192" s="128"/>
+      <c r="AU192" s="128"/>
+      <c r="AV192" s="102"/>
+    </row>
+    <row r="193" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N193" s="106"/>
+      <c r="O193" s="128"/>
+      <c r="P193" s="128"/>
+      <c r="Q193" s="128"/>
+      <c r="R193" s="128"/>
+      <c r="S193" s="128"/>
+      <c r="T193" s="128"/>
+      <c r="U193" s="128"/>
+      <c r="V193" s="128"/>
+      <c r="W193" s="128"/>
+      <c r="X193" s="128"/>
+      <c r="Y193" s="102"/>
+      <c r="Z193" s="106"/>
+      <c r="AA193" s="128"/>
+      <c r="AB193" s="128"/>
+      <c r="AC193" s="128"/>
+      <c r="AD193" s="128"/>
+      <c r="AE193" s="128"/>
+      <c r="AF193" s="128"/>
+      <c r="AG193" s="128"/>
+      <c r="AH193" s="128"/>
+      <c r="AI193" s="128"/>
+      <c r="AJ193" s="102"/>
+      <c r="AK193" s="128"/>
+      <c r="AL193" s="128"/>
+      <c r="AM193" s="128"/>
+      <c r="AN193" s="128"/>
+      <c r="AO193" s="128"/>
+      <c r="AP193" s="128"/>
+      <c r="AQ193" s="128"/>
+      <c r="AR193" s="128"/>
+      <c r="AS193" s="128"/>
+      <c r="AT193" s="128"/>
+      <c r="AU193" s="128"/>
+      <c r="AV193" s="102"/>
+    </row>
+    <row r="194" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N194" s="106"/>
+      <c r="O194" s="128"/>
+      <c r="P194" s="128"/>
+      <c r="Q194" s="128"/>
+      <c r="R194" s="128"/>
+      <c r="S194" s="128"/>
+      <c r="T194" s="128"/>
+      <c r="U194" s="128"/>
+      <c r="V194" s="128"/>
+      <c r="W194" s="128"/>
+      <c r="X194" s="128"/>
+      <c r="Y194" s="102"/>
+      <c r="Z194" s="106"/>
+      <c r="AA194" s="128"/>
+      <c r="AB194" s="128"/>
+      <c r="AC194" s="128"/>
+      <c r="AD194" s="128"/>
+      <c r="AE194" s="128"/>
+      <c r="AF194" s="128"/>
+      <c r="AG194" s="128"/>
+      <c r="AH194" s="128"/>
+      <c r="AI194" s="128"/>
+      <c r="AJ194" s="102"/>
+      <c r="AK194" s="128"/>
+      <c r="AL194" s="128"/>
+      <c r="AM194" s="128"/>
+      <c r="AN194" s="128"/>
+      <c r="AO194" s="128"/>
+      <c r="AP194" s="128"/>
+      <c r="AQ194" s="128"/>
+      <c r="AR194" s="128"/>
+      <c r="AS194" s="128"/>
+      <c r="AT194" s="128"/>
+      <c r="AU194" s="128"/>
+      <c r="AV194" s="102"/>
+    </row>
+    <row r="195" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N195" s="106"/>
+      <c r="O195" s="128"/>
+      <c r="P195" s="128"/>
+      <c r="Q195" s="128"/>
+      <c r="R195" s="128"/>
+      <c r="S195" s="128"/>
+      <c r="T195" s="128"/>
+      <c r="U195" s="128"/>
+      <c r="V195" s="128"/>
+      <c r="W195" s="128"/>
+      <c r="X195" s="128"/>
+      <c r="Y195" s="102"/>
+      <c r="Z195" s="106"/>
+      <c r="AA195" s="128"/>
+      <c r="AB195" s="128"/>
+      <c r="AC195" s="128"/>
+      <c r="AD195" s="128"/>
+      <c r="AE195" s="128"/>
+      <c r="AF195" s="128"/>
+      <c r="AG195" s="128"/>
+      <c r="AH195" s="128"/>
+      <c r="AI195" s="128"/>
+      <c r="AJ195" s="102"/>
+      <c r="AK195" s="128"/>
+      <c r="AL195" s="128"/>
+      <c r="AM195" s="128"/>
+      <c r="AN195" s="128"/>
+      <c r="AO195" s="128"/>
+      <c r="AP195" s="128"/>
+      <c r="AQ195" s="128"/>
+      <c r="AR195" s="128"/>
+      <c r="AS195" s="128"/>
+      <c r="AT195" s="128"/>
+      <c r="AU195" s="128"/>
+      <c r="AV195" s="102"/>
+    </row>
+    <row r="196" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N196" s="106"/>
+      <c r="O196" s="128"/>
+      <c r="P196" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="AA196" t="s">
+      <c r="Q196" s="128"/>
+      <c r="R196" s="128"/>
+      <c r="S196" s="128"/>
+      <c r="T196" s="128"/>
+      <c r="U196" s="128"/>
+      <c r="V196" s="128"/>
+      <c r="W196" s="128"/>
+      <c r="X196" s="128"/>
+      <c r="Y196" s="102"/>
+      <c r="Z196" s="106"/>
+      <c r="AA196" s="128" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="221" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P221" t="s">
+      <c r="AB196" s="128"/>
+      <c r="AC196" s="128"/>
+      <c r="AD196" s="128"/>
+      <c r="AE196" s="128"/>
+      <c r="AF196" s="128"/>
+      <c r="AG196" s="128"/>
+      <c r="AH196" s="128"/>
+      <c r="AI196" s="128"/>
+      <c r="AJ196" s="102"/>
+      <c r="AK196" s="128"/>
+      <c r="AL196" s="128"/>
+      <c r="AM196" s="128"/>
+      <c r="AN196" s="128"/>
+      <c r="AO196" s="128"/>
+      <c r="AP196" s="128"/>
+      <c r="AQ196" s="128"/>
+      <c r="AR196" s="128"/>
+      <c r="AS196" s="128"/>
+      <c r="AT196" s="128"/>
+      <c r="AU196" s="128"/>
+      <c r="AV196" s="102"/>
+    </row>
+    <row r="197" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N197" s="106"/>
+      <c r="O197" s="128"/>
+      <c r="P197" s="128"/>
+      <c r="Q197" s="128"/>
+      <c r="R197" s="128"/>
+      <c r="S197" s="128"/>
+      <c r="T197" s="128"/>
+      <c r="U197" s="128"/>
+      <c r="V197" s="128"/>
+      <c r="W197" s="128"/>
+      <c r="X197" s="128"/>
+      <c r="Y197" s="102"/>
+      <c r="Z197" s="106"/>
+      <c r="AA197" s="128"/>
+      <c r="AB197" s="128"/>
+      <c r="AC197" s="128"/>
+      <c r="AD197" s="128"/>
+      <c r="AE197" s="128"/>
+      <c r="AF197" s="128"/>
+      <c r="AG197" s="128"/>
+      <c r="AH197" s="128"/>
+      <c r="AI197" s="128"/>
+      <c r="AJ197" s="102"/>
+      <c r="AK197" s="128"/>
+      <c r="AL197" s="128"/>
+      <c r="AM197" s="128"/>
+      <c r="AN197" s="128"/>
+      <c r="AO197" s="128"/>
+      <c r="AP197" s="128"/>
+      <c r="AQ197" s="128"/>
+      <c r="AR197" s="128"/>
+      <c r="AS197" s="128"/>
+      <c r="AT197" s="128"/>
+      <c r="AU197" s="128"/>
+      <c r="AV197" s="102"/>
+    </row>
+    <row r="198" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N198" s="106"/>
+      <c r="O198" s="128"/>
+      <c r="P198" s="128"/>
+      <c r="Q198" s="128"/>
+      <c r="R198" s="128"/>
+      <c r="S198" s="128"/>
+      <c r="T198" s="128"/>
+      <c r="U198" s="128"/>
+      <c r="V198" s="128"/>
+      <c r="W198" s="128"/>
+      <c r="X198" s="128"/>
+      <c r="Y198" s="102"/>
+      <c r="Z198" s="106"/>
+      <c r="AA198" s="128"/>
+      <c r="AB198" s="128"/>
+      <c r="AC198" s="128"/>
+      <c r="AD198" s="128"/>
+      <c r="AE198" s="128"/>
+      <c r="AF198" s="128"/>
+      <c r="AG198" s="128"/>
+      <c r="AH198" s="128"/>
+      <c r="AI198" s="128"/>
+      <c r="AJ198" s="102"/>
+      <c r="AK198" s="128"/>
+      <c r="AL198" s="128"/>
+      <c r="AM198" s="128"/>
+      <c r="AN198" s="128"/>
+      <c r="AO198" s="128"/>
+      <c r="AP198" s="128"/>
+      <c r="AQ198" s="128"/>
+      <c r="AR198" s="128"/>
+      <c r="AS198" s="128"/>
+      <c r="AT198" s="128"/>
+      <c r="AU198" s="128"/>
+      <c r="AV198" s="102"/>
+    </row>
+    <row r="199" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N199" s="106"/>
+      <c r="O199" s="128"/>
+      <c r="P199" s="128"/>
+      <c r="Q199" s="128"/>
+      <c r="R199" s="128"/>
+      <c r="S199" s="128"/>
+      <c r="T199" s="128"/>
+      <c r="U199" s="128"/>
+      <c r="V199" s="128"/>
+      <c r="W199" s="128"/>
+      <c r="X199" s="128"/>
+      <c r="Y199" s="102"/>
+      <c r="Z199" s="106"/>
+      <c r="AA199" s="128"/>
+      <c r="AB199" s="128"/>
+      <c r="AC199" s="128"/>
+      <c r="AD199" s="128"/>
+      <c r="AE199" s="128"/>
+      <c r="AF199" s="128"/>
+      <c r="AG199" s="128"/>
+      <c r="AH199" s="128"/>
+      <c r="AI199" s="128"/>
+      <c r="AJ199" s="102"/>
+      <c r="AK199" s="128"/>
+      <c r="AL199" s="128"/>
+      <c r="AM199" s="128"/>
+      <c r="AN199" s="128"/>
+      <c r="AO199" s="128"/>
+      <c r="AP199" s="128"/>
+      <c r="AQ199" s="128"/>
+      <c r="AR199" s="128"/>
+      <c r="AS199" s="128"/>
+      <c r="AT199" s="128"/>
+      <c r="AU199" s="128"/>
+      <c r="AV199" s="102"/>
+    </row>
+    <row r="200" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N200" s="106"/>
+      <c r="O200" s="128"/>
+      <c r="P200" s="128"/>
+      <c r="Q200" s="128"/>
+      <c r="R200" s="128"/>
+      <c r="S200" s="128"/>
+      <c r="T200" s="128"/>
+      <c r="U200" s="128"/>
+      <c r="V200" s="128"/>
+      <c r="W200" s="128"/>
+      <c r="X200" s="128"/>
+      <c r="Y200" s="102"/>
+      <c r="Z200" s="106"/>
+      <c r="AA200" s="128"/>
+      <c r="AB200" s="128"/>
+      <c r="AC200" s="128"/>
+      <c r="AD200" s="128"/>
+      <c r="AE200" s="128"/>
+      <c r="AF200" s="128"/>
+      <c r="AG200" s="128"/>
+      <c r="AH200" s="128"/>
+      <c r="AI200" s="128"/>
+      <c r="AJ200" s="102"/>
+      <c r="AK200" s="128"/>
+      <c r="AL200" s="128"/>
+      <c r="AM200" s="128"/>
+      <c r="AN200" s="128"/>
+      <c r="AO200" s="128"/>
+      <c r="AP200" s="128"/>
+      <c r="AQ200" s="128"/>
+      <c r="AR200" s="128"/>
+      <c r="AS200" s="128"/>
+      <c r="AT200" s="128"/>
+      <c r="AU200" s="128"/>
+      <c r="AV200" s="102"/>
+    </row>
+    <row r="201" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N201" s="106"/>
+      <c r="O201" s="128"/>
+      <c r="P201" s="128"/>
+      <c r="Q201" s="128"/>
+      <c r="R201" s="128"/>
+      <c r="S201" s="128"/>
+      <c r="T201" s="128"/>
+      <c r="U201" s="128"/>
+      <c r="V201" s="128"/>
+      <c r="W201" s="128"/>
+      <c r="X201" s="128"/>
+      <c r="Y201" s="102"/>
+      <c r="Z201" s="106"/>
+      <c r="AA201" s="128"/>
+      <c r="AB201" s="128"/>
+      <c r="AC201" s="128"/>
+      <c r="AD201" s="128"/>
+      <c r="AE201" s="128"/>
+      <c r="AF201" s="128"/>
+      <c r="AG201" s="128"/>
+      <c r="AH201" s="128"/>
+      <c r="AI201" s="128"/>
+      <c r="AJ201" s="102"/>
+      <c r="AK201" s="128"/>
+      <c r="AL201" s="128"/>
+      <c r="AM201" s="128"/>
+      <c r="AN201" s="128"/>
+      <c r="AO201" s="128"/>
+      <c r="AP201" s="128"/>
+      <c r="AQ201" s="128"/>
+      <c r="AR201" s="128"/>
+      <c r="AS201" s="128"/>
+      <c r="AT201" s="128"/>
+      <c r="AU201" s="128"/>
+      <c r="AV201" s="102"/>
+    </row>
+    <row r="202" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N202" s="106"/>
+      <c r="O202" s="128"/>
+      <c r="P202" s="128"/>
+      <c r="Q202" s="128"/>
+      <c r="R202" s="128"/>
+      <c r="S202" s="128"/>
+      <c r="T202" s="128"/>
+      <c r="U202" s="128"/>
+      <c r="V202" s="128"/>
+      <c r="W202" s="128"/>
+      <c r="X202" s="128"/>
+      <c r="Y202" s="102"/>
+      <c r="Z202" s="106"/>
+      <c r="AA202" s="128"/>
+      <c r="AB202" s="128"/>
+      <c r="AC202" s="128"/>
+      <c r="AD202" s="128"/>
+      <c r="AE202" s="128"/>
+      <c r="AF202" s="128"/>
+      <c r="AG202" s="128"/>
+      <c r="AH202" s="128"/>
+      <c r="AI202" s="128"/>
+      <c r="AJ202" s="102"/>
+      <c r="AK202" s="128"/>
+      <c r="AL202" s="128"/>
+      <c r="AM202" s="128"/>
+      <c r="AN202" s="128"/>
+      <c r="AO202" s="128"/>
+      <c r="AP202" s="128"/>
+      <c r="AQ202" s="128"/>
+      <c r="AR202" s="128"/>
+      <c r="AS202" s="128"/>
+      <c r="AT202" s="128"/>
+      <c r="AU202" s="128"/>
+      <c r="AV202" s="102"/>
+    </row>
+    <row r="203" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N203" s="106"/>
+      <c r="O203" s="128"/>
+      <c r="P203" s="128"/>
+      <c r="Q203" s="128"/>
+      <c r="R203" s="128"/>
+      <c r="S203" s="128"/>
+      <c r="T203" s="128"/>
+      <c r="U203" s="128"/>
+      <c r="V203" s="128"/>
+      <c r="W203" s="128"/>
+      <c r="X203" s="128"/>
+      <c r="Y203" s="102"/>
+      <c r="Z203" s="106"/>
+      <c r="AA203" s="128"/>
+      <c r="AB203" s="128"/>
+      <c r="AC203" s="128"/>
+      <c r="AD203" s="128"/>
+      <c r="AE203" s="128"/>
+      <c r="AF203" s="128"/>
+      <c r="AG203" s="128"/>
+      <c r="AH203" s="128"/>
+      <c r="AI203" s="128"/>
+      <c r="AJ203" s="102"/>
+      <c r="AK203" s="128"/>
+      <c r="AL203" s="128"/>
+      <c r="AM203" s="128"/>
+      <c r="AN203" s="128"/>
+      <c r="AO203" s="128"/>
+      <c r="AP203" s="128"/>
+      <c r="AQ203" s="128"/>
+      <c r="AR203" s="128"/>
+      <c r="AS203" s="128"/>
+      <c r="AT203" s="128"/>
+      <c r="AU203" s="128"/>
+      <c r="AV203" s="102"/>
+    </row>
+    <row r="204" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N204" s="106"/>
+      <c r="O204" s="128"/>
+      <c r="P204" s="128"/>
+      <c r="Q204" s="128"/>
+      <c r="R204" s="128"/>
+      <c r="S204" s="128"/>
+      <c r="T204" s="128"/>
+      <c r="U204" s="128"/>
+      <c r="V204" s="128"/>
+      <c r="W204" s="128"/>
+      <c r="X204" s="128"/>
+      <c r="Y204" s="102"/>
+      <c r="Z204" s="106"/>
+      <c r="AA204" s="128"/>
+      <c r="AB204" s="128"/>
+      <c r="AC204" s="128"/>
+      <c r="AD204" s="128"/>
+      <c r="AE204" s="128"/>
+      <c r="AF204" s="128"/>
+      <c r="AG204" s="128"/>
+      <c r="AH204" s="128"/>
+      <c r="AI204" s="128"/>
+      <c r="AJ204" s="102"/>
+      <c r="AK204" s="128"/>
+      <c r="AL204" s="128"/>
+      <c r="AM204" s="128"/>
+      <c r="AN204" s="128"/>
+      <c r="AO204" s="128"/>
+      <c r="AP204" s="128"/>
+      <c r="AQ204" s="128"/>
+      <c r="AR204" s="128"/>
+      <c r="AS204" s="128"/>
+      <c r="AT204" s="128"/>
+      <c r="AU204" s="128"/>
+      <c r="AV204" s="102"/>
+    </row>
+    <row r="205" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N205" s="106"/>
+      <c r="O205" s="128"/>
+      <c r="P205" s="128"/>
+      <c r="Q205" s="128"/>
+      <c r="R205" s="128"/>
+      <c r="S205" s="128"/>
+      <c r="T205" s="128"/>
+      <c r="U205" s="128"/>
+      <c r="V205" s="128"/>
+      <c r="W205" s="128"/>
+      <c r="X205" s="128"/>
+      <c r="Y205" s="102"/>
+      <c r="Z205" s="106"/>
+      <c r="AA205" s="128"/>
+      <c r="AB205" s="128"/>
+      <c r="AC205" s="128"/>
+      <c r="AD205" s="128"/>
+      <c r="AE205" s="128"/>
+      <c r="AF205" s="128"/>
+      <c r="AG205" s="128"/>
+      <c r="AH205" s="128"/>
+      <c r="AI205" s="128"/>
+      <c r="AJ205" s="102"/>
+      <c r="AK205" s="128"/>
+      <c r="AL205" s="128"/>
+      <c r="AM205" s="128"/>
+      <c r="AN205" s="128"/>
+      <c r="AO205" s="128"/>
+      <c r="AP205" s="128"/>
+      <c r="AQ205" s="128"/>
+      <c r="AR205" s="128"/>
+      <c r="AS205" s="128"/>
+      <c r="AT205" s="128"/>
+      <c r="AU205" s="128"/>
+      <c r="AV205" s="102"/>
+    </row>
+    <row r="206" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N206" s="106"/>
+      <c r="O206" s="128"/>
+      <c r="P206" s="128"/>
+      <c r="Q206" s="128"/>
+      <c r="R206" s="128"/>
+      <c r="S206" s="128"/>
+      <c r="T206" s="128"/>
+      <c r="U206" s="128"/>
+      <c r="V206" s="128"/>
+      <c r="W206" s="128"/>
+      <c r="X206" s="128"/>
+      <c r="Y206" s="102"/>
+      <c r="Z206" s="106"/>
+      <c r="AA206" s="128"/>
+      <c r="AB206" s="128"/>
+      <c r="AC206" s="128"/>
+      <c r="AD206" s="128"/>
+      <c r="AE206" s="128"/>
+      <c r="AF206" s="128"/>
+      <c r="AG206" s="128"/>
+      <c r="AH206" s="128"/>
+      <c r="AI206" s="128"/>
+      <c r="AJ206" s="102"/>
+      <c r="AK206" s="128"/>
+      <c r="AL206" s="128"/>
+      <c r="AM206" s="128"/>
+      <c r="AN206" s="128"/>
+      <c r="AO206" s="128"/>
+      <c r="AP206" s="128"/>
+      <c r="AQ206" s="128"/>
+      <c r="AR206" s="128"/>
+      <c r="AS206" s="128"/>
+      <c r="AT206" s="128"/>
+      <c r="AU206" s="128"/>
+      <c r="AV206" s="102"/>
+    </row>
+    <row r="207" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N207" s="106"/>
+      <c r="O207" s="128"/>
+      <c r="P207" s="128"/>
+      <c r="Q207" s="128"/>
+      <c r="R207" s="128"/>
+      <c r="S207" s="128"/>
+      <c r="T207" s="128"/>
+      <c r="U207" s="128"/>
+      <c r="V207" s="128"/>
+      <c r="W207" s="128"/>
+      <c r="X207" s="128"/>
+      <c r="Y207" s="102"/>
+      <c r="Z207" s="106"/>
+      <c r="AA207" s="128"/>
+      <c r="AB207" s="128"/>
+      <c r="AC207" s="128"/>
+      <c r="AD207" s="128"/>
+      <c r="AE207" s="128"/>
+      <c r="AF207" s="128"/>
+      <c r="AG207" s="128"/>
+      <c r="AH207" s="128"/>
+      <c r="AI207" s="128"/>
+      <c r="AJ207" s="102"/>
+      <c r="AK207" s="128"/>
+      <c r="AL207" s="128"/>
+      <c r="AM207" s="128"/>
+      <c r="AN207" s="128"/>
+      <c r="AO207" s="128"/>
+      <c r="AP207" s="128"/>
+      <c r="AQ207" s="128"/>
+      <c r="AR207" s="128"/>
+      <c r="AS207" s="128"/>
+      <c r="AT207" s="128"/>
+      <c r="AU207" s="128"/>
+      <c r="AV207" s="102"/>
+    </row>
+    <row r="208" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N208" s="106"/>
+      <c r="O208" s="128"/>
+      <c r="P208" s="128"/>
+      <c r="Q208" s="128"/>
+      <c r="R208" s="128"/>
+      <c r="S208" s="128"/>
+      <c r="T208" s="128"/>
+      <c r="U208" s="128"/>
+      <c r="V208" s="128"/>
+      <c r="W208" s="128"/>
+      <c r="X208" s="128"/>
+      <c r="Y208" s="102"/>
+      <c r="Z208" s="106"/>
+      <c r="AA208" s="128"/>
+      <c r="AB208" s="128"/>
+      <c r="AC208" s="128"/>
+      <c r="AD208" s="128"/>
+      <c r="AE208" s="128"/>
+      <c r="AF208" s="128"/>
+      <c r="AG208" s="128"/>
+      <c r="AH208" s="128"/>
+      <c r="AI208" s="128"/>
+      <c r="AJ208" s="102"/>
+      <c r="AK208" s="128"/>
+      <c r="AL208" s="128"/>
+      <c r="AM208" s="128"/>
+      <c r="AN208" s="128"/>
+      <c r="AO208" s="128"/>
+      <c r="AP208" s="128"/>
+      <c r="AQ208" s="128"/>
+      <c r="AR208" s="128"/>
+      <c r="AS208" s="128"/>
+      <c r="AT208" s="128"/>
+      <c r="AU208" s="128"/>
+      <c r="AV208" s="102"/>
+    </row>
+    <row r="209" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N209" s="106"/>
+      <c r="O209" s="128"/>
+      <c r="P209" s="128"/>
+      <c r="Q209" s="128"/>
+      <c r="R209" s="128"/>
+      <c r="S209" s="128"/>
+      <c r="T209" s="128"/>
+      <c r="U209" s="128"/>
+      <c r="V209" s="128"/>
+      <c r="W209" s="128"/>
+      <c r="X209" s="128"/>
+      <c r="Y209" s="102"/>
+      <c r="Z209" s="106"/>
+      <c r="AA209" s="128"/>
+      <c r="AB209" s="128"/>
+      <c r="AC209" s="128"/>
+      <c r="AD209" s="128"/>
+      <c r="AE209" s="128"/>
+      <c r="AF209" s="128"/>
+      <c r="AG209" s="128"/>
+      <c r="AH209" s="128"/>
+      <c r="AI209" s="128"/>
+      <c r="AJ209" s="102"/>
+      <c r="AK209" s="128"/>
+      <c r="AL209" s="128"/>
+      <c r="AM209" s="128"/>
+      <c r="AN209" s="128"/>
+      <c r="AO209" s="128"/>
+      <c r="AP209" s="128"/>
+      <c r="AQ209" s="128"/>
+      <c r="AR209" s="128"/>
+      <c r="AS209" s="128"/>
+      <c r="AT209" s="128"/>
+      <c r="AU209" s="128"/>
+      <c r="AV209" s="102"/>
+    </row>
+    <row r="210" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N210" s="106"/>
+      <c r="O210" s="128"/>
+      <c r="P210" s="128"/>
+      <c r="Q210" s="128"/>
+      <c r="R210" s="128"/>
+      <c r="S210" s="128"/>
+      <c r="T210" s="128"/>
+      <c r="U210" s="128"/>
+      <c r="V210" s="128"/>
+      <c r="W210" s="128"/>
+      <c r="X210" s="128"/>
+      <c r="Y210" s="102"/>
+      <c r="Z210" s="106"/>
+      <c r="AA210" s="128"/>
+      <c r="AB210" s="128"/>
+      <c r="AC210" s="128"/>
+      <c r="AD210" s="128"/>
+      <c r="AE210" s="128"/>
+      <c r="AF210" s="128"/>
+      <c r="AG210" s="128"/>
+      <c r="AH210" s="128"/>
+      <c r="AI210" s="128"/>
+      <c r="AJ210" s="102"/>
+      <c r="AK210" s="128"/>
+      <c r="AL210" s="128"/>
+      <c r="AM210" s="128"/>
+      <c r="AN210" s="128"/>
+      <c r="AO210" s="128"/>
+      <c r="AP210" s="128"/>
+      <c r="AQ210" s="128"/>
+      <c r="AR210" s="128"/>
+      <c r="AS210" s="128"/>
+      <c r="AT210" s="128"/>
+      <c r="AU210" s="128"/>
+      <c r="AV210" s="102"/>
+    </row>
+    <row r="211" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N211" s="106"/>
+      <c r="O211" s="128"/>
+      <c r="P211" s="128"/>
+      <c r="Q211" s="128"/>
+      <c r="R211" s="128"/>
+      <c r="S211" s="128"/>
+      <c r="T211" s="128"/>
+      <c r="U211" s="128"/>
+      <c r="V211" s="128"/>
+      <c r="W211" s="128"/>
+      <c r="X211" s="128"/>
+      <c r="Y211" s="102"/>
+      <c r="Z211" s="106"/>
+      <c r="AA211" s="128"/>
+      <c r="AB211" s="128"/>
+      <c r="AC211" s="128"/>
+      <c r="AD211" s="128"/>
+      <c r="AE211" s="128"/>
+      <c r="AF211" s="128"/>
+      <c r="AG211" s="128"/>
+      <c r="AH211" s="128"/>
+      <c r="AI211" s="128"/>
+      <c r="AJ211" s="102"/>
+      <c r="AK211" s="128"/>
+      <c r="AL211" s="128"/>
+      <c r="AM211" s="128"/>
+      <c r="AN211" s="128"/>
+      <c r="AO211" s="128"/>
+      <c r="AP211" s="128"/>
+      <c r="AQ211" s="128"/>
+      <c r="AR211" s="128"/>
+      <c r="AS211" s="128"/>
+      <c r="AT211" s="128"/>
+      <c r="AU211" s="128"/>
+      <c r="AV211" s="102"/>
+    </row>
+    <row r="212" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N212" s="106"/>
+      <c r="O212" s="128"/>
+      <c r="P212" s="128"/>
+      <c r="Q212" s="128"/>
+      <c r="R212" s="128"/>
+      <c r="S212" s="128"/>
+      <c r="T212" s="128"/>
+      <c r="U212" s="128"/>
+      <c r="V212" s="128"/>
+      <c r="W212" s="128"/>
+      <c r="X212" s="128"/>
+      <c r="Y212" s="102"/>
+      <c r="Z212" s="106"/>
+      <c r="AA212" s="128"/>
+      <c r="AB212" s="128"/>
+      <c r="AC212" s="128"/>
+      <c r="AD212" s="128"/>
+      <c r="AE212" s="128"/>
+      <c r="AF212" s="128"/>
+      <c r="AG212" s="128"/>
+      <c r="AH212" s="128"/>
+      <c r="AI212" s="128"/>
+      <c r="AJ212" s="102"/>
+      <c r="AK212" s="128"/>
+      <c r="AL212" s="128"/>
+      <c r="AM212" s="128"/>
+      <c r="AN212" s="128"/>
+      <c r="AO212" s="128"/>
+      <c r="AP212" s="128"/>
+      <c r="AQ212" s="128"/>
+      <c r="AR212" s="128"/>
+      <c r="AS212" s="128"/>
+      <c r="AT212" s="128"/>
+      <c r="AU212" s="128"/>
+      <c r="AV212" s="102"/>
+    </row>
+    <row r="213" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N213" s="106"/>
+      <c r="O213" s="128"/>
+      <c r="P213" s="128"/>
+      <c r="Q213" s="128"/>
+      <c r="R213" s="128"/>
+      <c r="S213" s="128"/>
+      <c r="T213" s="128"/>
+      <c r="U213" s="128"/>
+      <c r="V213" s="128"/>
+      <c r="W213" s="128"/>
+      <c r="X213" s="128"/>
+      <c r="Y213" s="102"/>
+      <c r="Z213" s="106"/>
+      <c r="AA213" s="128"/>
+      <c r="AB213" s="128"/>
+      <c r="AC213" s="128"/>
+      <c r="AD213" s="128"/>
+      <c r="AE213" s="128"/>
+      <c r="AF213" s="128"/>
+      <c r="AG213" s="128"/>
+      <c r="AH213" s="128"/>
+      <c r="AI213" s="128"/>
+      <c r="AJ213" s="102"/>
+      <c r="AK213" s="128"/>
+      <c r="AL213" s="128"/>
+      <c r="AM213" s="128"/>
+      <c r="AN213" s="128"/>
+      <c r="AO213" s="128"/>
+      <c r="AP213" s="128"/>
+      <c r="AQ213" s="128"/>
+      <c r="AR213" s="128"/>
+      <c r="AS213" s="128"/>
+      <c r="AT213" s="128"/>
+      <c r="AU213" s="128"/>
+      <c r="AV213" s="102"/>
+    </row>
+    <row r="214" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N214" s="106"/>
+      <c r="O214" s="128"/>
+      <c r="P214" s="128"/>
+      <c r="Q214" s="128"/>
+      <c r="R214" s="128"/>
+      <c r="S214" s="128"/>
+      <c r="T214" s="128"/>
+      <c r="U214" s="128"/>
+      <c r="V214" s="128"/>
+      <c r="W214" s="128"/>
+      <c r="X214" s="128"/>
+      <c r="Y214" s="102"/>
+      <c r="Z214" s="106"/>
+      <c r="AA214" s="128"/>
+      <c r="AB214" s="128"/>
+      <c r="AC214" s="128"/>
+      <c r="AD214" s="128"/>
+      <c r="AE214" s="128"/>
+      <c r="AF214" s="128"/>
+      <c r="AG214" s="128"/>
+      <c r="AH214" s="128"/>
+      <c r="AI214" s="128"/>
+      <c r="AJ214" s="102"/>
+      <c r="AK214" s="128"/>
+      <c r="AL214" s="128"/>
+      <c r="AM214" s="128"/>
+      <c r="AN214" s="128"/>
+      <c r="AO214" s="128"/>
+      <c r="AP214" s="128"/>
+      <c r="AQ214" s="128"/>
+      <c r="AR214" s="128"/>
+      <c r="AS214" s="128"/>
+      <c r="AT214" s="128"/>
+      <c r="AU214" s="128"/>
+      <c r="AV214" s="102"/>
+    </row>
+    <row r="215" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N215" s="106"/>
+      <c r="O215" s="128"/>
+      <c r="P215" s="128"/>
+      <c r="Q215" s="128"/>
+      <c r="R215" s="128"/>
+      <c r="S215" s="128"/>
+      <c r="T215" s="128"/>
+      <c r="U215" s="128"/>
+      <c r="V215" s="128"/>
+      <c r="W215" s="128"/>
+      <c r="X215" s="128"/>
+      <c r="Y215" s="102"/>
+      <c r="Z215" s="106"/>
+      <c r="AA215" s="128"/>
+      <c r="AB215" s="128"/>
+      <c r="AC215" s="128"/>
+      <c r="AD215" s="128"/>
+      <c r="AE215" s="128"/>
+      <c r="AF215" s="128"/>
+      <c r="AG215" s="128"/>
+      <c r="AH215" s="128"/>
+      <c r="AI215" s="128"/>
+      <c r="AJ215" s="102"/>
+      <c r="AK215" s="128"/>
+      <c r="AL215" s="128"/>
+      <c r="AM215" s="128"/>
+      <c r="AN215" s="128"/>
+      <c r="AO215" s="128"/>
+      <c r="AP215" s="128"/>
+      <c r="AQ215" s="128"/>
+      <c r="AR215" s="128"/>
+      <c r="AS215" s="128"/>
+      <c r="AT215" s="128"/>
+      <c r="AU215" s="128"/>
+      <c r="AV215" s="102"/>
+    </row>
+    <row r="216" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N216" s="106"/>
+      <c r="O216" s="128"/>
+      <c r="P216" s="128"/>
+      <c r="Q216" s="128"/>
+      <c r="R216" s="128"/>
+      <c r="S216" s="128"/>
+      <c r="T216" s="128"/>
+      <c r="U216" s="128"/>
+      <c r="V216" s="128"/>
+      <c r="W216" s="128"/>
+      <c r="X216" s="128"/>
+      <c r="Y216" s="102"/>
+      <c r="Z216" s="106"/>
+      <c r="AA216" s="128"/>
+      <c r="AB216" s="128"/>
+      <c r="AC216" s="128"/>
+      <c r="AD216" s="128"/>
+      <c r="AE216" s="128"/>
+      <c r="AF216" s="128"/>
+      <c r="AG216" s="128"/>
+      <c r="AH216" s="128"/>
+      <c r="AI216" s="128"/>
+      <c r="AJ216" s="102"/>
+      <c r="AK216" s="128"/>
+      <c r="AL216" s="128"/>
+      <c r="AM216" s="128"/>
+      <c r="AN216" s="128"/>
+      <c r="AO216" s="128"/>
+      <c r="AP216" s="128"/>
+      <c r="AQ216" s="128"/>
+      <c r="AR216" s="128"/>
+      <c r="AS216" s="128"/>
+      <c r="AT216" s="128"/>
+      <c r="AU216" s="128"/>
+      <c r="AV216" s="102"/>
+    </row>
+    <row r="217" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N217" s="106"/>
+      <c r="O217" s="128"/>
+      <c r="P217" s="128"/>
+      <c r="Q217" s="128"/>
+      <c r="R217" s="128"/>
+      <c r="S217" s="128"/>
+      <c r="T217" s="128"/>
+      <c r="U217" s="128"/>
+      <c r="V217" s="128"/>
+      <c r="W217" s="128"/>
+      <c r="X217" s="128"/>
+      <c r="Y217" s="102"/>
+      <c r="Z217" s="106"/>
+      <c r="AA217" s="128"/>
+      <c r="AB217" s="128"/>
+      <c r="AC217" s="128"/>
+      <c r="AD217" s="128"/>
+      <c r="AE217" s="128"/>
+      <c r="AF217" s="128"/>
+      <c r="AG217" s="128"/>
+      <c r="AH217" s="128"/>
+      <c r="AI217" s="128"/>
+      <c r="AJ217" s="102"/>
+      <c r="AK217" s="128"/>
+      <c r="AL217" s="128"/>
+      <c r="AM217" s="128"/>
+      <c r="AN217" s="128"/>
+      <c r="AO217" s="128"/>
+      <c r="AP217" s="128"/>
+      <c r="AQ217" s="128"/>
+      <c r="AR217" s="128"/>
+      <c r="AS217" s="128"/>
+      <c r="AT217" s="128"/>
+      <c r="AU217" s="128"/>
+      <c r="AV217" s="102"/>
+    </row>
+    <row r="218" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N218" s="106"/>
+      <c r="O218" s="128"/>
+      <c r="P218" s="128"/>
+      <c r="Q218" s="128"/>
+      <c r="R218" s="128"/>
+      <c r="S218" s="128"/>
+      <c r="T218" s="128"/>
+      <c r="U218" s="128"/>
+      <c r="V218" s="128"/>
+      <c r="W218" s="128"/>
+      <c r="X218" s="128"/>
+      <c r="Y218" s="102"/>
+      <c r="Z218" s="106"/>
+      <c r="AA218" s="128"/>
+      <c r="AB218" s="128"/>
+      <c r="AC218" s="128"/>
+      <c r="AD218" s="128"/>
+      <c r="AE218" s="128"/>
+      <c r="AF218" s="128"/>
+      <c r="AG218" s="128"/>
+      <c r="AH218" s="128"/>
+      <c r="AI218" s="128"/>
+      <c r="AJ218" s="102"/>
+      <c r="AK218" s="128"/>
+      <c r="AL218" s="128"/>
+      <c r="AM218" s="128"/>
+      <c r="AN218" s="128"/>
+      <c r="AO218" s="128"/>
+      <c r="AP218" s="128"/>
+      <c r="AQ218" s="128"/>
+      <c r="AR218" s="128"/>
+      <c r="AS218" s="128"/>
+      <c r="AT218" s="128"/>
+      <c r="AU218" s="128"/>
+      <c r="AV218" s="102"/>
+    </row>
+    <row r="219" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N219" s="106"/>
+      <c r="O219" s="128"/>
+      <c r="P219" s="128"/>
+      <c r="Q219" s="128"/>
+      <c r="R219" s="128"/>
+      <c r="S219" s="128"/>
+      <c r="T219" s="128"/>
+      <c r="U219" s="128"/>
+      <c r="V219" s="128"/>
+      <c r="W219" s="128"/>
+      <c r="X219" s="128"/>
+      <c r="Y219" s="102"/>
+      <c r="Z219" s="106"/>
+      <c r="AA219" s="128"/>
+      <c r="AB219" s="128"/>
+      <c r="AC219" s="128"/>
+      <c r="AD219" s="128"/>
+      <c r="AE219" s="128"/>
+      <c r="AF219" s="128"/>
+      <c r="AG219" s="128"/>
+      <c r="AH219" s="128"/>
+      <c r="AI219" s="128"/>
+      <c r="AJ219" s="102"/>
+      <c r="AK219" s="128"/>
+      <c r="AL219" s="128"/>
+      <c r="AM219" s="128"/>
+      <c r="AN219" s="128"/>
+      <c r="AO219" s="128"/>
+      <c r="AP219" s="128"/>
+      <c r="AQ219" s="128"/>
+      <c r="AR219" s="128"/>
+      <c r="AS219" s="128"/>
+      <c r="AT219" s="128"/>
+      <c r="AU219" s="128"/>
+      <c r="AV219" s="102"/>
+    </row>
+    <row r="220" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N220" s="106"/>
+      <c r="O220" s="128"/>
+      <c r="P220" s="128"/>
+      <c r="Q220" s="128"/>
+      <c r="R220" s="128"/>
+      <c r="S220" s="128"/>
+      <c r="T220" s="128"/>
+      <c r="U220" s="128"/>
+      <c r="V220" s="128"/>
+      <c r="W220" s="128"/>
+      <c r="X220" s="128"/>
+      <c r="Y220" s="102"/>
+      <c r="Z220" s="106"/>
+      <c r="AA220" s="128"/>
+      <c r="AB220" s="128"/>
+      <c r="AC220" s="128"/>
+      <c r="AD220" s="128"/>
+      <c r="AE220" s="128"/>
+      <c r="AF220" s="128"/>
+      <c r="AG220" s="128"/>
+      <c r="AH220" s="128"/>
+      <c r="AI220" s="128"/>
+      <c r="AJ220" s="102"/>
+      <c r="AK220" s="128"/>
+      <c r="AL220" s="128"/>
+      <c r="AM220" s="128"/>
+      <c r="AN220" s="128"/>
+      <c r="AO220" s="128"/>
+      <c r="AP220" s="128"/>
+      <c r="AQ220" s="128"/>
+      <c r="AR220" s="128"/>
+      <c r="AS220" s="128"/>
+      <c r="AT220" s="128"/>
+      <c r="AU220" s="128"/>
+      <c r="AV220" s="102"/>
+    </row>
+    <row r="221" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N221" s="106"/>
+      <c r="O221" s="128"/>
+      <c r="P221" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="AA221" t="s">
+      <c r="Q221" s="128"/>
+      <c r="R221" s="128"/>
+      <c r="S221" s="128"/>
+      <c r="T221" s="128"/>
+      <c r="U221" s="128"/>
+      <c r="V221" s="128"/>
+      <c r="W221" s="128"/>
+      <c r="X221" s="128"/>
+      <c r="Y221" s="102"/>
+      <c r="Z221" s="106"/>
+      <c r="AA221" s="128" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="246" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P246" t="s">
+      <c r="AB221" s="128"/>
+      <c r="AC221" s="128"/>
+      <c r="AD221" s="128"/>
+      <c r="AE221" s="128"/>
+      <c r="AF221" s="128"/>
+      <c r="AG221" s="128"/>
+      <c r="AH221" s="128"/>
+      <c r="AI221" s="128"/>
+      <c r="AJ221" s="102"/>
+      <c r="AK221" s="128"/>
+      <c r="AL221" s="128"/>
+      <c r="AM221" s="128"/>
+      <c r="AN221" s="128"/>
+      <c r="AO221" s="128"/>
+      <c r="AP221" s="128"/>
+      <c r="AQ221" s="128"/>
+      <c r="AR221" s="128"/>
+      <c r="AS221" s="128"/>
+      <c r="AT221" s="128"/>
+      <c r="AU221" s="128"/>
+      <c r="AV221" s="102"/>
+    </row>
+    <row r="222" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N222" s="106"/>
+      <c r="O222" s="128"/>
+      <c r="P222" s="128"/>
+      <c r="Q222" s="128"/>
+      <c r="R222" s="128"/>
+      <c r="S222" s="128"/>
+      <c r="T222" s="128"/>
+      <c r="U222" s="128"/>
+      <c r="V222" s="128"/>
+      <c r="W222" s="128"/>
+      <c r="X222" s="128"/>
+      <c r="Y222" s="102"/>
+      <c r="Z222" s="106"/>
+      <c r="AA222" s="128"/>
+      <c r="AB222" s="128"/>
+      <c r="AC222" s="128"/>
+      <c r="AD222" s="128"/>
+      <c r="AE222" s="128"/>
+      <c r="AF222" s="128"/>
+      <c r="AG222" s="128"/>
+      <c r="AH222" s="128"/>
+      <c r="AI222" s="128"/>
+      <c r="AJ222" s="102"/>
+      <c r="AK222" s="128"/>
+      <c r="AL222" s="128"/>
+      <c r="AM222" s="128"/>
+      <c r="AN222" s="128"/>
+      <c r="AO222" s="128"/>
+      <c r="AP222" s="128"/>
+      <c r="AQ222" s="128"/>
+      <c r="AR222" s="128"/>
+      <c r="AS222" s="128"/>
+      <c r="AT222" s="128"/>
+      <c r="AU222" s="128"/>
+      <c r="AV222" s="102"/>
+    </row>
+    <row r="223" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N223" s="106"/>
+      <c r="O223" s="128"/>
+      <c r="P223" s="128"/>
+      <c r="Q223" s="128"/>
+      <c r="R223" s="128"/>
+      <c r="S223" s="128"/>
+      <c r="T223" s="128"/>
+      <c r="U223" s="128"/>
+      <c r="V223" s="128"/>
+      <c r="W223" s="128"/>
+      <c r="X223" s="128"/>
+      <c r="Y223" s="102"/>
+      <c r="Z223" s="106"/>
+      <c r="AA223" s="128"/>
+      <c r="AB223" s="128"/>
+      <c r="AC223" s="128"/>
+      <c r="AD223" s="128"/>
+      <c r="AE223" s="128"/>
+      <c r="AF223" s="128"/>
+      <c r="AG223" s="128"/>
+      <c r="AH223" s="128"/>
+      <c r="AI223" s="128"/>
+      <c r="AJ223" s="102"/>
+      <c r="AK223" s="128"/>
+      <c r="AL223" s="128"/>
+      <c r="AM223" s="128"/>
+      <c r="AN223" s="128"/>
+      <c r="AO223" s="128"/>
+      <c r="AP223" s="128"/>
+      <c r="AQ223" s="128"/>
+      <c r="AR223" s="128"/>
+      <c r="AS223" s="128"/>
+      <c r="AT223" s="128"/>
+      <c r="AU223" s="128"/>
+      <c r="AV223" s="102"/>
+    </row>
+    <row r="224" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N224" s="106"/>
+      <c r="O224" s="128"/>
+      <c r="P224" s="128"/>
+      <c r="Q224" s="128"/>
+      <c r="R224" s="128"/>
+      <c r="S224" s="128"/>
+      <c r="T224" s="128"/>
+      <c r="U224" s="128"/>
+      <c r="V224" s="128"/>
+      <c r="W224" s="128"/>
+      <c r="X224" s="128"/>
+      <c r="Y224" s="102"/>
+      <c r="Z224" s="106"/>
+      <c r="AA224" s="128"/>
+      <c r="AB224" s="128"/>
+      <c r="AC224" s="128"/>
+      <c r="AD224" s="128"/>
+      <c r="AE224" s="128"/>
+      <c r="AF224" s="128"/>
+      <c r="AG224" s="128"/>
+      <c r="AH224" s="128"/>
+      <c r="AI224" s="128"/>
+      <c r="AJ224" s="102"/>
+      <c r="AK224" s="128"/>
+      <c r="AL224" s="128"/>
+      <c r="AM224" s="128"/>
+      <c r="AN224" s="128"/>
+      <c r="AO224" s="128"/>
+      <c r="AP224" s="128"/>
+      <c r="AQ224" s="128"/>
+      <c r="AR224" s="128"/>
+      <c r="AS224" s="128"/>
+      <c r="AT224" s="128"/>
+      <c r="AU224" s="128"/>
+      <c r="AV224" s="102"/>
+    </row>
+    <row r="225" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N225" s="106"/>
+      <c r="O225" s="128"/>
+      <c r="P225" s="128"/>
+      <c r="Q225" s="128"/>
+      <c r="R225" s="128"/>
+      <c r="S225" s="128"/>
+      <c r="T225" s="128"/>
+      <c r="U225" s="128"/>
+      <c r="V225" s="128"/>
+      <c r="W225" s="128"/>
+      <c r="X225" s="128"/>
+      <c r="Y225" s="102"/>
+      <c r="Z225" s="106"/>
+      <c r="AA225" s="128"/>
+      <c r="AB225" s="128"/>
+      <c r="AC225" s="128"/>
+      <c r="AD225" s="128"/>
+      <c r="AE225" s="128"/>
+      <c r="AF225" s="128"/>
+      <c r="AG225" s="128"/>
+      <c r="AH225" s="128"/>
+      <c r="AI225" s="128"/>
+      <c r="AJ225" s="102"/>
+      <c r="AK225" s="128"/>
+      <c r="AL225" s="128"/>
+      <c r="AM225" s="128"/>
+      <c r="AN225" s="128"/>
+      <c r="AO225" s="128"/>
+      <c r="AP225" s="128"/>
+      <c r="AQ225" s="128"/>
+      <c r="AR225" s="128"/>
+      <c r="AS225" s="128"/>
+      <c r="AT225" s="128"/>
+      <c r="AU225" s="128"/>
+      <c r="AV225" s="102"/>
+    </row>
+    <row r="226" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N226" s="106"/>
+      <c r="O226" s="128"/>
+      <c r="P226" s="128"/>
+      <c r="Q226" s="128"/>
+      <c r="R226" s="128"/>
+      <c r="S226" s="128"/>
+      <c r="T226" s="128"/>
+      <c r="U226" s="128"/>
+      <c r="V226" s="128"/>
+      <c r="W226" s="128"/>
+      <c r="X226" s="128"/>
+      <c r="Y226" s="102"/>
+      <c r="Z226" s="106"/>
+      <c r="AA226" s="128"/>
+      <c r="AB226" s="128"/>
+      <c r="AC226" s="128"/>
+      <c r="AD226" s="128"/>
+      <c r="AE226" s="128"/>
+      <c r="AF226" s="128"/>
+      <c r="AG226" s="128"/>
+      <c r="AH226" s="128"/>
+      <c r="AI226" s="128"/>
+      <c r="AJ226" s="102"/>
+      <c r="AK226" s="128"/>
+      <c r="AL226" s="128"/>
+      <c r="AM226" s="128"/>
+      <c r="AN226" s="128"/>
+      <c r="AO226" s="128"/>
+      <c r="AP226" s="128"/>
+      <c r="AQ226" s="128"/>
+      <c r="AR226" s="128"/>
+      <c r="AS226" s="128"/>
+      <c r="AT226" s="128"/>
+      <c r="AU226" s="128"/>
+      <c r="AV226" s="102"/>
+    </row>
+    <row r="227" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N227" s="106"/>
+      <c r="O227" s="128"/>
+      <c r="P227" s="128"/>
+      <c r="Q227" s="128"/>
+      <c r="R227" s="128"/>
+      <c r="S227" s="128"/>
+      <c r="T227" s="128"/>
+      <c r="U227" s="128"/>
+      <c r="V227" s="128"/>
+      <c r="W227" s="128"/>
+      <c r="X227" s="128"/>
+      <c r="Y227" s="102"/>
+      <c r="Z227" s="106"/>
+      <c r="AA227" s="128"/>
+      <c r="AB227" s="128"/>
+      <c r="AC227" s="128"/>
+      <c r="AD227" s="128"/>
+      <c r="AE227" s="128"/>
+      <c r="AF227" s="128"/>
+      <c r="AG227" s="128"/>
+      <c r="AH227" s="128"/>
+      <c r="AI227" s="128"/>
+      <c r="AJ227" s="102"/>
+      <c r="AK227" s="128"/>
+      <c r="AL227" s="128"/>
+      <c r="AM227" s="128"/>
+      <c r="AN227" s="128"/>
+      <c r="AO227" s="128"/>
+      <c r="AP227" s="128"/>
+      <c r="AQ227" s="128"/>
+      <c r="AR227" s="128"/>
+      <c r="AS227" s="128"/>
+      <c r="AT227" s="128"/>
+      <c r="AU227" s="128"/>
+      <c r="AV227" s="102"/>
+    </row>
+    <row r="228" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N228" s="106"/>
+      <c r="O228" s="128"/>
+      <c r="P228" s="128"/>
+      <c r="Q228" s="128"/>
+      <c r="R228" s="128"/>
+      <c r="S228" s="128"/>
+      <c r="T228" s="128"/>
+      <c r="U228" s="128"/>
+      <c r="V228" s="128"/>
+      <c r="W228" s="128"/>
+      <c r="X228" s="128"/>
+      <c r="Y228" s="102"/>
+      <c r="Z228" s="106"/>
+      <c r="AA228" s="128"/>
+      <c r="AB228" s="128"/>
+      <c r="AC228" s="128"/>
+      <c r="AD228" s="128"/>
+      <c r="AE228" s="128"/>
+      <c r="AF228" s="128"/>
+      <c r="AG228" s="128"/>
+      <c r="AH228" s="128"/>
+      <c r="AI228" s="128"/>
+      <c r="AJ228" s="102"/>
+      <c r="AK228" s="128"/>
+      <c r="AL228" s="128"/>
+      <c r="AM228" s="128"/>
+      <c r="AN228" s="128"/>
+      <c r="AO228" s="128"/>
+      <c r="AP228" s="128"/>
+      <c r="AQ228" s="128"/>
+      <c r="AR228" s="128"/>
+      <c r="AS228" s="128"/>
+      <c r="AT228" s="128"/>
+      <c r="AU228" s="128"/>
+      <c r="AV228" s="102"/>
+    </row>
+    <row r="229" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N229" s="106"/>
+      <c r="O229" s="128"/>
+      <c r="P229" s="128"/>
+      <c r="Q229" s="128"/>
+      <c r="R229" s="128"/>
+      <c r="S229" s="128"/>
+      <c r="T229" s="128"/>
+      <c r="U229" s="128"/>
+      <c r="V229" s="128"/>
+      <c r="W229" s="128"/>
+      <c r="X229" s="128"/>
+      <c r="Y229" s="102"/>
+      <c r="Z229" s="106"/>
+      <c r="AA229" s="128"/>
+      <c r="AB229" s="128"/>
+      <c r="AC229" s="128"/>
+      <c r="AD229" s="128"/>
+      <c r="AE229" s="128"/>
+      <c r="AF229" s="128"/>
+      <c r="AG229" s="128"/>
+      <c r="AH229" s="128"/>
+      <c r="AI229" s="128"/>
+      <c r="AJ229" s="102"/>
+      <c r="AK229" s="128"/>
+      <c r="AL229" s="128"/>
+      <c r="AM229" s="128"/>
+      <c r="AN229" s="128"/>
+      <c r="AO229" s="128"/>
+      <c r="AP229" s="128"/>
+      <c r="AQ229" s="128"/>
+      <c r="AR229" s="128"/>
+      <c r="AS229" s="128"/>
+      <c r="AT229" s="128"/>
+      <c r="AU229" s="128"/>
+      <c r="AV229" s="102"/>
+    </row>
+    <row r="230" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N230" s="106"/>
+      <c r="O230" s="128"/>
+      <c r="P230" s="128"/>
+      <c r="Q230" s="128"/>
+      <c r="R230" s="128"/>
+      <c r="S230" s="128"/>
+      <c r="T230" s="128"/>
+      <c r="U230" s="128"/>
+      <c r="V230" s="128"/>
+      <c r="W230" s="128"/>
+      <c r="X230" s="128"/>
+      <c r="Y230" s="102"/>
+      <c r="Z230" s="106"/>
+      <c r="AA230" s="128"/>
+      <c r="AB230" s="128"/>
+      <c r="AC230" s="128"/>
+      <c r="AD230" s="128"/>
+      <c r="AE230" s="128"/>
+      <c r="AF230" s="128"/>
+      <c r="AG230" s="128"/>
+      <c r="AH230" s="128"/>
+      <c r="AI230" s="128"/>
+      <c r="AJ230" s="102"/>
+      <c r="AK230" s="128"/>
+      <c r="AL230" s="128"/>
+      <c r="AM230" s="128"/>
+      <c r="AN230" s="128"/>
+      <c r="AO230" s="128"/>
+      <c r="AP230" s="128"/>
+      <c r="AQ230" s="128"/>
+      <c r="AR230" s="128"/>
+      <c r="AS230" s="128"/>
+      <c r="AT230" s="128"/>
+      <c r="AU230" s="128"/>
+      <c r="AV230" s="102"/>
+    </row>
+    <row r="231" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N231" s="106"/>
+      <c r="O231" s="128"/>
+      <c r="P231" s="128"/>
+      <c r="Q231" s="128"/>
+      <c r="R231" s="128"/>
+      <c r="S231" s="128"/>
+      <c r="T231" s="128"/>
+      <c r="U231" s="128"/>
+      <c r="V231" s="128"/>
+      <c r="W231" s="128"/>
+      <c r="X231" s="128"/>
+      <c r="Y231" s="102"/>
+      <c r="Z231" s="106"/>
+      <c r="AA231" s="128"/>
+      <c r="AB231" s="128"/>
+      <c r="AC231" s="128"/>
+      <c r="AD231" s="128"/>
+      <c r="AE231" s="128"/>
+      <c r="AF231" s="128"/>
+      <c r="AG231" s="128"/>
+      <c r="AH231" s="128"/>
+      <c r="AI231" s="128"/>
+      <c r="AJ231" s="102"/>
+      <c r="AK231" s="128"/>
+      <c r="AL231" s="128"/>
+      <c r="AM231" s="128"/>
+      <c r="AN231" s="128"/>
+      <c r="AO231" s="128"/>
+      <c r="AP231" s="128"/>
+      <c r="AQ231" s="128"/>
+      <c r="AR231" s="128"/>
+      <c r="AS231" s="128"/>
+      <c r="AT231" s="128"/>
+      <c r="AU231" s="128"/>
+      <c r="AV231" s="102"/>
+    </row>
+    <row r="232" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N232" s="106"/>
+      <c r="O232" s="128"/>
+      <c r="P232" s="128"/>
+      <c r="Q232" s="128"/>
+      <c r="R232" s="128"/>
+      <c r="S232" s="128"/>
+      <c r="T232" s="128"/>
+      <c r="U232" s="128"/>
+      <c r="V232" s="128"/>
+      <c r="W232" s="128"/>
+      <c r="X232" s="128"/>
+      <c r="Y232" s="102"/>
+      <c r="Z232" s="106"/>
+      <c r="AA232" s="128"/>
+      <c r="AB232" s="128"/>
+      <c r="AC232" s="128"/>
+      <c r="AD232" s="128"/>
+      <c r="AE232" s="128"/>
+      <c r="AF232" s="128"/>
+      <c r="AG232" s="128"/>
+      <c r="AH232" s="128"/>
+      <c r="AI232" s="128"/>
+      <c r="AJ232" s="102"/>
+      <c r="AK232" s="128"/>
+      <c r="AL232" s="128"/>
+      <c r="AM232" s="128"/>
+      <c r="AN232" s="128"/>
+      <c r="AO232" s="128"/>
+      <c r="AP232" s="128"/>
+      <c r="AQ232" s="128"/>
+      <c r="AR232" s="128"/>
+      <c r="AS232" s="128"/>
+      <c r="AT232" s="128"/>
+      <c r="AU232" s="128"/>
+      <c r="AV232" s="102"/>
+    </row>
+    <row r="233" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N233" s="106"/>
+      <c r="O233" s="128"/>
+      <c r="P233" s="128"/>
+      <c r="Q233" s="128"/>
+      <c r="R233" s="128"/>
+      <c r="S233" s="128"/>
+      <c r="T233" s="128"/>
+      <c r="U233" s="128"/>
+      <c r="V233" s="128"/>
+      <c r="W233" s="128"/>
+      <c r="X233" s="128"/>
+      <c r="Y233" s="102"/>
+      <c r="Z233" s="106"/>
+      <c r="AA233" s="128"/>
+      <c r="AB233" s="128"/>
+      <c r="AC233" s="128"/>
+      <c r="AD233" s="128"/>
+      <c r="AE233" s="128"/>
+      <c r="AF233" s="128"/>
+      <c r="AG233" s="128"/>
+      <c r="AH233" s="128"/>
+      <c r="AI233" s="128"/>
+      <c r="AJ233" s="102"/>
+      <c r="AK233" s="128"/>
+      <c r="AL233" s="128"/>
+      <c r="AM233" s="128"/>
+      <c r="AN233" s="128"/>
+      <c r="AO233" s="128"/>
+      <c r="AP233" s="128"/>
+      <c r="AQ233" s="128"/>
+      <c r="AR233" s="128"/>
+      <c r="AS233" s="128"/>
+      <c r="AT233" s="128"/>
+      <c r="AU233" s="128"/>
+      <c r="AV233" s="102"/>
+    </row>
+    <row r="234" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N234" s="106"/>
+      <c r="O234" s="128"/>
+      <c r="P234" s="128"/>
+      <c r="Q234" s="128"/>
+      <c r="R234" s="128"/>
+      <c r="S234" s="128"/>
+      <c r="T234" s="128"/>
+      <c r="U234" s="128"/>
+      <c r="V234" s="128"/>
+      <c r="W234" s="128"/>
+      <c r="X234" s="128"/>
+      <c r="Y234" s="102"/>
+      <c r="Z234" s="106"/>
+      <c r="AA234" s="128"/>
+      <c r="AB234" s="128"/>
+      <c r="AC234" s="128"/>
+      <c r="AD234" s="128"/>
+      <c r="AE234" s="128"/>
+      <c r="AF234" s="128"/>
+      <c r="AG234" s="128"/>
+      <c r="AH234" s="128"/>
+      <c r="AI234" s="128"/>
+      <c r="AJ234" s="102"/>
+      <c r="AK234" s="128"/>
+      <c r="AL234" s="128"/>
+      <c r="AM234" s="128"/>
+      <c r="AN234" s="128"/>
+      <c r="AO234" s="128"/>
+      <c r="AP234" s="128"/>
+      <c r="AQ234" s="128"/>
+      <c r="AR234" s="128"/>
+      <c r="AS234" s="128"/>
+      <c r="AT234" s="128"/>
+      <c r="AU234" s="128"/>
+      <c r="AV234" s="102"/>
+    </row>
+    <row r="235" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N235" s="106"/>
+      <c r="O235" s="128"/>
+      <c r="P235" s="128"/>
+      <c r="Q235" s="128"/>
+      <c r="R235" s="128"/>
+      <c r="S235" s="128"/>
+      <c r="T235" s="128"/>
+      <c r="U235" s="128"/>
+      <c r="V235" s="128"/>
+      <c r="W235" s="128"/>
+      <c r="X235" s="128"/>
+      <c r="Y235" s="102"/>
+      <c r="Z235" s="106"/>
+      <c r="AA235" s="128"/>
+      <c r="AB235" s="128"/>
+      <c r="AC235" s="128"/>
+      <c r="AD235" s="128"/>
+      <c r="AE235" s="128"/>
+      <c r="AF235" s="128"/>
+      <c r="AG235" s="128"/>
+      <c r="AH235" s="128"/>
+      <c r="AI235" s="128"/>
+      <c r="AJ235" s="102"/>
+      <c r="AK235" s="128"/>
+      <c r="AL235" s="128"/>
+      <c r="AM235" s="128"/>
+      <c r="AN235" s="128"/>
+      <c r="AO235" s="128"/>
+      <c r="AP235" s="128"/>
+      <c r="AQ235" s="128"/>
+      <c r="AR235" s="128"/>
+      <c r="AS235" s="128"/>
+      <c r="AT235" s="128"/>
+      <c r="AU235" s="128"/>
+      <c r="AV235" s="102"/>
+    </row>
+    <row r="236" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N236" s="106"/>
+      <c r="O236" s="128"/>
+      <c r="P236" s="128"/>
+      <c r="Q236" s="128"/>
+      <c r="R236" s="128"/>
+      <c r="S236" s="128"/>
+      <c r="T236" s="128"/>
+      <c r="U236" s="128"/>
+      <c r="V236" s="128"/>
+      <c r="W236" s="128"/>
+      <c r="X236" s="128"/>
+      <c r="Y236" s="102"/>
+      <c r="Z236" s="106"/>
+      <c r="AA236" s="128"/>
+      <c r="AB236" s="128"/>
+      <c r="AC236" s="128"/>
+      <c r="AD236" s="128"/>
+      <c r="AE236" s="128"/>
+      <c r="AF236" s="128"/>
+      <c r="AG236" s="128"/>
+      <c r="AH236" s="128"/>
+      <c r="AI236" s="128"/>
+      <c r="AJ236" s="102"/>
+      <c r="AK236" s="128"/>
+      <c r="AL236" s="128"/>
+      <c r="AM236" s="128"/>
+      <c r="AN236" s="128"/>
+      <c r="AO236" s="128"/>
+      <c r="AP236" s="128"/>
+      <c r="AQ236" s="128"/>
+      <c r="AR236" s="128"/>
+      <c r="AS236" s="128"/>
+      <c r="AT236" s="128"/>
+      <c r="AU236" s="128"/>
+      <c r="AV236" s="102"/>
+    </row>
+    <row r="237" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N237" s="106"/>
+      <c r="O237" s="128"/>
+      <c r="P237" s="128"/>
+      <c r="Q237" s="128"/>
+      <c r="R237" s="128"/>
+      <c r="S237" s="128"/>
+      <c r="T237" s="128"/>
+      <c r="U237" s="128"/>
+      <c r="V237" s="128"/>
+      <c r="W237" s="128"/>
+      <c r="X237" s="128"/>
+      <c r="Y237" s="102"/>
+      <c r="Z237" s="106"/>
+      <c r="AA237" s="128"/>
+      <c r="AB237" s="128"/>
+      <c r="AC237" s="128"/>
+      <c r="AD237" s="128"/>
+      <c r="AE237" s="128"/>
+      <c r="AF237" s="128"/>
+      <c r="AG237" s="128"/>
+      <c r="AH237" s="128"/>
+      <c r="AI237" s="128"/>
+      <c r="AJ237" s="102"/>
+      <c r="AK237" s="128"/>
+      <c r="AL237" s="128"/>
+      <c r="AM237" s="128"/>
+      <c r="AN237" s="128"/>
+      <c r="AO237" s="128"/>
+      <c r="AP237" s="128"/>
+      <c r="AQ237" s="128"/>
+      <c r="AR237" s="128"/>
+      <c r="AS237" s="128"/>
+      <c r="AT237" s="128"/>
+      <c r="AU237" s="128"/>
+      <c r="AV237" s="102"/>
+    </row>
+    <row r="238" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N238" s="106"/>
+      <c r="O238" s="128"/>
+      <c r="P238" s="128"/>
+      <c r="Q238" s="128"/>
+      <c r="R238" s="128"/>
+      <c r="S238" s="128"/>
+      <c r="T238" s="128"/>
+      <c r="U238" s="128"/>
+      <c r="V238" s="128"/>
+      <c r="W238" s="128"/>
+      <c r="X238" s="128"/>
+      <c r="Y238" s="102"/>
+      <c r="Z238" s="106"/>
+      <c r="AA238" s="128"/>
+      <c r="AB238" s="128"/>
+      <c r="AC238" s="128"/>
+      <c r="AD238" s="128"/>
+      <c r="AE238" s="128"/>
+      <c r="AF238" s="128"/>
+      <c r="AG238" s="128"/>
+      <c r="AH238" s="128"/>
+      <c r="AI238" s="128"/>
+      <c r="AJ238" s="102"/>
+      <c r="AK238" s="128"/>
+      <c r="AL238" s="128"/>
+      <c r="AM238" s="128"/>
+      <c r="AN238" s="128"/>
+      <c r="AO238" s="128"/>
+      <c r="AP238" s="128"/>
+      <c r="AQ238" s="128"/>
+      <c r="AR238" s="128"/>
+      <c r="AS238" s="128"/>
+      <c r="AT238" s="128"/>
+      <c r="AU238" s="128"/>
+      <c r="AV238" s="102"/>
+    </row>
+    <row r="239" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N239" s="106"/>
+      <c r="O239" s="128"/>
+      <c r="P239" s="128"/>
+      <c r="Q239" s="128"/>
+      <c r="R239" s="128"/>
+      <c r="S239" s="128"/>
+      <c r="T239" s="128"/>
+      <c r="U239" s="128"/>
+      <c r="V239" s="128"/>
+      <c r="W239" s="128"/>
+      <c r="X239" s="128"/>
+      <c r="Y239" s="102"/>
+      <c r="Z239" s="106"/>
+      <c r="AA239" s="128"/>
+      <c r="AB239" s="128"/>
+      <c r="AC239" s="128"/>
+      <c r="AD239" s="128"/>
+      <c r="AE239" s="128"/>
+      <c r="AF239" s="128"/>
+      <c r="AG239" s="128"/>
+      <c r="AH239" s="128"/>
+      <c r="AI239" s="128"/>
+      <c r="AJ239" s="102"/>
+      <c r="AK239" s="128"/>
+      <c r="AL239" s="128"/>
+      <c r="AM239" s="128"/>
+      <c r="AN239" s="128"/>
+      <c r="AO239" s="128"/>
+      <c r="AP239" s="128"/>
+      <c r="AQ239" s="128"/>
+      <c r="AR239" s="128"/>
+      <c r="AS239" s="128"/>
+      <c r="AT239" s="128"/>
+      <c r="AU239" s="128"/>
+      <c r="AV239" s="102"/>
+    </row>
+    <row r="240" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N240" s="106"/>
+      <c r="O240" s="128"/>
+      <c r="P240" s="128"/>
+      <c r="Q240" s="128"/>
+      <c r="R240" s="128"/>
+      <c r="S240" s="128"/>
+      <c r="T240" s="128"/>
+      <c r="U240" s="128"/>
+      <c r="V240" s="128"/>
+      <c r="W240" s="128"/>
+      <c r="X240" s="128"/>
+      <c r="Y240" s="102"/>
+      <c r="Z240" s="106"/>
+      <c r="AA240" s="128"/>
+      <c r="AB240" s="128"/>
+      <c r="AC240" s="128"/>
+      <c r="AD240" s="128"/>
+      <c r="AE240" s="128"/>
+      <c r="AF240" s="128"/>
+      <c r="AG240" s="128"/>
+      <c r="AH240" s="128"/>
+      <c r="AI240" s="128"/>
+      <c r="AJ240" s="102"/>
+      <c r="AK240" s="128"/>
+      <c r="AL240" s="128"/>
+      <c r="AM240" s="128"/>
+      <c r="AN240" s="128"/>
+      <c r="AO240" s="128"/>
+      <c r="AP240" s="128"/>
+      <c r="AQ240" s="128"/>
+      <c r="AR240" s="128"/>
+      <c r="AS240" s="128"/>
+      <c r="AT240" s="128"/>
+      <c r="AU240" s="128"/>
+      <c r="AV240" s="102"/>
+    </row>
+    <row r="241" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N241" s="106"/>
+      <c r="O241" s="128"/>
+      <c r="P241" s="128"/>
+      <c r="Q241" s="128"/>
+      <c r="R241" s="128"/>
+      <c r="S241" s="128"/>
+      <c r="T241" s="128"/>
+      <c r="U241" s="128"/>
+      <c r="V241" s="128"/>
+      <c r="W241" s="128"/>
+      <c r="X241" s="128"/>
+      <c r="Y241" s="102"/>
+      <c r="Z241" s="106"/>
+      <c r="AA241" s="128"/>
+      <c r="AB241" s="128"/>
+      <c r="AC241" s="128"/>
+      <c r="AD241" s="128"/>
+      <c r="AE241" s="128"/>
+      <c r="AF241" s="128"/>
+      <c r="AG241" s="128"/>
+      <c r="AH241" s="128"/>
+      <c r="AI241" s="128"/>
+      <c r="AJ241" s="102"/>
+      <c r="AK241" s="128"/>
+      <c r="AL241" s="128"/>
+      <c r="AM241" s="128"/>
+      <c r="AN241" s="128"/>
+      <c r="AO241" s="128"/>
+      <c r="AP241" s="128"/>
+      <c r="AQ241" s="128"/>
+      <c r="AR241" s="128"/>
+      <c r="AS241" s="128"/>
+      <c r="AT241" s="128"/>
+      <c r="AU241" s="128"/>
+      <c r="AV241" s="102"/>
+    </row>
+    <row r="242" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N242" s="106"/>
+      <c r="O242" s="128"/>
+      <c r="P242" s="128"/>
+      <c r="Q242" s="128"/>
+      <c r="R242" s="128"/>
+      <c r="S242" s="128"/>
+      <c r="T242" s="128"/>
+      <c r="U242" s="128"/>
+      <c r="V242" s="128"/>
+      <c r="W242" s="128"/>
+      <c r="X242" s="128"/>
+      <c r="Y242" s="102"/>
+      <c r="Z242" s="106"/>
+      <c r="AA242" s="128"/>
+      <c r="AB242" s="128"/>
+      <c r="AC242" s="128"/>
+      <c r="AD242" s="128"/>
+      <c r="AE242" s="128"/>
+      <c r="AF242" s="128"/>
+      <c r="AG242" s="128"/>
+      <c r="AH242" s="128"/>
+      <c r="AI242" s="128"/>
+      <c r="AJ242" s="102"/>
+      <c r="AK242" s="128"/>
+      <c r="AL242" s="128"/>
+      <c r="AM242" s="128"/>
+      <c r="AN242" s="128"/>
+      <c r="AO242" s="128"/>
+      <c r="AP242" s="128"/>
+      <c r="AQ242" s="128"/>
+      <c r="AR242" s="128"/>
+      <c r="AS242" s="128"/>
+      <c r="AT242" s="128"/>
+      <c r="AU242" s="128"/>
+      <c r="AV242" s="102"/>
+    </row>
+    <row r="243" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N243" s="106"/>
+      <c r="O243" s="128"/>
+      <c r="P243" s="128"/>
+      <c r="Q243" s="128"/>
+      <c r="R243" s="128"/>
+      <c r="S243" s="128"/>
+      <c r="T243" s="128"/>
+      <c r="U243" s="128"/>
+      <c r="V243" s="128"/>
+      <c r="W243" s="128"/>
+      <c r="X243" s="128"/>
+      <c r="Y243" s="102"/>
+      <c r="Z243" s="106"/>
+      <c r="AA243" s="128"/>
+      <c r="AB243" s="128"/>
+      <c r="AC243" s="128"/>
+      <c r="AD243" s="128"/>
+      <c r="AE243" s="128"/>
+      <c r="AF243" s="128"/>
+      <c r="AG243" s="128"/>
+      <c r="AH243" s="128"/>
+      <c r="AI243" s="128"/>
+      <c r="AJ243" s="102"/>
+      <c r="AK243" s="128"/>
+      <c r="AL243" s="128"/>
+      <c r="AM243" s="128"/>
+      <c r="AN243" s="128"/>
+      <c r="AO243" s="128"/>
+      <c r="AP243" s="128"/>
+      <c r="AQ243" s="128"/>
+      <c r="AR243" s="128"/>
+      <c r="AS243" s="128"/>
+      <c r="AT243" s="128"/>
+      <c r="AU243" s="128"/>
+      <c r="AV243" s="102"/>
+    </row>
+    <row r="244" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N244" s="106"/>
+      <c r="O244" s="128"/>
+      <c r="P244" s="128"/>
+      <c r="Q244" s="128"/>
+      <c r="R244" s="128"/>
+      <c r="S244" s="128"/>
+      <c r="T244" s="128"/>
+      <c r="U244" s="128"/>
+      <c r="V244" s="128"/>
+      <c r="W244" s="128"/>
+      <c r="X244" s="128"/>
+      <c r="Y244" s="102"/>
+      <c r="Z244" s="106"/>
+      <c r="AA244" s="128"/>
+      <c r="AB244" s="128"/>
+      <c r="AC244" s="128"/>
+      <c r="AD244" s="128"/>
+      <c r="AE244" s="128"/>
+      <c r="AF244" s="128"/>
+      <c r="AG244" s="128"/>
+      <c r="AH244" s="128"/>
+      <c r="AI244" s="128"/>
+      <c r="AJ244" s="102"/>
+      <c r="AK244" s="128"/>
+      <c r="AL244" s="128"/>
+      <c r="AM244" s="128"/>
+      <c r="AN244" s="128"/>
+      <c r="AO244" s="128"/>
+      <c r="AP244" s="128"/>
+      <c r="AQ244" s="128"/>
+      <c r="AR244" s="128"/>
+      <c r="AS244" s="128"/>
+      <c r="AT244" s="128"/>
+      <c r="AU244" s="128"/>
+      <c r="AV244" s="102"/>
+    </row>
+    <row r="245" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N245" s="106"/>
+      <c r="O245" s="128"/>
+      <c r="P245" s="128"/>
+      <c r="Q245" s="128"/>
+      <c r="R245" s="128"/>
+      <c r="S245" s="128"/>
+      <c r="T245" s="128"/>
+      <c r="U245" s="128"/>
+      <c r="V245" s="128"/>
+      <c r="W245" s="128"/>
+      <c r="X245" s="128"/>
+      <c r="Y245" s="102"/>
+      <c r="Z245" s="106"/>
+      <c r="AA245" s="128"/>
+      <c r="AB245" s="128"/>
+      <c r="AC245" s="128"/>
+      <c r="AD245" s="128"/>
+      <c r="AE245" s="128"/>
+      <c r="AF245" s="128"/>
+      <c r="AG245" s="128"/>
+      <c r="AH245" s="128"/>
+      <c r="AI245" s="128"/>
+      <c r="AJ245" s="102"/>
+      <c r="AK245" s="128"/>
+      <c r="AL245" s="128"/>
+      <c r="AM245" s="128"/>
+      <c r="AN245" s="128"/>
+      <c r="AO245" s="128"/>
+      <c r="AP245" s="128"/>
+      <c r="AQ245" s="128"/>
+      <c r="AR245" s="128"/>
+      <c r="AS245" s="128"/>
+      <c r="AT245" s="128"/>
+      <c r="AU245" s="128"/>
+      <c r="AV245" s="102"/>
+    </row>
+    <row r="246" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N246" s="106"/>
+      <c r="O246" s="128"/>
+      <c r="P246" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="AA246" t="s">
+      <c r="Q246" s="128"/>
+      <c r="R246" s="128"/>
+      <c r="S246" s="128"/>
+      <c r="T246" s="128"/>
+      <c r="U246" s="128"/>
+      <c r="V246" s="128"/>
+      <c r="W246" s="128"/>
+      <c r="X246" s="128"/>
+      <c r="Y246" s="102"/>
+      <c r="Z246" s="106"/>
+      <c r="AA246" s="128" t="s">
         <v>63</v>
       </c>
+      <c r="AB246" s="128"/>
+      <c r="AC246" s="128"/>
+      <c r="AD246" s="128"/>
+      <c r="AE246" s="128"/>
+      <c r="AF246" s="128"/>
+      <c r="AG246" s="128"/>
+      <c r="AH246" s="128"/>
+      <c r="AI246" s="128"/>
+      <c r="AJ246" s="102"/>
+      <c r="AK246" s="128"/>
+      <c r="AL246" s="128"/>
+      <c r="AM246" s="128"/>
+      <c r="AN246" s="128"/>
+      <c r="AO246" s="128"/>
+      <c r="AP246" s="128"/>
+      <c r="AQ246" s="128"/>
+      <c r="AR246" s="128"/>
+      <c r="AS246" s="128"/>
+      <c r="AT246" s="128"/>
+      <c r="AU246" s="128"/>
+      <c r="AV246" s="102"/>
+    </row>
+    <row r="247" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N247" s="106"/>
+      <c r="O247" s="128"/>
+      <c r="P247" s="128"/>
+      <c r="Q247" s="128"/>
+      <c r="R247" s="128"/>
+      <c r="S247" s="128"/>
+      <c r="T247" s="128"/>
+      <c r="U247" s="128"/>
+      <c r="V247" s="128"/>
+      <c r="W247" s="128"/>
+      <c r="X247" s="128"/>
+      <c r="Y247" s="102"/>
+      <c r="Z247" s="106"/>
+      <c r="AA247" s="128"/>
+      <c r="AB247" s="128"/>
+      <c r="AC247" s="128"/>
+      <c r="AD247" s="128"/>
+      <c r="AE247" s="128"/>
+      <c r="AF247" s="128"/>
+      <c r="AG247" s="128"/>
+      <c r="AH247" s="128"/>
+      <c r="AI247" s="128"/>
+      <c r="AJ247" s="102"/>
+      <c r="AK247" s="128"/>
+      <c r="AL247" s="128"/>
+      <c r="AM247" s="128"/>
+      <c r="AN247" s="128"/>
+      <c r="AO247" s="128"/>
+      <c r="AP247" s="128"/>
+      <c r="AQ247" s="128"/>
+      <c r="AR247" s="128"/>
+      <c r="AS247" s="128"/>
+      <c r="AT247" s="128"/>
+      <c r="AU247" s="128"/>
+      <c r="AV247" s="102"/>
+    </row>
+    <row r="248" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N248" s="106"/>
+      <c r="O248" s="128"/>
+      <c r="P248" s="128"/>
+      <c r="Q248" s="128"/>
+      <c r="R248" s="128"/>
+      <c r="S248" s="128"/>
+      <c r="T248" s="128"/>
+      <c r="U248" s="128"/>
+      <c r="V248" s="128"/>
+      <c r="W248" s="128"/>
+      <c r="X248" s="128"/>
+      <c r="Y248" s="102"/>
+      <c r="Z248" s="106"/>
+      <c r="AA248" s="128"/>
+      <c r="AB248" s="128"/>
+      <c r="AC248" s="128"/>
+      <c r="AD248" s="128"/>
+      <c r="AE248" s="128"/>
+      <c r="AF248" s="128"/>
+      <c r="AG248" s="128"/>
+      <c r="AH248" s="128"/>
+      <c r="AI248" s="128"/>
+      <c r="AJ248" s="102"/>
+      <c r="AK248" s="128"/>
+      <c r="AL248" s="128"/>
+      <c r="AM248" s="128"/>
+      <c r="AN248" s="128"/>
+      <c r="AO248" s="128"/>
+      <c r="AP248" s="128"/>
+      <c r="AQ248" s="128"/>
+      <c r="AR248" s="128"/>
+      <c r="AS248" s="128"/>
+      <c r="AT248" s="128"/>
+      <c r="AU248" s="128"/>
+      <c r="AV248" s="102"/>
+    </row>
+    <row r="249" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N249" s="106"/>
+      <c r="O249" s="128"/>
+      <c r="P249" s="128"/>
+      <c r="Q249" s="128"/>
+      <c r="R249" s="128"/>
+      <c r="S249" s="128"/>
+      <c r="T249" s="128"/>
+      <c r="U249" s="128"/>
+      <c r="V249" s="128"/>
+      <c r="W249" s="128"/>
+      <c r="X249" s="128"/>
+      <c r="Y249" s="102"/>
+      <c r="Z249" s="106"/>
+      <c r="AA249" s="128"/>
+      <c r="AB249" s="128"/>
+      <c r="AC249" s="128"/>
+      <c r="AD249" s="128"/>
+      <c r="AE249" s="128"/>
+      <c r="AF249" s="128"/>
+      <c r="AG249" s="128"/>
+      <c r="AH249" s="128"/>
+      <c r="AI249" s="128"/>
+      <c r="AJ249" s="102"/>
+      <c r="AK249" s="128"/>
+      <c r="AL249" s="128"/>
+      <c r="AM249" s="128"/>
+      <c r="AN249" s="128"/>
+      <c r="AO249" s="128"/>
+      <c r="AP249" s="128"/>
+      <c r="AQ249" s="128"/>
+      <c r="AR249" s="128"/>
+      <c r="AS249" s="128"/>
+      <c r="AT249" s="128"/>
+      <c r="AU249" s="128"/>
+      <c r="AV249" s="102"/>
+    </row>
+    <row r="250" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N250" s="106"/>
+      <c r="O250" s="128"/>
+      <c r="P250" s="128"/>
+      <c r="Q250" s="128"/>
+      <c r="R250" s="128"/>
+      <c r="S250" s="128"/>
+      <c r="T250" s="128"/>
+      <c r="U250" s="128"/>
+      <c r="V250" s="128"/>
+      <c r="W250" s="128"/>
+      <c r="X250" s="128"/>
+      <c r="Y250" s="102"/>
+      <c r="Z250" s="106"/>
+      <c r="AA250" s="128"/>
+      <c r="AB250" s="128"/>
+      <c r="AC250" s="128"/>
+      <c r="AD250" s="128"/>
+      <c r="AE250" s="128"/>
+      <c r="AF250" s="128"/>
+      <c r="AG250" s="128"/>
+      <c r="AH250" s="128"/>
+      <c r="AI250" s="128"/>
+      <c r="AJ250" s="102"/>
+      <c r="AK250" s="128"/>
+      <c r="AL250" s="128"/>
+      <c r="AM250" s="128"/>
+      <c r="AN250" s="128"/>
+      <c r="AO250" s="128"/>
+      <c r="AP250" s="128"/>
+      <c r="AQ250" s="128"/>
+      <c r="AR250" s="128"/>
+      <c r="AS250" s="128"/>
+      <c r="AT250" s="128"/>
+      <c r="AU250" s="128"/>
+      <c r="AV250" s="102"/>
+    </row>
+    <row r="251" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N251" s="106"/>
+      <c r="O251" s="128"/>
+      <c r="P251" s="128"/>
+      <c r="Q251" s="128"/>
+      <c r="R251" s="128"/>
+      <c r="S251" s="128"/>
+      <c r="T251" s="128"/>
+      <c r="U251" s="128"/>
+      <c r="V251" s="128"/>
+      <c r="W251" s="128"/>
+      <c r="X251" s="128"/>
+      <c r="Y251" s="102"/>
+      <c r="Z251" s="106"/>
+      <c r="AA251" s="128"/>
+      <c r="AB251" s="128"/>
+      <c r="AC251" s="128"/>
+      <c r="AD251" s="128"/>
+      <c r="AE251" s="128"/>
+      <c r="AF251" s="128"/>
+      <c r="AG251" s="128"/>
+      <c r="AH251" s="128"/>
+      <c r="AI251" s="128"/>
+      <c r="AJ251" s="102"/>
+      <c r="AK251" s="128"/>
+      <c r="AL251" s="128"/>
+      <c r="AM251" s="128"/>
+      <c r="AN251" s="128"/>
+      <c r="AO251" s="128"/>
+      <c r="AP251" s="128"/>
+      <c r="AQ251" s="128"/>
+      <c r="AR251" s="128"/>
+      <c r="AS251" s="128"/>
+      <c r="AT251" s="128"/>
+      <c r="AU251" s="128"/>
+      <c r="AV251" s="102"/>
+    </row>
+    <row r="252" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N252" s="106"/>
+      <c r="O252" s="128"/>
+      <c r="P252" s="128"/>
+      <c r="Q252" s="128"/>
+      <c r="R252" s="128"/>
+      <c r="S252" s="128"/>
+      <c r="T252" s="128"/>
+      <c r="U252" s="128"/>
+      <c r="V252" s="128"/>
+      <c r="W252" s="128"/>
+      <c r="X252" s="128"/>
+      <c r="Y252" s="102"/>
+      <c r="Z252" s="106"/>
+      <c r="AA252" s="128"/>
+      <c r="AB252" s="128"/>
+      <c r="AC252" s="128"/>
+      <c r="AD252" s="128"/>
+      <c r="AE252" s="128"/>
+      <c r="AF252" s="128"/>
+      <c r="AG252" s="128"/>
+      <c r="AH252" s="128"/>
+      <c r="AI252" s="128"/>
+      <c r="AJ252" s="102"/>
+      <c r="AK252" s="128"/>
+      <c r="AL252" s="128"/>
+      <c r="AM252" s="128"/>
+      <c r="AN252" s="128"/>
+      <c r="AO252" s="128"/>
+      <c r="AP252" s="128"/>
+      <c r="AQ252" s="128"/>
+      <c r="AR252" s="128"/>
+      <c r="AS252" s="128"/>
+      <c r="AT252" s="128"/>
+      <c r="AU252" s="128"/>
+      <c r="AV252" s="102"/>
+    </row>
+    <row r="253" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N253" s="106"/>
+      <c r="O253" s="128"/>
+      <c r="P253" s="128"/>
+      <c r="Q253" s="128"/>
+      <c r="R253" s="128"/>
+      <c r="S253" s="128"/>
+      <c r="T253" s="128"/>
+      <c r="U253" s="128"/>
+      <c r="V253" s="128"/>
+      <c r="W253" s="128"/>
+      <c r="X253" s="128"/>
+      <c r="Y253" s="102"/>
+      <c r="Z253" s="106"/>
+      <c r="AA253" s="128"/>
+      <c r="AB253" s="128"/>
+      <c r="AC253" s="128"/>
+      <c r="AD253" s="128"/>
+      <c r="AE253" s="128"/>
+      <c r="AF253" s="128"/>
+      <c r="AG253" s="128"/>
+      <c r="AH253" s="128"/>
+      <c r="AI253" s="128"/>
+      <c r="AJ253" s="102"/>
+      <c r="AK253" s="128"/>
+      <c r="AL253" s="128"/>
+      <c r="AM253" s="128"/>
+      <c r="AN253" s="128"/>
+      <c r="AO253" s="128"/>
+      <c r="AP253" s="128"/>
+      <c r="AQ253" s="128"/>
+      <c r="AR253" s="128"/>
+      <c r="AS253" s="128"/>
+      <c r="AT253" s="128"/>
+      <c r="AU253" s="128"/>
+      <c r="AV253" s="102"/>
+    </row>
+    <row r="254" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N254" s="106"/>
+      <c r="O254" s="128"/>
+      <c r="P254" s="128"/>
+      <c r="Q254" s="128"/>
+      <c r="R254" s="128"/>
+      <c r="S254" s="128"/>
+      <c r="T254" s="128"/>
+      <c r="U254" s="128"/>
+      <c r="V254" s="128"/>
+      <c r="W254" s="128"/>
+      <c r="X254" s="128"/>
+      <c r="Y254" s="102"/>
+      <c r="Z254" s="106"/>
+      <c r="AA254" s="128"/>
+      <c r="AB254" s="128"/>
+      <c r="AC254" s="128"/>
+      <c r="AD254" s="128"/>
+      <c r="AE254" s="128"/>
+      <c r="AF254" s="128"/>
+      <c r="AG254" s="128"/>
+      <c r="AH254" s="128"/>
+      <c r="AI254" s="128"/>
+      <c r="AJ254" s="102"/>
+      <c r="AK254" s="128"/>
+      <c r="AL254" s="128"/>
+      <c r="AM254" s="128"/>
+      <c r="AN254" s="128"/>
+      <c r="AO254" s="128"/>
+      <c r="AP254" s="128"/>
+      <c r="AQ254" s="128"/>
+      <c r="AR254" s="128"/>
+      <c r="AS254" s="128"/>
+      <c r="AT254" s="128"/>
+      <c r="AU254" s="128"/>
+      <c r="AV254" s="102"/>
+    </row>
+    <row r="255" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N255" s="106"/>
+      <c r="O255" s="128"/>
+      <c r="P255" s="128"/>
+      <c r="Q255" s="128"/>
+      <c r="R255" s="128"/>
+      <c r="S255" s="128"/>
+      <c r="T255" s="128"/>
+      <c r="U255" s="128"/>
+      <c r="V255" s="128"/>
+      <c r="W255" s="128"/>
+      <c r="X255" s="128"/>
+      <c r="Y255" s="102"/>
+      <c r="Z255" s="106"/>
+      <c r="AA255" s="128"/>
+      <c r="AB255" s="128"/>
+      <c r="AC255" s="128"/>
+      <c r="AD255" s="128"/>
+      <c r="AE255" s="128"/>
+      <c r="AF255" s="128"/>
+      <c r="AG255" s="128"/>
+      <c r="AH255" s="128"/>
+      <c r="AI255" s="128"/>
+      <c r="AJ255" s="102"/>
+      <c r="AK255" s="128"/>
+      <c r="AL255" s="128"/>
+      <c r="AM255" s="128"/>
+      <c r="AN255" s="128"/>
+      <c r="AO255" s="128"/>
+      <c r="AP255" s="128"/>
+      <c r="AQ255" s="128"/>
+      <c r="AR255" s="128"/>
+      <c r="AS255" s="128"/>
+      <c r="AT255" s="128"/>
+      <c r="AU255" s="128"/>
+      <c r="AV255" s="102"/>
+    </row>
+    <row r="256" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N256" s="106"/>
+      <c r="O256" s="128"/>
+      <c r="P256" s="128"/>
+      <c r="Q256" s="128"/>
+      <c r="R256" s="128"/>
+      <c r="S256" s="128"/>
+      <c r="T256" s="128"/>
+      <c r="U256" s="128"/>
+      <c r="V256" s="128"/>
+      <c r="W256" s="128"/>
+      <c r="X256" s="128"/>
+      <c r="Y256" s="102"/>
+      <c r="Z256" s="106"/>
+      <c r="AA256" s="128"/>
+      <c r="AB256" s="128"/>
+      <c r="AC256" s="128"/>
+      <c r="AD256" s="128"/>
+      <c r="AE256" s="128"/>
+      <c r="AF256" s="128"/>
+      <c r="AG256" s="128"/>
+      <c r="AH256" s="128"/>
+      <c r="AI256" s="128"/>
+      <c r="AJ256" s="102"/>
+      <c r="AK256" s="128"/>
+      <c r="AL256" s="128"/>
+      <c r="AM256" s="128"/>
+      <c r="AN256" s="128"/>
+      <c r="AO256" s="128"/>
+      <c r="AP256" s="128"/>
+      <c r="AQ256" s="128"/>
+      <c r="AR256" s="128"/>
+      <c r="AS256" s="128"/>
+      <c r="AT256" s="128"/>
+      <c r="AU256" s="128"/>
+      <c r="AV256" s="102"/>
+    </row>
+    <row r="257" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N257" s="106"/>
+      <c r="O257" s="128"/>
+      <c r="P257" s="128"/>
+      <c r="Q257" s="128"/>
+      <c r="R257" s="128"/>
+      <c r="S257" s="128"/>
+      <c r="T257" s="128"/>
+      <c r="U257" s="128"/>
+      <c r="V257" s="128"/>
+      <c r="W257" s="128"/>
+      <c r="X257" s="128"/>
+      <c r="Y257" s="102"/>
+      <c r="Z257" s="106"/>
+      <c r="AA257" s="128"/>
+      <c r="AB257" s="128"/>
+      <c r="AC257" s="128"/>
+      <c r="AD257" s="128"/>
+      <c r="AE257" s="128"/>
+      <c r="AF257" s="128"/>
+      <c r="AG257" s="128"/>
+      <c r="AH257" s="128"/>
+      <c r="AI257" s="128"/>
+      <c r="AJ257" s="102"/>
+      <c r="AK257" s="128"/>
+      <c r="AL257" s="128"/>
+      <c r="AM257" s="128"/>
+      <c r="AN257" s="128"/>
+      <c r="AO257" s="128"/>
+      <c r="AP257" s="128"/>
+      <c r="AQ257" s="128"/>
+      <c r="AR257" s="128"/>
+      <c r="AS257" s="128"/>
+      <c r="AT257" s="128"/>
+      <c r="AU257" s="128"/>
+      <c r="AV257" s="102"/>
+    </row>
+    <row r="258" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N258" s="106"/>
+      <c r="O258" s="128"/>
+      <c r="P258" s="128"/>
+      <c r="Q258" s="128"/>
+      <c r="R258" s="128"/>
+      <c r="S258" s="128"/>
+      <c r="T258" s="128"/>
+      <c r="U258" s="128"/>
+      <c r="V258" s="128"/>
+      <c r="W258" s="128"/>
+      <c r="X258" s="128"/>
+      <c r="Y258" s="102"/>
+      <c r="Z258" s="106"/>
+      <c r="AA258" s="128"/>
+      <c r="AB258" s="128"/>
+      <c r="AC258" s="128"/>
+      <c r="AD258" s="128"/>
+      <c r="AE258" s="128"/>
+      <c r="AF258" s="128"/>
+      <c r="AG258" s="128"/>
+      <c r="AH258" s="128"/>
+      <c r="AI258" s="128"/>
+      <c r="AJ258" s="102"/>
+      <c r="AK258" s="128"/>
+      <c r="AL258" s="128"/>
+      <c r="AM258" s="128"/>
+      <c r="AN258" s="128"/>
+      <c r="AO258" s="128"/>
+      <c r="AP258" s="128"/>
+      <c r="AQ258" s="128"/>
+      <c r="AR258" s="128"/>
+      <c r="AS258" s="128"/>
+      <c r="AT258" s="128"/>
+      <c r="AU258" s="128"/>
+      <c r="AV258" s="102"/>
+    </row>
+    <row r="259" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N259" s="106"/>
+      <c r="O259" s="128"/>
+      <c r="P259" s="128"/>
+      <c r="Q259" s="128"/>
+      <c r="R259" s="128"/>
+      <c r="S259" s="128"/>
+      <c r="T259" s="128"/>
+      <c r="U259" s="128"/>
+      <c r="V259" s="128"/>
+      <c r="W259" s="128"/>
+      <c r="X259" s="128"/>
+      <c r="Y259" s="102"/>
+      <c r="Z259" s="106"/>
+      <c r="AA259" s="128"/>
+      <c r="AB259" s="128"/>
+      <c r="AC259" s="128"/>
+      <c r="AD259" s="128"/>
+      <c r="AE259" s="128"/>
+      <c r="AF259" s="128"/>
+      <c r="AG259" s="128"/>
+      <c r="AH259" s="128"/>
+      <c r="AI259" s="128"/>
+      <c r="AJ259" s="102"/>
+      <c r="AK259" s="128"/>
+      <c r="AL259" s="128"/>
+      <c r="AM259" s="128"/>
+      <c r="AN259" s="128"/>
+      <c r="AO259" s="128"/>
+      <c r="AP259" s="128"/>
+      <c r="AQ259" s="128"/>
+      <c r="AR259" s="128"/>
+      <c r="AS259" s="128"/>
+      <c r="AT259" s="128"/>
+      <c r="AU259" s="128"/>
+      <c r="AV259" s="102"/>
+    </row>
+    <row r="260" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N260" s="106"/>
+      <c r="O260" s="128"/>
+      <c r="P260" s="128"/>
+      <c r="Q260" s="128"/>
+      <c r="R260" s="128"/>
+      <c r="S260" s="128"/>
+      <c r="T260" s="128"/>
+      <c r="U260" s="128"/>
+      <c r="V260" s="128"/>
+      <c r="W260" s="128"/>
+      <c r="X260" s="128"/>
+      <c r="Y260" s="102"/>
+      <c r="Z260" s="106"/>
+      <c r="AA260" s="128"/>
+      <c r="AB260" s="128"/>
+      <c r="AC260" s="128"/>
+      <c r="AD260" s="128"/>
+      <c r="AE260" s="128"/>
+      <c r="AF260" s="128"/>
+      <c r="AG260" s="128"/>
+      <c r="AH260" s="128"/>
+      <c r="AI260" s="128"/>
+      <c r="AJ260" s="102"/>
+      <c r="AK260" s="128"/>
+      <c r="AL260" s="128"/>
+      <c r="AM260" s="128"/>
+      <c r="AN260" s="128"/>
+      <c r="AO260" s="128"/>
+      <c r="AP260" s="128"/>
+      <c r="AQ260" s="128"/>
+      <c r="AR260" s="128"/>
+      <c r="AS260" s="128"/>
+      <c r="AT260" s="128"/>
+      <c r="AU260" s="128"/>
+      <c r="AV260" s="102"/>
+    </row>
+    <row r="261" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N261" s="106"/>
+      <c r="O261" s="128"/>
+      <c r="P261" s="128"/>
+      <c r="Q261" s="128"/>
+      <c r="R261" s="128"/>
+      <c r="S261" s="128"/>
+      <c r="T261" s="128"/>
+      <c r="U261" s="128"/>
+      <c r="V261" s="128"/>
+      <c r="W261" s="128"/>
+      <c r="X261" s="128"/>
+      <c r="Y261" s="102"/>
+      <c r="Z261" s="106"/>
+      <c r="AA261" s="128"/>
+      <c r="AB261" s="128"/>
+      <c r="AC261" s="128"/>
+      <c r="AD261" s="128"/>
+      <c r="AE261" s="128"/>
+      <c r="AF261" s="128"/>
+      <c r="AG261" s="128"/>
+      <c r="AH261" s="128"/>
+      <c r="AI261" s="128"/>
+      <c r="AJ261" s="102"/>
+      <c r="AK261" s="128"/>
+      <c r="AL261" s="128"/>
+      <c r="AM261" s="128"/>
+      <c r="AN261" s="128"/>
+      <c r="AO261" s="128"/>
+      <c r="AP261" s="128"/>
+      <c r="AQ261" s="128"/>
+      <c r="AR261" s="128"/>
+      <c r="AS261" s="128"/>
+      <c r="AT261" s="128"/>
+      <c r="AU261" s="128"/>
+      <c r="AV261" s="102"/>
+    </row>
+    <row r="262" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N262" s="106"/>
+      <c r="O262" s="128"/>
+      <c r="P262" s="128"/>
+      <c r="Q262" s="128"/>
+      <c r="R262" s="128"/>
+      <c r="S262" s="128"/>
+      <c r="T262" s="128"/>
+      <c r="U262" s="128"/>
+      <c r="V262" s="128"/>
+      <c r="W262" s="128"/>
+      <c r="X262" s="128"/>
+      <c r="Y262" s="102"/>
+      <c r="Z262" s="106"/>
+      <c r="AA262" s="128"/>
+      <c r="AB262" s="128"/>
+      <c r="AC262" s="128"/>
+      <c r="AD262" s="128"/>
+      <c r="AE262" s="128"/>
+      <c r="AF262" s="128"/>
+      <c r="AG262" s="128"/>
+      <c r="AH262" s="128"/>
+      <c r="AI262" s="128"/>
+      <c r="AJ262" s="102"/>
+      <c r="AK262" s="128"/>
+      <c r="AL262" s="128"/>
+      <c r="AM262" s="128"/>
+      <c r="AN262" s="128"/>
+      <c r="AO262" s="128"/>
+      <c r="AP262" s="128"/>
+      <c r="AQ262" s="128"/>
+      <c r="AR262" s="128"/>
+      <c r="AS262" s="128"/>
+      <c r="AT262" s="128"/>
+      <c r="AU262" s="128"/>
+      <c r="AV262" s="102"/>
+    </row>
+    <row r="263" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N263" s="106"/>
+      <c r="O263" s="128"/>
+      <c r="P263" s="128"/>
+      <c r="Q263" s="128"/>
+      <c r="R263" s="128"/>
+      <c r="S263" s="128"/>
+      <c r="T263" s="128"/>
+      <c r="U263" s="128"/>
+      <c r="V263" s="128"/>
+      <c r="W263" s="128"/>
+      <c r="X263" s="128"/>
+      <c r="Y263" s="102"/>
+      <c r="Z263" s="106"/>
+      <c r="AA263" s="128"/>
+      <c r="AB263" s="128"/>
+      <c r="AC263" s="128"/>
+      <c r="AD263" s="128"/>
+      <c r="AE263" s="128"/>
+      <c r="AF263" s="128"/>
+      <c r="AG263" s="128"/>
+      <c r="AH263" s="128"/>
+      <c r="AI263" s="128"/>
+      <c r="AJ263" s="102"/>
+      <c r="AK263" s="128"/>
+      <c r="AL263" s="128"/>
+      <c r="AM263" s="128"/>
+      <c r="AN263" s="128"/>
+      <c r="AO263" s="128"/>
+      <c r="AP263" s="128"/>
+      <c r="AQ263" s="128"/>
+      <c r="AR263" s="128"/>
+      <c r="AS263" s="128"/>
+      <c r="AT263" s="128"/>
+      <c r="AU263" s="128"/>
+      <c r="AV263" s="102"/>
+    </row>
+    <row r="264" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N264" s="106"/>
+      <c r="O264" s="128"/>
+      <c r="P264" s="128"/>
+      <c r="Q264" s="128"/>
+      <c r="R264" s="128"/>
+      <c r="S264" s="128"/>
+      <c r="T264" s="128"/>
+      <c r="U264" s="128"/>
+      <c r="V264" s="128"/>
+      <c r="W264" s="128"/>
+      <c r="X264" s="128"/>
+      <c r="Y264" s="102"/>
+      <c r="Z264" s="106"/>
+      <c r="AA264" s="128"/>
+      <c r="AB264" s="128"/>
+      <c r="AC264" s="128"/>
+      <c r="AD264" s="128"/>
+      <c r="AE264" s="128"/>
+      <c r="AF264" s="128"/>
+      <c r="AG264" s="128"/>
+      <c r="AH264" s="128"/>
+      <c r="AI264" s="128"/>
+      <c r="AJ264" s="102"/>
+      <c r="AK264" s="128"/>
+      <c r="AL264" s="128"/>
+      <c r="AM264" s="128"/>
+      <c r="AN264" s="128"/>
+      <c r="AO264" s="128"/>
+      <c r="AP264" s="128"/>
+      <c r="AQ264" s="128"/>
+      <c r="AR264" s="128"/>
+      <c r="AS264" s="128"/>
+      <c r="AT264" s="128"/>
+      <c r="AU264" s="128"/>
+      <c r="AV264" s="102"/>
+    </row>
+    <row r="265" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N265" s="106"/>
+      <c r="O265" s="128"/>
+      <c r="P265" s="128"/>
+      <c r="Q265" s="128"/>
+      <c r="R265" s="128"/>
+      <c r="S265" s="128"/>
+      <c r="T265" s="128"/>
+      <c r="U265" s="128"/>
+      <c r="V265" s="128"/>
+      <c r="W265" s="128"/>
+      <c r="X265" s="128"/>
+      <c r="Y265" s="102"/>
+      <c r="Z265" s="106"/>
+      <c r="AA265" s="128"/>
+      <c r="AB265" s="128"/>
+      <c r="AC265" s="128"/>
+      <c r="AD265" s="128"/>
+      <c r="AE265" s="128"/>
+      <c r="AF265" s="128"/>
+      <c r="AG265" s="128"/>
+      <c r="AH265" s="128"/>
+      <c r="AI265" s="128"/>
+      <c r="AJ265" s="102"/>
+      <c r="AK265" s="128"/>
+      <c r="AL265" s="128"/>
+      <c r="AM265" s="128"/>
+      <c r="AN265" s="128"/>
+      <c r="AO265" s="128"/>
+      <c r="AP265" s="128"/>
+      <c r="AQ265" s="128"/>
+      <c r="AR265" s="128"/>
+      <c r="AS265" s="128"/>
+      <c r="AT265" s="128"/>
+      <c r="AU265" s="128"/>
+      <c r="AV265" s="102"/>
+    </row>
+    <row r="266" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N266" s="106"/>
+      <c r="O266" s="128"/>
+      <c r="P266" s="128"/>
+      <c r="Q266" s="128"/>
+      <c r="R266" s="128"/>
+      <c r="S266" s="128"/>
+      <c r="T266" s="128"/>
+      <c r="U266" s="128"/>
+      <c r="V266" s="128"/>
+      <c r="W266" s="128"/>
+      <c r="X266" s="128"/>
+      <c r="Y266" s="102"/>
+      <c r="Z266" s="106"/>
+      <c r="AA266" s="128"/>
+      <c r="AB266" s="128"/>
+      <c r="AC266" s="128"/>
+      <c r="AD266" s="128"/>
+      <c r="AE266" s="128"/>
+      <c r="AF266" s="128"/>
+      <c r="AG266" s="128"/>
+      <c r="AH266" s="128"/>
+      <c r="AI266" s="128"/>
+      <c r="AJ266" s="102"/>
+      <c r="AK266" s="128"/>
+      <c r="AL266" s="128"/>
+      <c r="AM266" s="128"/>
+      <c r="AN266" s="128"/>
+      <c r="AO266" s="128"/>
+      <c r="AP266" s="128"/>
+      <c r="AQ266" s="128"/>
+      <c r="AR266" s="128"/>
+      <c r="AS266" s="128"/>
+      <c r="AT266" s="128"/>
+      <c r="AU266" s="128"/>
+      <c r="AV266" s="102"/>
+    </row>
+    <row r="267" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N267" s="106"/>
+      <c r="O267" s="128"/>
+      <c r="P267" s="128"/>
+      <c r="Q267" s="128"/>
+      <c r="R267" s="128"/>
+      <c r="S267" s="128"/>
+      <c r="T267" s="128"/>
+      <c r="U267" s="128"/>
+      <c r="V267" s="128"/>
+      <c r="W267" s="128"/>
+      <c r="X267" s="128"/>
+      <c r="Y267" s="102"/>
+      <c r="Z267" s="106"/>
+      <c r="AA267" s="128"/>
+      <c r="AB267" s="128"/>
+      <c r="AC267" s="128"/>
+      <c r="AD267" s="128"/>
+      <c r="AE267" s="128"/>
+      <c r="AF267" s="128"/>
+      <c r="AG267" s="128"/>
+      <c r="AH267" s="128"/>
+      <c r="AI267" s="128"/>
+      <c r="AJ267" s="102"/>
+      <c r="AK267" s="128"/>
+      <c r="AL267" s="128"/>
+      <c r="AM267" s="128"/>
+      <c r="AN267" s="128"/>
+      <c r="AO267" s="128"/>
+      <c r="AP267" s="128"/>
+      <c r="AQ267" s="128"/>
+      <c r="AR267" s="128"/>
+      <c r="AS267" s="128"/>
+      <c r="AT267" s="128"/>
+      <c r="AU267" s="128"/>
+      <c r="AV267" s="102"/>
+    </row>
+    <row r="268" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N268" s="106"/>
+      <c r="O268" s="128"/>
+      <c r="P268" s="128"/>
+      <c r="Q268" s="128"/>
+      <c r="R268" s="128"/>
+      <c r="S268" s="128"/>
+      <c r="T268" s="128"/>
+      <c r="U268" s="128"/>
+      <c r="V268" s="128"/>
+      <c r="W268" s="128"/>
+      <c r="X268" s="128"/>
+      <c r="Y268" s="102"/>
+      <c r="Z268" s="106"/>
+      <c r="AA268" s="128"/>
+      <c r="AB268" s="128"/>
+      <c r="AC268" s="128"/>
+      <c r="AD268" s="128"/>
+      <c r="AE268" s="128"/>
+      <c r="AF268" s="128"/>
+      <c r="AG268" s="128"/>
+      <c r="AH268" s="128"/>
+      <c r="AI268" s="128"/>
+      <c r="AJ268" s="102"/>
+      <c r="AK268" s="128"/>
+      <c r="AL268" s="128"/>
+      <c r="AM268" s="128"/>
+      <c r="AN268" s="128"/>
+      <c r="AO268" s="128"/>
+      <c r="AP268" s="128"/>
+      <c r="AQ268" s="128"/>
+      <c r="AR268" s="128"/>
+      <c r="AS268" s="128"/>
+      <c r="AT268" s="128"/>
+      <c r="AU268" s="128"/>
+      <c r="AV268" s="102"/>
+    </row>
+    <row r="269" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N269" s="106"/>
+      <c r="O269" s="128"/>
+      <c r="P269" s="128"/>
+      <c r="Q269" s="128"/>
+      <c r="R269" s="128"/>
+      <c r="S269" s="128"/>
+      <c r="T269" s="128"/>
+      <c r="U269" s="128"/>
+      <c r="V269" s="128"/>
+      <c r="W269" s="128"/>
+      <c r="X269" s="128"/>
+      <c r="Y269" s="102"/>
+      <c r="Z269" s="106"/>
+      <c r="AA269" s="128"/>
+      <c r="AB269" s="128"/>
+      <c r="AC269" s="128"/>
+      <c r="AD269" s="128"/>
+      <c r="AE269" s="128"/>
+      <c r="AF269" s="128"/>
+      <c r="AG269" s="128"/>
+      <c r="AH269" s="128"/>
+      <c r="AI269" s="128"/>
+      <c r="AJ269" s="102"/>
+      <c r="AK269" s="128"/>
+      <c r="AL269" s="128"/>
+      <c r="AM269" s="128"/>
+      <c r="AN269" s="128"/>
+      <c r="AO269" s="128"/>
+      <c r="AP269" s="128"/>
+      <c r="AQ269" s="128"/>
+      <c r="AR269" s="128"/>
+      <c r="AS269" s="128"/>
+      <c r="AT269" s="128"/>
+      <c r="AU269" s="128"/>
+      <c r="AV269" s="102"/>
+    </row>
+    <row r="270" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N270" s="106"/>
+      <c r="O270" s="128"/>
+      <c r="P270" s="128"/>
+      <c r="Q270" s="128"/>
+      <c r="R270" s="128"/>
+      <c r="S270" s="128"/>
+      <c r="T270" s="128"/>
+      <c r="U270" s="128"/>
+      <c r="V270" s="128"/>
+      <c r="W270" s="128"/>
+      <c r="X270" s="128"/>
+      <c r="Y270" s="102"/>
+      <c r="Z270" s="106"/>
+      <c r="AA270" s="128"/>
+      <c r="AB270" s="128"/>
+      <c r="AC270" s="128"/>
+      <c r="AD270" s="128"/>
+      <c r="AE270" s="128"/>
+      <c r="AF270" s="128"/>
+      <c r="AG270" s="128"/>
+      <c r="AH270" s="128"/>
+      <c r="AI270" s="128"/>
+      <c r="AJ270" s="102"/>
+      <c r="AK270" s="128"/>
+      <c r="AL270" s="128"/>
+      <c r="AM270" s="128"/>
+      <c r="AN270" s="128"/>
+      <c r="AO270" s="128"/>
+      <c r="AP270" s="128"/>
+      <c r="AQ270" s="128"/>
+      <c r="AR270" s="128"/>
+      <c r="AS270" s="128"/>
+      <c r="AT270" s="128"/>
+      <c r="AU270" s="128"/>
+      <c r="AV270" s="102"/>
+    </row>
+    <row r="271" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N271" s="106"/>
+      <c r="O271" s="128"/>
+      <c r="P271" s="128"/>
+      <c r="Q271" s="128"/>
+      <c r="R271" s="128"/>
+      <c r="S271" s="128"/>
+      <c r="T271" s="128"/>
+      <c r="U271" s="128"/>
+      <c r="V271" s="128"/>
+      <c r="W271" s="128"/>
+      <c r="X271" s="128"/>
+      <c r="Y271" s="102"/>
+      <c r="Z271" s="106"/>
+      <c r="AA271" s="128"/>
+      <c r="AB271" s="128"/>
+      <c r="AC271" s="128"/>
+      <c r="AD271" s="128"/>
+      <c r="AE271" s="128"/>
+      <c r="AF271" s="128"/>
+      <c r="AG271" s="128"/>
+      <c r="AH271" s="128"/>
+      <c r="AI271" s="128"/>
+      <c r="AJ271" s="102"/>
+      <c r="AK271" s="128"/>
+      <c r="AL271" s="128"/>
+      <c r="AM271" s="128"/>
+      <c r="AN271" s="128"/>
+      <c r="AO271" s="128"/>
+      <c r="AP271" s="128"/>
+      <c r="AQ271" s="128"/>
+      <c r="AR271" s="128"/>
+      <c r="AS271" s="128"/>
+      <c r="AT271" s="128"/>
+      <c r="AU271" s="128"/>
+      <c r="AV271" s="102"/>
+    </row>
+    <row r="272" spans="14:48" x14ac:dyDescent="0.25">
+      <c r="N272" s="106"/>
+      <c r="O272" s="128"/>
+      <c r="P272" s="128"/>
+      <c r="Q272" s="128"/>
+      <c r="R272" s="128"/>
+      <c r="S272" s="128"/>
+      <c r="T272" s="128"/>
+      <c r="U272" s="128"/>
+      <c r="V272" s="128"/>
+      <c r="W272" s="128"/>
+      <c r="X272" s="128"/>
+      <c r="Y272" s="102"/>
+      <c r="Z272" s="106"/>
+      <c r="AA272" s="128"/>
+      <c r="AB272" s="128"/>
+      <c r="AC272" s="128"/>
+      <c r="AD272" s="128"/>
+      <c r="AE272" s="128"/>
+      <c r="AF272" s="128"/>
+      <c r="AG272" s="128"/>
+      <c r="AH272" s="128"/>
+      <c r="AI272" s="128"/>
+      <c r="AJ272" s="102"/>
+      <c r="AK272" s="128"/>
+      <c r="AL272" s="128"/>
+      <c r="AM272" s="128"/>
+      <c r="AN272" s="128"/>
+      <c r="AO272" s="128"/>
+      <c r="AP272" s="128"/>
+      <c r="AQ272" s="128"/>
+      <c r="AR272" s="128"/>
+      <c r="AS272" s="128"/>
+      <c r="AT272" s="128"/>
+      <c r="AU272" s="128"/>
+      <c r="AV272" s="102"/>
+    </row>
+    <row r="273" spans="14:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N273" s="107"/>
+      <c r="O273" s="103"/>
+      <c r="P273" s="103"/>
+      <c r="Q273" s="103"/>
+      <c r="R273" s="103"/>
+      <c r="S273" s="103"/>
+      <c r="T273" s="103"/>
+      <c r="U273" s="103"/>
+      <c r="V273" s="103"/>
+      <c r="W273" s="103"/>
+      <c r="X273" s="103"/>
+      <c r="Y273" s="104"/>
+      <c r="Z273" s="107"/>
+      <c r="AA273" s="103"/>
+      <c r="AB273" s="103"/>
+      <c r="AC273" s="103"/>
+      <c r="AD273" s="103"/>
+      <c r="AE273" s="103"/>
+      <c r="AF273" s="103"/>
+      <c r="AG273" s="103"/>
+      <c r="AH273" s="103"/>
+      <c r="AI273" s="103"/>
+      <c r="AJ273" s="104"/>
+      <c r="AK273" s="103"/>
+      <c r="AL273" s="103"/>
+      <c r="AM273" s="103"/>
+      <c r="AN273" s="103"/>
+      <c r="AO273" s="103"/>
+      <c r="AP273" s="103"/>
+      <c r="AQ273" s="103"/>
+      <c r="AR273" s="103"/>
+      <c r="AS273" s="103"/>
+      <c r="AT273" s="103"/>
+      <c r="AU273" s="103"/>
+      <c r="AV273" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Python/4. NN/nn_analysis.xlsx
+++ b/Python/4. NN/nn_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\UUJ\Research Project\masters_project\Python\4. NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE57C5C-C23C-4B4D-AECF-AAC17A6A40CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D5B0F1-E122-45A8-B91E-A64C72FBFB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E68F98E9-ABC9-414C-A465-08CF722D05B6}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="StorageBox" sheetId="6" r:id="rId4"/>
     <sheet name="AllData - Adam" sheetId="7" r:id="rId5"/>
     <sheet name="AssData - SGD" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
+    <sheet name="SGD - Exploring Learning Rate" sheetId="9" r:id="rId7"/>
     <sheet name="Keras Seq" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="87">
   <si>
     <t xml:space="preserve">Model: </t>
   </si>
@@ -1044,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1409,7 +1409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5592,6 +5591,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9292A9A5-30B1-AFAB-B117-CEB0A7014854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23412450" y="32442150"/>
+          <a:ext cx="5400675" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15587,8 +15647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546EE643-96AE-406E-920D-B005CB201B4A}">
   <dimension ref="A3:AV273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BD26" sqref="BD26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK202" sqref="AK202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16151,39 +16211,9 @@
         <v>12</v>
       </c>
       <c r="N17" s="106"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
       <c r="Y17" s="102"/>
       <c r="Z17" s="106"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="128"/>
-      <c r="AH17" s="128"/>
-      <c r="AI17" s="128"/>
       <c r="AJ17" s="102"/>
-      <c r="AK17" s="128"/>
-      <c r="AL17" s="128"/>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="128"/>
-      <c r="AO17" s="128"/>
-      <c r="AP17" s="128"/>
-      <c r="AQ17" s="128"/>
-      <c r="AR17" s="128"/>
-      <c r="AS17" s="128"/>
-      <c r="AT17" s="128"/>
-      <c r="AU17" s="128"/>
       <c r="AV17" s="102"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -16224,45 +16254,18 @@
         <v>13</v>
       </c>
       <c r="N18" s="106"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="128" t="s">
+      <c r="P18" t="s">
         <v>85</v>
       </c>
-      <c r="Q18" s="128"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
       <c r="Y18" s="102"/>
       <c r="Z18" s="106"/>
-      <c r="AA18" s="128" t="s">
+      <c r="AA18" t="s">
         <v>54</v>
       </c>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="128"/>
-      <c r="AH18" s="128"/>
-      <c r="AI18" s="128"/>
       <c r="AJ18" s="102"/>
-      <c r="AK18" s="128"/>
-      <c r="AL18" s="128" t="s">
+      <c r="AL18" t="s">
         <v>64</v>
       </c>
-      <c r="AM18" s="128"/>
-      <c r="AN18" s="128"/>
-      <c r="AO18" s="128"/>
-      <c r="AP18" s="128"/>
-      <c r="AQ18" s="128"/>
-      <c r="AR18" s="128"/>
-      <c r="AS18" s="128"/>
-      <c r="AT18" s="128"/>
-      <c r="AU18" s="128"/>
       <c r="AV18" s="102"/>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
@@ -16303,39 +16306,9 @@
         <v>14</v>
       </c>
       <c r="N19" s="106"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
       <c r="Y19" s="102"/>
       <c r="Z19" s="106"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="128"/>
-      <c r="AH19" s="128"/>
-      <c r="AI19" s="128"/>
       <c r="AJ19" s="102"/>
-      <c r="AK19" s="128"/>
-      <c r="AL19" s="128"/>
-      <c r="AM19" s="128"/>
-      <c r="AN19" s="128"/>
-      <c r="AO19" s="128"/>
-      <c r="AP19" s="128"/>
-      <c r="AQ19" s="128"/>
-      <c r="AR19" s="128"/>
-      <c r="AS19" s="128"/>
-      <c r="AT19" s="128"/>
-      <c r="AU19" s="128"/>
       <c r="AV19" s="102"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
@@ -16376,39 +16349,9 @@
         <v>15</v>
       </c>
       <c r="N20" s="106"/>
-      <c r="O20" s="128"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
       <c r="Y20" s="102"/>
       <c r="Z20" s="106"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="128"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="128"/>
-      <c r="AH20" s="128"/>
-      <c r="AI20" s="128"/>
       <c r="AJ20" s="102"/>
-      <c r="AK20" s="128"/>
-      <c r="AL20" s="128"/>
-      <c r="AM20" s="128"/>
-      <c r="AN20" s="128"/>
-      <c r="AO20" s="128"/>
-      <c r="AP20" s="128"/>
-      <c r="AQ20" s="128"/>
-      <c r="AR20" s="128"/>
-      <c r="AS20" s="128"/>
-      <c r="AT20" s="128"/>
-      <c r="AU20" s="128"/>
       <c r="AV20" s="102"/>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
@@ -16449,39 +16392,9 @@
         <v>16</v>
       </c>
       <c r="N21" s="106"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
       <c r="Y21" s="102"/>
       <c r="Z21" s="106"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="128"/>
-      <c r="AI21" s="128"/>
       <c r="AJ21" s="102"/>
-      <c r="AK21" s="128"/>
-      <c r="AL21" s="128"/>
-      <c r="AM21" s="128"/>
-      <c r="AN21" s="128"/>
-      <c r="AO21" s="128"/>
-      <c r="AP21" s="128"/>
-      <c r="AQ21" s="128"/>
-      <c r="AR21" s="128"/>
-      <c r="AS21" s="128"/>
-      <c r="AT21" s="128"/>
-      <c r="AU21" s="128"/>
       <c r="AV21" s="102"/>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
@@ -16522,39 +16435,9 @@
         <v>17</v>
       </c>
       <c r="N22" s="106"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
       <c r="Y22" s="102"/>
       <c r="Z22" s="106"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="128"/>
-      <c r="AI22" s="128"/>
       <c r="AJ22" s="102"/>
-      <c r="AK22" s="128"/>
-      <c r="AL22" s="128"/>
-      <c r="AM22" s="128"/>
-      <c r="AN22" s="128"/>
-      <c r="AO22" s="128"/>
-      <c r="AP22" s="128"/>
-      <c r="AQ22" s="128"/>
-      <c r="AR22" s="128"/>
-      <c r="AS22" s="128"/>
-      <c r="AT22" s="128"/>
-      <c r="AU22" s="128"/>
       <c r="AV22" s="102"/>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.25">
@@ -16595,39 +16478,9 @@
         <v>18</v>
       </c>
       <c r="N23" s="106"/>
-      <c r="O23" s="128"/>
-      <c r="P23" s="128"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
       <c r="Y23" s="102"/>
       <c r="Z23" s="106"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="128"/>
-      <c r="AI23" s="128"/>
       <c r="AJ23" s="102"/>
-      <c r="AK23" s="128"/>
-      <c r="AL23" s="128"/>
-      <c r="AM23" s="128"/>
-      <c r="AN23" s="128"/>
-      <c r="AO23" s="128"/>
-      <c r="AP23" s="128"/>
-      <c r="AQ23" s="128"/>
-      <c r="AR23" s="128"/>
-      <c r="AS23" s="128"/>
-      <c r="AT23" s="128"/>
-      <c r="AU23" s="128"/>
       <c r="AV23" s="102"/>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
@@ -16668,39 +16521,9 @@
         <v>19</v>
       </c>
       <c r="N24" s="106"/>
-      <c r="O24" s="128"/>
-      <c r="P24" s="128"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
       <c r="Y24" s="102"/>
       <c r="Z24" s="106"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="128"/>
-      <c r="AF24" s="128"/>
-      <c r="AG24" s="128"/>
-      <c r="AH24" s="128"/>
-      <c r="AI24" s="128"/>
       <c r="AJ24" s="102"/>
-      <c r="AK24" s="128"/>
-      <c r="AL24" s="128"/>
-      <c r="AM24" s="128"/>
-      <c r="AN24" s="128"/>
-      <c r="AO24" s="128"/>
-      <c r="AP24" s="128"/>
-      <c r="AQ24" s="128"/>
-      <c r="AR24" s="128"/>
-      <c r="AS24" s="128"/>
-      <c r="AT24" s="128"/>
-      <c r="AU24" s="128"/>
       <c r="AV24" s="102"/>
     </row>
     <row r="25" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16741,39 +16564,9 @@
         <v>20</v>
       </c>
       <c r="N25" s="106"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
       <c r="Y25" s="102"/>
       <c r="Z25" s="106"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="128"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="128"/>
-      <c r="AH25" s="128"/>
-      <c r="AI25" s="128"/>
       <c r="AJ25" s="102"/>
-      <c r="AK25" s="128"/>
-      <c r="AL25" s="128"/>
-      <c r="AM25" s="128"/>
-      <c r="AN25" s="128"/>
-      <c r="AO25" s="128"/>
-      <c r="AP25" s="128"/>
-      <c r="AQ25" s="128"/>
-      <c r="AR25" s="128"/>
-      <c r="AS25" s="128"/>
-      <c r="AT25" s="128"/>
-      <c r="AU25" s="128"/>
       <c r="AV25" s="102"/>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.25">
@@ -16814,39 +16607,9 @@
         <v>21</v>
       </c>
       <c r="N26" s="106"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="128"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
       <c r="Y26" s="102"/>
       <c r="Z26" s="106"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="128"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="128"/>
-      <c r="AH26" s="128"/>
-      <c r="AI26" s="128"/>
       <c r="AJ26" s="102"/>
-      <c r="AK26" s="128"/>
-      <c r="AL26" s="128"/>
-      <c r="AM26" s="128"/>
-      <c r="AN26" s="128"/>
-      <c r="AO26" s="128"/>
-      <c r="AP26" s="128"/>
-      <c r="AQ26" s="128"/>
-      <c r="AR26" s="128"/>
-      <c r="AS26" s="128"/>
-      <c r="AT26" s="128"/>
-      <c r="AU26" s="128"/>
       <c r="AV26" s="102"/>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
@@ -16887,39 +16650,9 @@
         <v>22</v>
       </c>
       <c r="N27" s="106"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
       <c r="Y27" s="102"/>
       <c r="Z27" s="106"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="128"/>
-      <c r="AI27" s="128"/>
       <c r="AJ27" s="102"/>
-      <c r="AK27" s="128"/>
-      <c r="AL27" s="128"/>
-      <c r="AM27" s="128"/>
-      <c r="AN27" s="128"/>
-      <c r="AO27" s="128"/>
-      <c r="AP27" s="128"/>
-      <c r="AQ27" s="128"/>
-      <c r="AR27" s="128"/>
-      <c r="AS27" s="128"/>
-      <c r="AT27" s="128"/>
-      <c r="AU27" s="128"/>
       <c r="AV27" s="102"/>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.25">
@@ -16960,39 +16693,9 @@
         <v>23</v>
       </c>
       <c r="N28" s="106"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
       <c r="Y28" s="102"/>
       <c r="Z28" s="106"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="128"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="128"/>
-      <c r="AH28" s="128"/>
-      <c r="AI28" s="128"/>
       <c r="AJ28" s="102"/>
-      <c r="AK28" s="128"/>
-      <c r="AL28" s="128"/>
-      <c r="AM28" s="128"/>
-      <c r="AN28" s="128"/>
-      <c r="AO28" s="128"/>
-      <c r="AP28" s="128"/>
-      <c r="AQ28" s="128"/>
-      <c r="AR28" s="128"/>
-      <c r="AS28" s="128"/>
-      <c r="AT28" s="128"/>
-      <c r="AU28" s="128"/>
       <c r="AV28" s="102"/>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.25">
@@ -17033,39 +16736,9 @@
         <v>24</v>
       </c>
       <c r="N29" s="106"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="128"/>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
       <c r="Y29" s="102"/>
       <c r="Z29" s="106"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="128"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="128"/>
-      <c r="AH29" s="128"/>
-      <c r="AI29" s="128"/>
       <c r="AJ29" s="102"/>
-      <c r="AK29" s="128"/>
-      <c r="AL29" s="128"/>
-      <c r="AM29" s="128"/>
-      <c r="AN29" s="128"/>
-      <c r="AO29" s="128"/>
-      <c r="AP29" s="128"/>
-      <c r="AQ29" s="128"/>
-      <c r="AR29" s="128"/>
-      <c r="AS29" s="128"/>
-      <c r="AT29" s="128"/>
-      <c r="AU29" s="128"/>
       <c r="AV29" s="102"/>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.25">
@@ -17106,39 +16779,9 @@
         <v>25</v>
       </c>
       <c r="N30" s="106"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
       <c r="Y30" s="102"/>
       <c r="Z30" s="106"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="128"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="128"/>
-      <c r="AH30" s="128"/>
-      <c r="AI30" s="128"/>
       <c r="AJ30" s="102"/>
-      <c r="AK30" s="128"/>
-      <c r="AL30" s="128"/>
-      <c r="AM30" s="128"/>
-      <c r="AN30" s="128"/>
-      <c r="AO30" s="128"/>
-      <c r="AP30" s="128"/>
-      <c r="AQ30" s="128"/>
-      <c r="AR30" s="128"/>
-      <c r="AS30" s="128"/>
-      <c r="AT30" s="128"/>
-      <c r="AU30" s="128"/>
       <c r="AV30" s="102"/>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.25">
@@ -17179,39 +16822,9 @@
         <v>26</v>
       </c>
       <c r="N31" s="106"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="128"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
       <c r="Y31" s="102"/>
       <c r="Z31" s="106"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="128"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="128"/>
-      <c r="AH31" s="128"/>
-      <c r="AI31" s="128"/>
       <c r="AJ31" s="102"/>
-      <c r="AK31" s="128"/>
-      <c r="AL31" s="128"/>
-      <c r="AM31" s="128"/>
-      <c r="AN31" s="128"/>
-      <c r="AO31" s="128"/>
-      <c r="AP31" s="128"/>
-      <c r="AQ31" s="128"/>
-      <c r="AR31" s="128"/>
-      <c r="AS31" s="128"/>
-      <c r="AT31" s="128"/>
-      <c r="AU31" s="128"/>
       <c r="AV31" s="102"/>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.25">
@@ -17242,45 +16855,19 @@
       <c r="I32" s="38">
         <v>128</v>
       </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="33"/>
+      <c r="J32" s="38">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="K32" s="33">
+        <v>0.115</v>
+      </c>
       <c r="L32" s="99">
         <v>27</v>
       </c>
       <c r="N32" s="106"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
       <c r="Y32" s="102"/>
       <c r="Z32" s="106"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="128"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="128"/>
-      <c r="AH32" s="128"/>
-      <c r="AI32" s="128"/>
       <c r="AJ32" s="102"/>
-      <c r="AK32" s="128"/>
-      <c r="AL32" s="128"/>
-      <c r="AM32" s="128"/>
-      <c r="AN32" s="128"/>
-      <c r="AO32" s="128"/>
-      <c r="AP32" s="128"/>
-      <c r="AQ32" s="128"/>
-      <c r="AR32" s="128"/>
-      <c r="AS32" s="128"/>
-      <c r="AT32" s="128"/>
-      <c r="AU32" s="128"/>
       <c r="AV32" s="102"/>
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.25">
@@ -17317,39 +16904,9 @@
         <v>28</v>
       </c>
       <c r="N33" s="106"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="128"/>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
       <c r="Y33" s="102"/>
       <c r="Z33" s="106"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="128"/>
-      <c r="AH33" s="128"/>
-      <c r="AI33" s="128"/>
       <c r="AJ33" s="102"/>
-      <c r="AK33" s="128"/>
-      <c r="AL33" s="128"/>
-      <c r="AM33" s="128"/>
-      <c r="AN33" s="128"/>
-      <c r="AO33" s="128"/>
-      <c r="AP33" s="128"/>
-      <c r="AQ33" s="128"/>
-      <c r="AR33" s="128"/>
-      <c r="AS33" s="128"/>
-      <c r="AT33" s="128"/>
-      <c r="AU33" s="128"/>
       <c r="AV33" s="102"/>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.25">
@@ -17386,39 +16943,9 @@
         <v>29</v>
       </c>
       <c r="N34" s="106"/>
-      <c r="O34" s="128"/>
-      <c r="P34" s="128"/>
-      <c r="Q34" s="128"/>
-      <c r="R34" s="128"/>
-      <c r="S34" s="128"/>
-      <c r="T34" s="128"/>
-      <c r="U34" s="128"/>
-      <c r="V34" s="128"/>
-      <c r="W34" s="128"/>
-      <c r="X34" s="128"/>
       <c r="Y34" s="102"/>
       <c r="Z34" s="106"/>
-      <c r="AA34" s="128"/>
-      <c r="AB34" s="128"/>
-      <c r="AC34" s="128"/>
-      <c r="AD34" s="128"/>
-      <c r="AE34" s="128"/>
-      <c r="AF34" s="128"/>
-      <c r="AG34" s="128"/>
-      <c r="AH34" s="128"/>
-      <c r="AI34" s="128"/>
       <c r="AJ34" s="102"/>
-      <c r="AK34" s="128"/>
-      <c r="AL34" s="128"/>
-      <c r="AM34" s="128"/>
-      <c r="AN34" s="128"/>
-      <c r="AO34" s="128"/>
-      <c r="AP34" s="128"/>
-      <c r="AQ34" s="128"/>
-      <c r="AR34" s="128"/>
-      <c r="AS34" s="128"/>
-      <c r="AT34" s="128"/>
-      <c r="AU34" s="128"/>
       <c r="AV34" s="102"/>
     </row>
     <row r="35" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17455,8854 +16982,1743 @@
         <v>30</v>
       </c>
       <c r="N35" s="106"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="128"/>
-      <c r="Q35" s="128"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="128"/>
-      <c r="T35" s="128"/>
-      <c r="U35" s="128"/>
-      <c r="V35" s="128"/>
-      <c r="W35" s="128"/>
-      <c r="X35" s="128"/>
       <c r="Y35" s="102"/>
       <c r="Z35" s="106"/>
-      <c r="AA35" s="128"/>
-      <c r="AB35" s="128"/>
-      <c r="AC35" s="128"/>
-      <c r="AD35" s="128"/>
-      <c r="AE35" s="128"/>
-      <c r="AF35" s="128"/>
-      <c r="AG35" s="128"/>
-      <c r="AH35" s="128"/>
-      <c r="AI35" s="128"/>
       <c r="AJ35" s="102"/>
-      <c r="AK35" s="128"/>
-      <c r="AL35" s="128"/>
-      <c r="AM35" s="128"/>
-      <c r="AN35" s="128"/>
-      <c r="AO35" s="128"/>
-      <c r="AP35" s="128"/>
-      <c r="AQ35" s="128"/>
-      <c r="AR35" s="128"/>
-      <c r="AS35" s="128"/>
-      <c r="AT35" s="128"/>
-      <c r="AU35" s="128"/>
       <c r="AV35" s="102"/>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N36" s="106"/>
-      <c r="O36" s="128"/>
-      <c r="P36" s="128"/>
-      <c r="Q36" s="128"/>
-      <c r="R36" s="128"/>
-      <c r="S36" s="128"/>
-      <c r="T36" s="128"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="128"/>
-      <c r="W36" s="128"/>
-      <c r="X36" s="128"/>
       <c r="Y36" s="102"/>
       <c r="Z36" s="106"/>
-      <c r="AA36" s="128"/>
-      <c r="AB36" s="128"/>
-      <c r="AC36" s="128"/>
-      <c r="AD36" s="128"/>
-      <c r="AE36" s="128"/>
-      <c r="AF36" s="128"/>
-      <c r="AG36" s="128"/>
-      <c r="AH36" s="128"/>
-      <c r="AI36" s="128"/>
       <c r="AJ36" s="102"/>
-      <c r="AK36" s="128"/>
-      <c r="AL36" s="128"/>
-      <c r="AM36" s="128"/>
-      <c r="AN36" s="128"/>
-      <c r="AO36" s="128"/>
-      <c r="AP36" s="128"/>
-      <c r="AQ36" s="128"/>
-      <c r="AR36" s="128"/>
-      <c r="AS36" s="128"/>
-      <c r="AT36" s="128"/>
-      <c r="AU36" s="128"/>
       <c r="AV36" s="102"/>
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N37" s="106"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="128"/>
-      <c r="U37" s="128"/>
-      <c r="V37" s="128"/>
-      <c r="W37" s="128"/>
-      <c r="X37" s="128"/>
       <c r="Y37" s="102"/>
       <c r="Z37" s="106"/>
-      <c r="AA37" s="128"/>
-      <c r="AB37" s="128"/>
-      <c r="AC37" s="128"/>
-      <c r="AD37" s="128"/>
-      <c r="AE37" s="128"/>
-      <c r="AF37" s="128"/>
-      <c r="AG37" s="128"/>
-      <c r="AH37" s="128"/>
-      <c r="AI37" s="128"/>
       <c r="AJ37" s="102"/>
-      <c r="AK37" s="128"/>
-      <c r="AL37" s="128"/>
-      <c r="AM37" s="128"/>
-      <c r="AN37" s="128"/>
-      <c r="AO37" s="128"/>
-      <c r="AP37" s="128"/>
-      <c r="AQ37" s="128"/>
-      <c r="AR37" s="128"/>
-      <c r="AS37" s="128"/>
-      <c r="AT37" s="128"/>
-      <c r="AU37" s="128"/>
       <c r="AV37" s="102"/>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N38" s="106"/>
-      <c r="O38" s="128"/>
-      <c r="P38" s="128"/>
-      <c r="Q38" s="128"/>
-      <c r="R38" s="128"/>
-      <c r="S38" s="128"/>
-      <c r="T38" s="128"/>
-      <c r="U38" s="128"/>
-      <c r="V38" s="128"/>
-      <c r="W38" s="128"/>
-      <c r="X38" s="128"/>
       <c r="Y38" s="102"/>
       <c r="Z38" s="106"/>
-      <c r="AA38" s="128"/>
-      <c r="AB38" s="128"/>
-      <c r="AC38" s="128"/>
-      <c r="AD38" s="128"/>
-      <c r="AE38" s="128"/>
-      <c r="AF38" s="128"/>
-      <c r="AG38" s="128"/>
-      <c r="AH38" s="128"/>
-      <c r="AI38" s="128"/>
       <c r="AJ38" s="102"/>
-      <c r="AK38" s="128"/>
-      <c r="AL38" s="128"/>
-      <c r="AM38" s="128"/>
-      <c r="AN38" s="128"/>
-      <c r="AO38" s="128"/>
-      <c r="AP38" s="128"/>
-      <c r="AQ38" s="128"/>
-      <c r="AR38" s="128"/>
-      <c r="AS38" s="128"/>
-      <c r="AT38" s="128"/>
-      <c r="AU38" s="128"/>
       <c r="AV38" s="102"/>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N39" s="106"/>
-      <c r="O39" s="128"/>
-      <c r="P39" s="128"/>
-      <c r="Q39" s="128"/>
-      <c r="R39" s="128"/>
-      <c r="S39" s="128"/>
-      <c r="T39" s="128"/>
-      <c r="U39" s="128"/>
-      <c r="V39" s="128"/>
-      <c r="W39" s="128"/>
-      <c r="X39" s="128"/>
       <c r="Y39" s="102"/>
       <c r="Z39" s="106"/>
-      <c r="AA39" s="128"/>
-      <c r="AB39" s="128"/>
-      <c r="AC39" s="128"/>
-      <c r="AD39" s="128"/>
-      <c r="AE39" s="128"/>
-      <c r="AF39" s="128"/>
-      <c r="AG39" s="128"/>
-      <c r="AH39" s="128"/>
-      <c r="AI39" s="128"/>
       <c r="AJ39" s="102"/>
-      <c r="AK39" s="128"/>
-      <c r="AL39" s="128"/>
-      <c r="AM39" s="128"/>
-      <c r="AN39" s="128"/>
-      <c r="AO39" s="128"/>
-      <c r="AP39" s="128"/>
-      <c r="AQ39" s="128"/>
-      <c r="AR39" s="128"/>
-      <c r="AS39" s="128"/>
-      <c r="AT39" s="128"/>
-      <c r="AU39" s="128"/>
       <c r="AV39" s="102"/>
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N40" s="106"/>
-      <c r="O40" s="128"/>
-      <c r="P40" s="128"/>
-      <c r="Q40" s="128"/>
-      <c r="R40" s="128"/>
-      <c r="S40" s="128"/>
-      <c r="T40" s="128"/>
-      <c r="U40" s="128"/>
-      <c r="V40" s="128"/>
-      <c r="W40" s="128"/>
-      <c r="X40" s="128"/>
       <c r="Y40" s="102"/>
       <c r="Z40" s="106"/>
-      <c r="AA40" s="128"/>
-      <c r="AB40" s="128"/>
-      <c r="AC40" s="128"/>
-      <c r="AD40" s="128"/>
-      <c r="AE40" s="128"/>
-      <c r="AF40" s="128"/>
-      <c r="AG40" s="128"/>
-      <c r="AH40" s="128"/>
-      <c r="AI40" s="128"/>
       <c r="AJ40" s="102"/>
-      <c r="AK40" s="128"/>
-      <c r="AL40" s="128"/>
-      <c r="AM40" s="128"/>
-      <c r="AN40" s="128"/>
-      <c r="AO40" s="128"/>
-      <c r="AP40" s="128"/>
-      <c r="AQ40" s="128"/>
-      <c r="AR40" s="128"/>
-      <c r="AS40" s="128"/>
-      <c r="AT40" s="128"/>
-      <c r="AU40" s="128"/>
       <c r="AV40" s="102"/>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N41" s="106"/>
-      <c r="O41" s="128"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="128"/>
-      <c r="R41" s="128"/>
-      <c r="S41" s="128"/>
-      <c r="T41" s="128"/>
-      <c r="U41" s="128"/>
-      <c r="V41" s="128"/>
-      <c r="W41" s="128"/>
-      <c r="X41" s="128"/>
       <c r="Y41" s="102"/>
       <c r="Z41" s="106"/>
-      <c r="AA41" s="128"/>
-      <c r="AB41" s="128"/>
-      <c r="AC41" s="128"/>
-      <c r="AD41" s="128"/>
-      <c r="AE41" s="128"/>
-      <c r="AF41" s="128"/>
-      <c r="AG41" s="128"/>
-      <c r="AH41" s="128"/>
-      <c r="AI41" s="128"/>
       <c r="AJ41" s="102"/>
-      <c r="AK41" s="128"/>
-      <c r="AL41" s="128"/>
-      <c r="AM41" s="128"/>
-      <c r="AN41" s="128"/>
-      <c r="AO41" s="128"/>
-      <c r="AP41" s="128"/>
-      <c r="AQ41" s="128"/>
-      <c r="AR41" s="128"/>
-      <c r="AS41" s="128"/>
-      <c r="AT41" s="128"/>
-      <c r="AU41" s="128"/>
       <c r="AV41" s="102"/>
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N42" s="106"/>
-      <c r="O42" s="128"/>
-      <c r="P42" s="128"/>
-      <c r="Q42" s="128"/>
-      <c r="R42" s="128"/>
-      <c r="S42" s="128"/>
-      <c r="T42" s="128"/>
-      <c r="U42" s="128"/>
-      <c r="V42" s="128"/>
-      <c r="W42" s="128"/>
-      <c r="X42" s="128"/>
       <c r="Y42" s="102"/>
       <c r="Z42" s="106"/>
-      <c r="AA42" s="128"/>
-      <c r="AB42" s="128"/>
-      <c r="AC42" s="128"/>
-      <c r="AD42" s="128"/>
-      <c r="AE42" s="128"/>
-      <c r="AF42" s="128"/>
-      <c r="AG42" s="128"/>
-      <c r="AH42" s="128"/>
-      <c r="AI42" s="128"/>
       <c r="AJ42" s="102"/>
-      <c r="AK42" s="128"/>
-      <c r="AL42" s="128"/>
-      <c r="AM42" s="128"/>
-      <c r="AN42" s="128"/>
-      <c r="AO42" s="128"/>
-      <c r="AP42" s="128"/>
-      <c r="AQ42" s="128"/>
-      <c r="AR42" s="128"/>
-      <c r="AS42" s="128"/>
-      <c r="AT42" s="128"/>
-      <c r="AU42" s="128"/>
       <c r="AV42" s="102"/>
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N43" s="106"/>
-      <c r="O43" s="128"/>
-      <c r="P43" s="128" t="s">
+      <c r="P43" t="s">
         <v>45</v>
       </c>
-      <c r="Q43" s="128"/>
-      <c r="R43" s="128"/>
-      <c r="S43" s="128"/>
-      <c r="T43" s="128"/>
-      <c r="U43" s="128"/>
-      <c r="V43" s="128"/>
-      <c r="W43" s="128"/>
-      <c r="X43" s="128"/>
       <c r="Y43" s="102"/>
       <c r="Z43" s="106"/>
-      <c r="AA43" s="128" t="s">
+      <c r="AA43" t="s">
         <v>55</v>
       </c>
-      <c r="AB43" s="128"/>
-      <c r="AC43" s="128"/>
-      <c r="AD43" s="128"/>
-      <c r="AE43" s="128"/>
-      <c r="AF43" s="128"/>
-      <c r="AG43" s="128"/>
-      <c r="AH43" s="128"/>
-      <c r="AI43" s="128"/>
       <c r="AJ43" s="102"/>
-      <c r="AK43" s="128"/>
-      <c r="AL43" s="128" t="s">
+      <c r="AL43" t="s">
         <v>65</v>
       </c>
-      <c r="AM43" s="128"/>
-      <c r="AN43" s="128"/>
-      <c r="AO43" s="128"/>
-      <c r="AP43" s="128"/>
-      <c r="AQ43" s="128"/>
-      <c r="AR43" s="128"/>
-      <c r="AS43" s="128"/>
-      <c r="AT43" s="128"/>
-      <c r="AU43" s="128"/>
       <c r="AV43" s="102"/>
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N44" s="106"/>
-      <c r="O44" s="128"/>
-      <c r="P44" s="128"/>
-      <c r="Q44" s="128"/>
-      <c r="R44" s="128"/>
-      <c r="S44" s="128"/>
-      <c r="T44" s="128"/>
-      <c r="U44" s="128"/>
-      <c r="V44" s="128"/>
-      <c r="W44" s="128"/>
-      <c r="X44" s="128"/>
       <c r="Y44" s="102"/>
       <c r="Z44" s="106"/>
-      <c r="AA44" s="128"/>
-      <c r="AB44" s="128"/>
-      <c r="AC44" s="128"/>
-      <c r="AD44" s="128"/>
-      <c r="AE44" s="128"/>
-      <c r="AF44" s="128"/>
-      <c r="AG44" s="128"/>
-      <c r="AH44" s="128"/>
-      <c r="AI44" s="128"/>
       <c r="AJ44" s="102"/>
-      <c r="AK44" s="128"/>
-      <c r="AL44" s="128"/>
-      <c r="AM44" s="128"/>
-      <c r="AN44" s="128"/>
-      <c r="AO44" s="128"/>
-      <c r="AP44" s="128"/>
-      <c r="AQ44" s="128"/>
-      <c r="AR44" s="128"/>
-      <c r="AS44" s="128"/>
-      <c r="AT44" s="128"/>
-      <c r="AU44" s="128"/>
       <c r="AV44" s="102"/>
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N45" s="106"/>
-      <c r="O45" s="128"/>
-      <c r="P45" s="128"/>
-      <c r="Q45" s="128"/>
-      <c r="R45" s="128"/>
-      <c r="S45" s="128"/>
-      <c r="T45" s="128"/>
-      <c r="U45" s="128"/>
-      <c r="V45" s="128"/>
-      <c r="W45" s="128"/>
-      <c r="X45" s="128"/>
       <c r="Y45" s="102"/>
       <c r="Z45" s="106"/>
-      <c r="AA45" s="128"/>
-      <c r="AB45" s="128"/>
-      <c r="AC45" s="128"/>
-      <c r="AD45" s="128"/>
-      <c r="AE45" s="128"/>
-      <c r="AF45" s="128"/>
-      <c r="AG45" s="128"/>
-      <c r="AH45" s="128"/>
-      <c r="AI45" s="128"/>
       <c r="AJ45" s="102"/>
-      <c r="AK45" s="128"/>
-      <c r="AL45" s="128"/>
-      <c r="AM45" s="128"/>
-      <c r="AN45" s="128"/>
-      <c r="AO45" s="128"/>
-      <c r="AP45" s="128"/>
-      <c r="AQ45" s="128"/>
-      <c r="AR45" s="128"/>
-      <c r="AS45" s="128"/>
-      <c r="AT45" s="128"/>
-      <c r="AU45" s="128"/>
       <c r="AV45" s="102"/>
     </row>
     <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N46" s="106"/>
-      <c r="O46" s="128"/>
-      <c r="P46" s="128"/>
-      <c r="Q46" s="128"/>
-      <c r="R46" s="128"/>
-      <c r="S46" s="128"/>
-      <c r="T46" s="128"/>
-      <c r="U46" s="128"/>
-      <c r="V46" s="128"/>
-      <c r="W46" s="128"/>
-      <c r="X46" s="128"/>
       <c r="Y46" s="102"/>
       <c r="Z46" s="106"/>
-      <c r="AA46" s="128"/>
-      <c r="AB46" s="128"/>
-      <c r="AC46" s="128"/>
-      <c r="AD46" s="128"/>
-      <c r="AE46" s="128"/>
-      <c r="AF46" s="128"/>
-      <c r="AG46" s="128"/>
-      <c r="AH46" s="128"/>
-      <c r="AI46" s="128"/>
       <c r="AJ46" s="102"/>
-      <c r="AK46" s="128"/>
-      <c r="AL46" s="128"/>
-      <c r="AM46" s="128"/>
-      <c r="AN46" s="128"/>
-      <c r="AO46" s="128"/>
-      <c r="AP46" s="128"/>
-      <c r="AQ46" s="128"/>
-      <c r="AR46" s="128"/>
-      <c r="AS46" s="128"/>
-      <c r="AT46" s="128"/>
-      <c r="AU46" s="128"/>
       <c r="AV46" s="102"/>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N47" s="106"/>
-      <c r="O47" s="128"/>
-      <c r="P47" s="128"/>
-      <c r="Q47" s="128"/>
-      <c r="R47" s="128"/>
-      <c r="S47" s="128"/>
-      <c r="T47" s="128"/>
-      <c r="U47" s="128"/>
-      <c r="V47" s="128"/>
-      <c r="W47" s="128"/>
-      <c r="X47" s="128"/>
       <c r="Y47" s="102"/>
       <c r="Z47" s="106"/>
-      <c r="AA47" s="128"/>
-      <c r="AB47" s="128"/>
-      <c r="AC47" s="128"/>
-      <c r="AD47" s="128"/>
-      <c r="AE47" s="128"/>
-      <c r="AF47" s="128"/>
-      <c r="AG47" s="128"/>
-      <c r="AH47" s="128"/>
-      <c r="AI47" s="128"/>
       <c r="AJ47" s="102"/>
-      <c r="AK47" s="128"/>
-      <c r="AL47" s="128"/>
-      <c r="AM47" s="128"/>
-      <c r="AN47" s="128"/>
-      <c r="AO47" s="128"/>
-      <c r="AP47" s="128"/>
-      <c r="AQ47" s="128"/>
-      <c r="AR47" s="128"/>
-      <c r="AS47" s="128"/>
-      <c r="AT47" s="128"/>
-      <c r="AU47" s="128"/>
       <c r="AV47" s="102"/>
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N48" s="106"/>
-      <c r="O48" s="128"/>
-      <c r="P48" s="128"/>
-      <c r="Q48" s="128"/>
-      <c r="R48" s="128"/>
-      <c r="S48" s="128"/>
-      <c r="T48" s="128"/>
-      <c r="U48" s="128"/>
-      <c r="V48" s="128"/>
-      <c r="W48" s="128"/>
-      <c r="X48" s="128"/>
       <c r="Y48" s="102"/>
       <c r="Z48" s="106"/>
-      <c r="AA48" s="128"/>
-      <c r="AB48" s="128"/>
-      <c r="AC48" s="128"/>
-      <c r="AD48" s="128"/>
-      <c r="AE48" s="128"/>
-      <c r="AF48" s="128"/>
-      <c r="AG48" s="128"/>
-      <c r="AH48" s="128"/>
-      <c r="AI48" s="128"/>
       <c r="AJ48" s="102"/>
-      <c r="AK48" s="128"/>
-      <c r="AL48" s="128"/>
-      <c r="AM48" s="128"/>
-      <c r="AN48" s="128"/>
-      <c r="AO48" s="128"/>
-      <c r="AP48" s="128"/>
-      <c r="AQ48" s="128"/>
-      <c r="AR48" s="128"/>
-      <c r="AS48" s="128"/>
-      <c r="AT48" s="128"/>
-      <c r="AU48" s="128"/>
       <c r="AV48" s="102"/>
     </row>
     <row r="49" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N49" s="106"/>
-      <c r="O49" s="128"/>
-      <c r="P49" s="128"/>
-      <c r="Q49" s="128"/>
-      <c r="R49" s="128"/>
-      <c r="S49" s="128"/>
-      <c r="T49" s="128"/>
-      <c r="U49" s="128"/>
-      <c r="V49" s="128"/>
-      <c r="W49" s="128"/>
-      <c r="X49" s="128"/>
       <c r="Y49" s="102"/>
       <c r="Z49" s="106"/>
-      <c r="AA49" s="128"/>
-      <c r="AB49" s="128"/>
-      <c r="AC49" s="128"/>
-      <c r="AD49" s="128"/>
-      <c r="AE49" s="128"/>
-      <c r="AF49" s="128"/>
-      <c r="AG49" s="128"/>
-      <c r="AH49" s="128"/>
-      <c r="AI49" s="128"/>
       <c r="AJ49" s="102"/>
-      <c r="AK49" s="128"/>
-      <c r="AL49" s="128"/>
-      <c r="AM49" s="128"/>
-      <c r="AN49" s="128"/>
-      <c r="AO49" s="128"/>
-      <c r="AP49" s="128"/>
-      <c r="AQ49" s="128"/>
-      <c r="AR49" s="128"/>
-      <c r="AS49" s="128"/>
-      <c r="AT49" s="128"/>
-      <c r="AU49" s="128"/>
       <c r="AV49" s="102"/>
     </row>
     <row r="50" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N50" s="106"/>
-      <c r="O50" s="128"/>
-      <c r="P50" s="128"/>
-      <c r="Q50" s="128"/>
-      <c r="R50" s="128"/>
-      <c r="S50" s="128"/>
-      <c r="T50" s="128"/>
-      <c r="U50" s="128"/>
-      <c r="V50" s="128"/>
-      <c r="W50" s="128"/>
-      <c r="X50" s="128"/>
       <c r="Y50" s="102"/>
       <c r="Z50" s="106"/>
-      <c r="AA50" s="128"/>
-      <c r="AB50" s="128"/>
-      <c r="AC50" s="128"/>
-      <c r="AD50" s="128"/>
-      <c r="AE50" s="128"/>
-      <c r="AF50" s="128"/>
-      <c r="AG50" s="128"/>
-      <c r="AH50" s="128"/>
-      <c r="AI50" s="128"/>
       <c r="AJ50" s="102"/>
-      <c r="AK50" s="128"/>
-      <c r="AL50" s="128"/>
-      <c r="AM50" s="128"/>
-      <c r="AN50" s="128"/>
-      <c r="AO50" s="128"/>
-      <c r="AP50" s="128"/>
-      <c r="AQ50" s="128"/>
-      <c r="AR50" s="128"/>
-      <c r="AS50" s="128"/>
-      <c r="AT50" s="128"/>
-      <c r="AU50" s="128"/>
       <c r="AV50" s="102"/>
     </row>
     <row r="51" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N51" s="106"/>
-      <c r="O51" s="128"/>
-      <c r="P51" s="128"/>
-      <c r="Q51" s="128"/>
-      <c r="R51" s="128"/>
-      <c r="S51" s="128"/>
-      <c r="T51" s="128"/>
-      <c r="U51" s="128"/>
-      <c r="V51" s="128"/>
-      <c r="W51" s="128"/>
-      <c r="X51" s="128"/>
       <c r="Y51" s="102"/>
       <c r="Z51" s="106"/>
-      <c r="AA51" s="128"/>
-      <c r="AB51" s="128"/>
-      <c r="AC51" s="128"/>
-      <c r="AD51" s="128"/>
-      <c r="AE51" s="128"/>
-      <c r="AF51" s="128"/>
-      <c r="AG51" s="128"/>
-      <c r="AH51" s="128"/>
-      <c r="AI51" s="128"/>
       <c r="AJ51" s="102"/>
-      <c r="AK51" s="128"/>
-      <c r="AL51" s="128"/>
-      <c r="AM51" s="128"/>
-      <c r="AN51" s="128"/>
-      <c r="AO51" s="128"/>
-      <c r="AP51" s="128"/>
-      <c r="AQ51" s="128"/>
-      <c r="AR51" s="128"/>
-      <c r="AS51" s="128"/>
-      <c r="AT51" s="128"/>
-      <c r="AU51" s="128"/>
       <c r="AV51" s="102"/>
     </row>
     <row r="52" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N52" s="106"/>
-      <c r="O52" s="128"/>
-      <c r="P52" s="128"/>
-      <c r="Q52" s="128"/>
-      <c r="R52" s="128"/>
-      <c r="S52" s="128"/>
-      <c r="T52" s="128"/>
-      <c r="U52" s="128"/>
-      <c r="V52" s="128"/>
-      <c r="W52" s="128"/>
-      <c r="X52" s="128"/>
       <c r="Y52" s="102"/>
       <c r="Z52" s="106"/>
-      <c r="AA52" s="128"/>
-      <c r="AB52" s="128"/>
-      <c r="AC52" s="128"/>
-      <c r="AD52" s="128"/>
-      <c r="AE52" s="128"/>
-      <c r="AF52" s="128"/>
-      <c r="AG52" s="128"/>
-      <c r="AH52" s="128"/>
-      <c r="AI52" s="128"/>
       <c r="AJ52" s="102"/>
-      <c r="AK52" s="128"/>
-      <c r="AL52" s="128"/>
-      <c r="AM52" s="128"/>
-      <c r="AN52" s="128"/>
-      <c r="AO52" s="128"/>
-      <c r="AP52" s="128"/>
-      <c r="AQ52" s="128"/>
-      <c r="AR52" s="128"/>
-      <c r="AS52" s="128"/>
-      <c r="AT52" s="128"/>
-      <c r="AU52" s="128"/>
       <c r="AV52" s="102"/>
     </row>
     <row r="53" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N53" s="106"/>
-      <c r="O53" s="128"/>
-      <c r="P53" s="128"/>
-      <c r="Q53" s="128"/>
-      <c r="R53" s="128"/>
-      <c r="S53" s="128"/>
-      <c r="T53" s="128"/>
-      <c r="U53" s="128"/>
-      <c r="V53" s="128"/>
-      <c r="W53" s="128"/>
-      <c r="X53" s="128"/>
       <c r="Y53" s="102"/>
       <c r="Z53" s="106"/>
-      <c r="AA53" s="128"/>
-      <c r="AB53" s="128"/>
-      <c r="AC53" s="128"/>
-      <c r="AD53" s="128"/>
-      <c r="AE53" s="128"/>
-      <c r="AF53" s="128"/>
-      <c r="AG53" s="128"/>
-      <c r="AH53" s="128"/>
-      <c r="AI53" s="128"/>
       <c r="AJ53" s="102"/>
-      <c r="AK53" s="128"/>
-      <c r="AL53" s="128"/>
-      <c r="AM53" s="128"/>
-      <c r="AN53" s="128"/>
-      <c r="AO53" s="128"/>
-      <c r="AP53" s="128"/>
-      <c r="AQ53" s="128"/>
-      <c r="AR53" s="128"/>
-      <c r="AS53" s="128"/>
-      <c r="AT53" s="128"/>
-      <c r="AU53" s="128"/>
       <c r="AV53" s="102"/>
     </row>
     <row r="54" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N54" s="106"/>
-      <c r="O54" s="128"/>
-      <c r="P54" s="128"/>
-      <c r="Q54" s="128"/>
-      <c r="R54" s="128"/>
-      <c r="S54" s="128"/>
-      <c r="T54" s="128"/>
-      <c r="U54" s="128"/>
-      <c r="V54" s="128"/>
-      <c r="W54" s="128"/>
-      <c r="X54" s="128"/>
       <c r="Y54" s="102"/>
       <c r="Z54" s="106"/>
-      <c r="AA54" s="128"/>
-      <c r="AB54" s="128"/>
-      <c r="AC54" s="128"/>
-      <c r="AD54" s="128"/>
-      <c r="AE54" s="128"/>
-      <c r="AF54" s="128"/>
-      <c r="AG54" s="128"/>
-      <c r="AH54" s="128"/>
-      <c r="AI54" s="128"/>
       <c r="AJ54" s="102"/>
-      <c r="AK54" s="128"/>
-      <c r="AL54" s="128"/>
-      <c r="AM54" s="128"/>
-      <c r="AN54" s="128"/>
-      <c r="AO54" s="128"/>
-      <c r="AP54" s="128"/>
-      <c r="AQ54" s="128"/>
-      <c r="AR54" s="128"/>
-      <c r="AS54" s="128"/>
-      <c r="AT54" s="128"/>
-      <c r="AU54" s="128"/>
       <c r="AV54" s="102"/>
     </row>
     <row r="55" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N55" s="106"/>
-      <c r="O55" s="128"/>
-      <c r="P55" s="128"/>
-      <c r="Q55" s="128"/>
-      <c r="R55" s="128"/>
-      <c r="S55" s="128"/>
-      <c r="T55" s="128"/>
-      <c r="U55" s="128"/>
-      <c r="V55" s="128"/>
-      <c r="W55" s="128"/>
-      <c r="X55" s="128"/>
       <c r="Y55" s="102"/>
       <c r="Z55" s="106"/>
-      <c r="AA55" s="128"/>
-      <c r="AB55" s="128"/>
-      <c r="AC55" s="128"/>
-      <c r="AD55" s="128"/>
-      <c r="AE55" s="128"/>
-      <c r="AF55" s="128"/>
-      <c r="AG55" s="128"/>
-      <c r="AH55" s="128"/>
-      <c r="AI55" s="128"/>
       <c r="AJ55" s="102"/>
-      <c r="AK55" s="128"/>
-      <c r="AL55" s="128"/>
-      <c r="AM55" s="128"/>
-      <c r="AN55" s="128"/>
-      <c r="AO55" s="128"/>
-      <c r="AP55" s="128"/>
-      <c r="AQ55" s="128"/>
-      <c r="AR55" s="128"/>
-      <c r="AS55" s="128"/>
-      <c r="AT55" s="128"/>
-      <c r="AU55" s="128"/>
       <c r="AV55" s="102"/>
     </row>
     <row r="56" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N56" s="106"/>
-      <c r="O56" s="128"/>
-      <c r="P56" s="128"/>
-      <c r="Q56" s="128"/>
-      <c r="R56" s="128"/>
-      <c r="S56" s="128"/>
-      <c r="T56" s="128"/>
-      <c r="U56" s="128"/>
-      <c r="V56" s="128"/>
-      <c r="W56" s="128"/>
-      <c r="X56" s="128"/>
       <c r="Y56" s="102"/>
       <c r="Z56" s="106"/>
-      <c r="AA56" s="128"/>
-      <c r="AB56" s="128"/>
-      <c r="AC56" s="128"/>
-      <c r="AD56" s="128"/>
-      <c r="AE56" s="128"/>
-      <c r="AF56" s="128"/>
-      <c r="AG56" s="128"/>
-      <c r="AH56" s="128"/>
-      <c r="AI56" s="128"/>
       <c r="AJ56" s="102"/>
-      <c r="AK56" s="128"/>
-      <c r="AL56" s="128"/>
-      <c r="AM56" s="128"/>
-      <c r="AN56" s="128"/>
-      <c r="AO56" s="128"/>
-      <c r="AP56" s="128"/>
-      <c r="AQ56" s="128"/>
-      <c r="AR56" s="128"/>
-      <c r="AS56" s="128"/>
-      <c r="AT56" s="128"/>
-      <c r="AU56" s="128"/>
       <c r="AV56" s="102"/>
     </row>
     <row r="57" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N57" s="106"/>
-      <c r="O57" s="128"/>
-      <c r="P57" s="128"/>
-      <c r="Q57" s="128"/>
-      <c r="R57" s="128"/>
-      <c r="S57" s="128"/>
-      <c r="T57" s="128"/>
-      <c r="U57" s="128"/>
-      <c r="V57" s="128"/>
-      <c r="W57" s="128"/>
-      <c r="X57" s="128"/>
       <c r="Y57" s="102"/>
       <c r="Z57" s="106"/>
-      <c r="AA57" s="128"/>
-      <c r="AB57" s="128"/>
-      <c r="AC57" s="128"/>
-      <c r="AD57" s="128"/>
-      <c r="AE57" s="128"/>
-      <c r="AF57" s="128"/>
-      <c r="AG57" s="128"/>
-      <c r="AH57" s="128"/>
-      <c r="AI57" s="128"/>
       <c r="AJ57" s="102"/>
-      <c r="AK57" s="128"/>
-      <c r="AL57" s="128"/>
-      <c r="AM57" s="128"/>
-      <c r="AN57" s="128"/>
-      <c r="AO57" s="128"/>
-      <c r="AP57" s="128"/>
-      <c r="AQ57" s="128"/>
-      <c r="AR57" s="128"/>
-      <c r="AS57" s="128"/>
-      <c r="AT57" s="128"/>
-      <c r="AU57" s="128"/>
       <c r="AV57" s="102"/>
     </row>
     <row r="58" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N58" s="106"/>
-      <c r="O58" s="128"/>
-      <c r="P58" s="128"/>
-      <c r="Q58" s="128"/>
-      <c r="R58" s="128"/>
-      <c r="S58" s="128"/>
-      <c r="T58" s="128"/>
-      <c r="U58" s="128"/>
-      <c r="V58" s="128"/>
-      <c r="W58" s="128"/>
-      <c r="X58" s="128"/>
       <c r="Y58" s="102"/>
       <c r="Z58" s="106"/>
-      <c r="AA58" s="128"/>
-      <c r="AB58" s="128"/>
-      <c r="AC58" s="128"/>
-      <c r="AD58" s="128"/>
-      <c r="AE58" s="128"/>
-      <c r="AF58" s="128"/>
-      <c r="AG58" s="128"/>
-      <c r="AH58" s="128"/>
-      <c r="AI58" s="128"/>
       <c r="AJ58" s="102"/>
-      <c r="AK58" s="128"/>
-      <c r="AL58" s="128"/>
-      <c r="AM58" s="128"/>
-      <c r="AN58" s="128"/>
-      <c r="AO58" s="128"/>
-      <c r="AP58" s="128"/>
-      <c r="AQ58" s="128"/>
-      <c r="AR58" s="128"/>
-      <c r="AS58" s="128"/>
-      <c r="AT58" s="128"/>
-      <c r="AU58" s="128"/>
       <c r="AV58" s="102"/>
     </row>
     <row r="59" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N59" s="106"/>
-      <c r="O59" s="128"/>
-      <c r="P59" s="128"/>
-      <c r="Q59" s="128"/>
-      <c r="R59" s="128"/>
-      <c r="S59" s="128"/>
-      <c r="T59" s="128"/>
-      <c r="U59" s="128"/>
-      <c r="V59" s="128"/>
-      <c r="W59" s="128"/>
-      <c r="X59" s="128"/>
       <c r="Y59" s="102"/>
       <c r="Z59" s="106"/>
-      <c r="AA59" s="128"/>
-      <c r="AB59" s="128"/>
-      <c r="AC59" s="128"/>
-      <c r="AD59" s="128"/>
-      <c r="AE59" s="128"/>
-      <c r="AF59" s="128"/>
-      <c r="AG59" s="128"/>
-      <c r="AH59" s="128"/>
-      <c r="AI59" s="128"/>
       <c r="AJ59" s="102"/>
-      <c r="AK59" s="128"/>
-      <c r="AL59" s="128"/>
-      <c r="AM59" s="128"/>
-      <c r="AN59" s="128"/>
-      <c r="AO59" s="128"/>
-      <c r="AP59" s="128"/>
-      <c r="AQ59" s="128"/>
-      <c r="AR59" s="128"/>
-      <c r="AS59" s="128"/>
-      <c r="AT59" s="128"/>
-      <c r="AU59" s="128"/>
       <c r="AV59" s="102"/>
     </row>
     <row r="60" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N60" s="106"/>
-      <c r="O60" s="128"/>
-      <c r="P60" s="128"/>
-      <c r="Q60" s="128"/>
-      <c r="R60" s="128"/>
-      <c r="S60" s="128"/>
-      <c r="T60" s="128"/>
-      <c r="U60" s="128"/>
-      <c r="V60" s="128"/>
-      <c r="W60" s="128"/>
-      <c r="X60" s="128"/>
       <c r="Y60" s="102"/>
       <c r="Z60" s="106"/>
-      <c r="AA60" s="128"/>
-      <c r="AB60" s="128"/>
-      <c r="AC60" s="128"/>
-      <c r="AD60" s="128"/>
-      <c r="AE60" s="128"/>
-      <c r="AF60" s="128"/>
-      <c r="AG60" s="128"/>
-      <c r="AH60" s="128"/>
-      <c r="AI60" s="128"/>
       <c r="AJ60" s="102"/>
-      <c r="AK60" s="128"/>
-      <c r="AL60" s="128"/>
-      <c r="AM60" s="128"/>
-      <c r="AN60" s="128"/>
-      <c r="AO60" s="128"/>
-      <c r="AP60" s="128"/>
-      <c r="AQ60" s="128"/>
-      <c r="AR60" s="128"/>
-      <c r="AS60" s="128"/>
-      <c r="AT60" s="128"/>
-      <c r="AU60" s="128"/>
       <c r="AV60" s="102"/>
     </row>
     <row r="61" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N61" s="106"/>
-      <c r="O61" s="128"/>
-      <c r="P61" s="128"/>
-      <c r="Q61" s="128"/>
-      <c r="R61" s="128"/>
-      <c r="S61" s="128"/>
-      <c r="T61" s="128"/>
-      <c r="U61" s="128"/>
-      <c r="V61" s="128"/>
-      <c r="W61" s="128"/>
-      <c r="X61" s="128"/>
       <c r="Y61" s="102"/>
       <c r="Z61" s="106"/>
-      <c r="AA61" s="128"/>
-      <c r="AB61" s="128"/>
-      <c r="AC61" s="128"/>
-      <c r="AD61" s="128"/>
-      <c r="AE61" s="128"/>
-      <c r="AF61" s="128"/>
-      <c r="AG61" s="128"/>
-      <c r="AH61" s="128"/>
-      <c r="AI61" s="128"/>
       <c r="AJ61" s="102"/>
-      <c r="AK61" s="128"/>
-      <c r="AL61" s="128"/>
-      <c r="AM61" s="128"/>
-      <c r="AN61" s="128"/>
-      <c r="AO61" s="128"/>
-      <c r="AP61" s="128"/>
-      <c r="AQ61" s="128"/>
-      <c r="AR61" s="128"/>
-      <c r="AS61" s="128"/>
-      <c r="AT61" s="128"/>
-      <c r="AU61" s="128"/>
       <c r="AV61" s="102"/>
     </row>
     <row r="62" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N62" s="106"/>
-      <c r="O62" s="128"/>
-      <c r="P62" s="128"/>
-      <c r="Q62" s="128"/>
-      <c r="R62" s="128"/>
-      <c r="S62" s="128"/>
-      <c r="T62" s="128"/>
-      <c r="U62" s="128"/>
-      <c r="V62" s="128"/>
-      <c r="W62" s="128"/>
-      <c r="X62" s="128"/>
       <c r="Y62" s="102"/>
       <c r="Z62" s="106"/>
-      <c r="AA62" s="128"/>
-      <c r="AB62" s="128"/>
-      <c r="AC62" s="128"/>
-      <c r="AD62" s="128"/>
-      <c r="AE62" s="128"/>
-      <c r="AF62" s="128"/>
-      <c r="AG62" s="128"/>
-      <c r="AH62" s="128"/>
-      <c r="AI62" s="128"/>
       <c r="AJ62" s="102"/>
-      <c r="AK62" s="128"/>
-      <c r="AL62" s="128"/>
-      <c r="AM62" s="128"/>
-      <c r="AN62" s="128"/>
-      <c r="AO62" s="128"/>
-      <c r="AP62" s="128"/>
-      <c r="AQ62" s="128"/>
-      <c r="AR62" s="128"/>
-      <c r="AS62" s="128"/>
-      <c r="AT62" s="128"/>
-      <c r="AU62" s="128"/>
       <c r="AV62" s="102"/>
     </row>
     <row r="63" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N63" s="106"/>
-      <c r="O63" s="128"/>
-      <c r="P63" s="128"/>
-      <c r="Q63" s="128"/>
-      <c r="R63" s="128"/>
-      <c r="S63" s="128"/>
-      <c r="T63" s="128"/>
-      <c r="U63" s="128"/>
-      <c r="V63" s="128"/>
-      <c r="W63" s="128"/>
-      <c r="X63" s="128"/>
       <c r="Y63" s="102"/>
       <c r="Z63" s="106"/>
-      <c r="AA63" s="128"/>
-      <c r="AB63" s="128"/>
-      <c r="AC63" s="128"/>
-      <c r="AD63" s="128"/>
-      <c r="AE63" s="128"/>
-      <c r="AF63" s="128"/>
-      <c r="AG63" s="128"/>
-      <c r="AH63" s="128"/>
-      <c r="AI63" s="128"/>
       <c r="AJ63" s="102"/>
-      <c r="AK63" s="128"/>
-      <c r="AL63" s="128"/>
-      <c r="AM63" s="128"/>
-      <c r="AN63" s="128"/>
-      <c r="AO63" s="128"/>
-      <c r="AP63" s="128"/>
-      <c r="AQ63" s="128"/>
-      <c r="AR63" s="128"/>
-      <c r="AS63" s="128"/>
-      <c r="AT63" s="128"/>
-      <c r="AU63" s="128"/>
       <c r="AV63" s="102"/>
     </row>
     <row r="64" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N64" s="106"/>
-      <c r="O64" s="128"/>
-      <c r="P64" s="128"/>
-      <c r="Q64" s="128"/>
-      <c r="R64" s="128"/>
-      <c r="S64" s="128"/>
-      <c r="T64" s="128"/>
-      <c r="U64" s="128"/>
-      <c r="V64" s="128"/>
-      <c r="W64" s="128"/>
-      <c r="X64" s="128"/>
       <c r="Y64" s="102"/>
       <c r="Z64" s="106"/>
-      <c r="AA64" s="128"/>
-      <c r="AB64" s="128"/>
-      <c r="AC64" s="128"/>
-      <c r="AD64" s="128"/>
-      <c r="AE64" s="128"/>
-      <c r="AF64" s="128"/>
-      <c r="AG64" s="128"/>
-      <c r="AH64" s="128"/>
-      <c r="AI64" s="128"/>
       <c r="AJ64" s="102"/>
-      <c r="AK64" s="128"/>
-      <c r="AL64" s="128"/>
-      <c r="AM64" s="128"/>
-      <c r="AN64" s="128"/>
-      <c r="AO64" s="128"/>
-      <c r="AP64" s="128"/>
-      <c r="AQ64" s="128"/>
-      <c r="AR64" s="128"/>
-      <c r="AS64" s="128"/>
-      <c r="AT64" s="128"/>
-      <c r="AU64" s="128"/>
       <c r="AV64" s="102"/>
     </row>
     <row r="65" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N65" s="106"/>
-      <c r="O65" s="128"/>
-      <c r="P65" s="128"/>
-      <c r="Q65" s="128"/>
-      <c r="R65" s="128"/>
-      <c r="S65" s="128"/>
-      <c r="T65" s="128"/>
-      <c r="U65" s="128"/>
-      <c r="V65" s="128"/>
-      <c r="W65" s="128"/>
-      <c r="X65" s="128"/>
       <c r="Y65" s="102"/>
       <c r="Z65" s="106"/>
-      <c r="AA65" s="128"/>
-      <c r="AB65" s="128"/>
-      <c r="AC65" s="128"/>
-      <c r="AD65" s="128"/>
-      <c r="AE65" s="128"/>
-      <c r="AF65" s="128"/>
-      <c r="AG65" s="128"/>
-      <c r="AH65" s="128"/>
-      <c r="AI65" s="128"/>
       <c r="AJ65" s="102"/>
-      <c r="AK65" s="128"/>
-      <c r="AL65" s="128"/>
-      <c r="AM65" s="128"/>
-      <c r="AN65" s="128"/>
-      <c r="AO65" s="128"/>
-      <c r="AP65" s="128"/>
-      <c r="AQ65" s="128"/>
-      <c r="AR65" s="128"/>
-      <c r="AS65" s="128"/>
-      <c r="AT65" s="128"/>
-      <c r="AU65" s="128"/>
       <c r="AV65" s="102"/>
     </row>
     <row r="66" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N66" s="106"/>
-      <c r="O66" s="128"/>
-      <c r="P66" s="128"/>
-      <c r="Q66" s="128"/>
-      <c r="R66" s="128"/>
-      <c r="S66" s="128"/>
-      <c r="T66" s="128"/>
-      <c r="U66" s="128"/>
-      <c r="V66" s="128"/>
-      <c r="W66" s="128"/>
-      <c r="X66" s="128"/>
       <c r="Y66" s="102"/>
       <c r="Z66" s="106"/>
-      <c r="AA66" s="128"/>
-      <c r="AB66" s="128"/>
-      <c r="AC66" s="128"/>
-      <c r="AD66" s="128"/>
-      <c r="AE66" s="128"/>
-      <c r="AF66" s="128"/>
-      <c r="AG66" s="128"/>
-      <c r="AH66" s="128"/>
-      <c r="AI66" s="128"/>
       <c r="AJ66" s="102"/>
-      <c r="AK66" s="128"/>
-      <c r="AL66" s="128"/>
-      <c r="AM66" s="128"/>
-      <c r="AN66" s="128"/>
-      <c r="AO66" s="128"/>
-      <c r="AP66" s="128"/>
-      <c r="AQ66" s="128"/>
-      <c r="AR66" s="128"/>
-      <c r="AS66" s="128"/>
-      <c r="AT66" s="128"/>
-      <c r="AU66" s="128"/>
       <c r="AV66" s="102"/>
     </row>
     <row r="67" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N67" s="106"/>
-      <c r="O67" s="128"/>
-      <c r="P67" s="128"/>
-      <c r="Q67" s="128"/>
-      <c r="R67" s="128"/>
-      <c r="S67" s="128"/>
-      <c r="T67" s="128"/>
-      <c r="U67" s="128"/>
-      <c r="V67" s="128"/>
-      <c r="W67" s="128"/>
-      <c r="X67" s="128"/>
       <c r="Y67" s="102"/>
       <c r="Z67" s="106"/>
-      <c r="AA67" s="128"/>
-      <c r="AB67" s="128"/>
-      <c r="AC67" s="128"/>
-      <c r="AD67" s="128"/>
-      <c r="AE67" s="128"/>
-      <c r="AF67" s="128"/>
-      <c r="AG67" s="128"/>
-      <c r="AH67" s="128"/>
-      <c r="AI67" s="128"/>
       <c r="AJ67" s="102"/>
-      <c r="AK67" s="128"/>
-      <c r="AL67" s="128"/>
-      <c r="AM67" s="128"/>
-      <c r="AN67" s="128"/>
-      <c r="AO67" s="128"/>
-      <c r="AP67" s="128"/>
-      <c r="AQ67" s="128"/>
-      <c r="AR67" s="128"/>
-      <c r="AS67" s="128"/>
-      <c r="AT67" s="128"/>
-      <c r="AU67" s="128"/>
       <c r="AV67" s="102"/>
     </row>
     <row r="68" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N68" s="106"/>
-      <c r="O68" s="128"/>
-      <c r="P68" s="128" t="s">
+      <c r="P68" t="s">
         <v>46</v>
       </c>
-      <c r="Q68" s="128"/>
-      <c r="R68" s="128"/>
-      <c r="S68" s="128"/>
-      <c r="T68" s="128"/>
-      <c r="U68" s="128"/>
-      <c r="V68" s="128"/>
-      <c r="W68" s="128"/>
-      <c r="X68" s="128"/>
       <c r="Y68" s="102"/>
       <c r="Z68" s="106"/>
-      <c r="AA68" s="128" t="s">
+      <c r="AA68" t="s">
         <v>56</v>
       </c>
-      <c r="AB68" s="128"/>
-      <c r="AC68" s="128"/>
-      <c r="AD68" s="128"/>
-      <c r="AE68" s="128"/>
-      <c r="AF68" s="128"/>
-      <c r="AG68" s="128"/>
-      <c r="AH68" s="128"/>
-      <c r="AI68" s="128"/>
       <c r="AJ68" s="102"/>
-      <c r="AK68" s="128"/>
-      <c r="AL68" s="128" t="s">
+      <c r="AL68" t="s">
         <v>66</v>
       </c>
-      <c r="AM68" s="128"/>
-      <c r="AN68" s="128"/>
-      <c r="AO68" s="128"/>
-      <c r="AP68" s="128"/>
-      <c r="AQ68" s="128"/>
-      <c r="AR68" s="128"/>
-      <c r="AS68" s="128"/>
-      <c r="AT68" s="128"/>
-      <c r="AU68" s="128"/>
       <c r="AV68" s="102"/>
     </row>
     <row r="69" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N69" s="106"/>
-      <c r="O69" s="128"/>
-      <c r="P69" s="128"/>
-      <c r="Q69" s="128"/>
-      <c r="R69" s="128"/>
-      <c r="S69" s="128"/>
-      <c r="T69" s="128"/>
-      <c r="U69" s="128"/>
-      <c r="V69" s="128"/>
-      <c r="W69" s="128"/>
-      <c r="X69" s="128"/>
       <c r="Y69" s="102"/>
       <c r="Z69" s="106"/>
-      <c r="AA69" s="128"/>
-      <c r="AB69" s="128"/>
-      <c r="AC69" s="128"/>
-      <c r="AD69" s="128"/>
-      <c r="AE69" s="128"/>
-      <c r="AF69" s="128"/>
-      <c r="AG69" s="128"/>
-      <c r="AH69" s="128"/>
-      <c r="AI69" s="128"/>
       <c r="AJ69" s="102"/>
-      <c r="AK69" s="128"/>
-      <c r="AL69" s="128"/>
-      <c r="AM69" s="128"/>
-      <c r="AN69" s="128"/>
-      <c r="AO69" s="128"/>
-      <c r="AP69" s="128"/>
-      <c r="AQ69" s="128"/>
-      <c r="AR69" s="128"/>
-      <c r="AS69" s="128"/>
-      <c r="AT69" s="128"/>
-      <c r="AU69" s="128"/>
       <c r="AV69" s="102"/>
     </row>
     <row r="70" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N70" s="106"/>
-      <c r="O70" s="128"/>
-      <c r="P70" s="128"/>
-      <c r="Q70" s="128"/>
-      <c r="R70" s="128"/>
-      <c r="S70" s="128"/>
-      <c r="T70" s="128"/>
-      <c r="U70" s="128"/>
-      <c r="V70" s="128"/>
-      <c r="W70" s="128"/>
-      <c r="X70" s="128"/>
       <c r="Y70" s="102"/>
       <c r="Z70" s="106"/>
-      <c r="AA70" s="128"/>
-      <c r="AB70" s="128"/>
-      <c r="AC70" s="128"/>
-      <c r="AD70" s="128"/>
-      <c r="AE70" s="128"/>
-      <c r="AF70" s="128"/>
-      <c r="AG70" s="128"/>
-      <c r="AH70" s="128"/>
-      <c r="AI70" s="128"/>
       <c r="AJ70" s="102"/>
-      <c r="AK70" s="128"/>
-      <c r="AL70" s="128"/>
-      <c r="AM70" s="128"/>
-      <c r="AN70" s="128"/>
-      <c r="AO70" s="128"/>
-      <c r="AP70" s="128"/>
-      <c r="AQ70" s="128"/>
-      <c r="AR70" s="128"/>
-      <c r="AS70" s="128"/>
-      <c r="AT70" s="128"/>
-      <c r="AU70" s="128"/>
       <c r="AV70" s="102"/>
     </row>
     <row r="71" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N71" s="106"/>
-      <c r="O71" s="128"/>
-      <c r="P71" s="128"/>
-      <c r="Q71" s="128"/>
-      <c r="R71" s="128"/>
-      <c r="S71" s="128"/>
-      <c r="T71" s="128"/>
-      <c r="U71" s="128"/>
-      <c r="V71" s="128"/>
-      <c r="W71" s="128"/>
-      <c r="X71" s="128"/>
       <c r="Y71" s="102"/>
       <c r="Z71" s="106"/>
-      <c r="AA71" s="128"/>
-      <c r="AB71" s="128"/>
-      <c r="AC71" s="128"/>
-      <c r="AD71" s="128"/>
-      <c r="AE71" s="128"/>
-      <c r="AF71" s="128"/>
-      <c r="AG71" s="128"/>
-      <c r="AH71" s="128"/>
-      <c r="AI71" s="128"/>
       <c r="AJ71" s="102"/>
-      <c r="AK71" s="128"/>
-      <c r="AL71" s="128"/>
-      <c r="AM71" s="128"/>
-      <c r="AN71" s="128"/>
-      <c r="AO71" s="128"/>
-      <c r="AP71" s="128"/>
-      <c r="AQ71" s="128"/>
-      <c r="AR71" s="128"/>
-      <c r="AS71" s="128"/>
-      <c r="AT71" s="128"/>
-      <c r="AU71" s="128"/>
       <c r="AV71" s="102"/>
     </row>
     <row r="72" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N72" s="106"/>
-      <c r="O72" s="128"/>
-      <c r="P72" s="128"/>
-      <c r="Q72" s="128"/>
-      <c r="R72" s="128"/>
-      <c r="S72" s="128"/>
-      <c r="T72" s="128"/>
-      <c r="U72" s="128"/>
-      <c r="V72" s="128"/>
-      <c r="W72" s="128"/>
-      <c r="X72" s="128"/>
       <c r="Y72" s="102"/>
       <c r="Z72" s="106"/>
-      <c r="AA72" s="128"/>
-      <c r="AB72" s="128"/>
-      <c r="AC72" s="128"/>
-      <c r="AD72" s="128"/>
-      <c r="AE72" s="128"/>
-      <c r="AF72" s="128"/>
-      <c r="AG72" s="128"/>
-      <c r="AH72" s="128"/>
-      <c r="AI72" s="128"/>
       <c r="AJ72" s="102"/>
-      <c r="AK72" s="128"/>
-      <c r="AL72" s="128"/>
-      <c r="AM72" s="128"/>
-      <c r="AN72" s="128"/>
-      <c r="AO72" s="128"/>
-      <c r="AP72" s="128"/>
-      <c r="AQ72" s="128"/>
-      <c r="AR72" s="128"/>
-      <c r="AS72" s="128"/>
-      <c r="AT72" s="128"/>
-      <c r="AU72" s="128"/>
       <c r="AV72" s="102"/>
     </row>
     <row r="73" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N73" s="106"/>
-      <c r="O73" s="128"/>
-      <c r="P73" s="128"/>
-      <c r="Q73" s="128"/>
-      <c r="R73" s="128"/>
-      <c r="S73" s="128"/>
-      <c r="T73" s="128"/>
-      <c r="U73" s="128"/>
-      <c r="V73" s="128"/>
-      <c r="W73" s="128"/>
-      <c r="X73" s="128"/>
       <c r="Y73" s="102"/>
       <c r="Z73" s="106"/>
-      <c r="AA73" s="128"/>
-      <c r="AB73" s="128"/>
-      <c r="AC73" s="128"/>
-      <c r="AD73" s="128"/>
-      <c r="AE73" s="128"/>
-      <c r="AF73" s="128"/>
-      <c r="AG73" s="128"/>
-      <c r="AH73" s="128"/>
-      <c r="AI73" s="128"/>
       <c r="AJ73" s="102"/>
-      <c r="AK73" s="128"/>
-      <c r="AL73" s="128"/>
-      <c r="AM73" s="128"/>
-      <c r="AN73" s="128"/>
-      <c r="AO73" s="128"/>
-      <c r="AP73" s="128"/>
-      <c r="AQ73" s="128"/>
-      <c r="AR73" s="128"/>
-      <c r="AS73" s="128"/>
-      <c r="AT73" s="128"/>
-      <c r="AU73" s="128"/>
       <c r="AV73" s="102"/>
     </row>
     <row r="74" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N74" s="106"/>
-      <c r="O74" s="128"/>
-      <c r="P74" s="128"/>
-      <c r="Q74" s="128"/>
-      <c r="R74" s="128"/>
-      <c r="S74" s="128"/>
-      <c r="T74" s="128"/>
-      <c r="U74" s="128"/>
-      <c r="V74" s="128"/>
-      <c r="W74" s="128"/>
-      <c r="X74" s="128"/>
       <c r="Y74" s="102"/>
       <c r="Z74" s="106"/>
-      <c r="AA74" s="128"/>
-      <c r="AB74" s="128"/>
-      <c r="AC74" s="128"/>
-      <c r="AD74" s="128"/>
-      <c r="AE74" s="128"/>
-      <c r="AF74" s="128"/>
-      <c r="AG74" s="128"/>
-      <c r="AH74" s="128"/>
-      <c r="AI74" s="128"/>
       <c r="AJ74" s="102"/>
-      <c r="AK74" s="128"/>
-      <c r="AL74" s="128"/>
-      <c r="AM74" s="128"/>
-      <c r="AN74" s="128"/>
-      <c r="AO74" s="128"/>
-      <c r="AP74" s="128"/>
-      <c r="AQ74" s="128"/>
-      <c r="AR74" s="128"/>
-      <c r="AS74" s="128"/>
-      <c r="AT74" s="128"/>
-      <c r="AU74" s="128"/>
       <c r="AV74" s="102"/>
     </row>
     <row r="75" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N75" s="106"/>
-      <c r="O75" s="128"/>
-      <c r="P75" s="128"/>
-      <c r="Q75" s="128"/>
-      <c r="R75" s="128"/>
-      <c r="S75" s="128"/>
-      <c r="T75" s="128"/>
-      <c r="U75" s="128"/>
-      <c r="V75" s="128"/>
-      <c r="W75" s="128"/>
-      <c r="X75" s="128"/>
       <c r="Y75" s="102"/>
       <c r="Z75" s="106"/>
-      <c r="AA75" s="128"/>
-      <c r="AB75" s="128"/>
-      <c r="AC75" s="128"/>
-      <c r="AD75" s="128"/>
-      <c r="AE75" s="128"/>
-      <c r="AF75" s="128"/>
-      <c r="AG75" s="128"/>
-      <c r="AH75" s="128"/>
-      <c r="AI75" s="128"/>
       <c r="AJ75" s="102"/>
-      <c r="AK75" s="128"/>
-      <c r="AL75" s="128"/>
-      <c r="AM75" s="128"/>
-      <c r="AN75" s="128"/>
-      <c r="AO75" s="128"/>
-      <c r="AP75" s="128"/>
-      <c r="AQ75" s="128"/>
-      <c r="AR75" s="128"/>
-      <c r="AS75" s="128"/>
-      <c r="AT75" s="128"/>
-      <c r="AU75" s="128"/>
       <c r="AV75" s="102"/>
     </row>
     <row r="76" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N76" s="106"/>
-      <c r="O76" s="128"/>
-      <c r="P76" s="128"/>
-      <c r="Q76" s="128"/>
-      <c r="R76" s="128"/>
-      <c r="S76" s="128"/>
-      <c r="T76" s="128"/>
-      <c r="U76" s="128"/>
-      <c r="V76" s="128"/>
-      <c r="W76" s="128"/>
-      <c r="X76" s="128"/>
       <c r="Y76" s="102"/>
       <c r="Z76" s="106"/>
-      <c r="AA76" s="128"/>
-      <c r="AB76" s="128"/>
-      <c r="AC76" s="128"/>
-      <c r="AD76" s="128"/>
-      <c r="AE76" s="128"/>
-      <c r="AF76" s="128"/>
-      <c r="AG76" s="128"/>
-      <c r="AH76" s="128"/>
-      <c r="AI76" s="128"/>
       <c r="AJ76" s="102"/>
-      <c r="AK76" s="128"/>
-      <c r="AL76" s="128"/>
-      <c r="AM76" s="128"/>
-      <c r="AN76" s="128"/>
-      <c r="AO76" s="128"/>
-      <c r="AP76" s="128"/>
-      <c r="AQ76" s="128"/>
-      <c r="AR76" s="128"/>
-      <c r="AS76" s="128"/>
-      <c r="AT76" s="128"/>
-      <c r="AU76" s="128"/>
       <c r="AV76" s="102"/>
     </row>
     <row r="77" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N77" s="106"/>
-      <c r="O77" s="128"/>
-      <c r="P77" s="128"/>
-      <c r="Q77" s="128"/>
-      <c r="R77" s="128"/>
-      <c r="S77" s="128"/>
-      <c r="T77" s="128"/>
-      <c r="U77" s="128"/>
-      <c r="V77" s="128"/>
-      <c r="W77" s="128"/>
-      <c r="X77" s="128"/>
       <c r="Y77" s="102"/>
       <c r="Z77" s="106"/>
-      <c r="AA77" s="128"/>
-      <c r="AB77" s="128"/>
-      <c r="AC77" s="128"/>
-      <c r="AD77" s="128"/>
-      <c r="AE77" s="128"/>
-      <c r="AF77" s="128"/>
-      <c r="AG77" s="128"/>
-      <c r="AH77" s="128"/>
-      <c r="AI77" s="128"/>
       <c r="AJ77" s="102"/>
-      <c r="AK77" s="128"/>
-      <c r="AL77" s="128"/>
-      <c r="AM77" s="128"/>
-      <c r="AN77" s="128"/>
-      <c r="AO77" s="128"/>
-      <c r="AP77" s="128"/>
-      <c r="AQ77" s="128"/>
-      <c r="AR77" s="128"/>
-      <c r="AS77" s="128"/>
-      <c r="AT77" s="128"/>
-      <c r="AU77" s="128"/>
       <c r="AV77" s="102"/>
     </row>
     <row r="78" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N78" s="106"/>
-      <c r="O78" s="128"/>
-      <c r="P78" s="128"/>
-      <c r="Q78" s="128"/>
-      <c r="R78" s="128"/>
-      <c r="S78" s="128"/>
-      <c r="T78" s="128"/>
-      <c r="U78" s="128"/>
-      <c r="V78" s="128"/>
-      <c r="W78" s="128"/>
-      <c r="X78" s="128"/>
       <c r="Y78" s="102"/>
       <c r="Z78" s="106"/>
-      <c r="AA78" s="128"/>
-      <c r="AB78" s="128"/>
-      <c r="AC78" s="128"/>
-      <c r="AD78" s="128"/>
-      <c r="AE78" s="128"/>
-      <c r="AF78" s="128"/>
-      <c r="AG78" s="128"/>
-      <c r="AH78" s="128"/>
-      <c r="AI78" s="128"/>
       <c r="AJ78" s="102"/>
-      <c r="AK78" s="128"/>
-      <c r="AL78" s="128"/>
-      <c r="AM78" s="128"/>
-      <c r="AN78" s="128"/>
-      <c r="AO78" s="128"/>
-      <c r="AP78" s="128"/>
-      <c r="AQ78" s="128"/>
-      <c r="AR78" s="128"/>
-      <c r="AS78" s="128"/>
-      <c r="AT78" s="128"/>
-      <c r="AU78" s="128"/>
       <c r="AV78" s="102"/>
     </row>
     <row r="79" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N79" s="106"/>
-      <c r="O79" s="128"/>
-      <c r="P79" s="128"/>
-      <c r="Q79" s="128"/>
-      <c r="R79" s="128"/>
-      <c r="S79" s="128"/>
-      <c r="T79" s="128"/>
-      <c r="U79" s="128"/>
-      <c r="V79" s="128"/>
-      <c r="W79" s="128"/>
-      <c r="X79" s="128"/>
       <c r="Y79" s="102"/>
       <c r="Z79" s="106"/>
-      <c r="AA79" s="128"/>
-      <c r="AB79" s="128"/>
-      <c r="AC79" s="128"/>
-      <c r="AD79" s="128"/>
-      <c r="AE79" s="128"/>
-      <c r="AF79" s="128"/>
-      <c r="AG79" s="128"/>
-      <c r="AH79" s="128"/>
-      <c r="AI79" s="128"/>
       <c r="AJ79" s="102"/>
-      <c r="AK79" s="128"/>
-      <c r="AL79" s="128"/>
-      <c r="AM79" s="128"/>
-      <c r="AN79" s="128"/>
-      <c r="AO79" s="128"/>
-      <c r="AP79" s="128"/>
-      <c r="AQ79" s="128"/>
-      <c r="AR79" s="128"/>
-      <c r="AS79" s="128"/>
-      <c r="AT79" s="128"/>
-      <c r="AU79" s="128"/>
       <c r="AV79" s="102"/>
     </row>
     <row r="80" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N80" s="106"/>
-      <c r="O80" s="128"/>
-      <c r="P80" s="128"/>
-      <c r="Q80" s="128"/>
-      <c r="R80" s="128"/>
-      <c r="S80" s="128"/>
-      <c r="T80" s="128"/>
-      <c r="U80" s="128"/>
-      <c r="V80" s="128"/>
-      <c r="W80" s="128"/>
-      <c r="X80" s="128"/>
       <c r="Y80" s="102"/>
       <c r="Z80" s="106"/>
-      <c r="AA80" s="128"/>
-      <c r="AB80" s="128"/>
-      <c r="AC80" s="128"/>
-      <c r="AD80" s="128"/>
-      <c r="AE80" s="128"/>
-      <c r="AF80" s="128"/>
-      <c r="AG80" s="128"/>
-      <c r="AH80" s="128"/>
-      <c r="AI80" s="128"/>
       <c r="AJ80" s="102"/>
-      <c r="AK80" s="128"/>
-      <c r="AL80" s="128"/>
-      <c r="AM80" s="128"/>
-      <c r="AN80" s="128"/>
-      <c r="AO80" s="128"/>
-      <c r="AP80" s="128"/>
-      <c r="AQ80" s="128"/>
-      <c r="AR80" s="128"/>
-      <c r="AS80" s="128"/>
-      <c r="AT80" s="128"/>
-      <c r="AU80" s="128"/>
       <c r="AV80" s="102"/>
     </row>
     <row r="81" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N81" s="106"/>
-      <c r="O81" s="128"/>
-      <c r="P81" s="128"/>
-      <c r="Q81" s="128"/>
-      <c r="R81" s="128"/>
-      <c r="S81" s="128"/>
-      <c r="T81" s="128"/>
-      <c r="U81" s="128"/>
-      <c r="V81" s="128"/>
-      <c r="W81" s="128"/>
-      <c r="X81" s="128"/>
       <c r="Y81" s="102"/>
       <c r="Z81" s="106"/>
-      <c r="AA81" s="128"/>
-      <c r="AB81" s="128"/>
-      <c r="AC81" s="128"/>
-      <c r="AD81" s="128"/>
-      <c r="AE81" s="128"/>
-      <c r="AF81" s="128"/>
-      <c r="AG81" s="128"/>
-      <c r="AH81" s="128"/>
-      <c r="AI81" s="128"/>
       <c r="AJ81" s="102"/>
-      <c r="AK81" s="128"/>
-      <c r="AL81" s="128"/>
-      <c r="AM81" s="128"/>
-      <c r="AN81" s="128"/>
-      <c r="AO81" s="128"/>
-      <c r="AP81" s="128"/>
-      <c r="AQ81" s="128"/>
-      <c r="AR81" s="128"/>
-      <c r="AS81" s="128"/>
-      <c r="AT81" s="128"/>
-      <c r="AU81" s="128"/>
       <c r="AV81" s="102"/>
     </row>
     <row r="82" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N82" s="106"/>
-      <c r="O82" s="128"/>
-      <c r="P82" s="128"/>
-      <c r="Q82" s="128"/>
-      <c r="R82" s="128"/>
-      <c r="S82" s="128"/>
-      <c r="T82" s="128"/>
-      <c r="U82" s="128"/>
-      <c r="V82" s="128"/>
-      <c r="W82" s="128"/>
-      <c r="X82" s="128"/>
       <c r="Y82" s="102"/>
       <c r="Z82" s="106"/>
-      <c r="AA82" s="128"/>
-      <c r="AB82" s="128"/>
-      <c r="AC82" s="128"/>
-      <c r="AD82" s="128"/>
-      <c r="AE82" s="128"/>
-      <c r="AF82" s="128"/>
-      <c r="AG82" s="128"/>
-      <c r="AH82" s="128"/>
-      <c r="AI82" s="128"/>
       <c r="AJ82" s="102"/>
-      <c r="AK82" s="128"/>
-      <c r="AL82" s="128"/>
-      <c r="AM82" s="128"/>
-      <c r="AN82" s="128"/>
-      <c r="AO82" s="128"/>
-      <c r="AP82" s="128"/>
-      <c r="AQ82" s="128"/>
-      <c r="AR82" s="128"/>
-      <c r="AS82" s="128"/>
-      <c r="AT82" s="128"/>
-      <c r="AU82" s="128"/>
       <c r="AV82" s="102"/>
     </row>
     <row r="83" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N83" s="106"/>
-      <c r="O83" s="128"/>
-      <c r="P83" s="128"/>
-      <c r="Q83" s="128"/>
-      <c r="R83" s="128"/>
-      <c r="S83" s="128"/>
-      <c r="T83" s="128"/>
-      <c r="U83" s="128"/>
-      <c r="V83" s="128"/>
-      <c r="W83" s="128"/>
-      <c r="X83" s="128"/>
       <c r="Y83" s="102"/>
       <c r="Z83" s="106"/>
-      <c r="AA83" s="128"/>
-      <c r="AB83" s="128"/>
-      <c r="AC83" s="128"/>
-      <c r="AD83" s="128"/>
-      <c r="AE83" s="128"/>
-      <c r="AF83" s="128"/>
-      <c r="AG83" s="128"/>
-      <c r="AH83" s="128"/>
-      <c r="AI83" s="128"/>
       <c r="AJ83" s="102"/>
-      <c r="AK83" s="128"/>
-      <c r="AL83" s="128"/>
-      <c r="AM83" s="128"/>
-      <c r="AN83" s="128"/>
-      <c r="AO83" s="128"/>
-      <c r="AP83" s="128"/>
-      <c r="AQ83" s="128"/>
-      <c r="AR83" s="128"/>
-      <c r="AS83" s="128"/>
-      <c r="AT83" s="128"/>
-      <c r="AU83" s="128"/>
       <c r="AV83" s="102"/>
     </row>
     <row r="84" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N84" s="106"/>
-      <c r="O84" s="128"/>
-      <c r="P84" s="128"/>
-      <c r="Q84" s="128"/>
-      <c r="R84" s="128"/>
-      <c r="S84" s="128"/>
-      <c r="T84" s="128"/>
-      <c r="U84" s="128"/>
-      <c r="V84" s="128"/>
-      <c r="W84" s="128"/>
-      <c r="X84" s="128"/>
       <c r="Y84" s="102"/>
       <c r="Z84" s="106"/>
-      <c r="AA84" s="128"/>
-      <c r="AB84" s="128"/>
-      <c r="AC84" s="128"/>
-      <c r="AD84" s="128"/>
-      <c r="AE84" s="128"/>
-      <c r="AF84" s="128"/>
-      <c r="AG84" s="128"/>
-      <c r="AH84" s="128"/>
-      <c r="AI84" s="128"/>
       <c r="AJ84" s="102"/>
-      <c r="AK84" s="128"/>
-      <c r="AL84" s="128"/>
-      <c r="AM84" s="128"/>
-      <c r="AN84" s="128"/>
-      <c r="AO84" s="128"/>
-      <c r="AP84" s="128"/>
-      <c r="AQ84" s="128"/>
-      <c r="AR84" s="128"/>
-      <c r="AS84" s="128"/>
-      <c r="AT84" s="128"/>
-      <c r="AU84" s="128"/>
       <c r="AV84" s="102"/>
     </row>
     <row r="85" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N85" s="106"/>
-      <c r="O85" s="128"/>
-      <c r="P85" s="128"/>
-      <c r="Q85" s="128"/>
-      <c r="R85" s="128"/>
-      <c r="S85" s="128"/>
-      <c r="T85" s="128"/>
-      <c r="U85" s="128"/>
-      <c r="V85" s="128"/>
-      <c r="W85" s="128"/>
-      <c r="X85" s="128"/>
       <c r="Y85" s="102"/>
       <c r="Z85" s="106"/>
-      <c r="AA85" s="128"/>
-      <c r="AB85" s="128"/>
-      <c r="AC85" s="128"/>
-      <c r="AD85" s="128"/>
-      <c r="AE85" s="128"/>
-      <c r="AF85" s="128"/>
-      <c r="AG85" s="128"/>
-      <c r="AH85" s="128"/>
-      <c r="AI85" s="128"/>
       <c r="AJ85" s="102"/>
-      <c r="AK85" s="128"/>
-      <c r="AL85" s="128"/>
-      <c r="AM85" s="128"/>
-      <c r="AN85" s="128"/>
-      <c r="AO85" s="128"/>
-      <c r="AP85" s="128"/>
-      <c r="AQ85" s="128"/>
-      <c r="AR85" s="128"/>
-      <c r="AS85" s="128"/>
-      <c r="AT85" s="128"/>
-      <c r="AU85" s="128"/>
       <c r="AV85" s="102"/>
     </row>
     <row r="86" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N86" s="106"/>
-      <c r="O86" s="128"/>
-      <c r="P86" s="128"/>
-      <c r="Q86" s="128"/>
-      <c r="R86" s="128"/>
-      <c r="S86" s="128"/>
-      <c r="T86" s="128"/>
-      <c r="U86" s="128"/>
-      <c r="V86" s="128"/>
-      <c r="W86" s="128"/>
-      <c r="X86" s="128"/>
       <c r="Y86" s="102"/>
       <c r="Z86" s="106"/>
-      <c r="AA86" s="128"/>
-      <c r="AB86" s="128"/>
-      <c r="AC86" s="128"/>
-      <c r="AD86" s="128"/>
-      <c r="AE86" s="128"/>
-      <c r="AF86" s="128"/>
-      <c r="AG86" s="128"/>
-      <c r="AH86" s="128"/>
-      <c r="AI86" s="128"/>
       <c r="AJ86" s="102"/>
-      <c r="AK86" s="128"/>
-      <c r="AL86" s="128"/>
-      <c r="AM86" s="128"/>
-      <c r="AN86" s="128"/>
-      <c r="AO86" s="128"/>
-      <c r="AP86" s="128"/>
-      <c r="AQ86" s="128"/>
-      <c r="AR86" s="128"/>
-      <c r="AS86" s="128"/>
-      <c r="AT86" s="128"/>
-      <c r="AU86" s="128"/>
       <c r="AV86" s="102"/>
     </row>
     <row r="87" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N87" s="106"/>
-      <c r="O87" s="128"/>
-      <c r="P87" s="128"/>
-      <c r="Q87" s="128"/>
-      <c r="R87" s="128"/>
-      <c r="S87" s="128"/>
-      <c r="T87" s="128"/>
-      <c r="U87" s="128"/>
-      <c r="V87" s="128"/>
-      <c r="W87" s="128"/>
-      <c r="X87" s="128"/>
       <c r="Y87" s="102"/>
       <c r="Z87" s="106"/>
-      <c r="AA87" s="128"/>
-      <c r="AB87" s="128"/>
-      <c r="AC87" s="128"/>
-      <c r="AD87" s="128"/>
-      <c r="AE87" s="128"/>
-      <c r="AF87" s="128"/>
-      <c r="AG87" s="128"/>
-      <c r="AH87" s="128"/>
-      <c r="AI87" s="128"/>
       <c r="AJ87" s="102"/>
-      <c r="AK87" s="128"/>
-      <c r="AL87" s="128"/>
-      <c r="AM87" s="128"/>
-      <c r="AN87" s="128"/>
-      <c r="AO87" s="128"/>
-      <c r="AP87" s="128"/>
-      <c r="AQ87" s="128"/>
-      <c r="AR87" s="128"/>
-      <c r="AS87" s="128"/>
-      <c r="AT87" s="128"/>
-      <c r="AU87" s="128"/>
       <c r="AV87" s="102"/>
     </row>
     <row r="88" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N88" s="106"/>
-      <c r="O88" s="128"/>
-      <c r="P88" s="128"/>
-      <c r="Q88" s="128"/>
-      <c r="R88" s="128"/>
-      <c r="S88" s="128"/>
-      <c r="T88" s="128"/>
-      <c r="U88" s="128"/>
-      <c r="V88" s="128"/>
-      <c r="W88" s="128"/>
-      <c r="X88" s="128"/>
       <c r="Y88" s="102"/>
       <c r="Z88" s="106"/>
-      <c r="AA88" s="128"/>
-      <c r="AB88" s="128"/>
-      <c r="AC88" s="128"/>
-      <c r="AD88" s="128"/>
-      <c r="AE88" s="128"/>
-      <c r="AF88" s="128"/>
-      <c r="AG88" s="128"/>
-      <c r="AH88" s="128"/>
-      <c r="AI88" s="128"/>
       <c r="AJ88" s="102"/>
-      <c r="AK88" s="128"/>
-      <c r="AL88" s="128"/>
-      <c r="AM88" s="128"/>
-      <c r="AN88" s="128"/>
-      <c r="AO88" s="128"/>
-      <c r="AP88" s="128"/>
-      <c r="AQ88" s="128"/>
-      <c r="AR88" s="128"/>
-      <c r="AS88" s="128"/>
-      <c r="AT88" s="128"/>
-      <c r="AU88" s="128"/>
       <c r="AV88" s="102"/>
     </row>
     <row r="89" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N89" s="106"/>
-      <c r="O89" s="128"/>
-      <c r="P89" s="128"/>
-      <c r="Q89" s="128"/>
-      <c r="R89" s="128"/>
-      <c r="S89" s="128"/>
-      <c r="T89" s="128"/>
-      <c r="U89" s="128"/>
-      <c r="V89" s="128"/>
-      <c r="W89" s="128"/>
-      <c r="X89" s="128"/>
       <c r="Y89" s="102"/>
       <c r="Z89" s="106"/>
-      <c r="AA89" s="128"/>
-      <c r="AB89" s="128"/>
-      <c r="AC89" s="128"/>
-      <c r="AD89" s="128"/>
-      <c r="AE89" s="128"/>
-      <c r="AF89" s="128"/>
-      <c r="AG89" s="128"/>
-      <c r="AH89" s="128"/>
-      <c r="AI89" s="128"/>
       <c r="AJ89" s="102"/>
-      <c r="AK89" s="128"/>
-      <c r="AL89" s="128"/>
-      <c r="AM89" s="128"/>
-      <c r="AN89" s="128"/>
-      <c r="AO89" s="128"/>
-      <c r="AP89" s="128"/>
-      <c r="AQ89" s="128"/>
-      <c r="AR89" s="128"/>
-      <c r="AS89" s="128"/>
-      <c r="AT89" s="128"/>
-      <c r="AU89" s="128"/>
       <c r="AV89" s="102"/>
     </row>
     <row r="90" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N90" s="106"/>
-      <c r="O90" s="128"/>
-      <c r="P90" s="128"/>
-      <c r="Q90" s="128"/>
-      <c r="R90" s="128"/>
-      <c r="S90" s="128"/>
-      <c r="T90" s="128"/>
-      <c r="U90" s="128"/>
-      <c r="V90" s="128"/>
-      <c r="W90" s="128"/>
-      <c r="X90" s="128"/>
       <c r="Y90" s="102"/>
       <c r="Z90" s="106"/>
-      <c r="AA90" s="128"/>
-      <c r="AB90" s="128"/>
-      <c r="AC90" s="128"/>
-      <c r="AD90" s="128"/>
-      <c r="AE90" s="128"/>
-      <c r="AF90" s="128"/>
-      <c r="AG90" s="128"/>
-      <c r="AH90" s="128"/>
-      <c r="AI90" s="128"/>
       <c r="AJ90" s="102"/>
-      <c r="AK90" s="128"/>
-      <c r="AL90" s="128"/>
-      <c r="AM90" s="128"/>
-      <c r="AN90" s="128"/>
-      <c r="AO90" s="128"/>
-      <c r="AP90" s="128"/>
-      <c r="AQ90" s="128"/>
-      <c r="AR90" s="128"/>
-      <c r="AS90" s="128"/>
-      <c r="AT90" s="128"/>
-      <c r="AU90" s="128"/>
       <c r="AV90" s="102"/>
     </row>
     <row r="91" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N91" s="106"/>
-      <c r="O91" s="128"/>
-      <c r="P91" s="128"/>
-      <c r="Q91" s="128"/>
-      <c r="R91" s="128"/>
-      <c r="S91" s="128"/>
-      <c r="T91" s="128"/>
-      <c r="U91" s="128"/>
-      <c r="V91" s="128"/>
-      <c r="W91" s="128"/>
-      <c r="X91" s="128"/>
       <c r="Y91" s="102"/>
       <c r="Z91" s="106"/>
-      <c r="AA91" s="128"/>
-      <c r="AB91" s="128"/>
-      <c r="AC91" s="128"/>
-      <c r="AD91" s="128"/>
-      <c r="AE91" s="128"/>
-      <c r="AF91" s="128"/>
-      <c r="AG91" s="128"/>
-      <c r="AH91" s="128"/>
-      <c r="AI91" s="128"/>
       <c r="AJ91" s="102"/>
-      <c r="AK91" s="128"/>
-      <c r="AL91" s="128"/>
-      <c r="AM91" s="128"/>
-      <c r="AN91" s="128"/>
-      <c r="AO91" s="128"/>
-      <c r="AP91" s="128"/>
-      <c r="AQ91" s="128"/>
-      <c r="AR91" s="128"/>
-      <c r="AS91" s="128"/>
-      <c r="AT91" s="128"/>
-      <c r="AU91" s="128"/>
       <c r="AV91" s="102"/>
     </row>
     <row r="92" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N92" s="106"/>
-      <c r="O92" s="128"/>
-      <c r="P92" s="128"/>
-      <c r="Q92" s="128"/>
-      <c r="R92" s="128"/>
-      <c r="S92" s="128"/>
-      <c r="T92" s="128"/>
-      <c r="U92" s="128"/>
-      <c r="V92" s="128"/>
-      <c r="W92" s="128"/>
-      <c r="X92" s="128"/>
       <c r="Y92" s="102"/>
       <c r="Z92" s="106"/>
-      <c r="AA92" s="128"/>
-      <c r="AB92" s="128"/>
-      <c r="AC92" s="128"/>
-      <c r="AD92" s="128"/>
-      <c r="AE92" s="128"/>
-      <c r="AF92" s="128"/>
-      <c r="AG92" s="128"/>
-      <c r="AH92" s="128"/>
-      <c r="AI92" s="128"/>
       <c r="AJ92" s="102"/>
-      <c r="AK92" s="128"/>
-      <c r="AL92" s="128"/>
-      <c r="AM92" s="128"/>
-      <c r="AN92" s="128"/>
-      <c r="AO92" s="128"/>
-      <c r="AP92" s="128"/>
-      <c r="AQ92" s="128"/>
-      <c r="AR92" s="128"/>
-      <c r="AS92" s="128"/>
-      <c r="AT92" s="128"/>
-      <c r="AU92" s="128"/>
       <c r="AV92" s="102"/>
     </row>
     <row r="93" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N93" s="106"/>
-      <c r="O93" s="128"/>
-      <c r="P93" s="128" t="s">
+      <c r="P93" t="s">
         <v>47</v>
       </c>
-      <c r="Q93" s="128"/>
-      <c r="R93" s="128"/>
-      <c r="S93" s="128"/>
-      <c r="T93" s="128"/>
-      <c r="U93" s="128"/>
-      <c r="V93" s="128"/>
-      <c r="W93" s="128"/>
-      <c r="X93" s="128"/>
       <c r="Y93" s="102"/>
       <c r="Z93" s="106"/>
-      <c r="AA93" s="128" t="s">
+      <c r="AA93" t="s">
         <v>57</v>
       </c>
-      <c r="AB93" s="128"/>
-      <c r="AC93" s="128"/>
-      <c r="AD93" s="128"/>
-      <c r="AE93" s="128"/>
-      <c r="AF93" s="128"/>
-      <c r="AG93" s="128"/>
-      <c r="AH93" s="128"/>
-      <c r="AI93" s="128"/>
       <c r="AJ93" s="102"/>
-      <c r="AK93" s="128"/>
-      <c r="AL93" s="128"/>
-      <c r="AM93" s="128"/>
-      <c r="AN93" s="128"/>
-      <c r="AO93" s="128"/>
-      <c r="AP93" s="128"/>
-      <c r="AQ93" s="128"/>
-      <c r="AR93" s="128"/>
-      <c r="AS93" s="128"/>
-      <c r="AT93" s="128"/>
-      <c r="AU93" s="128"/>
       <c r="AV93" s="102"/>
     </row>
     <row r="94" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N94" s="106"/>
-      <c r="O94" s="128"/>
-      <c r="P94" s="128"/>
-      <c r="Q94" s="128"/>
-      <c r="R94" s="128"/>
-      <c r="S94" s="128"/>
-      <c r="T94" s="128"/>
-      <c r="U94" s="128"/>
-      <c r="V94" s="128"/>
-      <c r="W94" s="128"/>
-      <c r="X94" s="128"/>
       <c r="Y94" s="102"/>
       <c r="Z94" s="106"/>
-      <c r="AA94" s="128"/>
-      <c r="AB94" s="128"/>
-      <c r="AC94" s="128"/>
-      <c r="AD94" s="128"/>
-      <c r="AE94" s="128"/>
-      <c r="AF94" s="128"/>
-      <c r="AG94" s="128"/>
-      <c r="AH94" s="128"/>
-      <c r="AI94" s="128"/>
       <c r="AJ94" s="102"/>
-      <c r="AK94" s="128"/>
-      <c r="AL94" s="128" t="s">
+      <c r="AL94" t="s">
         <v>67</v>
       </c>
-      <c r="AM94" s="128"/>
-      <c r="AN94" s="128"/>
-      <c r="AO94" s="128"/>
-      <c r="AP94" s="128"/>
-      <c r="AQ94" s="128"/>
-      <c r="AR94" s="128"/>
-      <c r="AS94" s="128"/>
-      <c r="AT94" s="128"/>
-      <c r="AU94" s="128"/>
       <c r="AV94" s="102"/>
     </row>
     <row r="95" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N95" s="106"/>
-      <c r="O95" s="128"/>
-      <c r="P95" s="128"/>
-      <c r="Q95" s="128"/>
-      <c r="R95" s="128"/>
-      <c r="S95" s="128"/>
-      <c r="T95" s="128"/>
-      <c r="U95" s="128"/>
-      <c r="V95" s="128"/>
-      <c r="W95" s="128"/>
-      <c r="X95" s="128"/>
       <c r="Y95" s="102"/>
       <c r="Z95" s="106"/>
-      <c r="AA95" s="128"/>
-      <c r="AB95" s="128"/>
-      <c r="AC95" s="128"/>
-      <c r="AD95" s="128"/>
-      <c r="AE95" s="128"/>
-      <c r="AF95" s="128"/>
-      <c r="AG95" s="128"/>
-      <c r="AH95" s="128"/>
-      <c r="AI95" s="128"/>
       <c r="AJ95" s="102"/>
-      <c r="AK95" s="128"/>
-      <c r="AL95" s="128"/>
-      <c r="AM95" s="128"/>
-      <c r="AN95" s="128"/>
-      <c r="AO95" s="128"/>
-      <c r="AP95" s="128"/>
-      <c r="AQ95" s="128"/>
-      <c r="AR95" s="128"/>
-      <c r="AS95" s="128"/>
-      <c r="AT95" s="128"/>
-      <c r="AU95" s="128"/>
       <c r="AV95" s="102"/>
     </row>
     <row r="96" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N96" s="106"/>
-      <c r="O96" s="128"/>
-      <c r="P96" s="128"/>
-      <c r="Q96" s="128"/>
-      <c r="R96" s="128"/>
-      <c r="S96" s="128"/>
-      <c r="T96" s="128"/>
-      <c r="U96" s="128"/>
-      <c r="V96" s="128"/>
-      <c r="W96" s="128"/>
-      <c r="X96" s="128"/>
       <c r="Y96" s="102"/>
       <c r="Z96" s="106"/>
-      <c r="AA96" s="128"/>
-      <c r="AB96" s="128"/>
-      <c r="AC96" s="128"/>
-      <c r="AD96" s="128"/>
-      <c r="AE96" s="128"/>
-      <c r="AF96" s="128"/>
-      <c r="AG96" s="128"/>
-      <c r="AH96" s="128"/>
-      <c r="AI96" s="128"/>
       <c r="AJ96" s="102"/>
-      <c r="AK96" s="128"/>
-      <c r="AL96" s="128"/>
-      <c r="AM96" s="128"/>
-      <c r="AN96" s="128"/>
-      <c r="AO96" s="128"/>
-      <c r="AP96" s="128"/>
-      <c r="AQ96" s="128"/>
-      <c r="AR96" s="128"/>
-      <c r="AS96" s="128"/>
-      <c r="AT96" s="128"/>
-      <c r="AU96" s="128"/>
       <c r="AV96" s="102"/>
     </row>
     <row r="97" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N97" s="106"/>
-      <c r="O97" s="128"/>
-      <c r="P97" s="128"/>
-      <c r="Q97" s="128"/>
-      <c r="R97" s="128"/>
-      <c r="S97" s="128"/>
-      <c r="T97" s="128"/>
-      <c r="U97" s="128"/>
-      <c r="V97" s="128"/>
-      <c r="W97" s="128"/>
-      <c r="X97" s="128"/>
       <c r="Y97" s="102"/>
       <c r="Z97" s="106"/>
-      <c r="AA97" s="128"/>
-      <c r="AB97" s="128"/>
-      <c r="AC97" s="128"/>
-      <c r="AD97" s="128"/>
-      <c r="AE97" s="128"/>
-      <c r="AF97" s="128"/>
-      <c r="AG97" s="128"/>
-      <c r="AH97" s="128"/>
-      <c r="AI97" s="128"/>
       <c r="AJ97" s="102"/>
-      <c r="AK97" s="128"/>
-      <c r="AL97" s="128"/>
-      <c r="AM97" s="128"/>
-      <c r="AN97" s="128"/>
-      <c r="AO97" s="128"/>
-      <c r="AP97" s="128"/>
-      <c r="AQ97" s="128"/>
-      <c r="AR97" s="128"/>
-      <c r="AS97" s="128"/>
-      <c r="AT97" s="128"/>
-      <c r="AU97" s="128"/>
       <c r="AV97" s="102"/>
     </row>
     <row r="98" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N98" s="106"/>
-      <c r="O98" s="128"/>
-      <c r="P98" s="128"/>
-      <c r="Q98" s="128"/>
-      <c r="R98" s="128"/>
-      <c r="S98" s="128"/>
-      <c r="T98" s="128"/>
-      <c r="U98" s="128"/>
-      <c r="V98" s="128"/>
-      <c r="W98" s="128"/>
-      <c r="X98" s="128"/>
       <c r="Y98" s="102"/>
       <c r="Z98" s="106"/>
-      <c r="AA98" s="128"/>
-      <c r="AB98" s="128"/>
-      <c r="AC98" s="128"/>
-      <c r="AD98" s="128"/>
-      <c r="AE98" s="128"/>
-      <c r="AF98" s="128"/>
-      <c r="AG98" s="128"/>
-      <c r="AH98" s="128"/>
-      <c r="AI98" s="128"/>
       <c r="AJ98" s="102"/>
-      <c r="AK98" s="128"/>
-      <c r="AL98" s="128"/>
-      <c r="AM98" s="128"/>
-      <c r="AN98" s="128"/>
-      <c r="AO98" s="128"/>
-      <c r="AP98" s="128"/>
-      <c r="AQ98" s="128"/>
-      <c r="AR98" s="128"/>
-      <c r="AS98" s="128"/>
-      <c r="AT98" s="128"/>
-      <c r="AU98" s="128"/>
       <c r="AV98" s="102"/>
     </row>
     <row r="99" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N99" s="106"/>
-      <c r="O99" s="128"/>
-      <c r="P99" s="128"/>
-      <c r="Q99" s="128"/>
-      <c r="R99" s="128"/>
-      <c r="S99" s="128"/>
-      <c r="T99" s="128"/>
-      <c r="U99" s="128"/>
-      <c r="V99" s="128"/>
-      <c r="W99" s="128"/>
-      <c r="X99" s="128"/>
       <c r="Y99" s="102"/>
       <c r="Z99" s="106"/>
-      <c r="AA99" s="128"/>
-      <c r="AB99" s="128"/>
-      <c r="AC99" s="128"/>
-      <c r="AD99" s="128"/>
-      <c r="AE99" s="128"/>
-      <c r="AF99" s="128"/>
-      <c r="AG99" s="128"/>
-      <c r="AH99" s="128"/>
-      <c r="AI99" s="128"/>
       <c r="AJ99" s="102"/>
-      <c r="AK99" s="128"/>
-      <c r="AL99" s="128"/>
-      <c r="AM99" s="128"/>
-      <c r="AN99" s="128"/>
-      <c r="AO99" s="128"/>
-      <c r="AP99" s="128"/>
-      <c r="AQ99" s="128"/>
-      <c r="AR99" s="128"/>
-      <c r="AS99" s="128"/>
-      <c r="AT99" s="128"/>
-      <c r="AU99" s="128"/>
       <c r="AV99" s="102"/>
     </row>
     <row r="100" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N100" s="106"/>
-      <c r="O100" s="128"/>
-      <c r="P100" s="128"/>
-      <c r="Q100" s="128"/>
-      <c r="R100" s="128"/>
-      <c r="S100" s="128"/>
-      <c r="T100" s="128"/>
-      <c r="U100" s="128"/>
-      <c r="V100" s="128"/>
-      <c r="W100" s="128"/>
-      <c r="X100" s="128"/>
       <c r="Y100" s="102"/>
       <c r="Z100" s="106"/>
-      <c r="AA100" s="128"/>
-      <c r="AB100" s="128"/>
-      <c r="AC100" s="128"/>
-      <c r="AD100" s="128"/>
-      <c r="AE100" s="128"/>
-      <c r="AF100" s="128"/>
-      <c r="AG100" s="128"/>
-      <c r="AH100" s="128"/>
-      <c r="AI100" s="128"/>
       <c r="AJ100" s="102"/>
-      <c r="AK100" s="128"/>
-      <c r="AL100" s="128"/>
-      <c r="AM100" s="128"/>
-      <c r="AN100" s="128"/>
-      <c r="AO100" s="128"/>
-      <c r="AP100" s="128"/>
-      <c r="AQ100" s="128"/>
-      <c r="AR100" s="128"/>
-      <c r="AS100" s="128"/>
-      <c r="AT100" s="128"/>
-      <c r="AU100" s="128"/>
       <c r="AV100" s="102"/>
     </row>
     <row r="101" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N101" s="106"/>
-      <c r="O101" s="128"/>
-      <c r="P101" s="128"/>
-      <c r="Q101" s="128"/>
-      <c r="R101" s="128"/>
-      <c r="S101" s="128"/>
-      <c r="T101" s="128"/>
-      <c r="U101" s="128"/>
-      <c r="V101" s="128"/>
-      <c r="W101" s="128"/>
-      <c r="X101" s="128"/>
       <c r="Y101" s="102"/>
       <c r="Z101" s="106"/>
-      <c r="AA101" s="128"/>
-      <c r="AB101" s="128"/>
-      <c r="AC101" s="128"/>
-      <c r="AD101" s="128"/>
-      <c r="AE101" s="128"/>
-      <c r="AF101" s="128"/>
-      <c r="AG101" s="128"/>
-      <c r="AH101" s="128"/>
-      <c r="AI101" s="128"/>
       <c r="AJ101" s="102"/>
-      <c r="AK101" s="128"/>
-      <c r="AL101" s="128"/>
-      <c r="AM101" s="128"/>
-      <c r="AN101" s="128"/>
-      <c r="AO101" s="128"/>
-      <c r="AP101" s="128"/>
-      <c r="AQ101" s="128"/>
-      <c r="AR101" s="128"/>
-      <c r="AS101" s="128"/>
-      <c r="AT101" s="128"/>
-      <c r="AU101" s="128"/>
       <c r="AV101" s="102"/>
     </row>
     <row r="102" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N102" s="106"/>
-      <c r="O102" s="128"/>
-      <c r="P102" s="128"/>
-      <c r="Q102" s="128"/>
-      <c r="R102" s="128"/>
-      <c r="S102" s="128"/>
-      <c r="T102" s="128"/>
-      <c r="U102" s="128"/>
-      <c r="V102" s="128"/>
-      <c r="W102" s="128"/>
-      <c r="X102" s="128"/>
       <c r="Y102" s="102"/>
       <c r="Z102" s="106"/>
-      <c r="AA102" s="128"/>
-      <c r="AB102" s="128"/>
-      <c r="AC102" s="128"/>
-      <c r="AD102" s="128"/>
-      <c r="AE102" s="128"/>
-      <c r="AF102" s="128"/>
-      <c r="AG102" s="128"/>
-      <c r="AH102" s="128"/>
-      <c r="AI102" s="128"/>
       <c r="AJ102" s="102"/>
-      <c r="AK102" s="128"/>
-      <c r="AL102" s="128"/>
-      <c r="AM102" s="128"/>
-      <c r="AN102" s="128"/>
-      <c r="AO102" s="128"/>
-      <c r="AP102" s="128"/>
-      <c r="AQ102" s="128"/>
-      <c r="AR102" s="128"/>
-      <c r="AS102" s="128"/>
-      <c r="AT102" s="128"/>
-      <c r="AU102" s="128"/>
       <c r="AV102" s="102"/>
     </row>
     <row r="103" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N103" s="106"/>
-      <c r="O103" s="128"/>
-      <c r="P103" s="128"/>
-      <c r="Q103" s="128"/>
-      <c r="R103" s="128"/>
-      <c r="S103" s="128"/>
-      <c r="T103" s="128"/>
-      <c r="U103" s="128"/>
-      <c r="V103" s="128"/>
-      <c r="W103" s="128"/>
-      <c r="X103" s="128"/>
       <c r="Y103" s="102"/>
       <c r="Z103" s="106"/>
-      <c r="AA103" s="128"/>
-      <c r="AB103" s="128"/>
-      <c r="AC103" s="128"/>
-      <c r="AD103" s="128"/>
-      <c r="AE103" s="128"/>
-      <c r="AF103" s="128"/>
-      <c r="AG103" s="128"/>
-      <c r="AH103" s="128"/>
-      <c r="AI103" s="128"/>
       <c r="AJ103" s="102"/>
-      <c r="AK103" s="128"/>
-      <c r="AL103" s="128"/>
-      <c r="AM103" s="128"/>
-      <c r="AN103" s="128"/>
-      <c r="AO103" s="128"/>
-      <c r="AP103" s="128"/>
-      <c r="AQ103" s="128"/>
-      <c r="AR103" s="128"/>
-      <c r="AS103" s="128"/>
-      <c r="AT103" s="128"/>
-      <c r="AU103" s="128"/>
       <c r="AV103" s="102"/>
     </row>
     <row r="104" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N104" s="106"/>
-      <c r="O104" s="128"/>
-      <c r="P104" s="128"/>
-      <c r="Q104" s="128"/>
-      <c r="R104" s="128"/>
-      <c r="S104" s="128"/>
-      <c r="T104" s="128"/>
-      <c r="U104" s="128"/>
-      <c r="V104" s="128"/>
-      <c r="W104" s="128"/>
-      <c r="X104" s="128"/>
       <c r="Y104" s="102"/>
       <c r="Z104" s="106"/>
-      <c r="AA104" s="128"/>
-      <c r="AB104" s="128"/>
-      <c r="AC104" s="128"/>
-      <c r="AD104" s="128"/>
-      <c r="AE104" s="128"/>
-      <c r="AF104" s="128"/>
-      <c r="AG104" s="128"/>
-      <c r="AH104" s="128"/>
-      <c r="AI104" s="128"/>
       <c r="AJ104" s="102"/>
-      <c r="AK104" s="128"/>
-      <c r="AL104" s="128"/>
-      <c r="AM104" s="128"/>
-      <c r="AN104" s="128"/>
-      <c r="AO104" s="128"/>
-      <c r="AP104" s="128"/>
-      <c r="AQ104" s="128"/>
-      <c r="AR104" s="128"/>
-      <c r="AS104" s="128"/>
-      <c r="AT104" s="128"/>
-      <c r="AU104" s="128"/>
       <c r="AV104" s="102"/>
     </row>
     <row r="105" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N105" s="106"/>
-      <c r="O105" s="128"/>
-      <c r="P105" s="128"/>
-      <c r="Q105" s="128"/>
-      <c r="R105" s="128"/>
-      <c r="S105" s="128"/>
-      <c r="T105" s="128"/>
-      <c r="U105" s="128"/>
-      <c r="V105" s="128"/>
-      <c r="W105" s="128"/>
-      <c r="X105" s="128"/>
       <c r="Y105" s="102"/>
       <c r="Z105" s="106"/>
-      <c r="AA105" s="128"/>
-      <c r="AB105" s="128"/>
-      <c r="AC105" s="128"/>
-      <c r="AD105" s="128"/>
-      <c r="AE105" s="128"/>
-      <c r="AF105" s="128"/>
-      <c r="AG105" s="128"/>
-      <c r="AH105" s="128"/>
-      <c r="AI105" s="128"/>
       <c r="AJ105" s="102"/>
-      <c r="AK105" s="128"/>
-      <c r="AL105" s="128"/>
-      <c r="AM105" s="128"/>
-      <c r="AN105" s="128"/>
-      <c r="AO105" s="128"/>
-      <c r="AP105" s="128"/>
-      <c r="AQ105" s="128"/>
-      <c r="AR105" s="128"/>
-      <c r="AS105" s="128"/>
-      <c r="AT105" s="128"/>
-      <c r="AU105" s="128"/>
       <c r="AV105" s="102"/>
     </row>
     <row r="106" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N106" s="106"/>
-      <c r="O106" s="128"/>
-      <c r="P106" s="128"/>
-      <c r="Q106" s="128"/>
-      <c r="R106" s="128"/>
-      <c r="S106" s="128"/>
-      <c r="T106" s="128"/>
-      <c r="U106" s="128"/>
-      <c r="V106" s="128"/>
-      <c r="W106" s="128"/>
-      <c r="X106" s="128"/>
       <c r="Y106" s="102"/>
       <c r="Z106" s="106"/>
-      <c r="AA106" s="128"/>
-      <c r="AB106" s="128"/>
-      <c r="AC106" s="128"/>
-      <c r="AD106" s="128"/>
-      <c r="AE106" s="128"/>
-      <c r="AF106" s="128"/>
-      <c r="AG106" s="128"/>
-      <c r="AH106" s="128"/>
-      <c r="AI106" s="128"/>
       <c r="AJ106" s="102"/>
-      <c r="AK106" s="128"/>
-      <c r="AL106" s="128"/>
-      <c r="AM106" s="128"/>
-      <c r="AN106" s="128"/>
-      <c r="AO106" s="128"/>
-      <c r="AP106" s="128"/>
-      <c r="AQ106" s="128"/>
-      <c r="AR106" s="128"/>
-      <c r="AS106" s="128"/>
-      <c r="AT106" s="128"/>
-      <c r="AU106" s="128"/>
       <c r="AV106" s="102"/>
     </row>
     <row r="107" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N107" s="106"/>
-      <c r="O107" s="128"/>
-      <c r="P107" s="128"/>
-      <c r="Q107" s="128"/>
-      <c r="R107" s="128"/>
-      <c r="S107" s="128"/>
-      <c r="T107" s="128"/>
-      <c r="U107" s="128"/>
-      <c r="V107" s="128"/>
-      <c r="W107" s="128"/>
-      <c r="X107" s="128"/>
       <c r="Y107" s="102"/>
       <c r="Z107" s="106"/>
-      <c r="AA107" s="128"/>
-      <c r="AB107" s="128"/>
-      <c r="AC107" s="128"/>
-      <c r="AD107" s="128"/>
-      <c r="AE107" s="128"/>
-      <c r="AF107" s="128"/>
-      <c r="AG107" s="128"/>
-      <c r="AH107" s="128"/>
-      <c r="AI107" s="128"/>
       <c r="AJ107" s="102"/>
-      <c r="AK107" s="128"/>
-      <c r="AL107" s="128"/>
-      <c r="AM107" s="128"/>
-      <c r="AN107" s="128"/>
-      <c r="AO107" s="128"/>
-      <c r="AP107" s="128"/>
-      <c r="AQ107" s="128"/>
-      <c r="AR107" s="128"/>
-      <c r="AS107" s="128"/>
-      <c r="AT107" s="128"/>
-      <c r="AU107" s="128"/>
       <c r="AV107" s="102"/>
     </row>
     <row r="108" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N108" s="106"/>
-      <c r="O108" s="128"/>
-      <c r="P108" s="128"/>
-      <c r="Q108" s="128"/>
-      <c r="R108" s="128"/>
-      <c r="S108" s="128"/>
-      <c r="T108" s="128"/>
-      <c r="U108" s="128"/>
-      <c r="V108" s="128"/>
-      <c r="W108" s="128"/>
-      <c r="X108" s="128"/>
       <c r="Y108" s="102"/>
       <c r="Z108" s="106"/>
-      <c r="AA108" s="128"/>
-      <c r="AB108" s="128"/>
-      <c r="AC108" s="128"/>
-      <c r="AD108" s="128"/>
-      <c r="AE108" s="128"/>
-      <c r="AF108" s="128"/>
-      <c r="AG108" s="128"/>
-      <c r="AH108" s="128"/>
-      <c r="AI108" s="128"/>
       <c r="AJ108" s="102"/>
-      <c r="AK108" s="128"/>
-      <c r="AL108" s="128"/>
-      <c r="AM108" s="128"/>
-      <c r="AN108" s="128"/>
-      <c r="AO108" s="128"/>
-      <c r="AP108" s="128"/>
-      <c r="AQ108" s="128"/>
-      <c r="AR108" s="128"/>
-      <c r="AS108" s="128"/>
-      <c r="AT108" s="128"/>
-      <c r="AU108" s="128"/>
       <c r="AV108" s="102"/>
     </row>
     <row r="109" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N109" s="106"/>
-      <c r="O109" s="128"/>
-      <c r="P109" s="128"/>
-      <c r="Q109" s="128"/>
-      <c r="R109" s="128"/>
-      <c r="S109" s="128"/>
-      <c r="T109" s="128"/>
-      <c r="U109" s="128"/>
-      <c r="V109" s="128"/>
-      <c r="W109" s="128"/>
-      <c r="X109" s="128"/>
       <c r="Y109" s="102"/>
       <c r="Z109" s="106"/>
-      <c r="AA109" s="128"/>
-      <c r="AB109" s="128"/>
-      <c r="AC109" s="128"/>
-      <c r="AD109" s="128"/>
-      <c r="AE109" s="128"/>
-      <c r="AF109" s="128"/>
-      <c r="AG109" s="128"/>
-      <c r="AH109" s="128"/>
-      <c r="AI109" s="128"/>
       <c r="AJ109" s="102"/>
-      <c r="AK109" s="128"/>
-      <c r="AL109" s="128"/>
-      <c r="AM109" s="128"/>
-      <c r="AN109" s="128"/>
-      <c r="AO109" s="128"/>
-      <c r="AP109" s="128"/>
-      <c r="AQ109" s="128"/>
-      <c r="AR109" s="128"/>
-      <c r="AS109" s="128"/>
-      <c r="AT109" s="128"/>
-      <c r="AU109" s="128"/>
       <c r="AV109" s="102"/>
     </row>
     <row r="110" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N110" s="106"/>
-      <c r="O110" s="128"/>
-      <c r="P110" s="128"/>
-      <c r="Q110" s="128"/>
-      <c r="R110" s="128"/>
-      <c r="S110" s="128"/>
-      <c r="T110" s="128"/>
-      <c r="U110" s="128"/>
-      <c r="V110" s="128"/>
-      <c r="W110" s="128"/>
-      <c r="X110" s="128"/>
       <c r="Y110" s="102"/>
       <c r="Z110" s="106"/>
-      <c r="AA110" s="128"/>
-      <c r="AB110" s="128"/>
-      <c r="AC110" s="128"/>
-      <c r="AD110" s="128"/>
-      <c r="AE110" s="128"/>
-      <c r="AF110" s="128"/>
-      <c r="AG110" s="128"/>
-      <c r="AH110" s="128"/>
-      <c r="AI110" s="128"/>
       <c r="AJ110" s="102"/>
-      <c r="AK110" s="128"/>
-      <c r="AL110" s="128"/>
-      <c r="AM110" s="128"/>
-      <c r="AN110" s="128"/>
-      <c r="AO110" s="128"/>
-      <c r="AP110" s="128"/>
-      <c r="AQ110" s="128"/>
-      <c r="AR110" s="128"/>
-      <c r="AS110" s="128"/>
-      <c r="AT110" s="128"/>
-      <c r="AU110" s="128"/>
       <c r="AV110" s="102"/>
     </row>
     <row r="111" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N111" s="106"/>
-      <c r="O111" s="128"/>
-      <c r="P111" s="128"/>
-      <c r="Q111" s="128"/>
-      <c r="R111" s="128"/>
-      <c r="S111" s="128"/>
-      <c r="T111" s="128"/>
-      <c r="U111" s="128"/>
-      <c r="V111" s="128"/>
-      <c r="W111" s="128"/>
-      <c r="X111" s="128"/>
       <c r="Y111" s="102"/>
       <c r="Z111" s="106"/>
-      <c r="AA111" s="128"/>
-      <c r="AB111" s="128"/>
-      <c r="AC111" s="128"/>
-      <c r="AD111" s="128"/>
-      <c r="AE111" s="128"/>
-      <c r="AF111" s="128"/>
-      <c r="AG111" s="128"/>
-      <c r="AH111" s="128"/>
-      <c r="AI111" s="128"/>
       <c r="AJ111" s="102"/>
-      <c r="AK111" s="128"/>
-      <c r="AL111" s="128"/>
-      <c r="AM111" s="128"/>
-      <c r="AN111" s="128"/>
-      <c r="AO111" s="128"/>
-      <c r="AP111" s="128"/>
-      <c r="AQ111" s="128"/>
-      <c r="AR111" s="128"/>
-      <c r="AS111" s="128"/>
-      <c r="AT111" s="128"/>
-      <c r="AU111" s="128"/>
       <c r="AV111" s="102"/>
     </row>
     <row r="112" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N112" s="106"/>
-      <c r="O112" s="128"/>
-      <c r="P112" s="128"/>
-      <c r="Q112" s="128"/>
-      <c r="R112" s="128"/>
-      <c r="S112" s="128"/>
-      <c r="T112" s="128"/>
-      <c r="U112" s="128"/>
-      <c r="V112" s="128"/>
-      <c r="W112" s="128"/>
-      <c r="X112" s="128"/>
       <c r="Y112" s="102"/>
       <c r="Z112" s="106"/>
-      <c r="AA112" s="128"/>
-      <c r="AB112" s="128"/>
-      <c r="AC112" s="128"/>
-      <c r="AD112" s="128"/>
-      <c r="AE112" s="128"/>
-      <c r="AF112" s="128"/>
-      <c r="AG112" s="128"/>
-      <c r="AH112" s="128"/>
-      <c r="AI112" s="128"/>
       <c r="AJ112" s="102"/>
-      <c r="AK112" s="128"/>
-      <c r="AL112" s="128"/>
-      <c r="AM112" s="128"/>
-      <c r="AN112" s="128"/>
-      <c r="AO112" s="128"/>
-      <c r="AP112" s="128"/>
-      <c r="AQ112" s="128"/>
-      <c r="AR112" s="128"/>
-      <c r="AS112" s="128"/>
-      <c r="AT112" s="128"/>
-      <c r="AU112" s="128"/>
       <c r="AV112" s="102"/>
     </row>
     <row r="113" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N113" s="106"/>
-      <c r="O113" s="128"/>
-      <c r="P113" s="128"/>
-      <c r="Q113" s="128"/>
-      <c r="R113" s="128"/>
-      <c r="S113" s="128"/>
-      <c r="T113" s="128"/>
-      <c r="U113" s="128"/>
-      <c r="V113" s="128"/>
-      <c r="W113" s="128"/>
-      <c r="X113" s="128"/>
       <c r="Y113" s="102"/>
       <c r="Z113" s="106"/>
-      <c r="AA113" s="128"/>
-      <c r="AB113" s="128"/>
-      <c r="AC113" s="128"/>
-      <c r="AD113" s="128"/>
-      <c r="AE113" s="128"/>
-      <c r="AF113" s="128"/>
-      <c r="AG113" s="128"/>
-      <c r="AH113" s="128"/>
-      <c r="AI113" s="128"/>
       <c r="AJ113" s="102"/>
-      <c r="AK113" s="128"/>
-      <c r="AL113" s="128"/>
-      <c r="AM113" s="128"/>
-      <c r="AN113" s="128"/>
-      <c r="AO113" s="128"/>
-      <c r="AP113" s="128"/>
-      <c r="AQ113" s="128"/>
-      <c r="AR113" s="128"/>
-      <c r="AS113" s="128"/>
-      <c r="AT113" s="128"/>
-      <c r="AU113" s="128"/>
       <c r="AV113" s="102"/>
     </row>
     <row r="114" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N114" s="106"/>
-      <c r="O114" s="128"/>
-      <c r="P114" s="128"/>
-      <c r="Q114" s="128"/>
-      <c r="R114" s="128"/>
-      <c r="S114" s="128"/>
-      <c r="T114" s="128"/>
-      <c r="U114" s="128"/>
-      <c r="V114" s="128"/>
-      <c r="W114" s="128"/>
-      <c r="X114" s="128"/>
       <c r="Y114" s="102"/>
       <c r="Z114" s="106"/>
-      <c r="AA114" s="128"/>
-      <c r="AB114" s="128"/>
-      <c r="AC114" s="128"/>
-      <c r="AD114" s="128"/>
-      <c r="AE114" s="128"/>
-      <c r="AF114" s="128"/>
-      <c r="AG114" s="128"/>
-      <c r="AH114" s="128"/>
-      <c r="AI114" s="128"/>
       <c r="AJ114" s="102"/>
-      <c r="AK114" s="128"/>
-      <c r="AL114" s="128"/>
-      <c r="AM114" s="128"/>
-      <c r="AN114" s="128"/>
-      <c r="AO114" s="128"/>
-      <c r="AP114" s="128"/>
-      <c r="AQ114" s="128"/>
-      <c r="AR114" s="128"/>
-      <c r="AS114" s="128"/>
-      <c r="AT114" s="128"/>
-      <c r="AU114" s="128"/>
       <c r="AV114" s="102"/>
     </row>
     <row r="115" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N115" s="106"/>
-      <c r="O115" s="128"/>
-      <c r="P115" s="128"/>
-      <c r="Q115" s="128"/>
-      <c r="R115" s="128"/>
-      <c r="S115" s="128"/>
-      <c r="T115" s="128"/>
-      <c r="U115" s="128"/>
-      <c r="V115" s="128"/>
-      <c r="W115" s="128"/>
-      <c r="X115" s="128"/>
       <c r="Y115" s="102"/>
       <c r="Z115" s="106"/>
-      <c r="AA115" s="128"/>
-      <c r="AB115" s="128"/>
-      <c r="AC115" s="128"/>
-      <c r="AD115" s="128"/>
-      <c r="AE115" s="128"/>
-      <c r="AF115" s="128"/>
-      <c r="AG115" s="128"/>
-      <c r="AH115" s="128"/>
-      <c r="AI115" s="128"/>
       <c r="AJ115" s="102"/>
-      <c r="AK115" s="128"/>
-      <c r="AL115" s="128"/>
-      <c r="AM115" s="128"/>
-      <c r="AN115" s="128"/>
-      <c r="AO115" s="128"/>
-      <c r="AP115" s="128"/>
-      <c r="AQ115" s="128"/>
-      <c r="AR115" s="128"/>
-      <c r="AS115" s="128"/>
-      <c r="AT115" s="128"/>
-      <c r="AU115" s="128"/>
       <c r="AV115" s="102"/>
     </row>
     <row r="116" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N116" s="106"/>
-      <c r="O116" s="128"/>
-      <c r="P116" s="128"/>
-      <c r="Q116" s="128"/>
-      <c r="R116" s="128"/>
-      <c r="S116" s="128"/>
-      <c r="T116" s="128"/>
-      <c r="U116" s="128"/>
-      <c r="V116" s="128"/>
-      <c r="W116" s="128"/>
-      <c r="X116" s="128"/>
       <c r="Y116" s="102"/>
       <c r="Z116" s="106"/>
-      <c r="AA116" s="128"/>
-      <c r="AB116" s="128"/>
-      <c r="AC116" s="128"/>
-      <c r="AD116" s="128"/>
-      <c r="AE116" s="128"/>
-      <c r="AF116" s="128"/>
-      <c r="AG116" s="128"/>
-      <c r="AH116" s="128"/>
-      <c r="AI116" s="128"/>
       <c r="AJ116" s="102"/>
-      <c r="AK116" s="128"/>
-      <c r="AL116" s="128"/>
-      <c r="AM116" s="128"/>
-      <c r="AN116" s="128"/>
-      <c r="AO116" s="128"/>
-      <c r="AP116" s="128"/>
-      <c r="AQ116" s="128"/>
-      <c r="AR116" s="128"/>
-      <c r="AS116" s="128"/>
-      <c r="AT116" s="128"/>
-      <c r="AU116" s="128"/>
       <c r="AV116" s="102"/>
     </row>
     <row r="117" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N117" s="106"/>
-      <c r="O117" s="128"/>
-      <c r="P117" s="128"/>
-      <c r="Q117" s="128"/>
-      <c r="R117" s="128"/>
-      <c r="S117" s="128"/>
-      <c r="T117" s="128"/>
-      <c r="U117" s="128"/>
-      <c r="V117" s="128"/>
-      <c r="W117" s="128"/>
-      <c r="X117" s="128"/>
       <c r="Y117" s="102"/>
       <c r="Z117" s="106"/>
-      <c r="AA117" s="128"/>
-      <c r="AB117" s="128"/>
-      <c r="AC117" s="128"/>
-      <c r="AD117" s="128"/>
-      <c r="AE117" s="128"/>
-      <c r="AF117" s="128"/>
-      <c r="AG117" s="128"/>
-      <c r="AH117" s="128"/>
-      <c r="AI117" s="128"/>
       <c r="AJ117" s="102"/>
-      <c r="AK117" s="128"/>
-      <c r="AL117" s="128"/>
-      <c r="AM117" s="128"/>
-      <c r="AN117" s="128"/>
-      <c r="AO117" s="128"/>
-      <c r="AP117" s="128"/>
-      <c r="AQ117" s="128"/>
-      <c r="AR117" s="128"/>
-      <c r="AS117" s="128"/>
-      <c r="AT117" s="128"/>
-      <c r="AU117" s="128"/>
       <c r="AV117" s="102"/>
     </row>
     <row r="118" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N118" s="106"/>
-      <c r="O118" s="128"/>
-      <c r="P118" s="128" t="s">
+      <c r="P118" t="s">
         <v>48</v>
       </c>
-      <c r="Q118" s="128"/>
-      <c r="R118" s="128"/>
-      <c r="S118" s="128"/>
-      <c r="T118" s="128"/>
-      <c r="U118" s="128"/>
-      <c r="V118" s="128"/>
-      <c r="W118" s="128"/>
-      <c r="X118" s="128"/>
       <c r="Y118" s="102"/>
       <c r="Z118" s="106"/>
-      <c r="AA118" s="128" t="s">
+      <c r="AA118" t="s">
         <v>58</v>
       </c>
-      <c r="AB118" s="128"/>
-      <c r="AC118" s="128"/>
-      <c r="AD118" s="128"/>
-      <c r="AE118" s="128"/>
-      <c r="AF118" s="128"/>
-      <c r="AG118" s="128"/>
-      <c r="AH118" s="128"/>
-      <c r="AI118" s="128"/>
       <c r="AJ118" s="102"/>
-      <c r="AK118" s="128"/>
-      <c r="AL118" s="128"/>
-      <c r="AM118" s="128"/>
-      <c r="AN118" s="128"/>
-      <c r="AO118" s="128"/>
-      <c r="AP118" s="128"/>
-      <c r="AQ118" s="128"/>
-      <c r="AR118" s="128"/>
-      <c r="AS118" s="128"/>
-      <c r="AT118" s="128"/>
-      <c r="AU118" s="128"/>
       <c r="AV118" s="102"/>
     </row>
     <row r="119" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N119" s="106"/>
-      <c r="O119" s="128"/>
-      <c r="P119" s="128"/>
-      <c r="Q119" s="128"/>
-      <c r="R119" s="128"/>
-      <c r="S119" s="128"/>
-      <c r="T119" s="128"/>
-      <c r="U119" s="128"/>
-      <c r="V119" s="128"/>
-      <c r="W119" s="128"/>
-      <c r="X119" s="128"/>
       <c r="Y119" s="102"/>
       <c r="Z119" s="106"/>
-      <c r="AA119" s="128"/>
-      <c r="AB119" s="128"/>
-      <c r="AC119" s="128"/>
-      <c r="AD119" s="128"/>
-      <c r="AE119" s="128"/>
-      <c r="AF119" s="128"/>
-      <c r="AG119" s="128"/>
-      <c r="AH119" s="128"/>
-      <c r="AI119" s="128"/>
       <c r="AJ119" s="102"/>
-      <c r="AK119" s="128"/>
-      <c r="AL119" s="128" t="s">
+      <c r="AL119" t="s">
         <v>68</v>
       </c>
-      <c r="AM119" s="128"/>
-      <c r="AN119" s="128"/>
-      <c r="AO119" s="128"/>
-      <c r="AP119" s="128"/>
-      <c r="AQ119" s="128"/>
-      <c r="AR119" s="128"/>
-      <c r="AS119" s="128"/>
-      <c r="AT119" s="128"/>
-      <c r="AU119" s="128"/>
       <c r="AV119" s="102"/>
     </row>
     <row r="120" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N120" s="106"/>
-      <c r="O120" s="128"/>
-      <c r="P120" s="128"/>
-      <c r="Q120" s="128"/>
-      <c r="R120" s="128"/>
-      <c r="S120" s="128"/>
-      <c r="T120" s="128"/>
-      <c r="U120" s="128"/>
-      <c r="V120" s="128"/>
-      <c r="W120" s="128"/>
-      <c r="X120" s="128"/>
       <c r="Y120" s="102"/>
       <c r="Z120" s="106"/>
-      <c r="AA120" s="128"/>
-      <c r="AB120" s="128"/>
-      <c r="AC120" s="128"/>
-      <c r="AD120" s="128"/>
-      <c r="AE120" s="128"/>
-      <c r="AF120" s="128"/>
-      <c r="AG120" s="128"/>
-      <c r="AH120" s="128"/>
-      <c r="AI120" s="128"/>
       <c r="AJ120" s="102"/>
-      <c r="AK120" s="128"/>
-      <c r="AL120" s="128"/>
-      <c r="AM120" s="128"/>
-      <c r="AN120" s="128"/>
-      <c r="AO120" s="128"/>
-      <c r="AP120" s="128"/>
-      <c r="AQ120" s="128"/>
-      <c r="AR120" s="128"/>
-      <c r="AS120" s="128"/>
-      <c r="AT120" s="128"/>
-      <c r="AU120" s="128"/>
       <c r="AV120" s="102"/>
     </row>
     <row r="121" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N121" s="106"/>
-      <c r="O121" s="128"/>
-      <c r="P121" s="128"/>
-      <c r="Q121" s="128"/>
-      <c r="R121" s="128"/>
-      <c r="S121" s="128"/>
-      <c r="T121" s="128"/>
-      <c r="U121" s="128"/>
-      <c r="V121" s="128"/>
-      <c r="W121" s="128"/>
-      <c r="X121" s="128"/>
       <c r="Y121" s="102"/>
       <c r="Z121" s="106"/>
-      <c r="AA121" s="128"/>
-      <c r="AB121" s="128"/>
-      <c r="AC121" s="128"/>
-      <c r="AD121" s="128"/>
-      <c r="AE121" s="128"/>
-      <c r="AF121" s="128"/>
-      <c r="AG121" s="128"/>
-      <c r="AH121" s="128"/>
-      <c r="AI121" s="128"/>
       <c r="AJ121" s="102"/>
-      <c r="AK121" s="128"/>
-      <c r="AL121" s="128"/>
-      <c r="AM121" s="128"/>
-      <c r="AN121" s="128"/>
-      <c r="AO121" s="128"/>
-      <c r="AP121" s="128"/>
-      <c r="AQ121" s="128"/>
-      <c r="AR121" s="128"/>
-      <c r="AS121" s="128"/>
-      <c r="AT121" s="128"/>
-      <c r="AU121" s="128"/>
       <c r="AV121" s="102"/>
     </row>
     <row r="122" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N122" s="106"/>
-      <c r="O122" s="128"/>
-      <c r="P122" s="128"/>
-      <c r="Q122" s="128"/>
-      <c r="R122" s="128"/>
-      <c r="S122" s="128"/>
-      <c r="T122" s="128"/>
-      <c r="U122" s="128"/>
-      <c r="V122" s="128"/>
-      <c r="W122" s="128"/>
-      <c r="X122" s="128"/>
       <c r="Y122" s="102"/>
       <c r="Z122" s="106"/>
-      <c r="AA122" s="128"/>
-      <c r="AB122" s="128"/>
-      <c r="AC122" s="128"/>
-      <c r="AD122" s="128"/>
-      <c r="AE122" s="128"/>
-      <c r="AF122" s="128"/>
-      <c r="AG122" s="128"/>
-      <c r="AH122" s="128"/>
-      <c r="AI122" s="128"/>
       <c r="AJ122" s="102"/>
-      <c r="AK122" s="128"/>
-      <c r="AL122" s="128"/>
-      <c r="AM122" s="128"/>
-      <c r="AN122" s="128"/>
-      <c r="AO122" s="128"/>
-      <c r="AP122" s="128"/>
-      <c r="AQ122" s="128"/>
-      <c r="AR122" s="128"/>
-      <c r="AS122" s="128"/>
-      <c r="AT122" s="128"/>
-      <c r="AU122" s="128"/>
       <c r="AV122" s="102"/>
     </row>
     <row r="123" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N123" s="106"/>
-      <c r="O123" s="128"/>
-      <c r="P123" s="128"/>
-      <c r="Q123" s="128"/>
-      <c r="R123" s="128"/>
-      <c r="S123" s="128"/>
-      <c r="T123" s="128"/>
-      <c r="U123" s="128"/>
-      <c r="V123" s="128"/>
-      <c r="W123" s="128"/>
-      <c r="X123" s="128"/>
       <c r="Y123" s="102"/>
       <c r="Z123" s="106"/>
-      <c r="AA123" s="128"/>
-      <c r="AB123" s="128"/>
-      <c r="AC123" s="128"/>
-      <c r="AD123" s="128"/>
-      <c r="AE123" s="128"/>
-      <c r="AF123" s="128"/>
-      <c r="AG123" s="128"/>
-      <c r="AH123" s="128"/>
-      <c r="AI123" s="128"/>
       <c r="AJ123" s="102"/>
-      <c r="AK123" s="128"/>
-      <c r="AL123" s="128"/>
-      <c r="AM123" s="128"/>
-      <c r="AN123" s="128"/>
-      <c r="AO123" s="128"/>
-      <c r="AP123" s="128"/>
-      <c r="AQ123" s="128"/>
-      <c r="AR123" s="128"/>
-      <c r="AS123" s="128"/>
-      <c r="AT123" s="128"/>
-      <c r="AU123" s="128"/>
       <c r="AV123" s="102"/>
     </row>
     <row r="124" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N124" s="106"/>
-      <c r="O124" s="128"/>
-      <c r="P124" s="128"/>
-      <c r="Q124" s="128"/>
-      <c r="R124" s="128"/>
-      <c r="S124" s="128"/>
-      <c r="T124" s="128"/>
-      <c r="U124" s="128"/>
-      <c r="V124" s="128"/>
-      <c r="W124" s="128"/>
-      <c r="X124" s="128"/>
       <c r="Y124" s="102"/>
       <c r="Z124" s="106"/>
-      <c r="AA124" s="128"/>
-      <c r="AB124" s="128"/>
-      <c r="AC124" s="128"/>
-      <c r="AD124" s="128"/>
-      <c r="AE124" s="128"/>
-      <c r="AF124" s="128"/>
-      <c r="AG124" s="128"/>
-      <c r="AH124" s="128"/>
-      <c r="AI124" s="128"/>
       <c r="AJ124" s="102"/>
-      <c r="AK124" s="128"/>
-      <c r="AL124" s="128"/>
-      <c r="AM124" s="128"/>
-      <c r="AN124" s="128"/>
-      <c r="AO124" s="128"/>
-      <c r="AP124" s="128"/>
-      <c r="AQ124" s="128"/>
-      <c r="AR124" s="128"/>
-      <c r="AS124" s="128"/>
-      <c r="AT124" s="128"/>
-      <c r="AU124" s="128"/>
       <c r="AV124" s="102"/>
     </row>
     <row r="125" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N125" s="106"/>
-      <c r="O125" s="128"/>
-      <c r="P125" s="128"/>
-      <c r="Q125" s="128"/>
-      <c r="R125" s="128"/>
-      <c r="S125" s="128"/>
-      <c r="T125" s="128"/>
-      <c r="U125" s="128"/>
-      <c r="V125" s="128"/>
-      <c r="W125" s="128"/>
-      <c r="X125" s="128"/>
       <c r="Y125" s="102"/>
       <c r="Z125" s="106"/>
-      <c r="AA125" s="128"/>
-      <c r="AB125" s="128"/>
-      <c r="AC125" s="128"/>
-      <c r="AD125" s="128"/>
-      <c r="AE125" s="128"/>
-      <c r="AF125" s="128"/>
-      <c r="AG125" s="128"/>
-      <c r="AH125" s="128"/>
-      <c r="AI125" s="128"/>
       <c r="AJ125" s="102"/>
-      <c r="AK125" s="128"/>
-      <c r="AL125" s="128"/>
-      <c r="AM125" s="128"/>
-      <c r="AN125" s="128"/>
-      <c r="AO125" s="128"/>
-      <c r="AP125" s="128"/>
-      <c r="AQ125" s="128"/>
-      <c r="AR125" s="128"/>
-      <c r="AS125" s="128"/>
-      <c r="AT125" s="128"/>
-      <c r="AU125" s="128"/>
       <c r="AV125" s="102"/>
     </row>
     <row r="126" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N126" s="106"/>
-      <c r="O126" s="128"/>
-      <c r="P126" s="128"/>
-      <c r="Q126" s="128"/>
-      <c r="R126" s="128"/>
-      <c r="S126" s="128"/>
-      <c r="T126" s="128"/>
-      <c r="U126" s="128"/>
-      <c r="V126" s="128"/>
-      <c r="W126" s="128"/>
-      <c r="X126" s="128"/>
       <c r="Y126" s="102"/>
       <c r="Z126" s="106"/>
-      <c r="AA126" s="128"/>
-      <c r="AB126" s="128"/>
-      <c r="AC126" s="128"/>
-      <c r="AD126" s="128"/>
-      <c r="AE126" s="128"/>
-      <c r="AF126" s="128"/>
-      <c r="AG126" s="128"/>
-      <c r="AH126" s="128"/>
-      <c r="AI126" s="128"/>
       <c r="AJ126" s="102"/>
-      <c r="AK126" s="128"/>
-      <c r="AL126" s="128"/>
-      <c r="AM126" s="128"/>
-      <c r="AN126" s="128"/>
-      <c r="AO126" s="128"/>
-      <c r="AP126" s="128"/>
-      <c r="AQ126" s="128"/>
-      <c r="AR126" s="128"/>
-      <c r="AS126" s="128"/>
-      <c r="AT126" s="128"/>
-      <c r="AU126" s="128"/>
       <c r="AV126" s="102"/>
     </row>
     <row r="127" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N127" s="106"/>
-      <c r="O127" s="128"/>
-      <c r="P127" s="128"/>
-      <c r="Q127" s="128"/>
-      <c r="R127" s="128"/>
-      <c r="S127" s="128"/>
-      <c r="T127" s="128"/>
-      <c r="U127" s="128"/>
-      <c r="V127" s="128"/>
-      <c r="W127" s="128"/>
-      <c r="X127" s="128"/>
       <c r="Y127" s="102"/>
       <c r="Z127" s="106"/>
-      <c r="AA127" s="128"/>
-      <c r="AB127" s="128"/>
-      <c r="AC127" s="128"/>
-      <c r="AD127" s="128"/>
-      <c r="AE127" s="128"/>
-      <c r="AF127" s="128"/>
-      <c r="AG127" s="128"/>
-      <c r="AH127" s="128"/>
-      <c r="AI127" s="128"/>
       <c r="AJ127" s="102"/>
-      <c r="AK127" s="128"/>
-      <c r="AL127" s="128"/>
-      <c r="AM127" s="128"/>
-      <c r="AN127" s="128"/>
-      <c r="AO127" s="128"/>
-      <c r="AP127" s="128"/>
-      <c r="AQ127" s="128"/>
-      <c r="AR127" s="128"/>
-      <c r="AS127" s="128"/>
-      <c r="AT127" s="128"/>
-      <c r="AU127" s="128"/>
       <c r="AV127" s="102"/>
     </row>
     <row r="128" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N128" s="106"/>
-      <c r="O128" s="128"/>
-      <c r="P128" s="128"/>
-      <c r="Q128" s="128"/>
-      <c r="R128" s="128"/>
-      <c r="S128" s="128"/>
-      <c r="T128" s="128"/>
-      <c r="U128" s="128"/>
-      <c r="V128" s="128"/>
-      <c r="W128" s="128"/>
-      <c r="X128" s="128"/>
       <c r="Y128" s="102"/>
       <c r="Z128" s="106"/>
-      <c r="AA128" s="128"/>
-      <c r="AB128" s="128"/>
-      <c r="AC128" s="128"/>
-      <c r="AD128" s="128"/>
-      <c r="AE128" s="128"/>
-      <c r="AF128" s="128"/>
-      <c r="AG128" s="128"/>
-      <c r="AH128" s="128"/>
-      <c r="AI128" s="128"/>
       <c r="AJ128" s="102"/>
-      <c r="AK128" s="128"/>
-      <c r="AL128" s="128"/>
-      <c r="AM128" s="128"/>
-      <c r="AN128" s="128"/>
-      <c r="AO128" s="128"/>
-      <c r="AP128" s="128"/>
-      <c r="AQ128" s="128"/>
-      <c r="AR128" s="128"/>
-      <c r="AS128" s="128"/>
-      <c r="AT128" s="128"/>
-      <c r="AU128" s="128"/>
       <c r="AV128" s="102"/>
     </row>
     <row r="129" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N129" s="106"/>
-      <c r="O129" s="128"/>
-      <c r="P129" s="128"/>
-      <c r="Q129" s="128"/>
-      <c r="R129" s="128"/>
-      <c r="S129" s="128"/>
-      <c r="T129" s="128"/>
-      <c r="U129" s="128"/>
-      <c r="V129" s="128"/>
-      <c r="W129" s="128"/>
-      <c r="X129" s="128"/>
       <c r="Y129" s="102"/>
       <c r="Z129" s="106"/>
-      <c r="AA129" s="128"/>
-      <c r="AB129" s="128"/>
-      <c r="AC129" s="128"/>
-      <c r="AD129" s="128"/>
-      <c r="AE129" s="128"/>
-      <c r="AF129" s="128"/>
-      <c r="AG129" s="128"/>
-      <c r="AH129" s="128"/>
-      <c r="AI129" s="128"/>
       <c r="AJ129" s="102"/>
-      <c r="AK129" s="128"/>
-      <c r="AL129" s="128"/>
-      <c r="AM129" s="128"/>
-      <c r="AN129" s="128"/>
-      <c r="AO129" s="128"/>
-      <c r="AP129" s="128"/>
-      <c r="AQ129" s="128"/>
-      <c r="AR129" s="128"/>
-      <c r="AS129" s="128"/>
-      <c r="AT129" s="128"/>
-      <c r="AU129" s="128"/>
       <c r="AV129" s="102"/>
     </row>
     <row r="130" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N130" s="106"/>
-      <c r="O130" s="128"/>
-      <c r="P130" s="128"/>
-      <c r="Q130" s="128"/>
-      <c r="R130" s="128"/>
-      <c r="S130" s="128"/>
-      <c r="T130" s="128"/>
-      <c r="U130" s="128"/>
-      <c r="V130" s="128"/>
-      <c r="W130" s="128"/>
-      <c r="X130" s="128"/>
       <c r="Y130" s="102"/>
       <c r="Z130" s="106"/>
-      <c r="AA130" s="128"/>
-      <c r="AB130" s="128"/>
-      <c r="AC130" s="128"/>
-      <c r="AD130" s="128"/>
-      <c r="AE130" s="128"/>
-      <c r="AF130" s="128"/>
-      <c r="AG130" s="128"/>
-      <c r="AH130" s="128"/>
-      <c r="AI130" s="128"/>
       <c r="AJ130" s="102"/>
-      <c r="AK130" s="128"/>
-      <c r="AL130" s="128"/>
-      <c r="AM130" s="128"/>
-      <c r="AN130" s="128"/>
-      <c r="AO130" s="128"/>
-      <c r="AP130" s="128"/>
-      <c r="AQ130" s="128"/>
-      <c r="AR130" s="128"/>
-      <c r="AS130" s="128"/>
-      <c r="AT130" s="128"/>
-      <c r="AU130" s="128"/>
       <c r="AV130" s="102"/>
     </row>
     <row r="131" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N131" s="106"/>
-      <c r="O131" s="128"/>
-      <c r="P131" s="128"/>
-      <c r="Q131" s="128"/>
-      <c r="R131" s="128"/>
-      <c r="S131" s="128"/>
-      <c r="T131" s="128"/>
-      <c r="U131" s="128"/>
-      <c r="V131" s="128"/>
-      <c r="W131" s="128"/>
-      <c r="X131" s="128"/>
       <c r="Y131" s="102"/>
       <c r="Z131" s="106"/>
-      <c r="AA131" s="128"/>
-      <c r="AB131" s="128"/>
-      <c r="AC131" s="128"/>
-      <c r="AD131" s="128"/>
-      <c r="AE131" s="128"/>
-      <c r="AF131" s="128"/>
-      <c r="AG131" s="128"/>
-      <c r="AH131" s="128"/>
-      <c r="AI131" s="128"/>
       <c r="AJ131" s="102"/>
-      <c r="AK131" s="128"/>
-      <c r="AL131" s="128"/>
-      <c r="AM131" s="128"/>
-      <c r="AN131" s="128"/>
-      <c r="AO131" s="128"/>
-      <c r="AP131" s="128"/>
-      <c r="AQ131" s="128"/>
-      <c r="AR131" s="128"/>
-      <c r="AS131" s="128"/>
-      <c r="AT131" s="128"/>
-      <c r="AU131" s="128"/>
       <c r="AV131" s="102"/>
     </row>
     <row r="132" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N132" s="106"/>
-      <c r="O132" s="128"/>
-      <c r="P132" s="128"/>
-      <c r="Q132" s="128"/>
-      <c r="R132" s="128"/>
-      <c r="S132" s="128"/>
-      <c r="T132" s="128"/>
-      <c r="U132" s="128"/>
-      <c r="V132" s="128"/>
-      <c r="W132" s="128"/>
-      <c r="X132" s="128"/>
       <c r="Y132" s="102"/>
       <c r="Z132" s="106"/>
-      <c r="AA132" s="128"/>
-      <c r="AB132" s="128"/>
-      <c r="AC132" s="128"/>
-      <c r="AD132" s="128"/>
-      <c r="AE132" s="128"/>
-      <c r="AF132" s="128"/>
-      <c r="AG132" s="128"/>
-      <c r="AH132" s="128"/>
-      <c r="AI132" s="128"/>
       <c r="AJ132" s="102"/>
-      <c r="AK132" s="128"/>
-      <c r="AL132" s="128"/>
-      <c r="AM132" s="128"/>
-      <c r="AN132" s="128"/>
-      <c r="AO132" s="128"/>
-      <c r="AP132" s="128"/>
-      <c r="AQ132" s="128"/>
-      <c r="AR132" s="128"/>
-      <c r="AS132" s="128"/>
-      <c r="AT132" s="128"/>
-      <c r="AU132" s="128"/>
       <c r="AV132" s="102"/>
     </row>
     <row r="133" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N133" s="106"/>
-      <c r="O133" s="128"/>
-      <c r="P133" s="128"/>
-      <c r="Q133" s="128"/>
-      <c r="R133" s="128"/>
-      <c r="S133" s="128"/>
-      <c r="T133" s="128"/>
-      <c r="U133" s="128"/>
-      <c r="V133" s="128"/>
-      <c r="W133" s="128"/>
-      <c r="X133" s="128"/>
       <c r="Y133" s="102"/>
       <c r="Z133" s="106"/>
-      <c r="AA133" s="128"/>
-      <c r="AB133" s="128"/>
-      <c r="AC133" s="128"/>
-      <c r="AD133" s="128"/>
-      <c r="AE133" s="128"/>
-      <c r="AF133" s="128"/>
-      <c r="AG133" s="128"/>
-      <c r="AH133" s="128"/>
-      <c r="AI133" s="128"/>
       <c r="AJ133" s="102"/>
-      <c r="AK133" s="128"/>
-      <c r="AL133" s="128"/>
-      <c r="AM133" s="128"/>
-      <c r="AN133" s="128"/>
-      <c r="AO133" s="128"/>
-      <c r="AP133" s="128"/>
-      <c r="AQ133" s="128"/>
-      <c r="AR133" s="128"/>
-      <c r="AS133" s="128"/>
-      <c r="AT133" s="128"/>
-      <c r="AU133" s="128"/>
       <c r="AV133" s="102"/>
     </row>
     <row r="134" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N134" s="106"/>
-      <c r="O134" s="128"/>
-      <c r="P134" s="128"/>
-      <c r="Q134" s="128"/>
-      <c r="R134" s="128"/>
-      <c r="S134" s="128"/>
-      <c r="T134" s="128"/>
-      <c r="U134" s="128"/>
-      <c r="V134" s="128"/>
-      <c r="W134" s="128"/>
-      <c r="X134" s="128"/>
       <c r="Y134" s="102"/>
       <c r="Z134" s="106"/>
-      <c r="AA134" s="128"/>
-      <c r="AB134" s="128"/>
-      <c r="AC134" s="128"/>
-      <c r="AD134" s="128"/>
-      <c r="AE134" s="128"/>
-      <c r="AF134" s="128"/>
-      <c r="AG134" s="128"/>
-      <c r="AH134" s="128"/>
-      <c r="AI134" s="128"/>
       <c r="AJ134" s="102"/>
-      <c r="AK134" s="128"/>
-      <c r="AL134" s="128"/>
-      <c r="AM134" s="128"/>
-      <c r="AN134" s="128"/>
-      <c r="AO134" s="128"/>
-      <c r="AP134" s="128"/>
-      <c r="AQ134" s="128"/>
-      <c r="AR134" s="128"/>
-      <c r="AS134" s="128"/>
-      <c r="AT134" s="128"/>
-      <c r="AU134" s="128"/>
       <c r="AV134" s="102"/>
     </row>
     <row r="135" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N135" s="106"/>
-      <c r="O135" s="128"/>
-      <c r="P135" s="128"/>
-      <c r="Q135" s="128"/>
-      <c r="R135" s="128"/>
-      <c r="S135" s="128"/>
-      <c r="T135" s="128"/>
-      <c r="U135" s="128"/>
-      <c r="V135" s="128"/>
-      <c r="W135" s="128"/>
-      <c r="X135" s="128"/>
       <c r="Y135" s="102"/>
       <c r="Z135" s="106"/>
-      <c r="AA135" s="128"/>
-      <c r="AB135" s="128"/>
-      <c r="AC135" s="128"/>
-      <c r="AD135" s="128"/>
-      <c r="AE135" s="128"/>
-      <c r="AF135" s="128"/>
-      <c r="AG135" s="128"/>
-      <c r="AH135" s="128"/>
-      <c r="AI135" s="128"/>
       <c r="AJ135" s="102"/>
-      <c r="AK135" s="128"/>
-      <c r="AL135" s="128"/>
-      <c r="AM135" s="128"/>
-      <c r="AN135" s="128"/>
-      <c r="AO135" s="128"/>
-      <c r="AP135" s="128"/>
-      <c r="AQ135" s="128"/>
-      <c r="AR135" s="128"/>
-      <c r="AS135" s="128"/>
-      <c r="AT135" s="128"/>
-      <c r="AU135" s="128"/>
       <c r="AV135" s="102"/>
     </row>
     <row r="136" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N136" s="106"/>
-      <c r="O136" s="128"/>
-      <c r="P136" s="128"/>
-      <c r="Q136" s="128"/>
-      <c r="R136" s="128"/>
-      <c r="S136" s="128"/>
-      <c r="T136" s="128"/>
-      <c r="U136" s="128"/>
-      <c r="V136" s="128"/>
-      <c r="W136" s="128"/>
-      <c r="X136" s="128"/>
       <c r="Y136" s="102"/>
       <c r="Z136" s="106"/>
-      <c r="AA136" s="128"/>
-      <c r="AB136" s="128"/>
-      <c r="AC136" s="128"/>
-      <c r="AD136" s="128"/>
-      <c r="AE136" s="128"/>
-      <c r="AF136" s="128"/>
-      <c r="AG136" s="128"/>
-      <c r="AH136" s="128"/>
-      <c r="AI136" s="128"/>
       <c r="AJ136" s="102"/>
-      <c r="AK136" s="128"/>
-      <c r="AL136" s="128"/>
-      <c r="AM136" s="128"/>
-      <c r="AN136" s="128"/>
-      <c r="AO136" s="128"/>
-      <c r="AP136" s="128"/>
-      <c r="AQ136" s="128"/>
-      <c r="AR136" s="128"/>
-      <c r="AS136" s="128"/>
-      <c r="AT136" s="128"/>
-      <c r="AU136" s="128"/>
       <c r="AV136" s="102"/>
     </row>
     <row r="137" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N137" s="106"/>
-      <c r="O137" s="128"/>
-      <c r="P137" s="128"/>
-      <c r="Q137" s="128"/>
-      <c r="R137" s="128"/>
-      <c r="S137" s="128"/>
-      <c r="T137" s="128"/>
-      <c r="U137" s="128"/>
-      <c r="V137" s="128"/>
-      <c r="W137" s="128"/>
-      <c r="X137" s="128"/>
       <c r="Y137" s="102"/>
       <c r="Z137" s="106"/>
-      <c r="AA137" s="128"/>
-      <c r="AB137" s="128"/>
-      <c r="AC137" s="128"/>
-      <c r="AD137" s="128"/>
-      <c r="AE137" s="128"/>
-      <c r="AF137" s="128"/>
-      <c r="AG137" s="128"/>
-      <c r="AH137" s="128"/>
-      <c r="AI137" s="128"/>
       <c r="AJ137" s="102"/>
-      <c r="AK137" s="128"/>
-      <c r="AL137" s="128"/>
-      <c r="AM137" s="128"/>
-      <c r="AN137" s="128"/>
-      <c r="AO137" s="128"/>
-      <c r="AP137" s="128"/>
-      <c r="AQ137" s="128"/>
-      <c r="AR137" s="128"/>
-      <c r="AS137" s="128"/>
-      <c r="AT137" s="128"/>
-      <c r="AU137" s="128"/>
       <c r="AV137" s="102"/>
     </row>
     <row r="138" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N138" s="106"/>
-      <c r="O138" s="128"/>
-      <c r="P138" s="128"/>
-      <c r="Q138" s="128"/>
-      <c r="R138" s="128"/>
-      <c r="S138" s="128"/>
-      <c r="T138" s="128"/>
-      <c r="U138" s="128"/>
-      <c r="V138" s="128"/>
-      <c r="W138" s="128"/>
-      <c r="X138" s="128"/>
       <c r="Y138" s="102"/>
       <c r="Z138" s="106"/>
-      <c r="AA138" s="128"/>
-      <c r="AB138" s="128"/>
-      <c r="AC138" s="128"/>
-      <c r="AD138" s="128"/>
-      <c r="AE138" s="128"/>
-      <c r="AF138" s="128"/>
-      <c r="AG138" s="128"/>
-      <c r="AH138" s="128"/>
-      <c r="AI138" s="128"/>
       <c r="AJ138" s="102"/>
-      <c r="AK138" s="128"/>
-      <c r="AL138" s="128"/>
-      <c r="AM138" s="128"/>
-      <c r="AN138" s="128"/>
-      <c r="AO138" s="128"/>
-      <c r="AP138" s="128"/>
-      <c r="AQ138" s="128"/>
-      <c r="AR138" s="128"/>
-      <c r="AS138" s="128"/>
-      <c r="AT138" s="128"/>
-      <c r="AU138" s="128"/>
       <c r="AV138" s="102"/>
     </row>
     <row r="139" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N139" s="106"/>
-      <c r="O139" s="128"/>
-      <c r="P139" s="128"/>
-      <c r="Q139" s="128"/>
-      <c r="R139" s="128"/>
-      <c r="S139" s="128"/>
-      <c r="T139" s="128"/>
-      <c r="U139" s="128"/>
-      <c r="V139" s="128"/>
-      <c r="W139" s="128"/>
-      <c r="X139" s="128"/>
       <c r="Y139" s="102"/>
       <c r="Z139" s="106"/>
-      <c r="AA139" s="128"/>
-      <c r="AB139" s="128"/>
-      <c r="AC139" s="128"/>
-      <c r="AD139" s="128"/>
-      <c r="AE139" s="128"/>
-      <c r="AF139" s="128"/>
-      <c r="AG139" s="128"/>
-      <c r="AH139" s="128"/>
-      <c r="AI139" s="128"/>
       <c r="AJ139" s="102"/>
-      <c r="AK139" s="128"/>
-      <c r="AL139" s="128"/>
-      <c r="AM139" s="128"/>
-      <c r="AN139" s="128"/>
-      <c r="AO139" s="128"/>
-      <c r="AP139" s="128"/>
-      <c r="AQ139" s="128"/>
-      <c r="AR139" s="128"/>
-      <c r="AS139" s="128"/>
-      <c r="AT139" s="128"/>
-      <c r="AU139" s="128"/>
       <c r="AV139" s="102"/>
     </row>
     <row r="140" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N140" s="106"/>
-      <c r="O140" s="128"/>
-      <c r="P140" s="128"/>
-      <c r="Q140" s="128"/>
-      <c r="R140" s="128"/>
-      <c r="S140" s="128"/>
-      <c r="T140" s="128"/>
-      <c r="U140" s="128"/>
-      <c r="V140" s="128"/>
-      <c r="W140" s="128"/>
-      <c r="X140" s="128"/>
       <c r="Y140" s="102"/>
       <c r="Z140" s="106"/>
-      <c r="AA140" s="128"/>
-      <c r="AB140" s="128"/>
-      <c r="AC140" s="128"/>
-      <c r="AD140" s="128"/>
-      <c r="AE140" s="128"/>
-      <c r="AF140" s="128"/>
-      <c r="AG140" s="128"/>
-      <c r="AH140" s="128"/>
-      <c r="AI140" s="128"/>
       <c r="AJ140" s="102"/>
-      <c r="AK140" s="128"/>
-      <c r="AL140" s="128"/>
-      <c r="AM140" s="128"/>
-      <c r="AN140" s="128"/>
-      <c r="AO140" s="128"/>
-      <c r="AP140" s="128"/>
-      <c r="AQ140" s="128"/>
-      <c r="AR140" s="128"/>
-      <c r="AS140" s="128"/>
-      <c r="AT140" s="128"/>
-      <c r="AU140" s="128"/>
       <c r="AV140" s="102"/>
     </row>
     <row r="141" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N141" s="106"/>
-      <c r="O141" s="128"/>
-      <c r="P141" s="128"/>
-      <c r="Q141" s="128"/>
-      <c r="R141" s="128"/>
-      <c r="S141" s="128"/>
-      <c r="T141" s="128"/>
-      <c r="U141" s="128"/>
-      <c r="V141" s="128"/>
-      <c r="W141" s="128"/>
-      <c r="X141" s="128"/>
       <c r="Y141" s="102"/>
       <c r="Z141" s="106"/>
-      <c r="AA141" s="128"/>
-      <c r="AB141" s="128"/>
-      <c r="AC141" s="128"/>
-      <c r="AD141" s="128"/>
-      <c r="AE141" s="128"/>
-      <c r="AF141" s="128"/>
-      <c r="AG141" s="128"/>
-      <c r="AH141" s="128"/>
-      <c r="AI141" s="128"/>
       <c r="AJ141" s="102"/>
-      <c r="AK141" s="128"/>
-      <c r="AL141" s="128"/>
-      <c r="AM141" s="128"/>
-      <c r="AN141" s="128"/>
-      <c r="AO141" s="128"/>
-      <c r="AP141" s="128"/>
-      <c r="AQ141" s="128"/>
-      <c r="AR141" s="128"/>
-      <c r="AS141" s="128"/>
-      <c r="AT141" s="128"/>
-      <c r="AU141" s="128"/>
       <c r="AV141" s="102"/>
     </row>
     <row r="142" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N142" s="106"/>
-      <c r="O142" s="128"/>
-      <c r="P142" s="128"/>
-      <c r="Q142" s="128"/>
-      <c r="R142" s="128"/>
-      <c r="S142" s="128"/>
-      <c r="T142" s="128"/>
-      <c r="U142" s="128"/>
-      <c r="V142" s="128"/>
-      <c r="W142" s="128"/>
-      <c r="X142" s="128"/>
       <c r="Y142" s="102"/>
       <c r="Z142" s="106"/>
-      <c r="AA142" s="128"/>
-      <c r="AB142" s="128"/>
-      <c r="AC142" s="128"/>
-      <c r="AD142" s="128"/>
-      <c r="AE142" s="128"/>
-      <c r="AF142" s="128"/>
-      <c r="AG142" s="128"/>
-      <c r="AH142" s="128"/>
-      <c r="AI142" s="128"/>
       <c r="AJ142" s="102"/>
-      <c r="AK142" s="128"/>
-      <c r="AL142" s="128"/>
-      <c r="AM142" s="128"/>
-      <c r="AN142" s="128"/>
-      <c r="AO142" s="128"/>
-      <c r="AP142" s="128"/>
-      <c r="AQ142" s="128"/>
-      <c r="AR142" s="128"/>
-      <c r="AS142" s="128"/>
-      <c r="AT142" s="128"/>
-      <c r="AU142" s="128"/>
       <c r="AV142" s="102"/>
     </row>
     <row r="143" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N143" s="106"/>
-      <c r="O143" s="128"/>
-      <c r="P143" s="128"/>
-      <c r="Q143" s="128"/>
-      <c r="R143" s="128"/>
-      <c r="S143" s="128"/>
-      <c r="T143" s="128"/>
-      <c r="U143" s="128"/>
-      <c r="V143" s="128"/>
-      <c r="W143" s="128"/>
-      <c r="X143" s="128"/>
       <c r="Y143" s="102"/>
       <c r="Z143" s="106"/>
-      <c r="AA143" s="128"/>
-      <c r="AB143" s="128"/>
-      <c r="AC143" s="128"/>
-      <c r="AD143" s="128"/>
-      <c r="AE143" s="128"/>
-      <c r="AF143" s="128"/>
-      <c r="AG143" s="128"/>
-      <c r="AH143" s="128"/>
-      <c r="AI143" s="128"/>
       <c r="AJ143" s="102"/>
-      <c r="AK143" s="128"/>
-      <c r="AL143" s="128"/>
-      <c r="AM143" s="128"/>
-      <c r="AN143" s="128"/>
-      <c r="AO143" s="128"/>
-      <c r="AP143" s="128"/>
-      <c r="AQ143" s="128"/>
-      <c r="AR143" s="128"/>
-      <c r="AS143" s="128"/>
-      <c r="AT143" s="128"/>
-      <c r="AU143" s="128"/>
       <c r="AV143" s="102"/>
     </row>
     <row r="144" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N144" s="106"/>
-      <c r="O144" s="128"/>
-      <c r="P144" s="128" t="s">
+      <c r="P144" t="s">
         <v>49</v>
       </c>
-      <c r="Q144" s="128"/>
-      <c r="R144" s="128"/>
-      <c r="S144" s="128"/>
-      <c r="T144" s="128"/>
-      <c r="U144" s="128"/>
-      <c r="V144" s="128"/>
-      <c r="W144" s="128"/>
-      <c r="X144" s="128"/>
       <c r="Y144" s="102"/>
       <c r="Z144" s="106"/>
-      <c r="AA144" s="128" t="s">
+      <c r="AA144" t="s">
         <v>59</v>
       </c>
-      <c r="AB144" s="128"/>
-      <c r="AC144" s="128"/>
-      <c r="AD144" s="128"/>
-      <c r="AE144" s="128"/>
-      <c r="AF144" s="128"/>
-      <c r="AG144" s="128"/>
-      <c r="AH144" s="128"/>
-      <c r="AI144" s="128"/>
       <c r="AJ144" s="102"/>
-      <c r="AK144" s="128"/>
-      <c r="AL144" s="128"/>
-      <c r="AM144" s="128"/>
-      <c r="AN144" s="128"/>
-      <c r="AO144" s="128"/>
-      <c r="AP144" s="128"/>
-      <c r="AQ144" s="128"/>
-      <c r="AR144" s="128"/>
-      <c r="AS144" s="128"/>
-      <c r="AT144" s="128"/>
-      <c r="AU144" s="128"/>
       <c r="AV144" s="102"/>
     </row>
     <row r="145" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N145" s="106"/>
-      <c r="O145" s="128"/>
-      <c r="P145" s="128"/>
-      <c r="Q145" s="128"/>
-      <c r="R145" s="128"/>
-      <c r="S145" s="128"/>
-      <c r="T145" s="128"/>
-      <c r="U145" s="128"/>
-      <c r="V145" s="128"/>
-      <c r="W145" s="128"/>
-      <c r="X145" s="128"/>
       <c r="Y145" s="102"/>
       <c r="Z145" s="106"/>
-      <c r="AA145" s="128"/>
-      <c r="AB145" s="128"/>
-      <c r="AC145" s="128"/>
-      <c r="AD145" s="128"/>
-      <c r="AE145" s="128"/>
-      <c r="AF145" s="128"/>
-      <c r="AG145" s="128"/>
-      <c r="AH145" s="128"/>
-      <c r="AI145" s="128"/>
       <c r="AJ145" s="102"/>
-      <c r="AK145" s="128"/>
-      <c r="AL145" s="128" t="s">
+      <c r="AL145" t="s">
         <v>69</v>
       </c>
-      <c r="AM145" s="128"/>
-      <c r="AN145" s="128"/>
-      <c r="AO145" s="128"/>
-      <c r="AP145" s="128"/>
-      <c r="AQ145" s="128"/>
-      <c r="AR145" s="128"/>
-      <c r="AS145" s="128"/>
-      <c r="AT145" s="128"/>
-      <c r="AU145" s="128"/>
       <c r="AV145" s="102"/>
     </row>
     <row r="146" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N146" s="106"/>
-      <c r="O146" s="128"/>
-      <c r="P146" s="128"/>
-      <c r="Q146" s="128"/>
-      <c r="R146" s="128"/>
-      <c r="S146" s="128"/>
-      <c r="T146" s="128"/>
-      <c r="U146" s="128"/>
-      <c r="V146" s="128"/>
-      <c r="W146" s="128"/>
-      <c r="X146" s="128"/>
       <c r="Y146" s="102"/>
       <c r="Z146" s="106"/>
-      <c r="AA146" s="128"/>
-      <c r="AB146" s="128"/>
-      <c r="AC146" s="128"/>
-      <c r="AD146" s="128"/>
-      <c r="AE146" s="128"/>
-      <c r="AF146" s="128"/>
-      <c r="AG146" s="128"/>
-      <c r="AH146" s="128"/>
-      <c r="AI146" s="128"/>
       <c r="AJ146" s="102"/>
-      <c r="AK146" s="128"/>
-      <c r="AL146" s="128"/>
-      <c r="AM146" s="128"/>
-      <c r="AN146" s="128"/>
-      <c r="AO146" s="128"/>
-      <c r="AP146" s="128"/>
-      <c r="AQ146" s="128"/>
-      <c r="AR146" s="128"/>
-      <c r="AS146" s="128"/>
-      <c r="AT146" s="128"/>
-      <c r="AU146" s="128"/>
       <c r="AV146" s="102"/>
     </row>
     <row r="147" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N147" s="106"/>
-      <c r="O147" s="128"/>
-      <c r="P147" s="128"/>
-      <c r="Q147" s="128"/>
-      <c r="R147" s="128"/>
-      <c r="S147" s="128"/>
-      <c r="T147" s="128"/>
-      <c r="U147" s="128"/>
-      <c r="V147" s="128"/>
-      <c r="W147" s="128"/>
-      <c r="X147" s="128"/>
       <c r="Y147" s="102"/>
       <c r="Z147" s="106"/>
-      <c r="AA147" s="128"/>
-      <c r="AB147" s="128"/>
-      <c r="AC147" s="128"/>
-      <c r="AD147" s="128"/>
-      <c r="AE147" s="128"/>
-      <c r="AF147" s="128"/>
-      <c r="AG147" s="128"/>
-      <c r="AH147" s="128"/>
-      <c r="AI147" s="128"/>
       <c r="AJ147" s="102"/>
-      <c r="AK147" s="128"/>
-      <c r="AL147" s="128"/>
-      <c r="AM147" s="128"/>
-      <c r="AN147" s="128"/>
-      <c r="AO147" s="128"/>
-      <c r="AP147" s="128"/>
-      <c r="AQ147" s="128"/>
-      <c r="AR147" s="128"/>
-      <c r="AS147" s="128"/>
-      <c r="AT147" s="128"/>
-      <c r="AU147" s="128"/>
       <c r="AV147" s="102"/>
     </row>
     <row r="148" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N148" s="106"/>
-      <c r="O148" s="128"/>
-      <c r="P148" s="128"/>
-      <c r="Q148" s="128"/>
-      <c r="R148" s="128"/>
-      <c r="S148" s="128"/>
-      <c r="T148" s="128"/>
-      <c r="U148" s="128"/>
-      <c r="V148" s="128"/>
-      <c r="W148" s="128"/>
-      <c r="X148" s="128"/>
       <c r="Y148" s="102"/>
       <c r="Z148" s="106"/>
-      <c r="AA148" s="128"/>
-      <c r="AB148" s="128"/>
-      <c r="AC148" s="128"/>
-      <c r="AD148" s="128"/>
-      <c r="AE148" s="128"/>
-      <c r="AF148" s="128"/>
-      <c r="AG148" s="128"/>
-      <c r="AH148" s="128"/>
-      <c r="AI148" s="128"/>
       <c r="AJ148" s="102"/>
-      <c r="AK148" s="128"/>
-      <c r="AL148" s="128"/>
-      <c r="AM148" s="128"/>
-      <c r="AN148" s="128"/>
-      <c r="AO148" s="128"/>
-      <c r="AP148" s="128"/>
-      <c r="AQ148" s="128"/>
-      <c r="AR148" s="128"/>
-      <c r="AS148" s="128"/>
-      <c r="AT148" s="128"/>
-      <c r="AU148" s="128"/>
       <c r="AV148" s="102"/>
     </row>
     <row r="149" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N149" s="106"/>
-      <c r="O149" s="128"/>
-      <c r="P149" s="128"/>
-      <c r="Q149" s="128"/>
-      <c r="R149" s="128"/>
-      <c r="S149" s="128"/>
-      <c r="T149" s="128"/>
-      <c r="U149" s="128"/>
-      <c r="V149" s="128"/>
-      <c r="W149" s="128"/>
-      <c r="X149" s="128"/>
       <c r="Y149" s="102"/>
       <c r="Z149" s="106"/>
-      <c r="AA149" s="128"/>
-      <c r="AB149" s="128"/>
-      <c r="AC149" s="128"/>
-      <c r="AD149" s="128"/>
-      <c r="AE149" s="128"/>
-      <c r="AF149" s="128"/>
-      <c r="AG149" s="128"/>
-      <c r="AH149" s="128"/>
-      <c r="AI149" s="128"/>
       <c r="AJ149" s="102"/>
-      <c r="AK149" s="128"/>
-      <c r="AL149" s="128"/>
-      <c r="AM149" s="128"/>
-      <c r="AN149" s="128"/>
-      <c r="AO149" s="128"/>
-      <c r="AP149" s="128"/>
-      <c r="AQ149" s="128"/>
-      <c r="AR149" s="128"/>
-      <c r="AS149" s="128"/>
-      <c r="AT149" s="128"/>
-      <c r="AU149" s="128"/>
       <c r="AV149" s="102"/>
     </row>
     <row r="150" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N150" s="106"/>
-      <c r="O150" s="128"/>
-      <c r="P150" s="128"/>
-      <c r="Q150" s="128"/>
-      <c r="R150" s="128"/>
-      <c r="S150" s="128"/>
-      <c r="T150" s="128"/>
-      <c r="U150" s="128"/>
-      <c r="V150" s="128"/>
-      <c r="W150" s="128"/>
-      <c r="X150" s="128"/>
       <c r="Y150" s="102"/>
       <c r="Z150" s="106"/>
-      <c r="AA150" s="128"/>
-      <c r="AB150" s="128"/>
-      <c r="AC150" s="128"/>
-      <c r="AD150" s="128"/>
-      <c r="AE150" s="128"/>
-      <c r="AF150" s="128"/>
-      <c r="AG150" s="128"/>
-      <c r="AH150" s="128"/>
-      <c r="AI150" s="128"/>
       <c r="AJ150" s="102"/>
-      <c r="AK150" s="128"/>
-      <c r="AL150" s="128"/>
-      <c r="AM150" s="128"/>
-      <c r="AN150" s="128"/>
-      <c r="AO150" s="128"/>
-      <c r="AP150" s="128"/>
-      <c r="AQ150" s="128"/>
-      <c r="AR150" s="128"/>
-      <c r="AS150" s="128"/>
-      <c r="AT150" s="128"/>
-      <c r="AU150" s="128"/>
       <c r="AV150" s="102"/>
     </row>
     <row r="151" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N151" s="106"/>
-      <c r="O151" s="128"/>
-      <c r="P151" s="128"/>
-      <c r="Q151" s="128"/>
-      <c r="R151" s="128"/>
-      <c r="S151" s="128"/>
-      <c r="T151" s="128"/>
-      <c r="U151" s="128"/>
-      <c r="V151" s="128"/>
-      <c r="W151" s="128"/>
-      <c r="X151" s="128"/>
       <c r="Y151" s="102"/>
       <c r="Z151" s="106"/>
-      <c r="AA151" s="128"/>
-      <c r="AB151" s="128"/>
-      <c r="AC151" s="128"/>
-      <c r="AD151" s="128"/>
-      <c r="AE151" s="128"/>
-      <c r="AF151" s="128"/>
-      <c r="AG151" s="128"/>
-      <c r="AH151" s="128"/>
-      <c r="AI151" s="128"/>
       <c r="AJ151" s="102"/>
-      <c r="AK151" s="128"/>
-      <c r="AL151" s="128"/>
-      <c r="AM151" s="128"/>
-      <c r="AN151" s="128"/>
-      <c r="AO151" s="128"/>
-      <c r="AP151" s="128"/>
-      <c r="AQ151" s="128"/>
-      <c r="AR151" s="128"/>
-      <c r="AS151" s="128"/>
-      <c r="AT151" s="128"/>
-      <c r="AU151" s="128"/>
       <c r="AV151" s="102"/>
     </row>
     <row r="152" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N152" s="106"/>
-      <c r="O152" s="128"/>
-      <c r="P152" s="128"/>
-      <c r="Q152" s="128"/>
-      <c r="R152" s="128"/>
-      <c r="S152" s="128"/>
-      <c r="T152" s="128"/>
-      <c r="U152" s="128"/>
-      <c r="V152" s="128"/>
-      <c r="W152" s="128"/>
-      <c r="X152" s="128"/>
       <c r="Y152" s="102"/>
       <c r="Z152" s="106"/>
-      <c r="AA152" s="128"/>
-      <c r="AB152" s="128"/>
-      <c r="AC152" s="128"/>
-      <c r="AD152" s="128"/>
-      <c r="AE152" s="128"/>
-      <c r="AF152" s="128"/>
-      <c r="AG152" s="128"/>
-      <c r="AH152" s="128"/>
-      <c r="AI152" s="128"/>
       <c r="AJ152" s="102"/>
-      <c r="AK152" s="128"/>
-      <c r="AL152" s="128"/>
-      <c r="AM152" s="128"/>
-      <c r="AN152" s="128"/>
-      <c r="AO152" s="128"/>
-      <c r="AP152" s="128"/>
-      <c r="AQ152" s="128"/>
-      <c r="AR152" s="128"/>
-      <c r="AS152" s="128"/>
-      <c r="AT152" s="128"/>
-      <c r="AU152" s="128"/>
       <c r="AV152" s="102"/>
     </row>
     <row r="153" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N153" s="106"/>
-      <c r="O153" s="128"/>
-      <c r="P153" s="128"/>
-      <c r="Q153" s="128"/>
-      <c r="R153" s="128"/>
-      <c r="S153" s="128"/>
-      <c r="T153" s="128"/>
-      <c r="U153" s="128"/>
-      <c r="V153" s="128"/>
-      <c r="W153" s="128"/>
-      <c r="X153" s="128"/>
       <c r="Y153" s="102"/>
       <c r="Z153" s="106"/>
-      <c r="AA153" s="128"/>
-      <c r="AB153" s="128"/>
-      <c r="AC153" s="128"/>
-      <c r="AD153" s="128"/>
-      <c r="AE153" s="128"/>
-      <c r="AF153" s="128"/>
-      <c r="AG153" s="128"/>
-      <c r="AH153" s="128"/>
-      <c r="AI153" s="128"/>
       <c r="AJ153" s="102"/>
-      <c r="AK153" s="128"/>
-      <c r="AL153" s="128"/>
-      <c r="AM153" s="128"/>
-      <c r="AN153" s="128"/>
-      <c r="AO153" s="128"/>
-      <c r="AP153" s="128"/>
-      <c r="AQ153" s="128"/>
-      <c r="AR153" s="128"/>
-      <c r="AS153" s="128"/>
-      <c r="AT153" s="128"/>
-      <c r="AU153" s="128"/>
       <c r="AV153" s="102"/>
     </row>
     <row r="154" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N154" s="106"/>
-      <c r="O154" s="128"/>
-      <c r="P154" s="128"/>
-      <c r="Q154" s="128"/>
-      <c r="R154" s="128"/>
-      <c r="S154" s="128"/>
-      <c r="T154" s="128"/>
-      <c r="U154" s="128"/>
-      <c r="V154" s="128"/>
-      <c r="W154" s="128"/>
-      <c r="X154" s="128"/>
       <c r="Y154" s="102"/>
       <c r="Z154" s="106"/>
-      <c r="AA154" s="128"/>
-      <c r="AB154" s="128"/>
-      <c r="AC154" s="128"/>
-      <c r="AD154" s="128"/>
-      <c r="AE154" s="128"/>
-      <c r="AF154" s="128"/>
-      <c r="AG154" s="128"/>
-      <c r="AH154" s="128"/>
-      <c r="AI154" s="128"/>
       <c r="AJ154" s="102"/>
-      <c r="AK154" s="128"/>
-      <c r="AL154" s="128"/>
-      <c r="AM154" s="128"/>
-      <c r="AN154" s="128"/>
-      <c r="AO154" s="128"/>
-      <c r="AP154" s="128"/>
-      <c r="AQ154" s="128"/>
-      <c r="AR154" s="128"/>
-      <c r="AS154" s="128"/>
-      <c r="AT154" s="128"/>
-      <c r="AU154" s="128"/>
       <c r="AV154" s="102"/>
     </row>
     <row r="155" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N155" s="106"/>
-      <c r="O155" s="128"/>
-      <c r="P155" s="128"/>
-      <c r="Q155" s="128"/>
-      <c r="R155" s="128"/>
-      <c r="S155" s="128"/>
-      <c r="T155" s="128"/>
-      <c r="U155" s="128"/>
-      <c r="V155" s="128"/>
-      <c r="W155" s="128"/>
-      <c r="X155" s="128"/>
       <c r="Y155" s="102"/>
       <c r="Z155" s="106"/>
-      <c r="AA155" s="128"/>
-      <c r="AB155" s="128"/>
-      <c r="AC155" s="128"/>
-      <c r="AD155" s="128"/>
-      <c r="AE155" s="128"/>
-      <c r="AF155" s="128"/>
-      <c r="AG155" s="128"/>
-      <c r="AH155" s="128"/>
-      <c r="AI155" s="128"/>
       <c r="AJ155" s="102"/>
-      <c r="AK155" s="128"/>
-      <c r="AL155" s="128"/>
-      <c r="AM155" s="128"/>
-      <c r="AN155" s="128"/>
-      <c r="AO155" s="128"/>
-      <c r="AP155" s="128"/>
-      <c r="AQ155" s="128"/>
-      <c r="AR155" s="128"/>
-      <c r="AS155" s="128"/>
-      <c r="AT155" s="128"/>
-      <c r="AU155" s="128"/>
       <c r="AV155" s="102"/>
     </row>
     <row r="156" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N156" s="106"/>
-      <c r="O156" s="128"/>
-      <c r="P156" s="128"/>
-      <c r="Q156" s="128"/>
-      <c r="R156" s="128"/>
-      <c r="S156" s="128"/>
-      <c r="T156" s="128"/>
-      <c r="U156" s="128"/>
-      <c r="V156" s="128"/>
-      <c r="W156" s="128"/>
-      <c r="X156" s="128"/>
       <c r="Y156" s="102"/>
       <c r="Z156" s="106"/>
-      <c r="AA156" s="128"/>
-      <c r="AB156" s="128"/>
-      <c r="AC156" s="128"/>
-      <c r="AD156" s="128"/>
-      <c r="AE156" s="128"/>
-      <c r="AF156" s="128"/>
-      <c r="AG156" s="128"/>
-      <c r="AH156" s="128"/>
-      <c r="AI156" s="128"/>
       <c r="AJ156" s="102"/>
-      <c r="AK156" s="128"/>
-      <c r="AL156" s="128"/>
-      <c r="AM156" s="128"/>
-      <c r="AN156" s="128"/>
-      <c r="AO156" s="128"/>
-      <c r="AP156" s="128"/>
-      <c r="AQ156" s="128"/>
-      <c r="AR156" s="128"/>
-      <c r="AS156" s="128"/>
-      <c r="AT156" s="128"/>
-      <c r="AU156" s="128"/>
       <c r="AV156" s="102"/>
     </row>
     <row r="157" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N157" s="106"/>
-      <c r="O157" s="128"/>
-      <c r="P157" s="128"/>
-      <c r="Q157" s="128"/>
-      <c r="R157" s="128"/>
-      <c r="S157" s="128"/>
-      <c r="T157" s="128"/>
-      <c r="U157" s="128"/>
-      <c r="V157" s="128"/>
-      <c r="W157" s="128"/>
-      <c r="X157" s="128"/>
       <c r="Y157" s="102"/>
       <c r="Z157" s="106"/>
-      <c r="AA157" s="128"/>
-      <c r="AB157" s="128"/>
-      <c r="AC157" s="128"/>
-      <c r="AD157" s="128"/>
-      <c r="AE157" s="128"/>
-      <c r="AF157" s="128"/>
-      <c r="AG157" s="128"/>
-      <c r="AH157" s="128"/>
-      <c r="AI157" s="128"/>
       <c r="AJ157" s="102"/>
-      <c r="AK157" s="128"/>
-      <c r="AL157" s="128"/>
-      <c r="AM157" s="128"/>
-      <c r="AN157" s="128"/>
-      <c r="AO157" s="128"/>
-      <c r="AP157" s="128"/>
-      <c r="AQ157" s="128"/>
-      <c r="AR157" s="128"/>
-      <c r="AS157" s="128"/>
-      <c r="AT157" s="128"/>
-      <c r="AU157" s="128"/>
       <c r="AV157" s="102"/>
     </row>
     <row r="158" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N158" s="106"/>
-      <c r="O158" s="128"/>
-      <c r="P158" s="128"/>
-      <c r="Q158" s="128"/>
-      <c r="R158" s="128"/>
-      <c r="S158" s="128"/>
-      <c r="T158" s="128"/>
-      <c r="U158" s="128"/>
-      <c r="V158" s="128"/>
-      <c r="W158" s="128"/>
-      <c r="X158" s="128"/>
       <c r="Y158" s="102"/>
       <c r="Z158" s="106"/>
-      <c r="AA158" s="128"/>
-      <c r="AB158" s="128"/>
-      <c r="AC158" s="128"/>
-      <c r="AD158" s="128"/>
-      <c r="AE158" s="128"/>
-      <c r="AF158" s="128"/>
-      <c r="AG158" s="128"/>
-      <c r="AH158" s="128"/>
-      <c r="AI158" s="128"/>
       <c r="AJ158" s="102"/>
-      <c r="AK158" s="128"/>
-      <c r="AL158" s="128"/>
-      <c r="AM158" s="128"/>
-      <c r="AN158" s="128"/>
-      <c r="AO158" s="128"/>
-      <c r="AP158" s="128"/>
-      <c r="AQ158" s="128"/>
-      <c r="AR158" s="128"/>
-      <c r="AS158" s="128"/>
-      <c r="AT158" s="128"/>
-      <c r="AU158" s="128"/>
       <c r="AV158" s="102"/>
     </row>
     <row r="159" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N159" s="106"/>
-      <c r="O159" s="128"/>
-      <c r="P159" s="128"/>
-      <c r="Q159" s="128"/>
-      <c r="R159" s="128"/>
-      <c r="S159" s="128"/>
-      <c r="T159" s="128"/>
-      <c r="U159" s="128"/>
-      <c r="V159" s="128"/>
-      <c r="W159" s="128"/>
-      <c r="X159" s="128"/>
       <c r="Y159" s="102"/>
       <c r="Z159" s="106"/>
-      <c r="AA159" s="128"/>
-      <c r="AB159" s="128"/>
-      <c r="AC159" s="128"/>
-      <c r="AD159" s="128"/>
-      <c r="AE159" s="128"/>
-      <c r="AF159" s="128"/>
-      <c r="AG159" s="128"/>
-      <c r="AH159" s="128"/>
-      <c r="AI159" s="128"/>
       <c r="AJ159" s="102"/>
-      <c r="AK159" s="128"/>
-      <c r="AL159" s="128"/>
-      <c r="AM159" s="128"/>
-      <c r="AN159" s="128"/>
-      <c r="AO159" s="128"/>
-      <c r="AP159" s="128"/>
-      <c r="AQ159" s="128"/>
-      <c r="AR159" s="128"/>
-      <c r="AS159" s="128"/>
-      <c r="AT159" s="128"/>
-      <c r="AU159" s="128"/>
       <c r="AV159" s="102"/>
     </row>
     <row r="160" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N160" s="106"/>
-      <c r="O160" s="128"/>
-      <c r="P160" s="128"/>
-      <c r="Q160" s="128"/>
-      <c r="R160" s="128"/>
-      <c r="S160" s="128"/>
-      <c r="T160" s="128"/>
-      <c r="U160" s="128"/>
-      <c r="V160" s="128"/>
-      <c r="W160" s="128"/>
-      <c r="X160" s="128"/>
       <c r="Y160" s="102"/>
       <c r="Z160" s="106"/>
-      <c r="AA160" s="128"/>
-      <c r="AB160" s="128"/>
-      <c r="AC160" s="128"/>
-      <c r="AD160" s="128"/>
-      <c r="AE160" s="128"/>
-      <c r="AF160" s="128"/>
-      <c r="AG160" s="128"/>
-      <c r="AH160" s="128"/>
-      <c r="AI160" s="128"/>
       <c r="AJ160" s="102"/>
-      <c r="AK160" s="128"/>
-      <c r="AL160" s="128"/>
-      <c r="AM160" s="128"/>
-      <c r="AN160" s="128"/>
-      <c r="AO160" s="128"/>
-      <c r="AP160" s="128"/>
-      <c r="AQ160" s="128"/>
-      <c r="AR160" s="128"/>
-      <c r="AS160" s="128"/>
-      <c r="AT160" s="128"/>
-      <c r="AU160" s="128"/>
       <c r="AV160" s="102"/>
     </row>
     <row r="161" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N161" s="106"/>
-      <c r="O161" s="128"/>
-      <c r="P161" s="128"/>
-      <c r="Q161" s="128"/>
-      <c r="R161" s="128"/>
-      <c r="S161" s="128"/>
-      <c r="T161" s="128"/>
-      <c r="U161" s="128"/>
-      <c r="V161" s="128"/>
-      <c r="W161" s="128"/>
-      <c r="X161" s="128"/>
       <c r="Y161" s="102"/>
       <c r="Z161" s="106"/>
-      <c r="AA161" s="128"/>
-      <c r="AB161" s="128"/>
-      <c r="AC161" s="128"/>
-      <c r="AD161" s="128"/>
-      <c r="AE161" s="128"/>
-      <c r="AF161" s="128"/>
-      <c r="AG161" s="128"/>
-      <c r="AH161" s="128"/>
-      <c r="AI161" s="128"/>
       <c r="AJ161" s="102"/>
-      <c r="AK161" s="128"/>
-      <c r="AL161" s="128"/>
-      <c r="AM161" s="128"/>
-      <c r="AN161" s="128"/>
-      <c r="AO161" s="128"/>
-      <c r="AP161" s="128"/>
-      <c r="AQ161" s="128"/>
-      <c r="AR161" s="128"/>
-      <c r="AS161" s="128"/>
-      <c r="AT161" s="128"/>
-      <c r="AU161" s="128"/>
       <c r="AV161" s="102"/>
     </row>
     <row r="162" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N162" s="106"/>
-      <c r="O162" s="128"/>
-      <c r="P162" s="128"/>
-      <c r="Q162" s="128"/>
-      <c r="R162" s="128"/>
-      <c r="S162" s="128"/>
-      <c r="T162" s="128"/>
-      <c r="U162" s="128"/>
-      <c r="V162" s="128"/>
-      <c r="W162" s="128"/>
-      <c r="X162" s="128"/>
       <c r="Y162" s="102"/>
       <c r="Z162" s="106"/>
-      <c r="AA162" s="128"/>
-      <c r="AB162" s="128"/>
-      <c r="AC162" s="128"/>
-      <c r="AD162" s="128"/>
-      <c r="AE162" s="128"/>
-      <c r="AF162" s="128"/>
-      <c r="AG162" s="128"/>
-      <c r="AH162" s="128"/>
-      <c r="AI162" s="128"/>
       <c r="AJ162" s="102"/>
-      <c r="AK162" s="128"/>
-      <c r="AL162" s="128"/>
-      <c r="AM162" s="128"/>
-      <c r="AN162" s="128"/>
-      <c r="AO162" s="128"/>
-      <c r="AP162" s="128"/>
-      <c r="AQ162" s="128"/>
-      <c r="AR162" s="128"/>
-      <c r="AS162" s="128"/>
-      <c r="AT162" s="128"/>
-      <c r="AU162" s="128"/>
       <c r="AV162" s="102"/>
     </row>
     <row r="163" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N163" s="106"/>
-      <c r="O163" s="128"/>
-      <c r="P163" s="128"/>
-      <c r="Q163" s="128"/>
-      <c r="R163" s="128"/>
-      <c r="S163" s="128"/>
-      <c r="T163" s="128"/>
-      <c r="U163" s="128"/>
-      <c r="V163" s="128"/>
-      <c r="W163" s="128"/>
-      <c r="X163" s="128"/>
       <c r="Y163" s="102"/>
       <c r="Z163" s="106"/>
-      <c r="AA163" s="128"/>
-      <c r="AB163" s="128"/>
-      <c r="AC163" s="128"/>
-      <c r="AD163" s="128"/>
-      <c r="AE163" s="128"/>
-      <c r="AF163" s="128"/>
-      <c r="AG163" s="128"/>
-      <c r="AH163" s="128"/>
-      <c r="AI163" s="128"/>
       <c r="AJ163" s="102"/>
-      <c r="AK163" s="128"/>
-      <c r="AL163" s="128"/>
-      <c r="AM163" s="128"/>
-      <c r="AN163" s="128"/>
-      <c r="AO163" s="128"/>
-      <c r="AP163" s="128"/>
-      <c r="AQ163" s="128"/>
-      <c r="AR163" s="128"/>
-      <c r="AS163" s="128"/>
-      <c r="AT163" s="128"/>
-      <c r="AU163" s="128"/>
       <c r="AV163" s="102"/>
     </row>
     <row r="164" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N164" s="106"/>
-      <c r="O164" s="128"/>
-      <c r="P164" s="128"/>
-      <c r="Q164" s="128"/>
-      <c r="R164" s="128"/>
-      <c r="S164" s="128"/>
-      <c r="T164" s="128"/>
-      <c r="U164" s="128"/>
-      <c r="V164" s="128"/>
-      <c r="W164" s="128"/>
-      <c r="X164" s="128"/>
       <c r="Y164" s="102"/>
       <c r="Z164" s="106"/>
-      <c r="AA164" s="128"/>
-      <c r="AB164" s="128"/>
-      <c r="AC164" s="128"/>
-      <c r="AD164" s="128"/>
-      <c r="AE164" s="128"/>
-      <c r="AF164" s="128"/>
-      <c r="AG164" s="128"/>
-      <c r="AH164" s="128"/>
-      <c r="AI164" s="128"/>
       <c r="AJ164" s="102"/>
-      <c r="AK164" s="128"/>
-      <c r="AL164" s="128"/>
-      <c r="AM164" s="128"/>
-      <c r="AN164" s="128"/>
-      <c r="AO164" s="128"/>
-      <c r="AP164" s="128"/>
-      <c r="AQ164" s="128"/>
-      <c r="AR164" s="128"/>
-      <c r="AS164" s="128"/>
-      <c r="AT164" s="128"/>
-      <c r="AU164" s="128"/>
       <c r="AV164" s="102"/>
     </row>
     <row r="165" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N165" s="106"/>
-      <c r="O165" s="128"/>
-      <c r="P165" s="128"/>
-      <c r="Q165" s="128"/>
-      <c r="R165" s="128"/>
-      <c r="S165" s="128"/>
-      <c r="T165" s="128"/>
-      <c r="U165" s="128"/>
-      <c r="V165" s="128"/>
-      <c r="W165" s="128"/>
-      <c r="X165" s="128"/>
       <c r="Y165" s="102"/>
       <c r="Z165" s="106"/>
-      <c r="AA165" s="128"/>
-      <c r="AB165" s="128"/>
-      <c r="AC165" s="128"/>
-      <c r="AD165" s="128"/>
-      <c r="AE165" s="128"/>
-      <c r="AF165" s="128"/>
-      <c r="AG165" s="128"/>
-      <c r="AH165" s="128"/>
-      <c r="AI165" s="128"/>
       <c r="AJ165" s="102"/>
-      <c r="AK165" s="128"/>
-      <c r="AL165" s="128"/>
-      <c r="AM165" s="128"/>
-      <c r="AN165" s="128"/>
-      <c r="AO165" s="128"/>
-      <c r="AP165" s="128"/>
-      <c r="AQ165" s="128"/>
-      <c r="AR165" s="128"/>
-      <c r="AS165" s="128"/>
-      <c r="AT165" s="128"/>
-      <c r="AU165" s="128"/>
       <c r="AV165" s="102"/>
     </row>
     <row r="166" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N166" s="106"/>
-      <c r="O166" s="128"/>
-      <c r="P166" s="128"/>
-      <c r="Q166" s="128"/>
-      <c r="R166" s="128"/>
-      <c r="S166" s="128"/>
-      <c r="T166" s="128"/>
-      <c r="U166" s="128"/>
-      <c r="V166" s="128"/>
-      <c r="W166" s="128"/>
-      <c r="X166" s="128"/>
       <c r="Y166" s="102"/>
       <c r="Z166" s="106"/>
-      <c r="AA166" s="128"/>
-      <c r="AB166" s="128"/>
-      <c r="AC166" s="128"/>
-      <c r="AD166" s="128"/>
-      <c r="AE166" s="128"/>
-      <c r="AF166" s="128"/>
-      <c r="AG166" s="128"/>
-      <c r="AH166" s="128"/>
-      <c r="AI166" s="128"/>
       <c r="AJ166" s="102"/>
-      <c r="AK166" s="128"/>
-      <c r="AL166" s="128"/>
-      <c r="AM166" s="128"/>
-      <c r="AN166" s="128"/>
-      <c r="AO166" s="128"/>
-      <c r="AP166" s="128"/>
-      <c r="AQ166" s="128"/>
-      <c r="AR166" s="128"/>
-      <c r="AS166" s="128"/>
-      <c r="AT166" s="128"/>
-      <c r="AU166" s="128"/>
       <c r="AV166" s="102"/>
     </row>
     <row r="167" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N167" s="106"/>
-      <c r="O167" s="128"/>
-      <c r="P167" s="128"/>
-      <c r="Q167" s="128"/>
-      <c r="R167" s="128"/>
-      <c r="S167" s="128"/>
-      <c r="T167" s="128"/>
-      <c r="U167" s="128"/>
-      <c r="V167" s="128"/>
-      <c r="W167" s="128"/>
-      <c r="X167" s="128"/>
       <c r="Y167" s="102"/>
       <c r="Z167" s="106"/>
-      <c r="AA167" s="128"/>
-      <c r="AB167" s="128"/>
-      <c r="AC167" s="128"/>
-      <c r="AD167" s="128"/>
-      <c r="AE167" s="128"/>
-      <c r="AF167" s="128"/>
-      <c r="AG167" s="128"/>
-      <c r="AH167" s="128"/>
-      <c r="AI167" s="128"/>
       <c r="AJ167" s="102"/>
-      <c r="AK167" s="128"/>
-      <c r="AL167" s="128"/>
-      <c r="AM167" s="128"/>
-      <c r="AN167" s="128"/>
-      <c r="AO167" s="128"/>
-      <c r="AP167" s="128"/>
-      <c r="AQ167" s="128"/>
-      <c r="AR167" s="128"/>
-      <c r="AS167" s="128"/>
-      <c r="AT167" s="128"/>
-      <c r="AU167" s="128"/>
       <c r="AV167" s="102"/>
     </row>
     <row r="168" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N168" s="106"/>
-      <c r="O168" s="128"/>
-      <c r="P168" s="128"/>
-      <c r="Q168" s="128"/>
-      <c r="R168" s="128"/>
-      <c r="S168" s="128"/>
-      <c r="T168" s="128"/>
-      <c r="U168" s="128"/>
-      <c r="V168" s="128"/>
-      <c r="W168" s="128"/>
-      <c r="X168" s="128"/>
       <c r="Y168" s="102"/>
       <c r="Z168" s="106"/>
-      <c r="AA168" s="128"/>
-      <c r="AB168" s="128"/>
-      <c r="AC168" s="128"/>
-      <c r="AD168" s="128"/>
-      <c r="AE168" s="128"/>
-      <c r="AF168" s="128"/>
-      <c r="AG168" s="128"/>
-      <c r="AH168" s="128"/>
-      <c r="AI168" s="128"/>
       <c r="AJ168" s="102"/>
-      <c r="AK168" s="128"/>
-      <c r="AL168" s="128"/>
-      <c r="AM168" s="128"/>
-      <c r="AN168" s="128"/>
-      <c r="AO168" s="128"/>
-      <c r="AP168" s="128"/>
-      <c r="AQ168" s="128"/>
-      <c r="AR168" s="128"/>
-      <c r="AS168" s="128"/>
-      <c r="AT168" s="128"/>
-      <c r="AU168" s="128"/>
       <c r="AV168" s="102"/>
     </row>
     <row r="169" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N169" s="106"/>
-      <c r="O169" s="128"/>
-      <c r="P169" s="128"/>
-      <c r="Q169" s="128"/>
-      <c r="R169" s="128"/>
-      <c r="S169" s="128"/>
-      <c r="T169" s="128"/>
-      <c r="U169" s="128"/>
-      <c r="V169" s="128"/>
-      <c r="W169" s="128"/>
-      <c r="X169" s="128"/>
       <c r="Y169" s="102"/>
       <c r="Z169" s="106"/>
-      <c r="AA169" s="128"/>
-      <c r="AB169" s="128"/>
-      <c r="AC169" s="128"/>
-      <c r="AD169" s="128"/>
-      <c r="AE169" s="128"/>
-      <c r="AF169" s="128"/>
-      <c r="AG169" s="128"/>
-      <c r="AH169" s="128"/>
-      <c r="AI169" s="128"/>
       <c r="AJ169" s="102"/>
-      <c r="AK169" s="128"/>
-      <c r="AL169" s="128"/>
-      <c r="AM169" s="128"/>
-      <c r="AN169" s="128"/>
-      <c r="AO169" s="128"/>
-      <c r="AP169" s="128"/>
-      <c r="AQ169" s="128"/>
-      <c r="AR169" s="128"/>
-      <c r="AS169" s="128"/>
-      <c r="AT169" s="128"/>
-      <c r="AU169" s="128"/>
       <c r="AV169" s="102"/>
     </row>
     <row r="170" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N170" s="106"/>
-      <c r="O170" s="128"/>
-      <c r="P170" s="128" t="s">
+      <c r="P170" t="s">
         <v>50</v>
       </c>
-      <c r="Q170" s="128"/>
-      <c r="R170" s="128"/>
-      <c r="S170" s="128"/>
-      <c r="T170" s="128"/>
-      <c r="U170" s="128"/>
-      <c r="V170" s="128"/>
-      <c r="W170" s="128"/>
-      <c r="X170" s="128"/>
       <c r="Y170" s="102"/>
       <c r="Z170" s="106"/>
-      <c r="AA170" s="128" t="s">
+      <c r="AA170" t="s">
         <v>60</v>
       </c>
-      <c r="AB170" s="128"/>
-      <c r="AC170" s="128"/>
-      <c r="AD170" s="128"/>
-      <c r="AE170" s="128"/>
-      <c r="AF170" s="128"/>
-      <c r="AG170" s="128"/>
-      <c r="AH170" s="128"/>
-      <c r="AI170" s="128"/>
       <c r="AJ170" s="102"/>
-      <c r="AK170" s="128"/>
-      <c r="AL170" s="128"/>
-      <c r="AM170" s="128"/>
-      <c r="AN170" s="128"/>
-      <c r="AO170" s="128"/>
-      <c r="AP170" s="128"/>
-      <c r="AQ170" s="128"/>
-      <c r="AR170" s="128"/>
-      <c r="AS170" s="128"/>
-      <c r="AT170" s="128"/>
-      <c r="AU170" s="128"/>
+      <c r="AL170" t="s">
+        <v>70</v>
+      </c>
       <c r="AV170" s="102"/>
     </row>
     <row r="171" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N171" s="106"/>
-      <c r="O171" s="128"/>
-      <c r="P171" s="128"/>
-      <c r="Q171" s="128"/>
-      <c r="R171" s="128"/>
-      <c r="S171" s="128"/>
-      <c r="T171" s="128"/>
-      <c r="U171" s="128"/>
-      <c r="V171" s="128"/>
-      <c r="W171" s="128"/>
-      <c r="X171" s="128"/>
       <c r="Y171" s="102"/>
       <c r="Z171" s="106"/>
-      <c r="AA171" s="128"/>
-      <c r="AB171" s="128"/>
-      <c r="AC171" s="128"/>
-      <c r="AD171" s="128"/>
-      <c r="AE171" s="128"/>
-      <c r="AF171" s="128"/>
-      <c r="AG171" s="128"/>
-      <c r="AH171" s="128"/>
-      <c r="AI171" s="128"/>
       <c r="AJ171" s="102"/>
-      <c r="AK171" s="128"/>
-      <c r="AL171" s="128"/>
-      <c r="AM171" s="128"/>
-      <c r="AN171" s="128"/>
-      <c r="AO171" s="128"/>
-      <c r="AP171" s="128"/>
-      <c r="AQ171" s="128"/>
-      <c r="AR171" s="128"/>
-      <c r="AS171" s="128"/>
-      <c r="AT171" s="128"/>
-      <c r="AU171" s="128"/>
       <c r="AV171" s="102"/>
     </row>
     <row r="172" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N172" s="106"/>
-      <c r="O172" s="128"/>
-      <c r="P172" s="128"/>
-      <c r="Q172" s="128"/>
-      <c r="R172" s="128"/>
-      <c r="S172" s="128"/>
-      <c r="T172" s="128"/>
-      <c r="U172" s="128"/>
-      <c r="V172" s="128"/>
-      <c r="W172" s="128"/>
-      <c r="X172" s="128"/>
       <c r="Y172" s="102"/>
       <c r="Z172" s="106"/>
-      <c r="AA172" s="128"/>
-      <c r="AB172" s="128"/>
-      <c r="AC172" s="128"/>
-      <c r="AD172" s="128"/>
-      <c r="AE172" s="128"/>
-      <c r="AF172" s="128"/>
-      <c r="AG172" s="128"/>
-      <c r="AH172" s="128"/>
-      <c r="AI172" s="128"/>
       <c r="AJ172" s="102"/>
-      <c r="AK172" s="128"/>
-      <c r="AL172" s="128"/>
-      <c r="AM172" s="128"/>
-      <c r="AN172" s="128"/>
-      <c r="AO172" s="128"/>
-      <c r="AP172" s="128"/>
-      <c r="AQ172" s="128"/>
-      <c r="AR172" s="128"/>
-      <c r="AS172" s="128"/>
-      <c r="AT172" s="128"/>
-      <c r="AU172" s="128"/>
       <c r="AV172" s="102"/>
     </row>
     <row r="173" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N173" s="106"/>
-      <c r="O173" s="128"/>
-      <c r="P173" s="128"/>
-      <c r="Q173" s="128"/>
-      <c r="R173" s="128"/>
-      <c r="S173" s="128"/>
-      <c r="T173" s="128"/>
-      <c r="U173" s="128"/>
-      <c r="V173" s="128"/>
-      <c r="W173" s="128"/>
-      <c r="X173" s="128"/>
       <c r="Y173" s="102"/>
       <c r="Z173" s="106"/>
-      <c r="AA173" s="128"/>
-      <c r="AB173" s="128"/>
-      <c r="AC173" s="128"/>
-      <c r="AD173" s="128"/>
-      <c r="AE173" s="128"/>
-      <c r="AF173" s="128"/>
-      <c r="AG173" s="128"/>
-      <c r="AH173" s="128"/>
-      <c r="AI173" s="128"/>
       <c r="AJ173" s="102"/>
-      <c r="AK173" s="128"/>
-      <c r="AL173" s="128"/>
-      <c r="AM173" s="128"/>
-      <c r="AN173" s="128"/>
-      <c r="AO173" s="128"/>
-      <c r="AP173" s="128"/>
-      <c r="AQ173" s="128"/>
-      <c r="AR173" s="128"/>
-      <c r="AS173" s="128"/>
-      <c r="AT173" s="128"/>
-      <c r="AU173" s="128"/>
       <c r="AV173" s="102"/>
     </row>
     <row r="174" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N174" s="106"/>
-      <c r="O174" s="128"/>
-      <c r="P174" s="128"/>
-      <c r="Q174" s="128"/>
-      <c r="R174" s="128"/>
-      <c r="S174" s="128"/>
-      <c r="T174" s="128"/>
-      <c r="U174" s="128"/>
-      <c r="V174" s="128"/>
-      <c r="W174" s="128"/>
-      <c r="X174" s="128"/>
       <c r="Y174" s="102"/>
       <c r="Z174" s="106"/>
-      <c r="AA174" s="128"/>
-      <c r="AB174" s="128"/>
-      <c r="AC174" s="128"/>
-      <c r="AD174" s="128"/>
-      <c r="AE174" s="128"/>
-      <c r="AF174" s="128"/>
-      <c r="AG174" s="128"/>
-      <c r="AH174" s="128"/>
-      <c r="AI174" s="128"/>
       <c r="AJ174" s="102"/>
-      <c r="AK174" s="128"/>
-      <c r="AL174" s="128"/>
-      <c r="AM174" s="128"/>
-      <c r="AN174" s="128"/>
-      <c r="AO174" s="128"/>
-      <c r="AP174" s="128"/>
-      <c r="AQ174" s="128"/>
-      <c r="AR174" s="128"/>
-      <c r="AS174" s="128"/>
-      <c r="AT174" s="128"/>
-      <c r="AU174" s="128"/>
       <c r="AV174" s="102"/>
     </row>
     <row r="175" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N175" s="106"/>
-      <c r="O175" s="128"/>
-      <c r="P175" s="128"/>
-      <c r="Q175" s="128"/>
-      <c r="R175" s="128"/>
-      <c r="S175" s="128"/>
-      <c r="T175" s="128"/>
-      <c r="U175" s="128"/>
-      <c r="V175" s="128"/>
-      <c r="W175" s="128"/>
-      <c r="X175" s="128"/>
       <c r="Y175" s="102"/>
       <c r="Z175" s="106"/>
-      <c r="AA175" s="128"/>
-      <c r="AB175" s="128"/>
-      <c r="AC175" s="128"/>
-      <c r="AD175" s="128"/>
-      <c r="AE175" s="128"/>
-      <c r="AF175" s="128"/>
-      <c r="AG175" s="128"/>
-      <c r="AH175" s="128"/>
-      <c r="AI175" s="128"/>
       <c r="AJ175" s="102"/>
-      <c r="AK175" s="128"/>
-      <c r="AL175" s="128"/>
-      <c r="AM175" s="128"/>
-      <c r="AN175" s="128"/>
-      <c r="AO175" s="128"/>
-      <c r="AP175" s="128"/>
-      <c r="AQ175" s="128"/>
-      <c r="AR175" s="128"/>
-      <c r="AS175" s="128"/>
-      <c r="AT175" s="128"/>
-      <c r="AU175" s="128"/>
       <c r="AV175" s="102"/>
     </row>
     <row r="176" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N176" s="106"/>
-      <c r="O176" s="128"/>
-      <c r="P176" s="128"/>
-      <c r="Q176" s="128"/>
-      <c r="R176" s="128"/>
-      <c r="S176" s="128"/>
-      <c r="T176" s="128"/>
-      <c r="U176" s="128"/>
-      <c r="V176" s="128"/>
-      <c r="W176" s="128"/>
-      <c r="X176" s="128"/>
       <c r="Y176" s="102"/>
       <c r="Z176" s="106"/>
-      <c r="AA176" s="128"/>
-      <c r="AB176" s="128"/>
-      <c r="AC176" s="128"/>
-      <c r="AD176" s="128"/>
-      <c r="AE176" s="128"/>
-      <c r="AF176" s="128"/>
-      <c r="AG176" s="128"/>
-      <c r="AH176" s="128"/>
-      <c r="AI176" s="128"/>
       <c r="AJ176" s="102"/>
-      <c r="AK176" s="128"/>
-      <c r="AL176" s="128"/>
-      <c r="AM176" s="128"/>
-      <c r="AN176" s="128"/>
-      <c r="AO176" s="128"/>
-      <c r="AP176" s="128"/>
-      <c r="AQ176" s="128"/>
-      <c r="AR176" s="128"/>
-      <c r="AS176" s="128"/>
-      <c r="AT176" s="128"/>
-      <c r="AU176" s="128"/>
       <c r="AV176" s="102"/>
     </row>
     <row r="177" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N177" s="106"/>
-      <c r="O177" s="128"/>
-      <c r="P177" s="128"/>
-      <c r="Q177" s="128"/>
-      <c r="R177" s="128"/>
-      <c r="S177" s="128"/>
-      <c r="T177" s="128"/>
-      <c r="U177" s="128"/>
-      <c r="V177" s="128"/>
-      <c r="W177" s="128"/>
-      <c r="X177" s="128"/>
       <c r="Y177" s="102"/>
       <c r="Z177" s="106"/>
-      <c r="AA177" s="128"/>
-      <c r="AB177" s="128"/>
-      <c r="AC177" s="128"/>
-      <c r="AD177" s="128"/>
-      <c r="AE177" s="128"/>
-      <c r="AF177" s="128"/>
-      <c r="AG177" s="128"/>
-      <c r="AH177" s="128"/>
-      <c r="AI177" s="128"/>
       <c r="AJ177" s="102"/>
-      <c r="AK177" s="128"/>
-      <c r="AL177" s="128"/>
-      <c r="AM177" s="128"/>
-      <c r="AN177" s="128"/>
-      <c r="AO177" s="128"/>
-      <c r="AP177" s="128"/>
-      <c r="AQ177" s="128"/>
-      <c r="AR177" s="128"/>
-      <c r="AS177" s="128"/>
-      <c r="AT177" s="128"/>
-      <c r="AU177" s="128"/>
       <c r="AV177" s="102"/>
     </row>
     <row r="178" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N178" s="106"/>
-      <c r="O178" s="128"/>
-      <c r="P178" s="128"/>
-      <c r="Q178" s="128"/>
-      <c r="R178" s="128"/>
-      <c r="S178" s="128"/>
-      <c r="T178" s="128"/>
-      <c r="U178" s="128"/>
-      <c r="V178" s="128"/>
-      <c r="W178" s="128"/>
-      <c r="X178" s="128"/>
       <c r="Y178" s="102"/>
       <c r="Z178" s="106"/>
-      <c r="AA178" s="128"/>
-      <c r="AB178" s="128"/>
-      <c r="AC178" s="128"/>
-      <c r="AD178" s="128"/>
-      <c r="AE178" s="128"/>
-      <c r="AF178" s="128"/>
-      <c r="AG178" s="128"/>
-      <c r="AH178" s="128"/>
-      <c r="AI178" s="128"/>
       <c r="AJ178" s="102"/>
-      <c r="AK178" s="128"/>
-      <c r="AL178" s="128"/>
-      <c r="AM178" s="128"/>
-      <c r="AN178" s="128"/>
-      <c r="AO178" s="128"/>
-      <c r="AP178" s="128"/>
-      <c r="AQ178" s="128"/>
-      <c r="AR178" s="128"/>
-      <c r="AS178" s="128"/>
-      <c r="AT178" s="128"/>
-      <c r="AU178" s="128"/>
       <c r="AV178" s="102"/>
     </row>
     <row r="179" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N179" s="106"/>
-      <c r="O179" s="128"/>
-      <c r="P179" s="128"/>
-      <c r="Q179" s="128"/>
-      <c r="R179" s="128"/>
-      <c r="S179" s="128"/>
-      <c r="T179" s="128"/>
-      <c r="U179" s="128"/>
-      <c r="V179" s="128"/>
-      <c r="W179" s="128"/>
-      <c r="X179" s="128"/>
       <c r="Y179" s="102"/>
       <c r="Z179" s="106"/>
-      <c r="AA179" s="128"/>
-      <c r="AB179" s="128"/>
-      <c r="AC179" s="128"/>
-      <c r="AD179" s="128"/>
-      <c r="AE179" s="128"/>
-      <c r="AF179" s="128"/>
-      <c r="AG179" s="128"/>
-      <c r="AH179" s="128"/>
-      <c r="AI179" s="128"/>
       <c r="AJ179" s="102"/>
-      <c r="AK179" s="128"/>
-      <c r="AL179" s="128"/>
-      <c r="AM179" s="128"/>
-      <c r="AN179" s="128"/>
-      <c r="AO179" s="128"/>
-      <c r="AP179" s="128"/>
-      <c r="AQ179" s="128"/>
-      <c r="AR179" s="128"/>
-      <c r="AS179" s="128"/>
-      <c r="AT179" s="128"/>
-      <c r="AU179" s="128"/>
       <c r="AV179" s="102"/>
     </row>
     <row r="180" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N180" s="106"/>
-      <c r="O180" s="128"/>
-      <c r="P180" s="128"/>
-      <c r="Q180" s="128"/>
-      <c r="R180" s="128"/>
-      <c r="S180" s="128"/>
-      <c r="T180" s="128"/>
-      <c r="U180" s="128"/>
-      <c r="V180" s="128"/>
-      <c r="W180" s="128"/>
-      <c r="X180" s="128"/>
       <c r="Y180" s="102"/>
       <c r="Z180" s="106"/>
-      <c r="AA180" s="128"/>
-      <c r="AB180" s="128"/>
-      <c r="AC180" s="128"/>
-      <c r="AD180" s="128"/>
-      <c r="AE180" s="128"/>
-      <c r="AF180" s="128"/>
-      <c r="AG180" s="128"/>
-      <c r="AH180" s="128"/>
-      <c r="AI180" s="128"/>
       <c r="AJ180" s="102"/>
-      <c r="AK180" s="128"/>
-      <c r="AL180" s="128"/>
-      <c r="AM180" s="128"/>
-      <c r="AN180" s="128"/>
-      <c r="AO180" s="128"/>
-      <c r="AP180" s="128"/>
-      <c r="AQ180" s="128"/>
-      <c r="AR180" s="128"/>
-      <c r="AS180" s="128"/>
-      <c r="AT180" s="128"/>
-      <c r="AU180" s="128"/>
       <c r="AV180" s="102"/>
     </row>
     <row r="181" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N181" s="106"/>
-      <c r="O181" s="128"/>
-      <c r="P181" s="128"/>
-      <c r="Q181" s="128"/>
-      <c r="R181" s="128"/>
-      <c r="S181" s="128"/>
-      <c r="T181" s="128"/>
-      <c r="U181" s="128"/>
-      <c r="V181" s="128"/>
-      <c r="W181" s="128"/>
-      <c r="X181" s="128"/>
       <c r="Y181" s="102"/>
       <c r="Z181" s="106"/>
-      <c r="AA181" s="128"/>
-      <c r="AB181" s="128"/>
-      <c r="AC181" s="128"/>
-      <c r="AD181" s="128"/>
-      <c r="AE181" s="128"/>
-      <c r="AF181" s="128"/>
-      <c r="AG181" s="128"/>
-      <c r="AH181" s="128"/>
-      <c r="AI181" s="128"/>
       <c r="AJ181" s="102"/>
-      <c r="AK181" s="128"/>
-      <c r="AL181" s="128"/>
-      <c r="AM181" s="128"/>
-      <c r="AN181" s="128"/>
-      <c r="AO181" s="128"/>
-      <c r="AP181" s="128"/>
-      <c r="AQ181" s="128"/>
-      <c r="AR181" s="128"/>
-      <c r="AS181" s="128"/>
-      <c r="AT181" s="128"/>
-      <c r="AU181" s="128"/>
       <c r="AV181" s="102"/>
     </row>
     <row r="182" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N182" s="106"/>
-      <c r="O182" s="128"/>
-      <c r="P182" s="128"/>
-      <c r="Q182" s="128"/>
-      <c r="R182" s="128"/>
-      <c r="S182" s="128"/>
-      <c r="T182" s="128"/>
-      <c r="U182" s="128"/>
-      <c r="V182" s="128"/>
-      <c r="W182" s="128"/>
-      <c r="X182" s="128"/>
       <c r="Y182" s="102"/>
       <c r="Z182" s="106"/>
-      <c r="AA182" s="128"/>
-      <c r="AB182" s="128"/>
-      <c r="AC182" s="128"/>
-      <c r="AD182" s="128"/>
-      <c r="AE182" s="128"/>
-      <c r="AF182" s="128"/>
-      <c r="AG182" s="128"/>
-      <c r="AH182" s="128"/>
-      <c r="AI182" s="128"/>
       <c r="AJ182" s="102"/>
-      <c r="AK182" s="128"/>
-      <c r="AL182" s="128"/>
-      <c r="AM182" s="128"/>
-      <c r="AN182" s="128"/>
-      <c r="AO182" s="128"/>
-      <c r="AP182" s="128"/>
-      <c r="AQ182" s="128"/>
-      <c r="AR182" s="128"/>
-      <c r="AS182" s="128"/>
-      <c r="AT182" s="128"/>
-      <c r="AU182" s="128"/>
       <c r="AV182" s="102"/>
     </row>
     <row r="183" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N183" s="106"/>
-      <c r="O183" s="128"/>
-      <c r="P183" s="128"/>
-      <c r="Q183" s="128"/>
-      <c r="R183" s="128"/>
-      <c r="S183" s="128"/>
-      <c r="T183" s="128"/>
-      <c r="U183" s="128"/>
-      <c r="V183" s="128"/>
-      <c r="W183" s="128"/>
-      <c r="X183" s="128"/>
       <c r="Y183" s="102"/>
       <c r="Z183" s="106"/>
-      <c r="AA183" s="128"/>
-      <c r="AB183" s="128"/>
-      <c r="AC183" s="128"/>
-      <c r="AD183" s="128"/>
-      <c r="AE183" s="128"/>
-      <c r="AF183" s="128"/>
-      <c r="AG183" s="128"/>
-      <c r="AH183" s="128"/>
-      <c r="AI183" s="128"/>
       <c r="AJ183" s="102"/>
-      <c r="AK183" s="128"/>
-      <c r="AL183" s="128"/>
-      <c r="AM183" s="128"/>
-      <c r="AN183" s="128"/>
-      <c r="AO183" s="128"/>
-      <c r="AP183" s="128"/>
-      <c r="AQ183" s="128"/>
-      <c r="AR183" s="128"/>
-      <c r="AS183" s="128"/>
-      <c r="AT183" s="128"/>
-      <c r="AU183" s="128"/>
       <c r="AV183" s="102"/>
     </row>
     <row r="184" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N184" s="106"/>
-      <c r="O184" s="128"/>
-      <c r="P184" s="128"/>
-      <c r="Q184" s="128"/>
-      <c r="R184" s="128"/>
-      <c r="S184" s="128"/>
-      <c r="T184" s="128"/>
-      <c r="U184" s="128"/>
-      <c r="V184" s="128"/>
-      <c r="W184" s="128"/>
-      <c r="X184" s="128"/>
       <c r="Y184" s="102"/>
       <c r="Z184" s="106"/>
-      <c r="AA184" s="128"/>
-      <c r="AB184" s="128"/>
-      <c r="AC184" s="128"/>
-      <c r="AD184" s="128"/>
-      <c r="AE184" s="128"/>
-      <c r="AF184" s="128"/>
-      <c r="AG184" s="128"/>
-      <c r="AH184" s="128"/>
-      <c r="AI184" s="128"/>
       <c r="AJ184" s="102"/>
-      <c r="AK184" s="128"/>
-      <c r="AL184" s="128"/>
-      <c r="AM184" s="128"/>
-      <c r="AN184" s="128"/>
-      <c r="AO184" s="128"/>
-      <c r="AP184" s="128"/>
-      <c r="AQ184" s="128"/>
-      <c r="AR184" s="128"/>
-      <c r="AS184" s="128"/>
-      <c r="AT184" s="128"/>
-      <c r="AU184" s="128"/>
       <c r="AV184" s="102"/>
     </row>
     <row r="185" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N185" s="106"/>
-      <c r="O185" s="128"/>
-      <c r="P185" s="128"/>
-      <c r="Q185" s="128"/>
-      <c r="R185" s="128"/>
-      <c r="S185" s="128"/>
-      <c r="T185" s="128"/>
-      <c r="U185" s="128"/>
-      <c r="V185" s="128"/>
-      <c r="W185" s="128"/>
-      <c r="X185" s="128"/>
       <c r="Y185" s="102"/>
       <c r="Z185" s="106"/>
-      <c r="AA185" s="128"/>
-      <c r="AB185" s="128"/>
-      <c r="AC185" s="128"/>
-      <c r="AD185" s="128"/>
-      <c r="AE185" s="128"/>
-      <c r="AF185" s="128"/>
-      <c r="AG185" s="128"/>
-      <c r="AH185" s="128"/>
-      <c r="AI185" s="128"/>
       <c r="AJ185" s="102"/>
-      <c r="AK185" s="128"/>
-      <c r="AL185" s="128"/>
-      <c r="AM185" s="128"/>
-      <c r="AN185" s="128"/>
-      <c r="AO185" s="128"/>
-      <c r="AP185" s="128"/>
-      <c r="AQ185" s="128"/>
-      <c r="AR185" s="128"/>
-      <c r="AS185" s="128"/>
-      <c r="AT185" s="128"/>
-      <c r="AU185" s="128"/>
       <c r="AV185" s="102"/>
     </row>
     <row r="186" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N186" s="106"/>
-      <c r="O186" s="128"/>
-      <c r="P186" s="128"/>
-      <c r="Q186" s="128"/>
-      <c r="R186" s="128"/>
-      <c r="S186" s="128"/>
-      <c r="T186" s="128"/>
-      <c r="U186" s="128"/>
-      <c r="V186" s="128"/>
-      <c r="W186" s="128"/>
-      <c r="X186" s="128"/>
       <c r="Y186" s="102"/>
       <c r="Z186" s="106"/>
-      <c r="AA186" s="128"/>
-      <c r="AB186" s="128"/>
-      <c r="AC186" s="128"/>
-      <c r="AD186" s="128"/>
-      <c r="AE186" s="128"/>
-      <c r="AF186" s="128"/>
-      <c r="AG186" s="128"/>
-      <c r="AH186" s="128"/>
-      <c r="AI186" s="128"/>
       <c r="AJ186" s="102"/>
-      <c r="AK186" s="128"/>
-      <c r="AL186" s="128"/>
-      <c r="AM186" s="128"/>
-      <c r="AN186" s="128"/>
-      <c r="AO186" s="128"/>
-      <c r="AP186" s="128"/>
-      <c r="AQ186" s="128"/>
-      <c r="AR186" s="128"/>
-      <c r="AS186" s="128"/>
-      <c r="AT186" s="128"/>
-      <c r="AU186" s="128"/>
       <c r="AV186" s="102"/>
     </row>
     <row r="187" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N187" s="106"/>
-      <c r="O187" s="128"/>
-      <c r="P187" s="128"/>
-      <c r="Q187" s="128"/>
-      <c r="R187" s="128"/>
-      <c r="S187" s="128"/>
-      <c r="T187" s="128"/>
-      <c r="U187" s="128"/>
-      <c r="V187" s="128"/>
-      <c r="W187" s="128"/>
-      <c r="X187" s="128"/>
       <c r="Y187" s="102"/>
       <c r="Z187" s="106"/>
-      <c r="AA187" s="128"/>
-      <c r="AB187" s="128"/>
-      <c r="AC187" s="128"/>
-      <c r="AD187" s="128"/>
-      <c r="AE187" s="128"/>
-      <c r="AF187" s="128"/>
-      <c r="AG187" s="128"/>
-      <c r="AH187" s="128"/>
-      <c r="AI187" s="128"/>
       <c r="AJ187" s="102"/>
-      <c r="AK187" s="128"/>
-      <c r="AL187" s="128"/>
-      <c r="AM187" s="128"/>
-      <c r="AN187" s="128"/>
-      <c r="AO187" s="128"/>
-      <c r="AP187" s="128"/>
-      <c r="AQ187" s="128"/>
-      <c r="AR187" s="128"/>
-      <c r="AS187" s="128"/>
-      <c r="AT187" s="128"/>
-      <c r="AU187" s="128"/>
       <c r="AV187" s="102"/>
     </row>
     <row r="188" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N188" s="106"/>
-      <c r="O188" s="128"/>
-      <c r="P188" s="128"/>
-      <c r="Q188" s="128"/>
-      <c r="R188" s="128"/>
-      <c r="S188" s="128"/>
-      <c r="T188" s="128"/>
-      <c r="U188" s="128"/>
-      <c r="V188" s="128"/>
-      <c r="W188" s="128"/>
-      <c r="X188" s="128"/>
       <c r="Y188" s="102"/>
       <c r="Z188" s="106"/>
-      <c r="AA188" s="128"/>
-      <c r="AB188" s="128"/>
-      <c r="AC188" s="128"/>
-      <c r="AD188" s="128"/>
-      <c r="AE188" s="128"/>
-      <c r="AF188" s="128"/>
-      <c r="AG188" s="128"/>
-      <c r="AH188" s="128"/>
-      <c r="AI188" s="128"/>
       <c r="AJ188" s="102"/>
-      <c r="AK188" s="128"/>
-      <c r="AL188" s="128"/>
-      <c r="AM188" s="128"/>
-      <c r="AN188" s="128"/>
-      <c r="AO188" s="128"/>
-      <c r="AP188" s="128"/>
-      <c r="AQ188" s="128"/>
-      <c r="AR188" s="128"/>
-      <c r="AS188" s="128"/>
-      <c r="AT188" s="128"/>
-      <c r="AU188" s="128"/>
       <c r="AV188" s="102"/>
     </row>
     <row r="189" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N189" s="106"/>
-      <c r="O189" s="128"/>
-      <c r="P189" s="128"/>
-      <c r="Q189" s="128"/>
-      <c r="R189" s="128"/>
-      <c r="S189" s="128"/>
-      <c r="T189" s="128"/>
-      <c r="U189" s="128"/>
-      <c r="V189" s="128"/>
-      <c r="W189" s="128"/>
-      <c r="X189" s="128"/>
       <c r="Y189" s="102"/>
       <c r="Z189" s="106"/>
-      <c r="AA189" s="128"/>
-      <c r="AB189" s="128"/>
-      <c r="AC189" s="128"/>
-      <c r="AD189" s="128"/>
-      <c r="AE189" s="128"/>
-      <c r="AF189" s="128"/>
-      <c r="AG189" s="128"/>
-      <c r="AH189" s="128"/>
-      <c r="AI189" s="128"/>
       <c r="AJ189" s="102"/>
-      <c r="AK189" s="128"/>
-      <c r="AL189" s="128"/>
-      <c r="AM189" s="128"/>
-      <c r="AN189" s="128"/>
-      <c r="AO189" s="128"/>
-      <c r="AP189" s="128"/>
-      <c r="AQ189" s="128"/>
-      <c r="AR189" s="128"/>
-      <c r="AS189" s="128"/>
-      <c r="AT189" s="128"/>
-      <c r="AU189" s="128"/>
       <c r="AV189" s="102"/>
     </row>
     <row r="190" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N190" s="106"/>
-      <c r="O190" s="128"/>
-      <c r="P190" s="128"/>
-      <c r="Q190" s="128"/>
-      <c r="R190" s="128"/>
-      <c r="S190" s="128"/>
-      <c r="T190" s="128"/>
-      <c r="U190" s="128"/>
-      <c r="V190" s="128"/>
-      <c r="W190" s="128"/>
-      <c r="X190" s="128"/>
       <c r="Y190" s="102"/>
       <c r="Z190" s="106"/>
-      <c r="AA190" s="128"/>
-      <c r="AB190" s="128"/>
-      <c r="AC190" s="128"/>
-      <c r="AD190" s="128"/>
-      <c r="AE190" s="128"/>
-      <c r="AF190" s="128"/>
-      <c r="AG190" s="128"/>
-      <c r="AH190" s="128"/>
-      <c r="AI190" s="128"/>
       <c r="AJ190" s="102"/>
-      <c r="AK190" s="128"/>
-      <c r="AL190" s="128"/>
-      <c r="AM190" s="128"/>
-      <c r="AN190" s="128"/>
-      <c r="AO190" s="128"/>
-      <c r="AP190" s="128"/>
-      <c r="AQ190" s="128"/>
-      <c r="AR190" s="128"/>
-      <c r="AS190" s="128"/>
-      <c r="AT190" s="128"/>
-      <c r="AU190" s="128"/>
       <c r="AV190" s="102"/>
     </row>
     <row r="191" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N191" s="106"/>
-      <c r="O191" s="128"/>
-      <c r="P191" s="128"/>
-      <c r="Q191" s="128"/>
-      <c r="R191" s="128"/>
-      <c r="S191" s="128"/>
-      <c r="T191" s="128"/>
-      <c r="U191" s="128"/>
-      <c r="V191" s="128"/>
-      <c r="W191" s="128"/>
-      <c r="X191" s="128"/>
       <c r="Y191" s="102"/>
       <c r="Z191" s="106"/>
-      <c r="AA191" s="128"/>
-      <c r="AB191" s="128"/>
-      <c r="AC191" s="128"/>
-      <c r="AD191" s="128"/>
-      <c r="AE191" s="128"/>
-      <c r="AF191" s="128"/>
-      <c r="AG191" s="128"/>
-      <c r="AH191" s="128"/>
-      <c r="AI191" s="128"/>
       <c r="AJ191" s="102"/>
-      <c r="AK191" s="128"/>
-      <c r="AL191" s="128"/>
-      <c r="AM191" s="128"/>
-      <c r="AN191" s="128"/>
-      <c r="AO191" s="128"/>
-      <c r="AP191" s="128"/>
-      <c r="AQ191" s="128"/>
-      <c r="AR191" s="128"/>
-      <c r="AS191" s="128"/>
-      <c r="AT191" s="128"/>
-      <c r="AU191" s="128"/>
       <c r="AV191" s="102"/>
     </row>
     <row r="192" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N192" s="106"/>
-      <c r="O192" s="128"/>
-      <c r="P192" s="128"/>
-      <c r="Q192" s="128"/>
-      <c r="R192" s="128"/>
-      <c r="S192" s="128"/>
-      <c r="T192" s="128"/>
-      <c r="U192" s="128"/>
-      <c r="V192" s="128"/>
-      <c r="W192" s="128"/>
-      <c r="X192" s="128"/>
       <c r="Y192" s="102"/>
       <c r="Z192" s="106"/>
-      <c r="AA192" s="128"/>
-      <c r="AB192" s="128"/>
-      <c r="AC192" s="128"/>
-      <c r="AD192" s="128"/>
-      <c r="AE192" s="128"/>
-      <c r="AF192" s="128"/>
-      <c r="AG192" s="128"/>
-      <c r="AH192" s="128"/>
-      <c r="AI192" s="128"/>
       <c r="AJ192" s="102"/>
-      <c r="AK192" s="128"/>
-      <c r="AL192" s="128"/>
-      <c r="AM192" s="128"/>
-      <c r="AN192" s="128"/>
-      <c r="AO192" s="128"/>
-      <c r="AP192" s="128"/>
-      <c r="AQ192" s="128"/>
-      <c r="AR192" s="128"/>
-      <c r="AS192" s="128"/>
-      <c r="AT192" s="128"/>
-      <c r="AU192" s="128"/>
       <c r="AV192" s="102"/>
     </row>
     <row r="193" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N193" s="106"/>
-      <c r="O193" s="128"/>
-      <c r="P193" s="128"/>
-      <c r="Q193" s="128"/>
-      <c r="R193" s="128"/>
-      <c r="S193" s="128"/>
-      <c r="T193" s="128"/>
-      <c r="U193" s="128"/>
-      <c r="V193" s="128"/>
-      <c r="W193" s="128"/>
-      <c r="X193" s="128"/>
       <c r="Y193" s="102"/>
       <c r="Z193" s="106"/>
-      <c r="AA193" s="128"/>
-      <c r="AB193" s="128"/>
-      <c r="AC193" s="128"/>
-      <c r="AD193" s="128"/>
-      <c r="AE193" s="128"/>
-      <c r="AF193" s="128"/>
-      <c r="AG193" s="128"/>
-      <c r="AH193" s="128"/>
-      <c r="AI193" s="128"/>
       <c r="AJ193" s="102"/>
-      <c r="AK193" s="128"/>
-      <c r="AL193" s="128"/>
-      <c r="AM193" s="128"/>
-      <c r="AN193" s="128"/>
-      <c r="AO193" s="128"/>
-      <c r="AP193" s="128"/>
-      <c r="AQ193" s="128"/>
-      <c r="AR193" s="128"/>
-      <c r="AS193" s="128"/>
-      <c r="AT193" s="128"/>
-      <c r="AU193" s="128"/>
       <c r="AV193" s="102"/>
     </row>
     <row r="194" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N194" s="106"/>
-      <c r="O194" s="128"/>
-      <c r="P194" s="128"/>
-      <c r="Q194" s="128"/>
-      <c r="R194" s="128"/>
-      <c r="S194" s="128"/>
-      <c r="T194" s="128"/>
-      <c r="U194" s="128"/>
-      <c r="V194" s="128"/>
-      <c r="W194" s="128"/>
-      <c r="X194" s="128"/>
       <c r="Y194" s="102"/>
       <c r="Z194" s="106"/>
-      <c r="AA194" s="128"/>
-      <c r="AB194" s="128"/>
-      <c r="AC194" s="128"/>
-      <c r="AD194" s="128"/>
-      <c r="AE194" s="128"/>
-      <c r="AF194" s="128"/>
-      <c r="AG194" s="128"/>
-      <c r="AH194" s="128"/>
-      <c r="AI194" s="128"/>
       <c r="AJ194" s="102"/>
-      <c r="AK194" s="128"/>
-      <c r="AL194" s="128"/>
-      <c r="AM194" s="128"/>
-      <c r="AN194" s="128"/>
-      <c r="AO194" s="128"/>
-      <c r="AP194" s="128"/>
-      <c r="AQ194" s="128"/>
-      <c r="AR194" s="128"/>
-      <c r="AS194" s="128"/>
-      <c r="AT194" s="128"/>
-      <c r="AU194" s="128"/>
       <c r="AV194" s="102"/>
     </row>
     <row r="195" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N195" s="106"/>
-      <c r="O195" s="128"/>
-      <c r="P195" s="128"/>
-      <c r="Q195" s="128"/>
-      <c r="R195" s="128"/>
-      <c r="S195" s="128"/>
-      <c r="T195" s="128"/>
-      <c r="U195" s="128"/>
-      <c r="V195" s="128"/>
-      <c r="W195" s="128"/>
-      <c r="X195" s="128"/>
       <c r="Y195" s="102"/>
       <c r="Z195" s="106"/>
-      <c r="AA195" s="128"/>
-      <c r="AB195" s="128"/>
-      <c r="AC195" s="128"/>
-      <c r="AD195" s="128"/>
-      <c r="AE195" s="128"/>
-      <c r="AF195" s="128"/>
-      <c r="AG195" s="128"/>
-      <c r="AH195" s="128"/>
-      <c r="AI195" s="128"/>
       <c r="AJ195" s="102"/>
-      <c r="AK195" s="128"/>
-      <c r="AL195" s="128"/>
-      <c r="AM195" s="128"/>
-      <c r="AN195" s="128"/>
-      <c r="AO195" s="128"/>
-      <c r="AP195" s="128"/>
-      <c r="AQ195" s="128"/>
-      <c r="AR195" s="128"/>
-      <c r="AS195" s="128"/>
-      <c r="AT195" s="128"/>
-      <c r="AU195" s="128"/>
       <c r="AV195" s="102"/>
     </row>
     <row r="196" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N196" s="106"/>
-      <c r="O196" s="128"/>
-      <c r="P196" s="128" t="s">
+      <c r="P196" t="s">
         <v>51</v>
       </c>
-      <c r="Q196" s="128"/>
-      <c r="R196" s="128"/>
-      <c r="S196" s="128"/>
-      <c r="T196" s="128"/>
-      <c r="U196" s="128"/>
-      <c r="V196" s="128"/>
-      <c r="W196" s="128"/>
-      <c r="X196" s="128"/>
       <c r="Y196" s="102"/>
       <c r="Z196" s="106"/>
-      <c r="AA196" s="128" t="s">
+      <c r="AA196" t="s">
         <v>61</v>
       </c>
-      <c r="AB196" s="128"/>
-      <c r="AC196" s="128"/>
-      <c r="AD196" s="128"/>
-      <c r="AE196" s="128"/>
-      <c r="AF196" s="128"/>
-      <c r="AG196" s="128"/>
-      <c r="AH196" s="128"/>
-      <c r="AI196" s="128"/>
       <c r="AJ196" s="102"/>
-      <c r="AK196" s="128"/>
-      <c r="AL196" s="128"/>
-      <c r="AM196" s="128"/>
-      <c r="AN196" s="128"/>
-      <c r="AO196" s="128"/>
-      <c r="AP196" s="128"/>
-      <c r="AQ196" s="128"/>
-      <c r="AR196" s="128"/>
-      <c r="AS196" s="128"/>
-      <c r="AT196" s="128"/>
-      <c r="AU196" s="128"/>
+      <c r="AL196" t="s">
+        <v>71</v>
+      </c>
       <c r="AV196" s="102"/>
     </row>
     <row r="197" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N197" s="106"/>
-      <c r="O197" s="128"/>
-      <c r="P197" s="128"/>
-      <c r="Q197" s="128"/>
-      <c r="R197" s="128"/>
-      <c r="S197" s="128"/>
-      <c r="T197" s="128"/>
-      <c r="U197" s="128"/>
-      <c r="V197" s="128"/>
-      <c r="W197" s="128"/>
-      <c r="X197" s="128"/>
       <c r="Y197" s="102"/>
       <c r="Z197" s="106"/>
-      <c r="AA197" s="128"/>
-      <c r="AB197" s="128"/>
-      <c r="AC197" s="128"/>
-      <c r="AD197" s="128"/>
-      <c r="AE197" s="128"/>
-      <c r="AF197" s="128"/>
-      <c r="AG197" s="128"/>
-      <c r="AH197" s="128"/>
-      <c r="AI197" s="128"/>
       <c r="AJ197" s="102"/>
-      <c r="AK197" s="128"/>
-      <c r="AL197" s="128"/>
-      <c r="AM197" s="128"/>
-      <c r="AN197" s="128"/>
-      <c r="AO197" s="128"/>
-      <c r="AP197" s="128"/>
-      <c r="AQ197" s="128"/>
-      <c r="AR197" s="128"/>
-      <c r="AS197" s="128"/>
-      <c r="AT197" s="128"/>
-      <c r="AU197" s="128"/>
       <c r="AV197" s="102"/>
     </row>
     <row r="198" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N198" s="106"/>
-      <c r="O198" s="128"/>
-      <c r="P198" s="128"/>
-      <c r="Q198" s="128"/>
-      <c r="R198" s="128"/>
-      <c r="S198" s="128"/>
-      <c r="T198" s="128"/>
-      <c r="U198" s="128"/>
-      <c r="V198" s="128"/>
-      <c r="W198" s="128"/>
-      <c r="X198" s="128"/>
       <c r="Y198" s="102"/>
       <c r="Z198" s="106"/>
-      <c r="AA198" s="128"/>
-      <c r="AB198" s="128"/>
-      <c r="AC198" s="128"/>
-      <c r="AD198" s="128"/>
-      <c r="AE198" s="128"/>
-      <c r="AF198" s="128"/>
-      <c r="AG198" s="128"/>
-      <c r="AH198" s="128"/>
-      <c r="AI198" s="128"/>
       <c r="AJ198" s="102"/>
-      <c r="AK198" s="128"/>
-      <c r="AL198" s="128"/>
-      <c r="AM198" s="128"/>
-      <c r="AN198" s="128"/>
-      <c r="AO198" s="128"/>
-      <c r="AP198" s="128"/>
-      <c r="AQ198" s="128"/>
-      <c r="AR198" s="128"/>
-      <c r="AS198" s="128"/>
-      <c r="AT198" s="128"/>
-      <c r="AU198" s="128"/>
       <c r="AV198" s="102"/>
     </row>
     <row r="199" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N199" s="106"/>
-      <c r="O199" s="128"/>
-      <c r="P199" s="128"/>
-      <c r="Q199" s="128"/>
-      <c r="R199" s="128"/>
-      <c r="S199" s="128"/>
-      <c r="T199" s="128"/>
-      <c r="U199" s="128"/>
-      <c r="V199" s="128"/>
-      <c r="W199" s="128"/>
-      <c r="X199" s="128"/>
       <c r="Y199" s="102"/>
       <c r="Z199" s="106"/>
-      <c r="AA199" s="128"/>
-      <c r="AB199" s="128"/>
-      <c r="AC199" s="128"/>
-      <c r="AD199" s="128"/>
-      <c r="AE199" s="128"/>
-      <c r="AF199" s="128"/>
-      <c r="AG199" s="128"/>
-      <c r="AH199" s="128"/>
-      <c r="AI199" s="128"/>
       <c r="AJ199" s="102"/>
-      <c r="AK199" s="128"/>
-      <c r="AL199" s="128"/>
-      <c r="AM199" s="128"/>
-      <c r="AN199" s="128"/>
-      <c r="AO199" s="128"/>
-      <c r="AP199" s="128"/>
-      <c r="AQ199" s="128"/>
-      <c r="AR199" s="128"/>
-      <c r="AS199" s="128"/>
-      <c r="AT199" s="128"/>
-      <c r="AU199" s="128"/>
       <c r="AV199" s="102"/>
     </row>
     <row r="200" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N200" s="106"/>
-      <c r="O200" s="128"/>
-      <c r="P200" s="128"/>
-      <c r="Q200" s="128"/>
-      <c r="R200" s="128"/>
-      <c r="S200" s="128"/>
-      <c r="T200" s="128"/>
-      <c r="U200" s="128"/>
-      <c r="V200" s="128"/>
-      <c r="W200" s="128"/>
-      <c r="X200" s="128"/>
       <c r="Y200" s="102"/>
       <c r="Z200" s="106"/>
-      <c r="AA200" s="128"/>
-      <c r="AB200" s="128"/>
-      <c r="AC200" s="128"/>
-      <c r="AD200" s="128"/>
-      <c r="AE200" s="128"/>
-      <c r="AF200" s="128"/>
-      <c r="AG200" s="128"/>
-      <c r="AH200" s="128"/>
-      <c r="AI200" s="128"/>
       <c r="AJ200" s="102"/>
-      <c r="AK200" s="128"/>
-      <c r="AL200" s="128"/>
-      <c r="AM200" s="128"/>
-      <c r="AN200" s="128"/>
-      <c r="AO200" s="128"/>
-      <c r="AP200" s="128"/>
-      <c r="AQ200" s="128"/>
-      <c r="AR200" s="128"/>
-      <c r="AS200" s="128"/>
-      <c r="AT200" s="128"/>
-      <c r="AU200" s="128"/>
       <c r="AV200" s="102"/>
     </row>
     <row r="201" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N201" s="106"/>
-      <c r="O201" s="128"/>
-      <c r="P201" s="128"/>
-      <c r="Q201" s="128"/>
-      <c r="R201" s="128"/>
-      <c r="S201" s="128"/>
-      <c r="T201" s="128"/>
-      <c r="U201" s="128"/>
-      <c r="V201" s="128"/>
-      <c r="W201" s="128"/>
-      <c r="X201" s="128"/>
       <c r="Y201" s="102"/>
       <c r="Z201" s="106"/>
-      <c r="AA201" s="128"/>
-      <c r="AB201" s="128"/>
-      <c r="AC201" s="128"/>
-      <c r="AD201" s="128"/>
-      <c r="AE201" s="128"/>
-      <c r="AF201" s="128"/>
-      <c r="AG201" s="128"/>
-      <c r="AH201" s="128"/>
-      <c r="AI201" s="128"/>
       <c r="AJ201" s="102"/>
-      <c r="AK201" s="128"/>
-      <c r="AL201" s="128"/>
-      <c r="AM201" s="128"/>
-      <c r="AN201" s="128"/>
-      <c r="AO201" s="128"/>
-      <c r="AP201" s="128"/>
-      <c r="AQ201" s="128"/>
-      <c r="AR201" s="128"/>
-      <c r="AS201" s="128"/>
-      <c r="AT201" s="128"/>
-      <c r="AU201" s="128"/>
       <c r="AV201" s="102"/>
     </row>
     <row r="202" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N202" s="106"/>
-      <c r="O202" s="128"/>
-      <c r="P202" s="128"/>
-      <c r="Q202" s="128"/>
-      <c r="R202" s="128"/>
-      <c r="S202" s="128"/>
-      <c r="T202" s="128"/>
-      <c r="U202" s="128"/>
-      <c r="V202" s="128"/>
-      <c r="W202" s="128"/>
-      <c r="X202" s="128"/>
       <c r="Y202" s="102"/>
       <c r="Z202" s="106"/>
-      <c r="AA202" s="128"/>
-      <c r="AB202" s="128"/>
-      <c r="AC202" s="128"/>
-      <c r="AD202" s="128"/>
-      <c r="AE202" s="128"/>
-      <c r="AF202" s="128"/>
-      <c r="AG202" s="128"/>
-      <c r="AH202" s="128"/>
-      <c r="AI202" s="128"/>
       <c r="AJ202" s="102"/>
-      <c r="AK202" s="128"/>
-      <c r="AL202" s="128"/>
-      <c r="AM202" s="128"/>
-      <c r="AN202" s="128"/>
-      <c r="AO202" s="128"/>
-      <c r="AP202" s="128"/>
-      <c r="AQ202" s="128"/>
-      <c r="AR202" s="128"/>
-      <c r="AS202" s="128"/>
-      <c r="AT202" s="128"/>
-      <c r="AU202" s="128"/>
       <c r="AV202" s="102"/>
     </row>
     <row r="203" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N203" s="106"/>
-      <c r="O203" s="128"/>
-      <c r="P203" s="128"/>
-      <c r="Q203" s="128"/>
-      <c r="R203" s="128"/>
-      <c r="S203" s="128"/>
-      <c r="T203" s="128"/>
-      <c r="U203" s="128"/>
-      <c r="V203" s="128"/>
-      <c r="W203" s="128"/>
-      <c r="X203" s="128"/>
       <c r="Y203" s="102"/>
       <c r="Z203" s="106"/>
-      <c r="AA203" s="128"/>
-      <c r="AB203" s="128"/>
-      <c r="AC203" s="128"/>
-      <c r="AD203" s="128"/>
-      <c r="AE203" s="128"/>
-      <c r="AF203" s="128"/>
-      <c r="AG203" s="128"/>
-      <c r="AH203" s="128"/>
-      <c r="AI203" s="128"/>
       <c r="AJ203" s="102"/>
-      <c r="AK203" s="128"/>
-      <c r="AL203" s="128"/>
-      <c r="AM203" s="128"/>
-      <c r="AN203" s="128"/>
-      <c r="AO203" s="128"/>
-      <c r="AP203" s="128"/>
-      <c r="AQ203" s="128"/>
-      <c r="AR203" s="128"/>
-      <c r="AS203" s="128"/>
-      <c r="AT203" s="128"/>
-      <c r="AU203" s="128"/>
       <c r="AV203" s="102"/>
     </row>
     <row r="204" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N204" s="106"/>
-      <c r="O204" s="128"/>
-      <c r="P204" s="128"/>
-      <c r="Q204" s="128"/>
-      <c r="R204" s="128"/>
-      <c r="S204" s="128"/>
-      <c r="T204" s="128"/>
-      <c r="U204" s="128"/>
-      <c r="V204" s="128"/>
-      <c r="W204" s="128"/>
-      <c r="X204" s="128"/>
       <c r="Y204" s="102"/>
       <c r="Z204" s="106"/>
-      <c r="AA204" s="128"/>
-      <c r="AB204" s="128"/>
-      <c r="AC204" s="128"/>
-      <c r="AD204" s="128"/>
-      <c r="AE204" s="128"/>
-      <c r="AF204" s="128"/>
-      <c r="AG204" s="128"/>
-      <c r="AH204" s="128"/>
-      <c r="AI204" s="128"/>
       <c r="AJ204" s="102"/>
-      <c r="AK204" s="128"/>
-      <c r="AL204" s="128"/>
-      <c r="AM204" s="128"/>
-      <c r="AN204" s="128"/>
-      <c r="AO204" s="128"/>
-      <c r="AP204" s="128"/>
-      <c r="AQ204" s="128"/>
-      <c r="AR204" s="128"/>
-      <c r="AS204" s="128"/>
-      <c r="AT204" s="128"/>
-      <c r="AU204" s="128"/>
       <c r="AV204" s="102"/>
     </row>
     <row r="205" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N205" s="106"/>
-      <c r="O205" s="128"/>
-      <c r="P205" s="128"/>
-      <c r="Q205" s="128"/>
-      <c r="R205" s="128"/>
-      <c r="S205" s="128"/>
-      <c r="T205" s="128"/>
-      <c r="U205" s="128"/>
-      <c r="V205" s="128"/>
-      <c r="W205" s="128"/>
-      <c r="X205" s="128"/>
       <c r="Y205" s="102"/>
       <c r="Z205" s="106"/>
-      <c r="AA205" s="128"/>
-      <c r="AB205" s="128"/>
-      <c r="AC205" s="128"/>
-      <c r="AD205" s="128"/>
-      <c r="AE205" s="128"/>
-      <c r="AF205" s="128"/>
-      <c r="AG205" s="128"/>
-      <c r="AH205" s="128"/>
-      <c r="AI205" s="128"/>
       <c r="AJ205" s="102"/>
-      <c r="AK205" s="128"/>
-      <c r="AL205" s="128"/>
-      <c r="AM205" s="128"/>
-      <c r="AN205" s="128"/>
-      <c r="AO205" s="128"/>
-      <c r="AP205" s="128"/>
-      <c r="AQ205" s="128"/>
-      <c r="AR205" s="128"/>
-      <c r="AS205" s="128"/>
-      <c r="AT205" s="128"/>
-      <c r="AU205" s="128"/>
       <c r="AV205" s="102"/>
     </row>
     <row r="206" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N206" s="106"/>
-      <c r="O206" s="128"/>
-      <c r="P206" s="128"/>
-      <c r="Q206" s="128"/>
-      <c r="R206" s="128"/>
-      <c r="S206" s="128"/>
-      <c r="T206" s="128"/>
-      <c r="U206" s="128"/>
-      <c r="V206" s="128"/>
-      <c r="W206" s="128"/>
-      <c r="X206" s="128"/>
       <c r="Y206" s="102"/>
       <c r="Z206" s="106"/>
-      <c r="AA206" s="128"/>
-      <c r="AB206" s="128"/>
-      <c r="AC206" s="128"/>
-      <c r="AD206" s="128"/>
-      <c r="AE206" s="128"/>
-      <c r="AF206" s="128"/>
-      <c r="AG206" s="128"/>
-      <c r="AH206" s="128"/>
-      <c r="AI206" s="128"/>
       <c r="AJ206" s="102"/>
-      <c r="AK206" s="128"/>
-      <c r="AL206" s="128"/>
-      <c r="AM206" s="128"/>
-      <c r="AN206" s="128"/>
-      <c r="AO206" s="128"/>
-      <c r="AP206" s="128"/>
-      <c r="AQ206" s="128"/>
-      <c r="AR206" s="128"/>
-      <c r="AS206" s="128"/>
-      <c r="AT206" s="128"/>
-      <c r="AU206" s="128"/>
       <c r="AV206" s="102"/>
     </row>
     <row r="207" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N207" s="106"/>
-      <c r="O207" s="128"/>
-      <c r="P207" s="128"/>
-      <c r="Q207" s="128"/>
-      <c r="R207" s="128"/>
-      <c r="S207" s="128"/>
-      <c r="T207" s="128"/>
-      <c r="U207" s="128"/>
-      <c r="V207" s="128"/>
-      <c r="W207" s="128"/>
-      <c r="X207" s="128"/>
       <c r="Y207" s="102"/>
       <c r="Z207" s="106"/>
-      <c r="AA207" s="128"/>
-      <c r="AB207" s="128"/>
-      <c r="AC207" s="128"/>
-      <c r="AD207" s="128"/>
-      <c r="AE207" s="128"/>
-      <c r="AF207" s="128"/>
-      <c r="AG207" s="128"/>
-      <c r="AH207" s="128"/>
-      <c r="AI207" s="128"/>
       <c r="AJ207" s="102"/>
-      <c r="AK207" s="128"/>
-      <c r="AL207" s="128"/>
-      <c r="AM207" s="128"/>
-      <c r="AN207" s="128"/>
-      <c r="AO207" s="128"/>
-      <c r="AP207" s="128"/>
-      <c r="AQ207" s="128"/>
-      <c r="AR207" s="128"/>
-      <c r="AS207" s="128"/>
-      <c r="AT207" s="128"/>
-      <c r="AU207" s="128"/>
       <c r="AV207" s="102"/>
     </row>
     <row r="208" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N208" s="106"/>
-      <c r="O208" s="128"/>
-      <c r="P208" s="128"/>
-      <c r="Q208" s="128"/>
-      <c r="R208" s="128"/>
-      <c r="S208" s="128"/>
-      <c r="T208" s="128"/>
-      <c r="U208" s="128"/>
-      <c r="V208" s="128"/>
-      <c r="W208" s="128"/>
-      <c r="X208" s="128"/>
       <c r="Y208" s="102"/>
       <c r="Z208" s="106"/>
-      <c r="AA208" s="128"/>
-      <c r="AB208" s="128"/>
-      <c r="AC208" s="128"/>
-      <c r="AD208" s="128"/>
-      <c r="AE208" s="128"/>
-      <c r="AF208" s="128"/>
-      <c r="AG208" s="128"/>
-      <c r="AH208" s="128"/>
-      <c r="AI208" s="128"/>
       <c r="AJ208" s="102"/>
-      <c r="AK208" s="128"/>
-      <c r="AL208" s="128"/>
-      <c r="AM208" s="128"/>
-      <c r="AN208" s="128"/>
-      <c r="AO208" s="128"/>
-      <c r="AP208" s="128"/>
-      <c r="AQ208" s="128"/>
-      <c r="AR208" s="128"/>
-      <c r="AS208" s="128"/>
-      <c r="AT208" s="128"/>
-      <c r="AU208" s="128"/>
       <c r="AV208" s="102"/>
     </row>
     <row r="209" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N209" s="106"/>
-      <c r="O209" s="128"/>
-      <c r="P209" s="128"/>
-      <c r="Q209" s="128"/>
-      <c r="R209" s="128"/>
-      <c r="S209" s="128"/>
-      <c r="T209" s="128"/>
-      <c r="U209" s="128"/>
-      <c r="V209" s="128"/>
-      <c r="W209" s="128"/>
-      <c r="X209" s="128"/>
       <c r="Y209" s="102"/>
       <c r="Z209" s="106"/>
-      <c r="AA209" s="128"/>
-      <c r="AB209" s="128"/>
-      <c r="AC209" s="128"/>
-      <c r="AD209" s="128"/>
-      <c r="AE209" s="128"/>
-      <c r="AF209" s="128"/>
-      <c r="AG209" s="128"/>
-      <c r="AH209" s="128"/>
-      <c r="AI209" s="128"/>
       <c r="AJ209" s="102"/>
-      <c r="AK209" s="128"/>
-      <c r="AL209" s="128"/>
-      <c r="AM209" s="128"/>
-      <c r="AN209" s="128"/>
-      <c r="AO209" s="128"/>
-      <c r="AP209" s="128"/>
-      <c r="AQ209" s="128"/>
-      <c r="AR209" s="128"/>
-      <c r="AS209" s="128"/>
-      <c r="AT209" s="128"/>
-      <c r="AU209" s="128"/>
       <c r="AV209" s="102"/>
     </row>
     <row r="210" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N210" s="106"/>
-      <c r="O210" s="128"/>
-      <c r="P210" s="128"/>
-      <c r="Q210" s="128"/>
-      <c r="R210" s="128"/>
-      <c r="S210" s="128"/>
-      <c r="T210" s="128"/>
-      <c r="U210" s="128"/>
-      <c r="V210" s="128"/>
-      <c r="W210" s="128"/>
-      <c r="X210" s="128"/>
       <c r="Y210" s="102"/>
       <c r="Z210" s="106"/>
-      <c r="AA210" s="128"/>
-      <c r="AB210" s="128"/>
-      <c r="AC210" s="128"/>
-      <c r="AD210" s="128"/>
-      <c r="AE210" s="128"/>
-      <c r="AF210" s="128"/>
-      <c r="AG210" s="128"/>
-      <c r="AH210" s="128"/>
-      <c r="AI210" s="128"/>
       <c r="AJ210" s="102"/>
-      <c r="AK210" s="128"/>
-      <c r="AL210" s="128"/>
-      <c r="AM210" s="128"/>
-      <c r="AN210" s="128"/>
-      <c r="AO210" s="128"/>
-      <c r="AP210" s="128"/>
-      <c r="AQ210" s="128"/>
-      <c r="AR210" s="128"/>
-      <c r="AS210" s="128"/>
-      <c r="AT210" s="128"/>
-      <c r="AU210" s="128"/>
       <c r="AV210" s="102"/>
     </row>
     <row r="211" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N211" s="106"/>
-      <c r="O211" s="128"/>
-      <c r="P211" s="128"/>
-      <c r="Q211" s="128"/>
-      <c r="R211" s="128"/>
-      <c r="S211" s="128"/>
-      <c r="T211" s="128"/>
-      <c r="U211" s="128"/>
-      <c r="V211" s="128"/>
-      <c r="W211" s="128"/>
-      <c r="X211" s="128"/>
       <c r="Y211" s="102"/>
       <c r="Z211" s="106"/>
-      <c r="AA211" s="128"/>
-      <c r="AB211" s="128"/>
-      <c r="AC211" s="128"/>
-      <c r="AD211" s="128"/>
-      <c r="AE211" s="128"/>
-      <c r="AF211" s="128"/>
-      <c r="AG211" s="128"/>
-      <c r="AH211" s="128"/>
-      <c r="AI211" s="128"/>
       <c r="AJ211" s="102"/>
-      <c r="AK211" s="128"/>
-      <c r="AL211" s="128"/>
-      <c r="AM211" s="128"/>
-      <c r="AN211" s="128"/>
-      <c r="AO211" s="128"/>
-      <c r="AP211" s="128"/>
-      <c r="AQ211" s="128"/>
-      <c r="AR211" s="128"/>
-      <c r="AS211" s="128"/>
-      <c r="AT211" s="128"/>
-      <c r="AU211" s="128"/>
       <c r="AV211" s="102"/>
     </row>
     <row r="212" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N212" s="106"/>
-      <c r="O212" s="128"/>
-      <c r="P212" s="128"/>
-      <c r="Q212" s="128"/>
-      <c r="R212" s="128"/>
-      <c r="S212" s="128"/>
-      <c r="T212" s="128"/>
-      <c r="U212" s="128"/>
-      <c r="V212" s="128"/>
-      <c r="W212" s="128"/>
-      <c r="X212" s="128"/>
       <c r="Y212" s="102"/>
       <c r="Z212" s="106"/>
-      <c r="AA212" s="128"/>
-      <c r="AB212" s="128"/>
-      <c r="AC212" s="128"/>
-      <c r="AD212" s="128"/>
-      <c r="AE212" s="128"/>
-      <c r="AF212" s="128"/>
-      <c r="AG212" s="128"/>
-      <c r="AH212" s="128"/>
-      <c r="AI212" s="128"/>
       <c r="AJ212" s="102"/>
-      <c r="AK212" s="128"/>
-      <c r="AL212" s="128"/>
-      <c r="AM212" s="128"/>
-      <c r="AN212" s="128"/>
-      <c r="AO212" s="128"/>
-      <c r="AP212" s="128"/>
-      <c r="AQ212" s="128"/>
-      <c r="AR212" s="128"/>
-      <c r="AS212" s="128"/>
-      <c r="AT212" s="128"/>
-      <c r="AU212" s="128"/>
       <c r="AV212" s="102"/>
     </row>
     <row r="213" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N213" s="106"/>
-      <c r="O213" s="128"/>
-      <c r="P213" s="128"/>
-      <c r="Q213" s="128"/>
-      <c r="R213" s="128"/>
-      <c r="S213" s="128"/>
-      <c r="T213" s="128"/>
-      <c r="U213" s="128"/>
-      <c r="V213" s="128"/>
-      <c r="W213" s="128"/>
-      <c r="X213" s="128"/>
       <c r="Y213" s="102"/>
       <c r="Z213" s="106"/>
-      <c r="AA213" s="128"/>
-      <c r="AB213" s="128"/>
-      <c r="AC213" s="128"/>
-      <c r="AD213" s="128"/>
-      <c r="AE213" s="128"/>
-      <c r="AF213" s="128"/>
-      <c r="AG213" s="128"/>
-      <c r="AH213" s="128"/>
-      <c r="AI213" s="128"/>
       <c r="AJ213" s="102"/>
-      <c r="AK213" s="128"/>
-      <c r="AL213" s="128"/>
-      <c r="AM213" s="128"/>
-      <c r="AN213" s="128"/>
-      <c r="AO213" s="128"/>
-      <c r="AP213" s="128"/>
-      <c r="AQ213" s="128"/>
-      <c r="AR213" s="128"/>
-      <c r="AS213" s="128"/>
-      <c r="AT213" s="128"/>
-      <c r="AU213" s="128"/>
       <c r="AV213" s="102"/>
     </row>
     <row r="214" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N214" s="106"/>
-      <c r="O214" s="128"/>
-      <c r="P214" s="128"/>
-      <c r="Q214" s="128"/>
-      <c r="R214" s="128"/>
-      <c r="S214" s="128"/>
-      <c r="T214" s="128"/>
-      <c r="U214" s="128"/>
-      <c r="V214" s="128"/>
-      <c r="W214" s="128"/>
-      <c r="X214" s="128"/>
       <c r="Y214" s="102"/>
       <c r="Z214" s="106"/>
-      <c r="AA214" s="128"/>
-      <c r="AB214" s="128"/>
-      <c r="AC214" s="128"/>
-      <c r="AD214" s="128"/>
-      <c r="AE214" s="128"/>
-      <c r="AF214" s="128"/>
-      <c r="AG214" s="128"/>
-      <c r="AH214" s="128"/>
-      <c r="AI214" s="128"/>
       <c r="AJ214" s="102"/>
-      <c r="AK214" s="128"/>
-      <c r="AL214" s="128"/>
-      <c r="AM214" s="128"/>
-      <c r="AN214" s="128"/>
-      <c r="AO214" s="128"/>
-      <c r="AP214" s="128"/>
-      <c r="AQ214" s="128"/>
-      <c r="AR214" s="128"/>
-      <c r="AS214" s="128"/>
-      <c r="AT214" s="128"/>
-      <c r="AU214" s="128"/>
       <c r="AV214" s="102"/>
     </row>
     <row r="215" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N215" s="106"/>
-      <c r="O215" s="128"/>
-      <c r="P215" s="128"/>
-      <c r="Q215" s="128"/>
-      <c r="R215" s="128"/>
-      <c r="S215" s="128"/>
-      <c r="T215" s="128"/>
-      <c r="U215" s="128"/>
-      <c r="V215" s="128"/>
-      <c r="W215" s="128"/>
-      <c r="X215" s="128"/>
       <c r="Y215" s="102"/>
       <c r="Z215" s="106"/>
-      <c r="AA215" s="128"/>
-      <c r="AB215" s="128"/>
-      <c r="AC215" s="128"/>
-      <c r="AD215" s="128"/>
-      <c r="AE215" s="128"/>
-      <c r="AF215" s="128"/>
-      <c r="AG215" s="128"/>
-      <c r="AH215" s="128"/>
-      <c r="AI215" s="128"/>
       <c r="AJ215" s="102"/>
-      <c r="AK215" s="128"/>
-      <c r="AL215" s="128"/>
-      <c r="AM215" s="128"/>
-      <c r="AN215" s="128"/>
-      <c r="AO215" s="128"/>
-      <c r="AP215" s="128"/>
-      <c r="AQ215" s="128"/>
-      <c r="AR215" s="128"/>
-      <c r="AS215" s="128"/>
-      <c r="AT215" s="128"/>
-      <c r="AU215" s="128"/>
       <c r="AV215" s="102"/>
     </row>
     <row r="216" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N216" s="106"/>
-      <c r="O216" s="128"/>
-      <c r="P216" s="128"/>
-      <c r="Q216" s="128"/>
-      <c r="R216" s="128"/>
-      <c r="S216" s="128"/>
-      <c r="T216" s="128"/>
-      <c r="U216" s="128"/>
-      <c r="V216" s="128"/>
-      <c r="W216" s="128"/>
-      <c r="X216" s="128"/>
       <c r="Y216" s="102"/>
       <c r="Z216" s="106"/>
-      <c r="AA216" s="128"/>
-      <c r="AB216" s="128"/>
-      <c r="AC216" s="128"/>
-      <c r="AD216" s="128"/>
-      <c r="AE216" s="128"/>
-      <c r="AF216" s="128"/>
-      <c r="AG216" s="128"/>
-      <c r="AH216" s="128"/>
-      <c r="AI216" s="128"/>
       <c r="AJ216" s="102"/>
-      <c r="AK216" s="128"/>
-      <c r="AL216" s="128"/>
-      <c r="AM216" s="128"/>
-      <c r="AN216" s="128"/>
-      <c r="AO216" s="128"/>
-      <c r="AP216" s="128"/>
-      <c r="AQ216" s="128"/>
-      <c r="AR216" s="128"/>
-      <c r="AS216" s="128"/>
-      <c r="AT216" s="128"/>
-      <c r="AU216" s="128"/>
       <c r="AV216" s="102"/>
     </row>
     <row r="217" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N217" s="106"/>
-      <c r="O217" s="128"/>
-      <c r="P217" s="128"/>
-      <c r="Q217" s="128"/>
-      <c r="R217" s="128"/>
-      <c r="S217" s="128"/>
-      <c r="T217" s="128"/>
-      <c r="U217" s="128"/>
-      <c r="V217" s="128"/>
-      <c r="W217" s="128"/>
-      <c r="X217" s="128"/>
       <c r="Y217" s="102"/>
       <c r="Z217" s="106"/>
-      <c r="AA217" s="128"/>
-      <c r="AB217" s="128"/>
-      <c r="AC217" s="128"/>
-      <c r="AD217" s="128"/>
-      <c r="AE217" s="128"/>
-      <c r="AF217" s="128"/>
-      <c r="AG217" s="128"/>
-      <c r="AH217" s="128"/>
-      <c r="AI217" s="128"/>
       <c r="AJ217" s="102"/>
-      <c r="AK217" s="128"/>
-      <c r="AL217" s="128"/>
-      <c r="AM217" s="128"/>
-      <c r="AN217" s="128"/>
-      <c r="AO217" s="128"/>
-      <c r="AP217" s="128"/>
-      <c r="AQ217" s="128"/>
-      <c r="AR217" s="128"/>
-      <c r="AS217" s="128"/>
-      <c r="AT217" s="128"/>
-      <c r="AU217" s="128"/>
       <c r="AV217" s="102"/>
     </row>
     <row r="218" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N218" s="106"/>
-      <c r="O218" s="128"/>
-      <c r="P218" s="128"/>
-      <c r="Q218" s="128"/>
-      <c r="R218" s="128"/>
-      <c r="S218" s="128"/>
-      <c r="T218" s="128"/>
-      <c r="U218" s="128"/>
-      <c r="V218" s="128"/>
-      <c r="W218" s="128"/>
-      <c r="X218" s="128"/>
       <c r="Y218" s="102"/>
       <c r="Z218" s="106"/>
-      <c r="AA218" s="128"/>
-      <c r="AB218" s="128"/>
-      <c r="AC218" s="128"/>
-      <c r="AD218" s="128"/>
-      <c r="AE218" s="128"/>
-      <c r="AF218" s="128"/>
-      <c r="AG218" s="128"/>
-      <c r="AH218" s="128"/>
-      <c r="AI218" s="128"/>
       <c r="AJ218" s="102"/>
-      <c r="AK218" s="128"/>
-      <c r="AL218" s="128"/>
-      <c r="AM218" s="128"/>
-      <c r="AN218" s="128"/>
-      <c r="AO218" s="128"/>
-      <c r="AP218" s="128"/>
-      <c r="AQ218" s="128"/>
-      <c r="AR218" s="128"/>
-      <c r="AS218" s="128"/>
-      <c r="AT218" s="128"/>
-      <c r="AU218" s="128"/>
       <c r="AV218" s="102"/>
     </row>
     <row r="219" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N219" s="106"/>
-      <c r="O219" s="128"/>
-      <c r="P219" s="128"/>
-      <c r="Q219" s="128"/>
-      <c r="R219" s="128"/>
-      <c r="S219" s="128"/>
-      <c r="T219" s="128"/>
-      <c r="U219" s="128"/>
-      <c r="V219" s="128"/>
-      <c r="W219" s="128"/>
-      <c r="X219" s="128"/>
       <c r="Y219" s="102"/>
       <c r="Z219" s="106"/>
-      <c r="AA219" s="128"/>
-      <c r="AB219" s="128"/>
-      <c r="AC219" s="128"/>
-      <c r="AD219" s="128"/>
-      <c r="AE219" s="128"/>
-      <c r="AF219" s="128"/>
-      <c r="AG219" s="128"/>
-      <c r="AH219" s="128"/>
-      <c r="AI219" s="128"/>
       <c r="AJ219" s="102"/>
-      <c r="AK219" s="128"/>
-      <c r="AL219" s="128"/>
-      <c r="AM219" s="128"/>
-      <c r="AN219" s="128"/>
-      <c r="AO219" s="128"/>
-      <c r="AP219" s="128"/>
-      <c r="AQ219" s="128"/>
-      <c r="AR219" s="128"/>
-      <c r="AS219" s="128"/>
-      <c r="AT219" s="128"/>
-      <c r="AU219" s="128"/>
       <c r="AV219" s="102"/>
     </row>
     <row r="220" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N220" s="106"/>
-      <c r="O220" s="128"/>
-      <c r="P220" s="128"/>
-      <c r="Q220" s="128"/>
-      <c r="R220" s="128"/>
-      <c r="S220" s="128"/>
-      <c r="T220" s="128"/>
-      <c r="U220" s="128"/>
-      <c r="V220" s="128"/>
-      <c r="W220" s="128"/>
-      <c r="X220" s="128"/>
       <c r="Y220" s="102"/>
       <c r="Z220" s="106"/>
-      <c r="AA220" s="128"/>
-      <c r="AB220" s="128"/>
-      <c r="AC220" s="128"/>
-      <c r="AD220" s="128"/>
-      <c r="AE220" s="128"/>
-      <c r="AF220" s="128"/>
-      <c r="AG220" s="128"/>
-      <c r="AH220" s="128"/>
-      <c r="AI220" s="128"/>
       <c r="AJ220" s="102"/>
-      <c r="AK220" s="128"/>
-      <c r="AL220" s="128"/>
-      <c r="AM220" s="128"/>
-      <c r="AN220" s="128"/>
-      <c r="AO220" s="128"/>
-      <c r="AP220" s="128"/>
-      <c r="AQ220" s="128"/>
-      <c r="AR220" s="128"/>
-      <c r="AS220" s="128"/>
-      <c r="AT220" s="128"/>
-      <c r="AU220" s="128"/>
       <c r="AV220" s="102"/>
     </row>
     <row r="221" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N221" s="106"/>
-      <c r="O221" s="128"/>
-      <c r="P221" s="128" t="s">
+      <c r="P221" t="s">
         <v>52</v>
       </c>
-      <c r="Q221" s="128"/>
-      <c r="R221" s="128"/>
-      <c r="S221" s="128"/>
-      <c r="T221" s="128"/>
-      <c r="U221" s="128"/>
-      <c r="V221" s="128"/>
-      <c r="W221" s="128"/>
-      <c r="X221" s="128"/>
       <c r="Y221" s="102"/>
       <c r="Z221" s="106"/>
-      <c r="AA221" s="128" t="s">
+      <c r="AA221" t="s">
         <v>62</v>
       </c>
-      <c r="AB221" s="128"/>
-      <c r="AC221" s="128"/>
-      <c r="AD221" s="128"/>
-      <c r="AE221" s="128"/>
-      <c r="AF221" s="128"/>
-      <c r="AG221" s="128"/>
-      <c r="AH221" s="128"/>
-      <c r="AI221" s="128"/>
       <c r="AJ221" s="102"/>
-      <c r="AK221" s="128"/>
-      <c r="AL221" s="128"/>
-      <c r="AM221" s="128"/>
-      <c r="AN221" s="128"/>
-      <c r="AO221" s="128"/>
-      <c r="AP221" s="128"/>
-      <c r="AQ221" s="128"/>
-      <c r="AR221" s="128"/>
-      <c r="AS221" s="128"/>
-      <c r="AT221" s="128"/>
-      <c r="AU221" s="128"/>
       <c r="AV221" s="102"/>
     </row>
     <row r="222" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N222" s="106"/>
-      <c r="O222" s="128"/>
-      <c r="P222" s="128"/>
-      <c r="Q222" s="128"/>
-      <c r="R222" s="128"/>
-      <c r="S222" s="128"/>
-      <c r="T222" s="128"/>
-      <c r="U222" s="128"/>
-      <c r="V222" s="128"/>
-      <c r="W222" s="128"/>
-      <c r="X222" s="128"/>
       <c r="Y222" s="102"/>
       <c r="Z222" s="106"/>
-      <c r="AA222" s="128"/>
-      <c r="AB222" s="128"/>
-      <c r="AC222" s="128"/>
-      <c r="AD222" s="128"/>
-      <c r="AE222" s="128"/>
-      <c r="AF222" s="128"/>
-      <c r="AG222" s="128"/>
-      <c r="AH222" s="128"/>
-      <c r="AI222" s="128"/>
       <c r="AJ222" s="102"/>
-      <c r="AK222" s="128"/>
-      <c r="AL222" s="128"/>
-      <c r="AM222" s="128"/>
-      <c r="AN222" s="128"/>
-      <c r="AO222" s="128"/>
-      <c r="AP222" s="128"/>
-      <c r="AQ222" s="128"/>
-      <c r="AR222" s="128"/>
-      <c r="AS222" s="128"/>
-      <c r="AT222" s="128"/>
-      <c r="AU222" s="128"/>
       <c r="AV222" s="102"/>
     </row>
     <row r="223" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N223" s="106"/>
-      <c r="O223" s="128"/>
-      <c r="P223" s="128"/>
-      <c r="Q223" s="128"/>
-      <c r="R223" s="128"/>
-      <c r="S223" s="128"/>
-      <c r="T223" s="128"/>
-      <c r="U223" s="128"/>
-      <c r="V223" s="128"/>
-      <c r="W223" s="128"/>
-      <c r="X223" s="128"/>
       <c r="Y223" s="102"/>
       <c r="Z223" s="106"/>
-      <c r="AA223" s="128"/>
-      <c r="AB223" s="128"/>
-      <c r="AC223" s="128"/>
-      <c r="AD223" s="128"/>
-      <c r="AE223" s="128"/>
-      <c r="AF223" s="128"/>
-      <c r="AG223" s="128"/>
-      <c r="AH223" s="128"/>
-      <c r="AI223" s="128"/>
       <c r="AJ223" s="102"/>
-      <c r="AK223" s="128"/>
-      <c r="AL223" s="128"/>
-      <c r="AM223" s="128"/>
-      <c r="AN223" s="128"/>
-      <c r="AO223" s="128"/>
-      <c r="AP223" s="128"/>
-      <c r="AQ223" s="128"/>
-      <c r="AR223" s="128"/>
-      <c r="AS223" s="128"/>
-      <c r="AT223" s="128"/>
-      <c r="AU223" s="128"/>
       <c r="AV223" s="102"/>
     </row>
     <row r="224" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N224" s="106"/>
-      <c r="O224" s="128"/>
-      <c r="P224" s="128"/>
-      <c r="Q224" s="128"/>
-      <c r="R224" s="128"/>
-      <c r="S224" s="128"/>
-      <c r="T224" s="128"/>
-      <c r="U224" s="128"/>
-      <c r="V224" s="128"/>
-      <c r="W224" s="128"/>
-      <c r="X224" s="128"/>
       <c r="Y224" s="102"/>
       <c r="Z224" s="106"/>
-      <c r="AA224" s="128"/>
-      <c r="AB224" s="128"/>
-      <c r="AC224" s="128"/>
-      <c r="AD224" s="128"/>
-      <c r="AE224" s="128"/>
-      <c r="AF224" s="128"/>
-      <c r="AG224" s="128"/>
-      <c r="AH224" s="128"/>
-      <c r="AI224" s="128"/>
       <c r="AJ224" s="102"/>
-      <c r="AK224" s="128"/>
-      <c r="AL224" s="128"/>
-      <c r="AM224" s="128"/>
-      <c r="AN224" s="128"/>
-      <c r="AO224" s="128"/>
-      <c r="AP224" s="128"/>
-      <c r="AQ224" s="128"/>
-      <c r="AR224" s="128"/>
-      <c r="AS224" s="128"/>
-      <c r="AT224" s="128"/>
-      <c r="AU224" s="128"/>
       <c r="AV224" s="102"/>
     </row>
     <row r="225" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N225" s="106"/>
-      <c r="O225" s="128"/>
-      <c r="P225" s="128"/>
-      <c r="Q225" s="128"/>
-      <c r="R225" s="128"/>
-      <c r="S225" s="128"/>
-      <c r="T225" s="128"/>
-      <c r="U225" s="128"/>
-      <c r="V225" s="128"/>
-      <c r="W225" s="128"/>
-      <c r="X225" s="128"/>
       <c r="Y225" s="102"/>
       <c r="Z225" s="106"/>
-      <c r="AA225" s="128"/>
-      <c r="AB225" s="128"/>
-      <c r="AC225" s="128"/>
-      <c r="AD225" s="128"/>
-      <c r="AE225" s="128"/>
-      <c r="AF225" s="128"/>
-      <c r="AG225" s="128"/>
-      <c r="AH225" s="128"/>
-      <c r="AI225" s="128"/>
       <c r="AJ225" s="102"/>
-      <c r="AK225" s="128"/>
-      <c r="AL225" s="128"/>
-      <c r="AM225" s="128"/>
-      <c r="AN225" s="128"/>
-      <c r="AO225" s="128"/>
-      <c r="AP225" s="128"/>
-      <c r="AQ225" s="128"/>
-      <c r="AR225" s="128"/>
-      <c r="AS225" s="128"/>
-      <c r="AT225" s="128"/>
-      <c r="AU225" s="128"/>
       <c r="AV225" s="102"/>
     </row>
     <row r="226" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N226" s="106"/>
-      <c r="O226" s="128"/>
-      <c r="P226" s="128"/>
-      <c r="Q226" s="128"/>
-      <c r="R226" s="128"/>
-      <c r="S226" s="128"/>
-      <c r="T226" s="128"/>
-      <c r="U226" s="128"/>
-      <c r="V226" s="128"/>
-      <c r="W226" s="128"/>
-      <c r="X226" s="128"/>
       <c r="Y226" s="102"/>
       <c r="Z226" s="106"/>
-      <c r="AA226" s="128"/>
-      <c r="AB226" s="128"/>
-      <c r="AC226" s="128"/>
-      <c r="AD226" s="128"/>
-      <c r="AE226" s="128"/>
-      <c r="AF226" s="128"/>
-      <c r="AG226" s="128"/>
-      <c r="AH226" s="128"/>
-      <c r="AI226" s="128"/>
       <c r="AJ226" s="102"/>
-      <c r="AK226" s="128"/>
-      <c r="AL226" s="128"/>
-      <c r="AM226" s="128"/>
-      <c r="AN226" s="128"/>
-      <c r="AO226" s="128"/>
-      <c r="AP226" s="128"/>
-      <c r="AQ226" s="128"/>
-      <c r="AR226" s="128"/>
-      <c r="AS226" s="128"/>
-      <c r="AT226" s="128"/>
-      <c r="AU226" s="128"/>
       <c r="AV226" s="102"/>
     </row>
     <row r="227" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N227" s="106"/>
-      <c r="O227" s="128"/>
-      <c r="P227" s="128"/>
-      <c r="Q227" s="128"/>
-      <c r="R227" s="128"/>
-      <c r="S227" s="128"/>
-      <c r="T227" s="128"/>
-      <c r="U227" s="128"/>
-      <c r="V227" s="128"/>
-      <c r="W227" s="128"/>
-      <c r="X227" s="128"/>
       <c r="Y227" s="102"/>
       <c r="Z227" s="106"/>
-      <c r="AA227" s="128"/>
-      <c r="AB227" s="128"/>
-      <c r="AC227" s="128"/>
-      <c r="AD227" s="128"/>
-      <c r="AE227" s="128"/>
-      <c r="AF227" s="128"/>
-      <c r="AG227" s="128"/>
-      <c r="AH227" s="128"/>
-      <c r="AI227" s="128"/>
       <c r="AJ227" s="102"/>
-      <c r="AK227" s="128"/>
-      <c r="AL227" s="128"/>
-      <c r="AM227" s="128"/>
-      <c r="AN227" s="128"/>
-      <c r="AO227" s="128"/>
-      <c r="AP227" s="128"/>
-      <c r="AQ227" s="128"/>
-      <c r="AR227" s="128"/>
-      <c r="AS227" s="128"/>
-      <c r="AT227" s="128"/>
-      <c r="AU227" s="128"/>
       <c r="AV227" s="102"/>
     </row>
     <row r="228" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N228" s="106"/>
-      <c r="O228" s="128"/>
-      <c r="P228" s="128"/>
-      <c r="Q228" s="128"/>
-      <c r="R228" s="128"/>
-      <c r="S228" s="128"/>
-      <c r="T228" s="128"/>
-      <c r="U228" s="128"/>
-      <c r="V228" s="128"/>
-      <c r="W228" s="128"/>
-      <c r="X228" s="128"/>
       <c r="Y228" s="102"/>
       <c r="Z228" s="106"/>
-      <c r="AA228" s="128"/>
-      <c r="AB228" s="128"/>
-      <c r="AC228" s="128"/>
-      <c r="AD228" s="128"/>
-      <c r="AE228" s="128"/>
-      <c r="AF228" s="128"/>
-      <c r="AG228" s="128"/>
-      <c r="AH228" s="128"/>
-      <c r="AI228" s="128"/>
       <c r="AJ228" s="102"/>
-      <c r="AK228" s="128"/>
-      <c r="AL228" s="128"/>
-      <c r="AM228" s="128"/>
-      <c r="AN228" s="128"/>
-      <c r="AO228" s="128"/>
-      <c r="AP228" s="128"/>
-      <c r="AQ228" s="128"/>
-      <c r="AR228" s="128"/>
-      <c r="AS228" s="128"/>
-      <c r="AT228" s="128"/>
-      <c r="AU228" s="128"/>
       <c r="AV228" s="102"/>
     </row>
     <row r="229" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N229" s="106"/>
-      <c r="O229" s="128"/>
-      <c r="P229" s="128"/>
-      <c r="Q229" s="128"/>
-      <c r="R229" s="128"/>
-      <c r="S229" s="128"/>
-      <c r="T229" s="128"/>
-      <c r="U229" s="128"/>
-      <c r="V229" s="128"/>
-      <c r="W229" s="128"/>
-      <c r="X229" s="128"/>
       <c r="Y229" s="102"/>
       <c r="Z229" s="106"/>
-      <c r="AA229" s="128"/>
-      <c r="AB229" s="128"/>
-      <c r="AC229" s="128"/>
-      <c r="AD229" s="128"/>
-      <c r="AE229" s="128"/>
-      <c r="AF229" s="128"/>
-      <c r="AG229" s="128"/>
-      <c r="AH229" s="128"/>
-      <c r="AI229" s="128"/>
       <c r="AJ229" s="102"/>
-      <c r="AK229" s="128"/>
-      <c r="AL229" s="128"/>
-      <c r="AM229" s="128"/>
-      <c r="AN229" s="128"/>
-      <c r="AO229" s="128"/>
-      <c r="AP229" s="128"/>
-      <c r="AQ229" s="128"/>
-      <c r="AR229" s="128"/>
-      <c r="AS229" s="128"/>
-      <c r="AT229" s="128"/>
-      <c r="AU229" s="128"/>
       <c r="AV229" s="102"/>
     </row>
     <row r="230" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N230" s="106"/>
-      <c r="O230" s="128"/>
-      <c r="P230" s="128"/>
-      <c r="Q230" s="128"/>
-      <c r="R230" s="128"/>
-      <c r="S230" s="128"/>
-      <c r="T230" s="128"/>
-      <c r="U230" s="128"/>
-      <c r="V230" s="128"/>
-      <c r="W230" s="128"/>
-      <c r="X230" s="128"/>
       <c r="Y230" s="102"/>
       <c r="Z230" s="106"/>
-      <c r="AA230" s="128"/>
-      <c r="AB230" s="128"/>
-      <c r="AC230" s="128"/>
-      <c r="AD230" s="128"/>
-      <c r="AE230" s="128"/>
-      <c r="AF230" s="128"/>
-      <c r="AG230" s="128"/>
-      <c r="AH230" s="128"/>
-      <c r="AI230" s="128"/>
       <c r="AJ230" s="102"/>
-      <c r="AK230" s="128"/>
-      <c r="AL230" s="128"/>
-      <c r="AM230" s="128"/>
-      <c r="AN230" s="128"/>
-      <c r="AO230" s="128"/>
-      <c r="AP230" s="128"/>
-      <c r="AQ230" s="128"/>
-      <c r="AR230" s="128"/>
-      <c r="AS230" s="128"/>
-      <c r="AT230" s="128"/>
-      <c r="AU230" s="128"/>
       <c r="AV230" s="102"/>
     </row>
     <row r="231" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N231" s="106"/>
-      <c r="O231" s="128"/>
-      <c r="P231" s="128"/>
-      <c r="Q231" s="128"/>
-      <c r="R231" s="128"/>
-      <c r="S231" s="128"/>
-      <c r="T231" s="128"/>
-      <c r="U231" s="128"/>
-      <c r="V231" s="128"/>
-      <c r="W231" s="128"/>
-      <c r="X231" s="128"/>
       <c r="Y231" s="102"/>
       <c r="Z231" s="106"/>
-      <c r="AA231" s="128"/>
-      <c r="AB231" s="128"/>
-      <c r="AC231" s="128"/>
-      <c r="AD231" s="128"/>
-      <c r="AE231" s="128"/>
-      <c r="AF231" s="128"/>
-      <c r="AG231" s="128"/>
-      <c r="AH231" s="128"/>
-      <c r="AI231" s="128"/>
       <c r="AJ231" s="102"/>
-      <c r="AK231" s="128"/>
-      <c r="AL231" s="128"/>
-      <c r="AM231" s="128"/>
-      <c r="AN231" s="128"/>
-      <c r="AO231" s="128"/>
-      <c r="AP231" s="128"/>
-      <c r="AQ231" s="128"/>
-      <c r="AR231" s="128"/>
-      <c r="AS231" s="128"/>
-      <c r="AT231" s="128"/>
-      <c r="AU231" s="128"/>
       <c r="AV231" s="102"/>
     </row>
     <row r="232" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N232" s="106"/>
-      <c r="O232" s="128"/>
-      <c r="P232" s="128"/>
-      <c r="Q232" s="128"/>
-      <c r="R232" s="128"/>
-      <c r="S232" s="128"/>
-      <c r="T232" s="128"/>
-      <c r="U232" s="128"/>
-      <c r="V232" s="128"/>
-      <c r="W232" s="128"/>
-      <c r="X232" s="128"/>
       <c r="Y232" s="102"/>
       <c r="Z232" s="106"/>
-      <c r="AA232" s="128"/>
-      <c r="AB232" s="128"/>
-      <c r="AC232" s="128"/>
-      <c r="AD232" s="128"/>
-      <c r="AE232" s="128"/>
-      <c r="AF232" s="128"/>
-      <c r="AG232" s="128"/>
-      <c r="AH232" s="128"/>
-      <c r="AI232" s="128"/>
       <c r="AJ232" s="102"/>
-      <c r="AK232" s="128"/>
-      <c r="AL232" s="128"/>
-      <c r="AM232" s="128"/>
-      <c r="AN232" s="128"/>
-      <c r="AO232" s="128"/>
-      <c r="AP232" s="128"/>
-      <c r="AQ232" s="128"/>
-      <c r="AR232" s="128"/>
-      <c r="AS232" s="128"/>
-      <c r="AT232" s="128"/>
-      <c r="AU232" s="128"/>
       <c r="AV232" s="102"/>
     </row>
     <row r="233" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N233" s="106"/>
-      <c r="O233" s="128"/>
-      <c r="P233" s="128"/>
-      <c r="Q233" s="128"/>
-      <c r="R233" s="128"/>
-      <c r="S233" s="128"/>
-      <c r="T233" s="128"/>
-      <c r="U233" s="128"/>
-      <c r="V233" s="128"/>
-      <c r="W233" s="128"/>
-      <c r="X233" s="128"/>
       <c r="Y233" s="102"/>
       <c r="Z233" s="106"/>
-      <c r="AA233" s="128"/>
-      <c r="AB233" s="128"/>
-      <c r="AC233" s="128"/>
-      <c r="AD233" s="128"/>
-      <c r="AE233" s="128"/>
-      <c r="AF233" s="128"/>
-      <c r="AG233" s="128"/>
-      <c r="AH233" s="128"/>
-      <c r="AI233" s="128"/>
       <c r="AJ233" s="102"/>
-      <c r="AK233" s="128"/>
-      <c r="AL233" s="128"/>
-      <c r="AM233" s="128"/>
-      <c r="AN233" s="128"/>
-      <c r="AO233" s="128"/>
-      <c r="AP233" s="128"/>
-      <c r="AQ233" s="128"/>
-      <c r="AR233" s="128"/>
-      <c r="AS233" s="128"/>
-      <c r="AT233" s="128"/>
-      <c r="AU233" s="128"/>
       <c r="AV233" s="102"/>
     </row>
     <row r="234" spans="14:48" x14ac:dyDescent="0.25">
       <c r="N234" s="106"/>
-      <c r="O234" s="128"/>
-      <c r="P234" s="128"/>
-      <c r="Q234" s="128"/>
-      <c r="R234" s="128"/>
